--- a/projects/YanFeng/02 System Design/User Stories/User Stories.xlsx
+++ b/projects/YanFeng/02 System Design/User Stories/User Stories.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="1040">
   <si>
     <t>ID</t>
   </si>
@@ -2967,10 +2967,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1, User should see task hierarchy in display area;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>ASDE/SQE supervisor;
 ASDE/SQE</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -2980,86 +2976,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>I can track and update project tasks and part tasks</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Read-Only Fields: S.No;WBS;Deliverable No;Deliverable Name;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>ASDE/SQE suppervisor;</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Have rights to view all APQP/PPAP/PPQP tasks</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Have rights to audit(Approve, Decline, Add comments) APQP/PPAP/PPQP tasks</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can audit each APQP/PPAP/PPQP task</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, User should be able to select audit decision (approve, Decline) of each APQP/PPAP/PPQP task
-2, User should be able to add comments to each task when decision has been made;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASDE/SQE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can audit(Approve, Decline, Add comments) APQP/PPAP/PPQP tasks which were assigned to me</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Select the audit status (Approve, Decline) and add comments by each APQP/PPAP/PPQP task that were assigned to me</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASDE/SQE suppervisor;
-ASDE/SQE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Save my audit information</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can send my audit information to next step</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, User should see "Save" bar in task toolbar;
-2, User should see pop-up window with prompt information of successful or failure; if failure occurred, system should provide the reason of failure and provide suggestions;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Supplier</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3068,26 +2988,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>View and operate the APQP/PPAP/PPQP tasks that assigned to me</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>View the parent nodes(part task, Project task) of APQP/PPAP/PPQP tasks that assigned to me</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can categorize and track task details</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fill PPAP information</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fill APQP information</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>I can save the PPAP information</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3104,19 +3004,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Fill PPQP information </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>to be defined by customer</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Cancel APQP/PPAP/PPQP inputs</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can give my inputs and close the pop-up window</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -3126,24 +3018,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Submit APAP/PPAP/PPQP information</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can deliver the APQP/PPAP/PPQP task and trigger the approval process</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, User should be able to click "Submit" button;
-2, User should be prompted with message of successff ful or failure, if failure occurred, system should prompt user with reason and suggestion;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Receive an email of my submission</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can view and track my deliverables</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -3153,10 +3028,6 @@
   </si>
   <si>
     <t>Receive an internal message of my submission</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can view and track my deliverables in system internally</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -3382,21 +3253,6 @@
   <si>
     <t>ASDE/SQE supervisor
 ASDE/SQE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can terminate the APAP/PPAP/PPQP task</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASDE/SQE supervisor
-ASDE/SQE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1, User should get the message of successful or failure;
-2, APQP\PPAP\PPQP task status should be set to closed;
-3, User should see </t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -3440,23 +3296,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Close current APQP/PPAP/PPQP task by selecting the menu item of "Close" in the floating menu</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reopen the closed APQP/PPQP/PPAP task by selecting the menu item of "Reopen" in the floating menu</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can restart the APQP/PPAP/PPQP process when prerequisites changed</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, User should see the menu item "reopen" in floating menu of APQP/PPAP/PPQP;
-2, User should  rececive the notification via both internal message and mail;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>US130</t>
   </si>
   <si>
@@ -3567,38 +3406,12 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>See all part tasks that assigned to him/her</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>I can work on the assigned part task</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1, User should see the part tasks assigned to him/her;
 2, User should be able to view the parent project main task of current part tasks;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Decline the part task that assigned to me</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can send the part task back to ASDE/SQE supervisro for more information</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, User should see project task and part tasks hierarchy;
-2, User should be able to change the fields' values of project task and part tasks;
-3, User should be able save changes by clicking icon "Save" in the task toolbar;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Have rights to view and operate  all project tasks, all part tasks that assigned to me</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can review and track APQP/PPAP/PPQP tasks</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -3616,13 +3429,6 @@
   <si>
     <t>ASDE/SQE supervisor;
 ASDE/SQE;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, The comments of decline is required;
-2, User should see value "Decline" in task status dropdown list;
-3, User should see button "Submit Task";
-4, The assignee of part task should be set to project owner (Previously ASDE/SQE supervisor who owned this project)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -3804,13 +3610,6 @@
 5, User should see the menu item "import Parts" in float menu;</t>
   </si>
   <si>
-    <t>Task hierarchy convention:
-1, When project node selected in Task Tree View: Task hierarchy should be "Project Task --&gt; Part Tasks --&gt; APQP/PPAP/PPQP tasks;
-2, When part node selected in Task Tree View: Task hierarchy should be "Part Task --&gt; APQP/PPAP/PPQP Tasks;
-3, When APQP/PPAP/PPQP node selected in Task Tree View: Task hierarchy should be "APQP/PPAP/PPQP task details"
-4, APAP/PPAP/PPQP task details are based on the definition of APAP/PPAP/PPQP templates;</t>
-  </si>
-  <si>
     <t>I can manage the imported project</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3898,21 +3697,6 @@
     <t>1, User should see the APQP/PPAP/PPQP tasks that assigned to him/her in task list view;</t>
   </si>
   <si>
-    <t>1, User should view the part task and project task which contains the APQP/PPAP/PPAP task that assigned to him/her in task list view;(read-only mode)</t>
-  </si>
-  <si>
-    <t>1, User should see a pop-up window with information of A APQP task that need to be filled (when user double click a APQP task in task list view);
-2, User should see "Save" button;
-3, User should see "Submit" button;
-4, User should see "Cancel" button;</t>
-  </si>
-  <si>
-    <t>1, User should see a pop-up window with information of a PPAP task that need to be filled(when user double click a PPAP task in task list view);
-2, User should see "Save" button;
-3, User should see "Submit" button;
-4, User should see "Cancel" button;</t>
-  </si>
-  <si>
     <t>1, User should see new internal message in Activity module;
 2, User should be forword to the task list view page(the corresponding task should be highlighted) by clicking the task link in the internal message;</t>
   </si>
@@ -3951,10 +3735,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>I can assign the part tasks to ASDE/SQE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>See the menu "Task" in Project menu area</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3968,10 +3748,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>View the task list in Display area</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>I can operate the tasks base on the task list</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3981,10 +3757,6 @@
   </si>
   <si>
     <t>I can task toolbar to do quickly operation</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>See and occupy all project main tasks which has not bee assigned</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -4001,10 +3773,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Create PPAP main task under a part</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>I can manage(change part schedule, assignee,etc) the part tasks</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -4014,11 +3782,6 @@
   </si>
   <si>
     <t>I can allocate assignee for each APQP task</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASDE/SQE supervisor;
-ASDE/SQE</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -4058,13 +3821,489 @@
 3, The assignee of PPAP main task should be set to the creator initially;
 4, User should see the new PPAP main task in both task tree view and task list view</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can send the part tasks to ASDE/SQE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>See and occupy the project main tasks which has not bee assigned</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>See the task list in Display area</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">See the task tree view </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see the fields : No(read-only),Task Name, Request Start Date,Request Finish Date,Deliver Date, Confirm Date, % Complete, Approver,Owner,Status, Budget Days, Budget Hrs, Comments;
+2, User should see attachments list;
+3, User should see "Save" "Close Project" "Cancel" buttons;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attache files to a project main task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can provide the reference documents for the project members</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>See all part tasks that assigned to me</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can send the part task back to ASDE/SQE supervisor for more information</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fill part task information</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">I can save and submit the part task information </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close a project main task once the sub-tasks of the project main task are all closed</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can terminate the project and hand it over</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see the fields : No(read-only),Task Name, Request Start Date,Request Finish Date,Deliver Date, Confirm Date, % Complete, Approver,Owner,Status, Budget Days, Budget Hrs, Comments;
+2, User should see attachments list;
+3, User should see "Save" "Cancel" buttons;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see the value of "Close" in dropdown list of status(window - Edit Project Main Task Information);
+2, User should see "Save" button;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add attachements to the part task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can provide the relative reference for the part task processors</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see attachments list in page "Edit Project Main Task Information;
+2, User shouls see "update" button;
+3, User should see a new pop-up form which allows user to upload files;
+4, User should see three most recent attached files in "Edit Project Main Task Information" page;
+5, User should see all attachments in new form when user clicking on the link "more..."</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see attachments list in page "Edit Part Task Information;
+2, User shouls see "update" button;
+3, User should see a new pop-up form which allows user to upload files;
+4, User should see three most recent attached files in "Edit part Task Information" page;
+5, User should see all attachments in new form when user clicking on the link "more..."</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>View all APQP/PPAP/PPQP tasks</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can review and track APQP/PPAP/PPQP tasks status</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approve APQP/PPAP tasks</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDE/SQE suppervisor;
+ASDE/SQE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reject APQP/PPAP tasks</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDE/SQE suppervisor;
+ASDE/SQE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can accept supplier's submission</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see value of "Approved" in dropdown list "Status" in the window "Edit APAP task information";
+2, User should see value of "Approved" in dropdown list "Status" in the window "Edit PPAP task information"
+3, User should see button "Submit Task" in window "Edit APAP task information" and window  "Edit PPAP task information";</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can return the task back to supplier for more inputs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see value of "Rejected" in dropdown list "Status" in the window "Edit APAP task information";
+2, User should see value of "Rejected" in dropdown list "Status" in the window "Edit PPAP task information"
+3, User should see button "Submit Task" in window "Edit APAP task information" and window  "Edit PPAP task information";</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close APQP/PPAP tasks</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I clear the finished tasks</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see value of "Closed" in dropdown list "Status" in the window "Edit APAP task information";
+2, User should see value of "Closed" in dropdown list "Status" in the window "Edit PPAP task information"
+3, User should see button "Submit Task" in window "Edit APAP task information" and window  "Edit PPAP task information";</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can restart the closed tasks</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see value of "Reopen" in dropdown list "Status" in the window "Edit APAP task information";
+2, User should see value of "Reopen" in dropdown list "Status" in the window "Edit PPAP task information"
+3, User should see button "Submit Task" in window "Edit APAP task information" and window  "Edit PPAP task information";</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reopen APQP/PPAP tasks</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>add comments to APQP/PPAP tasks</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can give my suggestions to next task processor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>See more comments of APQP/PPAP tasks</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can track the task history</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see a link "More…" beside the field "Comments";
+2, User should see the comments list in new pop-up form;
+3, User should be able to close above new pop-up window;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Submit APQP/PPAP task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can send the APQP/PPAP task to next processor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see the field "Comments" in window "Edit APAP task information" and window "Edit PPAP task information";</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see button "Submit" in window "Edit APAP task information" and window "Edit PPAP task information";</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can give up my inputs and close the pop-up window</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>See the APQP/PPAP/PPQP tasks that assigned to me</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>See the parent tasks(part task, Project main task) of my APQP/PPAP/PPQP tasks</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should view the part task and project task which contains the APQP/PPAP/PPAP task that assigned to him/her in task list view;(read-only mode)
+2, User should view the part task and project task which contains the APQP/PPAP/PPAP task that assigned to him/her in task tree view;(read-only mode)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can drilldown the tasks from Project main task to my APQP/PPAP/PPQP tasks</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see a pop-up window with information of A APQP task that need to be filled (when user double click a APQP task in task list view);
+2, User should see "Save" button;
+3, User should see "Submit Task" button;
+4, User should see "Cancel" button;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see a pop-up window with information of a PPAP task that need to be filled(when user double click a PPAP task in task list view);
+2, User should see "Save" button;
+3, User should see "Submit Task" button;
+4, User should see "Cancel" button;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can send the task to next processor(ASDE/SQE)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should be able to click "Submit Task" button;
+2, User should be prompted with message of successff ful or failure, if failure occurred, system should prompt user with reason and suggestion;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, A task list with header displayed in Display area;
+2, The visiblity of task list column can be customized;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can drilldown the tasks from Project main task to APQP/PPAP/PPQP tasks</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Task Tree Levels: 
+Level 1-&gt;  Project main task
+Level 2-&gt;  Part Task
+Level 3 -&gt; APQP/PPAP/PPQP main task
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approve APQP main task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can approve all APQP tasks as an entire task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, user should be able to select "Approved" value in dropdown list in the window "Edit APQP Main Task Information";</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close APQP main task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can close all APQP tasks as an entire task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, user should be able to select "Closed" value in dropdown list in the window "Edit APQP Main Task Information";</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reopen APQP main task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can reopen all APQP tasks as an entire task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, user should be able to select "Reopen" value in dropdown list in the window "Edit APQP Main Task Information";</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ASDE/SQE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reject the part task that assigned to me</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, The comments of decline is required;
+2, User should see value "Reject" in task status dropdown list;
+3, User should see button "Submit Task";
+4, The assignee of part task should be set to project owner (Previously ASDE/SQE supervisor who owned this project)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close the part task that assigned to me</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can clear the part task once it's sub tasks(APQP/PPAP/PPQP) closed;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User shoud see value "Close" in task status dropdown list;
+2, User should se button "Submit Task";</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reopen the part task that assigned to me</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDE/SQE Supervisor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can reopen the closed part task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User shoud see value "Reopen" in task status dropdown list;
+3, User should se button "Submit Task";</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create PPAP main task under a part</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approve PPAP main task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close PPAP main task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reopen PPAP main task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, user should be able to select "Approved" value in dropdown list in the window "Edit PPAP Main Task Information";</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, user should be able to select "Closed" value in dropdown list in the window "Edit PPAP Main Task Information";</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, user should be able to select "Reopen" value in dropdown list in the window "Edit PPAP Main Task Information";</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDE/SQE suppervisor;
+ASDE/SQE
+Supplier</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDE/SQE suppervisor;
+ASDE/SQE
+Supplier</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDE/SQE suppervisor;
+ASDE/SQE
+Supplier</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDE/SQE
+Supplier</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fill APQP task information</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fill PPAP task information</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill PPQP task information </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can view and track my tasks</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can view and track my tasks in system internally</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Submit APAP/PPAP Task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>US66</t>
+  </si>
+  <si>
+    <t>US155</t>
+  </si>
+  <si>
+    <t>US156</t>
+  </si>
+  <si>
+    <t>US157</t>
+  </si>
+  <si>
+    <t>US158</t>
+  </si>
+  <si>
+    <t>US159</t>
+  </si>
+  <si>
+    <t>US160</t>
+  </si>
+  <si>
+    <t>US161</t>
+  </si>
+  <si>
+    <t>US162</t>
+  </si>
+  <si>
+    <t>US163</t>
+  </si>
+  <si>
+    <t>US164</t>
+  </si>
+  <si>
+    <t>US165</t>
+  </si>
+  <si>
+    <t>US166</t>
+  </si>
+  <si>
+    <t>US167</t>
+  </si>
+  <si>
+    <t>US168</t>
+  </si>
+  <si>
+    <t>US169</t>
+  </si>
+  <si>
+    <t>US170</t>
+  </si>
+  <si>
+    <t>US171</t>
+  </si>
+  <si>
+    <t>US172</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4208,22 +4447,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -4473,7 +4696,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4786,15 +5009,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -4802,6 +5016,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4818,21 +5047,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5367,25 +5581,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="129" t="s">
         <v>566</v>
       </c>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
       <c r="I2" s="98"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="129"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
       <c r="I3" s="99" t="s">
         <v>560</v>
       </c>
@@ -5451,11 +5665,11 @@
       </c>
       <c r="C6" s="99">
         <f>COUNTIF('Project Management'!J:J,"Critical")</f>
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D6" s="99">
         <f>COUNTIF('Project Management'!J:J,"Very High")</f>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E6" s="99">
         <f>COUNTIF('Project Management'!J:J,"High")</f>
@@ -5467,7 +5681,7 @@
       </c>
       <c r="G6" s="99">
         <f>COUNTIF('Project Management'!J:J,"Low")</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H6" s="99">
         <f>COUNTIF('Project Management'!J:J,"Very Low")</f>
@@ -5475,7 +5689,7 @@
       </c>
       <c r="I6" s="99">
         <f t="shared" ref="I6:I12" si="0">SUM(C6:H6)</f>
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
@@ -5682,11 +5896,11 @@
       </c>
       <c r="C13" s="99">
         <f>SUM(C5:C12)</f>
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D13" s="99">
         <f t="shared" ref="D13:H13" si="1">SUM(D5:D12)</f>
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E13" s="99">
         <f t="shared" si="1"/>
@@ -5698,7 +5912,7 @@
       </c>
       <c r="G13" s="99">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H13" s="99">
         <f t="shared" si="1"/>
@@ -5710,16 +5924,16 @@
       <c r="B14" s="102" t="s">
         <v>562</v>
       </c>
-      <c r="C14" s="126">
+      <c r="C14" s="128">
         <f>SUM(C13:H13)</f>
-        <v>157</v>
-      </c>
-      <c r="D14" s="126"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="126"/>
+        <v>171</v>
+      </c>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="128"/>
+      <c r="I14" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12313,11 +12527,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W160"/>
+  <dimension ref="A1:W174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
+      <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12327,7 +12541,7 @@
     <col min="3" max="3" width="28.625" style="16" customWidth="1"/>
     <col min="4" max="4" width="12.25" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.25" style="16" customWidth="1"/>
+    <col min="6" max="6" width="32.875" style="16" customWidth="1"/>
     <col min="7" max="7" width="27.375" style="16" customWidth="1"/>
     <col min="8" max="8" width="51.75" style="119" customWidth="1"/>
     <col min="9" max="9" width="54.375" style="16" customWidth="1"/>
@@ -12449,10 +12663,10 @@
     </row>
     <row r="3" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>903</v>
-      </c>
-      <c r="B3" s="133" t="s">
-        <v>880</v>
+        <v>863</v>
+      </c>
+      <c r="B3" s="125" t="s">
+        <v>840</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>598</v>
@@ -12464,16 +12678,16 @@
         <v>499</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>912</v>
+        <v>872</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>777</v>
+        <v>751</v>
       </c>
       <c r="H3" s="117" t="s">
-        <v>913</v>
+        <v>873</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>779</v>
+        <v>753</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>43</v>
@@ -12496,10 +12710,10 @@
     </row>
     <row r="4" spans="1:23" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>904</v>
-      </c>
-      <c r="B4" s="133" t="s">
-        <v>880</v>
+        <v>864</v>
+      </c>
+      <c r="B4" s="125" t="s">
+        <v>840</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>598</v>
@@ -12511,13 +12725,13 @@
         <v>499</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>824</v>
+        <v>795</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>800</v>
+        <v>774</v>
       </c>
       <c r="H4" s="117" t="s">
-        <v>801</v>
+        <v>775</v>
       </c>
       <c r="I4" s="40"/>
       <c r="J4" s="4" t="s">
@@ -12543,8 +12757,8 @@
       <c r="A5" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B5" s="133" t="s">
-        <v>880</v>
+      <c r="B5" s="125" t="s">
+        <v>840</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>598</v>
@@ -12556,13 +12770,13 @@
         <v>499</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>783</v>
+        <v>757</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>784</v>
+        <v>758</v>
       </c>
       <c r="H5" s="117" t="s">
-        <v>785</v>
+        <v>759</v>
       </c>
       <c r="I5" s="40"/>
       <c r="J5" s="4" t="s">
@@ -12588,8 +12802,8 @@
       <c r="A6" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B6" s="133" t="s">
-        <v>880</v>
+      <c r="B6" s="125" t="s">
+        <v>840</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>598</v>
@@ -12601,16 +12815,16 @@
         <v>499</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>914</v>
+        <v>874</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>778</v>
+        <v>752</v>
       </c>
       <c r="H6" s="117" t="s">
-        <v>915</v>
+        <v>875</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>780</v>
+        <v>754</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>43</v>
@@ -12635,8 +12849,8 @@
       <c r="A7" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="B7" s="133" t="s">
-        <v>880</v>
+      <c r="B7" s="125" t="s">
+        <v>840</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>598</v>
@@ -12648,13 +12862,13 @@
         <v>499</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>791</v>
+        <v>765</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>784</v>
+        <v>758</v>
       </c>
       <c r="H7" s="117" t="s">
-        <v>814</v>
+        <v>788</v>
       </c>
       <c r="I7" s="40"/>
       <c r="J7" s="4" t="s">
@@ -12680,7 +12894,7 @@
       <c r="A8" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B8" s="133" t="s">
+      <c r="B8" s="125" t="s">
         <v>593</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -12693,13 +12907,13 @@
         <v>499</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>825</v>
+        <v>796</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>787</v>
+        <v>761</v>
       </c>
       <c r="H8" s="117" t="s">
-        <v>788</v>
+        <v>762</v>
       </c>
       <c r="I8" s="40"/>
       <c r="J8" s="4" t="s">
@@ -12725,8 +12939,8 @@
       <c r="A9" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B9" s="133" t="s">
-        <v>880</v>
+      <c r="B9" s="125" t="s">
+        <v>840</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>598</v>
@@ -12738,16 +12952,16 @@
         <v>499</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>916</v>
+        <v>876</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>781</v>
+        <v>755</v>
       </c>
       <c r="H9" s="117" t="s">
-        <v>917</v>
+        <v>877</v>
       </c>
       <c r="I9" s="40" t="s">
-        <v>782</v>
+        <v>756</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>43</v>
@@ -12772,8 +12986,8 @@
       <c r="A10" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B10" s="133" t="s">
-        <v>880</v>
+      <c r="B10" s="125" t="s">
+        <v>840</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>598</v>
@@ -12782,16 +12996,16 @@
         <v>497</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>812</v>
+        <v>786</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>813</v>
+        <v>787</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>784</v>
+        <v>758</v>
       </c>
       <c r="H10" s="117" t="s">
-        <v>815</v>
+        <v>789</v>
       </c>
       <c r="I10" s="40"/>
       <c r="J10" s="4" t="s">
@@ -12817,8 +13031,8 @@
       <c r="A11" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B11" s="133" t="s">
-        <v>880</v>
+      <c r="B11" s="125" t="s">
+        <v>840</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>598</v>
@@ -12827,16 +13041,16 @@
         <v>497</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>816</v>
+        <v>790</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>827</v>
+        <v>798</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>787</v>
+        <v>761</v>
       </c>
       <c r="H11" s="117" t="s">
-        <v>788</v>
+        <v>762</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
@@ -12862,8 +13076,8 @@
       <c r="A12" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B12" s="132" t="s">
-        <v>879</v>
+      <c r="B12" s="124" t="s">
+        <v>839</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>500</v>
@@ -12875,13 +13089,13 @@
         <v>499</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>921</v>
+        <v>880</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>911</v>
+        <v>871</v>
       </c>
       <c r="H12" s="117" t="s">
-        <v>935</v>
+        <v>894</v>
       </c>
       <c r="I12" s="34"/>
       <c r="J12" s="4" t="s">
@@ -12907,8 +13121,8 @@
       <c r="A13" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B13" s="132" t="s">
-        <v>879</v>
+      <c r="B13" s="124" t="s">
+        <v>839</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>500</v>
@@ -12920,13 +13134,13 @@
         <v>499</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>922</v>
+        <v>881</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>920</v>
+        <v>879</v>
       </c>
       <c r="H13" s="117" t="s">
-        <v>934</v>
+        <v>893</v>
       </c>
       <c r="I13" s="34"/>
       <c r="J13" s="4" t="s">
@@ -12950,10 +13164,10 @@
     </row>
     <row r="14" spans="1:23" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B14" s="132" t="s">
-        <v>879</v>
+        <v>529</v>
+      </c>
+      <c r="B14" s="124" t="s">
+        <v>839</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>500</v>
@@ -12965,13 +13179,13 @@
         <v>499</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>929</v>
+        <v>888</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>923</v>
+        <v>882</v>
       </c>
       <c r="H14" s="117" t="s">
-        <v>930</v>
+        <v>889</v>
       </c>
       <c r="I14" s="34" t="s">
         <v>689</v>
@@ -12997,10 +13211,10 @@
     </row>
     <row r="15" spans="1:23" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="B15" s="132" t="s">
-        <v>879</v>
+        <v>267</v>
+      </c>
+      <c r="B15" s="124" t="s">
+        <v>839</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>500</v>
@@ -13012,7 +13226,7 @@
         <v>499</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>927</v>
+        <v>886</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>595</v>
@@ -13044,10 +13258,10 @@
     </row>
     <row r="16" spans="1:23" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B16" s="132" t="s">
-        <v>879</v>
+        <v>272</v>
+      </c>
+      <c r="B16" s="124" t="s">
+        <v>839</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>500</v>
@@ -13056,16 +13270,16 @@
         <v>497</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>932</v>
+        <v>891</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>786</v>
+        <v>760</v>
       </c>
       <c r="H16" s="117" t="s">
-        <v>933</v>
+        <v>892</v>
       </c>
       <c r="I16" s="40"/>
       <c r="J16" s="4" t="s">
@@ -13089,10 +13303,10 @@
     </row>
     <row r="17" spans="1:23" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B17" s="132" t="s">
-        <v>879</v>
+        <v>279</v>
+      </c>
+      <c r="B17" s="124" t="s">
+        <v>839</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>500</v>
@@ -13104,13 +13318,13 @@
         <v>499</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>931</v>
+        <v>890</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>511</v>
       </c>
       <c r="H17" s="117" t="s">
-        <v>928</v>
+        <v>887</v>
       </c>
       <c r="I17" s="34"/>
       <c r="J17" s="4" t="s">
@@ -13134,10 +13348,10 @@
     </row>
     <row r="18" spans="1:23" ht="120" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="B18" s="132" t="s">
-        <v>879</v>
+        <v>280</v>
+      </c>
+      <c r="B18" s="124" t="s">
+        <v>839</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>500</v>
@@ -13149,13 +13363,13 @@
         <v>499</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>924</v>
+        <v>883</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>501</v>
       </c>
       <c r="H18" s="117" t="s">
-        <v>925</v>
+        <v>884</v>
       </c>
       <c r="I18" s="34" t="s">
         <v>502</v>
@@ -13181,13 +13395,13 @@
     </row>
     <row r="19" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="B19" s="132" t="s">
-        <v>879</v>
+        <v>291</v>
+      </c>
+      <c r="B19" s="124" t="s">
+        <v>839</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>886</v>
+        <v>846</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>497</v>
@@ -13196,7 +13410,7 @@
         <v>499</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>885</v>
+        <v>845</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>503</v>
@@ -13226,13 +13440,13 @@
     </row>
     <row r="20" spans="1:23" ht="84" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="B20" s="132" t="s">
-        <v>879</v>
+        <v>296</v>
+      </c>
+      <c r="B20" s="124" t="s">
+        <v>839</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>886</v>
+        <v>846</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>497</v>
@@ -13271,10 +13485,10 @@
     </row>
     <row r="21" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="B21" s="132" t="s">
-        <v>879</v>
+        <v>301</v>
+      </c>
+      <c r="B21" s="124" t="s">
+        <v>839</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>500</v>
@@ -13316,10 +13530,10 @@
     </row>
     <row r="22" spans="1:23" ht="120" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="B22" s="132" t="s">
-        <v>879</v>
+        <v>307</v>
+      </c>
+      <c r="B22" s="124" t="s">
+        <v>839</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>500</v>
@@ -13361,10 +13575,10 @@
     </row>
     <row r="23" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="B23" s="132" t="s">
-        <v>879</v>
+        <v>311</v>
+      </c>
+      <c r="B23" s="124" t="s">
+        <v>839</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>500</v>
@@ -13379,7 +13593,7 @@
         <v>539</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>898</v>
+        <v>858</v>
       </c>
       <c r="H23" s="117" t="s">
         <v>540</v>
@@ -13408,10 +13622,10 @@
     </row>
     <row r="24" spans="1:23" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B24" s="132" t="s">
-        <v>879</v>
+        <v>315</v>
+      </c>
+      <c r="B24" s="124" t="s">
+        <v>839</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>500</v>
@@ -13453,13 +13667,13 @@
     </row>
     <row r="25" spans="1:23" ht="84" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="B25" s="132" t="s">
-        <v>879</v>
+        <v>321</v>
+      </c>
+      <c r="B25" s="124" t="s">
+        <v>839</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>887</v>
+        <v>847</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>497</v>
@@ -13498,13 +13712,13 @@
     </row>
     <row r="26" spans="1:23" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="B26" s="132" t="s">
-        <v>879</v>
+        <v>325</v>
+      </c>
+      <c r="B26" s="124" t="s">
+        <v>839</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>887</v>
+        <v>847</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>497</v>
@@ -13545,13 +13759,13 @@
     </row>
     <row r="27" spans="1:23" ht="132" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="B27" s="132" t="s">
-        <v>879</v>
+        <v>353</v>
+      </c>
+      <c r="B27" s="124" t="s">
+        <v>839</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>887</v>
+        <v>847</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>497</v>
@@ -13592,13 +13806,13 @@
     </row>
     <row r="28" spans="1:23" ht="127.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="B28" s="132" t="s">
-        <v>879</v>
+        <v>354</v>
+      </c>
+      <c r="B28" s="124" t="s">
+        <v>839</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>887</v>
+        <v>847</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>497</v>
@@ -13639,13 +13853,13 @@
     </row>
     <row r="29" spans="1:23" ht="159.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="B29" s="132" t="s">
-        <v>879</v>
+        <v>538</v>
+      </c>
+      <c r="B29" s="124" t="s">
+        <v>839</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>887</v>
+        <v>847</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>497</v>
@@ -13684,13 +13898,13 @@
     </row>
     <row r="30" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="B30" s="132" t="s">
-        <v>879</v>
+        <v>364</v>
+      </c>
+      <c r="B30" s="124" t="s">
+        <v>839</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>888</v>
+        <v>848</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>497</v>
@@ -13731,13 +13945,13 @@
     </row>
     <row r="31" spans="1:23" ht="144" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="B31" s="132" t="s">
-        <v>879</v>
+        <v>368</v>
+      </c>
+      <c r="B31" s="124" t="s">
+        <v>839</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>888</v>
+        <v>848</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>497</v>
@@ -13776,13 +13990,13 @@
     </row>
     <row r="32" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="B32" s="132" t="s">
-        <v>879</v>
+        <v>372</v>
+      </c>
+      <c r="B32" s="124" t="s">
+        <v>839</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>888</v>
+        <v>848</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>497</v>
@@ -13821,13 +14035,13 @@
     </row>
     <row r="33" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="B33" s="132" t="s">
-        <v>879</v>
+        <v>376</v>
+      </c>
+      <c r="B33" s="124" t="s">
+        <v>839</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>888</v>
+        <v>848</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>497</v>
@@ -13866,10 +14080,10 @@
     </row>
     <row r="34" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="B34" s="132" t="s">
-        <v>879</v>
+        <v>380</v>
+      </c>
+      <c r="B34" s="124" t="s">
+        <v>839</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>500</v>
@@ -13911,13 +14125,13 @@
     </row>
     <row r="35" spans="1:23" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="B35" s="132" t="s">
-        <v>879</v>
+        <v>384</v>
+      </c>
+      <c r="B35" s="124" t="s">
+        <v>839</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>888</v>
+        <v>848</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>497</v>
@@ -13954,34 +14168,36 @@
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
     </row>
-    <row r="36" spans="1:23" ht="72" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" ht="115.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="B36" s="132" t="s">
-        <v>879</v>
+        <v>388</v>
+      </c>
+      <c r="B36" s="124" t="s">
+        <v>839</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>500</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>497</v>
+        <v>599</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>499</v>
+        <v>600</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>563</v>
+        <v>869</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>564</v>
+        <v>929</v>
       </c>
       <c r="H36" s="117" t="s">
-        <v>565</v>
-      </c>
-      <c r="I36" s="4"/>
+        <v>870</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>602</v>
+      </c>
       <c r="J36" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4" t="s">
@@ -13999,34 +14215,34 @@
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
     </row>
-    <row r="37" spans="1:23" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23" ht="111" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="B37" s="132" t="s">
-        <v>879</v>
-      </c>
-      <c r="C37" s="40" t="s">
-        <v>888</v>
-      </c>
-      <c r="D37" s="40" t="s">
-        <v>497</v>
-      </c>
-      <c r="E37" s="40" t="s">
-        <v>499</v>
-      </c>
-      <c r="F37" s="40" t="s">
-        <v>711</v>
-      </c>
-      <c r="G37" s="40" t="s">
-        <v>712</v>
-      </c>
-      <c r="H37" s="118" t="s">
-        <v>713</v>
+      <c r="B37" s="124" t="s">
+        <v>839</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="H37" s="117" t="s">
+        <v>862</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="4" t="s">
@@ -14044,15 +14260,15 @@
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
     </row>
-    <row r="38" spans="1:23" ht="145.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="B38" s="134" t="s">
-        <v>881</v>
+      <c r="B38" s="124" t="s">
+        <v>839</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>889</v>
+        <v>500</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>497</v>
@@ -14061,17 +14277,17 @@
         <v>499</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>823</v>
+        <v>563</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>792</v>
+        <v>564</v>
       </c>
       <c r="H38" s="117" t="s">
-        <v>918</v>
-      </c>
-      <c r="I38" s="40"/>
+        <v>565</v>
+      </c>
+      <c r="I38" s="4"/>
       <c r="J38" s="4" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4" t="s">
@@ -14089,34 +14305,34 @@
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
     </row>
-    <row r="39" spans="1:23" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="B39" s="134" t="s">
-        <v>881</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>889</v>
-      </c>
-      <c r="D39" s="4" t="s">
+      <c r="B39" s="124" t="s">
+        <v>839</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>848</v>
+      </c>
+      <c r="D39" s="40" t="s">
         <v>497</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="40" t="s">
         <v>499</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>793</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>794</v>
-      </c>
-      <c r="H39" s="117" t="s">
-        <v>795</v>
-      </c>
-      <c r="I39" s="40"/>
+      <c r="F39" s="40" t="s">
+        <v>711</v>
+      </c>
+      <c r="G39" s="40" t="s">
+        <v>712</v>
+      </c>
+      <c r="H39" s="118" t="s">
+        <v>713</v>
+      </c>
+      <c r="I39" s="4"/>
       <c r="J39" s="4" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4" t="s">
@@ -14134,15 +14350,15 @@
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
     </row>
-    <row r="40" spans="1:23" ht="96" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23" ht="145.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="B40" s="134" t="s">
-        <v>881</v>
+      <c r="B40" s="126" t="s">
+        <v>841</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>889</v>
+        <v>849</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>497</v>
@@ -14151,19 +14367,17 @@
         <v>499</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>521</v>
+        <v>794</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>522</v>
+        <v>766</v>
       </c>
       <c r="H40" s="117" t="s">
-        <v>523</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>622</v>
-      </c>
+        <v>878</v>
+      </c>
+      <c r="I40" s="40"/>
       <c r="J40" s="4" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4" t="s">
@@ -14181,15 +14395,15 @@
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
     </row>
-    <row r="41" spans="1:23" ht="72" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="B41" s="134" t="s">
-        <v>881</v>
+      <c r="B41" s="126" t="s">
+        <v>841</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>889</v>
+        <v>849</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>497</v>
@@ -14198,19 +14412,17 @@
         <v>499</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>524</v>
+        <v>767</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>525</v>
+        <v>768</v>
       </c>
       <c r="H41" s="117" t="s">
-        <v>527</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>526</v>
-      </c>
+        <v>769</v>
+      </c>
+      <c r="I41" s="40"/>
       <c r="J41" s="4" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4" t="s">
@@ -14228,15 +14440,15 @@
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
     </row>
-    <row r="42" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23" ht="96" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="B42" s="134" t="s">
-        <v>881</v>
+      <c r="B42" s="126" t="s">
+        <v>841</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>889</v>
+        <v>849</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>497</v>
@@ -14245,15 +14457,17 @@
         <v>499</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>936</v>
+        <v>521</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>926</v>
+        <v>522</v>
       </c>
       <c r="H42" s="117" t="s">
-        <v>937</v>
-      </c>
-      <c r="I42" s="4"/>
+        <v>523</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>622</v>
+      </c>
       <c r="J42" s="4" t="s">
         <v>44</v>
       </c>
@@ -14273,34 +14487,36 @@
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
     </row>
-    <row r="43" spans="1:23" ht="127.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="B43" s="134" t="s">
-        <v>881</v>
+        <v>417</v>
+      </c>
+      <c r="B43" s="126" t="s">
+        <v>841</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>889</v>
+        <v>849</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>599</v>
+        <v>497</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>600</v>
+        <v>499</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>897</v>
+        <v>524</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>899</v>
+        <v>525</v>
       </c>
       <c r="H43" s="117" t="s">
-        <v>900</v>
-      </c>
-      <c r="I43" s="4"/>
+        <v>527</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>526</v>
+      </c>
       <c r="J43" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4" t="s">
@@ -14318,34 +14534,34 @@
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
     </row>
-    <row r="44" spans="1:23" ht="72" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="B44" s="134" t="s">
-        <v>881</v>
+        <v>421</v>
+      </c>
+      <c r="B44" s="126" t="s">
+        <v>841</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>889</v>
+        <v>849</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>599</v>
+        <v>497</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>499</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>605</v>
+        <v>895</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="H44" s="118" t="s">
-        <v>611</v>
+        <v>885</v>
+      </c>
+      <c r="H44" s="117" t="s">
+        <v>896</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4" t="s">
@@ -14363,24 +14579,24 @@
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
     </row>
-    <row r="45" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23" ht="127.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="B45" s="134" t="s">
-        <v>881</v>
+        <v>425</v>
+      </c>
+      <c r="B45" s="126" t="s">
+        <v>841</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>889</v>
+        <v>849</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>497</v>
+        <v>599</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>499</v>
+        <v>600</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>859</v>
@@ -14390,7 +14606,7 @@
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4" t="s">
@@ -14408,15 +14624,15 @@
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
     </row>
-    <row r="46" spans="1:23" ht="84" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="B46" s="134" t="s">
-        <v>881</v>
+        <v>428</v>
+      </c>
+      <c r="B46" s="126" t="s">
+        <v>841</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>889</v>
+        <v>849</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>599</v>
@@ -14425,19 +14641,17 @@
         <v>499</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="H46" s="117" t="s">
-        <v>610</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>609</v>
-      </c>
+        <v>606</v>
+      </c>
+      <c r="H46" s="118" t="s">
+        <v>611</v>
+      </c>
+      <c r="I46" s="4"/>
       <c r="J46" s="4" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="4" t="s">
@@ -14455,34 +14669,34 @@
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
     </row>
-    <row r="47" spans="1:23" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="B47" s="134" t="s">
-        <v>881</v>
+        <v>433</v>
+      </c>
+      <c r="B47" s="126" t="s">
+        <v>841</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>598</v>
+        <v>849</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>805</v>
+        <v>499</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>891</v>
+        <v>825</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>806</v>
+        <v>826</v>
       </c>
       <c r="H47" s="117" t="s">
-        <v>807</v>
-      </c>
-      <c r="I47" s="40"/>
+        <v>827</v>
+      </c>
+      <c r="I47" s="4"/>
       <c r="J47" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="4" t="s">
@@ -14500,32 +14714,34 @@
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
     </row>
-    <row r="48" spans="1:23" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23" ht="84" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="B48" s="134" t="s">
-        <v>881</v>
+        <v>439</v>
+      </c>
+      <c r="B48" s="126" t="s">
+        <v>841</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>889</v>
+        <v>849</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>599</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>874</v>
+        <v>499</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>686</v>
+        <v>607</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>687</v>
+        <v>608</v>
       </c>
       <c r="H48" s="117" t="s">
-        <v>688</v>
-      </c>
-      <c r="I48" s="4"/>
+        <v>610</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>609</v>
+      </c>
       <c r="J48" s="4" t="s">
         <v>45</v>
       </c>
@@ -14545,34 +14761,34 @@
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
     </row>
-    <row r="49" spans="1:23" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="B49" s="134" t="s">
-        <v>881</v>
+        <v>445</v>
+      </c>
+      <c r="B49" s="126" t="s">
+        <v>841</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>889</v>
+        <v>598</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>499</v>
+        <v>779</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>883</v>
+        <v>851</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>530</v>
+        <v>780</v>
       </c>
       <c r="H49" s="117" t="s">
-        <v>612</v>
-      </c>
-      <c r="I49" s="4"/>
+        <v>781</v>
+      </c>
+      <c r="I49" s="40"/>
       <c r="J49" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4" t="s">
@@ -14590,34 +14806,34 @@
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
     </row>
-    <row r="50" spans="1:23" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="B50" s="134" t="s">
-        <v>881</v>
+        <v>446</v>
+      </c>
+      <c r="B50" s="126" t="s">
+        <v>841</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>889</v>
+        <v>849</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>497</v>
+        <v>599</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>499</v>
+        <v>835</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>531</v>
+        <v>686</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>532</v>
+        <v>687</v>
       </c>
       <c r="H50" s="117" t="s">
-        <v>613</v>
+        <v>688</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4" t="s">
@@ -14635,15 +14851,15 @@
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
     </row>
-    <row r="51" spans="1:23" ht="87" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:23" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="B51" s="134" t="s">
-        <v>881</v>
+        <v>453</v>
+      </c>
+      <c r="B51" s="126" t="s">
+        <v>841</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>889</v>
+        <v>849</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>497</v>
@@ -14652,17 +14868,17 @@
         <v>499</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>619</v>
+        <v>843</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>616</v>
+        <v>530</v>
       </c>
       <c r="H51" s="117" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="4" t="s">
@@ -14680,15 +14896,15 @@
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
     </row>
-    <row r="52" spans="1:23" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:23" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="B52" s="134" t="s">
-        <v>881</v>
+        <v>457</v>
+      </c>
+      <c r="B52" s="126" t="s">
+        <v>841</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>889</v>
+        <v>849</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>497</v>
@@ -14697,13 +14913,13 @@
         <v>499</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H52" s="117" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4" t="s">
@@ -14725,15 +14941,15 @@
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
     </row>
-    <row r="53" spans="1:23" ht="108" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23" ht="87" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="B53" s="134" t="s">
-        <v>881</v>
+        <v>462</v>
+      </c>
+      <c r="B53" s="126" t="s">
+        <v>841</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>889</v>
+        <v>849</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>497</v>
@@ -14742,13 +14958,13 @@
         <v>499</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="H53" s="117" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4" t="s">
@@ -14770,15 +14986,15 @@
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
     </row>
-    <row r="54" spans="1:23" ht="132" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="B54" s="134" t="s">
-        <v>881</v>
+        <v>466</v>
+      </c>
+      <c r="B54" s="126" t="s">
+        <v>841</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>889</v>
+        <v>849</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>497</v>
@@ -14787,13 +15003,13 @@
         <v>499</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="H54" s="117" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4" t="s">
@@ -14817,13 +15033,13 @@
     </row>
     <row r="55" spans="1:23" ht="108" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="B55" s="134" t="s">
-        <v>881</v>
+        <v>469</v>
+      </c>
+      <c r="B55" s="126" t="s">
+        <v>841</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>889</v>
+        <v>849</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>497</v>
@@ -14832,17 +15048,17 @@
         <v>499</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>882</v>
+        <v>618</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="H55" s="118" t="s">
-        <v>533</v>
+        <v>620</v>
+      </c>
+      <c r="H55" s="117" t="s">
+        <v>621</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="K55" s="4"/>
       <c r="L55" s="4" t="s">
@@ -14860,15 +15076,15 @@
       <c r="V55" s="4"/>
       <c r="W55" s="4"/>
     </row>
-    <row r="56" spans="1:23" ht="72" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:23" ht="132" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="B56" s="134" t="s">
-        <v>881</v>
+        <v>474</v>
+      </c>
+      <c r="B56" s="126" t="s">
+        <v>841</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>889</v>
+        <v>849</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>497</v>
@@ -14877,13 +15093,13 @@
         <v>499</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>884</v>
+        <v>536</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>570</v>
+        <v>537</v>
       </c>
       <c r="H56" s="117" t="s">
-        <v>571</v>
+        <v>615</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4" t="s">
@@ -14907,13 +15123,13 @@
     </row>
     <row r="57" spans="1:23" ht="108" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="B57" s="134" t="s">
-        <v>881</v>
+        <v>477</v>
+      </c>
+      <c r="B57" s="126" t="s">
+        <v>841</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>889</v>
+        <v>849</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>497</v>
@@ -14922,13 +15138,13 @@
         <v>499</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>572</v>
+        <v>842</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="H57" s="117" t="s">
-        <v>576</v>
+        <v>528</v>
+      </c>
+      <c r="H57" s="118" t="s">
+        <v>533</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4" t="s">
@@ -14950,15 +15166,15 @@
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
     </row>
-    <row r="58" spans="1:23" ht="96" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="B58" s="134" t="s">
-        <v>881</v>
+        <v>480</v>
+      </c>
+      <c r="B58" s="126" t="s">
+        <v>841</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>889</v>
+        <v>849</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>497</v>
@@ -14967,13 +15183,13 @@
         <v>499</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>574</v>
+        <v>844</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="H58" s="117" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4" t="s">
@@ -14995,30 +15211,30 @@
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
     </row>
-    <row r="59" spans="1:23" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:23" ht="108" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="B59" s="134" t="s">
-        <v>881</v>
+        <v>484</v>
+      </c>
+      <c r="B59" s="126" t="s">
+        <v>841</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>889</v>
+        <v>849</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>599</v>
+        <v>497</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>600</v>
+        <v>499</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>604</v>
+        <v>572</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>857</v>
+        <v>573</v>
       </c>
       <c r="H59" s="117" t="s">
-        <v>901</v>
+        <v>576</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4" t="s">
@@ -15040,15 +15256,15 @@
       <c r="V59" s="4"/>
       <c r="W59" s="4"/>
     </row>
-    <row r="60" spans="1:23" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:23" ht="96" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="B60" s="134" t="s">
-        <v>881</v>
+        <v>623</v>
+      </c>
+      <c r="B60" s="126" t="s">
+        <v>841</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>889</v>
+        <v>849</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>497</v>
@@ -15057,17 +15273,17 @@
         <v>499</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>826</v>
+        <v>574</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>810</v>
+        <v>575</v>
       </c>
       <c r="H60" s="117" t="s">
-        <v>811</v>
-      </c>
-      <c r="I60" s="40"/>
+        <v>577</v>
+      </c>
+      <c r="I60" s="4"/>
       <c r="J60" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K60" s="4"/>
       <c r="L60" s="4" t="s">
@@ -15085,34 +15301,34 @@
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
     </row>
-    <row r="61" spans="1:23" ht="127.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:23" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
-        <v>623</v>
-      </c>
-      <c r="B61" s="135" t="s">
-        <v>892</v>
+        <v>624</v>
+      </c>
+      <c r="B61" s="126" t="s">
+        <v>841</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>906</v>
+        <v>849</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>497</v>
+        <v>599</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>499</v>
+        <v>600</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>895</v>
+        <v>604</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>796</v>
+        <v>824</v>
       </c>
       <c r="H61" s="117" t="s">
-        <v>820</v>
-      </c>
-      <c r="I61" s="40"/>
+        <v>861</v>
+      </c>
+      <c r="I61" s="4"/>
       <c r="J61" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K61" s="4"/>
       <c r="L61" s="4" t="s">
@@ -15130,34 +15346,34 @@
       <c r="V61" s="4"/>
       <c r="W61" s="4"/>
     </row>
-    <row r="62" spans="1:23" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:23" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
-        <v>624</v>
-      </c>
-      <c r="B62" s="135" t="s">
-        <v>892</v>
+        <v>625</v>
+      </c>
+      <c r="B62" s="126" t="s">
+        <v>841</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>907</v>
+        <v>849</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>802</v>
+        <v>499</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>896</v>
+        <v>797</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>803</v>
+        <v>784</v>
       </c>
       <c r="H62" s="117" t="s">
-        <v>804</v>
+        <v>785</v>
       </c>
       <c r="I62" s="40"/>
       <c r="J62" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K62" s="4"/>
       <c r="L62" s="4" t="s">
@@ -15175,15 +15391,15 @@
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
     </row>
-    <row r="63" spans="1:23" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:23" ht="127.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="B63" s="135" t="s">
-        <v>892</v>
+        <v>626</v>
+      </c>
+      <c r="B63" s="127" t="s">
+        <v>852</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>908</v>
+        <v>866</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>497</v>
@@ -15192,13 +15408,13 @@
         <v>499</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>822</v>
+        <v>855</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>797</v>
+        <v>770</v>
       </c>
       <c r="H63" s="117" t="s">
-        <v>821</v>
+        <v>791</v>
       </c>
       <c r="I63" s="40"/>
       <c r="J63" s="4" t="s">
@@ -15220,34 +15436,34 @@
       <c r="V63" s="4"/>
       <c r="W63" s="4"/>
     </row>
-    <row r="64" spans="1:23" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:23" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
-        <v>626</v>
-      </c>
-      <c r="B64" s="135" t="s">
-        <v>892</v>
+        <v>627</v>
+      </c>
+      <c r="B64" s="127" t="s">
+        <v>852</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>908</v>
+        <v>867</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>499</v>
+        <v>776</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>798</v>
+        <v>856</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>799</v>
+        <v>777</v>
       </c>
       <c r="H64" s="117" t="s">
-        <v>938</v>
+        <v>778</v>
       </c>
       <c r="I64" s="40"/>
       <c r="J64" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K64" s="4"/>
       <c r="L64" s="4" t="s">
@@ -15265,34 +15481,34 @@
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
     </row>
-    <row r="65" spans="1:23" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:23" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="B65" s="135" t="s">
-        <v>892</v>
+        <v>628</v>
+      </c>
+      <c r="B65" s="127" t="s">
+        <v>852</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>908</v>
+        <v>868</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>789</v>
+        <v>499</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>893</v>
+        <v>793</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>790</v>
+        <v>771</v>
       </c>
       <c r="H65" s="117" t="s">
-        <v>894</v>
+        <v>792</v>
       </c>
       <c r="I65" s="40"/>
       <c r="J65" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K65" s="4"/>
       <c r="L65" s="4" t="s">
@@ -15310,34 +15526,34 @@
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
     </row>
-    <row r="66" spans="1:23" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:23" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="B66" s="135" t="s">
-        <v>892</v>
+        <v>629</v>
+      </c>
+      <c r="B66" s="127" t="s">
+        <v>852</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>908</v>
+        <v>868</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>805</v>
+        <v>499</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>890</v>
+        <v>772</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>808</v>
+        <v>773</v>
       </c>
       <c r="H66" s="117" t="s">
-        <v>809</v>
+        <v>897</v>
       </c>
       <c r="I66" s="40"/>
       <c r="J66" s="4" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="K66" s="4"/>
       <c r="L66" s="4" t="s">
@@ -15355,32 +15571,32 @@
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
     </row>
-    <row r="67" spans="1:23" ht="60" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:23" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="B67" s="131" t="s">
-        <v>721</v>
+        <v>630</v>
+      </c>
+      <c r="B67" s="127" t="s">
+        <v>852</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="D67" s="56" t="s">
-        <v>547</v>
-      </c>
-      <c r="E67" s="56" t="s">
-        <v>861</v>
+        <v>868</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>763</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>948</v>
+        <v>853</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>952</v>
+        <v>764</v>
       </c>
       <c r="H67" s="117" t="s">
-        <v>945</v>
-      </c>
-      <c r="I67" s="4"/>
+        <v>854</v>
+      </c>
+      <c r="I67" s="40"/>
       <c r="J67" s="4" t="s">
         <v>43</v>
       </c>
@@ -15400,34 +15616,34 @@
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
     </row>
-    <row r="68" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:23" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="B68" s="131" t="s">
-        <v>721</v>
+        <v>1021</v>
+      </c>
+      <c r="B68" s="127" t="s">
+        <v>852</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="D68" s="56" t="s">
-        <v>547</v>
-      </c>
-      <c r="E68" s="56" t="s">
-        <v>861</v>
+        <v>868</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>779</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>952</v>
+        <v>782</v>
       </c>
       <c r="H68" s="117" t="s">
-        <v>946</v>
-      </c>
-      <c r="I68" s="4"/>
+        <v>783</v>
+      </c>
+      <c r="I68" s="40"/>
       <c r="J68" s="4" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="K68" s="4"/>
       <c r="L68" s="4" t="s">
@@ -15445,30 +15661,30 @@
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
     </row>
-    <row r="69" spans="1:23" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
-        <v>638</v>
-      </c>
-      <c r="B69" s="131" t="s">
+        <v>631</v>
+      </c>
+      <c r="B69" s="123" t="s">
         <v>721</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="D69" s="56" t="s">
-        <v>547</v>
-      </c>
-      <c r="E69" s="56" t="s">
-        <v>861</v>
+      <c r="D69" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>834</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>863</v>
+        <v>931</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>952</v>
+        <v>913</v>
       </c>
       <c r="H69" s="117" t="s">
-        <v>947</v>
+        <v>982</v>
       </c>
       <c r="I69" s="4"/>
       <c r="J69" s="4" t="s">
@@ -15490,34 +15706,34 @@
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
     </row>
-    <row r="70" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="B70" s="131" t="s">
+        <v>632</v>
+      </c>
+      <c r="B70" s="123" t="s">
         <v>721</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="D70" s="56" t="s">
+      <c r="D70" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="E70" s="56" t="s">
-        <v>963</v>
+      <c r="E70" s="4" t="s">
+        <v>763</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>949</v>
+        <v>932</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>967</v>
-      </c>
-      <c r="H70" s="117" t="s">
-        <v>953</v>
-      </c>
-      <c r="I70" s="4"/>
+        <v>983</v>
+      </c>
+      <c r="H70" s="117"/>
+      <c r="I70" s="4" t="s">
+        <v>984</v>
+      </c>
       <c r="J70" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K70" s="4"/>
       <c r="L70" s="4" t="s">
@@ -15535,34 +15751,32 @@
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
     </row>
-    <row r="71" spans="1:23" ht="115.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="B71" s="131" t="s">
+        <v>633</v>
+      </c>
+      <c r="B71" s="123" t="s">
         <v>721</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>722</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>599</v>
+        <v>723</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>600</v>
+        <v>834</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>954</v>
+        <v>911</v>
       </c>
       <c r="H71" s="117" t="s">
-        <v>910</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>602</v>
-      </c>
+        <v>912</v>
+      </c>
+      <c r="I71" s="4"/>
       <c r="J71" s="4" t="s">
         <v>43</v>
       </c>
@@ -15582,56 +15796,54 @@
       <c r="V71" s="4"/>
       <c r="W71" s="4"/>
     </row>
-    <row r="72" spans="1:23" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="4" t="s">
-        <v>640</v>
-      </c>
-      <c r="B72" s="131" t="s">
+    <row r="72" spans="1:23" s="122" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="40" t="s">
+        <v>634</v>
+      </c>
+      <c r="B72" s="123" t="s">
         <v>721</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="56" t="s">
         <v>722</v>
       </c>
       <c r="D72" s="56" t="s">
         <v>547</v>
       </c>
       <c r="E72" s="56" t="s">
-        <v>963</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>964</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>965</v>
-      </c>
-      <c r="H72" s="117" t="s">
-        <v>972</v>
-      </c>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="F72" s="40" t="s">
+        <v>914</v>
+      </c>
+      <c r="G72" s="56" t="s">
+        <v>915</v>
+      </c>
+      <c r="H72" s="120"/>
+      <c r="I72" s="56"/>
+      <c r="J72" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4" t="s">
+      <c r="K72" s="56"/>
+      <c r="L72" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
-      <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="4"/>
-      <c r="R72" s="4"/>
-      <c r="S72" s="4"/>
-      <c r="T72" s="54"/>
-      <c r="U72" s="4"/>
-      <c r="V72" s="4"/>
-      <c r="W72" s="4"/>
-    </row>
-    <row r="73" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M72" s="56"/>
+      <c r="N72" s="56"/>
+      <c r="O72" s="56"/>
+      <c r="P72" s="56"/>
+      <c r="Q72" s="56"/>
+      <c r="R72" s="56"/>
+      <c r="S72" s="56"/>
+      <c r="T72" s="121"/>
+      <c r="U72" s="56"/>
+      <c r="V72" s="56"/>
+      <c r="W72" s="56"/>
+    </row>
+    <row r="73" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
-        <v>641</v>
-      </c>
-      <c r="B73" s="131" t="s">
+        <v>635</v>
+      </c>
+      <c r="B73" s="123" t="s">
         <v>721</v>
       </c>
       <c r="C73" s="4" t="s">
@@ -15641,16 +15853,16 @@
         <v>547</v>
       </c>
       <c r="E73" s="56" t="s">
-        <v>970</v>
+        <v>828</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>968</v>
+        <v>904</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>969</v>
+        <v>908</v>
       </c>
       <c r="H73" s="117" t="s">
-        <v>971</v>
+        <v>901</v>
       </c>
       <c r="I73" s="4"/>
       <c r="J73" s="4" t="s">
@@ -15672,11 +15884,11 @@
       <c r="V73" s="4"/>
       <c r="W73" s="4"/>
     </row>
-    <row r="74" spans="1:23" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
-        <v>640</v>
-      </c>
-      <c r="B74" s="131" t="s">
+        <v>636</v>
+      </c>
+      <c r="B74" s="123" t="s">
         <v>721</v>
       </c>
       <c r="C74" s="4" t="s">
@@ -15686,16 +15898,16 @@
         <v>547</v>
       </c>
       <c r="E74" s="56" t="s">
-        <v>963</v>
+        <v>828</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>966</v>
+        <v>829</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>973</v>
+        <v>908</v>
       </c>
       <c r="H74" s="117" t="s">
-        <v>977</v>
+        <v>902</v>
       </c>
       <c r="I74" s="4"/>
       <c r="J74" s="4" t="s">
@@ -15717,11 +15929,11 @@
       <c r="V74" s="4"/>
       <c r="W74" s="4"/>
     </row>
-    <row r="75" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:23" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
-        <v>641</v>
-      </c>
-      <c r="B75" s="131" t="s">
+        <v>637</v>
+      </c>
+      <c r="B75" s="123" t="s">
         <v>721</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -15731,16 +15943,16 @@
         <v>547</v>
       </c>
       <c r="E75" s="56" t="s">
-        <v>970</v>
+        <v>828</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>974</v>
+        <v>830</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>975</v>
+        <v>908</v>
       </c>
       <c r="H75" s="117" t="s">
-        <v>976</v>
+        <v>903</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4" t="s">
@@ -15762,30 +15974,30 @@
       <c r="V75" s="4"/>
       <c r="W75" s="4"/>
     </row>
-    <row r="76" spans="1:23" ht="111" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="B76" s="131" t="s">
+        <v>638</v>
+      </c>
+      <c r="B76" s="123" t="s">
         <v>721</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>600</v>
+      <c r="D76" s="56" t="s">
+        <v>547</v>
+      </c>
+      <c r="E76" s="56" t="s">
+        <v>828</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>603</v>
+        <v>930</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>954</v>
+        <v>906</v>
       </c>
       <c r="H76" s="117" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="I76" s="4"/>
       <c r="J76" s="4" t="s">
@@ -15807,30 +16019,30 @@
       <c r="V76" s="4"/>
       <c r="W76" s="4"/>
     </row>
-    <row r="77" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:23" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
-        <v>633</v>
-      </c>
-      <c r="B77" s="131" t="s">
+        <v>639</v>
+      </c>
+      <c r="B77" s="123" t="s">
         <v>721</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="D77" s="4" t="s">
-        <v>723</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>873</v>
+      <c r="D77" s="56" t="s">
+        <v>547</v>
+      </c>
+      <c r="E77" s="56" t="s">
+        <v>828</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>955</v>
+        <v>837</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>956</v>
+        <v>838</v>
       </c>
       <c r="H77" s="117" t="s">
-        <v>957</v>
+        <v>942</v>
       </c>
       <c r="I77" s="4"/>
       <c r="J77" s="4" t="s">
@@ -15852,36 +16064,34 @@
       <c r="V77" s="4"/>
       <c r="W77" s="4"/>
     </row>
-    <row r="78" spans="1:23" ht="120" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:23" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="B78" s="131" t="s">
+        <v>640</v>
+      </c>
+      <c r="B78" s="123" t="s">
         <v>721</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="D78" s="4" t="s">
-        <v>723</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>873</v>
+      <c r="D78" s="56" t="s">
+        <v>547</v>
+      </c>
+      <c r="E78" s="56" t="s">
+        <v>725</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>958</v>
+        <v>934</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>959</v>
+        <v>935</v>
       </c>
       <c r="H78" s="117" t="s">
-        <v>724</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>919</v>
-      </c>
+        <v>946</v>
+      </c>
+      <c r="I78" s="4"/>
       <c r="J78" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K78" s="4"/>
       <c r="L78" s="4" t="s">
@@ -15899,54 +16109,56 @@
       <c r="V78" s="4"/>
       <c r="W78" s="4"/>
     </row>
-    <row r="79" spans="1:23" s="121" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:23" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
-        <v>635</v>
-      </c>
-      <c r="B79" s="131" t="s">
+        <v>641</v>
+      </c>
+      <c r="B79" s="123" t="s">
         <v>721</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="D79" s="40" t="s">
+      <c r="D79" s="56" t="s">
         <v>547</v>
       </c>
-      <c r="E79" s="40" t="s">
-        <v>873</v>
-      </c>
-      <c r="F79" s="40" t="s">
-        <v>960</v>
-      </c>
-      <c r="G79" s="40" t="s">
-        <v>961</v>
-      </c>
-      <c r="H79" s="118"/>
-      <c r="I79" s="40"/>
-      <c r="J79" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="K79" s="40"/>
-      <c r="L79" s="40" t="s">
+      <c r="E79" s="56" t="s">
+        <v>725</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="H79" s="117" t="s">
+        <v>943</v>
+      </c>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M79" s="40"/>
-      <c r="N79" s="40"/>
-      <c r="O79" s="40"/>
-      <c r="P79" s="40"/>
-      <c r="Q79" s="40"/>
-      <c r="R79" s="40"/>
-      <c r="S79" s="40"/>
-      <c r="T79" s="120"/>
-      <c r="U79" s="40"/>
-      <c r="V79" s="40"/>
-      <c r="W79" s="40"/>
-    </row>
-    <row r="80" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4"/>
+      <c r="S79" s="4"/>
+      <c r="T79" s="54"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="4"/>
+      <c r="W79" s="4"/>
+    </row>
+    <row r="80" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="B80" s="131" t="s">
+        <v>642</v>
+      </c>
+      <c r="B80" s="123" t="s">
         <v>721</v>
       </c>
       <c r="C80" s="4" t="s">
@@ -15956,16 +16168,16 @@
         <v>547</v>
       </c>
       <c r="E80" s="56" t="s">
-        <v>861</v>
+        <v>916</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>962</v>
+        <v>905</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>950</v>
+        <v>919</v>
       </c>
       <c r="H80" s="117" t="s">
-        <v>939</v>
+        <v>909</v>
       </c>
       <c r="I80" s="4"/>
       <c r="J80" s="4" t="s">
@@ -15987,11 +16199,11 @@
       <c r="V80" s="4"/>
       <c r="W80" s="4"/>
     </row>
-    <row r="81" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
-        <v>640</v>
-      </c>
-      <c r="B81" s="131" t="s">
+        <v>643</v>
+      </c>
+      <c r="B81" s="123" t="s">
         <v>721</v>
       </c>
       <c r="C81" s="4" t="s">
@@ -16001,18 +16213,20 @@
         <v>547</v>
       </c>
       <c r="E81" s="56" t="s">
-        <v>861</v>
+        <v>836</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>877</v>
+        <v>936</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>878</v>
-      </c>
-      <c r="H81" s="117"/>
+        <v>832</v>
+      </c>
+      <c r="H81" s="117" t="s">
+        <v>833</v>
+      </c>
       <c r="I81" s="4"/>
       <c r="J81" s="4" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="K81" s="4"/>
       <c r="L81" s="4" t="s">
@@ -16030,11 +16244,11 @@
       <c r="V81" s="4"/>
       <c r="W81" s="4"/>
     </row>
-    <row r="82" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:23" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
-        <v>642</v>
-      </c>
-      <c r="B82" s="131" t="s">
+        <v>644</v>
+      </c>
+      <c r="B82" s="123" t="s">
         <v>721</v>
       </c>
       <c r="C82" s="4" t="s">
@@ -16044,20 +16258,20 @@
         <v>547</v>
       </c>
       <c r="E82" s="56" t="s">
-        <v>875</v>
+        <v>831</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>865</v>
+        <v>938</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>866</v>
+        <v>939</v>
       </c>
       <c r="H82" s="117" t="s">
-        <v>867</v>
+        <v>933</v>
       </c>
       <c r="I82" s="4"/>
       <c r="J82" s="4" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="K82" s="4"/>
       <c r="L82" s="4" t="s">
@@ -16075,11 +16289,11 @@
       <c r="V82" s="4"/>
       <c r="W82" s="4"/>
     </row>
-    <row r="83" spans="1:23" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:23" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="B83" s="131" t="s">
+        <v>645</v>
+      </c>
+      <c r="B83" s="123" t="s">
         <v>721</v>
       </c>
       <c r="C83" s="4" t="s">
@@ -16089,20 +16303,20 @@
         <v>547</v>
       </c>
       <c r="E83" s="56" t="s">
-        <v>864</v>
+        <v>831</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>868</v>
+        <v>944</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>869</v>
+        <v>945</v>
       </c>
       <c r="H83" s="117" t="s">
-        <v>876</v>
+        <v>947</v>
       </c>
       <c r="I83" s="4"/>
       <c r="J83" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K83" s="4"/>
       <c r="L83" s="4" t="s">
@@ -16120,34 +16334,32 @@
       <c r="V83" s="4"/>
       <c r="W83" s="4"/>
     </row>
-    <row r="84" spans="1:23" ht="72" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:23" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="B84" s="131" t="s">
+        <v>646</v>
+      </c>
+      <c r="B84" s="123" t="s">
         <v>721</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" s="56" t="s">
         <v>547</v>
       </c>
-      <c r="E84" s="4" t="s">
-        <v>726</v>
+      <c r="E84" s="56" t="s">
+        <v>831</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>871</v>
+        <v>995</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>727</v>
+        <v>937</v>
       </c>
       <c r="H84" s="117" t="s">
-        <v>870</v>
-      </c>
-      <c r="I84" s="122" t="s">
-        <v>728</v>
-      </c>
+        <v>996</v>
+      </c>
+      <c r="I84" s="4"/>
       <c r="J84" s="4" t="s">
         <v>43</v>
       </c>
@@ -16167,34 +16379,34 @@
       <c r="V84" s="4"/>
       <c r="W84" s="4"/>
     </row>
-    <row r="85" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:23" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="B85" s="131" t="s">
+        <v>647</v>
+      </c>
+      <c r="B85" s="123" t="s">
         <v>721</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="56" t="s">
         <v>547</v>
       </c>
-      <c r="E85" s="4" t="s">
-        <v>729</v>
+      <c r="E85" s="56" t="s">
+        <v>1001</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>730</v>
+        <v>997</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>872</v>
+        <v>998</v>
       </c>
       <c r="H85" s="117" t="s">
-        <v>951</v>
+        <v>999</v>
       </c>
       <c r="I85" s="4"/>
       <c r="J85" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K85" s="4"/>
       <c r="L85" s="4" t="s">
@@ -16212,34 +16424,34 @@
       <c r="V85" s="4"/>
       <c r="W85" s="4"/>
     </row>
-    <row r="86" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:23" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="B86" s="131" t="s">
+        <v>648</v>
+      </c>
+      <c r="B86" s="123" t="s">
         <v>721</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="56" t="s">
         <v>547</v>
       </c>
-      <c r="E86" s="4" t="s">
-        <v>729</v>
+      <c r="E86" s="56" t="s">
+        <v>1001</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>731</v>
+        <v>1000</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>732</v>
+        <v>1002</v>
       </c>
       <c r="H86" s="117" t="s">
-        <v>733</v>
+        <v>1003</v>
       </c>
       <c r="I86" s="4"/>
       <c r="J86" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K86" s="4"/>
       <c r="L86" s="4" t="s">
@@ -16257,30 +16469,30 @@
       <c r="V86" s="4"/>
       <c r="W86" s="4"/>
     </row>
-    <row r="87" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:23" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
-        <v>647</v>
-      </c>
-      <c r="B87" s="131" t="s">
+        <v>649</v>
+      </c>
+      <c r="B87" s="123" t="s">
         <v>721</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" s="56" t="s">
         <v>547</v>
       </c>
-      <c r="E87" s="4" t="s">
-        <v>734</v>
+      <c r="E87" s="56" t="s">
+        <v>994</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>736</v>
+        <v>917</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>735</v>
+        <v>918</v>
       </c>
       <c r="H87" s="117" t="s">
-        <v>733</v>
+        <v>923</v>
       </c>
       <c r="I87" s="4"/>
       <c r="J87" s="4" t="s">
@@ -16302,30 +16514,30 @@
       <c r="V87" s="4"/>
       <c r="W87" s="4"/>
     </row>
-    <row r="88" spans="1:23" ht="60" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="B88" s="131" t="s">
+        <v>650</v>
+      </c>
+      <c r="B88" s="123" t="s">
         <v>721</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D88" s="56" t="s">
         <v>547</v>
       </c>
-      <c r="E88" s="4" t="s">
-        <v>737</v>
+      <c r="E88" s="56" t="s">
+        <v>994</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>738</v>
+        <v>985</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>739</v>
+        <v>986</v>
       </c>
       <c r="H88" s="117" t="s">
-        <v>740</v>
+        <v>987</v>
       </c>
       <c r="I88" s="4"/>
       <c r="J88" s="4" t="s">
@@ -16349,28 +16561,28 @@
     </row>
     <row r="89" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="B89" s="131" t="s">
+        <v>651</v>
+      </c>
+      <c r="B89" s="123" t="s">
         <v>721</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D89" s="56" t="s">
         <v>547</v>
       </c>
-      <c r="E89" s="4" t="s">
-        <v>741</v>
+      <c r="E89" s="56" t="s">
+        <v>994</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>743</v>
+        <v>988</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>742</v>
+        <v>989</v>
       </c>
       <c r="H89" s="117" t="s">
-        <v>940</v>
+        <v>990</v>
       </c>
       <c r="I89" s="4"/>
       <c r="J89" s="4" t="s">
@@ -16394,28 +16606,28 @@
     </row>
     <row r="90" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
-        <v>650</v>
-      </c>
-      <c r="B90" s="131" t="s">
+        <v>652</v>
+      </c>
+      <c r="B90" s="123" t="s">
         <v>721</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="D90" s="56" t="s">
         <v>547</v>
       </c>
-      <c r="E90" s="4" t="s">
-        <v>741</v>
+      <c r="E90" s="56" t="s">
+        <v>994</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>744</v>
+        <v>991</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>745</v>
+        <v>992</v>
       </c>
       <c r="H90" s="117" t="s">
-        <v>941</v>
+        <v>993</v>
       </c>
       <c r="I90" s="4"/>
       <c r="J90" s="4" t="s">
@@ -16437,34 +16649,32 @@
       <c r="V90" s="4"/>
       <c r="W90" s="4"/>
     </row>
-    <row r="91" spans="1:23" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="B91" s="131" t="s">
+        <v>653</v>
+      </c>
+      <c r="B91" s="123" t="s">
         <v>721</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D91" s="56" t="s">
         <v>547</v>
       </c>
-      <c r="E91" s="4" t="s">
-        <v>741</v>
+      <c r="E91" s="56" t="s">
+        <v>994</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>747</v>
+        <v>920</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>749</v>
+        <v>921</v>
       </c>
       <c r="H91" s="117" t="s">
-        <v>942</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>751</v>
-      </c>
+        <v>922</v>
+      </c>
+      <c r="I91" s="4"/>
       <c r="J91" s="4" t="s">
         <v>43</v>
       </c>
@@ -16484,34 +16694,32 @@
       <c r="V91" s="4"/>
       <c r="W91" s="4"/>
     </row>
-    <row r="92" spans="1:23" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:23" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="B92" s="131" t="s">
+        <v>654</v>
+      </c>
+      <c r="B92" s="123" t="s">
         <v>721</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D92" s="56" t="s">
         <v>547</v>
       </c>
-      <c r="E92" s="4" t="s">
-        <v>741</v>
+      <c r="E92" s="56" t="s">
+        <v>994</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>746</v>
+        <v>1004</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>748</v>
+        <v>924</v>
       </c>
       <c r="H92" s="117" t="s">
-        <v>943</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>750</v>
-      </c>
+        <v>928</v>
+      </c>
+      <c r="I92" s="4"/>
       <c r="J92" s="4" t="s">
         <v>43</v>
       </c>
@@ -16533,28 +16741,28 @@
     </row>
     <row r="93" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="B93" s="131" t="s">
+        <v>655</v>
+      </c>
+      <c r="B93" s="123" t="s">
         <v>721</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="D93" s="40" t="s">
+      <c r="D93" s="56" t="s">
         <v>547</v>
       </c>
-      <c r="E93" s="40" t="s">
-        <v>741</v>
-      </c>
-      <c r="F93" s="40" t="s">
-        <v>752</v>
-      </c>
-      <c r="G93" s="40" t="s">
-        <v>856</v>
-      </c>
-      <c r="H93" s="118" t="s">
-        <v>753</v>
+      <c r="E93" s="56" t="s">
+        <v>994</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="H93" s="117" t="s">
+        <v>1008</v>
       </c>
       <c r="I93" s="4"/>
       <c r="J93" s="4" t="s">
@@ -16578,28 +16786,28 @@
     </row>
     <row r="94" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="B94" s="131" t="s">
+        <v>656</v>
+      </c>
+      <c r="B94" s="123" t="s">
         <v>721</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D94" s="56" t="s">
         <v>547</v>
       </c>
-      <c r="E94" s="4" t="s">
-        <v>741</v>
+      <c r="E94" s="56" t="s">
+        <v>994</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>754</v>
+        <v>1006</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>755</v>
+        <v>989</v>
       </c>
       <c r="H94" s="117" t="s">
-        <v>756</v>
+        <v>1009</v>
       </c>
       <c r="I94" s="4"/>
       <c r="J94" s="4" t="s">
@@ -16623,28 +16831,28 @@
     </row>
     <row r="95" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
-        <v>655</v>
-      </c>
-      <c r="B95" s="131" t="s">
+        <v>657</v>
+      </c>
+      <c r="B95" s="123" t="s">
         <v>721</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D95" s="56" t="s">
         <v>547</v>
       </c>
-      <c r="E95" s="4" t="s">
-        <v>741</v>
+      <c r="E95" s="56" t="s">
+        <v>994</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>757</v>
+        <v>1007</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>758</v>
+        <v>992</v>
       </c>
       <c r="H95" s="117" t="s">
-        <v>759</v>
+        <v>1010</v>
       </c>
       <c r="I95" s="4"/>
       <c r="J95" s="4" t="s">
@@ -16666,101 +16874,101 @@
       <c r="V95" s="4"/>
       <c r="W95" s="4"/>
     </row>
-    <row r="96" spans="1:23" s="125" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
-        <v>629</v>
-      </c>
-      <c r="B96" s="131" t="s">
+        <v>658</v>
+      </c>
+      <c r="B96" s="123" t="s">
         <v>721</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>722</v>
       </c>
       <c r="D96" s="56" t="s">
-        <v>497</v>
+        <v>547</v>
       </c>
       <c r="E96" s="56" t="s">
-        <v>818</v>
-      </c>
-      <c r="F96" s="56" t="s">
-        <v>828</v>
-      </c>
-      <c r="G96" s="56" t="s">
-        <v>817</v>
-      </c>
-      <c r="H96" s="123" t="s">
-        <v>819</v>
-      </c>
-      <c r="I96" s="56"/>
-      <c r="J96" s="56" t="s">
+        <v>994</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="H96" s="117" t="s">
+        <v>927</v>
+      </c>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K96" s="56"/>
-      <c r="L96" s="56" t="s">
+      <c r="K96" s="4"/>
+      <c r="L96" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M96" s="56"/>
-      <c r="N96" s="56"/>
-      <c r="O96" s="56"/>
-      <c r="P96" s="56"/>
-      <c r="Q96" s="56"/>
-      <c r="R96" s="56"/>
-      <c r="S96" s="56"/>
-      <c r="T96" s="124"/>
-      <c r="U96" s="56"/>
-      <c r="V96" s="56"/>
-      <c r="W96" s="56"/>
-    </row>
-    <row r="97" spans="1:23" s="125" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="4"/>
+      <c r="Q96" s="4"/>
+      <c r="R96" s="4"/>
+      <c r="S96" s="4"/>
+      <c r="T96" s="54"/>
+      <c r="U96" s="4"/>
+      <c r="V96" s="4"/>
+      <c r="W96" s="4"/>
+    </row>
+    <row r="97" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="B97" s="131" t="s">
+        <v>659</v>
+      </c>
+      <c r="B97" s="123" t="s">
         <v>721</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="D97" s="56" t="s">
-        <v>497</v>
-      </c>
-      <c r="E97" s="56" t="s">
-        <v>818</v>
-      </c>
-      <c r="F97" s="56" t="s">
-        <v>829</v>
-      </c>
-      <c r="G97" s="56" t="s">
-        <v>830</v>
-      </c>
-      <c r="H97" s="123" t="s">
-        <v>831</v>
-      </c>
-      <c r="I97" s="56"/>
-      <c r="J97" s="56" t="s">
+      <c r="D97" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="H97" s="117" t="s">
+        <v>907</v>
+      </c>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K97" s="56"/>
-      <c r="L97" s="56" t="s">
+      <c r="K97" s="4"/>
+      <c r="L97" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M97" s="56"/>
-      <c r="N97" s="56"/>
-      <c r="O97" s="56"/>
-      <c r="P97" s="56"/>
-      <c r="Q97" s="56"/>
-      <c r="R97" s="56"/>
-      <c r="S97" s="56"/>
-      <c r="T97" s="124"/>
-      <c r="U97" s="56"/>
-      <c r="V97" s="56"/>
-      <c r="W97" s="56"/>
-    </row>
-    <row r="98" spans="1:23" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4"/>
+      <c r="R97" s="4"/>
+      <c r="S97" s="4"/>
+      <c r="T97" s="54"/>
+      <c r="U97" s="4"/>
+      <c r="V97" s="4"/>
+      <c r="W97" s="4"/>
+    </row>
+    <row r="98" spans="1:23" ht="126" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
-        <v>656</v>
-      </c>
-      <c r="B98" s="131" t="s">
+        <v>660</v>
+      </c>
+      <c r="B98" s="123" t="s">
         <v>721</v>
       </c>
       <c r="C98" s="4" t="s">
@@ -16770,16 +16978,16 @@
         <v>547</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>741</v>
+        <v>951</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>760</v>
+        <v>950</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>761</v>
+        <v>954</v>
       </c>
       <c r="H98" s="117" t="s">
-        <v>762</v>
+        <v>955</v>
       </c>
       <c r="I98" s="4"/>
       <c r="J98" s="4" t="s">
@@ -16801,11 +17009,11 @@
       <c r="V98" s="4"/>
       <c r="W98" s="4"/>
     </row>
-    <row r="99" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:23" ht="84" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
-        <v>657</v>
-      </c>
-      <c r="B99" s="131" t="s">
+        <v>661</v>
+      </c>
+      <c r="B99" s="123" t="s">
         <v>721</v>
       </c>
       <c r="C99" s="4" t="s">
@@ -16815,16 +17023,16 @@
         <v>547</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>741</v>
+        <v>951</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>763</v>
+        <v>952</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>764</v>
+        <v>956</v>
       </c>
       <c r="H99" s="117" t="s">
-        <v>765</v>
+        <v>957</v>
       </c>
       <c r="I99" s="4"/>
       <c r="J99" s="4" t="s">
@@ -16846,11 +17054,11 @@
       <c r="V99" s="4"/>
       <c r="W99" s="4"/>
     </row>
-    <row r="100" spans="1:23" ht="72" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:23" ht="84" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
-        <v>658</v>
-      </c>
-      <c r="B100" s="131" t="s">
+        <v>662</v>
+      </c>
+      <c r="B100" s="123" t="s">
         <v>721</v>
       </c>
       <c r="C100" s="4" t="s">
@@ -16860,16 +17068,16 @@
         <v>547</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>766</v>
+        <v>951</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>767</v>
+        <v>958</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>768</v>
+        <v>959</v>
       </c>
       <c r="H100" s="117" t="s">
-        <v>769</v>
+        <v>960</v>
       </c>
       <c r="I100" s="4"/>
       <c r="J100" s="4" t="s">
@@ -16891,11 +17099,11 @@
       <c r="V100" s="4"/>
       <c r="W100" s="4"/>
     </row>
-    <row r="101" spans="1:23" ht="60" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:23" ht="84" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="B101" s="131" t="s">
+        <v>663</v>
+      </c>
+      <c r="B101" s="123" t="s">
         <v>721</v>
       </c>
       <c r="C101" s="4" t="s">
@@ -16905,20 +17113,20 @@
         <v>547</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>766</v>
+        <v>953</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>770</v>
+        <v>963</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>768</v>
+        <v>961</v>
       </c>
       <c r="H101" s="117" t="s">
-        <v>944</v>
+        <v>962</v>
       </c>
       <c r="I101" s="4"/>
       <c r="J101" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K101" s="4"/>
       <c r="L101" s="4" t="s">
@@ -16936,21 +17144,39 @@
       <c r="V101" s="4"/>
       <c r="W101" s="4"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="117"/>
+        <v>664</v>
+      </c>
+      <c r="B102" s="123" t="s">
+        <v>721</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="H102" s="117" t="s">
+        <v>971</v>
+      </c>
       <c r="I102" s="4"/>
-      <c r="J102" s="4"/>
+      <c r="J102" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
+      <c r="L102" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
@@ -16963,21 +17189,39 @@
       <c r="V102" s="4"/>
       <c r="W102" s="4"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="117"/>
+        <v>665</v>
+      </c>
+      <c r="B103" s="123" t="s">
+        <v>721</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="H103" s="117" t="s">
+        <v>968</v>
+      </c>
       <c r="I103" s="4"/>
-      <c r="J103" s="4"/>
+      <c r="J103" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="K103" s="4"/>
-      <c r="L103" s="4"/>
+      <c r="L103" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
@@ -16990,21 +17234,39 @@
       <c r="V103" s="4"/>
       <c r="W103" s="4"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="117"/>
+        <v>666</v>
+      </c>
+      <c r="B104" s="123" t="s">
+        <v>721</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="H104" s="117" t="s">
+        <v>972</v>
+      </c>
       <c r="I104" s="4"/>
-      <c r="J104" s="4"/>
+      <c r="J104" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K104" s="4"/>
-      <c r="L104" s="4"/>
+      <c r="L104" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
@@ -17017,21 +17279,39 @@
       <c r="V104" s="4"/>
       <c r="W104" s="4"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="117"/>
+        <v>667</v>
+      </c>
+      <c r="B105" s="123" t="s">
+        <v>721</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="H105" s="117" t="s">
+        <v>899</v>
+      </c>
       <c r="I105" s="4"/>
-      <c r="J105" s="4"/>
+      <c r="J105" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
+      <c r="L105" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
@@ -17044,21 +17324,39 @@
       <c r="V105" s="4"/>
       <c r="W105" s="4"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:23" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="117"/>
+        <v>668</v>
+      </c>
+      <c r="B106" s="123" t="s">
+        <v>721</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="H106" s="117" t="s">
+        <v>976</v>
+      </c>
       <c r="I106" s="4"/>
-      <c r="J106" s="4"/>
+      <c r="J106" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K106" s="4"/>
-      <c r="L106" s="4"/>
+      <c r="L106" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
@@ -17071,21 +17369,41 @@
       <c r="V106" s="4"/>
       <c r="W106" s="4"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:23" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="117"/>
-      <c r="I107" s="4"/>
-      <c r="J107" s="4"/>
+        <v>669</v>
+      </c>
+      <c r="B107" s="123" t="s">
+        <v>721</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="H107" s="117" t="s">
+        <v>978</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K107" s="4"/>
-      <c r="L107" s="4"/>
+      <c r="L107" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
@@ -17098,21 +17416,41 @@
       <c r="V107" s="4"/>
       <c r="W107" s="4"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:23" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="117"/>
-      <c r="I108" s="4"/>
-      <c r="J108" s="4"/>
+        <v>670</v>
+      </c>
+      <c r="B108" s="123" t="s">
+        <v>721</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="H108" s="117" t="s">
+        <v>979</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="J108" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K108" s="4"/>
-      <c r="L108" s="4"/>
+      <c r="L108" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
       <c r="O108" s="4"/>
@@ -17125,21 +17463,39 @@
       <c r="V108" s="4"/>
       <c r="W108" s="4"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A109" s="4" t="s">
-        <v>667</v>
-      </c>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="117"/>
+    <row r="109" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+      <c r="A109" s="40" t="s">
+        <v>671</v>
+      </c>
+      <c r="B109" s="123" t="s">
+        <v>721</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="D109" s="56" t="s">
+        <v>547</v>
+      </c>
+      <c r="E109" s="56" t="s">
+        <v>727</v>
+      </c>
+      <c r="F109" s="40" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G109" s="56" t="s">
+        <v>823</v>
+      </c>
+      <c r="H109" s="120" t="s">
+        <v>733</v>
+      </c>
       <c r="I109" s="4"/>
-      <c r="J109" s="4"/>
+      <c r="J109" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K109" s="4"/>
-      <c r="L109" s="4"/>
+      <c r="L109" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
       <c r="O109" s="4"/>
@@ -17152,21 +17508,39 @@
       <c r="V109" s="4"/>
       <c r="W109" s="4"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="117"/>
+        <v>672</v>
+      </c>
+      <c r="B110" s="123" t="s">
+        <v>721</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="H110" s="117" t="s">
+        <v>735</v>
+      </c>
       <c r="I110" s="4"/>
-      <c r="J110" s="4"/>
+      <c r="J110" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="K110" s="4"/>
-      <c r="L110" s="4"/>
+      <c r="L110" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
@@ -17179,21 +17553,39 @@
       <c r="V110" s="4"/>
       <c r="W110" s="4"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:23" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="117"/>
+        <v>673</v>
+      </c>
+      <c r="B111" s="123" t="s">
+        <v>721</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="H111" s="117" t="s">
+        <v>981</v>
+      </c>
       <c r="I111" s="4"/>
-      <c r="J111" s="4"/>
+      <c r="J111" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K111" s="4"/>
-      <c r="L111" s="4"/>
+      <c r="L111" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
@@ -17206,21 +17598,39 @@
       <c r="V111" s="4"/>
       <c r="W111" s="4"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:23" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="117"/>
+        <v>674</v>
+      </c>
+      <c r="B112" s="123" t="s">
+        <v>721</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H112" s="117" t="s">
+        <v>737</v>
+      </c>
       <c r="I112" s="4"/>
-      <c r="J112" s="4"/>
+      <c r="J112" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K112" s="4"/>
-      <c r="L112" s="4"/>
+      <c r="L112" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
@@ -17233,21 +17643,39 @@
       <c r="V112" s="4"/>
       <c r="W112" s="4"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
-      <c r="H113" s="117"/>
+        <v>675</v>
+      </c>
+      <c r="B113" s="123" t="s">
+        <v>721</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H113" s="117" t="s">
+        <v>739</v>
+      </c>
       <c r="I113" s="4"/>
-      <c r="J113" s="4"/>
+      <c r="J113" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K113" s="4"/>
-      <c r="L113" s="4"/>
+      <c r="L113" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
@@ -17260,21 +17688,39 @@
       <c r="V113" s="4"/>
       <c r="W113" s="4"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
-      <c r="H114" s="117"/>
+        <v>676</v>
+      </c>
+      <c r="B114" s="123" t="s">
+        <v>721</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="H114" s="117" t="s">
+        <v>743</v>
+      </c>
       <c r="I114" s="4"/>
-      <c r="J114" s="4"/>
+      <c r="J114" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K114" s="4"/>
-      <c r="L114" s="4"/>
+      <c r="L114" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
       <c r="O114" s="4"/>
@@ -17287,21 +17733,39 @@
       <c r="V114" s="4"/>
       <c r="W114" s="4"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:23" ht="60" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
-        <v>673</v>
-      </c>
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="117"/>
+        <v>677</v>
+      </c>
+      <c r="B115" s="123" t="s">
+        <v>721</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="H115" s="117" t="s">
+        <v>900</v>
+      </c>
       <c r="I115" s="4"/>
-      <c r="J115" s="4"/>
+      <c r="J115" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K115" s="4"/>
-      <c r="L115" s="4"/>
+      <c r="L115" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
@@ -17316,7 +17780,7 @@
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -17343,7 +17807,7 @@
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -17370,7 +17834,7 @@
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -17397,7 +17861,7 @@
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -17424,7 +17888,7 @@
     </row>
     <row r="120" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -17451,7 +17915,7 @@
     </row>
     <row r="121" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -17478,7 +17942,7 @@
     </row>
     <row r="122" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -17505,7 +17969,7 @@
     </row>
     <row r="123" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -17532,7 +17996,7 @@
     </row>
     <row r="124" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -17559,7 +18023,7 @@
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -17586,7 +18050,7 @@
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
-        <v>684</v>
+        <v>745</v>
       </c>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -17613,7 +18077,7 @@
     </row>
     <row r="127" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
-        <v>685</v>
+        <v>746</v>
       </c>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -17640,7 +18104,7 @@
     </row>
     <row r="128" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
-        <v>690</v>
+        <v>747</v>
       </c>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -17667,7 +18131,7 @@
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A129" s="4" t="s">
-        <v>691</v>
+        <v>748</v>
       </c>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -17694,7 +18158,7 @@
     </row>
     <row r="130" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A130" s="4" t="s">
-        <v>771</v>
+        <v>749</v>
       </c>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -17721,7 +18185,7 @@
     </row>
     <row r="131" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A131" s="4" t="s">
-        <v>772</v>
+        <v>750</v>
       </c>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -17748,7 +18212,7 @@
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A132" s="4" t="s">
-        <v>773</v>
+        <v>799</v>
       </c>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -17775,7 +18239,7 @@
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A133" s="4" t="s">
-        <v>774</v>
+        <v>800</v>
       </c>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -17802,7 +18266,7 @@
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A134" s="4" t="s">
-        <v>775</v>
+        <v>801</v>
       </c>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -17829,7 +18293,7 @@
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
-        <v>776</v>
+        <v>802</v>
       </c>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -17856,7 +18320,7 @@
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A136" s="4" t="s">
-        <v>832</v>
+        <v>803</v>
       </c>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -17883,7 +18347,7 @@
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A137" s="4" t="s">
-        <v>833</v>
+        <v>804</v>
       </c>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -17910,7 +18374,7 @@
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A138" s="4" t="s">
-        <v>834</v>
+        <v>805</v>
       </c>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -17937,7 +18401,7 @@
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A139" s="4" t="s">
-        <v>835</v>
+        <v>806</v>
       </c>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -17964,7 +18428,7 @@
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A140" s="4" t="s">
-        <v>836</v>
+        <v>807</v>
       </c>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -17991,7 +18455,7 @@
     </row>
     <row r="141" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
-        <v>837</v>
+        <v>808</v>
       </c>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -18018,7 +18482,7 @@
     </row>
     <row r="142" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
-        <v>838</v>
+        <v>809</v>
       </c>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -18045,7 +18509,7 @@
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
-        <v>839</v>
+        <v>810</v>
       </c>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -18072,7 +18536,7 @@
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
-        <v>840</v>
+        <v>811</v>
       </c>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -18099,7 +18563,7 @@
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
-        <v>841</v>
+        <v>812</v>
       </c>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -18126,7 +18590,7 @@
     </row>
     <row r="146" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A146" s="4" t="s">
-        <v>842</v>
+        <v>813</v>
       </c>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -18153,7 +18617,7 @@
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A147" s="4" t="s">
-        <v>843</v>
+        <v>814</v>
       </c>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -18180,7 +18644,7 @@
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
-        <v>844</v>
+        <v>815</v>
       </c>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -18207,7 +18671,7 @@
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A149" s="4" t="s">
-        <v>845</v>
+        <v>816</v>
       </c>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -18234,7 +18698,7 @@
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A150" s="4" t="s">
-        <v>846</v>
+        <v>817</v>
       </c>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -18261,7 +18725,7 @@
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A151" s="4" t="s">
-        <v>847</v>
+        <v>818</v>
       </c>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -18288,7 +18752,7 @@
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A152" s="4" t="s">
-        <v>848</v>
+        <v>819</v>
       </c>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -18315,7 +18779,7 @@
     </row>
     <row r="153" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A153" s="4" t="s">
-        <v>849</v>
+        <v>820</v>
       </c>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -18342,7 +18806,7 @@
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A154" s="4" t="s">
-        <v>850</v>
+        <v>821</v>
       </c>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -18369,7 +18833,7 @@
     </row>
     <row r="155" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A155" s="4" t="s">
-        <v>851</v>
+        <v>822</v>
       </c>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -18396,7 +18860,7 @@
     </row>
     <row r="156" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A156" s="4" t="s">
-        <v>852</v>
+        <v>865</v>
       </c>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -18423,7 +18887,7 @@
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A157" s="4" t="s">
-        <v>853</v>
+        <v>1022</v>
       </c>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -18450,7 +18914,7 @@
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A158" s="4" t="s">
-        <v>854</v>
+        <v>1023</v>
       </c>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -18477,7 +18941,7 @@
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A159" s="4" t="s">
-        <v>855</v>
+        <v>1024</v>
       </c>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -18504,7 +18968,7 @@
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A160" s="4" t="s">
-        <v>905</v>
+        <v>1025</v>
       </c>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -18529,6 +18993,384 @@
       <c r="V160" s="4"/>
       <c r="W160" s="4"/>
     </row>
+    <row r="161" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A161" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B161" s="4"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4"/>
+      <c r="G161" s="4"/>
+      <c r="H161" s="117"/>
+      <c r="I161" s="4"/>
+      <c r="J161" s="4"/>
+      <c r="K161" s="4"/>
+      <c r="L161" s="4"/>
+      <c r="M161" s="4"/>
+      <c r="N161" s="4"/>
+      <c r="O161" s="4"/>
+      <c r="P161" s="4"/>
+      <c r="Q161" s="4"/>
+      <c r="R161" s="4"/>
+      <c r="S161" s="4"/>
+      <c r="T161" s="54"/>
+      <c r="U161" s="4"/>
+      <c r="V161" s="4"/>
+      <c r="W161" s="4"/>
+    </row>
+    <row r="162" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A162" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B162" s="4"/>
+      <c r="C162" s="4"/>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="4"/>
+      <c r="G162" s="4"/>
+      <c r="H162" s="117"/>
+      <c r="I162" s="4"/>
+      <c r="J162" s="4"/>
+      <c r="K162" s="4"/>
+      <c r="L162" s="4"/>
+      <c r="M162" s="4"/>
+      <c r="N162" s="4"/>
+      <c r="O162" s="4"/>
+      <c r="P162" s="4"/>
+      <c r="Q162" s="4"/>
+      <c r="R162" s="4"/>
+      <c r="S162" s="4"/>
+      <c r="T162" s="54"/>
+      <c r="U162" s="4"/>
+      <c r="V162" s="4"/>
+      <c r="W162" s="4"/>
+    </row>
+    <row r="163" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A163" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B163" s="4"/>
+      <c r="C163" s="4"/>
+      <c r="D163" s="4"/>
+      <c r="E163" s="4"/>
+      <c r="F163" s="4"/>
+      <c r="G163" s="4"/>
+      <c r="H163" s="117"/>
+      <c r="I163" s="4"/>
+      <c r="J163" s="4"/>
+      <c r="K163" s="4"/>
+      <c r="L163" s="4"/>
+      <c r="M163" s="4"/>
+      <c r="N163" s="4"/>
+      <c r="O163" s="4"/>
+      <c r="P163" s="4"/>
+      <c r="Q163" s="4"/>
+      <c r="R163" s="4"/>
+      <c r="S163" s="4"/>
+      <c r="T163" s="54"/>
+      <c r="U163" s="4"/>
+      <c r="V163" s="4"/>
+      <c r="W163" s="4"/>
+    </row>
+    <row r="164" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A164" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B164" s="4"/>
+      <c r="C164" s="4"/>
+      <c r="D164" s="4"/>
+      <c r="E164" s="4"/>
+      <c r="F164" s="4"/>
+      <c r="G164" s="4"/>
+      <c r="H164" s="117"/>
+      <c r="I164" s="4"/>
+      <c r="J164" s="4"/>
+      <c r="K164" s="4"/>
+      <c r="L164" s="4"/>
+      <c r="M164" s="4"/>
+      <c r="N164" s="4"/>
+      <c r="O164" s="4"/>
+      <c r="P164" s="4"/>
+      <c r="Q164" s="4"/>
+      <c r="R164" s="4"/>
+      <c r="S164" s="4"/>
+      <c r="T164" s="54"/>
+      <c r="U164" s="4"/>
+      <c r="V164" s="4"/>
+      <c r="W164" s="4"/>
+    </row>
+    <row r="165" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A165" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
+      <c r="E165" s="4"/>
+      <c r="F165" s="4"/>
+      <c r="G165" s="4"/>
+      <c r="H165" s="117"/>
+      <c r="I165" s="4"/>
+      <c r="J165" s="4"/>
+      <c r="K165" s="4"/>
+      <c r="L165" s="4"/>
+      <c r="M165" s="4"/>
+      <c r="N165" s="4"/>
+      <c r="O165" s="4"/>
+      <c r="P165" s="4"/>
+      <c r="Q165" s="4"/>
+      <c r="R165" s="4"/>
+      <c r="S165" s="4"/>
+      <c r="T165" s="54"/>
+      <c r="U165" s="4"/>
+      <c r="V165" s="4"/>
+      <c r="W165" s="4"/>
+    </row>
+    <row r="166" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A166" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B166" s="4"/>
+      <c r="C166" s="4"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="4"/>
+      <c r="F166" s="4"/>
+      <c r="G166" s="4"/>
+      <c r="H166" s="117"/>
+      <c r="I166" s="4"/>
+      <c r="J166" s="4"/>
+      <c r="K166" s="4"/>
+      <c r="L166" s="4"/>
+      <c r="M166" s="4"/>
+      <c r="N166" s="4"/>
+      <c r="O166" s="4"/>
+      <c r="P166" s="4"/>
+      <c r="Q166" s="4"/>
+      <c r="R166" s="4"/>
+      <c r="S166" s="4"/>
+      <c r="T166" s="54"/>
+      <c r="U166" s="4"/>
+      <c r="V166" s="4"/>
+      <c r="W166" s="4"/>
+    </row>
+    <row r="167" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A167" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B167" s="4"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="4"/>
+      <c r="E167" s="4"/>
+      <c r="F167" s="4"/>
+      <c r="G167" s="4"/>
+      <c r="H167" s="117"/>
+      <c r="I167" s="4"/>
+      <c r="J167" s="4"/>
+      <c r="K167" s="4"/>
+      <c r="L167" s="4"/>
+      <c r="M167" s="4"/>
+      <c r="N167" s="4"/>
+      <c r="O167" s="4"/>
+      <c r="P167" s="4"/>
+      <c r="Q167" s="4"/>
+      <c r="R167" s="4"/>
+      <c r="S167" s="4"/>
+      <c r="T167" s="54"/>
+      <c r="U167" s="4"/>
+      <c r="V167" s="4"/>
+      <c r="W167" s="4"/>
+    </row>
+    <row r="168" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A168" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B168" s="4"/>
+      <c r="C168" s="4"/>
+      <c r="D168" s="4"/>
+      <c r="E168" s="4"/>
+      <c r="F168" s="4"/>
+      <c r="G168" s="4"/>
+      <c r="H168" s="117"/>
+      <c r="I168" s="4"/>
+      <c r="J168" s="4"/>
+      <c r="K168" s="4"/>
+      <c r="L168" s="4"/>
+      <c r="M168" s="4"/>
+      <c r="N168" s="4"/>
+      <c r="O168" s="4"/>
+      <c r="P168" s="4"/>
+      <c r="Q168" s="4"/>
+      <c r="R168" s="4"/>
+      <c r="S168" s="4"/>
+      <c r="T168" s="54"/>
+      <c r="U168" s="4"/>
+      <c r="V168" s="4"/>
+      <c r="W168" s="4"/>
+    </row>
+    <row r="169" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A169" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B169" s="4"/>
+      <c r="C169" s="4"/>
+      <c r="D169" s="4"/>
+      <c r="E169" s="4"/>
+      <c r="F169" s="4"/>
+      <c r="G169" s="4"/>
+      <c r="H169" s="117"/>
+      <c r="I169" s="4"/>
+      <c r="J169" s="4"/>
+      <c r="K169" s="4"/>
+      <c r="L169" s="4"/>
+      <c r="M169" s="4"/>
+      <c r="N169" s="4"/>
+      <c r="O169" s="4"/>
+      <c r="P169" s="4"/>
+      <c r="Q169" s="4"/>
+      <c r="R169" s="4"/>
+      <c r="S169" s="4"/>
+      <c r="T169" s="54"/>
+      <c r="U169" s="4"/>
+      <c r="V169" s="4"/>
+      <c r="W169" s="4"/>
+    </row>
+    <row r="170" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A170" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B170" s="4"/>
+      <c r="C170" s="4"/>
+      <c r="D170" s="4"/>
+      <c r="E170" s="4"/>
+      <c r="F170" s="4"/>
+      <c r="G170" s="4"/>
+      <c r="H170" s="117"/>
+      <c r="I170" s="4"/>
+      <c r="J170" s="4"/>
+      <c r="K170" s="4"/>
+      <c r="L170" s="4"/>
+      <c r="M170" s="4"/>
+      <c r="N170" s="4"/>
+      <c r="O170" s="4"/>
+      <c r="P170" s="4"/>
+      <c r="Q170" s="4"/>
+      <c r="R170" s="4"/>
+      <c r="S170" s="4"/>
+      <c r="T170" s="54"/>
+      <c r="U170" s="4"/>
+      <c r="V170" s="4"/>
+      <c r="W170" s="4"/>
+    </row>
+    <row r="171" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A171" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B171" s="4"/>
+      <c r="C171" s="4"/>
+      <c r="D171" s="4"/>
+      <c r="E171" s="4"/>
+      <c r="F171" s="4"/>
+      <c r="G171" s="4"/>
+      <c r="H171" s="117"/>
+      <c r="I171" s="4"/>
+      <c r="J171" s="4"/>
+      <c r="K171" s="4"/>
+      <c r="L171" s="4"/>
+      <c r="M171" s="4"/>
+      <c r="N171" s="4"/>
+      <c r="O171" s="4"/>
+      <c r="P171" s="4"/>
+      <c r="Q171" s="4"/>
+      <c r="R171" s="4"/>
+      <c r="S171" s="4"/>
+      <c r="T171" s="54"/>
+      <c r="U171" s="4"/>
+      <c r="V171" s="4"/>
+      <c r="W171" s="4"/>
+    </row>
+    <row r="172" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A172" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B172" s="4"/>
+      <c r="C172" s="4"/>
+      <c r="D172" s="4"/>
+      <c r="E172" s="4"/>
+      <c r="F172" s="4"/>
+      <c r="G172" s="4"/>
+      <c r="H172" s="117"/>
+      <c r="I172" s="4"/>
+      <c r="J172" s="4"/>
+      <c r="K172" s="4"/>
+      <c r="L172" s="4"/>
+      <c r="M172" s="4"/>
+      <c r="N172" s="4"/>
+      <c r="O172" s="4"/>
+      <c r="P172" s="4"/>
+      <c r="Q172" s="4"/>
+      <c r="R172" s="4"/>
+      <c r="S172" s="4"/>
+      <c r="T172" s="54"/>
+      <c r="U172" s="4"/>
+      <c r="V172" s="4"/>
+      <c r="W172" s="4"/>
+    </row>
+    <row r="173" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A173" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B173" s="4"/>
+      <c r="C173" s="4"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="4"/>
+      <c r="F173" s="4"/>
+      <c r="G173" s="4"/>
+      <c r="H173" s="117"/>
+      <c r="I173" s="4"/>
+      <c r="J173" s="4"/>
+      <c r="K173" s="4"/>
+      <c r="L173" s="4"/>
+      <c r="M173" s="4"/>
+      <c r="N173" s="4"/>
+      <c r="O173" s="4"/>
+      <c r="P173" s="4"/>
+      <c r="Q173" s="4"/>
+      <c r="R173" s="4"/>
+      <c r="S173" s="4"/>
+      <c r="T173" s="54"/>
+      <c r="U173" s="4"/>
+      <c r="V173" s="4"/>
+      <c r="W173" s="4"/>
+    </row>
+    <row r="174" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A174" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B174" s="4"/>
+      <c r="C174" s="4"/>
+      <c r="D174" s="4"/>
+      <c r="E174" s="4"/>
+      <c r="F174" s="4"/>
+      <c r="G174" s="4"/>
+      <c r="H174" s="117"/>
+      <c r="I174" s="4"/>
+      <c r="J174" s="4"/>
+      <c r="K174" s="4"/>
+      <c r="L174" s="4"/>
+      <c r="M174" s="4"/>
+      <c r="N174" s="4"/>
+      <c r="O174" s="4"/>
+      <c r="P174" s="4"/>
+      <c r="Q174" s="4"/>
+      <c r="R174" s="4"/>
+      <c r="S174" s="4"/>
+      <c r="T174" s="54"/>
+      <c r="U174" s="4"/>
+      <c r="V174" s="4"/>
+      <c r="W174" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18540,49 +19382,49 @@
           <x14:formula1>
             <xm:f>Sheet2!$M$4:$M$6</xm:f>
           </x14:formula1>
-          <xm:sqref>S3:S160</xm:sqref>
+          <xm:sqref>S3:S174</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$G$4:$G$11</xm:f>
           </x14:formula1>
-          <xm:sqref>R3:R160</xm:sqref>
+          <xm:sqref>R3:R174</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$K$4:$K$13</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:K160</xm:sqref>
+          <xm:sqref>K3:K174</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$J$4:$J$9</xm:f>
           </x14:formula1>
-          <xm:sqref>Q3:Q160</xm:sqref>
+          <xm:sqref>Q3:Q174</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$G$4:$G$10</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:O160</xm:sqref>
+          <xm:sqref>M3:O174</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$F$4:$F$8</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L160</xm:sqref>
+          <xm:sqref>L3:L174</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$D$4:$D$9</xm:f>
           </x14:formula1>
-          <xm:sqref>J3:J160</xm:sqref>
+          <xm:sqref>J3:J174</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Story Point">
           <x14:formula1>
             <xm:f>'C:\Users\Omnex\Documents\[performanetools1.txt.xlsx]Data_Ref'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>P3:P160</xm:sqref>
+          <xm:sqref>P3:P174</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/projects/YanFeng/02 System Design/User Stories/User Stories.xlsx
+++ b/projects/YanFeng/02 System Design/User Stories/User Stories.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="1040">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="1071">
   <si>
     <t>ID</t>
   </si>
@@ -2097,17 +2097,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>I can assign task to ASDE/SQE by part</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, User should see "Project Parts" section in project information form;
-2, User should see clickable "+" icon in "project parts" section;
-3, User should see parts list in "project parts" section;
-4, User should see a new "Add Part" form after clicking on "+" icon;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Fill part information</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2118,11 +2107,6 @@
   <si>
     <t xml:space="preserve">SNL No. 产品名称/零件号(Product Name/part number), 定点供应商编号(Supplier Number), 零件描述(Part Description), 定点供应商名称(Supplier Name), 定点产品描述(Product Description), 资产编号(Property Number), 零件类别(Part Category), 删减/Activie, 子项目类别(Sub Project), HIS（Y/N）
 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, User should see a new "add part" form which contains part basic information;
-2, User should see "Save" "Cancel" buttons;</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -4297,6 +4281,156 @@
   </si>
   <si>
     <t>US172</t>
+  </si>
+  <si>
+    <t>Project Management - Project Filter</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>As a user, I want to filter my tasks, so that I can quickly locate the tasks I want to process</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project management</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDE/SQE supervisor
+ASDE/SQE
+Supplier</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>See project filter at the bottom of the Explore Tree view</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can open the filter at any time</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see a project filter menu at the bottom of Explore Tree view(behind the task tree view)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Shrink and Extend the project filter as required </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can open it when suppose to filter my project and shrink it when I suppose to process task tree view;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, Project filter should have functions to be shrink and extend;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can qulickly find the project using key words</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do quick search on the project name using project filter</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Quick Search (By Key word) should be provided;
+2, The key word should be part of project name;
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Filter my project by three condition "All Project","Active Project", "Inactive Project"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can quickly find the project that fulfill my requests</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1, User should see three predefined menu item "All Project","Active Projects","Inactive Projects" in the project filter menu;
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Projects: Includes Active and Inactive projects;
+Active Projects: The projects not in close status;
+Inactive Projects: The projects in close status;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>US173</t>
+  </si>
+  <si>
+    <t>US174</t>
+  </si>
+  <si>
+    <t>US175</t>
+  </si>
+  <si>
+    <t>US176</t>
+  </si>
+  <si>
+    <t>I can create part task according to the part added</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add a part from system part repository</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can add an existing part to my project</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see "Project Parts" section in project information form;
+2, User should see clickable "+" icon in "project parts" section;
+3, User should see parts list in "project parts" section;
+4, User should see a new "Add Part Information" form after clicking on "+" icon;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see a new "add part information" form which contains part basic information;
+2, User should see "Save" "Cancel" buttons;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see a button "Part Repository" in "Add Part Information" form;
+2, User should see a new window "Part Repository" when clicking on above button;
+3, User should be able to select a existing part from the part list;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">I can filter the parts </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search a part using criteria "part name" "category" "supplier" and "property no" in function of add part</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see search criteria "part name" "category" "supplier name" "property No" in "part repository" window;
+2, User should see buttons "Search" "Cancel";
+3, User should see a part list;
+4, User should be able to select a load part information by clicking on the link "Select" at the bottom of the part list;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDE/SQE supervisor
+ASDE/SQE
+Supplier</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">I can change the schedule items </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>See task list in Display area</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see task list in display area;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4454,7 +4588,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4542,6 +4676,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4696,7 +4836,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5047,6 +5187,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5582,7 +5725,7 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B2" s="129" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C2" s="130"/>
       <c r="D2" s="130"/>
@@ -5601,34 +5744,34 @@
       <c r="G3" s="132"/>
       <c r="H3" s="132"/>
       <c r="I3" s="99" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="99"/>
       <c r="C4" s="103" t="s">
+        <v>551</v>
+      </c>
+      <c r="D4" s="104" t="s">
+        <v>552</v>
+      </c>
+      <c r="E4" s="104" t="s">
+        <v>553</v>
+      </c>
+      <c r="F4" s="104" t="s">
         <v>554</v>
       </c>
-      <c r="D4" s="104" t="s">
+      <c r="G4" s="104" t="s">
         <v>555</v>
       </c>
-      <c r="E4" s="104" t="s">
+      <c r="H4" s="104" t="s">
         <v>556</v>
-      </c>
-      <c r="F4" s="104" t="s">
-        <v>557</v>
-      </c>
-      <c r="G4" s="104" t="s">
-        <v>558</v>
-      </c>
-      <c r="H4" s="104" t="s">
-        <v>559</v>
       </c>
       <c r="I4" s="104"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="99" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C5" s="99">
         <f>COUNTIF('System Setup'!J:J,"Critical")</f>
@@ -5661,7 +5804,7 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="100" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C6" s="99">
         <f>COUNTIF('Project Management'!J:J,"Critical")</f>
@@ -5673,11 +5816,11 @@
       </c>
       <c r="E6" s="99">
         <f>COUNTIF('Project Management'!J:J,"High")</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" s="99">
         <f>COUNTIF('Project Management'!J:J,"Medium")</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G6" s="99">
         <f>COUNTIF('Project Management'!J:J,"Low")</f>
@@ -5689,12 +5832,12 @@
       </c>
       <c r="I6" s="99">
         <f t="shared" ref="I6:I12" si="0">SUM(C6:H6)</f>
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" s="100" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C7" s="99">
         <f>COUNTIF('Advanced Settings'!J:J,"Critical")</f>
@@ -5727,7 +5870,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" s="100" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C8" s="99">
         <f>COUNTIF('Issue Management'!J:J,"Critical")</f>
@@ -5760,7 +5903,7 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" s="100" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C9" s="99">
         <f>COUNTIF('User Account'!J:J,"Critical")</f>
@@ -5793,7 +5936,7 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" s="100" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C10" s="99">
         <f>COUNTIF('Report Management'!J:J,"Critical")</f>
@@ -5826,7 +5969,7 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B11" s="100" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C11" s="99">
         <f>COUNTIF('System Integration'!J:J,"Critical")</f>
@@ -5859,7 +6002,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" s="100" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C12" s="99">
         <f>COUNTIF('UI&amp;UX'!J:J,"Critical")</f>
@@ -5892,7 +6035,7 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" s="101" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C13" s="99">
         <f>SUM(C5:C12)</f>
@@ -5904,11 +6047,11 @@
       </c>
       <c r="E13" s="99">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F13" s="99">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G13" s="99">
         <f t="shared" si="1"/>
@@ -5922,11 +6065,11 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" s="102" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C14" s="128">
         <f>SUM(C13:H13)</f>
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D14" s="128"/>
       <c r="E14" s="128"/>
@@ -8026,13 +8169,13 @@
         <v>3.4</v>
       </c>
       <c r="B36" s="113" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C36" s="113" t="s">
         <v>75</v>
       </c>
       <c r="D36" s="114" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E36" s="75"/>
     </row>
@@ -8071,7 +8214,7 @@
         <v>3.7</v>
       </c>
       <c r="B39" s="107" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C39" s="107" t="s">
         <v>75</v>
@@ -8084,7 +8227,7 @@
         <v>3.8</v>
       </c>
       <c r="B40" s="73" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C40" s="73" t="s">
         <v>75</v>
@@ -8099,7 +8242,7 @@
         <v>3.9</v>
       </c>
       <c r="B41" s="73" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C41" s="73" t="s">
         <v>75</v>
@@ -8112,7 +8255,7 @@
         <v>512</v>
       </c>
       <c r="B42" s="110" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C42" s="110" t="s">
         <v>75</v>
@@ -8170,7 +8313,7 @@
         <v>515</v>
       </c>
       <c r="B46" s="110" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C46" s="110" t="s">
         <v>75</v>
@@ -12527,11 +12670,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W174"/>
+  <dimension ref="A1:W182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
+      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12663,13 +12806,13 @@
     </row>
     <row r="3" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B3" s="125" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>497</v>
@@ -12678,16 +12821,16 @@
         <v>499</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="H3" s="117" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>43</v>
@@ -12710,13 +12853,13 @@
     </row>
     <row r="4" spans="1:23" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B4" s="125" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>497</v>
@@ -12725,13 +12868,13 @@
         <v>499</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="H4" s="117" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="I4" s="40"/>
       <c r="J4" s="4" t="s">
@@ -12758,10 +12901,10 @@
         <v>255</v>
       </c>
       <c r="B5" s="125" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>497</v>
@@ -12770,13 +12913,13 @@
         <v>499</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="H5" s="117" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="I5" s="40"/>
       <c r="J5" s="4" t="s">
@@ -12803,10 +12946,10 @@
         <v>256</v>
       </c>
       <c r="B6" s="125" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>497</v>
@@ -12815,16 +12958,16 @@
         <v>499</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="H6" s="117" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>43</v>
@@ -12850,10 +12993,10 @@
         <v>257</v>
       </c>
       <c r="B7" s="125" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>497</v>
@@ -12862,13 +13005,13 @@
         <v>499</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="H7" s="117" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="I7" s="40"/>
       <c r="J7" s="4" t="s">
@@ -12895,10 +13038,10 @@
         <v>258</v>
       </c>
       <c r="B8" s="125" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>497</v>
@@ -12907,13 +13050,13 @@
         <v>499</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="H8" s="117" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="I8" s="40"/>
       <c r="J8" s="4" t="s">
@@ -12940,10 +13083,10 @@
         <v>259</v>
       </c>
       <c r="B9" s="125" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>497</v>
@@ -12952,16 +13095,16 @@
         <v>499</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="H9" s="117" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="I9" s="40" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>43</v>
@@ -12987,25 +13130,25 @@
         <v>260</v>
       </c>
       <c r="B10" s="125" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="H10" s="117" t="s">
         <v>786</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>787</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>758</v>
-      </c>
-      <c r="H10" s="117" t="s">
-        <v>789</v>
       </c>
       <c r="I10" s="40"/>
       <c r="J10" s="4" t="s">
@@ -13032,25 +13175,25 @@
         <v>261</v>
       </c>
       <c r="B11" s="125" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="H11" s="117" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
@@ -13072,34 +13215,34 @@
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
     </row>
-    <row r="12" spans="1:23" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B12" s="124" t="s">
-        <v>839</v>
+      <c r="B12" s="133" t="s">
+        <v>1037</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>500</v>
+        <v>1038</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>497</v>
+        <v>1039</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>499</v>
+        <v>1040</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>880</v>
+        <v>1041</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>871</v>
+        <v>1042</v>
       </c>
       <c r="H12" s="117" t="s">
-        <v>894</v>
-      </c>
-      <c r="I12" s="34"/>
+        <v>1043</v>
+      </c>
+      <c r="I12" s="4"/>
       <c r="J12" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4" t="s">
@@ -13117,34 +13260,34 @@
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
     </row>
-    <row r="13" spans="1:23" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B13" s="124" t="s">
-        <v>839</v>
+      <c r="B13" s="133" t="s">
+        <v>1037</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>500</v>
+        <v>1038</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>497</v>
+        <v>1039</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>499</v>
+        <v>1040</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>881</v>
+        <v>1044</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>879</v>
+        <v>1045</v>
       </c>
       <c r="H13" s="117" t="s">
-        <v>893</v>
-      </c>
-      <c r="I13" s="34"/>
+        <v>1046</v>
+      </c>
+      <c r="I13" s="4"/>
       <c r="J13" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
@@ -13162,36 +13305,34 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
     </row>
-    <row r="14" spans="1:23" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="B14" s="124" t="s">
-        <v>839</v>
+        <v>526</v>
+      </c>
+      <c r="B14" s="133" t="s">
+        <v>1037</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>500</v>
+        <v>1038</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>497</v>
+        <v>1039</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>499</v>
+        <v>1040</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>888</v>
+        <v>1048</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>882</v>
+        <v>1047</v>
       </c>
       <c r="H14" s="117" t="s">
-        <v>889</v>
-      </c>
-      <c r="I14" s="34" t="s">
-        <v>689</v>
-      </c>
+        <v>1049</v>
+      </c>
+      <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
@@ -13209,36 +13350,36 @@
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
     </row>
-    <row r="15" spans="1:23" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="B15" s="124" t="s">
-        <v>839</v>
+      <c r="B15" s="133" t="s">
+        <v>1037</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>500</v>
+        <v>1038</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>497</v>
+        <v>1039</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>499</v>
+        <v>1040</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>886</v>
+        <v>1050</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>595</v>
+        <v>1051</v>
       </c>
       <c r="H15" s="117" t="s">
-        <v>596</v>
-      </c>
-      <c r="I15" s="34" t="s">
-        <v>597</v>
+        <v>1052</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>1053</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4" t="s">
@@ -13256,12 +13397,12 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
     </row>
-    <row r="16" spans="1:23" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>272</v>
       </c>
       <c r="B16" s="124" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>500</v>
@@ -13270,20 +13411,20 @@
         <v>497</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>724</v>
+        <v>499</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="H16" s="117" t="s">
         <v>891</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>760</v>
-      </c>
-      <c r="H16" s="117" t="s">
-        <v>892</v>
-      </c>
-      <c r="I16" s="40"/>
+      <c r="I16" s="34"/>
       <c r="J16" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4" t="s">
@@ -13301,12 +13442,12 @@
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
     </row>
-    <row r="17" spans="1:23" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>279</v>
       </c>
       <c r="B17" s="124" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>500</v>
@@ -13318,13 +13459,13 @@
         <v>499</v>
       </c>
       <c r="F17" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="H17" s="117" t="s">
         <v>890</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="H17" s="117" t="s">
-        <v>887</v>
       </c>
       <c r="I17" s="34"/>
       <c r="J17" s="4" t="s">
@@ -13346,12 +13487,12 @@
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
     </row>
-    <row r="18" spans="1:23" ht="120" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>280</v>
       </c>
       <c r="B18" s="124" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>500</v>
@@ -13363,16 +13504,16 @@
         <v>499</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>501</v>
+        <v>879</v>
       </c>
       <c r="H18" s="117" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>502</v>
+        <v>686</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>44</v>
@@ -13393,15 +13534,15 @@
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
     </row>
-    <row r="19" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>291</v>
       </c>
       <c r="B19" s="124" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>846</v>
+        <v>500</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>497</v>
@@ -13410,15 +13551,17 @@
         <v>499</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>845</v>
+        <v>883</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>503</v>
+        <v>592</v>
       </c>
       <c r="H19" s="117" t="s">
-        <v>508</v>
-      </c>
-      <c r="I19" s="4"/>
+        <v>593</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>594</v>
+      </c>
       <c r="J19" s="4" t="s">
         <v>44</v>
       </c>
@@ -13438,34 +13581,34 @@
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
     </row>
-    <row r="20" spans="1:23" ht="84" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>296</v>
       </c>
       <c r="B20" s="124" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>846</v>
+        <v>500</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>499</v>
+        <v>721</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>504</v>
+        <v>888</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>505</v>
+        <v>757</v>
       </c>
       <c r="H20" s="117" t="s">
-        <v>506</v>
-      </c>
-      <c r="I20" s="4"/>
+        <v>889</v>
+      </c>
+      <c r="I20" s="40"/>
       <c r="J20" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4" t="s">
@@ -13483,12 +13626,12 @@
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
     </row>
-    <row r="21" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>301</v>
       </c>
       <c r="B21" s="124" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>500</v>
@@ -13500,15 +13643,15 @@
         <v>499</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>543</v>
+        <v>887</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="H21" s="117" t="s">
-        <v>509</v>
-      </c>
-      <c r="I21" s="4"/>
+        <v>884</v>
+      </c>
+      <c r="I21" s="34"/>
       <c r="J21" s="4" t="s">
         <v>44</v>
       </c>
@@ -13533,7 +13676,7 @@
         <v>307</v>
       </c>
       <c r="B22" s="124" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>500</v>
@@ -13545,15 +13688,17 @@
         <v>499</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>544</v>
+        <v>880</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>545</v>
+        <v>501</v>
       </c>
       <c r="H22" s="117" t="s">
-        <v>510</v>
-      </c>
-      <c r="I22" s="4"/>
+        <v>881</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>502</v>
+      </c>
       <c r="J22" s="4" t="s">
         <v>44</v>
       </c>
@@ -13573,15 +13718,15 @@
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
     </row>
-    <row r="23" spans="1:23" ht="72" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>311</v>
       </c>
       <c r="B23" s="124" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>500</v>
+        <v>843</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>497</v>
@@ -13590,17 +13735,15 @@
         <v>499</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>539</v>
+        <v>842</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>858</v>
+        <v>503</v>
       </c>
       <c r="H23" s="117" t="s">
-        <v>540</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>541</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="I23" s="4"/>
       <c r="J23" s="4" t="s">
         <v>44</v>
       </c>
@@ -13620,15 +13763,15 @@
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
     </row>
-    <row r="24" spans="1:23" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" ht="84" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>315</v>
       </c>
       <c r="B24" s="124" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>500</v>
+        <v>843</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>497</v>
@@ -13637,13 +13780,13 @@
         <v>499</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>594</v>
+        <v>504</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>542</v>
+        <v>505</v>
       </c>
       <c r="H24" s="117" t="s">
-        <v>601</v>
+        <v>506</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4" t="s">
@@ -13665,15 +13808,15 @@
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
     </row>
-    <row r="25" spans="1:23" ht="84" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>321</v>
       </c>
       <c r="B25" s="124" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>847</v>
+        <v>500</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>497</v>
@@ -13682,17 +13825,17 @@
         <v>499</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>567</v>
+        <v>540</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>568</v>
+        <v>507</v>
       </c>
       <c r="H25" s="117" t="s">
-        <v>569</v>
+        <v>509</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4" t="s">
@@ -13710,15 +13853,15 @@
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
     </row>
-    <row r="26" spans="1:23" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" ht="120" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>325</v>
       </c>
       <c r="B26" s="124" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>847</v>
+        <v>500</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>497</v>
@@ -13727,19 +13870,17 @@
         <v>499</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>580</v>
+        <v>541</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>581</v>
+        <v>542</v>
       </c>
       <c r="H26" s="117" t="s">
-        <v>583</v>
-      </c>
-      <c r="I26" s="40" t="s">
-        <v>582</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="I26" s="4"/>
       <c r="J26" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4" t="s">
@@ -13757,15 +13898,15 @@
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
     </row>
-    <row r="27" spans="1:23" ht="132" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>353</v>
       </c>
       <c r="B27" s="124" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>847</v>
+        <v>500</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>497</v>
@@ -13774,19 +13915,19 @@
         <v>499</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>584</v>
+        <v>536</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>585</v>
+        <v>855</v>
       </c>
       <c r="H27" s="117" t="s">
-        <v>586</v>
+        <v>537</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>587</v>
+        <v>538</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K27" s="4"/>
       <c r="L27" s="4" t="s">
@@ -13804,15 +13945,15 @@
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
     </row>
-    <row r="28" spans="1:23" ht="127.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>354</v>
       </c>
       <c r="B28" s="124" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>847</v>
+        <v>500</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>497</v>
@@ -13821,19 +13962,17 @@
         <v>499</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>579</v>
+        <v>539</v>
       </c>
       <c r="H28" s="117" t="s">
-        <v>589</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>588</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="I28" s="4"/>
       <c r="J28" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4" t="s">
@@ -13851,15 +13990,15 @@
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
     </row>
-    <row r="29" spans="1:23" ht="159.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" ht="84" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B29" s="124" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>497</v>
@@ -13868,13 +14007,13 @@
         <v>499</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>590</v>
+        <v>564</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>591</v>
+        <v>565</v>
       </c>
       <c r="H29" s="117" t="s">
-        <v>592</v>
+        <v>566</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4" t="s">
@@ -13896,15 +14035,15 @@
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
     </row>
-    <row r="30" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>364</v>
       </c>
       <c r="B30" s="124" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>497</v>
@@ -13913,19 +14052,19 @@
         <v>499</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>692</v>
+        <v>577</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>693</v>
+        <v>578</v>
       </c>
       <c r="H30" s="117" t="s">
-        <v>694</v>
+        <v>580</v>
       </c>
       <c r="I30" s="40" t="s">
-        <v>706</v>
+        <v>579</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4" t="s">
@@ -13943,15 +14082,15 @@
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
     </row>
-    <row r="31" spans="1:23" ht="144" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" ht="132" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>368</v>
       </c>
       <c r="B31" s="124" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>497</v>
@@ -13960,17 +14099,19 @@
         <v>499</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>695</v>
+        <v>581</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>696</v>
+        <v>582</v>
       </c>
       <c r="H31" s="117" t="s">
-        <v>697</v>
-      </c>
-      <c r="I31" s="40"/>
+        <v>583</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>584</v>
+      </c>
       <c r="J31" s="4" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="4" t="s">
@@ -13988,15 +14129,15 @@
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
     </row>
-    <row r="32" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" ht="127.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>372</v>
       </c>
       <c r="B32" s="124" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>497</v>
@@ -14005,17 +14146,19 @@
         <v>499</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>701</v>
+        <v>575</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>702</v>
+        <v>576</v>
       </c>
       <c r="H32" s="117" t="s">
-        <v>703</v>
-      </c>
-      <c r="I32" s="4"/>
+        <v>586</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>585</v>
+      </c>
       <c r="J32" s="4" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="4" t="s">
@@ -14033,15 +14176,15 @@
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
     </row>
-    <row r="33" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" ht="159.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>376</v>
       </c>
       <c r="B33" s="124" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>497</v>
@@ -14050,17 +14193,17 @@
         <v>499</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>704</v>
+        <v>587</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>707</v>
+        <v>588</v>
       </c>
       <c r="H33" s="117" t="s">
-        <v>705</v>
+        <v>589</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4" t="s">
@@ -14078,15 +14221,15 @@
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
     </row>
-    <row r="34" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>380</v>
       </c>
       <c r="B34" s="124" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>500</v>
+        <v>845</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>497</v>
@@ -14095,15 +14238,17 @@
         <v>499</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="H34" s="117" t="s">
-        <v>700</v>
-      </c>
-      <c r="I34" s="4"/>
+        <v>691</v>
+      </c>
+      <c r="I34" s="40" t="s">
+        <v>703</v>
+      </c>
       <c r="J34" s="4" t="s">
         <v>14</v>
       </c>
@@ -14123,15 +14268,15 @@
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
     </row>
-    <row r="35" spans="1:23" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" ht="144" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>384</v>
       </c>
       <c r="B35" s="124" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>497</v>
@@ -14140,15 +14285,15 @@
         <v>499</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="H35" s="117" t="s">
-        <v>710</v>
-      </c>
-      <c r="I35" s="4"/>
+        <v>694</v>
+      </c>
+      <c r="I35" s="40"/>
       <c r="J35" s="4" t="s">
         <v>14</v>
       </c>
@@ -14168,36 +14313,34 @@
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
     </row>
-    <row r="36" spans="1:23" ht="115.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>388</v>
       </c>
       <c r="B36" s="124" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>500</v>
+        <v>845</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>599</v>
+        <v>497</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>600</v>
+        <v>499</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>869</v>
+        <v>698</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>929</v>
+        <v>699</v>
       </c>
       <c r="H36" s="117" t="s">
-        <v>870</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>602</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="I36" s="4"/>
       <c r="J36" s="4" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4" t="s">
@@ -14215,34 +14358,34 @@
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
     </row>
-    <row r="37" spans="1:23" ht="111" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>392</v>
       </c>
       <c r="B37" s="124" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>500</v>
+        <v>845</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>599</v>
+        <v>497</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>600</v>
+        <v>499</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>603</v>
+        <v>701</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>929</v>
+        <v>704</v>
       </c>
       <c r="H37" s="117" t="s">
-        <v>862</v>
+        <v>702</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="4" t="s">
@@ -14260,12 +14403,12 @@
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
     </row>
-    <row r="38" spans="1:23" ht="72" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>396</v>
       </c>
       <c r="B38" s="124" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>500</v>
@@ -14277,17 +14420,17 @@
         <v>499</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>563</v>
+        <v>695</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>564</v>
+        <v>696</v>
       </c>
       <c r="H38" s="117" t="s">
-        <v>565</v>
+        <v>697</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="4" t="s">
@@ -14310,29 +14453,29 @@
         <v>401</v>
       </c>
       <c r="B39" s="124" t="s">
-        <v>839</v>
-      </c>
-      <c r="C39" s="40" t="s">
-        <v>848</v>
-      </c>
-      <c r="D39" s="40" t="s">
+        <v>836</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="E39" s="40" t="s">
+      <c r="E39" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="F39" s="40" t="s">
-        <v>711</v>
-      </c>
-      <c r="G39" s="40" t="s">
-        <v>712</v>
-      </c>
-      <c r="H39" s="118" t="s">
-        <v>713</v>
+      <c r="F39" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="H39" s="117" t="s">
+        <v>707</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4" t="s">
@@ -14350,34 +14493,36 @@
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
     </row>
-    <row r="40" spans="1:23" ht="145.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23" ht="115.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="B40" s="126" t="s">
-        <v>841</v>
+      <c r="B40" s="124" t="s">
+        <v>836</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>849</v>
+        <v>500</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>497</v>
+        <v>596</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>499</v>
+        <v>597</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>794</v>
+        <v>866</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>766</v>
+        <v>926</v>
       </c>
       <c r="H40" s="117" t="s">
-        <v>878</v>
-      </c>
-      <c r="I40" s="40"/>
+        <v>867</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>599</v>
+      </c>
       <c r="J40" s="4" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4" t="s">
@@ -14395,34 +14540,34 @@
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
     </row>
-    <row r="41" spans="1:23" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23" ht="111" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="B41" s="126" t="s">
-        <v>841</v>
+      <c r="B41" s="124" t="s">
+        <v>836</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>849</v>
+        <v>500</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>497</v>
+        <v>596</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>499</v>
+        <v>597</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>767</v>
+        <v>600</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>768</v>
+        <v>926</v>
       </c>
       <c r="H41" s="117" t="s">
-        <v>769</v>
-      </c>
-      <c r="I41" s="40"/>
+        <v>859</v>
+      </c>
+      <c r="I41" s="4"/>
       <c r="J41" s="4" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4" t="s">
@@ -14440,15 +14585,15 @@
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
     </row>
-    <row r="42" spans="1:23" ht="96" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="B42" s="126" t="s">
-        <v>841</v>
+      <c r="B42" s="124" t="s">
+        <v>836</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>849</v>
+        <v>500</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>497</v>
@@ -14457,19 +14602,17 @@
         <v>499</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>521</v>
+        <v>560</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>522</v>
+        <v>561</v>
       </c>
       <c r="H42" s="117" t="s">
-        <v>523</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>622</v>
-      </c>
+        <v>562</v>
+      </c>
+      <c r="I42" s="4"/>
       <c r="J42" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K42" s="4"/>
       <c r="L42" s="4" t="s">
@@ -14487,36 +14630,34 @@
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
     </row>
-    <row r="43" spans="1:23" ht="72" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="B43" s="126" t="s">
-        <v>841</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>849</v>
-      </c>
-      <c r="D43" s="4" t="s">
+      <c r="B43" s="124" t="s">
+        <v>836</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>845</v>
+      </c>
+      <c r="D43" s="40" t="s">
         <v>497</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="40" t="s">
         <v>499</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="H43" s="117" t="s">
-        <v>527</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>526</v>
-      </c>
+      <c r="F43" s="40" t="s">
+        <v>708</v>
+      </c>
+      <c r="G43" s="40" t="s">
+        <v>709</v>
+      </c>
+      <c r="H43" s="118" t="s">
+        <v>710</v>
+      </c>
+      <c r="I43" s="4"/>
       <c r="J43" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4" t="s">
@@ -14534,15 +14675,15 @@
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
     </row>
-    <row r="44" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" ht="145.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>421</v>
       </c>
       <c r="B44" s="126" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>497</v>
@@ -14551,17 +14692,17 @@
         <v>499</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>895</v>
+        <v>791</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>885</v>
+        <v>763</v>
       </c>
       <c r="H44" s="117" t="s">
-        <v>896</v>
-      </c>
-      <c r="I44" s="4"/>
+        <v>875</v>
+      </c>
+      <c r="I44" s="40"/>
       <c r="J44" s="4" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4" t="s">
@@ -14579,34 +14720,34 @@
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
     </row>
-    <row r="45" spans="1:23" ht="127.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>425</v>
       </c>
       <c r="B45" s="126" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>599</v>
+        <v>497</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>600</v>
+        <v>499</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>857</v>
+        <v>764</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>859</v>
+        <v>765</v>
       </c>
       <c r="H45" s="117" t="s">
-        <v>860</v>
-      </c>
-      <c r="I45" s="4"/>
+        <v>766</v>
+      </c>
+      <c r="I45" s="40"/>
       <c r="J45" s="4" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4" t="s">
@@ -14624,34 +14765,36 @@
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
     </row>
-    <row r="46" spans="1:23" ht="72" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" ht="111" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>428</v>
       </c>
       <c r="B46" s="126" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>599</v>
+        <v>497</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>499</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>605</v>
+        <v>521</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="H46" s="118" t="s">
-        <v>611</v>
-      </c>
-      <c r="I46" s="4"/>
+        <v>1058</v>
+      </c>
+      <c r="H46" s="117" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>619</v>
+      </c>
       <c r="J46" s="4" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="4" t="s">
@@ -14669,15 +14812,15 @@
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
     </row>
-    <row r="47" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>433</v>
       </c>
       <c r="B47" s="126" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>497</v>
@@ -14686,15 +14829,17 @@
         <v>499</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>825</v>
+        <v>522</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>826</v>
+        <v>523</v>
       </c>
       <c r="H47" s="117" t="s">
-        <v>827</v>
-      </c>
-      <c r="I47" s="4"/>
+        <v>1062</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>524</v>
+      </c>
       <c r="J47" s="4" t="s">
         <v>44</v>
       </c>
@@ -14714,36 +14859,34 @@
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
     </row>
-    <row r="48" spans="1:23" ht="84" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>439</v>
       </c>
       <c r="B48" s="126" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>599</v>
+        <v>497</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>499</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>607</v>
+        <v>1059</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>608</v>
+        <v>1060</v>
       </c>
       <c r="H48" s="117" t="s">
-        <v>610</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>609</v>
-      </c>
+        <v>1063</v>
+      </c>
+      <c r="I48" s="4"/>
       <c r="J48" s="4" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="K48" s="4"/>
       <c r="L48" s="4" t="s">
@@ -14761,34 +14904,32 @@
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
     </row>
-    <row r="49" spans="1:23" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="4" t="s">
-        <v>445</v>
-      </c>
+    <row r="49" spans="1:23" ht="112.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="4"/>
       <c r="B49" s="126" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>598</v>
+        <v>846</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>779</v>
+        <v>499</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>851</v>
+        <v>1065</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>780</v>
+        <v>1064</v>
       </c>
       <c r="H49" s="117" t="s">
-        <v>781</v>
-      </c>
-      <c r="I49" s="40"/>
+        <v>1066</v>
+      </c>
+      <c r="I49" s="4"/>
       <c r="J49" s="4" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4" t="s">
@@ -14806,34 +14947,34 @@
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
     </row>
-    <row r="50" spans="1:23" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B50" s="126" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>599</v>
+        <v>497</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>835</v>
+        <v>499</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>686</v>
+        <v>892</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>687</v>
+        <v>882</v>
       </c>
       <c r="H50" s="117" t="s">
-        <v>688</v>
+        <v>893</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4" t="s">
@@ -14851,34 +14992,34 @@
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
     </row>
-    <row r="51" spans="1:23" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:23" ht="127.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="B51" s="126" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>497</v>
+        <v>596</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>499</v>
+        <v>597</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>843</v>
+        <v>854</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>530</v>
+        <v>856</v>
       </c>
       <c r="H51" s="117" t="s">
-        <v>612</v>
+        <v>857</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K51" s="4"/>
       <c r="L51" s="4" t="s">
@@ -14896,34 +15037,34 @@
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
     </row>
-    <row r="52" spans="1:23" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B52" s="126" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>497</v>
+        <v>596</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>499</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>531</v>
+        <v>602</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="H52" s="117" t="s">
-        <v>613</v>
+        <v>603</v>
+      </c>
+      <c r="H52" s="118" t="s">
+        <v>608</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="K52" s="4"/>
       <c r="L52" s="4" t="s">
@@ -14941,15 +15082,15 @@
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
     </row>
-    <row r="53" spans="1:23" ht="87" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="B53" s="126" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>497</v>
@@ -14958,17 +15099,17 @@
         <v>499</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>619</v>
+        <v>822</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>616</v>
+        <v>823</v>
       </c>
       <c r="H53" s="117" t="s">
-        <v>617</v>
+        <v>824</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="K53" s="4"/>
       <c r="L53" s="4" t="s">
@@ -14986,34 +15127,36 @@
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
     </row>
-    <row r="54" spans="1:23" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="84" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="B54" s="126" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>497</v>
+        <v>596</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>499</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>535</v>
+        <v>604</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>534</v>
+        <v>605</v>
       </c>
       <c r="H54" s="117" t="s">
-        <v>614</v>
-      </c>
-      <c r="I54" s="4"/>
+        <v>607</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>606</v>
+      </c>
       <c r="J54" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K54" s="4"/>
       <c r="L54" s="4" t="s">
@@ -15031,34 +15174,34 @@
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
     </row>
-    <row r="55" spans="1:23" ht="108" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B55" s="126" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>849</v>
+        <v>595</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>499</v>
+        <v>776</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>618</v>
+        <v>848</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>620</v>
+        <v>777</v>
       </c>
       <c r="H55" s="117" t="s">
-        <v>621</v>
-      </c>
-      <c r="I55" s="4"/>
+        <v>778</v>
+      </c>
+      <c r="I55" s="40"/>
       <c r="J55" s="4" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="K55" s="4"/>
       <c r="L55" s="4" t="s">
@@ -15076,34 +15219,34 @@
       <c r="V55" s="4"/>
       <c r="W55" s="4"/>
     </row>
-    <row r="56" spans="1:23" ht="132" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:23" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="B56" s="126" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>497</v>
+        <v>596</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>499</v>
+        <v>832</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>536</v>
+        <v>683</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>537</v>
+        <v>684</v>
       </c>
       <c r="H56" s="117" t="s">
-        <v>615</v>
+        <v>685</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K56" s="4"/>
       <c r="L56" s="4" t="s">
@@ -15121,15 +15264,15 @@
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
     </row>
-    <row r="57" spans="1:23" ht="108" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:23" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B57" s="126" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>497</v>
@@ -15138,13 +15281,13 @@
         <v>499</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="H57" s="118" t="s">
-        <v>533</v>
+        <v>527</v>
+      </c>
+      <c r="H57" s="117" t="s">
+        <v>609</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4" t="s">
@@ -15166,15 +15309,15 @@
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
     </row>
-    <row r="58" spans="1:23" ht="72" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:23" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B58" s="126" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>497</v>
@@ -15183,13 +15326,13 @@
         <v>499</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>844</v>
+        <v>528</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>570</v>
+        <v>529</v>
       </c>
       <c r="H58" s="117" t="s">
-        <v>571</v>
+        <v>610</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4" t="s">
@@ -15211,15 +15354,15 @@
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
     </row>
-    <row r="59" spans="1:23" ht="108" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:23" ht="87" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B59" s="126" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>497</v>
@@ -15228,17 +15371,17 @@
         <v>499</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>572</v>
+        <v>616</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>573</v>
+        <v>613</v>
       </c>
       <c r="H59" s="117" t="s">
-        <v>576</v>
+        <v>614</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="K59" s="4"/>
       <c r="L59" s="4" t="s">
@@ -15256,15 +15399,15 @@
       <c r="V59" s="4"/>
       <c r="W59" s="4"/>
     </row>
-    <row r="60" spans="1:23" ht="96" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:23" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
-        <v>623</v>
+        <v>480</v>
       </c>
       <c r="B60" s="126" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>497</v>
@@ -15273,13 +15416,13 @@
         <v>499</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>574</v>
+        <v>532</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H60" s="117" t="s">
-        <v>577</v>
+        <v>611</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4" t="s">
@@ -15301,34 +15444,34 @@
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
     </row>
-    <row r="61" spans="1:23" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:23" ht="108" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
-        <v>624</v>
+        <v>484</v>
       </c>
       <c r="B61" s="126" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>599</v>
+        <v>497</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>600</v>
+        <v>499</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>824</v>
+        <v>617</v>
       </c>
       <c r="H61" s="117" t="s">
-        <v>861</v>
+        <v>618</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="K61" s="4"/>
       <c r="L61" s="4" t="s">
@@ -15346,15 +15489,15 @@
       <c r="V61" s="4"/>
       <c r="W61" s="4"/>
     </row>
-    <row r="62" spans="1:23" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:23" ht="132" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="B62" s="126" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>497</v>
@@ -15363,17 +15506,17 @@
         <v>499</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>797</v>
+        <v>533</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>784</v>
+        <v>534</v>
       </c>
       <c r="H62" s="117" t="s">
-        <v>785</v>
-      </c>
-      <c r="I62" s="40"/>
+        <v>612</v>
+      </c>
+      <c r="I62" s="4"/>
       <c r="J62" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K62" s="4"/>
       <c r="L62" s="4" t="s">
@@ -15391,15 +15534,15 @@
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
     </row>
-    <row r="63" spans="1:23" ht="127.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:23" ht="108" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
-        <v>626</v>
-      </c>
-      <c r="B63" s="127" t="s">
-        <v>852</v>
+        <v>621</v>
+      </c>
+      <c r="B63" s="126" t="s">
+        <v>838</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>866</v>
+        <v>846</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>497</v>
@@ -15408,17 +15551,17 @@
         <v>499</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="H63" s="117" t="s">
-        <v>791</v>
-      </c>
-      <c r="I63" s="40"/>
+        <v>525</v>
+      </c>
+      <c r="H63" s="118" t="s">
+        <v>530</v>
+      </c>
+      <c r="I63" s="4"/>
       <c r="J63" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K63" s="4"/>
       <c r="L63" s="4" t="s">
@@ -15436,34 +15579,34 @@
       <c r="V63" s="4"/>
       <c r="W63" s="4"/>
     </row>
-    <row r="64" spans="1:23" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="B64" s="127" t="s">
-        <v>852</v>
+        <v>622</v>
+      </c>
+      <c r="B64" s="126" t="s">
+        <v>838</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>776</v>
+        <v>499</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>856</v>
+        <v>841</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>777</v>
+        <v>567</v>
       </c>
       <c r="H64" s="117" t="s">
-        <v>778</v>
-      </c>
-      <c r="I64" s="40"/>
+        <v>568</v>
+      </c>
+      <c r="I64" s="4"/>
       <c r="J64" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K64" s="4"/>
       <c r="L64" s="4" t="s">
@@ -15481,15 +15624,15 @@
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
     </row>
-    <row r="65" spans="1:23" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:23" ht="108" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="B65" s="127" t="s">
-        <v>852</v>
+        <v>623</v>
+      </c>
+      <c r="B65" s="126" t="s">
+        <v>838</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>868</v>
+        <v>846</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>497</v>
@@ -15498,17 +15641,17 @@
         <v>499</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>793</v>
+        <v>569</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>771</v>
+        <v>570</v>
       </c>
       <c r="H65" s="117" t="s">
-        <v>792</v>
-      </c>
-      <c r="I65" s="40"/>
+        <v>573</v>
+      </c>
+      <c r="I65" s="4"/>
       <c r="J65" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K65" s="4"/>
       <c r="L65" s="4" t="s">
@@ -15526,15 +15669,15 @@
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
     </row>
-    <row r="66" spans="1:23" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:23" ht="96" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
-        <v>629</v>
-      </c>
-      <c r="B66" s="127" t="s">
-        <v>852</v>
+        <v>624</v>
+      </c>
+      <c r="B66" s="126" t="s">
+        <v>838</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>868</v>
+        <v>846</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>497</v>
@@ -15543,17 +15686,17 @@
         <v>499</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>772</v>
+        <v>571</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>773</v>
+        <v>572</v>
       </c>
       <c r="H66" s="117" t="s">
-        <v>897</v>
-      </c>
-      <c r="I66" s="40"/>
+        <v>574</v>
+      </c>
+      <c r="I66" s="4"/>
       <c r="J66" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K66" s="4"/>
       <c r="L66" s="4" t="s">
@@ -15571,34 +15714,34 @@
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
     </row>
-    <row r="67" spans="1:23" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:23" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="B67" s="127" t="s">
-        <v>852</v>
+        <v>625</v>
+      </c>
+      <c r="B67" s="126" t="s">
+        <v>838</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>868</v>
+        <v>846</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>497</v>
+        <v>596</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>763</v>
+        <v>597</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>853</v>
+        <v>601</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>764</v>
+        <v>821</v>
       </c>
       <c r="H67" s="117" t="s">
-        <v>854</v>
-      </c>
-      <c r="I67" s="40"/>
+        <v>858</v>
+      </c>
+      <c r="I67" s="4"/>
       <c r="J67" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K67" s="4"/>
       <c r="L67" s="4" t="s">
@@ -15616,34 +15759,34 @@
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
     </row>
-    <row r="68" spans="1:23" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:23" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B68" s="127" t="s">
-        <v>852</v>
+        <v>626</v>
+      </c>
+      <c r="B68" s="126" t="s">
+        <v>838</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>868</v>
+        <v>846</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>779</v>
+        <v>499</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>850</v>
+        <v>794</v>
       </c>
       <c r="G68" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="H68" s="117" t="s">
         <v>782</v>
-      </c>
-      <c r="H68" s="117" t="s">
-        <v>783</v>
       </c>
       <c r="I68" s="40"/>
       <c r="J68" s="4" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="K68" s="4"/>
       <c r="L68" s="4" t="s">
@@ -15661,39 +15804,35 @@
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
     </row>
-    <row r="69" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:23" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="B69" s="123" t="s">
-        <v>721</v>
+        <v>1018</v>
+      </c>
+      <c r="B69" s="127" t="s">
+        <v>849</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>722</v>
+        <v>865</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>723</v>
+        <v>497</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>834</v>
+        <v>1067</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>931</v>
+        <v>1069</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>913</v>
+        <v>1068</v>
       </c>
       <c r="H69" s="117" t="s">
-        <v>982</v>
-      </c>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4" t="s">
-        <v>43</v>
-      </c>
+        <v>1070</v>
+      </c>
+      <c r="I69" s="40"/>
+      <c r="J69" s="4"/>
       <c r="K69" s="4"/>
-      <c r="L69" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="L69" s="4"/>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
@@ -15706,34 +15845,34 @@
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
     </row>
-    <row r="70" spans="1:23" ht="72" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:23" ht="126.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="B70" s="123" t="s">
-        <v>721</v>
+        <v>628</v>
+      </c>
+      <c r="B70" s="127" t="s">
+        <v>849</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>722</v>
+        <v>865</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>547</v>
+        <v>497</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>763</v>
+        <v>499</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>932</v>
+        <v>790</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>983</v>
-      </c>
-      <c r="H70" s="117"/>
-      <c r="I70" s="4" t="s">
-        <v>984</v>
-      </c>
+        <v>768</v>
+      </c>
+      <c r="H70" s="117" t="s">
+        <v>789</v>
+      </c>
+      <c r="I70" s="40"/>
       <c r="J70" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K70" s="4"/>
       <c r="L70" s="4" t="s">
@@ -15751,39 +15890,29 @@
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
     </row>
-    <row r="71" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:23" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>633</v>
-      </c>
-      <c r="B71" s="123" t="s">
-        <v>721</v>
+        <v>629</v>
+      </c>
+      <c r="B71" s="127" t="s">
+        <v>849</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>722</v>
+        <v>865</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>723</v>
+        <v>497</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>834</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>910</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>911</v>
-      </c>
-      <c r="H71" s="117" t="s">
-        <v>912</v>
-      </c>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4" t="s">
-        <v>43</v>
-      </c>
+        <v>1067</v>
+      </c>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="117"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="4"/>
       <c r="K71" s="4"/>
-      <c r="L71" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="L71" s="4"/>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
@@ -15796,77 +15925,79 @@
       <c r="V71" s="4"/>
       <c r="W71" s="4"/>
     </row>
-    <row r="72" spans="1:23" s="122" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="40" t="s">
-        <v>634</v>
-      </c>
-      <c r="B72" s="123" t="s">
-        <v>721</v>
-      </c>
-      <c r="C72" s="56" t="s">
-        <v>722</v>
-      </c>
-      <c r="D72" s="56" t="s">
-        <v>547</v>
-      </c>
-      <c r="E72" s="56" t="s">
-        <v>834</v>
-      </c>
-      <c r="F72" s="40" t="s">
-        <v>914</v>
-      </c>
-      <c r="G72" s="56" t="s">
-        <v>915</v>
-      </c>
-      <c r="H72" s="120"/>
-      <c r="I72" s="56"/>
-      <c r="J72" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="K72" s="56"/>
-      <c r="L72" s="56" t="s">
+    <row r="72" spans="1:23" ht="127.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="B72" s="127" t="s">
+        <v>849</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="H72" s="117" t="s">
+        <v>788</v>
+      </c>
+      <c r="I72" s="40"/>
+      <c r="J72" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M72" s="56"/>
-      <c r="N72" s="56"/>
-      <c r="O72" s="56"/>
-      <c r="P72" s="56"/>
-      <c r="Q72" s="56"/>
-      <c r="R72" s="56"/>
-      <c r="S72" s="56"/>
-      <c r="T72" s="121"/>
-      <c r="U72" s="56"/>
-      <c r="V72" s="56"/>
-      <c r="W72" s="56"/>
-    </row>
-    <row r="73" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="54"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="4"/>
+    </row>
+    <row r="73" spans="1:23" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
-        <v>635</v>
-      </c>
-      <c r="B73" s="123" t="s">
-        <v>721</v>
+        <v>1018</v>
+      </c>
+      <c r="B73" s="127" t="s">
+        <v>849</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="D73" s="56" t="s">
-        <v>547</v>
-      </c>
-      <c r="E73" s="56" t="s">
-        <v>828</v>
+        <v>864</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>773</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>904</v>
+        <v>853</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>908</v>
+        <v>774</v>
       </c>
       <c r="H73" s="117" t="s">
-        <v>901</v>
-      </c>
-      <c r="I73" s="4"/>
+        <v>775</v>
+      </c>
+      <c r="I73" s="40"/>
       <c r="J73" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K73" s="4"/>
       <c r="L73" s="4" t="s">
@@ -15884,34 +16015,34 @@
       <c r="V73" s="4"/>
       <c r="W73" s="4"/>
     </row>
-    <row r="74" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:23" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="B74" s="123" t="s">
-        <v>721</v>
+        <v>629</v>
+      </c>
+      <c r="B74" s="127" t="s">
+        <v>849</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="D74" s="56" t="s">
-        <v>547</v>
-      </c>
-      <c r="E74" s="56" t="s">
-        <v>828</v>
+        <v>865</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>499</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>829</v>
+        <v>769</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>908</v>
+        <v>770</v>
       </c>
       <c r="H74" s="117" t="s">
-        <v>902</v>
-      </c>
-      <c r="I74" s="4"/>
+        <v>894</v>
+      </c>
+      <c r="I74" s="40"/>
       <c r="J74" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K74" s="4"/>
       <c r="L74" s="4" t="s">
@@ -15929,32 +16060,32 @@
       <c r="V74" s="4"/>
       <c r="W74" s="4"/>
     </row>
-    <row r="75" spans="1:23" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:23" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="B75" s="123" t="s">
-        <v>721</v>
+        <v>630</v>
+      </c>
+      <c r="B75" s="127" t="s">
+        <v>849</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="D75" s="56" t="s">
-        <v>547</v>
-      </c>
-      <c r="E75" s="56" t="s">
-        <v>828</v>
+        <v>865</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>760</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>830</v>
+        <v>850</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>908</v>
+        <v>761</v>
       </c>
       <c r="H75" s="117" t="s">
-        <v>903</v>
-      </c>
-      <c r="I75" s="4"/>
+        <v>851</v>
+      </c>
+      <c r="I75" s="40"/>
       <c r="J75" s="4" t="s">
         <v>43</v>
       </c>
@@ -15974,34 +16105,34 @@
       <c r="V75" s="4"/>
       <c r="W75" s="4"/>
     </row>
-    <row r="76" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:23" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
-        <v>638</v>
-      </c>
-      <c r="B76" s="123" t="s">
-        <v>721</v>
+        <v>631</v>
+      </c>
+      <c r="B76" s="127" t="s">
+        <v>849</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="D76" s="56" t="s">
-        <v>547</v>
-      </c>
-      <c r="E76" s="56" t="s">
-        <v>828</v>
+        <v>865</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>776</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>930</v>
+        <v>847</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>906</v>
+        <v>779</v>
       </c>
       <c r="H76" s="117" t="s">
-        <v>898</v>
-      </c>
-      <c r="I76" s="4"/>
+        <v>780</v>
+      </c>
+      <c r="I76" s="40"/>
       <c r="J76" s="4" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="K76" s="4"/>
       <c r="L76" s="4" t="s">
@@ -16019,30 +16150,30 @@
       <c r="V76" s="4"/>
       <c r="W76" s="4"/>
     </row>
-    <row r="77" spans="1:23" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B77" s="123" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="D77" s="56" t="s">
-        <v>547</v>
-      </c>
-      <c r="E77" s="56" t="s">
-        <v>828</v>
+        <v>719</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>831</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>837</v>
+        <v>928</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>838</v>
+        <v>910</v>
       </c>
       <c r="H77" s="117" t="s">
-        <v>942</v>
+        <v>979</v>
       </c>
       <c r="I77" s="4"/>
       <c r="J77" s="4" t="s">
@@ -16064,34 +16195,34 @@
       <c r="V77" s="4"/>
       <c r="W77" s="4"/>
     </row>
-    <row r="78" spans="1:23" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="B78" s="123" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="D78" s="56" t="s">
-        <v>547</v>
-      </c>
-      <c r="E78" s="56" t="s">
-        <v>725</v>
+        <v>719</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>760</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>935</v>
-      </c>
-      <c r="H78" s="117" t="s">
-        <v>946</v>
-      </c>
-      <c r="I78" s="4"/>
+        <v>980</v>
+      </c>
+      <c r="H78" s="117"/>
+      <c r="I78" s="4" t="s">
+        <v>981</v>
+      </c>
       <c r="J78" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K78" s="4"/>
       <c r="L78" s="4" t="s">
@@ -16109,34 +16240,34 @@
       <c r="V78" s="4"/>
       <c r="W78" s="4"/>
     </row>
-    <row r="79" spans="1:23" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="B79" s="123" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="D79" s="56" t="s">
-        <v>547</v>
-      </c>
-      <c r="E79" s="56" t="s">
-        <v>725</v>
+        <v>719</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>831</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>940</v>
+        <v>907</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>941</v>
+        <v>908</v>
       </c>
       <c r="H79" s="117" t="s">
-        <v>943</v>
+        <v>909</v>
       </c>
       <c r="I79" s="4"/>
       <c r="J79" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K79" s="4"/>
       <c r="L79" s="4" t="s">
@@ -16154,79 +16285,77 @@
       <c r="V79" s="4"/>
       <c r="W79" s="4"/>
     </row>
-    <row r="80" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:23" s="122" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="B80" s="123" t="s">
-        <v>721</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>722</v>
+        <v>718</v>
+      </c>
+      <c r="C80" s="56" t="s">
+        <v>719</v>
       </c>
       <c r="D80" s="56" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E80" s="56" t="s">
-        <v>916</v>
-      </c>
-      <c r="F80" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="F80" s="40" t="s">
+        <v>911</v>
+      </c>
+      <c r="G80" s="56" t="s">
+        <v>912</v>
+      </c>
+      <c r="H80" s="120"/>
+      <c r="I80" s="56"/>
+      <c r="J80" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="K80" s="56"/>
+      <c r="L80" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="M80" s="56"/>
+      <c r="N80" s="56"/>
+      <c r="O80" s="56"/>
+      <c r="P80" s="56"/>
+      <c r="Q80" s="56"/>
+      <c r="R80" s="56"/>
+      <c r="S80" s="56"/>
+      <c r="T80" s="121"/>
+      <c r="U80" s="56"/>
+      <c r="V80" s="56"/>
+      <c r="W80" s="56"/>
+    </row>
+    <row r="81" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+      <c r="A81" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="B81" s="123" t="s">
+        <v>718</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="D81" s="56" t="s">
+        <v>544</v>
+      </c>
+      <c r="E81" s="56" t="s">
+        <v>825</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="G81" s="4" t="s">
         <v>905</v>
       </c>
-      <c r="G80" s="4" t="s">
-        <v>919</v>
-      </c>
-      <c r="H80" s="117" t="s">
-        <v>909</v>
-      </c>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
-      <c r="O80" s="4"/>
-      <c r="P80" s="4"/>
-      <c r="Q80" s="4"/>
-      <c r="R80" s="4"/>
-      <c r="S80" s="4"/>
-      <c r="T80" s="54"/>
-      <c r="U80" s="4"/>
-      <c r="V80" s="4"/>
-      <c r="W80" s="4"/>
-    </row>
-    <row r="81" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="B81" s="123" t="s">
-        <v>721</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="D81" s="56" t="s">
-        <v>547</v>
-      </c>
-      <c r="E81" s="56" t="s">
-        <v>836</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>936</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>832</v>
-      </c>
       <c r="H81" s="117" t="s">
-        <v>833</v>
+        <v>898</v>
       </c>
       <c r="I81" s="4"/>
       <c r="J81" s="4" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="K81" s="4"/>
       <c r="L81" s="4" t="s">
@@ -16244,30 +16373,30 @@
       <c r="V81" s="4"/>
       <c r="W81" s="4"/>
     </row>
-    <row r="82" spans="1:23" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="B82" s="123" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D82" s="56" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E82" s="56" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>938</v>
+        <v>826</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>939</v>
+        <v>905</v>
       </c>
       <c r="H82" s="117" t="s">
-        <v>933</v>
+        <v>899</v>
       </c>
       <c r="I82" s="4"/>
       <c r="J82" s="4" t="s">
@@ -16289,34 +16418,34 @@
       <c r="V82" s="4"/>
       <c r="W82" s="4"/>
     </row>
-    <row r="83" spans="1:23" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:23" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="B83" s="123" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D83" s="56" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E83" s="56" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>944</v>
+        <v>827</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>945</v>
+        <v>905</v>
       </c>
       <c r="H83" s="117" t="s">
-        <v>947</v>
+        <v>900</v>
       </c>
       <c r="I83" s="4"/>
       <c r="J83" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K83" s="4"/>
       <c r="L83" s="4" t="s">
@@ -16334,30 +16463,30 @@
       <c r="V83" s="4"/>
       <c r="W83" s="4"/>
     </row>
-    <row r="84" spans="1:23" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="B84" s="123" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D84" s="56" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E84" s="56" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>995</v>
+        <v>927</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>937</v>
+        <v>903</v>
       </c>
       <c r="H84" s="117" t="s">
-        <v>996</v>
+        <v>895</v>
       </c>
       <c r="I84" s="4"/>
       <c r="J84" s="4" t="s">
@@ -16379,34 +16508,34 @@
       <c r="V84" s="4"/>
       <c r="W84" s="4"/>
     </row>
-    <row r="85" spans="1:23" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:23" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="B85" s="123" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D85" s="56" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E85" s="56" t="s">
-        <v>1001</v>
+        <v>825</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>997</v>
+        <v>834</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>998</v>
+        <v>835</v>
       </c>
       <c r="H85" s="117" t="s">
-        <v>999</v>
+        <v>939</v>
       </c>
       <c r="I85" s="4"/>
       <c r="J85" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K85" s="4"/>
       <c r="L85" s="4" t="s">
@@ -16424,34 +16553,34 @@
       <c r="V85" s="4"/>
       <c r="W85" s="4"/>
     </row>
-    <row r="86" spans="1:23" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:23" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="B86" s="123" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C86" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="D86" s="56" t="s">
+        <v>544</v>
+      </c>
+      <c r="E86" s="56" t="s">
         <v>722</v>
       </c>
-      <c r="D86" s="56" t="s">
-        <v>547</v>
-      </c>
-      <c r="E86" s="56" t="s">
-        <v>1001</v>
-      </c>
       <c r="F86" s="4" t="s">
-        <v>1000</v>
+        <v>931</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>1002</v>
+        <v>932</v>
       </c>
       <c r="H86" s="117" t="s">
-        <v>1003</v>
+        <v>943</v>
       </c>
       <c r="I86" s="4"/>
       <c r="J86" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K86" s="4"/>
       <c r="L86" s="4" t="s">
@@ -16469,34 +16598,34 @@
       <c r="V86" s="4"/>
       <c r="W86" s="4"/>
     </row>
-    <row r="87" spans="1:23" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:23" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="B87" s="123" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C87" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="D87" s="56" t="s">
+        <v>544</v>
+      </c>
+      <c r="E87" s="56" t="s">
         <v>722</v>
       </c>
-      <c r="D87" s="56" t="s">
-        <v>547</v>
-      </c>
-      <c r="E87" s="56" t="s">
-        <v>994</v>
-      </c>
       <c r="F87" s="4" t="s">
-        <v>917</v>
+        <v>937</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>918</v>
+        <v>938</v>
       </c>
       <c r="H87" s="117" t="s">
-        <v>923</v>
+        <v>940</v>
       </c>
       <c r="I87" s="4"/>
       <c r="J87" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K87" s="4"/>
       <c r="L87" s="4" t="s">
@@ -16514,30 +16643,30 @@
       <c r="V87" s="4"/>
       <c r="W87" s="4"/>
     </row>
-    <row r="88" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="B88" s="123" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D88" s="56" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E88" s="56" t="s">
-        <v>994</v>
+        <v>913</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>985</v>
+        <v>902</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>986</v>
+        <v>916</v>
       </c>
       <c r="H88" s="117" t="s">
-        <v>987</v>
+        <v>906</v>
       </c>
       <c r="I88" s="4"/>
       <c r="J88" s="4" t="s">
@@ -16559,34 +16688,34 @@
       <c r="V88" s="4"/>
       <c r="W88" s="4"/>
     </row>
-    <row r="89" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="B89" s="123" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D89" s="56" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E89" s="56" t="s">
-        <v>994</v>
+        <v>833</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>988</v>
+        <v>933</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>989</v>
+        <v>829</v>
       </c>
       <c r="H89" s="117" t="s">
-        <v>990</v>
+        <v>830</v>
       </c>
       <c r="I89" s="4"/>
       <c r="J89" s="4" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="K89" s="4"/>
       <c r="L89" s="4" t="s">
@@ -16604,30 +16733,30 @@
       <c r="V89" s="4"/>
       <c r="W89" s="4"/>
     </row>
-    <row r="90" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:23" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="B90" s="123" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D90" s="56" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E90" s="56" t="s">
-        <v>994</v>
+        <v>828</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>991</v>
+        <v>935</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>992</v>
+        <v>936</v>
       </c>
       <c r="H90" s="117" t="s">
-        <v>993</v>
+        <v>930</v>
       </c>
       <c r="I90" s="4"/>
       <c r="J90" s="4" t="s">
@@ -16649,34 +16778,34 @@
       <c r="V90" s="4"/>
       <c r="W90" s="4"/>
     </row>
-    <row r="91" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:23" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="B91" s="123" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D91" s="56" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E91" s="56" t="s">
-        <v>994</v>
+        <v>828</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>920</v>
+        <v>941</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>921</v>
+        <v>942</v>
       </c>
       <c r="H91" s="117" t="s">
-        <v>922</v>
+        <v>944</v>
       </c>
       <c r="I91" s="4"/>
       <c r="J91" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K91" s="4"/>
       <c r="L91" s="4" t="s">
@@ -16694,30 +16823,30 @@
       <c r="V91" s="4"/>
       <c r="W91" s="4"/>
     </row>
-    <row r="92" spans="1:23" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:23" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="B92" s="123" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D92" s="56" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E92" s="56" t="s">
-        <v>994</v>
+        <v>828</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>1004</v>
+        <v>992</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>924</v>
+        <v>934</v>
       </c>
       <c r="H92" s="117" t="s">
-        <v>928</v>
+        <v>993</v>
       </c>
       <c r="I92" s="4"/>
       <c r="J92" s="4" t="s">
@@ -16739,34 +16868,34 @@
       <c r="V92" s="4"/>
       <c r="W92" s="4"/>
     </row>
-    <row r="93" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:23" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="B93" s="123" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D93" s="56" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E93" s="56" t="s">
+        <v>998</v>
+      </c>
+      <c r="F93" s="4" t="s">
         <v>994</v>
       </c>
-      <c r="F93" s="4" t="s">
-        <v>1005</v>
-      </c>
       <c r="G93" s="4" t="s">
-        <v>986</v>
+        <v>995</v>
       </c>
       <c r="H93" s="117" t="s">
-        <v>1008</v>
+        <v>996</v>
       </c>
       <c r="I93" s="4"/>
       <c r="J93" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K93" s="4"/>
       <c r="L93" s="4" t="s">
@@ -16784,34 +16913,34 @@
       <c r="V93" s="4"/>
       <c r="W93" s="4"/>
     </row>
-    <row r="94" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:23" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="B94" s="123" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D94" s="56" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E94" s="56" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>989</v>
+        <v>999</v>
       </c>
       <c r="H94" s="117" t="s">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="I94" s="4"/>
       <c r="J94" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K94" s="4"/>
       <c r="L94" s="4" t="s">
@@ -16829,30 +16958,30 @@
       <c r="V94" s="4"/>
       <c r="W94" s="4"/>
     </row>
-    <row r="95" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:23" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="B95" s="123" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D95" s="56" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E95" s="56" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>1007</v>
+        <v>914</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>992</v>
+        <v>915</v>
       </c>
       <c r="H95" s="117" t="s">
-        <v>1010</v>
+        <v>920</v>
       </c>
       <c r="I95" s="4"/>
       <c r="J95" s="4" t="s">
@@ -16874,30 +17003,30 @@
       <c r="V95" s="4"/>
       <c r="W95" s="4"/>
     </row>
-    <row r="96" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="B96" s="123" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D96" s="56" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E96" s="56" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>925</v>
+        <v>982</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>926</v>
+        <v>983</v>
       </c>
       <c r="H96" s="117" t="s">
-        <v>927</v>
+        <v>984</v>
       </c>
       <c r="I96" s="4"/>
       <c r="J96" s="4" t="s">
@@ -16921,28 +17050,28 @@
     </row>
     <row r="97" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="B97" s="123" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>726</v>
+        <v>719</v>
+      </c>
+      <c r="D97" s="56" t="s">
+        <v>544</v>
+      </c>
+      <c r="E97" s="56" t="s">
+        <v>991</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>948</v>
+        <v>985</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>949</v>
+        <v>986</v>
       </c>
       <c r="H97" s="117" t="s">
-        <v>907</v>
+        <v>987</v>
       </c>
       <c r="I97" s="4"/>
       <c r="J97" s="4" t="s">
@@ -16964,30 +17093,30 @@
       <c r="V97" s="4"/>
       <c r="W97" s="4"/>
     </row>
-    <row r="98" spans="1:23" ht="126" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="B98" s="123" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>951</v>
+        <v>719</v>
+      </c>
+      <c r="D98" s="56" t="s">
+        <v>544</v>
+      </c>
+      <c r="E98" s="56" t="s">
+        <v>991</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>950</v>
+        <v>988</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>954</v>
+        <v>989</v>
       </c>
       <c r="H98" s="117" t="s">
-        <v>955</v>
+        <v>990</v>
       </c>
       <c r="I98" s="4"/>
       <c r="J98" s="4" t="s">
@@ -17009,30 +17138,30 @@
       <c r="V98" s="4"/>
       <c r="W98" s="4"/>
     </row>
-    <row r="99" spans="1:23" ht="84" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="B99" s="123" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>951</v>
+        <v>719</v>
+      </c>
+      <c r="D99" s="56" t="s">
+        <v>544</v>
+      </c>
+      <c r="E99" s="56" t="s">
+        <v>991</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>952</v>
+        <v>917</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>956</v>
+        <v>918</v>
       </c>
       <c r="H99" s="117" t="s">
-        <v>957</v>
+        <v>919</v>
       </c>
       <c r="I99" s="4"/>
       <c r="J99" s="4" t="s">
@@ -17054,30 +17183,30 @@
       <c r="V99" s="4"/>
       <c r="W99" s="4"/>
     </row>
-    <row r="100" spans="1:23" ht="84" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:23" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="B100" s="123" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>951</v>
+        <v>719</v>
+      </c>
+      <c r="D100" s="56" t="s">
+        <v>544</v>
+      </c>
+      <c r="E100" s="56" t="s">
+        <v>991</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>958</v>
+        <v>1001</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>959</v>
+        <v>921</v>
       </c>
       <c r="H100" s="117" t="s">
-        <v>960</v>
+        <v>925</v>
       </c>
       <c r="I100" s="4"/>
       <c r="J100" s="4" t="s">
@@ -17099,34 +17228,34 @@
       <c r="V100" s="4"/>
       <c r="W100" s="4"/>
     </row>
-    <row r="101" spans="1:23" ht="84" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="B101" s="123" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>953</v>
+        <v>719</v>
+      </c>
+      <c r="D101" s="56" t="s">
+        <v>544</v>
+      </c>
+      <c r="E101" s="56" t="s">
+        <v>991</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>963</v>
+        <v>1002</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>961</v>
+        <v>983</v>
       </c>
       <c r="H101" s="117" t="s">
-        <v>962</v>
+        <v>1005</v>
       </c>
       <c r="I101" s="4"/>
       <c r="J101" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K101" s="4"/>
       <c r="L101" s="4" t="s">
@@ -17144,30 +17273,30 @@
       <c r="V101" s="4"/>
       <c r="W101" s="4"/>
     </row>
-    <row r="102" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="B102" s="123" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>1011</v>
+        <v>719</v>
+      </c>
+      <c r="D102" s="56" t="s">
+        <v>544</v>
+      </c>
+      <c r="E102" s="56" t="s">
+        <v>991</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>964</v>
+        <v>1003</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>965</v>
+        <v>986</v>
       </c>
       <c r="H102" s="117" t="s">
-        <v>971</v>
+        <v>1006</v>
       </c>
       <c r="I102" s="4"/>
       <c r="J102" s="4" t="s">
@@ -17189,34 +17318,34 @@
       <c r="V102" s="4"/>
       <c r="W102" s="4"/>
     </row>
-    <row r="103" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="B103" s="123" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>1012</v>
+        <v>719</v>
+      </c>
+      <c r="D103" s="56" t="s">
+        <v>544</v>
+      </c>
+      <c r="E103" s="56" t="s">
+        <v>991</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>966</v>
+        <v>1004</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>967</v>
+        <v>989</v>
       </c>
       <c r="H103" s="117" t="s">
-        <v>968</v>
+        <v>1007</v>
       </c>
       <c r="I103" s="4"/>
       <c r="J103" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K103" s="4"/>
       <c r="L103" s="4" t="s">
@@ -17234,30 +17363,30 @@
       <c r="V103" s="4"/>
       <c r="W103" s="4"/>
     </row>
-    <row r="104" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="B104" s="123" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>1013</v>
+        <v>719</v>
+      </c>
+      <c r="D104" s="56" t="s">
+        <v>544</v>
+      </c>
+      <c r="E104" s="56" t="s">
+        <v>991</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>969</v>
+        <v>922</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>970</v>
+        <v>923</v>
       </c>
       <c r="H104" s="117" t="s">
-        <v>972</v>
+        <v>924</v>
       </c>
       <c r="I104" s="4"/>
       <c r="J104" s="4" t="s">
@@ -17281,28 +17410,28 @@
     </row>
     <row r="105" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="B105" s="123" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>1014</v>
+        <v>723</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>974</v>
+        <v>945</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>728</v>
+        <v>946</v>
       </c>
       <c r="H105" s="117" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="I105" s="4"/>
       <c r="J105" s="4" t="s">
@@ -17324,30 +17453,30 @@
       <c r="V105" s="4"/>
       <c r="W105" s="4"/>
     </row>
-    <row r="106" spans="1:23" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:23" ht="126" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="B106" s="123" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>727</v>
+        <v>948</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>975</v>
+        <v>947</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>977</v>
+        <v>951</v>
       </c>
       <c r="H106" s="117" t="s">
-        <v>976</v>
+        <v>952</v>
       </c>
       <c r="I106" s="4"/>
       <c r="J106" s="4" t="s">
@@ -17369,34 +17498,32 @@
       <c r="V106" s="4"/>
       <c r="W106" s="4"/>
     </row>
-    <row r="107" spans="1:23" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:23" ht="84" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="B107" s="123" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>727</v>
+        <v>948</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>1015</v>
+        <v>949</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>730</v>
+        <v>953</v>
       </c>
       <c r="H107" s="117" t="s">
-        <v>978</v>
-      </c>
-      <c r="I107" s="4" t="s">
-        <v>732</v>
-      </c>
+        <v>954</v>
+      </c>
+      <c r="I107" s="4"/>
       <c r="J107" s="4" t="s">
         <v>43</v>
       </c>
@@ -17416,34 +17543,32 @@
       <c r="V107" s="4"/>
       <c r="W107" s="4"/>
     </row>
-    <row r="108" spans="1:23" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:23" ht="84" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="B108" s="123" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>727</v>
+        <v>948</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>1016</v>
+        <v>955</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>729</v>
+        <v>956</v>
       </c>
       <c r="H108" s="117" t="s">
-        <v>979</v>
-      </c>
-      <c r="I108" s="4" t="s">
-        <v>731</v>
-      </c>
+        <v>957</v>
+      </c>
+      <c r="I108" s="4"/>
       <c r="J108" s="4" t="s">
         <v>43</v>
       </c>
@@ -17463,34 +17588,34 @@
       <c r="V108" s="4"/>
       <c r="W108" s="4"/>
     </row>
-    <row r="109" spans="1:23" ht="48" x14ac:dyDescent="0.15">
-      <c r="A109" s="40" t="s">
-        <v>671</v>
+    <row r="109" spans="1:23" ht="84" x14ac:dyDescent="0.15">
+      <c r="A109" s="4" t="s">
+        <v>664</v>
       </c>
       <c r="B109" s="123" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="D109" s="56" t="s">
-        <v>547</v>
-      </c>
-      <c r="E109" s="56" t="s">
-        <v>727</v>
-      </c>
-      <c r="F109" s="40" t="s">
-        <v>1017</v>
-      </c>
-      <c r="G109" s="56" t="s">
-        <v>823</v>
-      </c>
-      <c r="H109" s="120" t="s">
-        <v>733</v>
+        <v>719</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="H109" s="117" t="s">
+        <v>959</v>
       </c>
       <c r="I109" s="4"/>
       <c r="J109" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K109" s="4"/>
       <c r="L109" s="4" t="s">
@@ -17508,34 +17633,34 @@
       <c r="V109" s="4"/>
       <c r="W109" s="4"/>
     </row>
-    <row r="110" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="B110" s="123" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>727</v>
+        <v>1008</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>734</v>
+        <v>961</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>973</v>
+        <v>962</v>
       </c>
       <c r="H110" s="117" t="s">
-        <v>735</v>
+        <v>968</v>
       </c>
       <c r="I110" s="4"/>
       <c r="J110" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K110" s="4"/>
       <c r="L110" s="4" t="s">
@@ -17553,34 +17678,34 @@
       <c r="V110" s="4"/>
       <c r="W110" s="4"/>
     </row>
-    <row r="111" spans="1:23" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="B111" s="123" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>727</v>
+        <v>1009</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>1020</v>
+        <v>963</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>980</v>
+        <v>964</v>
       </c>
       <c r="H111" s="117" t="s">
-        <v>981</v>
+        <v>965</v>
       </c>
       <c r="I111" s="4"/>
       <c r="J111" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K111" s="4"/>
       <c r="L111" s="4" t="s">
@@ -17598,30 +17723,30 @@
       <c r="V111" s="4"/>
       <c r="W111" s="4"/>
     </row>
-    <row r="112" spans="1:23" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="B112" s="123" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>727</v>
+        <v>1010</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>736</v>
+        <v>966</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>1018</v>
+        <v>967</v>
       </c>
       <c r="H112" s="117" t="s">
-        <v>737</v>
+        <v>969</v>
       </c>
       <c r="I112" s="4"/>
       <c r="J112" s="4" t="s">
@@ -17645,28 +17770,28 @@
     </row>
     <row r="113" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="B113" s="123" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>727</v>
+        <v>1011</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>738</v>
+        <v>971</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>1019</v>
+        <v>725</v>
       </c>
       <c r="H113" s="117" t="s">
-        <v>739</v>
+        <v>896</v>
       </c>
       <c r="I113" s="4"/>
       <c r="J113" s="4" t="s">
@@ -17688,30 +17813,30 @@
       <c r="V113" s="4"/>
       <c r="W113" s="4"/>
     </row>
-    <row r="114" spans="1:23" ht="72" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:23" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="B114" s="123" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>741</v>
+        <v>972</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>742</v>
+        <v>974</v>
       </c>
       <c r="H114" s="117" t="s">
-        <v>743</v>
+        <v>973</v>
       </c>
       <c r="I114" s="4"/>
       <c r="J114" s="4" t="s">
@@ -17733,32 +17858,34 @@
       <c r="V114" s="4"/>
       <c r="W114" s="4"/>
     </row>
-    <row r="115" spans="1:23" ht="60" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:23" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="B115" s="123" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>744</v>
+        <v>1012</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
       <c r="H115" s="117" t="s">
-        <v>900</v>
-      </c>
-      <c r="I115" s="4"/>
+        <v>975</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>729</v>
+      </c>
       <c r="J115" s="4" t="s">
         <v>43</v>
       </c>
@@ -17778,21 +17905,41 @@
       <c r="V115" s="4"/>
       <c r="W115" s="4"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:23" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
-        <v>678</v>
-      </c>
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
-      <c r="H116" s="117"/>
-      <c r="I116" s="4"/>
-      <c r="J116" s="4"/>
+        <v>671</v>
+      </c>
+      <c r="B116" s="123" t="s">
+        <v>718</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="H116" s="117" t="s">
+        <v>976</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K116" s="4"/>
-      <c r="L116" s="4"/>
+      <c r="L116" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
@@ -17805,21 +17952,39 @@
       <c r="V116" s="4"/>
       <c r="W116" s="4"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
-        <v>679</v>
-      </c>
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="117"/>
+        <v>672</v>
+      </c>
+      <c r="B117" s="123" t="s">
+        <v>718</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="D117" s="56" t="s">
+        <v>544</v>
+      </c>
+      <c r="E117" s="56" t="s">
+        <v>724</v>
+      </c>
+      <c r="F117" s="40" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G117" s="56" t="s">
+        <v>820</v>
+      </c>
+      <c r="H117" s="120" t="s">
+        <v>730</v>
+      </c>
       <c r="I117" s="4"/>
-      <c r="J117" s="4"/>
+      <c r="J117" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K117" s="4"/>
-      <c r="L117" s="4"/>
+      <c r="L117" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M117" s="4"/>
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
@@ -17832,21 +17997,39 @@
       <c r="V117" s="4"/>
       <c r="W117" s="4"/>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="117"/>
+        <v>673</v>
+      </c>
+      <c r="B118" s="123" t="s">
+        <v>718</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="H118" s="117" t="s">
+        <v>732</v>
+      </c>
       <c r="I118" s="4"/>
-      <c r="J118" s="4"/>
+      <c r="J118" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="K118" s="4"/>
-      <c r="L118" s="4"/>
+      <c r="L118" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
@@ -17859,21 +18042,39 @@
       <c r="V118" s="4"/>
       <c r="W118" s="4"/>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:23" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="4"/>
-      <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
-      <c r="H119" s="117"/>
+        <v>674</v>
+      </c>
+      <c r="B119" s="123" t="s">
+        <v>718</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="H119" s="117" t="s">
+        <v>978</v>
+      </c>
       <c r="I119" s="4"/>
-      <c r="J119" s="4"/>
+      <c r="J119" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K119" s="4"/>
-      <c r="L119" s="4"/>
+      <c r="L119" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M119" s="4"/>
       <c r="N119" s="4"/>
       <c r="O119" s="4"/>
@@ -17886,21 +18087,39 @@
       <c r="V119" s="4"/>
       <c r="W119" s="4"/>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:23" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
-        <v>682</v>
-      </c>
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="117"/>
+        <v>675</v>
+      </c>
+      <c r="B120" s="123" t="s">
+        <v>718</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H120" s="117" t="s">
+        <v>734</v>
+      </c>
       <c r="I120" s="4"/>
-      <c r="J120" s="4"/>
+      <c r="J120" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K120" s="4"/>
-      <c r="L120" s="4"/>
+      <c r="L120" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M120" s="4"/>
       <c r="N120" s="4"/>
       <c r="O120" s="4"/>
@@ -17913,21 +18132,39 @@
       <c r="V120" s="4"/>
       <c r="W120" s="4"/>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="117"/>
+        <v>676</v>
+      </c>
+      <c r="B121" s="123" t="s">
+        <v>718</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H121" s="117" t="s">
+        <v>736</v>
+      </c>
       <c r="I121" s="4"/>
-      <c r="J121" s="4"/>
+      <c r="J121" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K121" s="4"/>
-      <c r="L121" s="4"/>
+      <c r="L121" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M121" s="4"/>
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
@@ -17940,21 +18177,39 @@
       <c r="V121" s="4"/>
       <c r="W121" s="4"/>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="117"/>
+        <v>677</v>
+      </c>
+      <c r="B122" s="123" t="s">
+        <v>718</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="H122" s="117" t="s">
+        <v>740</v>
+      </c>
       <c r="I122" s="4"/>
-      <c r="J122" s="4"/>
+      <c r="J122" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K122" s="4"/>
-      <c r="L122" s="4"/>
+      <c r="L122" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
       <c r="O122" s="4"/>
@@ -17967,21 +18222,39 @@
       <c r="V122" s="4"/>
       <c r="W122" s="4"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:23" ht="60" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
-        <v>685</v>
-      </c>
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="117"/>
+        <v>678</v>
+      </c>
+      <c r="B123" s="123" t="s">
+        <v>718</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="H123" s="117" t="s">
+        <v>897</v>
+      </c>
       <c r="I123" s="4"/>
-      <c r="J123" s="4"/>
+      <c r="J123" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K123" s="4"/>
-      <c r="L123" s="4"/>
+      <c r="L123" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M123" s="4"/>
       <c r="N123" s="4"/>
       <c r="O123" s="4"/>
@@ -17996,7 +18269,7 @@
     </row>
     <row r="124" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -18023,7 +18296,7 @@
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -18050,7 +18323,7 @@
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
-        <v>745</v>
+        <v>681</v>
       </c>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -18077,7 +18350,7 @@
     </row>
     <row r="127" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
-        <v>746</v>
+        <v>682</v>
       </c>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -18104,7 +18377,7 @@
     </row>
     <row r="128" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
-        <v>747</v>
+        <v>687</v>
       </c>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -18131,7 +18404,7 @@
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A129" s="4" t="s">
-        <v>748</v>
+        <v>688</v>
       </c>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -18158,7 +18431,7 @@
     </row>
     <row r="130" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A130" s="4" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -18185,7 +18458,7 @@
     </row>
     <row r="131" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A131" s="4" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -18212,7 +18485,7 @@
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A132" s="4" t="s">
-        <v>799</v>
+        <v>744</v>
       </c>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -18239,7 +18512,7 @@
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A133" s="4" t="s">
-        <v>800</v>
+        <v>745</v>
       </c>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -18266,7 +18539,7 @@
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A134" s="4" t="s">
-        <v>801</v>
+        <v>746</v>
       </c>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -18293,7 +18566,7 @@
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
-        <v>802</v>
+        <v>747</v>
       </c>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -18320,7 +18593,7 @@
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A136" s="4" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -18347,7 +18620,7 @@
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A137" s="4" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -18374,7 +18647,7 @@
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A138" s="4" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -18401,7 +18674,7 @@
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A139" s="4" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -18428,7 +18701,7 @@
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A140" s="4" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -18455,7 +18728,7 @@
     </row>
     <row r="141" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -18482,7 +18755,7 @@
     </row>
     <row r="142" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -18509,7 +18782,7 @@
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -18536,7 +18809,7 @@
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -18563,7 +18836,7 @@
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -18590,7 +18863,7 @@
     </row>
     <row r="146" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A146" s="4" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -18617,7 +18890,7 @@
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A147" s="4" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -18644,7 +18917,7 @@
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -18671,7 +18944,7 @@
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A149" s="4" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -18698,7 +18971,7 @@
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A150" s="4" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -18725,7 +18998,7 @@
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A151" s="4" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -18752,7 +19025,7 @@
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A152" s="4" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -18779,7 +19052,7 @@
     </row>
     <row r="153" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A153" s="4" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -18806,7 +19079,7 @@
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A154" s="4" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -18833,7 +19106,7 @@
     </row>
     <row r="155" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A155" s="4" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -18860,7 +19133,7 @@
     </row>
     <row r="156" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A156" s="4" t="s">
-        <v>865</v>
+        <v>816</v>
       </c>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -18887,7 +19160,7 @@
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A157" s="4" t="s">
-        <v>1022</v>
+        <v>817</v>
       </c>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -18914,7 +19187,7 @@
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A158" s="4" t="s">
-        <v>1023</v>
+        <v>818</v>
       </c>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -18941,7 +19214,7 @@
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A159" s="4" t="s">
-        <v>1024</v>
+        <v>819</v>
       </c>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -18968,7 +19241,7 @@
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A160" s="4" t="s">
-        <v>1025</v>
+        <v>862</v>
       </c>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -18995,7 +19268,7 @@
     </row>
     <row r="161" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A161" s="4" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -19022,7 +19295,7 @@
     </row>
     <row r="162" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A162" s="4" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -19049,7 +19322,7 @@
     </row>
     <row r="163" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A163" s="4" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -19076,7 +19349,7 @@
     </row>
     <row r="164" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A164" s="4" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -19103,7 +19376,7 @@
     </row>
     <row r="165" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A165" s="4" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -19130,7 +19403,7 @@
     </row>
     <row r="166" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A166" s="4" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -19157,7 +19430,7 @@
     </row>
     <row r="167" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A167" s="4" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -19184,7 +19457,7 @@
     </row>
     <row r="168" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A168" s="4" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -19211,7 +19484,7 @@
     </row>
     <row r="169" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A169" s="4" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -19238,7 +19511,7 @@
     </row>
     <row r="170" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A170" s="4" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -19265,7 +19538,7 @@
     </row>
     <row r="171" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A171" s="4" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -19292,7 +19565,7 @@
     </row>
     <row r="172" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A172" s="4" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -19319,7 +19592,7 @@
     </row>
     <row r="173" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A173" s="4" t="s">
-        <v>1038</v>
+        <v>1031</v>
       </c>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -19346,7 +19619,7 @@
     </row>
     <row r="174" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A174" s="4" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -19371,6 +19644,222 @@
       <c r="V174" s="4"/>
       <c r="W174" s="4"/>
     </row>
+    <row r="175" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A175" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
+      <c r="E175" s="4"/>
+      <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
+      <c r="H175" s="117"/>
+      <c r="I175" s="4"/>
+      <c r="J175" s="4"/>
+      <c r="K175" s="4"/>
+      <c r="L175" s="4"/>
+      <c r="M175" s="4"/>
+      <c r="N175" s="4"/>
+      <c r="O175" s="4"/>
+      <c r="P175" s="4"/>
+      <c r="Q175" s="4"/>
+      <c r="R175" s="4"/>
+      <c r="S175" s="4"/>
+      <c r="T175" s="54"/>
+      <c r="U175" s="4"/>
+      <c r="V175" s="4"/>
+      <c r="W175" s="4"/>
+    </row>
+    <row r="176" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A176" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B176" s="4"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="4"/>
+      <c r="F176" s="4"/>
+      <c r="G176" s="4"/>
+      <c r="H176" s="117"/>
+      <c r="I176" s="4"/>
+      <c r="J176" s="4"/>
+      <c r="K176" s="4"/>
+      <c r="L176" s="4"/>
+      <c r="M176" s="4"/>
+      <c r="N176" s="4"/>
+      <c r="O176" s="4"/>
+      <c r="P176" s="4"/>
+      <c r="Q176" s="4"/>
+      <c r="R176" s="4"/>
+      <c r="S176" s="4"/>
+      <c r="T176" s="54"/>
+      <c r="U176" s="4"/>
+      <c r="V176" s="4"/>
+      <c r="W176" s="4"/>
+    </row>
+    <row r="177" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A177" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="117"/>
+      <c r="I177" s="4"/>
+      <c r="J177" s="4"/>
+      <c r="K177" s="4"/>
+      <c r="L177" s="4"/>
+      <c r="M177" s="4"/>
+      <c r="N177" s="4"/>
+      <c r="O177" s="4"/>
+      <c r="P177" s="4"/>
+      <c r="Q177" s="4"/>
+      <c r="R177" s="4"/>
+      <c r="S177" s="4"/>
+      <c r="T177" s="54"/>
+      <c r="U177" s="4"/>
+      <c r="V177" s="4"/>
+      <c r="W177" s="4"/>
+    </row>
+    <row r="178" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A178" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B178" s="4"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="117"/>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
+      <c r="K178" s="4"/>
+      <c r="L178" s="4"/>
+      <c r="M178" s="4"/>
+      <c r="N178" s="4"/>
+      <c r="O178" s="4"/>
+      <c r="P178" s="4"/>
+      <c r="Q178" s="4"/>
+      <c r="R178" s="4"/>
+      <c r="S178" s="4"/>
+      <c r="T178" s="54"/>
+      <c r="U178" s="4"/>
+      <c r="V178" s="4"/>
+      <c r="W178" s="4"/>
+    </row>
+    <row r="179" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A179" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B179" s="4"/>
+      <c r="C179" s="4"/>
+      <c r="D179" s="4"/>
+      <c r="E179" s="4"/>
+      <c r="F179" s="4"/>
+      <c r="G179" s="4"/>
+      <c r="H179" s="117"/>
+      <c r="I179" s="4"/>
+      <c r="J179" s="4"/>
+      <c r="K179" s="4"/>
+      <c r="L179" s="4"/>
+      <c r="M179" s="4"/>
+      <c r="N179" s="4"/>
+      <c r="O179" s="4"/>
+      <c r="P179" s="4"/>
+      <c r="Q179" s="4"/>
+      <c r="R179" s="4"/>
+      <c r="S179" s="4"/>
+      <c r="T179" s="54"/>
+      <c r="U179" s="4"/>
+      <c r="V179" s="4"/>
+      <c r="W179" s="4"/>
+    </row>
+    <row r="180" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A180" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B180" s="4"/>
+      <c r="C180" s="4"/>
+      <c r="D180" s="4"/>
+      <c r="E180" s="4"/>
+      <c r="F180" s="4"/>
+      <c r="G180" s="4"/>
+      <c r="H180" s="117"/>
+      <c r="I180" s="4"/>
+      <c r="J180" s="4"/>
+      <c r="K180" s="4"/>
+      <c r="L180" s="4"/>
+      <c r="M180" s="4"/>
+      <c r="N180" s="4"/>
+      <c r="O180" s="4"/>
+      <c r="P180" s="4"/>
+      <c r="Q180" s="4"/>
+      <c r="R180" s="4"/>
+      <c r="S180" s="4"/>
+      <c r="T180" s="54"/>
+      <c r="U180" s="4"/>
+      <c r="V180" s="4"/>
+      <c r="W180" s="4"/>
+    </row>
+    <row r="181" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A181" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B181" s="4"/>
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="4"/>
+      <c r="F181" s="4"/>
+      <c r="G181" s="4"/>
+      <c r="H181" s="117"/>
+      <c r="I181" s="4"/>
+      <c r="J181" s="4"/>
+      <c r="K181" s="4"/>
+      <c r="L181" s="4"/>
+      <c r="M181" s="4"/>
+      <c r="N181" s="4"/>
+      <c r="O181" s="4"/>
+      <c r="P181" s="4"/>
+      <c r="Q181" s="4"/>
+      <c r="R181" s="4"/>
+      <c r="S181" s="4"/>
+      <c r="T181" s="54"/>
+      <c r="U181" s="4"/>
+      <c r="V181" s="4"/>
+      <c r="W181" s="4"/>
+    </row>
+    <row r="182" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A182" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B182" s="4"/>
+      <c r="C182" s="4"/>
+      <c r="D182" s="4"/>
+      <c r="E182" s="4"/>
+      <c r="F182" s="4"/>
+      <c r="G182" s="4"/>
+      <c r="H182" s="117"/>
+      <c r="I182" s="4"/>
+      <c r="J182" s="4"/>
+      <c r="K182" s="4"/>
+      <c r="L182" s="4"/>
+      <c r="M182" s="4"/>
+      <c r="N182" s="4"/>
+      <c r="O182" s="4"/>
+      <c r="P182" s="4"/>
+      <c r="Q182" s="4"/>
+      <c r="R182" s="4"/>
+      <c r="S182" s="4"/>
+      <c r="T182" s="54"/>
+      <c r="U182" s="4"/>
+      <c r="V182" s="4"/>
+      <c r="W182" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19382,49 +19871,49 @@
           <x14:formula1>
             <xm:f>Sheet2!$M$4:$M$6</xm:f>
           </x14:formula1>
-          <xm:sqref>S3:S174</xm:sqref>
+          <xm:sqref>S3:S182</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$G$4:$G$11</xm:f>
           </x14:formula1>
-          <xm:sqref>R3:R174</xm:sqref>
+          <xm:sqref>R3:R182</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$K$4:$K$13</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:K174</xm:sqref>
+          <xm:sqref>K3:K182</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$J$4:$J$9</xm:f>
           </x14:formula1>
-          <xm:sqref>Q3:Q174</xm:sqref>
+          <xm:sqref>Q3:Q182</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$G$4:$G$10</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:O174</xm:sqref>
+          <xm:sqref>M3:O182</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$F$4:$F$8</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L174</xm:sqref>
+          <xm:sqref>L3:L182</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$D$4:$D$9</xm:f>
           </x14:formula1>
-          <xm:sqref>J3:J174</xm:sqref>
+          <xm:sqref>J3:J182</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Story Point">
           <x14:formula1>
             <xm:f>'C:\Users\Omnex\Documents\[performanetools1.txt.xlsx]Data_Ref'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>P3:P174</xm:sqref>
+          <xm:sqref>P3:P182</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/projects/YanFeng/02 System Design/User Stories/User Stories.xlsx
+++ b/projects/YanFeng/02 System Design/User Stories/User Stories.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="1071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="1121">
   <si>
     <t>ID</t>
   </si>
@@ -3114,10 +3114,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>I can see the latest status of the project</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Have privileges control on the floating menu of a part</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3148,14 +3144,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Modify the imported project schedule</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can change the project schedule according to the project changes</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>I can have a portal to access these functions;</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3192,14 +3180,6 @@
     <t>1, User should see a new pop-up window with part information in read-only mode after selecting the menu item "View Part Information" in the floating menu;
 2, User should be able to close the new pop-up window;
 3, User should see "Close" Button;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can view and check the newest status of the part</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, The part information(master data of the part, schedule data of the part, tasks of the the part) should be reloaded;</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -3468,24 +3448,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Refresh the part schedule information by selecting the menu item "Refresh" in floating menu of part</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>View Part Information by selecting the menu item "View Part Information" in floating menu of part</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Project Management - Project Schedule Management</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Refresh the project schedule by selecting the menu item "Refresh" in floating menu of project</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, User should see the newest Schedule data of the project;
-2, System should reload the project with the latest udpates;</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -3671,9 +3638,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1, User should be able to adjust the project schedule in task list view;</t>
-  </si>
-  <si>
     <t>1, user should see the project main task displayed in task list view;
 2, User should be able to assign the unassigned project main task to himself</t>
   </si>
@@ -4061,6 +4025,487 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>Approve APQP main task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can approve all APQP tasks as an entire task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, user should be able to select "Approved" value in dropdown list in the window "Edit APQP Main Task Information";</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close APQP main task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can close all APQP tasks as an entire task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, user should be able to select "Closed" value in dropdown list in the window "Edit APQP Main Task Information";</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reopen APQP main task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can reopen all APQP tasks as an entire task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, user should be able to select "Reopen" value in dropdown list in the window "Edit APQP Main Task Information";</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ASDE/SQE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reject the part task that assigned to me</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, The comments of decline is required;
+2, User should see value "Reject" in task status dropdown list;
+3, User should see button "Submit Task";
+4, The assignee of part task should be set to project owner (Previously ASDE/SQE supervisor who owned this project)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close the part task that assigned to me</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can clear the part task once it's sub tasks(APQP/PPAP/PPQP) closed;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User shoud see value "Close" in task status dropdown list;
+2, User should se button "Submit Task";</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reopen the part task that assigned to me</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDE/SQE Supervisor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can reopen the closed part task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User shoud see value "Reopen" in task status dropdown list;
+3, User should se button "Submit Task";</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create PPAP main task under a part</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approve PPAP main task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close PPAP main task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reopen PPAP main task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, user should be able to select "Approved" value in dropdown list in the window "Edit PPAP Main Task Information";</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, user should be able to select "Closed" value in dropdown list in the window "Edit PPAP Main Task Information";</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, user should be able to select "Reopen" value in dropdown list in the window "Edit PPAP Main Task Information";</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDE/SQE suppervisor;
+ASDE/SQE
+Supplier</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDE/SQE suppervisor;
+ASDE/SQE
+Supplier</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDE/SQE suppervisor;
+ASDE/SQE
+Supplier</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDE/SQE
+Supplier</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fill APQP task information</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fill PPAP task information</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill PPQP task information </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can view and track my tasks</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can view and track my tasks in system internally</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Submit APAP/PPAP Task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>US66</t>
+  </si>
+  <si>
+    <t>US155</t>
+  </si>
+  <si>
+    <t>US156</t>
+  </si>
+  <si>
+    <t>US157</t>
+  </si>
+  <si>
+    <t>US158</t>
+  </si>
+  <si>
+    <t>US159</t>
+  </si>
+  <si>
+    <t>US160</t>
+  </si>
+  <si>
+    <t>US161</t>
+  </si>
+  <si>
+    <t>US162</t>
+  </si>
+  <si>
+    <t>US163</t>
+  </si>
+  <si>
+    <t>US164</t>
+  </si>
+  <si>
+    <t>US165</t>
+  </si>
+  <si>
+    <t>US166</t>
+  </si>
+  <si>
+    <t>US167</t>
+  </si>
+  <si>
+    <t>US168</t>
+  </si>
+  <si>
+    <t>US169</t>
+  </si>
+  <si>
+    <t>US170</t>
+  </si>
+  <si>
+    <t>US171</t>
+  </si>
+  <si>
+    <t>US172</t>
+  </si>
+  <si>
+    <t>Project Management - Project Filter</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>As a user, I want to filter my tasks, so that I can quickly locate the tasks I want to process</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project management</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDE/SQE supervisor
+ASDE/SQE
+Supplier</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>See project filter at the bottom of the Explore Tree view</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can open the filter at any time</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see a project filter menu at the bottom of Explore Tree view(behind the task tree view)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Shrink and Extend the project filter as required </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can open it when suppose to filter my project and shrink it when I suppose to process task tree view;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, Project filter should have functions to be shrink and extend;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can qulickly find the project using key words</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do quick search on the project name using project filter</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Quick Search (By Key word) should be provided;
+2, The key word should be part of project name;
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Filter my project by three condition "All Project","Active Project", "Inactive Project"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can quickly find the project that fulfill my requests</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1, User should see three predefined menu item "All Project","Active Projects","Inactive Projects" in the project filter menu;
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>All Projects: Includes Active and Inactive projects;
+Active Projects: The projects not in close status;
+Inactive Projects: The projects in close status;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>US173</t>
+  </si>
+  <si>
+    <t>US174</t>
+  </si>
+  <si>
+    <t>US175</t>
+  </si>
+  <si>
+    <t>US176</t>
+  </si>
+  <si>
+    <t>I can create part task according to the part added</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add a part from system part repository</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can add an existing part to my project</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see "Project Parts" section in project information form;
+2, User should see clickable "+" icon in "project parts" section;
+3, User should see parts list in "project parts" section;
+4, User should see a new "Add Part Information" form after clicking on "+" icon;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see a new "add part information" form which contains part basic information;
+2, User should see "Save" "Cancel" buttons;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see a button "Part Repository" in "Add Part Information" form;
+2, User should see a new window "Part Repository" when clicking on above button;
+3, User should be able to select a existing part from the part list;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">I can filter the parts </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search a part using criteria "part name" "category" "supplier" and "property no" in function of add part</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see search criteria "part name" "category" "supplier name" "property No" in "part repository" window;
+2, User should see buttons "Search" "Cancel";
+3, User should see a part list;
+4, User should be able to select a load part information by clicking on the link "Select" at the bottom of the part list;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDE/SQE supervisor
+ASDE/SQE
+Supplier</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>See task list in Display area</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see task list in display area;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update the project task schedule in task list view</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update the part task schedule in task list view</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDE/SQE supervisor
+ASDE/SQE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can update the task schedule items in task list view</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, Columns of project task in task list view should be editable;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update the APQP/PPAP main task schedule in task list view</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can adjust the project task items according to project plan</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can adjust the part task items according to project plan</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can adjust the APQP/PPAP main task items according to project plan</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update the APQP/PPAP task schedule in task list view</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can adjust the APQP/PPAP task items according to project plan</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Columns of APQP/PPAP task in task list view should be editable; </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Columns of APQP/PPAP main task in task list view should be editable; </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1, Columns of part task in task list view should be editable; </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Editable columns: task name, request start date, request finish date, predecessors, Duration, % Complete, budget days, budge hrs,approver, confirm date, owner, status, deliver date,comments;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Editable columns: task name, request start date, request finish date, predecessors, Duration, % Complete, budget days, budge hrs,approver, confirm date, owner, status, deliver date,comments;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Editable columns: task name, request start date, request finish date, predecessors, Duration, % Complete, budget days, budge hrs,approver, confirm date, owner, status, deliver date,comments;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refresh the project task by selecting the menu item "Refresh" in floating menu of project</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refresh the part task information by selecting the menu item "Refresh" in floating menu of part</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refresh the APQP/PPAP task information by selecting the menu item "Refresh" in floating menu of part</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can view and check the newest status of the part task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can view and check the newest status of the APQP/PPAP task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can see the latest status of the project task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, The part schedule information should be reloaded;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, The project schedule information should be reloaded;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, The APAP/PPAP schedule information should be reloaded;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Editable columns: task name, request start date, request finish date, predecessors, Duration, % Complete, budget days, budge hrs,approver, confirm date, owner, status, deliver date,comments;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project Schedule Information includes: task name, request start date, request finish date, predecessors, Duration, % Complete, budget days, budge hrs,approver, confirm date, owner, status, deliver date,comments;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Part Schedule Information includes: task name, request start date, request finish date, predecessors, Duration, % Complete, budget days, budge hrs,approver, confirm date, owner, status, deliver date,comments;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schedule Schedule Information includes: task name, request start date, request finish date, predecessors, Duration, % Complete, budget days, budge hrs,approver, confirm date, owner, status, deliver date,comments;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">Task Tree Levels: 
 Level 1-&gt;  Project main task
 Level 2-&gt;  Part Task
@@ -4069,367 +4514,123 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Approve APQP main task</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can approve all APQP tasks as an entire task</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, user should be able to select "Approved" value in dropdown list in the window "Edit APQP Main Task Information";</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Close APQP main task</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can close all APQP tasks as an entire task</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, user should be able to select "Closed" value in dropdown list in the window "Edit APQP Main Task Information";</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reopen APQP main task</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can reopen all APQP tasks as an entire task</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, user should be able to select "Reopen" value in dropdown list in the window "Edit APQP Main Task Information";</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ASDE/SQE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reject the part task that assigned to me</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, The comments of decline is required;
-2, User should see value "Reject" in task status dropdown list;
-3, User should see button "Submit Task";
-4, The assignee of part task should be set to project owner (Previously ASDE/SQE supervisor who owned this project)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Close the part task that assigned to me</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can clear the part task once it's sub tasks(APQP/PPAP/PPQP) closed;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, User shoud see value "Close" in task status dropdown list;
-2, User should se button "Submit Task";</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reopen the part task that assigned to me</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASDE/SQE Supervisor</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can reopen the closed part task</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, User shoud see value "Reopen" in task status dropdown list;
-3, User should se button "Submit Task";</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create PPAP main task under a part</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Approve PPAP main task</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Close PPAP main task</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reopen PPAP main task</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, user should be able to select "Approved" value in dropdown list in the window "Edit PPAP Main Task Information";</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, user should be able to select "Closed" value in dropdown list in the window "Edit PPAP Main Task Information";</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, user should be able to select "Reopen" value in dropdown list in the window "Edit PPAP Main Task Information";</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASDE/SQE suppervisor;
+    <t xml:space="preserve">Task List Levels: 
+Level 1 -&gt;  Project main task(parent task of part task)
+Level 2 -&gt;  Part Task(parent task of APQP/PPAP/PPQP main task)
+Level 3 -&gt; APQP/PPAP/PPQP main task(parent task of APQP/PPAP/PPQP task)
+Level 4 -&gt; APQP/PPAP/PPQPP task(atomic task)
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Define the project main task as the composite task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can link sub tasks to project task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Define the part task as the composite task </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can link sub tasks to part task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can link sub tasks to APQP/PPAP/PPQP main task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Define the APQP/PPAP/PPQP main task as the composite task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Define the APQP/PPAP/PPQP task as the atomic task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">I can link APQP/PPAP/PPQP tasks to relative APQP/PPAP/PPQP main task </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refer to "Task Level Settings" in Supplier FlowCharts &amp; UX.pptx</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>US177</t>
+  </si>
+  <si>
+    <t>US178</t>
+  </si>
+  <si>
+    <t>US179</t>
+  </si>
+  <si>
+    <t>US180</t>
+  </si>
+  <si>
+    <t>US181</t>
+  </si>
+  <si>
+    <t>US182</t>
+  </si>
+  <si>
+    <t>US183</t>
+  </si>
+  <si>
+    <t>US184</t>
+  </si>
+  <si>
+    <t>US185</t>
+  </si>
+  <si>
+    <t>US186</t>
+  </si>
+  <si>
+    <t>US187</t>
+  </si>
+  <si>
+    <t>ASDE/SQE Supervisor
 ASDE/SQE
 Supplier</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>ASDE/SQE suppervisor;
-ASDE/SQE
-Supplier</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASDE/SQE suppervisor;
-ASDE/SQE
-Supplier</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASDE/SQE
-Supplier</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fill APQP task information</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fill PPAP task information</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Fill PPQP task information </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can view and track my tasks</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can view and track my tasks in system internally</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Submit APAP/PPAP Task</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>US66</t>
-  </si>
-  <si>
-    <t>US155</t>
-  </si>
-  <si>
-    <t>US156</t>
-  </si>
-  <si>
-    <t>US157</t>
-  </si>
-  <si>
-    <t>US158</t>
-  </si>
-  <si>
-    <t>US159</t>
-  </si>
-  <si>
-    <t>US160</t>
-  </si>
-  <si>
-    <t>US161</t>
-  </si>
-  <si>
-    <t>US162</t>
-  </si>
-  <si>
-    <t>US163</t>
-  </si>
-  <si>
-    <t>US164</t>
-  </si>
-  <si>
-    <t>US165</t>
-  </si>
-  <si>
-    <t>US166</t>
-  </si>
-  <si>
-    <t>US167</t>
-  </si>
-  <si>
-    <t>US168</t>
-  </si>
-  <si>
-    <t>US169</t>
-  </si>
-  <si>
-    <t>US170</t>
-  </si>
-  <si>
-    <t>US171</t>
-  </si>
-  <si>
-    <t>US172</t>
-  </si>
-  <si>
-    <t>Project Management - Project Filter</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>As a user, I want to filter my tasks, so that I can quickly locate the tasks I want to process</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Project management</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASDE/SQE supervisor
-ASDE/SQE
-Supplier</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>See project filter at the bottom of the Explore Tree view</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can open the filter at any time</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, User should see a project filter menu at the bottom of Explore Tree view(behind the task tree view)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Shrink and Extend the project filter as required </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can open it when suppose to filter my project and shrink it when I suppose to process task tree view;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, Project filter should have functions to be shrink and extend;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can qulickly find the project using key words</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Do quick search on the project name using project filter</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1, Quick Search (By Key word) should be provided;
-2, The key word should be part of project name;
+    <t xml:space="preserve">Save changes I made in the task list </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can store all my inputs in the task list view</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see a clickable save icon in task toolbar;
+2, User should see a prompt message with successful or failed information after the save transaction done;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can simplify the task modification</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1, User should see default values of a project main task;
 </t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Filter my project by three condition "All Project","Active Project", "Inactive Project"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can quickly find the project that fulfill my requests</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1, User should see three predefined menu item "All Project","Active Projects","Inactive Projects" in the project filter menu;
-</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>All Projects: Includes Active and Inactive projects;
-Active Projects: The projects not in close status;
-Inactive Projects: The projects in close status;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>US173</t>
-  </si>
-  <si>
-    <t>US174</t>
-  </si>
-  <si>
-    <t>US175</t>
-  </si>
-  <si>
-    <t>US176</t>
-  </si>
-  <si>
-    <t>I can create part task according to the part added</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add a part from system part repository</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can add an existing part to my project</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, User should see "Project Parts" section in project information form;
-2, User should see clickable "+" icon in "project parts" section;
-3, User should see parts list in "project parts" section;
-4, User should see a new "Add Part Information" form after clicking on "+" icon;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, User should see a new "add part information" form which contains part basic information;
-2, User should see "Save" "Cancel" buttons;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, User should see a button "Part Repository" in "Add Part Information" form;
-2, User should see a new window "Part Repository" when clicking on above button;
-3, User should be able to select a existing part from the part list;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">I can filter the parts </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Search a part using criteria "part name" "category" "supplier" and "property no" in function of add part</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, User should see search criteria "part name" "category" "supplier name" "property No" in "part repository" window;
-2, User should see buttons "Search" "Cancel";
-3, User should see a part list;
-4, User should be able to select a load part information by clicking on the link "Select" at the bottom of the part list;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASDE/SQE supervisor
-ASDE/SQE
-Supplier</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">I can change the schedule items </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>See task list in Display area</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, User should see task list in display area;</t>
+    <t>If no default value found from external data or a new creation of project main task, the initialization should follow the policy below:
+Request start date (current date);Request Finish date(the day after current date); Duration(auto caculated); Approver(task creator);owner(task creator);status(new);deliver date(blank);comments(blank);predecessors(blank);%complete(blank);budget days(blank);budget hrs(blank);confirm date(blank);</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initialize the task with default value</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDE/SQE Supervisor
+A</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -4836,7 +5037,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5134,24 +5335,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5190,6 +5373,27 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5724,25 +5928,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="123" t="s">
         <v>563</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
       <c r="I2" s="98"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="131"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
       <c r="I3" s="99" t="s">
         <v>557</v>
       </c>
@@ -5808,23 +6012,23 @@
       </c>
       <c r="C6" s="99">
         <f>COUNTIF('Project Management'!J:J,"Critical")</f>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D6" s="99">
         <f>COUNTIF('Project Management'!J:J,"Very High")</f>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E6" s="99">
         <f>COUNTIF('Project Management'!J:J,"High")</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="99">
         <f>COUNTIF('Project Management'!J:J,"Medium")</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G6" s="99">
         <f>COUNTIF('Project Management'!J:J,"Low")</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6" s="99">
         <f>COUNTIF('Project Management'!J:J,"Very Low")</f>
@@ -5832,7 +6036,7 @@
       </c>
       <c r="I6" s="99">
         <f t="shared" ref="I6:I12" si="0">SUM(C6:H6)</f>
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
@@ -6039,23 +6243,23 @@
       </c>
       <c r="C13" s="99">
         <f>SUM(C5:C12)</f>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D13" s="99">
         <f t="shared" ref="D13:H13" si="1">SUM(D5:D12)</f>
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E13" s="99">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="99">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G13" s="99">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H13" s="99">
         <f t="shared" si="1"/>
@@ -6067,16 +6271,16 @@
       <c r="B14" s="102" t="s">
         <v>559</v>
       </c>
-      <c r="C14" s="128">
+      <c r="C14" s="122">
         <f>SUM(C13:H13)</f>
-        <v>177</v>
-      </c>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="128"/>
-      <c r="G14" s="128"/>
-      <c r="H14" s="128"/>
-      <c r="I14" s="128"/>
+        <v>186</v>
+      </c>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12670,11 +12874,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W182"/>
+  <dimension ref="A1:W191"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
+      <pane ySplit="2" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12686,8 +12890,8 @@
     <col min="5" max="5" width="20" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.875" style="16" customWidth="1"/>
     <col min="7" max="7" width="27.375" style="16" customWidth="1"/>
-    <col min="8" max="8" width="51.75" style="119" customWidth="1"/>
-    <col min="9" max="9" width="54.375" style="16" customWidth="1"/>
+    <col min="8" max="8" width="51.75" style="134" customWidth="1"/>
+    <col min="9" max="9" width="54.375" style="134" customWidth="1"/>
     <col min="10" max="10" width="9.5" style="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" style="16" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.25" style="16" bestFit="1" customWidth="1"/>
@@ -12714,8 +12918,8 @@
         <v>53</v>
       </c>
       <c r="G1" s="35"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="35"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
       <c r="J1" s="35"/>
       <c r="K1" s="35"/>
       <c r="L1" s="49"/>
@@ -12755,10 +12959,10 @@
       <c r="G2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="116" t="s">
+      <c r="H2" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="129" t="s">
         <v>62</v>
       </c>
       <c r="J2" s="14" t="s">
@@ -12806,10 +13010,10 @@
     </row>
     <row r="3" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>860</v>
-      </c>
-      <c r="B3" s="125" t="s">
-        <v>837</v>
+        <v>852</v>
+      </c>
+      <c r="B3" s="119" t="s">
+        <v>832</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>595</v>
@@ -12821,15 +13025,15 @@
         <v>499</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>748</v>
       </c>
-      <c r="H3" s="117" t="s">
-        <v>870</v>
-      </c>
-      <c r="I3" s="40" t="s">
+      <c r="H3" s="131" t="s">
+        <v>862</v>
+      </c>
+      <c r="I3" s="130" t="s">
         <v>750</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -12853,10 +13057,10 @@
     </row>
     <row r="4" spans="1:23" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>861</v>
-      </c>
-      <c r="B4" s="125" t="s">
-        <v>837</v>
+        <v>853</v>
+      </c>
+      <c r="B4" s="119" t="s">
+        <v>832</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>595</v>
@@ -12868,15 +13072,15 @@
         <v>499</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>771</v>
-      </c>
-      <c r="H4" s="117" t="s">
-        <v>772</v>
-      </c>
-      <c r="I4" s="40"/>
+        <v>768</v>
+      </c>
+      <c r="H4" s="131" t="s">
+        <v>769</v>
+      </c>
+      <c r="I4" s="130"/>
       <c r="J4" s="4" t="s">
         <v>43</v>
       </c>
@@ -12900,8 +13104,8 @@
       <c r="A5" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B5" s="125" t="s">
-        <v>837</v>
+      <c r="B5" s="119" t="s">
+        <v>832</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>595</v>
@@ -12918,10 +13122,10 @@
       <c r="G5" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="H5" s="117" t="s">
+      <c r="H5" s="131" t="s">
         <v>756</v>
       </c>
-      <c r="I5" s="40"/>
+      <c r="I5" s="130"/>
       <c r="J5" s="4" t="s">
         <v>43</v>
       </c>
@@ -12945,8 +13149,8 @@
       <c r="A6" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B6" s="125" t="s">
-        <v>837</v>
+      <c r="B6" s="119" t="s">
+        <v>832</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>595</v>
@@ -12958,15 +13162,15 @@
         <v>499</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>749</v>
       </c>
-      <c r="H6" s="117" t="s">
-        <v>872</v>
-      </c>
-      <c r="I6" s="40" t="s">
+      <c r="H6" s="131" t="s">
+        <v>864</v>
+      </c>
+      <c r="I6" s="130" t="s">
         <v>751</v>
       </c>
       <c r="J6" s="4" t="s">
@@ -12992,8 +13196,8 @@
       <c r="A7" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="B7" s="125" t="s">
-        <v>837</v>
+      <c r="B7" s="119" t="s">
+        <v>832</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>595</v>
@@ -13005,15 +13209,15 @@
         <v>499</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="H7" s="117" t="s">
-        <v>785</v>
-      </c>
-      <c r="I7" s="40"/>
+      <c r="H7" s="131" t="s">
+        <v>780</v>
+      </c>
+      <c r="I7" s="130"/>
       <c r="J7" s="4" t="s">
         <v>43</v>
       </c>
@@ -13037,7 +13241,7 @@
       <c r="A8" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B8" s="125" t="s">
+      <c r="B8" s="119" t="s">
         <v>590</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -13050,15 +13254,15 @@
         <v>499</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="H8" s="117" t="s">
+      <c r="H8" s="131" t="s">
         <v>759</v>
       </c>
-      <c r="I8" s="40"/>
+      <c r="I8" s="130"/>
       <c r="J8" s="4" t="s">
         <v>44</v>
       </c>
@@ -13082,8 +13286,8 @@
       <c r="A9" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B9" s="125" t="s">
-        <v>837</v>
+      <c r="B9" s="119" t="s">
+        <v>832</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>595</v>
@@ -13095,15 +13299,15 @@
         <v>499</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="H9" s="117" t="s">
-        <v>874</v>
-      </c>
-      <c r="I9" s="40" t="s">
+      <c r="H9" s="131" t="s">
+        <v>866</v>
+      </c>
+      <c r="I9" s="130" t="s">
         <v>753</v>
       </c>
       <c r="J9" s="4" t="s">
@@ -13129,8 +13333,8 @@
       <c r="A10" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B10" s="125" t="s">
-        <v>837</v>
+      <c r="B10" s="119" t="s">
+        <v>832</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>595</v>
@@ -13139,18 +13343,18 @@
         <v>497</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="H10" s="117" t="s">
-        <v>786</v>
-      </c>
-      <c r="I10" s="40"/>
+      <c r="H10" s="131" t="s">
+        <v>781</v>
+      </c>
+      <c r="I10" s="130"/>
       <c r="J10" s="4" t="s">
         <v>45</v>
       </c>
@@ -13174,8 +13378,8 @@
       <c r="A11" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B11" s="125" t="s">
-        <v>837</v>
+      <c r="B11" s="119" t="s">
+        <v>832</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>595</v>
@@ -13184,18 +13388,18 @@
         <v>497</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="H11" s="117" t="s">
+      <c r="H11" s="131" t="s">
         <v>759</v>
       </c>
-      <c r="I11" s="4"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="4" t="s">
         <v>46</v>
       </c>
@@ -13219,28 +13423,28 @@
       <c r="A12" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B12" s="133" t="s">
-        <v>1037</v>
+      <c r="B12" s="127" t="s">
+        <v>1027</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>1042</v>
-      </c>
-      <c r="H12" s="117" t="s">
-        <v>1043</v>
-      </c>
-      <c r="I12" s="4"/>
+        <v>1032</v>
+      </c>
+      <c r="H12" s="131" t="s">
+        <v>1033</v>
+      </c>
+      <c r="I12" s="131"/>
       <c r="J12" s="4" t="s">
         <v>45</v>
       </c>
@@ -13264,28 +13468,28 @@
       <c r="A13" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B13" s="133" t="s">
-        <v>1037</v>
+      <c r="B13" s="127" t="s">
+        <v>1027</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>1045</v>
-      </c>
-      <c r="H13" s="117" t="s">
-        <v>1046</v>
-      </c>
-      <c r="I13" s="4"/>
+        <v>1035</v>
+      </c>
+      <c r="H13" s="131" t="s">
+        <v>1036</v>
+      </c>
+      <c r="I13" s="131"/>
       <c r="J13" s="4" t="s">
         <v>45</v>
       </c>
@@ -13309,28 +13513,28 @@
       <c r="A14" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="B14" s="133" t="s">
+      <c r="B14" s="127" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>1037</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="H14" s="131" t="s">
         <v>1039</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>1040</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>1048</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>1047</v>
-      </c>
-      <c r="H14" s="117" t="s">
-        <v>1049</v>
-      </c>
-      <c r="I14" s="4"/>
+      <c r="I14" s="131"/>
       <c r="J14" s="4" t="s">
         <v>45</v>
       </c>
@@ -13354,29 +13558,29 @@
       <c r="A15" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="B15" s="133" t="s">
-        <v>1037</v>
+      <c r="B15" s="127" t="s">
+        <v>1027</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>1040</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>1050</v>
-      </c>
       <c r="G15" s="4" t="s">
-        <v>1051</v>
-      </c>
-      <c r="H15" s="117" t="s">
-        <v>1052</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>1053</v>
+        <v>1041</v>
+      </c>
+      <c r="H15" s="131" t="s">
+        <v>1042</v>
+      </c>
+      <c r="I15" s="131" t="s">
+        <v>1043</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>45</v>
@@ -13401,8 +13605,8 @@
       <c r="A16" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B16" s="124" t="s">
-        <v>836</v>
+      <c r="B16" s="118" t="s">
+        <v>831</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>500</v>
@@ -13414,15 +13618,15 @@
         <v>499</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>868</v>
-      </c>
-      <c r="H16" s="117" t="s">
-        <v>891</v>
-      </c>
-      <c r="I16" s="34"/>
+        <v>860</v>
+      </c>
+      <c r="H16" s="131" t="s">
+        <v>883</v>
+      </c>
+      <c r="I16" s="132"/>
       <c r="J16" s="4" t="s">
         <v>44</v>
       </c>
@@ -13446,8 +13650,8 @@
       <c r="A17" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="B17" s="124" t="s">
-        <v>836</v>
+      <c r="B17" s="118" t="s">
+        <v>831</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>500</v>
@@ -13459,15 +13663,15 @@
         <v>499</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>876</v>
-      </c>
-      <c r="H17" s="117" t="s">
-        <v>890</v>
-      </c>
-      <c r="I17" s="34"/>
+        <v>868</v>
+      </c>
+      <c r="H17" s="131" t="s">
+        <v>882</v>
+      </c>
+      <c r="I17" s="132"/>
       <c r="J17" s="4" t="s">
         <v>44</v>
       </c>
@@ -13491,8 +13695,8 @@
       <c r="A18" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B18" s="124" t="s">
-        <v>836</v>
+      <c r="B18" s="118" t="s">
+        <v>831</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>500</v>
@@ -13504,15 +13708,15 @@
         <v>499</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>879</v>
-      </c>
-      <c r="H18" s="117" t="s">
-        <v>886</v>
-      </c>
-      <c r="I18" s="34" t="s">
+        <v>871</v>
+      </c>
+      <c r="H18" s="131" t="s">
+        <v>878</v>
+      </c>
+      <c r="I18" s="132" t="s">
         <v>686</v>
       </c>
       <c r="J18" s="4" t="s">
@@ -13538,8 +13742,8 @@
       <c r="A19" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="B19" s="124" t="s">
-        <v>836</v>
+      <c r="B19" s="118" t="s">
+        <v>831</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>500</v>
@@ -13551,15 +13755,15 @@
         <v>499</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="H19" s="117" t="s">
+      <c r="H19" s="131" t="s">
         <v>593</v>
       </c>
-      <c r="I19" s="34" t="s">
+      <c r="I19" s="132" t="s">
         <v>594</v>
       </c>
       <c r="J19" s="4" t="s">
@@ -13585,8 +13789,8 @@
       <c r="A20" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="B20" s="124" t="s">
-        <v>836</v>
+      <c r="B20" s="118" t="s">
+        <v>831</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>500</v>
@@ -13598,15 +13802,15 @@
         <v>721</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="H20" s="117" t="s">
-        <v>889</v>
-      </c>
-      <c r="I20" s="40"/>
+      <c r="H20" s="131" t="s">
+        <v>881</v>
+      </c>
+      <c r="I20" s="130"/>
       <c r="J20" s="4" t="s">
         <v>43</v>
       </c>
@@ -13630,8 +13834,8 @@
       <c r="A21" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B21" s="124" t="s">
-        <v>836</v>
+      <c r="B21" s="118" t="s">
+        <v>831</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>500</v>
@@ -13643,15 +13847,15 @@
         <v>499</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="H21" s="117" t="s">
-        <v>884</v>
-      </c>
-      <c r="I21" s="34"/>
+      <c r="H21" s="131" t="s">
+        <v>876</v>
+      </c>
+      <c r="I21" s="132"/>
       <c r="J21" s="4" t="s">
         <v>44</v>
       </c>
@@ -13675,8 +13879,8 @@
       <c r="A22" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B22" s="124" t="s">
-        <v>836</v>
+      <c r="B22" s="118" t="s">
+        <v>831</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>500</v>
@@ -13688,15 +13892,15 @@
         <v>499</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="H22" s="117" t="s">
-        <v>881</v>
-      </c>
-      <c r="I22" s="34" t="s">
+      <c r="H22" s="131" t="s">
+        <v>873</v>
+      </c>
+      <c r="I22" s="132" t="s">
         <v>502</v>
       </c>
       <c r="J22" s="4" t="s">
@@ -13722,11 +13926,11 @@
       <c r="A23" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="B23" s="124" t="s">
-        <v>836</v>
+      <c r="B23" s="118" t="s">
+        <v>831</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>497</v>
@@ -13735,15 +13939,15 @@
         <v>499</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="H23" s="117" t="s">
+      <c r="H23" s="131" t="s">
         <v>508</v>
       </c>
-      <c r="I23" s="4"/>
+      <c r="I23" s="131"/>
       <c r="J23" s="4" t="s">
         <v>44</v>
       </c>
@@ -13767,11 +13971,11 @@
       <c r="A24" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="B24" s="124" t="s">
-        <v>836</v>
+      <c r="B24" s="118" t="s">
+        <v>831</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>497</v>
@@ -13785,10 +13989,10 @@
       <c r="G24" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="H24" s="117" t="s">
+      <c r="H24" s="131" t="s">
         <v>506</v>
       </c>
-      <c r="I24" s="4"/>
+      <c r="I24" s="131"/>
       <c r="J24" s="4" t="s">
         <v>44</v>
       </c>
@@ -13812,8 +14016,8 @@
       <c r="A25" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="B25" s="124" t="s">
-        <v>836</v>
+      <c r="B25" s="118" t="s">
+        <v>831</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>500</v>
@@ -13830,10 +14034,10 @@
       <c r="G25" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="H25" s="117" t="s">
+      <c r="H25" s="131" t="s">
         <v>509</v>
       </c>
-      <c r="I25" s="4"/>
+      <c r="I25" s="131"/>
       <c r="J25" s="4" t="s">
         <v>44</v>
       </c>
@@ -13857,8 +14061,8 @@
       <c r="A26" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B26" s="124" t="s">
-        <v>836</v>
+      <c r="B26" s="118" t="s">
+        <v>831</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>500</v>
@@ -13875,10 +14079,10 @@
       <c r="G26" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="H26" s="117" t="s">
+      <c r="H26" s="131" t="s">
         <v>510</v>
       </c>
-      <c r="I26" s="4"/>
+      <c r="I26" s="131"/>
       <c r="J26" s="4" t="s">
         <v>44</v>
       </c>
@@ -13902,8 +14106,8 @@
       <c r="A27" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="B27" s="124" t="s">
-        <v>836</v>
+      <c r="B27" s="118" t="s">
+        <v>831</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>500</v>
@@ -13918,12 +14122,12 @@
         <v>536</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>855</v>
-      </c>
-      <c r="H27" s="117" t="s">
+        <v>847</v>
+      </c>
+      <c r="H27" s="131" t="s">
         <v>537</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="131" t="s">
         <v>538</v>
       </c>
       <c r="J27" s="4" t="s">
@@ -13949,8 +14153,8 @@
       <c r="A28" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="B28" s="124" t="s">
-        <v>836</v>
+      <c r="B28" s="118" t="s">
+        <v>831</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>500</v>
@@ -13967,10 +14171,10 @@
       <c r="G28" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="H28" s="117" t="s">
+      <c r="H28" s="131" t="s">
         <v>598</v>
       </c>
-      <c r="I28" s="4"/>
+      <c r="I28" s="131"/>
       <c r="J28" s="4" t="s">
         <v>44</v>
       </c>
@@ -13994,11 +14198,11 @@
       <c r="A29" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="B29" s="124" t="s">
-        <v>836</v>
+      <c r="B29" s="118" t="s">
+        <v>831</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>497</v>
@@ -14012,10 +14216,10 @@
       <c r="G29" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="H29" s="117" t="s">
+      <c r="H29" s="131" t="s">
         <v>566</v>
       </c>
-      <c r="I29" s="4"/>
+      <c r="I29" s="131"/>
       <c r="J29" s="4" t="s">
         <v>45</v>
       </c>
@@ -14039,11 +14243,11 @@
       <c r="A30" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="B30" s="124" t="s">
-        <v>836</v>
+      <c r="B30" s="118" t="s">
+        <v>831</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>497</v>
@@ -14057,10 +14261,10 @@
       <c r="G30" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="H30" s="117" t="s">
+      <c r="H30" s="131" t="s">
         <v>580</v>
       </c>
-      <c r="I30" s="40" t="s">
+      <c r="I30" s="130" t="s">
         <v>579</v>
       </c>
       <c r="J30" s="4" t="s">
@@ -14086,11 +14290,11 @@
       <c r="A31" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="B31" s="124" t="s">
-        <v>836</v>
+      <c r="B31" s="118" t="s">
+        <v>831</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>497</v>
@@ -14104,10 +14308,10 @@
       <c r="G31" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="H31" s="117" t="s">
+      <c r="H31" s="131" t="s">
         <v>583</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="131" t="s">
         <v>584</v>
       </c>
       <c r="J31" s="4" t="s">
@@ -14133,11 +14337,11 @@
       <c r="A32" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="B32" s="124" t="s">
-        <v>836</v>
+      <c r="B32" s="118" t="s">
+        <v>831</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>497</v>
@@ -14151,10 +14355,10 @@
       <c r="G32" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="H32" s="117" t="s">
+      <c r="H32" s="131" t="s">
         <v>586</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="131" t="s">
         <v>585</v>
       </c>
       <c r="J32" s="4" t="s">
@@ -14180,11 +14384,11 @@
       <c r="A33" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="B33" s="124" t="s">
-        <v>836</v>
+      <c r="B33" s="118" t="s">
+        <v>831</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>497</v>
@@ -14198,10 +14402,10 @@
       <c r="G33" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="H33" s="117" t="s">
+      <c r="H33" s="131" t="s">
         <v>589</v>
       </c>
-      <c r="I33" s="4"/>
+      <c r="I33" s="131"/>
       <c r="J33" s="4" t="s">
         <v>45</v>
       </c>
@@ -14225,11 +14429,11 @@
       <c r="A34" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="B34" s="124" t="s">
-        <v>836</v>
+      <c r="B34" s="118" t="s">
+        <v>831</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>497</v>
@@ -14243,10 +14447,10 @@
       <c r="G34" s="4" t="s">
         <v>690</v>
       </c>
-      <c r="H34" s="117" t="s">
+      <c r="H34" s="131" t="s">
         <v>691</v>
       </c>
-      <c r="I34" s="40" t="s">
+      <c r="I34" s="130" t="s">
         <v>703</v>
       </c>
       <c r="J34" s="4" t="s">
@@ -14272,11 +14476,11 @@
       <c r="A35" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="B35" s="124" t="s">
-        <v>836</v>
+      <c r="B35" s="118" t="s">
+        <v>831</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>497</v>
@@ -14290,10 +14494,10 @@
       <c r="G35" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="H35" s="117" t="s">
+      <c r="H35" s="131" t="s">
         <v>694</v>
       </c>
-      <c r="I35" s="40"/>
+      <c r="I35" s="130"/>
       <c r="J35" s="4" t="s">
         <v>14</v>
       </c>
@@ -14317,11 +14521,11 @@
       <c r="A36" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="B36" s="124" t="s">
-        <v>836</v>
+      <c r="B36" s="118" t="s">
+        <v>831</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>497</v>
@@ -14335,10 +14539,10 @@
       <c r="G36" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="H36" s="117" t="s">
+      <c r="H36" s="131" t="s">
         <v>700</v>
       </c>
-      <c r="I36" s="4"/>
+      <c r="I36" s="131"/>
       <c r="J36" s="4" t="s">
         <v>14</v>
       </c>
@@ -14362,11 +14566,11 @@
       <c r="A37" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="B37" s="124" t="s">
-        <v>836</v>
+      <c r="B37" s="118" t="s">
+        <v>831</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>497</v>
@@ -14380,10 +14584,10 @@
       <c r="G37" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="H37" s="117" t="s">
+      <c r="H37" s="131" t="s">
         <v>702</v>
       </c>
-      <c r="I37" s="4"/>
+      <c r="I37" s="131"/>
       <c r="J37" s="4" t="s">
         <v>14</v>
       </c>
@@ -14407,8 +14611,8 @@
       <c r="A38" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="B38" s="124" t="s">
-        <v>836</v>
+      <c r="B38" s="118" t="s">
+        <v>831</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>500</v>
@@ -14425,10 +14629,10 @@
       <c r="G38" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="H38" s="117" t="s">
+      <c r="H38" s="131" t="s">
         <v>697</v>
       </c>
-      <c r="I38" s="4"/>
+      <c r="I38" s="131"/>
       <c r="J38" s="4" t="s">
         <v>14</v>
       </c>
@@ -14452,11 +14656,11 @@
       <c r="A39" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="B39" s="124" t="s">
-        <v>836</v>
+      <c r="B39" s="118" t="s">
+        <v>831</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>497</v>
@@ -14470,10 +14674,10 @@
       <c r="G39" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="H39" s="117" t="s">
+      <c r="H39" s="131" t="s">
         <v>707</v>
       </c>
-      <c r="I39" s="4"/>
+      <c r="I39" s="131"/>
       <c r="J39" s="4" t="s">
         <v>14</v>
       </c>
@@ -14497,8 +14701,8 @@
       <c r="A40" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="B40" s="124" t="s">
-        <v>836</v>
+      <c r="B40" s="118" t="s">
+        <v>831</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>500</v>
@@ -14510,15 +14714,15 @@
         <v>597</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>926</v>
-      </c>
-      <c r="H40" s="117" t="s">
-        <v>867</v>
-      </c>
-      <c r="I40" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="H40" s="131" t="s">
+        <v>859</v>
+      </c>
+      <c r="I40" s="131" t="s">
         <v>599</v>
       </c>
       <c r="J40" s="4" t="s">
@@ -14544,8 +14748,8 @@
       <c r="A41" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="B41" s="124" t="s">
-        <v>836</v>
+      <c r="B41" s="118" t="s">
+        <v>831</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>500</v>
@@ -14560,12 +14764,12 @@
         <v>600</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>926</v>
-      </c>
-      <c r="H41" s="117" t="s">
-        <v>859</v>
-      </c>
-      <c r="I41" s="4"/>
+        <v>917</v>
+      </c>
+      <c r="H41" s="131" t="s">
+        <v>851</v>
+      </c>
+      <c r="I41" s="131"/>
       <c r="J41" s="4" t="s">
         <v>43</v>
       </c>
@@ -14589,8 +14793,8 @@
       <c r="A42" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="B42" s="124" t="s">
-        <v>836</v>
+      <c r="B42" s="118" t="s">
+        <v>831</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>500</v>
@@ -14607,10 +14811,10 @@
       <c r="G42" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="H42" s="117" t="s">
+      <c r="H42" s="131" t="s">
         <v>562</v>
       </c>
-      <c r="I42" s="4"/>
+      <c r="I42" s="131"/>
       <c r="J42" s="4" t="s">
         <v>45</v>
       </c>
@@ -14634,11 +14838,11 @@
       <c r="A43" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="B43" s="124" t="s">
-        <v>836</v>
+      <c r="B43" s="118" t="s">
+        <v>831</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="D43" s="40" t="s">
         <v>497</v>
@@ -14652,10 +14856,10 @@
       <c r="G43" s="40" t="s">
         <v>709</v>
       </c>
-      <c r="H43" s="118" t="s">
+      <c r="H43" s="130" t="s">
         <v>710</v>
       </c>
-      <c r="I43" s="4"/>
+      <c r="I43" s="131"/>
       <c r="J43" s="4" t="s">
         <v>46</v>
       </c>
@@ -14679,11 +14883,11 @@
       <c r="A44" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="B44" s="126" t="s">
-        <v>838</v>
+      <c r="B44" s="120" t="s">
+        <v>833</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>497</v>
@@ -14692,15 +14896,15 @@
         <v>499</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>763</v>
-      </c>
-      <c r="H44" s="117" t="s">
-        <v>875</v>
-      </c>
-      <c r="I44" s="40"/>
+        <v>762</v>
+      </c>
+      <c r="H44" s="131" t="s">
+        <v>867</v>
+      </c>
+      <c r="I44" s="130"/>
       <c r="J44" s="4" t="s">
         <v>14</v>
       </c>
@@ -14724,11 +14928,11 @@
       <c r="A45" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="B45" s="126" t="s">
-        <v>838</v>
+      <c r="B45" s="120" t="s">
+        <v>833</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>497</v>
@@ -14737,15 +14941,15 @@
         <v>499</v>
       </c>
       <c r="F45" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>764</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="H45" s="131" t="s">
         <v>765</v>
       </c>
-      <c r="H45" s="117" t="s">
-        <v>766</v>
-      </c>
-      <c r="I45" s="40"/>
+      <c r="I45" s="130"/>
       <c r="J45" s="4" t="s">
         <v>14</v>
       </c>
@@ -14769,11 +14973,11 @@
       <c r="A46" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="B46" s="126" t="s">
-        <v>838</v>
+      <c r="B46" s="120" t="s">
+        <v>833</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>497</v>
@@ -14785,12 +14989,12 @@
         <v>521</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>1058</v>
-      </c>
-      <c r="H46" s="117" t="s">
-        <v>1061</v>
-      </c>
-      <c r="I46" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H46" s="131" t="s">
+        <v>1051</v>
+      </c>
+      <c r="I46" s="131" t="s">
         <v>619</v>
       </c>
       <c r="J46" s="4" t="s">
@@ -14816,11 +15020,11 @@
       <c r="A47" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="B47" s="126" t="s">
-        <v>838</v>
+      <c r="B47" s="120" t="s">
+        <v>833</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>497</v>
@@ -14834,10 +15038,10 @@
       <c r="G47" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="H47" s="117" t="s">
-        <v>1062</v>
-      </c>
-      <c r="I47" s="4" t="s">
+      <c r="H47" s="131" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I47" s="131" t="s">
         <v>524</v>
       </c>
       <c r="J47" s="4" t="s">
@@ -14863,11 +15067,11 @@
       <c r="A48" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="B48" s="126" t="s">
-        <v>838</v>
+      <c r="B48" s="120" t="s">
+        <v>833</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>497</v>
@@ -14876,15 +15080,15 @@
         <v>499</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>1060</v>
-      </c>
-      <c r="H48" s="117" t="s">
-        <v>1063</v>
-      </c>
-      <c r="I48" s="4"/>
+        <v>1050</v>
+      </c>
+      <c r="H48" s="131" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I48" s="131"/>
       <c r="J48" s="4" t="s">
         <v>14</v>
       </c>
@@ -14905,12 +15109,14 @@
       <c r="W48" s="4"/>
     </row>
     <row r="49" spans="1:23" ht="112.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="4"/>
-      <c r="B49" s="126" t="s">
-        <v>838</v>
+      <c r="A49" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B49" s="120" t="s">
+        <v>833</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>497</v>
@@ -14919,15 +15125,15 @@
         <v>499</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>1065</v>
+        <v>1055</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>1064</v>
-      </c>
-      <c r="H49" s="117" t="s">
-        <v>1066</v>
-      </c>
-      <c r="I49" s="4"/>
+        <v>1054</v>
+      </c>
+      <c r="H49" s="131" t="s">
+        <v>1056</v>
+      </c>
+      <c r="I49" s="131"/>
       <c r="J49" s="4" t="s">
         <v>14</v>
       </c>
@@ -14949,13 +15155,13 @@
     </row>
     <row r="50" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="B50" s="126" t="s">
-        <v>838</v>
+        <v>446</v>
+      </c>
+      <c r="B50" s="120" t="s">
+        <v>833</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>497</v>
@@ -14964,15 +15170,15 @@
         <v>499</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>882</v>
-      </c>
-      <c r="H50" s="117" t="s">
-        <v>893</v>
-      </c>
-      <c r="I50" s="4"/>
+        <v>874</v>
+      </c>
+      <c r="H50" s="131" t="s">
+        <v>885</v>
+      </c>
+      <c r="I50" s="131"/>
       <c r="J50" s="4" t="s">
         <v>44</v>
       </c>
@@ -14994,13 +15200,13 @@
     </row>
     <row r="51" spans="1:23" ht="127.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="B51" s="126" t="s">
-        <v>838</v>
+        <v>453</v>
+      </c>
+      <c r="B51" s="120" t="s">
+        <v>833</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>596</v>
@@ -15009,15 +15215,15 @@
         <v>597</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>856</v>
-      </c>
-      <c r="H51" s="117" t="s">
-        <v>857</v>
-      </c>
-      <c r="I51" s="4"/>
+        <v>848</v>
+      </c>
+      <c r="H51" s="131" t="s">
+        <v>849</v>
+      </c>
+      <c r="I51" s="131"/>
       <c r="J51" s="4" t="s">
         <v>43</v>
       </c>
@@ -15039,13 +15245,13 @@
     </row>
     <row r="52" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="B52" s="126" t="s">
-        <v>838</v>
+        <v>457</v>
+      </c>
+      <c r="B52" s="120" t="s">
+        <v>833</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>596</v>
@@ -15059,10 +15265,10 @@
       <c r="G52" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="H52" s="118" t="s">
+      <c r="H52" s="130" t="s">
         <v>608</v>
       </c>
-      <c r="I52" s="4"/>
+      <c r="I52" s="131"/>
       <c r="J52" s="4" t="s">
         <v>14</v>
       </c>
@@ -15084,13 +15290,13 @@
     </row>
     <row r="53" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="B53" s="126" t="s">
-        <v>838</v>
+        <v>462</v>
+      </c>
+      <c r="B53" s="120" t="s">
+        <v>833</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>497</v>
@@ -15099,15 +15305,15 @@
         <v>499</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>823</v>
-      </c>
-      <c r="H53" s="117" t="s">
-        <v>824</v>
-      </c>
-      <c r="I53" s="4"/>
+        <v>818</v>
+      </c>
+      <c r="H53" s="131" t="s">
+        <v>819</v>
+      </c>
+      <c r="I53" s="131"/>
       <c r="J53" s="4" t="s">
         <v>44</v>
       </c>
@@ -15129,13 +15335,13 @@
     </row>
     <row r="54" spans="1:23" ht="84" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="B54" s="126" t="s">
-        <v>838</v>
+        <v>466</v>
+      </c>
+      <c r="B54" s="120" t="s">
+        <v>833</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>596</v>
@@ -15149,10 +15355,10 @@
       <c r="G54" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="H54" s="117" t="s">
+      <c r="H54" s="131" t="s">
         <v>607</v>
       </c>
-      <c r="I54" s="4" t="s">
+      <c r="I54" s="131" t="s">
         <v>606</v>
       </c>
       <c r="J54" s="4" t="s">
@@ -15176,10 +15382,10 @@
     </row>
     <row r="55" spans="1:23" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="B55" s="126" t="s">
-        <v>838</v>
+        <v>469</v>
+      </c>
+      <c r="B55" s="120" t="s">
+        <v>833</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>595</v>
@@ -15188,18 +15394,18 @@
         <v>497</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>777</v>
-      </c>
-      <c r="H55" s="117" t="s">
-        <v>778</v>
-      </c>
-      <c r="I55" s="40"/>
+        <v>774</v>
+      </c>
+      <c r="H55" s="131" t="s">
+        <v>775</v>
+      </c>
+      <c r="I55" s="130"/>
       <c r="J55" s="4" t="s">
         <v>46</v>
       </c>
@@ -15221,19 +15427,19 @@
     </row>
     <row r="56" spans="1:23" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="B56" s="126" t="s">
-        <v>838</v>
+        <v>474</v>
+      </c>
+      <c r="B56" s="120" t="s">
+        <v>833</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>596</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>683</v>
@@ -15241,10 +15447,10 @@
       <c r="G56" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="H56" s="117" t="s">
+      <c r="H56" s="131" t="s">
         <v>685</v>
       </c>
-      <c r="I56" s="4"/>
+      <c r="I56" s="131"/>
       <c r="J56" s="4" t="s">
         <v>45</v>
       </c>
@@ -15266,13 +15472,13 @@
     </row>
     <row r="57" spans="1:23" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="B57" s="126" t="s">
-        <v>838</v>
+        <v>477</v>
+      </c>
+      <c r="B57" s="120" t="s">
+        <v>833</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>497</v>
@@ -15281,15 +15487,15 @@
         <v>499</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="H57" s="117" t="s">
+      <c r="H57" s="131" t="s">
         <v>609</v>
       </c>
-      <c r="I57" s="4"/>
+      <c r="I57" s="131"/>
       <c r="J57" s="4" t="s">
         <v>44</v>
       </c>
@@ -15311,13 +15517,13 @@
     </row>
     <row r="58" spans="1:23" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="B58" s="126" t="s">
-        <v>838</v>
+        <v>480</v>
+      </c>
+      <c r="B58" s="120" t="s">
+        <v>833</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>497</v>
@@ -15331,10 +15537,10 @@
       <c r="G58" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="H58" s="117" t="s">
+      <c r="H58" s="131" t="s">
         <v>610</v>
       </c>
-      <c r="I58" s="4"/>
+      <c r="I58" s="131"/>
       <c r="J58" s="4" t="s">
         <v>44</v>
       </c>
@@ -15356,13 +15562,13 @@
     </row>
     <row r="59" spans="1:23" ht="87" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="B59" s="126" t="s">
-        <v>838</v>
+        <v>484</v>
+      </c>
+      <c r="B59" s="120" t="s">
+        <v>833</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>497</v>
@@ -15376,10 +15582,10 @@
       <c r="G59" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="H59" s="117" t="s">
+      <c r="H59" s="131" t="s">
         <v>614</v>
       </c>
-      <c r="I59" s="4"/>
+      <c r="I59" s="131"/>
       <c r="J59" s="4" t="s">
         <v>14</v>
       </c>
@@ -15401,13 +15607,13 @@
     </row>
     <row r="60" spans="1:23" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="B60" s="126" t="s">
-        <v>838</v>
+        <v>620</v>
+      </c>
+      <c r="B60" s="120" t="s">
+        <v>833</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>497</v>
@@ -15421,10 +15627,10 @@
       <c r="G60" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="H60" s="117" t="s">
+      <c r="H60" s="131" t="s">
         <v>611</v>
       </c>
-      <c r="I60" s="4"/>
+      <c r="I60" s="131"/>
       <c r="J60" s="4" t="s">
         <v>44</v>
       </c>
@@ -15444,15 +15650,15 @@
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
     </row>
-    <row r="61" spans="1:23" ht="108" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:23" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="B61" s="126" t="s">
-        <v>838</v>
+        <v>621</v>
+      </c>
+      <c r="B61" s="120" t="s">
+        <v>833</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>497</v>
@@ -15466,10 +15672,10 @@
       <c r="G61" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="H61" s="117" t="s">
+      <c r="H61" s="131" t="s">
         <v>618</v>
       </c>
-      <c r="I61" s="4"/>
+      <c r="I61" s="131"/>
       <c r="J61" s="4" t="s">
         <v>14</v>
       </c>
@@ -15489,15 +15695,15 @@
       <c r="V61" s="4"/>
       <c r="W61" s="4"/>
     </row>
-    <row r="62" spans="1:23" ht="132" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:23" ht="138.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="B62" s="126" t="s">
-        <v>838</v>
+        <v>622</v>
+      </c>
+      <c r="B62" s="120" t="s">
+        <v>833</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>497</v>
@@ -15511,10 +15717,10 @@
       <c r="G62" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="H62" s="117" t="s">
+      <c r="H62" s="131" t="s">
         <v>612</v>
       </c>
-      <c r="I62" s="4"/>
+      <c r="I62" s="131"/>
       <c r="J62" s="4" t="s">
         <v>44</v>
       </c>
@@ -15536,13 +15742,13 @@
     </row>
     <row r="63" spans="1:23" ht="108" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="B63" s="126" t="s">
-        <v>838</v>
+        <v>623</v>
+      </c>
+      <c r="B63" s="120" t="s">
+        <v>833</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>497</v>
@@ -15551,15 +15757,15 @@
         <v>499</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="H63" s="118" t="s">
+      <c r="H63" s="130" t="s">
         <v>530</v>
       </c>
-      <c r="I63" s="4"/>
+      <c r="I63" s="131"/>
       <c r="J63" s="4" t="s">
         <v>44</v>
       </c>
@@ -15581,13 +15787,13 @@
     </row>
     <row r="64" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
-        <v>622</v>
-      </c>
-      <c r="B64" s="126" t="s">
-        <v>838</v>
+        <v>624</v>
+      </c>
+      <c r="B64" s="120" t="s">
+        <v>833</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>497</v>
@@ -15596,15 +15802,15 @@
         <v>499</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="H64" s="117" t="s">
+      <c r="H64" s="131" t="s">
         <v>568</v>
       </c>
-      <c r="I64" s="4"/>
+      <c r="I64" s="131"/>
       <c r="J64" s="4" t="s">
         <v>44</v>
       </c>
@@ -15626,13 +15832,13 @@
     </row>
     <row r="65" spans="1:23" ht="108" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
-        <v>623</v>
-      </c>
-      <c r="B65" s="126" t="s">
-        <v>838</v>
+        <v>625</v>
+      </c>
+      <c r="B65" s="120" t="s">
+        <v>833</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>497</v>
@@ -15646,10 +15852,10 @@
       <c r="G65" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="H65" s="117" t="s">
+      <c r="H65" s="131" t="s">
         <v>573</v>
       </c>
-      <c r="I65" s="4"/>
+      <c r="I65" s="131"/>
       <c r="J65" s="4" t="s">
         <v>44</v>
       </c>
@@ -15671,13 +15877,13 @@
     </row>
     <row r="66" spans="1:23" ht="96" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
-        <v>624</v>
-      </c>
-      <c r="B66" s="126" t="s">
-        <v>838</v>
+        <v>626</v>
+      </c>
+      <c r="B66" s="120" t="s">
+        <v>833</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>497</v>
@@ -15691,10 +15897,10 @@
       <c r="G66" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="H66" s="117" t="s">
+      <c r="H66" s="131" t="s">
         <v>574</v>
       </c>
-      <c r="I66" s="4"/>
+      <c r="I66" s="131"/>
       <c r="J66" s="4" t="s">
         <v>44</v>
       </c>
@@ -15716,13 +15922,13 @@
     </row>
     <row r="67" spans="1:23" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="B67" s="126" t="s">
-        <v>838</v>
+        <v>627</v>
+      </c>
+      <c r="B67" s="120" t="s">
+        <v>833</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>596</v>
@@ -15734,12 +15940,12 @@
         <v>601</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>821</v>
-      </c>
-      <c r="H67" s="117" t="s">
-        <v>858</v>
-      </c>
-      <c r="I67" s="4"/>
+        <v>816</v>
+      </c>
+      <c r="H67" s="131" t="s">
+        <v>850</v>
+      </c>
+      <c r="I67" s="131"/>
       <c r="J67" s="4" t="s">
         <v>44</v>
       </c>
@@ -15761,13 +15967,13 @@
     </row>
     <row r="68" spans="1:23" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
-        <v>626</v>
-      </c>
-      <c r="B68" s="126" t="s">
-        <v>838</v>
+        <v>1008</v>
+      </c>
+      <c r="B68" s="120" t="s">
+        <v>833</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>497</v>
@@ -15776,15 +15982,15 @@
         <v>499</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>781</v>
-      </c>
-      <c r="H68" s="117" t="s">
-        <v>782</v>
-      </c>
-      <c r="I68" s="40"/>
+        <v>776</v>
+      </c>
+      <c r="H68" s="131" t="s">
+        <v>777</v>
+      </c>
+      <c r="I68" s="133"/>
       <c r="J68" s="4" t="s">
         <v>46</v>
       </c>
@@ -15804,35 +16010,39 @@
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
     </row>
-    <row r="69" spans="1:23" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B69" s="127" t="s">
-        <v>849</v>
+        <v>628</v>
+      </c>
+      <c r="B69" s="121" t="s">
+        <v>843</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>1067</v>
+        <v>1057</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>1069</v>
+        <v>1058</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="H69" s="117" t="s">
-        <v>1070</v>
-      </c>
-      <c r="I69" s="40"/>
-      <c r="J69" s="4"/>
+        <v>1063</v>
+      </c>
+      <c r="H69" s="131" t="s">
+        <v>1059</v>
+      </c>
+      <c r="I69" s="133"/>
+      <c r="J69" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
+      <c r="L69" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
@@ -15847,13 +16057,13 @@
     </row>
     <row r="70" spans="1:23" ht="126.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="B70" s="127" t="s">
-        <v>849</v>
+        <v>629</v>
+      </c>
+      <c r="B70" s="121" t="s">
+        <v>843</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>497</v>
@@ -15862,15 +16072,15 @@
         <v>499</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="H70" s="117" t="s">
-        <v>789</v>
-      </c>
-      <c r="I70" s="40"/>
+        <v>767</v>
+      </c>
+      <c r="H70" s="131" t="s">
+        <v>784</v>
+      </c>
+      <c r="I70" s="133"/>
       <c r="J70" s="4" t="s">
         <v>45</v>
       </c>
@@ -15890,29 +16100,41 @@
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
     </row>
-    <row r="71" spans="1:23" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:23" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>629</v>
-      </c>
-      <c r="B71" s="127" t="s">
-        <v>849</v>
+        <v>630</v>
+      </c>
+      <c r="B71" s="121" t="s">
+        <v>843</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>1067</v>
-      </c>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="117"/>
-      <c r="I71" s="40"/>
-      <c r="J71" s="4"/>
+        <v>499</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H71" s="131" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I71" s="133" t="s">
+        <v>1074</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
+      <c r="L71" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
@@ -15925,34 +16147,36 @@
       <c r="V71" s="4"/>
       <c r="W71" s="4"/>
     </row>
-    <row r="72" spans="1:23" ht="127.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:23" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="B72" s="127" t="s">
-        <v>849</v>
+        <v>631</v>
+      </c>
+      <c r="B72" s="121" t="s">
+        <v>843</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>499</v>
+        <v>1062</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>852</v>
+        <v>1061</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="H72" s="117" t="s">
-        <v>788</v>
-      </c>
-      <c r="I72" s="40"/>
+        <v>1067</v>
+      </c>
+      <c r="H72" s="131" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I72" s="133" t="s">
+        <v>1076</v>
+      </c>
       <c r="J72" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K72" s="4"/>
       <c r="L72" s="4" t="s">
@@ -15970,34 +16194,36 @@
       <c r="V72" s="4"/>
       <c r="W72" s="4"/>
     </row>
-    <row r="73" spans="1:23" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:23" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B73" s="127" t="s">
-        <v>849</v>
+        <v>632</v>
+      </c>
+      <c r="B73" s="121" t="s">
+        <v>843</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>773</v>
+        <v>1062</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>853</v>
+        <v>1065</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>774</v>
-      </c>
-      <c r="H73" s="117" t="s">
-        <v>775</v>
-      </c>
-      <c r="I73" s="40"/>
+        <v>1068</v>
+      </c>
+      <c r="H73" s="131" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I73" s="133" t="s">
+        <v>1075</v>
+      </c>
       <c r="J73" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K73" s="4"/>
       <c r="L73" s="4" t="s">
@@ -16017,32 +16243,34 @@
     </row>
     <row r="74" spans="1:23" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
-        <v>629</v>
-      </c>
-      <c r="B74" s="127" t="s">
-        <v>849</v>
+        <v>633</v>
+      </c>
+      <c r="B74" s="121" t="s">
+        <v>843</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>499</v>
+        <v>724</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>769</v>
+        <v>1069</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="H74" s="117" t="s">
-        <v>894</v>
-      </c>
-      <c r="I74" s="40"/>
+        <v>1070</v>
+      </c>
+      <c r="H74" s="131" t="s">
+        <v>1071</v>
+      </c>
+      <c r="I74" s="133" t="s">
+        <v>1086</v>
+      </c>
       <c r="J74" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K74" s="4"/>
       <c r="L74" s="4" t="s">
@@ -16060,39 +16288,35 @@
       <c r="V74" s="4"/>
       <c r="W74" s="4"/>
     </row>
-    <row r="75" spans="1:23" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:23" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="B75" s="127" t="s">
-        <v>849</v>
+        <v>634</v>
+      </c>
+      <c r="B75" s="121" t="s">
+        <v>843</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>760</v>
+        <v>1112</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>850</v>
+        <v>1113</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>761</v>
-      </c>
-      <c r="H75" s="117" t="s">
-        <v>851</v>
-      </c>
-      <c r="I75" s="40"/>
-      <c r="J75" s="4" t="s">
-        <v>43</v>
-      </c>
+        <v>1114</v>
+      </c>
+      <c r="H75" s="131" t="s">
+        <v>1115</v>
+      </c>
+      <c r="I75" s="133"/>
+      <c r="J75" s="4"/>
       <c r="K75" s="4"/>
-      <c r="L75" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="L75" s="4"/>
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
@@ -16105,39 +16329,37 @@
       <c r="V75" s="4"/>
       <c r="W75" s="4"/>
     </row>
-    <row r="76" spans="1:23" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:23" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="B76" s="127" t="s">
-        <v>849</v>
+        <v>635</v>
+      </c>
+      <c r="B76" s="121" t="s">
+        <v>843</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>776</v>
+        <v>1120</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>847</v>
+        <v>1119</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>779</v>
-      </c>
-      <c r="H76" s="117" t="s">
-        <v>780</v>
-      </c>
-      <c r="I76" s="40"/>
-      <c r="J76" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>1116</v>
+      </c>
+      <c r="H76" s="131" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I76" s="133" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J76" s="4"/>
       <c r="K76" s="4"/>
-      <c r="L76" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="L76" s="4"/>
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
@@ -16150,34 +16372,34 @@
       <c r="V76" s="4"/>
       <c r="W76" s="4"/>
     </row>
-    <row r="77" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:23" ht="127.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="B77" s="123" t="s">
-        <v>718</v>
+        <v>634</v>
+      </c>
+      <c r="B77" s="121" t="s">
+        <v>843</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>719</v>
+        <v>855</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>720</v>
+        <v>497</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>831</v>
+        <v>499</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>928</v>
+        <v>844</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>910</v>
-      </c>
-      <c r="H77" s="117" t="s">
-        <v>979</v>
-      </c>
-      <c r="I77" s="4"/>
+        <v>766</v>
+      </c>
+      <c r="H77" s="131" t="s">
+        <v>783</v>
+      </c>
+      <c r="I77" s="133"/>
       <c r="J77" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K77" s="4"/>
       <c r="L77" s="4" t="s">
@@ -16195,34 +16417,34 @@
       <c r="V77" s="4"/>
       <c r="W77" s="4"/>
     </row>
-    <row r="78" spans="1:23" ht="72" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:23" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
-        <v>633</v>
-      </c>
-      <c r="B78" s="123" t="s">
-        <v>718</v>
+        <v>635</v>
+      </c>
+      <c r="B78" s="121" t="s">
+        <v>843</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>719</v>
+        <v>856</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>544</v>
+        <v>497</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>929</v>
+        <v>845</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>980</v>
-      </c>
-      <c r="H78" s="117"/>
-      <c r="I78" s="4" t="s">
-        <v>981</v>
-      </c>
+        <v>771</v>
+      </c>
+      <c r="H78" s="131" t="s">
+        <v>772</v>
+      </c>
+      <c r="I78" s="133"/>
       <c r="J78" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K78" s="4"/>
       <c r="L78" s="4" t="s">
@@ -16240,34 +16462,36 @@
       <c r="V78" s="4"/>
       <c r="W78" s="4"/>
     </row>
-    <row r="79" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:23" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="B79" s="123" t="s">
-        <v>718</v>
+        <v>636</v>
+      </c>
+      <c r="B79" s="121" t="s">
+        <v>843</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>719</v>
+        <v>857</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>720</v>
+        <v>497</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>831</v>
+        <v>760</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>907</v>
+        <v>1077</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>908</v>
-      </c>
-      <c r="H79" s="117" t="s">
-        <v>909</v>
-      </c>
-      <c r="I79" s="4"/>
+        <v>1082</v>
+      </c>
+      <c r="H79" s="131" t="s">
+        <v>1084</v>
+      </c>
+      <c r="I79" s="133" t="s">
+        <v>1087</v>
+      </c>
       <c r="J79" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K79" s="4"/>
       <c r="L79" s="4" t="s">
@@ -16285,77 +16509,83 @@
       <c r="V79" s="4"/>
       <c r="W79" s="4"/>
     </row>
-    <row r="80" spans="1:23" s="122" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:23" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
-        <v>635</v>
-      </c>
-      <c r="B80" s="123" t="s">
-        <v>718</v>
-      </c>
-      <c r="C80" s="56" t="s">
-        <v>719</v>
-      </c>
-      <c r="D80" s="56" t="s">
-        <v>544</v>
-      </c>
-      <c r="E80" s="56" t="s">
-        <v>831</v>
-      </c>
-      <c r="F80" s="40" t="s">
-        <v>911</v>
-      </c>
-      <c r="G80" s="56" t="s">
-        <v>912</v>
-      </c>
-      <c r="H80" s="120"/>
-      <c r="I80" s="56"/>
-      <c r="J80" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="K80" s="56"/>
-      <c r="L80" s="56" t="s">
+        <v>637</v>
+      </c>
+      <c r="B80" s="121" t="s">
+        <v>843</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H80" s="131" t="s">
+        <v>1083</v>
+      </c>
+      <c r="I80" s="133" t="s">
+        <v>1088</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M80" s="56"/>
-      <c r="N80" s="56"/>
-      <c r="O80" s="56"/>
-      <c r="P80" s="56"/>
-      <c r="Q80" s="56"/>
-      <c r="R80" s="56"/>
-      <c r="S80" s="56"/>
-      <c r="T80" s="121"/>
-      <c r="U80" s="56"/>
-      <c r="V80" s="56"/>
-      <c r="W80" s="56"/>
-    </row>
-    <row r="81" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
+      <c r="S80" s="4"/>
+      <c r="T80" s="54"/>
+      <c r="U80" s="4"/>
+      <c r="V80" s="4"/>
+      <c r="W80" s="4"/>
+    </row>
+    <row r="81" spans="1:23" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="B81" s="123" t="s">
-        <v>718</v>
+        <v>638</v>
+      </c>
+      <c r="B81" s="121" t="s">
+        <v>843</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="D81" s="56" t="s">
-        <v>544</v>
-      </c>
-      <c r="E81" s="56" t="s">
-        <v>825</v>
+        <v>857</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>773</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>901</v>
+        <v>1079</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>905</v>
-      </c>
-      <c r="H81" s="117" t="s">
-        <v>898</v>
-      </c>
-      <c r="I81" s="4"/>
+        <v>1081</v>
+      </c>
+      <c r="H81" s="131" t="s">
+        <v>1085</v>
+      </c>
+      <c r="I81" s="133" t="s">
+        <v>1089</v>
+      </c>
       <c r="J81" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K81" s="4"/>
       <c r="L81" s="4" t="s">
@@ -16375,30 +16605,30 @@
     </row>
     <row r="82" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="B82" s="123" t="s">
+        <v>639</v>
+      </c>
+      <c r="B82" s="117" t="s">
         <v>718</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="D82" s="56" t="s">
+      <c r="D82" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="E82" s="56" t="s">
-        <v>825</v>
+      <c r="E82" s="4" t="s">
+        <v>760</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>826</v>
+        <v>1092</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>905</v>
-      </c>
-      <c r="H82" s="117" t="s">
-        <v>899</v>
-      </c>
-      <c r="I82" s="4"/>
+        <v>1093</v>
+      </c>
+      <c r="H82" s="131"/>
+      <c r="I82" s="131" t="s">
+        <v>1100</v>
+      </c>
       <c r="J82" s="4" t="s">
         <v>43</v>
       </c>
@@ -16418,32 +16648,32 @@
       <c r="V82" s="4"/>
       <c r="W82" s="4"/>
     </row>
-    <row r="83" spans="1:23" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
-        <v>638</v>
-      </c>
-      <c r="B83" s="123" t="s">
+        <v>640</v>
+      </c>
+      <c r="B83" s="117" t="s">
         <v>718</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="D83" s="56" t="s">
+      <c r="D83" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="E83" s="56" t="s">
-        <v>825</v>
+      <c r="E83" s="4" t="s">
+        <v>760</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>827</v>
+        <v>1094</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>905</v>
-      </c>
-      <c r="H83" s="117" t="s">
-        <v>900</v>
-      </c>
-      <c r="I83" s="4"/>
+        <v>1095</v>
+      </c>
+      <c r="H83" s="131"/>
+      <c r="I83" s="131" t="s">
+        <v>1100</v>
+      </c>
       <c r="J83" s="4" t="s">
         <v>43</v>
       </c>
@@ -16465,30 +16695,30 @@
     </row>
     <row r="84" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="B84" s="123" t="s">
+        <v>641</v>
+      </c>
+      <c r="B84" s="117" t="s">
         <v>718</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="D84" s="56" t="s">
+      <c r="D84" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="E84" s="56" t="s">
-        <v>825</v>
+      <c r="E84" s="4" t="s">
+        <v>760</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>927</v>
+        <v>1097</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>903</v>
-      </c>
-      <c r="H84" s="117" t="s">
-        <v>895</v>
-      </c>
-      <c r="I84" s="4"/>
+        <v>1096</v>
+      </c>
+      <c r="H84" s="131"/>
+      <c r="I84" s="131" t="s">
+        <v>1100</v>
+      </c>
       <c r="J84" s="4" t="s">
         <v>43</v>
       </c>
@@ -16508,32 +16738,32 @@
       <c r="V84" s="4"/>
       <c r="W84" s="4"/>
     </row>
-    <row r="85" spans="1:23" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
-        <v>640</v>
-      </c>
-      <c r="B85" s="123" t="s">
+        <v>642</v>
+      </c>
+      <c r="B85" s="117" t="s">
         <v>718</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="D85" s="56" t="s">
+      <c r="D85" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="E85" s="56" t="s">
-        <v>825</v>
+      <c r="E85" s="4" t="s">
+        <v>760</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>834</v>
+        <v>1098</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>835</v>
-      </c>
-      <c r="H85" s="117" t="s">
-        <v>939</v>
-      </c>
-      <c r="I85" s="4"/>
+        <v>1099</v>
+      </c>
+      <c r="H85" s="131"/>
+      <c r="I85" s="131" t="s">
+        <v>1100</v>
+      </c>
       <c r="J85" s="4" t="s">
         <v>43</v>
       </c>
@@ -16553,34 +16783,36 @@
       <c r="V85" s="4"/>
       <c r="W85" s="4"/>
     </row>
-    <row r="86" spans="1:23" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:23" ht="108" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
-        <v>641</v>
-      </c>
-      <c r="B86" s="123" t="s">
+        <v>643</v>
+      </c>
+      <c r="B86" s="117" t="s">
         <v>718</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="D86" s="56" t="s">
-        <v>544</v>
-      </c>
-      <c r="E86" s="56" t="s">
-        <v>722</v>
+      <c r="D86" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>826</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>931</v>
+        <v>919</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>932</v>
-      </c>
-      <c r="H86" s="117" t="s">
-        <v>943</v>
-      </c>
-      <c r="I86" s="4"/>
+        <v>901</v>
+      </c>
+      <c r="H86" s="131" t="s">
+        <v>970</v>
+      </c>
+      <c r="I86" s="131" t="s">
+        <v>1091</v>
+      </c>
       <c r="J86" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K86" s="4"/>
       <c r="L86" s="4" t="s">
@@ -16598,32 +16830,32 @@
       <c r="V86" s="4"/>
       <c r="W86" s="4"/>
     </row>
-    <row r="87" spans="1:23" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
-        <v>642</v>
-      </c>
-      <c r="B87" s="123" t="s">
+        <v>644</v>
+      </c>
+      <c r="B87" s="117" t="s">
         <v>718</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="D87" s="56" t="s">
+      <c r="D87" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="E87" s="56" t="s">
-        <v>722</v>
+      <c r="E87" s="4" t="s">
+        <v>760</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>937</v>
+        <v>920</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>938</v>
-      </c>
-      <c r="H87" s="117" t="s">
-        <v>940</v>
-      </c>
-      <c r="I87" s="4"/>
+        <v>971</v>
+      </c>
+      <c r="H87" s="131"/>
+      <c r="I87" s="131" t="s">
+        <v>1090</v>
+      </c>
       <c r="J87" s="4" t="s">
         <v>44</v>
       </c>
@@ -16643,32 +16875,32 @@
       <c r="V87" s="4"/>
       <c r="W87" s="4"/>
     </row>
-    <row r="88" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="B88" s="123" t="s">
+        <v>645</v>
+      </c>
+      <c r="B88" s="117" t="s">
         <v>718</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="D88" s="56" t="s">
-        <v>544</v>
-      </c>
-      <c r="E88" s="56" t="s">
-        <v>913</v>
+      <c r="D88" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>826</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>916</v>
-      </c>
-      <c r="H88" s="117" t="s">
-        <v>906</v>
-      </c>
-      <c r="I88" s="4"/>
+        <v>899</v>
+      </c>
+      <c r="H88" s="131" t="s">
+        <v>900</v>
+      </c>
+      <c r="I88" s="131"/>
       <c r="J88" s="4" t="s">
         <v>43</v>
       </c>
@@ -16688,56 +16920,54 @@
       <c r="V88" s="4"/>
       <c r="W88" s="4"/>
     </row>
-    <row r="89" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:23" s="116" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="B89" s="123" t="s">
+        <v>646</v>
+      </c>
+      <c r="B89" s="117" t="s">
         <v>718</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="56" t="s">
         <v>719</v>
       </c>
       <c r="D89" s="56" t="s">
         <v>544</v>
       </c>
       <c r="E89" s="56" t="s">
-        <v>833</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>933</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>829</v>
-      </c>
-      <c r="H89" s="117" t="s">
-        <v>830</v>
-      </c>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="F89" s="40" t="s">
+        <v>902</v>
+      </c>
+      <c r="G89" s="56" t="s">
+        <v>903</v>
+      </c>
+      <c r="H89" s="133"/>
+      <c r="I89" s="133"/>
+      <c r="J89" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="K89" s="56"/>
+      <c r="L89" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="M89" s="4"/>
-      <c r="N89" s="4"/>
-      <c r="O89" s="4"/>
-      <c r="P89" s="4"/>
-      <c r="Q89" s="4"/>
-      <c r="R89" s="4"/>
-      <c r="S89" s="4"/>
-      <c r="T89" s="54"/>
-      <c r="U89" s="4"/>
-      <c r="V89" s="4"/>
-      <c r="W89" s="4"/>
-    </row>
-    <row r="90" spans="1:23" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M89" s="56"/>
+      <c r="N89" s="56"/>
+      <c r="O89" s="56"/>
+      <c r="P89" s="56"/>
+      <c r="Q89" s="56"/>
+      <c r="R89" s="56"/>
+      <c r="S89" s="56"/>
+      <c r="T89" s="115"/>
+      <c r="U89" s="56"/>
+      <c r="V89" s="56"/>
+      <c r="W89" s="56"/>
+    </row>
+    <row r="90" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="B90" s="123" t="s">
+        <v>647</v>
+      </c>
+      <c r="B90" s="117" t="s">
         <v>718</v>
       </c>
       <c r="C90" s="4" t="s">
@@ -16747,18 +16977,18 @@
         <v>544</v>
       </c>
       <c r="E90" s="56" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>935</v>
+        <v>892</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>936</v>
-      </c>
-      <c r="H90" s="117" t="s">
-        <v>930</v>
-      </c>
-      <c r="I90" s="4"/>
+        <v>896</v>
+      </c>
+      <c r="H90" s="131" t="s">
+        <v>889</v>
+      </c>
+      <c r="I90" s="131"/>
       <c r="J90" s="4" t="s">
         <v>43</v>
       </c>
@@ -16778,11 +17008,11 @@
       <c r="V90" s="4"/>
       <c r="W90" s="4"/>
     </row>
-    <row r="91" spans="1:23" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="B91" s="123" t="s">
+        <v>648</v>
+      </c>
+      <c r="B91" s="117" t="s">
         <v>718</v>
       </c>
       <c r="C91" s="4" t="s">
@@ -16792,20 +17022,20 @@
         <v>544</v>
       </c>
       <c r="E91" s="56" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>941</v>
+        <v>821</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>942</v>
-      </c>
-      <c r="H91" s="117" t="s">
-        <v>944</v>
-      </c>
-      <c r="I91" s="4"/>
+        <v>896</v>
+      </c>
+      <c r="H91" s="131" t="s">
+        <v>890</v>
+      </c>
+      <c r="I91" s="131"/>
       <c r="J91" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K91" s="4"/>
       <c r="L91" s="4" t="s">
@@ -16823,11 +17053,11 @@
       <c r="V91" s="4"/>
       <c r="W91" s="4"/>
     </row>
-    <row r="92" spans="1:23" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:23" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
-        <v>647</v>
-      </c>
-      <c r="B92" s="123" t="s">
+        <v>649</v>
+      </c>
+      <c r="B92" s="117" t="s">
         <v>718</v>
       </c>
       <c r="C92" s="4" t="s">
@@ -16837,18 +17067,18 @@
         <v>544</v>
       </c>
       <c r="E92" s="56" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>992</v>
+        <v>822</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>934</v>
-      </c>
-      <c r="H92" s="117" t="s">
-        <v>993</v>
-      </c>
-      <c r="I92" s="4"/>
+        <v>896</v>
+      </c>
+      <c r="H92" s="131" t="s">
+        <v>891</v>
+      </c>
+      <c r="I92" s="131"/>
       <c r="J92" s="4" t="s">
         <v>43</v>
       </c>
@@ -16868,11 +17098,11 @@
       <c r="V92" s="4"/>
       <c r="W92" s="4"/>
     </row>
-    <row r="93" spans="1:23" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="B93" s="123" t="s">
+        <v>650</v>
+      </c>
+      <c r="B93" s="117" t="s">
         <v>718</v>
       </c>
       <c r="C93" s="4" t="s">
@@ -16882,20 +17112,20 @@
         <v>544</v>
       </c>
       <c r="E93" s="56" t="s">
-        <v>998</v>
+        <v>820</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>994</v>
+        <v>918</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>995</v>
-      </c>
-      <c r="H93" s="117" t="s">
-        <v>996</v>
-      </c>
-      <c r="I93" s="4"/>
+        <v>894</v>
+      </c>
+      <c r="H93" s="131" t="s">
+        <v>886</v>
+      </c>
+      <c r="I93" s="131"/>
       <c r="J93" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K93" s="4"/>
       <c r="L93" s="4" t="s">
@@ -16913,11 +17143,11 @@
       <c r="V93" s="4"/>
       <c r="W93" s="4"/>
     </row>
-    <row r="94" spans="1:23" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:23" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="B94" s="123" t="s">
+        <v>651</v>
+      </c>
+      <c r="B94" s="117" t="s">
         <v>718</v>
       </c>
       <c r="C94" s="4" t="s">
@@ -16927,20 +17157,20 @@
         <v>544</v>
       </c>
       <c r="E94" s="56" t="s">
-        <v>998</v>
+        <v>820</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>997</v>
+        <v>829</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>999</v>
-      </c>
-      <c r="H94" s="117" t="s">
-        <v>1000</v>
-      </c>
-      <c r="I94" s="4"/>
+        <v>830</v>
+      </c>
+      <c r="H94" s="131" t="s">
+        <v>930</v>
+      </c>
+      <c r="I94" s="131"/>
       <c r="J94" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K94" s="4"/>
       <c r="L94" s="4" t="s">
@@ -16958,11 +17188,11 @@
       <c r="V94" s="4"/>
       <c r="W94" s="4"/>
     </row>
-    <row r="95" spans="1:23" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:23" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
-        <v>650</v>
-      </c>
-      <c r="B95" s="123" t="s">
+        <v>652</v>
+      </c>
+      <c r="B95" s="117" t="s">
         <v>718</v>
       </c>
       <c r="C95" s="4" t="s">
@@ -16972,20 +17202,20 @@
         <v>544</v>
       </c>
       <c r="E95" s="56" t="s">
-        <v>991</v>
+        <v>722</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>914</v>
+        <v>922</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>915</v>
-      </c>
-      <c r="H95" s="117" t="s">
-        <v>920</v>
-      </c>
-      <c r="I95" s="4"/>
+        <v>923</v>
+      </c>
+      <c r="H95" s="131" t="s">
+        <v>934</v>
+      </c>
+      <c r="I95" s="131"/>
       <c r="J95" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K95" s="4"/>
       <c r="L95" s="4" t="s">
@@ -17003,11 +17233,11 @@
       <c r="V95" s="4"/>
       <c r="W95" s="4"/>
     </row>
-    <row r="96" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:23" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="B96" s="123" t="s">
+        <v>653</v>
+      </c>
+      <c r="B96" s="117" t="s">
         <v>718</v>
       </c>
       <c r="C96" s="4" t="s">
@@ -17017,20 +17247,20 @@
         <v>544</v>
       </c>
       <c r="E96" s="56" t="s">
-        <v>991</v>
+        <v>722</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>982</v>
+        <v>928</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>983</v>
-      </c>
-      <c r="H96" s="117" t="s">
-        <v>984</v>
-      </c>
-      <c r="I96" s="4"/>
+        <v>929</v>
+      </c>
+      <c r="H96" s="131" t="s">
+        <v>931</v>
+      </c>
+      <c r="I96" s="131"/>
       <c r="J96" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K96" s="4"/>
       <c r="L96" s="4" t="s">
@@ -17048,11 +17278,11 @@
       <c r="V96" s="4"/>
       <c r="W96" s="4"/>
     </row>
-    <row r="97" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="B97" s="123" t="s">
+        <v>654</v>
+      </c>
+      <c r="B97" s="117" t="s">
         <v>718</v>
       </c>
       <c r="C97" s="4" t="s">
@@ -17062,18 +17292,18 @@
         <v>544</v>
       </c>
       <c r="E97" s="56" t="s">
-        <v>991</v>
+        <v>904</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>985</v>
+        <v>893</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>986</v>
-      </c>
-      <c r="H97" s="117" t="s">
-        <v>987</v>
-      </c>
-      <c r="I97" s="4"/>
+        <v>907</v>
+      </c>
+      <c r="H97" s="131" t="s">
+        <v>897</v>
+      </c>
+      <c r="I97" s="131"/>
       <c r="J97" s="4" t="s">
         <v>43</v>
       </c>
@@ -17093,11 +17323,11 @@
       <c r="V97" s="4"/>
       <c r="W97" s="4"/>
     </row>
-    <row r="98" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="B98" s="123" t="s">
+        <v>655</v>
+      </c>
+      <c r="B98" s="117" t="s">
         <v>718</v>
       </c>
       <c r="C98" s="4" t="s">
@@ -17107,20 +17337,20 @@
         <v>544</v>
       </c>
       <c r="E98" s="56" t="s">
-        <v>991</v>
+        <v>828</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>988</v>
+        <v>924</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>989</v>
-      </c>
-      <c r="H98" s="117" t="s">
-        <v>990</v>
-      </c>
-      <c r="I98" s="4"/>
+        <v>824</v>
+      </c>
+      <c r="H98" s="131" t="s">
+        <v>825</v>
+      </c>
+      <c r="I98" s="131"/>
       <c r="J98" s="4" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="K98" s="4"/>
       <c r="L98" s="4" t="s">
@@ -17138,11 +17368,11 @@
       <c r="V98" s="4"/>
       <c r="W98" s="4"/>
     </row>
-    <row r="99" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:23" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="B99" s="123" t="s">
+        <v>656</v>
+      </c>
+      <c r="B99" s="117" t="s">
         <v>718</v>
       </c>
       <c r="C99" s="4" t="s">
@@ -17152,18 +17382,18 @@
         <v>544</v>
       </c>
       <c r="E99" s="56" t="s">
-        <v>991</v>
+        <v>823</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>917</v>
+        <v>926</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>918</v>
-      </c>
-      <c r="H99" s="117" t="s">
-        <v>919</v>
-      </c>
-      <c r="I99" s="4"/>
+        <v>927</v>
+      </c>
+      <c r="H99" s="131" t="s">
+        <v>921</v>
+      </c>
+      <c r="I99" s="131"/>
       <c r="J99" s="4" t="s">
         <v>43</v>
       </c>
@@ -17183,11 +17413,11 @@
       <c r="V99" s="4"/>
       <c r="W99" s="4"/>
     </row>
-    <row r="100" spans="1:23" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:23" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
-        <v>655</v>
-      </c>
-      <c r="B100" s="123" t="s">
+        <v>657</v>
+      </c>
+      <c r="B100" s="117" t="s">
         <v>718</v>
       </c>
       <c r="C100" s="4" t="s">
@@ -17197,20 +17427,20 @@
         <v>544</v>
       </c>
       <c r="E100" s="56" t="s">
-        <v>991</v>
+        <v>823</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>1001</v>
+        <v>932</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>921</v>
-      </c>
-      <c r="H100" s="117" t="s">
-        <v>925</v>
-      </c>
-      <c r="I100" s="4"/>
+        <v>933</v>
+      </c>
+      <c r="H100" s="131" t="s">
+        <v>935</v>
+      </c>
+      <c r="I100" s="131"/>
       <c r="J100" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K100" s="4"/>
       <c r="L100" s="4" t="s">
@@ -17228,11 +17458,11 @@
       <c r="V100" s="4"/>
       <c r="W100" s="4"/>
     </row>
-    <row r="101" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:23" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
-        <v>656</v>
-      </c>
-      <c r="B101" s="123" t="s">
+        <v>658</v>
+      </c>
+      <c r="B101" s="117" t="s">
         <v>718</v>
       </c>
       <c r="C101" s="4" t="s">
@@ -17242,18 +17472,18 @@
         <v>544</v>
       </c>
       <c r="E101" s="56" t="s">
-        <v>991</v>
+        <v>823</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>1002</v>
+        <v>982</v>
       </c>
       <c r="G101" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="H101" s="131" t="s">
         <v>983</v>
       </c>
-      <c r="H101" s="117" t="s">
-        <v>1005</v>
-      </c>
-      <c r="I101" s="4"/>
+      <c r="I101" s="131"/>
       <c r="J101" s="4" t="s">
         <v>43</v>
       </c>
@@ -17273,11 +17503,11 @@
       <c r="V101" s="4"/>
       <c r="W101" s="4"/>
     </row>
-    <row r="102" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:23" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
-        <v>657</v>
-      </c>
-      <c r="B102" s="123" t="s">
+        <v>659</v>
+      </c>
+      <c r="B102" s="117" t="s">
         <v>718</v>
       </c>
       <c r="C102" s="4" t="s">
@@ -17287,20 +17517,20 @@
         <v>544</v>
       </c>
       <c r="E102" s="56" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>1003</v>
+        <v>984</v>
       </c>
       <c r="G102" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="H102" s="131" t="s">
         <v>986</v>
       </c>
-      <c r="H102" s="117" t="s">
-        <v>1006</v>
-      </c>
-      <c r="I102" s="4"/>
+      <c r="I102" s="131"/>
       <c r="J102" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K102" s="4"/>
       <c r="L102" s="4" t="s">
@@ -17318,11 +17548,11 @@
       <c r="V102" s="4"/>
       <c r="W102" s="4"/>
     </row>
-    <row r="103" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:23" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
-        <v>658</v>
-      </c>
-      <c r="B103" s="123" t="s">
+        <v>660</v>
+      </c>
+      <c r="B103" s="117" t="s">
         <v>718</v>
       </c>
       <c r="C103" s="4" t="s">
@@ -17332,20 +17562,20 @@
         <v>544</v>
       </c>
       <c r="E103" s="56" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>1004</v>
+        <v>987</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>989</v>
       </c>
-      <c r="H103" s="117" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I103" s="4"/>
+      <c r="H103" s="131" t="s">
+        <v>990</v>
+      </c>
+      <c r="I103" s="131"/>
       <c r="J103" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K103" s="4"/>
       <c r="L103" s="4" t="s">
@@ -17363,11 +17593,11 @@
       <c r="V103" s="4"/>
       <c r="W103" s="4"/>
     </row>
-    <row r="104" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:23" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="B104" s="123" t="s">
+        <v>661</v>
+      </c>
+      <c r="B104" s="117" t="s">
         <v>718</v>
       </c>
       <c r="C104" s="4" t="s">
@@ -17377,18 +17607,18 @@
         <v>544</v>
       </c>
       <c r="E104" s="56" t="s">
-        <v>991</v>
+        <v>981</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>922</v>
+        <v>905</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>923</v>
-      </c>
-      <c r="H104" s="117" t="s">
-        <v>924</v>
-      </c>
-      <c r="I104" s="4"/>
+        <v>906</v>
+      </c>
+      <c r="H104" s="131" t="s">
+        <v>911</v>
+      </c>
+      <c r="I104" s="131"/>
       <c r="J104" s="4" t="s">
         <v>43</v>
       </c>
@@ -17410,30 +17640,30 @@
     </row>
     <row r="105" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="B105" s="123" t="s">
+        <v>662</v>
+      </c>
+      <c r="B105" s="117" t="s">
         <v>718</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="D105" s="56" t="s">
         <v>544</v>
       </c>
-      <c r="E105" s="4" t="s">
-        <v>723</v>
+      <c r="E105" s="56" t="s">
+        <v>981</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>945</v>
+        <v>972</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>946</v>
-      </c>
-      <c r="H105" s="117" t="s">
-        <v>904</v>
-      </c>
-      <c r="I105" s="4"/>
+        <v>973</v>
+      </c>
+      <c r="H105" s="131" t="s">
+        <v>974</v>
+      </c>
+      <c r="I105" s="131"/>
       <c r="J105" s="4" t="s">
         <v>43</v>
       </c>
@@ -17453,32 +17683,32 @@
       <c r="V105" s="4"/>
       <c r="W105" s="4"/>
     </row>
-    <row r="106" spans="1:23" ht="126" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="B106" s="123" t="s">
+        <v>663</v>
+      </c>
+      <c r="B106" s="117" t="s">
         <v>718</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="D106" s="56" t="s">
         <v>544</v>
       </c>
-      <c r="E106" s="4" t="s">
-        <v>948</v>
+      <c r="E106" s="56" t="s">
+        <v>981</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>947</v>
+        <v>975</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>951</v>
-      </c>
-      <c r="H106" s="117" t="s">
-        <v>952</v>
-      </c>
-      <c r="I106" s="4"/>
+        <v>976</v>
+      </c>
+      <c r="H106" s="131" t="s">
+        <v>977</v>
+      </c>
+      <c r="I106" s="131"/>
       <c r="J106" s="4" t="s">
         <v>43</v>
       </c>
@@ -17498,32 +17728,32 @@
       <c r="V106" s="4"/>
       <c r="W106" s="4"/>
     </row>
-    <row r="107" spans="1:23" ht="84" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="B107" s="123" t="s">
+        <v>664</v>
+      </c>
+      <c r="B107" s="117" t="s">
         <v>718</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D107" s="56" t="s">
         <v>544</v>
       </c>
-      <c r="E107" s="4" t="s">
-        <v>948</v>
+      <c r="E107" s="56" t="s">
+        <v>981</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>949</v>
+        <v>978</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="H107" s="117" t="s">
-        <v>954</v>
-      </c>
-      <c r="I107" s="4"/>
+        <v>979</v>
+      </c>
+      <c r="H107" s="131" t="s">
+        <v>980</v>
+      </c>
+      <c r="I107" s="131"/>
       <c r="J107" s="4" t="s">
         <v>43</v>
       </c>
@@ -17543,32 +17773,32 @@
       <c r="V107" s="4"/>
       <c r="W107" s="4"/>
     </row>
-    <row r="108" spans="1:23" ht="84" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="B108" s="123" t="s">
+        <v>665</v>
+      </c>
+      <c r="B108" s="117" t="s">
         <v>718</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D108" s="56" t="s">
         <v>544</v>
       </c>
-      <c r="E108" s="4" t="s">
-        <v>948</v>
+      <c r="E108" s="56" t="s">
+        <v>981</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>955</v>
+        <v>908</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>956</v>
-      </c>
-      <c r="H108" s="117" t="s">
-        <v>957</v>
-      </c>
-      <c r="I108" s="4"/>
+        <v>909</v>
+      </c>
+      <c r="H108" s="131" t="s">
+        <v>910</v>
+      </c>
+      <c r="I108" s="131"/>
       <c r="J108" s="4" t="s">
         <v>43</v>
       </c>
@@ -17588,34 +17818,34 @@
       <c r="V108" s="4"/>
       <c r="W108" s="4"/>
     </row>
-    <row r="109" spans="1:23" ht="84" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:23" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="B109" s="123" t="s">
+        <v>666</v>
+      </c>
+      <c r="B109" s="117" t="s">
         <v>718</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D109" s="56" t="s">
         <v>544</v>
       </c>
-      <c r="E109" s="4" t="s">
-        <v>950</v>
+      <c r="E109" s="56" t="s">
+        <v>981</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>960</v>
+        <v>991</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="H109" s="117" t="s">
-        <v>959</v>
-      </c>
-      <c r="I109" s="4"/>
+        <v>912</v>
+      </c>
+      <c r="H109" s="131" t="s">
+        <v>916</v>
+      </c>
+      <c r="I109" s="131"/>
       <c r="J109" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K109" s="4"/>
       <c r="L109" s="4" t="s">
@@ -17633,32 +17863,32 @@
       <c r="V109" s="4"/>
       <c r="W109" s="4"/>
     </row>
-    <row r="110" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="B110" s="123" t="s">
+        <v>667</v>
+      </c>
+      <c r="B110" s="117" t="s">
         <v>718</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="D110" s="4" t="s">
+      <c r="D110" s="56" t="s">
         <v>544</v>
       </c>
-      <c r="E110" s="4" t="s">
-        <v>1008</v>
+      <c r="E110" s="56" t="s">
+        <v>981</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>961</v>
+        <v>992</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>962</v>
-      </c>
-      <c r="H110" s="117" t="s">
-        <v>968</v>
-      </c>
-      <c r="I110" s="4"/>
+        <v>973</v>
+      </c>
+      <c r="H110" s="131" t="s">
+        <v>995</v>
+      </c>
+      <c r="I110" s="131"/>
       <c r="J110" s="4" t="s">
         <v>43</v>
       </c>
@@ -17678,34 +17908,34 @@
       <c r="V110" s="4"/>
       <c r="W110" s="4"/>
     </row>
-    <row r="111" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="B111" s="123" t="s">
+        <v>668</v>
+      </c>
+      <c r="B111" s="117" t="s">
         <v>718</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="D111" s="4" t="s">
+      <c r="D111" s="56" t="s">
         <v>544</v>
       </c>
-      <c r="E111" s="4" t="s">
-        <v>1009</v>
+      <c r="E111" s="56" t="s">
+        <v>981</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>963</v>
+        <v>993</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>964</v>
-      </c>
-      <c r="H111" s="117" t="s">
-        <v>965</v>
-      </c>
-      <c r="I111" s="4"/>
+        <v>976</v>
+      </c>
+      <c r="H111" s="131" t="s">
+        <v>996</v>
+      </c>
+      <c r="I111" s="131"/>
       <c r="J111" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K111" s="4"/>
       <c r="L111" s="4" t="s">
@@ -17725,30 +17955,30 @@
     </row>
     <row r="112" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
-        <v>667</v>
-      </c>
-      <c r="B112" s="123" t="s">
+        <v>669</v>
+      </c>
+      <c r="B112" s="117" t="s">
         <v>718</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="D112" s="56" t="s">
         <v>544</v>
       </c>
-      <c r="E112" s="4" t="s">
-        <v>1010</v>
+      <c r="E112" s="56" t="s">
+        <v>981</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>966</v>
+        <v>994</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>967</v>
-      </c>
-      <c r="H112" s="117" t="s">
-        <v>969</v>
-      </c>
-      <c r="I112" s="4"/>
+        <v>979</v>
+      </c>
+      <c r="H112" s="131" t="s">
+        <v>997</v>
+      </c>
+      <c r="I112" s="131"/>
       <c r="J112" s="4" t="s">
         <v>43</v>
       </c>
@@ -17768,32 +17998,32 @@
       <c r="V112" s="4"/>
       <c r="W112" s="4"/>
     </row>
-    <row r="113" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="B113" s="123" t="s">
+        <v>670</v>
+      </c>
+      <c r="B113" s="117" t="s">
         <v>718</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="D113" s="4" t="s">
+      <c r="D113" s="56" t="s">
         <v>544</v>
       </c>
-      <c r="E113" s="4" t="s">
-        <v>1011</v>
+      <c r="E113" s="56" t="s">
+        <v>981</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>971</v>
+        <v>913</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>725</v>
-      </c>
-      <c r="H113" s="117" t="s">
-        <v>896</v>
-      </c>
-      <c r="I113" s="4"/>
+        <v>914</v>
+      </c>
+      <c r="H113" s="131" t="s">
+        <v>915</v>
+      </c>
+      <c r="I113" s="131"/>
       <c r="J113" s="4" t="s">
         <v>43</v>
       </c>
@@ -17813,11 +18043,11 @@
       <c r="V113" s="4"/>
       <c r="W113" s="4"/>
     </row>
-    <row r="114" spans="1:23" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="B114" s="123" t="s">
+        <v>671</v>
+      </c>
+      <c r="B114" s="117" t="s">
         <v>718</v>
       </c>
       <c r="C114" s="4" t="s">
@@ -17827,18 +18057,18 @@
         <v>544</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>972</v>
+        <v>936</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>974</v>
-      </c>
-      <c r="H114" s="117" t="s">
-        <v>973</v>
-      </c>
-      <c r="I114" s="4"/>
+        <v>937</v>
+      </c>
+      <c r="H114" s="131" t="s">
+        <v>895</v>
+      </c>
+      <c r="I114" s="131"/>
       <c r="J114" s="4" t="s">
         <v>43</v>
       </c>
@@ -17858,11 +18088,11 @@
       <c r="V114" s="4"/>
       <c r="W114" s="4"/>
     </row>
-    <row r="115" spans="1:23" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:23" ht="126" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="B115" s="123" t="s">
+        <v>672</v>
+      </c>
+      <c r="B115" s="117" t="s">
         <v>718</v>
       </c>
       <c r="C115" s="4" t="s">
@@ -17872,20 +18102,18 @@
         <v>544</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>724</v>
+        <v>939</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>1012</v>
+        <v>938</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>727</v>
-      </c>
-      <c r="H115" s="117" t="s">
-        <v>975</v>
-      </c>
-      <c r="I115" s="4" t="s">
-        <v>729</v>
-      </c>
+        <v>942</v>
+      </c>
+      <c r="H115" s="131" t="s">
+        <v>943</v>
+      </c>
+      <c r="I115" s="131"/>
       <c r="J115" s="4" t="s">
         <v>43</v>
       </c>
@@ -17905,11 +18133,11 @@
       <c r="V115" s="4"/>
       <c r="W115" s="4"/>
     </row>
-    <row r="116" spans="1:23" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:23" ht="84" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="B116" s="123" t="s">
+        <v>673</v>
+      </c>
+      <c r="B116" s="117" t="s">
         <v>718</v>
       </c>
       <c r="C116" s="4" t="s">
@@ -17919,20 +18147,18 @@
         <v>544</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>724</v>
+        <v>939</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>1013</v>
+        <v>940</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>726</v>
-      </c>
-      <c r="H116" s="117" t="s">
-        <v>976</v>
-      </c>
-      <c r="I116" s="4" t="s">
-        <v>728</v>
-      </c>
+        <v>944</v>
+      </c>
+      <c r="H116" s="131" t="s">
+        <v>945</v>
+      </c>
+      <c r="I116" s="131"/>
       <c r="J116" s="4" t="s">
         <v>43</v>
       </c>
@@ -17952,32 +18178,32 @@
       <c r="V116" s="4"/>
       <c r="W116" s="4"/>
     </row>
-    <row r="117" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:23" ht="84" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="B117" s="123" t="s">
+        <v>674</v>
+      </c>
+      <c r="B117" s="117" t="s">
         <v>718</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="D117" s="56" t="s">
+      <c r="D117" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="E117" s="56" t="s">
-        <v>724</v>
-      </c>
-      <c r="F117" s="40" t="s">
-        <v>1014</v>
-      </c>
-      <c r="G117" s="56" t="s">
-        <v>820</v>
-      </c>
-      <c r="H117" s="120" t="s">
-        <v>730</v>
-      </c>
-      <c r="I117" s="4"/>
+      <c r="E117" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="H117" s="131" t="s">
+        <v>948</v>
+      </c>
+      <c r="I117" s="131"/>
       <c r="J117" s="4" t="s">
         <v>43</v>
       </c>
@@ -17997,11 +18223,11 @@
       <c r="V117" s="4"/>
       <c r="W117" s="4"/>
     </row>
-    <row r="118" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:23" ht="84" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
-        <v>673</v>
-      </c>
-      <c r="B118" s="123" t="s">
+        <v>675</v>
+      </c>
+      <c r="B118" s="117" t="s">
         <v>718</v>
       </c>
       <c r="C118" s="4" t="s">
@@ -18011,20 +18237,20 @@
         <v>544</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>724</v>
+        <v>941</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>731</v>
+        <v>951</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>970</v>
-      </c>
-      <c r="H118" s="117" t="s">
-        <v>732</v>
-      </c>
-      <c r="I118" s="4"/>
+        <v>949</v>
+      </c>
+      <c r="H118" s="131" t="s">
+        <v>950</v>
+      </c>
+      <c r="I118" s="131"/>
       <c r="J118" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K118" s="4"/>
       <c r="L118" s="4" t="s">
@@ -18042,11 +18268,11 @@
       <c r="V118" s="4"/>
       <c r="W118" s="4"/>
     </row>
-    <row r="119" spans="1:23" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="B119" s="123" t="s">
+        <v>676</v>
+      </c>
+      <c r="B119" s="117" t="s">
         <v>718</v>
       </c>
       <c r="C119" s="4" t="s">
@@ -18056,18 +18282,18 @@
         <v>544</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>724</v>
+        <v>998</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>1017</v>
+        <v>952</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>977</v>
-      </c>
-      <c r="H119" s="117" t="s">
-        <v>978</v>
-      </c>
-      <c r="I119" s="4"/>
+        <v>953</v>
+      </c>
+      <c r="H119" s="131" t="s">
+        <v>959</v>
+      </c>
+      <c r="I119" s="131"/>
       <c r="J119" s="4" t="s">
         <v>43</v>
       </c>
@@ -18087,11 +18313,11 @@
       <c r="V119" s="4"/>
       <c r="W119" s="4"/>
     </row>
-    <row r="120" spans="1:23" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
-        <v>675</v>
-      </c>
-      <c r="B120" s="123" t="s">
+        <v>677</v>
+      </c>
+      <c r="B120" s="117" t="s">
         <v>718</v>
       </c>
       <c r="C120" s="4" t="s">
@@ -18101,20 +18327,20 @@
         <v>544</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>724</v>
+        <v>999</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>733</v>
+        <v>954</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>1015</v>
-      </c>
-      <c r="H120" s="117" t="s">
-        <v>734</v>
-      </c>
-      <c r="I120" s="4"/>
+        <v>955</v>
+      </c>
+      <c r="H120" s="131" t="s">
+        <v>956</v>
+      </c>
+      <c r="I120" s="131"/>
       <c r="J120" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K120" s="4"/>
       <c r="L120" s="4" t="s">
@@ -18134,9 +18360,9 @@
     </row>
     <row r="121" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="B121" s="123" t="s">
+        <v>678</v>
+      </c>
+      <c r="B121" s="117" t="s">
         <v>718</v>
       </c>
       <c r="C121" s="4" t="s">
@@ -18146,18 +18372,18 @@
         <v>544</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>724</v>
+        <v>1000</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>735</v>
+        <v>957</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>1016</v>
-      </c>
-      <c r="H121" s="117" t="s">
-        <v>736</v>
-      </c>
-      <c r="I121" s="4"/>
+        <v>958</v>
+      </c>
+      <c r="H121" s="131" t="s">
+        <v>960</v>
+      </c>
+      <c r="I121" s="131"/>
       <c r="J121" s="4" t="s">
         <v>43</v>
       </c>
@@ -18177,11 +18403,11 @@
       <c r="V121" s="4"/>
       <c r="W121" s="4"/>
     </row>
-    <row r="122" spans="1:23" ht="72" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
-        <v>677</v>
-      </c>
-      <c r="B122" s="123" t="s">
+        <v>679</v>
+      </c>
+      <c r="B122" s="117" t="s">
         <v>718</v>
       </c>
       <c r="C122" s="4" t="s">
@@ -18191,18 +18417,18 @@
         <v>544</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>737</v>
+        <v>1001</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>738</v>
+        <v>962</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>739</v>
-      </c>
-      <c r="H122" s="117" t="s">
-        <v>740</v>
-      </c>
-      <c r="I122" s="4"/>
+        <v>725</v>
+      </c>
+      <c r="H122" s="131" t="s">
+        <v>887</v>
+      </c>
+      <c r="I122" s="131"/>
       <c r="J122" s="4" t="s">
         <v>43</v>
       </c>
@@ -18222,11 +18448,11 @@
       <c r="V122" s="4"/>
       <c r="W122" s="4"/>
     </row>
-    <row r="123" spans="1:23" ht="60" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:23" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
-        <v>678</v>
-      </c>
-      <c r="B123" s="123" t="s">
+        <v>680</v>
+      </c>
+      <c r="B123" s="117" t="s">
         <v>718</v>
       </c>
       <c r="C123" s="4" t="s">
@@ -18236,18 +18462,18 @@
         <v>544</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>741</v>
+        <v>963</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>739</v>
-      </c>
-      <c r="H123" s="117" t="s">
-        <v>897</v>
-      </c>
-      <c r="I123" s="4"/>
+        <v>965</v>
+      </c>
+      <c r="H123" s="131" t="s">
+        <v>964</v>
+      </c>
+      <c r="I123" s="131"/>
       <c r="J123" s="4" t="s">
         <v>43</v>
       </c>
@@ -18267,21 +18493,41 @@
       <c r="V123" s="4"/>
       <c r="W123" s="4"/>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:23" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
-        <v>679</v>
-      </c>
-      <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="4"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="117"/>
-      <c r="I124" s="4"/>
-      <c r="J124" s="4"/>
+        <v>681</v>
+      </c>
+      <c r="B124" s="117" t="s">
+        <v>718</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="H124" s="131" t="s">
+        <v>966</v>
+      </c>
+      <c r="I124" s="131" t="s">
+        <v>729</v>
+      </c>
+      <c r="J124" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K124" s="4"/>
-      <c r="L124" s="4"/>
+      <c r="L124" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>
       <c r="O124" s="4"/>
@@ -18294,21 +18540,41 @@
       <c r="V124" s="4"/>
       <c r="W124" s="4"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:23" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="117"/>
-      <c r="I125" s="4"/>
-      <c r="J125" s="4"/>
+        <v>682</v>
+      </c>
+      <c r="B125" s="117" t="s">
+        <v>718</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="H125" s="131" t="s">
+        <v>967</v>
+      </c>
+      <c r="I125" s="131" t="s">
+        <v>728</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K125" s="4"/>
-      <c r="L125" s="4"/>
+      <c r="L125" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M125" s="4"/>
       <c r="N125" s="4"/>
       <c r="O125" s="4"/>
@@ -18321,21 +18587,39 @@
       <c r="V125" s="4"/>
       <c r="W125" s="4"/>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="4"/>
-      <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
-      <c r="H126" s="117"/>
-      <c r="I126" s="4"/>
-      <c r="J126" s="4"/>
+        <v>687</v>
+      </c>
+      <c r="B126" s="117" t="s">
+        <v>718</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="D126" s="56" t="s">
+        <v>544</v>
+      </c>
+      <c r="E126" s="56" t="s">
+        <v>724</v>
+      </c>
+      <c r="F126" s="40" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G126" s="56" t="s">
+        <v>815</v>
+      </c>
+      <c r="H126" s="133" t="s">
+        <v>730</v>
+      </c>
+      <c r="I126" s="131"/>
+      <c r="J126" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K126" s="4"/>
-      <c r="L126" s="4"/>
+      <c r="L126" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M126" s="4"/>
       <c r="N126" s="4"/>
       <c r="O126" s="4"/>
@@ -18348,21 +18632,39 @@
       <c r="V126" s="4"/>
       <c r="W126" s="4"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
-        <v>682</v>
-      </c>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="4"/>
-      <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="117"/>
-      <c r="I127" s="4"/>
-      <c r="J127" s="4"/>
+        <v>688</v>
+      </c>
+      <c r="B127" s="117" t="s">
+        <v>718</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="H127" s="131" t="s">
+        <v>732</v>
+      </c>
+      <c r="I127" s="131"/>
+      <c r="J127" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="K127" s="4"/>
-      <c r="L127" s="4"/>
+      <c r="L127" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
       <c r="O127" s="4"/>
@@ -18375,21 +18677,39 @@
       <c r="V127" s="4"/>
       <c r="W127" s="4"/>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:23" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="117"/>
-      <c r="I128" s="4"/>
-      <c r="J128" s="4"/>
+        <v>742</v>
+      </c>
+      <c r="B128" s="117" t="s">
+        <v>718</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="H128" s="131" t="s">
+        <v>969</v>
+      </c>
+      <c r="I128" s="131"/>
+      <c r="J128" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K128" s="4"/>
-      <c r="L128" s="4"/>
+      <c r="L128" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M128" s="4"/>
       <c r="N128" s="4"/>
       <c r="O128" s="4"/>
@@ -18402,21 +18722,39 @@
       <c r="V128" s="4"/>
       <c r="W128" s="4"/>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:23" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="117"/>
-      <c r="I129" s="4"/>
-      <c r="J129" s="4"/>
+        <v>743</v>
+      </c>
+      <c r="B129" s="117" t="s">
+        <v>718</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H129" s="131" t="s">
+        <v>734</v>
+      </c>
+      <c r="I129" s="131"/>
+      <c r="J129" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K129" s="4"/>
-      <c r="L129" s="4"/>
+      <c r="L129" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M129" s="4"/>
       <c r="N129" s="4"/>
       <c r="O129" s="4"/>
@@ -18429,21 +18767,39 @@
       <c r="V129" s="4"/>
       <c r="W129" s="4"/>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A130" s="4" t="s">
-        <v>742</v>
-      </c>
-      <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="117"/>
-      <c r="I130" s="4"/>
-      <c r="J130" s="4"/>
+        <v>744</v>
+      </c>
+      <c r="B130" s="117" t="s">
+        <v>718</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H130" s="131" t="s">
+        <v>736</v>
+      </c>
+      <c r="I130" s="131"/>
+      <c r="J130" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K130" s="4"/>
-      <c r="L130" s="4"/>
+      <c r="L130" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M130" s="4"/>
       <c r="N130" s="4"/>
       <c r="O130" s="4"/>
@@ -18456,21 +18812,39 @@
       <c r="V130" s="4"/>
       <c r="W130" s="4"/>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A131" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
-      <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
-      <c r="H131" s="117"/>
-      <c r="I131" s="4"/>
-      <c r="J131" s="4"/>
+        <v>745</v>
+      </c>
+      <c r="B131" s="117" t="s">
+        <v>718</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="H131" s="131" t="s">
+        <v>740</v>
+      </c>
+      <c r="I131" s="131"/>
+      <c r="J131" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K131" s="4"/>
-      <c r="L131" s="4"/>
+      <c r="L131" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M131" s="4"/>
       <c r="N131" s="4"/>
       <c r="O131" s="4"/>
@@ -18483,21 +18857,39 @@
       <c r="V131" s="4"/>
       <c r="W131" s="4"/>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:23" ht="60" x14ac:dyDescent="0.15">
       <c r="A132" s="4" t="s">
-        <v>744</v>
-      </c>
-      <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
-      <c r="H132" s="117"/>
-      <c r="I132" s="4"/>
-      <c r="J132" s="4"/>
+        <v>746</v>
+      </c>
+      <c r="B132" s="117" t="s">
+        <v>718</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="H132" s="131" t="s">
+        <v>888</v>
+      </c>
+      <c r="I132" s="131"/>
+      <c r="J132" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K132" s="4"/>
-      <c r="L132" s="4"/>
+      <c r="L132" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M132" s="4"/>
       <c r="N132" s="4"/>
       <c r="O132" s="4"/>
@@ -18512,7 +18904,7 @@
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A133" s="4" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -18520,8 +18912,8 @@
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
-      <c r="H133" s="117"/>
-      <c r="I133" s="4"/>
+      <c r="H133" s="131"/>
+      <c r="I133" s="131"/>
       <c r="J133" s="4"/>
       <c r="K133" s="4"/>
       <c r="L133" s="4"/>
@@ -18539,7 +18931,7 @@
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A134" s="4" t="s">
-        <v>746</v>
+        <v>791</v>
       </c>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -18547,8 +18939,8 @@
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
-      <c r="H134" s="117"/>
-      <c r="I134" s="4"/>
+      <c r="H134" s="131"/>
+      <c r="I134" s="131"/>
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
       <c r="L134" s="4"/>
@@ -18566,7 +18958,7 @@
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
-        <v>747</v>
+        <v>792</v>
       </c>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -18574,8 +18966,8 @@
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
-      <c r="H135" s="117"/>
-      <c r="I135" s="4"/>
+      <c r="H135" s="131"/>
+      <c r="I135" s="131"/>
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
       <c r="L135" s="4"/>
@@ -18593,7 +18985,7 @@
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A136" s="4" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -18601,8 +18993,8 @@
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
-      <c r="H136" s="117"/>
-      <c r="I136" s="4"/>
+      <c r="H136" s="131"/>
+      <c r="I136" s="131"/>
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
       <c r="L136" s="4"/>
@@ -18620,7 +19012,7 @@
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A137" s="4" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -18628,8 +19020,8 @@
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
-      <c r="H137" s="117"/>
-      <c r="I137" s="4"/>
+      <c r="H137" s="131"/>
+      <c r="I137" s="131"/>
       <c r="J137" s="4"/>
       <c r="K137" s="4"/>
       <c r="L137" s="4"/>
@@ -18647,7 +19039,7 @@
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A138" s="4" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -18655,8 +19047,8 @@
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
-      <c r="H138" s="117"/>
-      <c r="I138" s="4"/>
+      <c r="H138" s="131"/>
+      <c r="I138" s="131"/>
       <c r="J138" s="4"/>
       <c r="K138" s="4"/>
       <c r="L138" s="4"/>
@@ -18674,7 +19066,7 @@
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A139" s="4" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -18682,8 +19074,8 @@
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
-      <c r="H139" s="117"/>
-      <c r="I139" s="4"/>
+      <c r="H139" s="131"/>
+      <c r="I139" s="131"/>
       <c r="J139" s="4"/>
       <c r="K139" s="4"/>
       <c r="L139" s="4"/>
@@ -18701,7 +19093,7 @@
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A140" s="4" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -18709,8 +19101,8 @@
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
       <c r="G140" s="4"/>
-      <c r="H140" s="117"/>
-      <c r="I140" s="4"/>
+      <c r="H140" s="131"/>
+      <c r="I140" s="131"/>
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
       <c r="L140" s="4"/>
@@ -18728,7 +19120,7 @@
     </row>
     <row r="141" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -18736,8 +19128,8 @@
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
-      <c r="H141" s="117"/>
-      <c r="I141" s="4"/>
+      <c r="H141" s="131"/>
+      <c r="I141" s="131"/>
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
       <c r="L141" s="4"/>
@@ -18755,7 +19147,7 @@
     </row>
     <row r="142" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -18763,8 +19155,8 @@
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
-      <c r="H142" s="117"/>
-      <c r="I142" s="4"/>
+      <c r="H142" s="131"/>
+      <c r="I142" s="131"/>
       <c r="J142" s="4"/>
       <c r="K142" s="4"/>
       <c r="L142" s="4"/>
@@ -18782,7 +19174,7 @@
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -18790,8 +19182,8 @@
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
-      <c r="H143" s="117"/>
-      <c r="I143" s="4"/>
+      <c r="H143" s="131"/>
+      <c r="I143" s="131"/>
       <c r="J143" s="4"/>
       <c r="K143" s="4"/>
       <c r="L143" s="4"/>
@@ -18809,7 +19201,7 @@
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -18817,8 +19209,8 @@
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
-      <c r="H144" s="117"/>
-      <c r="I144" s="4"/>
+      <c r="H144" s="131"/>
+      <c r="I144" s="131"/>
       <c r="J144" s="4"/>
       <c r="K144" s="4"/>
       <c r="L144" s="4"/>
@@ -18836,7 +19228,7 @@
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -18844,8 +19236,8 @@
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
-      <c r="H145" s="117"/>
-      <c r="I145" s="4"/>
+      <c r="H145" s="131"/>
+      <c r="I145" s="131"/>
       <c r="J145" s="4"/>
       <c r="K145" s="4"/>
       <c r="L145" s="4"/>
@@ -18863,7 +19255,7 @@
     </row>
     <row r="146" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A146" s="4" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -18871,8 +19263,8 @@
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
-      <c r="H146" s="117"/>
-      <c r="I146" s="4"/>
+      <c r="H146" s="131"/>
+      <c r="I146" s="131"/>
       <c r="J146" s="4"/>
       <c r="K146" s="4"/>
       <c r="L146" s="4"/>
@@ -18890,7 +19282,7 @@
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A147" s="4" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -18898,8 +19290,8 @@
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
-      <c r="H147" s="117"/>
-      <c r="I147" s="4"/>
+      <c r="H147" s="131"/>
+      <c r="I147" s="131"/>
       <c r="J147" s="4"/>
       <c r="K147" s="4"/>
       <c r="L147" s="4"/>
@@ -18917,7 +19309,7 @@
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -18925,8 +19317,8 @@
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
-      <c r="H148" s="117"/>
-      <c r="I148" s="4"/>
+      <c r="H148" s="131"/>
+      <c r="I148" s="131"/>
       <c r="J148" s="4"/>
       <c r="K148" s="4"/>
       <c r="L148" s="4"/>
@@ -18944,7 +19336,7 @@
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A149" s="4" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -18952,8 +19344,8 @@
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
-      <c r="H149" s="117"/>
-      <c r="I149" s="4"/>
+      <c r="H149" s="131"/>
+      <c r="I149" s="131"/>
       <c r="J149" s="4"/>
       <c r="K149" s="4"/>
       <c r="L149" s="4"/>
@@ -18971,7 +19363,7 @@
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A150" s="4" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -18979,8 +19371,8 @@
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
-      <c r="H150" s="117"/>
-      <c r="I150" s="4"/>
+      <c r="H150" s="131"/>
+      <c r="I150" s="131"/>
       <c r="J150" s="4"/>
       <c r="K150" s="4"/>
       <c r="L150" s="4"/>
@@ -18998,7 +19390,7 @@
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A151" s="4" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -19006,8 +19398,8 @@
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
-      <c r="H151" s="117"/>
-      <c r="I151" s="4"/>
+      <c r="H151" s="131"/>
+      <c r="I151" s="131"/>
       <c r="J151" s="4"/>
       <c r="K151" s="4"/>
       <c r="L151" s="4"/>
@@ -19025,7 +19417,7 @@
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A152" s="4" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -19033,8 +19425,8 @@
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
-      <c r="H152" s="117"/>
-      <c r="I152" s="4"/>
+      <c r="H152" s="131"/>
+      <c r="I152" s="131"/>
       <c r="J152" s="4"/>
       <c r="K152" s="4"/>
       <c r="L152" s="4"/>
@@ -19052,7 +19444,7 @@
     </row>
     <row r="153" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A153" s="4" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -19060,8 +19452,8 @@
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
-      <c r="H153" s="117"/>
-      <c r="I153" s="4"/>
+      <c r="H153" s="131"/>
+      <c r="I153" s="131"/>
       <c r="J153" s="4"/>
       <c r="K153" s="4"/>
       <c r="L153" s="4"/>
@@ -19079,7 +19471,7 @@
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A154" s="4" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -19087,8 +19479,8 @@
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
-      <c r="H154" s="117"/>
-      <c r="I154" s="4"/>
+      <c r="H154" s="131"/>
+      <c r="I154" s="131"/>
       <c r="J154" s="4"/>
       <c r="K154" s="4"/>
       <c r="L154" s="4"/>
@@ -19106,7 +19498,7 @@
     </row>
     <row r="155" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A155" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -19114,8 +19506,8 @@
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
-      <c r="H155" s="117"/>
-      <c r="I155" s="4"/>
+      <c r="H155" s="131"/>
+      <c r="I155" s="131"/>
       <c r="J155" s="4"/>
       <c r="K155" s="4"/>
       <c r="L155" s="4"/>
@@ -19133,7 +19525,7 @@
     </row>
     <row r="156" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A156" s="4" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -19141,8 +19533,8 @@
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
-      <c r="H156" s="117"/>
-      <c r="I156" s="4"/>
+      <c r="H156" s="131"/>
+      <c r="I156" s="131"/>
       <c r="J156" s="4"/>
       <c r="K156" s="4"/>
       <c r="L156" s="4"/>
@@ -19160,7 +19552,7 @@
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A157" s="4" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -19168,8 +19560,8 @@
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
-      <c r="H157" s="117"/>
-      <c r="I157" s="4"/>
+      <c r="H157" s="131"/>
+      <c r="I157" s="131"/>
       <c r="J157" s="4"/>
       <c r="K157" s="4"/>
       <c r="L157" s="4"/>
@@ -19187,7 +19579,7 @@
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A158" s="4" t="s">
-        <v>818</v>
+        <v>854</v>
       </c>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -19195,8 +19587,8 @@
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
-      <c r="H158" s="117"/>
-      <c r="I158" s="4"/>
+      <c r="H158" s="131"/>
+      <c r="I158" s="131"/>
       <c r="J158" s="4"/>
       <c r="K158" s="4"/>
       <c r="L158" s="4"/>
@@ -19214,7 +19606,7 @@
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A159" s="4" t="s">
-        <v>819</v>
+        <v>1009</v>
       </c>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -19222,8 +19614,8 @@
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
-      <c r="H159" s="117"/>
-      <c r="I159" s="4"/>
+      <c r="H159" s="131"/>
+      <c r="I159" s="131"/>
       <c r="J159" s="4"/>
       <c r="K159" s="4"/>
       <c r="L159" s="4"/>
@@ -19241,7 +19633,7 @@
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A160" s="4" t="s">
-        <v>862</v>
+        <v>1010</v>
       </c>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -19249,8 +19641,8 @@
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
-      <c r="H160" s="117"/>
-      <c r="I160" s="4"/>
+      <c r="H160" s="131"/>
+      <c r="I160" s="131"/>
       <c r="J160" s="4"/>
       <c r="K160" s="4"/>
       <c r="L160" s="4"/>
@@ -19268,7 +19660,7 @@
     </row>
     <row r="161" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A161" s="4" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -19276,8 +19668,8 @@
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
-      <c r="H161" s="117"/>
-      <c r="I161" s="4"/>
+      <c r="H161" s="131"/>
+      <c r="I161" s="131"/>
       <c r="J161" s="4"/>
       <c r="K161" s="4"/>
       <c r="L161" s="4"/>
@@ -19295,7 +19687,7 @@
     </row>
     <row r="162" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A162" s="4" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -19303,8 +19695,8 @@
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
-      <c r="H162" s="117"/>
-      <c r="I162" s="4"/>
+      <c r="H162" s="131"/>
+      <c r="I162" s="131"/>
       <c r="J162" s="4"/>
       <c r="K162" s="4"/>
       <c r="L162" s="4"/>
@@ -19322,7 +19714,7 @@
     </row>
     <row r="163" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A163" s="4" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -19330,8 +19722,8 @@
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
-      <c r="H163" s="117"/>
-      <c r="I163" s="4"/>
+      <c r="H163" s="131"/>
+      <c r="I163" s="131"/>
       <c r="J163" s="4"/>
       <c r="K163" s="4"/>
       <c r="L163" s="4"/>
@@ -19349,7 +19741,7 @@
     </row>
     <row r="164" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A164" s="4" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -19357,8 +19749,8 @@
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
-      <c r="H164" s="117"/>
-      <c r="I164" s="4"/>
+      <c r="H164" s="131"/>
+      <c r="I164" s="131"/>
       <c r="J164" s="4"/>
       <c r="K164" s="4"/>
       <c r="L164" s="4"/>
@@ -19376,7 +19768,7 @@
     </row>
     <row r="165" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A165" s="4" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -19384,8 +19776,8 @@
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
-      <c r="H165" s="117"/>
-      <c r="I165" s="4"/>
+      <c r="H165" s="131"/>
+      <c r="I165" s="131"/>
       <c r="J165" s="4"/>
       <c r="K165" s="4"/>
       <c r="L165" s="4"/>
@@ -19403,7 +19795,7 @@
     </row>
     <row r="166" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A166" s="4" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -19411,8 +19803,8 @@
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
-      <c r="H166" s="117"/>
-      <c r="I166" s="4"/>
+      <c r="H166" s="131"/>
+      <c r="I166" s="131"/>
       <c r="J166" s="4"/>
       <c r="K166" s="4"/>
       <c r="L166" s="4"/>
@@ -19430,7 +19822,7 @@
     </row>
     <row r="167" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A167" s="4" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -19438,8 +19830,8 @@
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
-      <c r="H167" s="117"/>
-      <c r="I167" s="4"/>
+      <c r="H167" s="131"/>
+      <c r="I167" s="131"/>
       <c r="J167" s="4"/>
       <c r="K167" s="4"/>
       <c r="L167" s="4"/>
@@ -19457,7 +19849,7 @@
     </row>
     <row r="168" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A168" s="4" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -19465,8 +19857,8 @@
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
-      <c r="H168" s="117"/>
-      <c r="I168" s="4"/>
+      <c r="H168" s="131"/>
+      <c r="I168" s="131"/>
       <c r="J168" s="4"/>
       <c r="K168" s="4"/>
       <c r="L168" s="4"/>
@@ -19484,7 +19876,7 @@
     </row>
     <row r="169" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A169" s="4" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -19492,8 +19884,8 @@
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
-      <c r="H169" s="117"/>
-      <c r="I169" s="4"/>
+      <c r="H169" s="131"/>
+      <c r="I169" s="131"/>
       <c r="J169" s="4"/>
       <c r="K169" s="4"/>
       <c r="L169" s="4"/>
@@ -19511,7 +19903,7 @@
     </row>
     <row r="170" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A170" s="4" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -19519,8 +19911,8 @@
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
-      <c r="H170" s="117"/>
-      <c r="I170" s="4"/>
+      <c r="H170" s="131"/>
+      <c r="I170" s="131"/>
       <c r="J170" s="4"/>
       <c r="K170" s="4"/>
       <c r="L170" s="4"/>
@@ -19538,7 +19930,7 @@
     </row>
     <row r="171" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A171" s="4" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -19546,8 +19938,8 @@
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
       <c r="G171" s="4"/>
-      <c r="H171" s="117"/>
-      <c r="I171" s="4"/>
+      <c r="H171" s="131"/>
+      <c r="I171" s="131"/>
       <c r="J171" s="4"/>
       <c r="K171" s="4"/>
       <c r="L171" s="4"/>
@@ -19565,7 +19957,7 @@
     </row>
     <row r="172" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A172" s="4" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -19573,8 +19965,8 @@
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
-      <c r="H172" s="117"/>
-      <c r="I172" s="4"/>
+      <c r="H172" s="131"/>
+      <c r="I172" s="131"/>
       <c r="J172" s="4"/>
       <c r="K172" s="4"/>
       <c r="L172" s="4"/>
@@ -19592,7 +19984,7 @@
     </row>
     <row r="173" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A173" s="4" t="s">
-        <v>1031</v>
+        <v>1023</v>
       </c>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -19600,8 +19992,8 @@
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
       <c r="G173" s="4"/>
-      <c r="H173" s="117"/>
-      <c r="I173" s="4"/>
+      <c r="H173" s="131"/>
+      <c r="I173" s="131"/>
       <c r="J173" s="4"/>
       <c r="K173" s="4"/>
       <c r="L173" s="4"/>
@@ -19619,7 +20011,7 @@
     </row>
     <row r="174" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A174" s="4" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -19627,8 +20019,8 @@
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
       <c r="G174" s="4"/>
-      <c r="H174" s="117"/>
-      <c r="I174" s="4"/>
+      <c r="H174" s="131"/>
+      <c r="I174" s="131"/>
       <c r="J174" s="4"/>
       <c r="K174" s="4"/>
       <c r="L174" s="4"/>
@@ -19646,7 +20038,7 @@
     </row>
     <row r="175" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A175" s="4" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -19654,8 +20046,8 @@
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
       <c r="G175" s="4"/>
-      <c r="H175" s="117"/>
-      <c r="I175" s="4"/>
+      <c r="H175" s="131"/>
+      <c r="I175" s="131"/>
       <c r="J175" s="4"/>
       <c r="K175" s="4"/>
       <c r="L175" s="4"/>
@@ -19673,7 +20065,7 @@
     </row>
     <row r="176" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A176" s="4" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -19681,8 +20073,8 @@
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
       <c r="G176" s="4"/>
-      <c r="H176" s="117"/>
-      <c r="I176" s="4"/>
+      <c r="H176" s="131"/>
+      <c r="I176" s="131"/>
       <c r="J176" s="4"/>
       <c r="K176" s="4"/>
       <c r="L176" s="4"/>
@@ -19700,7 +20092,7 @@
     </row>
     <row r="177" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A177" s="4" t="s">
-        <v>1035</v>
+        <v>1044</v>
       </c>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -19708,8 +20100,8 @@
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
       <c r="G177" s="4"/>
-      <c r="H177" s="117"/>
-      <c r="I177" s="4"/>
+      <c r="H177" s="131"/>
+      <c r="I177" s="131"/>
       <c r="J177" s="4"/>
       <c r="K177" s="4"/>
       <c r="L177" s="4"/>
@@ -19727,7 +20119,7 @@
     </row>
     <row r="178" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A178" s="4" t="s">
-        <v>1036</v>
+        <v>1045</v>
       </c>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -19735,8 +20127,8 @@
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
-      <c r="H178" s="117"/>
-      <c r="I178" s="4"/>
+      <c r="H178" s="131"/>
+      <c r="I178" s="131"/>
       <c r="J178" s="4"/>
       <c r="K178" s="4"/>
       <c r="L178" s="4"/>
@@ -19754,7 +20146,7 @@
     </row>
     <row r="179" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A179" s="4" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -19762,8 +20154,8 @@
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
       <c r="G179" s="4"/>
-      <c r="H179" s="117"/>
-      <c r="I179" s="4"/>
+      <c r="H179" s="131"/>
+      <c r="I179" s="131"/>
       <c r="J179" s="4"/>
       <c r="K179" s="4"/>
       <c r="L179" s="4"/>
@@ -19781,7 +20173,7 @@
     </row>
     <row r="180" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A180" s="4" t="s">
-        <v>1055</v>
+        <v>1047</v>
       </c>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -19789,8 +20181,8 @@
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
       <c r="G180" s="4"/>
-      <c r="H180" s="117"/>
-      <c r="I180" s="4"/>
+      <c r="H180" s="131"/>
+      <c r="I180" s="131"/>
       <c r="J180" s="4"/>
       <c r="K180" s="4"/>
       <c r="L180" s="4"/>
@@ -19808,7 +20200,7 @@
     </row>
     <row r="181" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A181" s="4" t="s">
-        <v>1056</v>
+        <v>1101</v>
       </c>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -19816,8 +20208,8 @@
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
       <c r="G181" s="4"/>
-      <c r="H181" s="117"/>
-      <c r="I181" s="4"/>
+      <c r="H181" s="131"/>
+      <c r="I181" s="131"/>
       <c r="J181" s="4"/>
       <c r="K181" s="4"/>
       <c r="L181" s="4"/>
@@ -19835,7 +20227,7 @@
     </row>
     <row r="182" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A182" s="4" t="s">
-        <v>1057</v>
+        <v>1102</v>
       </c>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -19843,8 +20235,8 @@
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
       <c r="G182" s="4"/>
-      <c r="H182" s="117"/>
-      <c r="I182" s="4"/>
+      <c r="H182" s="131"/>
+      <c r="I182" s="131"/>
       <c r="J182" s="4"/>
       <c r="K182" s="4"/>
       <c r="L182" s="4"/>
@@ -19860,6 +20252,249 @@
       <c r="V182" s="4"/>
       <c r="W182" s="4"/>
     </row>
+    <row r="183" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A183" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B183" s="4"/>
+      <c r="C183" s="4"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="4"/>
+      <c r="F183" s="4"/>
+      <c r="G183" s="4"/>
+      <c r="H183" s="131"/>
+      <c r="I183" s="131"/>
+      <c r="J183" s="4"/>
+      <c r="K183" s="4"/>
+      <c r="L183" s="4"/>
+      <c r="M183" s="4"/>
+      <c r="N183" s="4"/>
+      <c r="O183" s="4"/>
+      <c r="P183" s="4"/>
+      <c r="Q183" s="4"/>
+      <c r="R183" s="4"/>
+      <c r="S183" s="4"/>
+      <c r="T183" s="54"/>
+      <c r="U183" s="4"/>
+      <c r="V183" s="4"/>
+      <c r="W183" s="4"/>
+    </row>
+    <row r="184" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A184" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B184" s="4"/>
+      <c r="C184" s="4"/>
+      <c r="D184" s="4"/>
+      <c r="E184" s="4"/>
+      <c r="F184" s="4"/>
+      <c r="G184" s="4"/>
+      <c r="H184" s="131"/>
+      <c r="I184" s="131"/>
+      <c r="J184" s="4"/>
+      <c r="K184" s="4"/>
+      <c r="L184" s="4"/>
+      <c r="M184" s="4"/>
+      <c r="N184" s="4"/>
+      <c r="O184" s="4"/>
+      <c r="P184" s="4"/>
+      <c r="Q184" s="4"/>
+      <c r="R184" s="4"/>
+      <c r="S184" s="4"/>
+      <c r="T184" s="54"/>
+      <c r="U184" s="4"/>
+      <c r="V184" s="4"/>
+      <c r="W184" s="4"/>
+    </row>
+    <row r="185" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A185" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B185" s="4"/>
+      <c r="C185" s="4"/>
+      <c r="D185" s="4"/>
+      <c r="E185" s="4"/>
+      <c r="F185" s="4"/>
+      <c r="G185" s="4"/>
+      <c r="H185" s="131"/>
+      <c r="I185" s="131"/>
+      <c r="J185" s="4"/>
+      <c r="K185" s="4"/>
+      <c r="L185" s="4"/>
+      <c r="M185" s="4"/>
+      <c r="N185" s="4"/>
+      <c r="O185" s="4"/>
+      <c r="P185" s="4"/>
+      <c r="Q185" s="4"/>
+      <c r="R185" s="4"/>
+      <c r="S185" s="4"/>
+      <c r="T185" s="54"/>
+      <c r="U185" s="4"/>
+      <c r="V185" s="4"/>
+      <c r="W185" s="4"/>
+    </row>
+    <row r="186" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A186" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B186" s="4"/>
+      <c r="C186" s="4"/>
+      <c r="D186" s="4"/>
+      <c r="E186" s="4"/>
+      <c r="F186" s="4"/>
+      <c r="G186" s="4"/>
+      <c r="H186" s="131"/>
+      <c r="I186" s="131"/>
+      <c r="J186" s="4"/>
+      <c r="K186" s="4"/>
+      <c r="L186" s="4"/>
+      <c r="M186" s="4"/>
+      <c r="N186" s="4"/>
+      <c r="O186" s="4"/>
+      <c r="P186" s="4"/>
+      <c r="Q186" s="4"/>
+      <c r="R186" s="4"/>
+      <c r="S186" s="4"/>
+      <c r="T186" s="54"/>
+      <c r="U186" s="4"/>
+      <c r="V186" s="4"/>
+      <c r="W186" s="4"/>
+    </row>
+    <row r="187" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A187" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B187" s="4"/>
+      <c r="C187" s="4"/>
+      <c r="D187" s="4"/>
+      <c r="E187" s="4"/>
+      <c r="F187" s="4"/>
+      <c r="G187" s="4"/>
+      <c r="H187" s="131"/>
+      <c r="I187" s="131"/>
+      <c r="J187" s="4"/>
+      <c r="K187" s="4"/>
+      <c r="L187" s="4"/>
+      <c r="M187" s="4"/>
+      <c r="N187" s="4"/>
+      <c r="O187" s="4"/>
+      <c r="P187" s="4"/>
+      <c r="Q187" s="4"/>
+      <c r="R187" s="4"/>
+      <c r="S187" s="4"/>
+      <c r="T187" s="54"/>
+      <c r="U187" s="4"/>
+      <c r="V187" s="4"/>
+      <c r="W187" s="4"/>
+    </row>
+    <row r="188" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A188" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B188" s="4"/>
+      <c r="C188" s="4"/>
+      <c r="D188" s="4"/>
+      <c r="E188" s="4"/>
+      <c r="F188" s="4"/>
+      <c r="G188" s="4"/>
+      <c r="H188" s="131"/>
+      <c r="I188" s="131"/>
+      <c r="J188" s="4"/>
+      <c r="K188" s="4"/>
+      <c r="L188" s="4"/>
+      <c r="M188" s="4"/>
+      <c r="N188" s="4"/>
+      <c r="O188" s="4"/>
+      <c r="P188" s="4"/>
+      <c r="Q188" s="4"/>
+      <c r="R188" s="4"/>
+      <c r="S188" s="4"/>
+      <c r="T188" s="54"/>
+      <c r="U188" s="4"/>
+      <c r="V188" s="4"/>
+      <c r="W188" s="4"/>
+    </row>
+    <row r="189" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A189" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B189" s="4"/>
+      <c r="C189" s="4"/>
+      <c r="D189" s="4"/>
+      <c r="E189" s="4"/>
+      <c r="F189" s="4"/>
+      <c r="G189" s="4"/>
+      <c r="H189" s="131"/>
+      <c r="I189" s="131"/>
+      <c r="J189" s="4"/>
+      <c r="K189" s="4"/>
+      <c r="L189" s="4"/>
+      <c r="M189" s="4"/>
+      <c r="N189" s="4"/>
+      <c r="O189" s="4"/>
+      <c r="P189" s="4"/>
+      <c r="Q189" s="4"/>
+      <c r="R189" s="4"/>
+      <c r="S189" s="4"/>
+      <c r="T189" s="54"/>
+      <c r="U189" s="4"/>
+      <c r="V189" s="4"/>
+      <c r="W189" s="4"/>
+    </row>
+    <row r="190" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A190" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B190" s="4"/>
+      <c r="C190" s="4"/>
+      <c r="D190" s="4"/>
+      <c r="E190" s="4"/>
+      <c r="F190" s="4"/>
+      <c r="G190" s="4"/>
+      <c r="H190" s="131"/>
+      <c r="I190" s="131"/>
+      <c r="J190" s="4"/>
+      <c r="K190" s="4"/>
+      <c r="L190" s="4"/>
+      <c r="M190" s="4"/>
+      <c r="N190" s="4"/>
+      <c r="O190" s="4"/>
+      <c r="P190" s="4"/>
+      <c r="Q190" s="4"/>
+      <c r="R190" s="4"/>
+      <c r="S190" s="4"/>
+      <c r="T190" s="54"/>
+      <c r="U190" s="4"/>
+      <c r="V190" s="4"/>
+      <c r="W190" s="4"/>
+    </row>
+    <row r="191" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A191" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B191" s="4"/>
+      <c r="C191" s="4"/>
+      <c r="D191" s="4"/>
+      <c r="E191" s="4"/>
+      <c r="F191" s="4"/>
+      <c r="G191" s="4"/>
+      <c r="H191" s="131"/>
+      <c r="I191" s="131"/>
+      <c r="J191" s="4"/>
+      <c r="K191" s="4"/>
+      <c r="L191" s="4"/>
+      <c r="M191" s="4"/>
+      <c r="N191" s="4"/>
+      <c r="O191" s="4"/>
+      <c r="P191" s="4"/>
+      <c r="Q191" s="4"/>
+      <c r="R191" s="4"/>
+      <c r="S191" s="4"/>
+      <c r="T191" s="54"/>
+      <c r="U191" s="4"/>
+      <c r="V191" s="4"/>
+      <c r="W191" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19871,49 +20506,49 @@
           <x14:formula1>
             <xm:f>Sheet2!$M$4:$M$6</xm:f>
           </x14:formula1>
-          <xm:sqref>S3:S182</xm:sqref>
+          <xm:sqref>S3:S191</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$G$4:$G$11</xm:f>
           </x14:formula1>
-          <xm:sqref>R3:R182</xm:sqref>
+          <xm:sqref>R3:R191</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$K$4:$K$13</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:K182</xm:sqref>
+          <xm:sqref>K3:K191</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$J$4:$J$9</xm:f>
           </x14:formula1>
-          <xm:sqref>Q3:Q182</xm:sqref>
+          <xm:sqref>Q3:Q191</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$G$4:$G$10</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:O182</xm:sqref>
+          <xm:sqref>M3:O191</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$F$4:$F$8</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L182</xm:sqref>
+          <xm:sqref>L3:L191</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$D$4:$D$9</xm:f>
           </x14:formula1>
-          <xm:sqref>J3:J182</xm:sqref>
+          <xm:sqref>J3:J191</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Story Point">
           <x14:formula1>
             <xm:f>'C:\Users\Omnex\Documents\[performanetools1.txt.xlsx]Data_Ref'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>P3:P182</xm:sqref>
+          <xm:sqref>P3:P191</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/projects/YanFeng/02 System Design/User Stories/User Stories.xlsx
+++ b/projects/YanFeng/02 System Design/User Stories/User Stories.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="1121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="1124">
   <si>
     <t>ID</t>
   </si>
@@ -2706,9 +2706,6 @@
     <t>US96</t>
   </si>
   <si>
-    <t>US97</t>
-  </si>
-  <si>
     <t>US98</t>
   </si>
   <si>
@@ -2718,9 +2715,6 @@
     <t>US100</t>
   </si>
   <si>
-    <t>US101</t>
-  </si>
-  <si>
     <t>US102</t>
   </si>
   <si>
@@ -2731,9 +2725,6 @@
   </si>
   <si>
     <t>US105</t>
-  </si>
-  <si>
-    <t>US106</t>
   </si>
   <si>
     <t>US107</t>
@@ -2793,10 +2784,6 @@
 2, User should see part change history by clicking the button "Part history"
 3, User should see a disabled button "Save"
 4, User should be able to close "Edit Part Information" window by clicking button "Cancel"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Proejct Hierarchy: Project --&gt; Parts --&gt;APQP/PPAP/PPQP tasks</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -2968,10 +2955,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>I can update APQP/PPAP/PPQP information</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>I can save the PPAP information</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2989,10 +2972,6 @@
   </si>
   <si>
     <t>to be defined by customer</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cancel APQP/PPAP/PPQP inputs</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -3024,10 +3003,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Receive an email once the supplier submitted his/her APQP/PPAP/PPQP tasks to me</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>I can review and approve the task</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3038,10 +3013,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Receive an internal message once the supplier submitted his/her APQP/PPAP/PPQP tasks to me</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>US124</t>
   </si>
   <si>
@@ -3073,10 +3044,6 @@
   </si>
   <si>
     <t>Menu Item Definition: New Part,Edit,New APQP,New PPAP,New PPQP,View Part Information,Export,Import Parts,Delete Part,Generate &amp; View Report,Refresh;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can use quick link to operate a APQP/PPAP/PPQP</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -3197,20 +3164,9 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Have privileges control on the floating menu of APQP/PPAP/PPQP</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1, ASDE/SQE supervisro should see all menu items of the floating menu of a part;
 2, ASDE/SQE should see only the menu items of "New APQP","New PPAP","New PPQP","View Part Information","Export","Generate &amp; View Report","Refresh";
 3, Suppliers should see only the menu items of "View Part Information","Refresh";
-</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1, ASDE/SQE supervisro should see all menu items of the floating menu of APQP/PPAP/PPQP;
-2, ASDE/SQE should should see all menu items of the floating menu of APQP/PPAP/PPQP;
-3, Suppliers should see only the menu items of "View Task","Import","Export","Refresh","Generate &amp; View Report"
 </t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3256,10 +3212,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Link the corresponding functions "Close APQP/PPAP/PPQP task" "Reopen APQP/PPAP/PPQP TASK" to the floating menu of APQP/PPAP/PPQP</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>US130</t>
   </si>
   <si>
@@ -3388,11 +3340,6 @@
     <t>ASDE/SQE supervisor
 ASDE/SQE
 Supplier</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASDE/SQE supervisor;
-ASDE/SQE;</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -3546,14 +3493,6 @@
 3, User should be able to slide mouse pointer to the floating menu and select a menu item by left clicking;</t>
   </si>
   <si>
-    <t>See a pop-up floating menu when I right click on a APQP/PPAP/PPQP node in the Task Tree View</t>
-  </si>
-  <si>
-    <t>1, The node of APQP/PPAP/PPQP in Task Tree View should be right clickable;
-2, A pop-up floating menu should be displayed beside the mouse pointer;
-3, User should be able to slide mouse pointer to the floating menu and select a menu item by left clicking;</t>
-  </si>
-  <si>
     <t>1, User should see a pop-up window which allows user to import a excel sheet with predefinied format;
 2, User should be able to select local files to import;
 3, User should see a prompt message when importing completed(successful or failed, the reason and suggestions should be provided once the import got into failure);
@@ -3642,9 +3581,6 @@
 2, User should be able to assign the unassigned project main task to himself</t>
   </si>
   <si>
-    <t>1, User should see the APQP/PPAP/PPQP tasks that assigned to him/her in task list view;</t>
-  </si>
-  <si>
     <t>1, User should see new internal message in Activity module;
 2, User should be forword to the task list view page(the corresponding task should be highlighted) by clicking the task link in the internal message;</t>
   </si>
@@ -3670,9 +3606,6 @@
   </si>
   <si>
     <t>I can see all unassigned project main tasks in task list view</t>
-  </si>
-  <si>
-    <t>1, User should see APQP/PPAP/PPQP tasks in task list view;</t>
   </si>
   <si>
     <t>I can manage the project main tasks</t>
@@ -3746,10 +3679,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>I can fill PPAP task header information</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Have the system to create the PPAP tasks automatically under PPAP main task</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3802,10 +3731,6 @@
   </si>
   <si>
     <t>See all part tasks that assigned to me</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can send the part task back to ASDE/SQE supervisor for more information</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -3860,14 +3785,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>View all APQP/PPAP/PPQP tasks</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can review and track APQP/PPAP/PPQP tasks status</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Approve APQP/PPAP tasks</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3973,23 +3890,6 @@
   </si>
   <si>
     <t>I can give up my inputs and close the pop-up window</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>See the APQP/PPAP/PPQP tasks that assigned to me</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>See the parent tasks(part task, Project main task) of my APQP/PPAP/PPQP tasks</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, User should view the part task and project task which contains the APQP/PPAP/PPAP task that assigned to him/her in task list view;(read-only mode)
-2, User should view the part task and project task which contains the APQP/PPAP/PPAP task that assigned to him/her in task tree view;(read-only mode)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can drilldown the tasks from Project main task to my APQP/PPAP/PPQP tasks</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -4021,22 +3921,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>I can drilldown the tasks from Project main task to APQP/PPAP/PPQP tasks</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Approve APQP main task</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can approve all APQP tasks as an entire task</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, user should be able to select "Approved" value in dropdown list in the window "Edit APQP Main Task Information";</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Close APQP main task</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -4066,22 +3950,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Reject the part task that assigned to me</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, The comments of decline is required;
-2, User should see value "Reject" in task status dropdown list;
-3, User should see button "Submit Task";
-4, The assignee of part task should be set to project owner (Previously ASDE/SQE supervisor who owned this project)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Close the part task that assigned to me</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can clear the part task once it's sub tasks(APQP/PPAP/PPQP) closed;</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -4107,23 +3976,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Create PPAP main task under a part</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Approve PPAP main task</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Close PPAP main task</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Reopen PPAP main task</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, user should be able to select "Approved" value in dropdown list in the window "Edit PPAP Main Task Information";</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -4506,131 +4363,263 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>Define the project main task as the composite task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can link sub tasks to project task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Define the part task as the composite task </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can link sub tasks to part task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refer to "Task Level Settings" in Supplier FlowCharts &amp; UX.pptx</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>US177</t>
+  </si>
+  <si>
+    <t>US178</t>
+  </si>
+  <si>
+    <t>US179</t>
+  </si>
+  <si>
+    <t>US180</t>
+  </si>
+  <si>
+    <t>US181</t>
+  </si>
+  <si>
+    <t>US182</t>
+  </si>
+  <si>
+    <t>US183</t>
+  </si>
+  <si>
+    <t>US184</t>
+  </si>
+  <si>
+    <t>US185</t>
+  </si>
+  <si>
+    <t>US186</t>
+  </si>
+  <si>
+    <t>US187</t>
+  </si>
+  <si>
+    <t>ASDE/SQE Supervisor
+ASDE/SQE
+Supplier</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Save changes I made in the task list </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can store all my inputs in the task list view</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see a clickable save icon in task toolbar;
+2, User should see a prompt message with successful or failed information after the save transaction done;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can simplify the task modification</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1, User should see default values of a project main task;
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>If no default value found from external data or a new creation of project main task, the initialization should follow the policy below:
+Request start date (current date);Request Finish date(the day after current date); Duration(auto caculated); Approver(task creator);owner(task creator);status(new);deliver date(blank);comments(blank);predecessors(blank);%complete(blank);budget days(blank);budget hrs(blank);confirm date(blank);</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initialize the task with default value</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDE/SQE Supervisor
+A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ASDE/SQE;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create PPAP main task under a part automatically if the part is firt time to deliver</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can see the PPAP main task of a part which is delivered the first time</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see the PPAP main task in task list view;
+2, User should see the PPAP main task in task tree view</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Create PPAP main task under a part manually if the part changes </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can fill PPAP main task information</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>See a pop-up floating menu when I right click on a APQP/PPAP node in the Task Tree View</t>
+  </si>
+  <si>
+    <t>I can use quick link to operate a APQP/PPAP</t>
+  </si>
+  <si>
+    <t>1, The node of APQP/PPAP in Task Tree View should be right clickable;
+2, A pop-up floating menu should be displayed beside the mouse pointer;
+3, User should be able to slide mouse pointer to the floating menu and select a menu item by left clicking;</t>
+  </si>
+  <si>
+    <t>Have privileges control on the floating menu of APQP/PPAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, ASDE/SQE supervisro should see all menu items of the floating menu of APQP/PPAP;
+2, ASDE/SQE should should see all menu items of the floating menu of APQP/PPAP;
+3, Suppliers should see only the menu items of "View Task","Import","Export","Refresh","Generate &amp; View Report"
+</t>
+  </si>
+  <si>
+    <t>Link the corresponding functions "Close APQP/PPAP task" "Reopen APQP/PPAP TASK" to the floating menu of APQP/PPAP</t>
+  </si>
+  <si>
+    <t>Proejct Hierarchy: Project --&gt; Parts --&gt;APQP/PPAP tasks</t>
+  </si>
+  <si>
+    <t>Define the APQP/PPAP main task as the composite task</t>
+  </si>
+  <si>
+    <t>I can link sub tasks to APQP/PPAP main task</t>
+  </si>
+  <si>
+    <t>Define the APQP/PPAP task as the atomic task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can link APQP/PPAP tasks to relative APQP/PPAP main task </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task List Levels: 
+Level 1 -&gt;  Project main task(parent task of part task)
+Level 2 -&gt;  Part Task(parent task of APQP/PPAP main task)
+Level 3 -&gt; APQP/PPAP main task(parent task of APQP/PPAP task)
+Level 4 -&gt; APQP/PPAPP task(atomic task)
+</t>
+  </si>
+  <si>
+    <t>I can drilldown the tasks from Project main task to APQP/PPAP tasks</t>
+  </si>
+  <si>
     <t xml:space="preserve">Task Tree Levels: 
 Level 1-&gt;  Project main task
 Level 2-&gt;  Part Task
-Level 3 -&gt; APQP/PPAP/PPQP main task
+Level 3 -&gt; APQP/PPAP main task
 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Task List Levels: 
-Level 1 -&gt;  Project main task(parent task of part task)
-Level 2 -&gt;  Part Task(parent task of APQP/PPAP/PPQP main task)
-Level 3 -&gt; APQP/PPAP/PPQP main task(parent task of APQP/PPAP/PPQP task)
-Level 4 -&gt; APQP/PPAP/PPQPP task(atomic task)
-</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Define the project main task as the composite task</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can link sub tasks to project task</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Define the part task as the composite task </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can link sub tasks to part task</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can link sub tasks to APQP/PPAP/PPQP main task</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Define the APQP/PPAP/PPQP main task as the composite task</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Define the APQP/PPAP/PPQP task as the atomic task</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">I can link APQP/PPAP/PPQP tasks to relative APQP/PPAP/PPQP main task </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Refer to "Task Level Settings" in Supplier FlowCharts &amp; UX.pptx</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>US177</t>
-  </si>
-  <si>
-    <t>US178</t>
-  </si>
-  <si>
-    <t>US179</t>
-  </si>
-  <si>
-    <t>US180</t>
-  </si>
-  <si>
-    <t>US181</t>
-  </si>
-  <si>
-    <t>US182</t>
-  </si>
-  <si>
-    <t>US183</t>
-  </si>
-  <si>
-    <t>US184</t>
-  </si>
-  <si>
-    <t>US185</t>
-  </si>
-  <si>
-    <t>US186</t>
-  </si>
-  <si>
-    <t>US187</t>
-  </si>
-  <si>
-    <t>ASDE/SQE Supervisor
-ASDE/SQE
-Supplier</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Save changes I made in the task list </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can store all my inputs in the task list view</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, User should see a clickable save icon in task toolbar;
-2, User should see a prompt message with successful or failed information after the save transaction done;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can simplify the task modification</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1, User should see default values of a project main task;
-</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>If no default value found from external data or a new creation of project main task, the initialization should follow the policy below:
-Request start date (current date);Request Finish date(the day after current date); Duration(auto caculated); Approver(task creator);owner(task creator);status(new);deliver date(blank);comments(blank);predecessors(blank);%complete(blank);budget days(blank);budget hrs(blank);confirm date(blank);</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Initialize the task with default value</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASDE/SQE Supervisor
-A</t>
+  </si>
+  <si>
+    <t>I can clear the part task once it's sub tasks(APQP/PPAP) closed;</t>
+  </si>
+  <si>
+    <t>View all APQP/PPAP main tasks</t>
+  </si>
+  <si>
+    <t>I can review and track APQP/PPAP main tasks status</t>
+  </si>
+  <si>
+    <t>1, User should see APQP/PPAP main tasks in task list view;</t>
+  </si>
+  <si>
+    <t>View all APQP/PPAP tasks</t>
+  </si>
+  <si>
+    <t>I can review and track APQP/PPAP tasks status</t>
+  </si>
+  <si>
+    <t>1, User should see APQP/PPAP tasks in task list view;</t>
+  </si>
+  <si>
+    <t>See the APQP/PPAP tasks that assigned to me</t>
+  </si>
+  <si>
+    <t>I can update APQP/PPAP information</t>
+  </si>
+  <si>
+    <t>1, User should see the APQP/PPAP tasks that assigned to him/her in task list view;</t>
+  </si>
+  <si>
+    <t>See the parent tasks(part task, Project main task,APQP/PPAP main task) of my APQP/PPAP tasks</t>
+  </si>
+  <si>
+    <t>I can drilldown the tasks from Project main task to my APQP/PPAP tasks</t>
+  </si>
+  <si>
+    <t>Receive an email once the supplier submitted his/her APQP/PPAP tasks to me</t>
+  </si>
+  <si>
+    <t>Receive an internal message once the supplier submitted his/her APQP/PPAP tasks to me</t>
+  </si>
+  <si>
+    <t>1, User should view the part task and project task which contains the APQP/PPAP/PPAP task that assigned to him/her in task list view;(read-only mode)
+2, User should view the part task and project task which contains the APQP/PPAP task that assigned to him/her in task tree view;(read-only mode)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancel APQP/PPAP inputs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save APQP/PPAP tasks information without submit</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can store my input temporaryly</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see "Save" Butotn in "Edit APQP/PPAP Task Information" form;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customize the visiblity of columns of my task list view</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can see the columns that I required</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, Uesr should be able to adjust the columns of the task list view to show the columns that he/she is care of using the task toolbar;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project Management - Task toolbar</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>As a user, I want to operate the tasks using a task toolbar in the task list view, so that I can easyly update the task inforamtion in single form</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -4789,7 +4778,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4883,6 +4872,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5037,7 +5032,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5356,21 +5351,6 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5394,6 +5374,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5928,25 +5926,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="131" t="s">
         <v>563</v>
       </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
       <c r="I2" s="98"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="125"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
       <c r="I3" s="99" t="s">
         <v>557</v>
       </c>
@@ -6012,11 +6010,11 @@
       </c>
       <c r="C6" s="99">
         <f>COUNTIF('Project Management'!J:J,"Critical")</f>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="99">
         <f>COUNTIF('Project Management'!J:J,"Very High")</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" s="99">
         <f>COUNTIF('Project Management'!J:J,"High")</f>
@@ -6243,11 +6241,11 @@
       </c>
       <c r="C13" s="99">
         <f>SUM(C5:C12)</f>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="99">
         <f t="shared" ref="D13:H13" si="1">SUM(D5:D12)</f>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E13" s="99">
         <f t="shared" si="1"/>
@@ -6271,16 +6269,16 @@
       <c r="B14" s="102" t="s">
         <v>559</v>
       </c>
-      <c r="C14" s="122">
+      <c r="C14" s="130">
         <f>SUM(C13:H13)</f>
         <v>186</v>
       </c>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="122"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8373,13 +8371,13 @@
         <v>3.4</v>
       </c>
       <c r="B36" s="113" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C36" s="113" t="s">
         <v>75</v>
       </c>
       <c r="D36" s="114" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="E36" s="75"/>
     </row>
@@ -8418,7 +8416,7 @@
         <v>3.7</v>
       </c>
       <c r="B39" s="107" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C39" s="107" t="s">
         <v>75</v>
@@ -8431,7 +8429,7 @@
         <v>3.8</v>
       </c>
       <c r="B40" s="73" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C40" s="73" t="s">
         <v>75</v>
@@ -8446,7 +8444,7 @@
         <v>3.9</v>
       </c>
       <c r="B41" s="73" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C41" s="73" t="s">
         <v>75</v>
@@ -8459,7 +8457,7 @@
         <v>512</v>
       </c>
       <c r="B42" s="110" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C42" s="110" t="s">
         <v>75</v>
@@ -8517,7 +8515,7 @@
         <v>515</v>
       </c>
       <c r="B46" s="110" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C46" s="110" t="s">
         <v>75</v>
@@ -12874,11 +12872,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W191"/>
+  <dimension ref="A1:W192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F121" sqref="F121"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12890,8 +12888,8 @@
     <col min="5" max="5" width="20" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.875" style="16" customWidth="1"/>
     <col min="7" max="7" width="27.375" style="16" customWidth="1"/>
-    <col min="8" max="8" width="51.75" style="134" customWidth="1"/>
-    <col min="9" max="9" width="54.375" style="134" customWidth="1"/>
+    <col min="8" max="8" width="51.75" style="129" customWidth="1"/>
+    <col min="9" max="9" width="54.375" style="129" customWidth="1"/>
     <col min="10" max="10" width="9.5" style="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" style="16" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.25" style="16" bestFit="1" customWidth="1"/>
@@ -12918,8 +12916,8 @@
         <v>53</v>
       </c>
       <c r="G1" s="35"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
       <c r="J1" s="35"/>
       <c r="K1" s="35"/>
       <c r="L1" s="49"/>
@@ -12959,10 +12957,10 @@
       <c r="G2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="129" t="s">
+      <c r="I2" s="124" t="s">
         <v>62</v>
       </c>
       <c r="J2" s="14" t="s">
@@ -13010,10 +13008,10 @@
     </row>
     <row r="3" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>852</v>
+        <v>839</v>
       </c>
       <c r="B3" s="119" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>595</v>
@@ -13025,16 +13023,16 @@
         <v>499</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>748</v>
-      </c>
-      <c r="H3" s="131" t="s">
-        <v>862</v>
-      </c>
-      <c r="I3" s="130" t="s">
-        <v>750</v>
+        <v>740</v>
+      </c>
+      <c r="H3" s="126" t="s">
+        <v>849</v>
+      </c>
+      <c r="I3" s="125" t="s">
+        <v>742</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>43</v>
@@ -13057,10 +13055,10 @@
     </row>
     <row r="4" spans="1:23" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>853</v>
+        <v>840</v>
       </c>
       <c r="B4" s="119" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>595</v>
@@ -13072,15 +13070,15 @@
         <v>499</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="H4" s="131" t="s">
-        <v>769</v>
-      </c>
-      <c r="I4" s="130"/>
+        <v>759</v>
+      </c>
+      <c r="H4" s="126" t="s">
+        <v>760</v>
+      </c>
+      <c r="I4" s="125"/>
       <c r="J4" s="4" t="s">
         <v>43</v>
       </c>
@@ -13105,7 +13103,7 @@
         <v>255</v>
       </c>
       <c r="B5" s="119" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>595</v>
@@ -13117,15 +13115,15 @@
         <v>499</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="H5" s="131" t="s">
-        <v>756</v>
-      </c>
-      <c r="I5" s="130"/>
+        <v>746</v>
+      </c>
+      <c r="H5" s="126" t="s">
+        <v>747</v>
+      </c>
+      <c r="I5" s="125"/>
       <c r="J5" s="4" t="s">
         <v>43</v>
       </c>
@@ -13150,7 +13148,7 @@
         <v>256</v>
       </c>
       <c r="B6" s="119" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>595</v>
@@ -13162,16 +13160,16 @@
         <v>499</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>863</v>
+        <v>850</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>749</v>
-      </c>
-      <c r="H6" s="131" t="s">
-        <v>864</v>
-      </c>
-      <c r="I6" s="130" t="s">
-        <v>751</v>
+        <v>741</v>
+      </c>
+      <c r="H6" s="126" t="s">
+        <v>851</v>
+      </c>
+      <c r="I6" s="125" t="s">
+        <v>743</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>43</v>
@@ -13197,7 +13195,7 @@
         <v>257</v>
       </c>
       <c r="B7" s="119" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>595</v>
@@ -13209,15 +13207,15 @@
         <v>499</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="H7" s="131" t="s">
-        <v>780</v>
-      </c>
-      <c r="I7" s="130"/>
+        <v>746</v>
+      </c>
+      <c r="H7" s="126" t="s">
+        <v>770</v>
+      </c>
+      <c r="I7" s="125"/>
       <c r="J7" s="4" t="s">
         <v>43</v>
       </c>
@@ -13254,15 +13252,15 @@
         <v>499</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>758</v>
-      </c>
-      <c r="H8" s="131" t="s">
-        <v>759</v>
-      </c>
-      <c r="I8" s="130"/>
+        <v>749</v>
+      </c>
+      <c r="H8" s="126" t="s">
+        <v>750</v>
+      </c>
+      <c r="I8" s="125"/>
       <c r="J8" s="4" t="s">
         <v>44</v>
       </c>
@@ -13287,7 +13285,7 @@
         <v>259</v>
       </c>
       <c r="B9" s="119" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>595</v>
@@ -13299,16 +13297,16 @@
         <v>499</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>865</v>
+        <v>1086</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>752</v>
-      </c>
-      <c r="H9" s="131" t="s">
-        <v>866</v>
-      </c>
-      <c r="I9" s="130" t="s">
-        <v>753</v>
+        <v>1087</v>
+      </c>
+      <c r="H9" s="126" t="s">
+        <v>1088</v>
+      </c>
+      <c r="I9" s="125" t="s">
+        <v>744</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>43</v>
@@ -13334,7 +13332,7 @@
         <v>260</v>
       </c>
       <c r="B10" s="119" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>595</v>
@@ -13343,18 +13341,18 @@
         <v>497</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>779</v>
+        <v>1089</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="H10" s="131" t="s">
-        <v>781</v>
-      </c>
-      <c r="I10" s="130"/>
+        <v>746</v>
+      </c>
+      <c r="H10" s="126" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I10" s="125"/>
       <c r="J10" s="4" t="s">
         <v>45</v>
       </c>
@@ -13379,7 +13377,7 @@
         <v>261</v>
       </c>
       <c r="B11" s="119" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>595</v>
@@ -13388,18 +13386,18 @@
         <v>497</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>790</v>
+        <v>1091</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>758</v>
-      </c>
-      <c r="H11" s="131" t="s">
-        <v>759</v>
-      </c>
-      <c r="I11" s="131"/>
+        <v>749</v>
+      </c>
+      <c r="H11" s="126" t="s">
+        <v>750</v>
+      </c>
+      <c r="I11" s="126"/>
       <c r="J11" s="4" t="s">
         <v>46</v>
       </c>
@@ -13423,28 +13421,28 @@
       <c r="A12" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B12" s="127" t="s">
-        <v>1027</v>
+      <c r="B12" s="122" t="s">
+        <v>992</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1028</v>
+        <v>993</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1029</v>
+        <v>994</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>1030</v>
+        <v>995</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>1031</v>
+        <v>996</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>1032</v>
-      </c>
-      <c r="H12" s="131" t="s">
-        <v>1033</v>
-      </c>
-      <c r="I12" s="131"/>
+        <v>997</v>
+      </c>
+      <c r="H12" s="126" t="s">
+        <v>998</v>
+      </c>
+      <c r="I12" s="126"/>
       <c r="J12" s="4" t="s">
         <v>45</v>
       </c>
@@ -13468,28 +13466,28 @@
       <c r="A13" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B13" s="127" t="s">
-        <v>1027</v>
+      <c r="B13" s="122" t="s">
+        <v>992</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1028</v>
+        <v>993</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1029</v>
+        <v>994</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>1030</v>
+        <v>995</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>1034</v>
+        <v>999</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>1035</v>
-      </c>
-      <c r="H13" s="131" t="s">
-        <v>1036</v>
-      </c>
-      <c r="I13" s="131"/>
+        <v>1000</v>
+      </c>
+      <c r="H13" s="126" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I13" s="126"/>
       <c r="J13" s="4" t="s">
         <v>45</v>
       </c>
@@ -13513,28 +13511,28 @@
       <c r="A14" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="B14" s="127" t="s">
-        <v>1027</v>
+      <c r="B14" s="122" t="s">
+        <v>992</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1028</v>
+        <v>993</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1029</v>
+        <v>994</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>1030</v>
+        <v>995</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>1038</v>
+        <v>1003</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>1037</v>
-      </c>
-      <c r="H14" s="131" t="s">
-        <v>1039</v>
-      </c>
-      <c r="I14" s="131"/>
+        <v>1002</v>
+      </c>
+      <c r="H14" s="126" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I14" s="126"/>
       <c r="J14" s="4" t="s">
         <v>45</v>
       </c>
@@ -13558,29 +13556,29 @@
       <c r="A15" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="B15" s="127" t="s">
-        <v>1027</v>
+      <c r="B15" s="122" t="s">
+        <v>992</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1028</v>
+        <v>993</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1029</v>
+        <v>994</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>1030</v>
+        <v>995</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>1040</v>
+        <v>1005</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>1041</v>
-      </c>
-      <c r="H15" s="131" t="s">
-        <v>1042</v>
-      </c>
-      <c r="I15" s="131" t="s">
-        <v>1043</v>
+        <v>1006</v>
+      </c>
+      <c r="H15" s="126" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I15" s="126" t="s">
+        <v>1008</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>45</v>
@@ -13606,7 +13604,7 @@
         <v>272</v>
       </c>
       <c r="B16" s="118" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>500</v>
@@ -13618,15 +13616,15 @@
         <v>499</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>869</v>
+        <v>854</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>860</v>
-      </c>
-      <c r="H16" s="131" t="s">
-        <v>883</v>
-      </c>
-      <c r="I16" s="132"/>
+        <v>847</v>
+      </c>
+      <c r="H16" s="126" t="s">
+        <v>868</v>
+      </c>
+      <c r="I16" s="127"/>
       <c r="J16" s="4" t="s">
         <v>44</v>
       </c>
@@ -13651,7 +13649,7 @@
         <v>279</v>
       </c>
       <c r="B17" s="118" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>500</v>
@@ -13663,15 +13661,15 @@
         <v>499</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>870</v>
+        <v>855</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>868</v>
-      </c>
-      <c r="H17" s="131" t="s">
-        <v>882</v>
-      </c>
-      <c r="I17" s="132"/>
+        <v>853</v>
+      </c>
+      <c r="H17" s="126" t="s">
+        <v>867</v>
+      </c>
+      <c r="I17" s="127"/>
       <c r="J17" s="4" t="s">
         <v>44</v>
       </c>
@@ -13696,7 +13694,7 @@
         <v>280</v>
       </c>
       <c r="B18" s="118" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>500</v>
@@ -13708,16 +13706,16 @@
         <v>499</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>877</v>
+        <v>862</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>871</v>
-      </c>
-      <c r="H18" s="131" t="s">
-        <v>878</v>
-      </c>
-      <c r="I18" s="132" t="s">
-        <v>686</v>
+        <v>856</v>
+      </c>
+      <c r="H18" s="126" t="s">
+        <v>863</v>
+      </c>
+      <c r="I18" s="127" t="s">
+        <v>1092</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>44</v>
@@ -13743,7 +13741,7 @@
         <v>291</v>
       </c>
       <c r="B19" s="118" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>500</v>
@@ -13755,15 +13753,15 @@
         <v>499</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>875</v>
+        <v>860</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="H19" s="131" t="s">
+      <c r="H19" s="126" t="s">
         <v>593</v>
       </c>
-      <c r="I19" s="132" t="s">
+      <c r="I19" s="127" t="s">
         <v>594</v>
       </c>
       <c r="J19" s="4" t="s">
@@ -13790,7 +13788,7 @@
         <v>296</v>
       </c>
       <c r="B20" s="118" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>500</v>
@@ -13799,18 +13797,18 @@
         <v>497</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>880</v>
+        <v>865</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>757</v>
-      </c>
-      <c r="H20" s="131" t="s">
-        <v>881</v>
-      </c>
-      <c r="I20" s="130"/>
+        <v>748</v>
+      </c>
+      <c r="H20" s="126" t="s">
+        <v>866</v>
+      </c>
+      <c r="I20" s="125"/>
       <c r="J20" s="4" t="s">
         <v>43</v>
       </c>
@@ -13835,7 +13833,7 @@
         <v>301</v>
       </c>
       <c r="B21" s="118" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>500</v>
@@ -13847,15 +13845,15 @@
         <v>499</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>879</v>
+        <v>864</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="H21" s="131" t="s">
-        <v>876</v>
-      </c>
-      <c r="I21" s="132"/>
+      <c r="H21" s="126" t="s">
+        <v>861</v>
+      </c>
+      <c r="I21" s="127"/>
       <c r="J21" s="4" t="s">
         <v>44</v>
       </c>
@@ -13880,7 +13878,7 @@
         <v>307</v>
       </c>
       <c r="B22" s="118" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>500</v>
@@ -13892,15 +13890,15 @@
         <v>499</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>872</v>
+        <v>857</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="H22" s="131" t="s">
-        <v>873</v>
-      </c>
-      <c r="I22" s="132" t="s">
+      <c r="H22" s="126" t="s">
+        <v>858</v>
+      </c>
+      <c r="I22" s="127" t="s">
         <v>502</v>
       </c>
       <c r="J22" s="4" t="s">
@@ -13927,10 +13925,10 @@
         <v>311</v>
       </c>
       <c r="B23" s="118" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>838</v>
+        <v>825</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>497</v>
@@ -13939,15 +13937,15 @@
         <v>499</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>837</v>
+        <v>824</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="H23" s="131" t="s">
+      <c r="H23" s="126" t="s">
         <v>508</v>
       </c>
-      <c r="I23" s="131"/>
+      <c r="I23" s="126"/>
       <c r="J23" s="4" t="s">
         <v>44</v>
       </c>
@@ -13972,10 +13970,10 @@
         <v>315</v>
       </c>
       <c r="B24" s="118" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>838</v>
+        <v>825</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>497</v>
@@ -13989,10 +13987,10 @@
       <c r="G24" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="H24" s="131" t="s">
+      <c r="H24" s="126" t="s">
         <v>506</v>
       </c>
-      <c r="I24" s="131"/>
+      <c r="I24" s="126"/>
       <c r="J24" s="4" t="s">
         <v>44</v>
       </c>
@@ -14017,7 +14015,7 @@
         <v>321</v>
       </c>
       <c r="B25" s="118" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>500</v>
@@ -14034,10 +14032,10 @@
       <c r="G25" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="H25" s="131" t="s">
+      <c r="H25" s="126" t="s">
         <v>509</v>
       </c>
-      <c r="I25" s="131"/>
+      <c r="I25" s="126"/>
       <c r="J25" s="4" t="s">
         <v>44</v>
       </c>
@@ -14062,7 +14060,7 @@
         <v>325</v>
       </c>
       <c r="B26" s="118" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>500</v>
@@ -14079,10 +14077,10 @@
       <c r="G26" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="H26" s="131" t="s">
+      <c r="H26" s="126" t="s">
         <v>510</v>
       </c>
-      <c r="I26" s="131"/>
+      <c r="I26" s="126"/>
       <c r="J26" s="4" t="s">
         <v>44</v>
       </c>
@@ -14107,7 +14105,7 @@
         <v>353</v>
       </c>
       <c r="B27" s="118" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>500</v>
@@ -14122,12 +14120,12 @@
         <v>536</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>847</v>
-      </c>
-      <c r="H27" s="131" t="s">
+        <v>834</v>
+      </c>
+      <c r="H27" s="126" t="s">
         <v>537</v>
       </c>
-      <c r="I27" s="131" t="s">
+      <c r="I27" s="126" t="s">
         <v>538</v>
       </c>
       <c r="J27" s="4" t="s">
@@ -14154,7 +14152,7 @@
         <v>354</v>
       </c>
       <c r="B28" s="118" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>500</v>
@@ -14171,10 +14169,10 @@
       <c r="G28" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="H28" s="131" t="s">
+      <c r="H28" s="126" t="s">
         <v>598</v>
       </c>
-      <c r="I28" s="131"/>
+      <c r="I28" s="126"/>
       <c r="J28" s="4" t="s">
         <v>44</v>
       </c>
@@ -14199,10 +14197,10 @@
         <v>535</v>
       </c>
       <c r="B29" s="118" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>839</v>
+        <v>826</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>497</v>
@@ -14216,10 +14214,10 @@
       <c r="G29" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="H29" s="131" t="s">
+      <c r="H29" s="126" t="s">
         <v>566</v>
       </c>
-      <c r="I29" s="131"/>
+      <c r="I29" s="126"/>
       <c r="J29" s="4" t="s">
         <v>45</v>
       </c>
@@ -14244,10 +14242,10 @@
         <v>364</v>
       </c>
       <c r="B30" s="118" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>839</v>
+        <v>826</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>497</v>
@@ -14261,10 +14259,10 @@
       <c r="G30" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="H30" s="131" t="s">
+      <c r="H30" s="126" t="s">
         <v>580</v>
       </c>
-      <c r="I30" s="130" t="s">
+      <c r="I30" s="125" t="s">
         <v>579</v>
       </c>
       <c r="J30" s="4" t="s">
@@ -14291,10 +14289,10 @@
         <v>368</v>
       </c>
       <c r="B31" s="118" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>839</v>
+        <v>826</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>497</v>
@@ -14308,10 +14306,10 @@
       <c r="G31" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="H31" s="131" t="s">
+      <c r="H31" s="126" t="s">
         <v>583</v>
       </c>
-      <c r="I31" s="131" t="s">
+      <c r="I31" s="126" t="s">
         <v>584</v>
       </c>
       <c r="J31" s="4" t="s">
@@ -14338,10 +14336,10 @@
         <v>372</v>
       </c>
       <c r="B32" s="118" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>839</v>
+        <v>826</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>497</v>
@@ -14355,10 +14353,10 @@
       <c r="G32" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="H32" s="131" t="s">
+      <c r="H32" s="126" t="s">
         <v>586</v>
       </c>
-      <c r="I32" s="131" t="s">
+      <c r="I32" s="126" t="s">
         <v>585</v>
       </c>
       <c r="J32" s="4" t="s">
@@ -14385,10 +14383,10 @@
         <v>376</v>
       </c>
       <c r="B33" s="118" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>839</v>
+        <v>826</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>497</v>
@@ -14402,10 +14400,10 @@
       <c r="G33" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="H33" s="131" t="s">
+      <c r="H33" s="126" t="s">
         <v>589</v>
       </c>
-      <c r="I33" s="131"/>
+      <c r="I33" s="126"/>
       <c r="J33" s="4" t="s">
         <v>45</v>
       </c>
@@ -14430,10 +14428,10 @@
         <v>380</v>
       </c>
       <c r="B34" s="118" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>497</v>
@@ -14442,16 +14440,16 @@
         <v>499</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>690</v>
-      </c>
-      <c r="H34" s="131" t="s">
-        <v>691</v>
-      </c>
-      <c r="I34" s="130" t="s">
-        <v>703</v>
+        <v>686</v>
+      </c>
+      <c r="H34" s="126" t="s">
+        <v>687</v>
+      </c>
+      <c r="I34" s="125" t="s">
+        <v>699</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>14</v>
@@ -14477,10 +14475,10 @@
         <v>384</v>
       </c>
       <c r="B35" s="118" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>497</v>
@@ -14489,15 +14487,15 @@
         <v>499</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>693</v>
-      </c>
-      <c r="H35" s="131" t="s">
-        <v>694</v>
-      </c>
-      <c r="I35" s="130"/>
+        <v>689</v>
+      </c>
+      <c r="H35" s="126" t="s">
+        <v>690</v>
+      </c>
+      <c r="I35" s="125"/>
       <c r="J35" s="4" t="s">
         <v>14</v>
       </c>
@@ -14522,10 +14520,10 @@
         <v>388</v>
       </c>
       <c r="B36" s="118" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>497</v>
@@ -14534,15 +14532,15 @@
         <v>499</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="H36" s="131" t="s">
-        <v>700</v>
-      </c>
-      <c r="I36" s="131"/>
+        <v>695</v>
+      </c>
+      <c r="H36" s="126" t="s">
+        <v>696</v>
+      </c>
+      <c r="I36" s="126"/>
       <c r="J36" s="4" t="s">
         <v>14</v>
       </c>
@@ -14567,10 +14565,10 @@
         <v>392</v>
       </c>
       <c r="B37" s="118" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>497</v>
@@ -14579,15 +14577,15 @@
         <v>499</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>704</v>
-      </c>
-      <c r="H37" s="131" t="s">
-        <v>702</v>
-      </c>
-      <c r="I37" s="131"/>
+        <v>700</v>
+      </c>
+      <c r="H37" s="126" t="s">
+        <v>698</v>
+      </c>
+      <c r="I37" s="126"/>
       <c r="J37" s="4" t="s">
         <v>14</v>
       </c>
@@ -14612,7 +14610,7 @@
         <v>396</v>
       </c>
       <c r="B38" s="118" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>500</v>
@@ -14624,15 +14622,15 @@
         <v>499</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>696</v>
-      </c>
-      <c r="H38" s="131" t="s">
-        <v>697</v>
-      </c>
-      <c r="I38" s="131"/>
+        <v>692</v>
+      </c>
+      <c r="H38" s="126" t="s">
+        <v>693</v>
+      </c>
+      <c r="I38" s="126"/>
       <c r="J38" s="4" t="s">
         <v>14</v>
       </c>
@@ -14657,10 +14655,10 @@
         <v>401</v>
       </c>
       <c r="B39" s="118" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>497</v>
@@ -14669,15 +14667,15 @@
         <v>499</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>706</v>
-      </c>
-      <c r="H39" s="131" t="s">
-        <v>707</v>
-      </c>
-      <c r="I39" s="131"/>
+        <v>702</v>
+      </c>
+      <c r="H39" s="126" t="s">
+        <v>703</v>
+      </c>
+      <c r="I39" s="126"/>
       <c r="J39" s="4" t="s">
         <v>14</v>
       </c>
@@ -14702,7 +14700,7 @@
         <v>405</v>
       </c>
       <c r="B40" s="118" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>500</v>
@@ -14714,15 +14712,15 @@
         <v>597</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>917</v>
-      </c>
-      <c r="H40" s="131" t="s">
-        <v>859</v>
-      </c>
-      <c r="I40" s="131" t="s">
+        <v>899</v>
+      </c>
+      <c r="H40" s="126" t="s">
+        <v>846</v>
+      </c>
+      <c r="I40" s="126" t="s">
         <v>599</v>
       </c>
       <c r="J40" s="4" t="s">
@@ -14749,7 +14747,7 @@
         <v>409</v>
       </c>
       <c r="B41" s="118" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>500</v>
@@ -14764,12 +14762,12 @@
         <v>600</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>917</v>
-      </c>
-      <c r="H41" s="131" t="s">
-        <v>851</v>
-      </c>
-      <c r="I41" s="131"/>
+        <v>899</v>
+      </c>
+      <c r="H41" s="126" t="s">
+        <v>838</v>
+      </c>
+      <c r="I41" s="126"/>
       <c r="J41" s="4" t="s">
         <v>43</v>
       </c>
@@ -14794,7 +14792,7 @@
         <v>412</v>
       </c>
       <c r="B42" s="118" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>500</v>
@@ -14811,10 +14809,10 @@
       <c r="G42" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="H42" s="131" t="s">
+      <c r="H42" s="126" t="s">
         <v>562</v>
       </c>
-      <c r="I42" s="131"/>
+      <c r="I42" s="126"/>
       <c r="J42" s="4" t="s">
         <v>45</v>
       </c>
@@ -14839,10 +14837,10 @@
         <v>417</v>
       </c>
       <c r="B43" s="118" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
       <c r="D43" s="40" t="s">
         <v>497</v>
@@ -14851,15 +14849,15 @@
         <v>499</v>
       </c>
       <c r="F43" s="40" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="G43" s="40" t="s">
-        <v>709</v>
-      </c>
-      <c r="H43" s="130" t="s">
-        <v>710</v>
-      </c>
-      <c r="I43" s="131"/>
+        <v>705</v>
+      </c>
+      <c r="H43" s="125" t="s">
+        <v>706</v>
+      </c>
+      <c r="I43" s="126"/>
       <c r="J43" s="4" t="s">
         <v>46</v>
       </c>
@@ -14884,10 +14882,10 @@
         <v>421</v>
       </c>
       <c r="B44" s="120" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>497</v>
@@ -14896,15 +14894,15 @@
         <v>499</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>762</v>
-      </c>
-      <c r="H44" s="131" t="s">
-        <v>867</v>
-      </c>
-      <c r="I44" s="130"/>
+        <v>753</v>
+      </c>
+      <c r="H44" s="126" t="s">
+        <v>852</v>
+      </c>
+      <c r="I44" s="125"/>
       <c r="J44" s="4" t="s">
         <v>14</v>
       </c>
@@ -14929,10 +14927,10 @@
         <v>425</v>
       </c>
       <c r="B45" s="120" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>497</v>
@@ -14941,15 +14939,15 @@
         <v>499</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="H45" s="131" t="s">
-        <v>765</v>
-      </c>
-      <c r="I45" s="130"/>
+        <v>755</v>
+      </c>
+      <c r="H45" s="126" t="s">
+        <v>756</v>
+      </c>
+      <c r="I45" s="125"/>
       <c r="J45" s="4" t="s">
         <v>14</v>
       </c>
@@ -14974,10 +14972,10 @@
         <v>428</v>
       </c>
       <c r="B46" s="120" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>497</v>
@@ -14989,12 +14987,12 @@
         <v>521</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>1048</v>
-      </c>
-      <c r="H46" s="131" t="s">
-        <v>1051</v>
-      </c>
-      <c r="I46" s="131" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H46" s="126" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I46" s="126" t="s">
         <v>619</v>
       </c>
       <c r="J46" s="4" t="s">
@@ -15021,10 +15019,10 @@
         <v>433</v>
       </c>
       <c r="B47" s="120" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>497</v>
@@ -15038,10 +15036,10 @@
       <c r="G47" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="H47" s="131" t="s">
-        <v>1052</v>
-      </c>
-      <c r="I47" s="131" t="s">
+      <c r="H47" s="126" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I47" s="126" t="s">
         <v>524</v>
       </c>
       <c r="J47" s="4" t="s">
@@ -15068,10 +15066,10 @@
         <v>439</v>
       </c>
       <c r="B48" s="120" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>497</v>
@@ -15080,15 +15078,15 @@
         <v>499</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>1049</v>
+        <v>1014</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H48" s="131" t="s">
-        <v>1053</v>
-      </c>
-      <c r="I48" s="131"/>
+        <v>1015</v>
+      </c>
+      <c r="H48" s="126" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I48" s="126"/>
       <c r="J48" s="4" t="s">
         <v>14</v>
       </c>
@@ -15113,10 +15111,10 @@
         <v>445</v>
       </c>
       <c r="B49" s="120" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>497</v>
@@ -15125,15 +15123,15 @@
         <v>499</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>1055</v>
+        <v>1020</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>1054</v>
-      </c>
-      <c r="H49" s="131" t="s">
-        <v>1056</v>
-      </c>
-      <c r="I49" s="131"/>
+        <v>1019</v>
+      </c>
+      <c r="H49" s="126" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I49" s="126"/>
       <c r="J49" s="4" t="s">
         <v>14</v>
       </c>
@@ -15158,10 +15156,10 @@
         <v>446</v>
       </c>
       <c r="B50" s="120" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>497</v>
@@ -15170,15 +15168,15 @@
         <v>499</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>884</v>
+        <v>869</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>874</v>
-      </c>
-      <c r="H50" s="131" t="s">
-        <v>885</v>
-      </c>
-      <c r="I50" s="131"/>
+        <v>859</v>
+      </c>
+      <c r="H50" s="126" t="s">
+        <v>870</v>
+      </c>
+      <c r="I50" s="126"/>
       <c r="J50" s="4" t="s">
         <v>44</v>
       </c>
@@ -15203,10 +15201,10 @@
         <v>453</v>
       </c>
       <c r="B51" s="120" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>596</v>
@@ -15215,15 +15213,15 @@
         <v>597</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>846</v>
+        <v>833</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>848</v>
-      </c>
-      <c r="H51" s="131" t="s">
-        <v>849</v>
-      </c>
-      <c r="I51" s="131"/>
+        <v>835</v>
+      </c>
+      <c r="H51" s="126" t="s">
+        <v>836</v>
+      </c>
+      <c r="I51" s="126"/>
       <c r="J51" s="4" t="s">
         <v>43</v>
       </c>
@@ -15248,10 +15246,10 @@
         <v>457</v>
       </c>
       <c r="B52" s="120" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>596</v>
@@ -15265,10 +15263,10 @@
       <c r="G52" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="H52" s="130" t="s">
+      <c r="H52" s="125" t="s">
         <v>608</v>
       </c>
-      <c r="I52" s="131"/>
+      <c r="I52" s="126"/>
       <c r="J52" s="4" t="s">
         <v>14</v>
       </c>
@@ -15293,10 +15291,10 @@
         <v>462</v>
       </c>
       <c r="B53" s="120" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>497</v>
@@ -15305,15 +15303,15 @@
         <v>499</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>817</v>
+        <v>805</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="H53" s="131" t="s">
-        <v>819</v>
-      </c>
-      <c r="I53" s="131"/>
+        <v>806</v>
+      </c>
+      <c r="H53" s="126" t="s">
+        <v>807</v>
+      </c>
+      <c r="I53" s="126"/>
       <c r="J53" s="4" t="s">
         <v>44</v>
       </c>
@@ -15338,10 +15336,10 @@
         <v>466</v>
       </c>
       <c r="B54" s="120" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>596</v>
@@ -15355,10 +15353,10 @@
       <c r="G54" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="H54" s="131" t="s">
+      <c r="H54" s="126" t="s">
         <v>607</v>
       </c>
-      <c r="I54" s="131" t="s">
+      <c r="I54" s="126" t="s">
         <v>606</v>
       </c>
       <c r="J54" s="4" t="s">
@@ -15385,7 +15383,7 @@
         <v>469</v>
       </c>
       <c r="B55" s="120" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>595</v>
@@ -15394,18 +15392,18 @@
         <v>497</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>842</v>
+        <v>829</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>774</v>
-      </c>
-      <c r="H55" s="131" t="s">
-        <v>775</v>
-      </c>
-      <c r="I55" s="130"/>
+        <v>765</v>
+      </c>
+      <c r="H55" s="126" t="s">
+        <v>766</v>
+      </c>
+      <c r="I55" s="125"/>
       <c r="J55" s="4" t="s">
         <v>46</v>
       </c>
@@ -15430,27 +15428,27 @@
         <v>474</v>
       </c>
       <c r="B56" s="120" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>596</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="H56" s="131" t="s">
-        <v>685</v>
-      </c>
-      <c r="I56" s="131"/>
+        <v>681</v>
+      </c>
+      <c r="H56" s="126" t="s">
+        <v>682</v>
+      </c>
+      <c r="I56" s="126"/>
       <c r="J56" s="4" t="s">
         <v>45</v>
       </c>
@@ -15475,10 +15473,10 @@
         <v>477</v>
       </c>
       <c r="B57" s="120" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>497</v>
@@ -15487,15 +15485,15 @@
         <v>499</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="H57" s="131" t="s">
+      <c r="H57" s="126" t="s">
         <v>609</v>
       </c>
-      <c r="I57" s="131"/>
+      <c r="I57" s="126"/>
       <c r="J57" s="4" t="s">
         <v>44</v>
       </c>
@@ -15520,10 +15518,10 @@
         <v>480</v>
       </c>
       <c r="B58" s="120" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>497</v>
@@ -15537,10 +15535,10 @@
       <c r="G58" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="H58" s="131" t="s">
+      <c r="H58" s="126" t="s">
         <v>610</v>
       </c>
-      <c r="I58" s="131"/>
+      <c r="I58" s="126"/>
       <c r="J58" s="4" t="s">
         <v>44</v>
       </c>
@@ -15565,10 +15563,10 @@
         <v>484</v>
       </c>
       <c r="B59" s="120" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>497</v>
@@ -15582,10 +15580,10 @@
       <c r="G59" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="H59" s="131" t="s">
+      <c r="H59" s="126" t="s">
         <v>614</v>
       </c>
-      <c r="I59" s="131"/>
+      <c r="I59" s="126"/>
       <c r="J59" s="4" t="s">
         <v>14</v>
       </c>
@@ -15610,10 +15608,10 @@
         <v>620</v>
       </c>
       <c r="B60" s="120" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>497</v>
@@ -15627,10 +15625,10 @@
       <c r="G60" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="H60" s="131" t="s">
+      <c r="H60" s="126" t="s">
         <v>611</v>
       </c>
-      <c r="I60" s="131"/>
+      <c r="I60" s="126"/>
       <c r="J60" s="4" t="s">
         <v>44</v>
       </c>
@@ -15655,10 +15653,10 @@
         <v>621</v>
       </c>
       <c r="B61" s="120" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>497</v>
@@ -15672,10 +15670,10 @@
       <c r="G61" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="H61" s="131" t="s">
+      <c r="H61" s="126" t="s">
         <v>618</v>
       </c>
-      <c r="I61" s="131"/>
+      <c r="I61" s="126"/>
       <c r="J61" s="4" t="s">
         <v>14</v>
       </c>
@@ -15700,10 +15698,10 @@
         <v>622</v>
       </c>
       <c r="B62" s="120" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>497</v>
@@ -15717,10 +15715,10 @@
       <c r="G62" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="H62" s="131" t="s">
+      <c r="H62" s="126" t="s">
         <v>612</v>
       </c>
-      <c r="I62" s="131"/>
+      <c r="I62" s="126"/>
       <c r="J62" s="4" t="s">
         <v>44</v>
       </c>
@@ -15745,10 +15743,10 @@
         <v>623</v>
       </c>
       <c r="B63" s="120" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>497</v>
@@ -15757,15 +15755,15 @@
         <v>499</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>834</v>
+        <v>821</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="H63" s="130" t="s">
+      <c r="H63" s="125" t="s">
         <v>530</v>
       </c>
-      <c r="I63" s="131"/>
+      <c r="I63" s="126"/>
       <c r="J63" s="4" t="s">
         <v>44</v>
       </c>
@@ -15790,10 +15788,10 @@
         <v>624</v>
       </c>
       <c r="B64" s="120" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>497</v>
@@ -15802,15 +15800,15 @@
         <v>499</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="H64" s="131" t="s">
+      <c r="H64" s="126" t="s">
         <v>568</v>
       </c>
-      <c r="I64" s="131"/>
+      <c r="I64" s="126"/>
       <c r="J64" s="4" t="s">
         <v>44</v>
       </c>
@@ -15835,10 +15833,10 @@
         <v>625</v>
       </c>
       <c r="B65" s="120" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>497</v>
@@ -15852,10 +15850,10 @@
       <c r="G65" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="H65" s="131" t="s">
+      <c r="H65" s="126" t="s">
         <v>573</v>
       </c>
-      <c r="I65" s="131"/>
+      <c r="I65" s="126"/>
       <c r="J65" s="4" t="s">
         <v>44</v>
       </c>
@@ -15880,10 +15878,10 @@
         <v>626</v>
       </c>
       <c r="B66" s="120" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>497</v>
@@ -15897,10 +15895,10 @@
       <c r="G66" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="H66" s="131" t="s">
+      <c r="H66" s="126" t="s">
         <v>574</v>
       </c>
-      <c r="I66" s="131"/>
+      <c r="I66" s="126"/>
       <c r="J66" s="4" t="s">
         <v>44</v>
       </c>
@@ -15925,10 +15923,10 @@
         <v>627</v>
       </c>
       <c r="B67" s="120" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>596</v>
@@ -15940,12 +15938,12 @@
         <v>601</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>816</v>
-      </c>
-      <c r="H67" s="131" t="s">
-        <v>850</v>
-      </c>
-      <c r="I67" s="131"/>
+        <v>804</v>
+      </c>
+      <c r="H67" s="126" t="s">
+        <v>837</v>
+      </c>
+      <c r="I67" s="126"/>
       <c r="J67" s="4" t="s">
         <v>44</v>
       </c>
@@ -15967,13 +15965,13 @@
     </row>
     <row r="68" spans="1:23" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
-        <v>1008</v>
+        <v>973</v>
       </c>
       <c r="B68" s="120" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>497</v>
@@ -15982,15 +15980,15 @@
         <v>499</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>776</v>
-      </c>
-      <c r="H68" s="131" t="s">
-        <v>777</v>
-      </c>
-      <c r="I68" s="133"/>
+        <v>767</v>
+      </c>
+      <c r="H68" s="126" t="s">
+        <v>768</v>
+      </c>
+      <c r="I68" s="128"/>
       <c r="J68" s="4" t="s">
         <v>46</v>
       </c>
@@ -16015,27 +16013,27 @@
         <v>628</v>
       </c>
       <c r="B69" s="121" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>1057</v>
+        <v>1022</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>1058</v>
+        <v>1023</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>1063</v>
-      </c>
-      <c r="H69" s="131" t="s">
-        <v>1059</v>
-      </c>
-      <c r="I69" s="133"/>
+        <v>1028</v>
+      </c>
+      <c r="H69" s="126" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I69" s="128"/>
       <c r="J69" s="4" t="s">
         <v>44</v>
       </c>
@@ -16060,10 +16058,10 @@
         <v>629</v>
       </c>
       <c r="B70" s="121" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>497</v>
@@ -16072,15 +16070,15 @@
         <v>499</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="H70" s="131" t="s">
-        <v>784</v>
-      </c>
-      <c r="I70" s="133"/>
+        <v>758</v>
+      </c>
+      <c r="H70" s="126" t="s">
+        <v>773</v>
+      </c>
+      <c r="I70" s="128"/>
       <c r="J70" s="4" t="s">
         <v>45</v>
       </c>
@@ -16105,10 +16103,10 @@
         <v>630</v>
       </c>
       <c r="B71" s="121" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>497</v>
@@ -16117,16 +16115,16 @@
         <v>499</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>1060</v>
+        <v>1025</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>1066</v>
-      </c>
-      <c r="H71" s="131" t="s">
-        <v>1064</v>
-      </c>
-      <c r="I71" s="133" t="s">
-        <v>1074</v>
+        <v>1031</v>
+      </c>
+      <c r="H71" s="126" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I71" s="128" t="s">
+        <v>1039</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>44</v>
@@ -16152,28 +16150,28 @@
         <v>631</v>
       </c>
       <c r="B72" s="121" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>1062</v>
+        <v>1027</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>1061</v>
+        <v>1026</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>1067</v>
-      </c>
-      <c r="H72" s="131" t="s">
-        <v>1073</v>
-      </c>
-      <c r="I72" s="133" t="s">
-        <v>1076</v>
+        <v>1032</v>
+      </c>
+      <c r="H72" s="126" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I72" s="128" t="s">
+        <v>1041</v>
       </c>
       <c r="J72" s="4" t="s">
         <v>44</v>
@@ -16199,28 +16197,28 @@
         <v>632</v>
       </c>
       <c r="B73" s="121" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>1062</v>
+        <v>1027</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>1065</v>
+        <v>1030</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>1068</v>
-      </c>
-      <c r="H73" s="131" t="s">
-        <v>1072</v>
-      </c>
-      <c r="I73" s="133" t="s">
-        <v>1075</v>
+        <v>1033</v>
+      </c>
+      <c r="H73" s="126" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I73" s="128" t="s">
+        <v>1040</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>44</v>
@@ -16246,28 +16244,28 @@
         <v>633</v>
       </c>
       <c r="B74" s="121" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>1069</v>
+        <v>1034</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>1070</v>
-      </c>
-      <c r="H74" s="131" t="s">
-        <v>1071</v>
-      </c>
-      <c r="I74" s="133" t="s">
-        <v>1086</v>
+        <v>1035</v>
+      </c>
+      <c r="H74" s="126" t="s">
+        <v>1036</v>
+      </c>
+      <c r="I74" s="128" t="s">
+        <v>1051</v>
       </c>
       <c r="J74" s="4" t="s">
         <v>44</v>
@@ -16293,27 +16291,27 @@
         <v>634</v>
       </c>
       <c r="B75" s="121" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>1112</v>
+        <v>1071</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>1113</v>
+        <v>1072</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>1114</v>
-      </c>
-      <c r="H75" s="131" t="s">
-        <v>1115</v>
-      </c>
-      <c r="I75" s="133"/>
+        <v>1073</v>
+      </c>
+      <c r="H75" s="126" t="s">
+        <v>1074</v>
+      </c>
+      <c r="I75" s="128"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
@@ -16334,28 +16332,28 @@
         <v>635</v>
       </c>
       <c r="B76" s="121" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>1120</v>
+        <v>1079</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>1119</v>
+        <v>1078</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>1116</v>
-      </c>
-      <c r="H76" s="131" t="s">
-        <v>1117</v>
-      </c>
-      <c r="I76" s="133" t="s">
-        <v>1118</v>
+        <v>1075</v>
+      </c>
+      <c r="H76" s="126" t="s">
+        <v>1076</v>
+      </c>
+      <c r="I76" s="128" t="s">
+        <v>1077</v>
       </c>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
@@ -16377,10 +16375,10 @@
         <v>634</v>
       </c>
       <c r="B77" s="121" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>855</v>
+        <v>842</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>497</v>
@@ -16389,15 +16387,15 @@
         <v>499</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>844</v>
+        <v>831</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="H77" s="131" t="s">
-        <v>783</v>
-      </c>
-      <c r="I77" s="133"/>
+        <v>757</v>
+      </c>
+      <c r="H77" s="126" t="s">
+        <v>772</v>
+      </c>
+      <c r="I77" s="128"/>
       <c r="J77" s="4" t="s">
         <v>45</v>
       </c>
@@ -16422,27 +16420,27 @@
         <v>635</v>
       </c>
       <c r="B78" s="121" t="s">
+        <v>830</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>843</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>856</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>771</v>
-      </c>
-      <c r="H78" s="131" t="s">
-        <v>772</v>
-      </c>
-      <c r="I78" s="133"/>
+        <v>762</v>
+      </c>
+      <c r="H78" s="126" t="s">
+        <v>763</v>
+      </c>
+      <c r="I78" s="128"/>
       <c r="J78" s="4" t="s">
         <v>45</v>
       </c>
@@ -16467,28 +16465,28 @@
         <v>636</v>
       </c>
       <c r="B79" s="121" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>1077</v>
+        <v>1042</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>1082</v>
-      </c>
-      <c r="H79" s="131" t="s">
-        <v>1084</v>
-      </c>
-      <c r="I79" s="133" t="s">
-        <v>1087</v>
+        <v>1047</v>
+      </c>
+      <c r="H79" s="126" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I79" s="128" t="s">
+        <v>1052</v>
       </c>
       <c r="J79" s="4" t="s">
         <v>45</v>
@@ -16514,28 +16512,28 @@
         <v>637</v>
       </c>
       <c r="B80" s="121" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>1078</v>
+        <v>1043</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>1080</v>
-      </c>
-      <c r="H80" s="131" t="s">
-        <v>1083</v>
-      </c>
-      <c r="I80" s="133" t="s">
-        <v>1088</v>
+        <v>1045</v>
+      </c>
+      <c r="H80" s="126" t="s">
+        <v>1048</v>
+      </c>
+      <c r="I80" s="128" t="s">
+        <v>1053</v>
       </c>
       <c r="J80" s="4" t="s">
         <v>45</v>
@@ -16561,28 +16559,28 @@
         <v>638</v>
       </c>
       <c r="B81" s="121" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>1079</v>
+        <v>1044</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>1081</v>
-      </c>
-      <c r="H81" s="131" t="s">
-        <v>1085</v>
-      </c>
-      <c r="I81" s="133" t="s">
-        <v>1089</v>
+        <v>1046</v>
+      </c>
+      <c r="H81" s="126" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I81" s="128" t="s">
+        <v>1054</v>
       </c>
       <c r="J81" s="4" t="s">
         <v>45</v>
@@ -16608,26 +16606,26 @@
         <v>639</v>
       </c>
       <c r="B82" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>544</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>1092</v>
+        <v>1055</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>1093</v>
-      </c>
-      <c r="H82" s="131"/>
-      <c r="I82" s="131" t="s">
-        <v>1100</v>
+        <v>1056</v>
+      </c>
+      <c r="H82" s="126"/>
+      <c r="I82" s="126" t="s">
+        <v>1059</v>
       </c>
       <c r="J82" s="4" t="s">
         <v>43</v>
@@ -16653,26 +16651,26 @@
         <v>640</v>
       </c>
       <c r="B83" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>544</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>1094</v>
+        <v>1057</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>1095</v>
-      </c>
-      <c r="H83" s="131"/>
-      <c r="I83" s="131" t="s">
-        <v>1100</v>
+        <v>1058</v>
+      </c>
+      <c r="H83" s="126"/>
+      <c r="I83" s="126" t="s">
+        <v>1059</v>
       </c>
       <c r="J83" s="4" t="s">
         <v>43</v>
@@ -16698,26 +16696,26 @@
         <v>641</v>
       </c>
       <c r="B84" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>544</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>1096</v>
-      </c>
-      <c r="H84" s="131"/>
-      <c r="I84" s="131" t="s">
-        <v>1100</v>
+        <v>1094</v>
+      </c>
+      <c r="H84" s="126"/>
+      <c r="I84" s="126" t="s">
+        <v>1059</v>
       </c>
       <c r="J84" s="4" t="s">
         <v>43</v>
@@ -16743,26 +16741,26 @@
         <v>642</v>
       </c>
       <c r="B85" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>544</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>1099</v>
-      </c>
-      <c r="H85" s="131"/>
-      <c r="I85" s="131" t="s">
-        <v>1100</v>
+        <v>1096</v>
+      </c>
+      <c r="H85" s="126"/>
+      <c r="I85" s="126" t="s">
+        <v>1059</v>
       </c>
       <c r="J85" s="4" t="s">
         <v>43</v>
@@ -16788,28 +16786,28 @@
         <v>643</v>
       </c>
       <c r="B86" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>826</v>
+        <v>814</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>919</v>
+        <v>901</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="H86" s="131" t="s">
-        <v>970</v>
-      </c>
-      <c r="I86" s="131" t="s">
-        <v>1091</v>
+        <v>884</v>
+      </c>
+      <c r="H86" s="126" t="s">
+        <v>945</v>
+      </c>
+      <c r="I86" s="126" t="s">
+        <v>1097</v>
       </c>
       <c r="J86" s="4" t="s">
         <v>43</v>
@@ -16835,26 +16833,26 @@
         <v>644</v>
       </c>
       <c r="B87" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>544</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>920</v>
+        <v>902</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>971</v>
-      </c>
-      <c r="H87" s="131"/>
-      <c r="I87" s="131" t="s">
-        <v>1090</v>
+        <v>1098</v>
+      </c>
+      <c r="H87" s="126"/>
+      <c r="I87" s="126" t="s">
+        <v>1099</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>44</v>
@@ -16880,27 +16878,27 @@
         <v>645</v>
       </c>
       <c r="B88" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>826</v>
+        <v>814</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>898</v>
+        <v>881</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>899</v>
-      </c>
-      <c r="H88" s="131" t="s">
-        <v>900</v>
-      </c>
-      <c r="I88" s="131"/>
+        <v>882</v>
+      </c>
+      <c r="H88" s="126" t="s">
+        <v>883</v>
+      </c>
+      <c r="I88" s="126"/>
       <c r="J88" s="4" t="s">
         <v>43</v>
       </c>
@@ -16925,25 +16923,25 @@
         <v>646</v>
       </c>
       <c r="B89" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C89" s="56" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D89" s="56" t="s">
         <v>544</v>
       </c>
       <c r="E89" s="56" t="s">
-        <v>826</v>
+        <v>814</v>
       </c>
       <c r="F89" s="40" t="s">
-        <v>902</v>
+        <v>885</v>
       </c>
       <c r="G89" s="56" t="s">
-        <v>903</v>
-      </c>
-      <c r="H89" s="133"/>
-      <c r="I89" s="133"/>
+        <v>886</v>
+      </c>
+      <c r="H89" s="128"/>
+      <c r="I89" s="128"/>
       <c r="J89" s="56" t="s">
         <v>43</v>
       </c>
@@ -16968,27 +16966,27 @@
         <v>647</v>
       </c>
       <c r="B90" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D90" s="56" t="s">
         <v>544</v>
       </c>
       <c r="E90" s="56" t="s">
-        <v>820</v>
+        <v>808</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>892</v>
+        <v>876</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="H90" s="131" t="s">
-        <v>889</v>
-      </c>
-      <c r="I90" s="131"/>
+        <v>879</v>
+      </c>
+      <c r="H90" s="126" t="s">
+        <v>873</v>
+      </c>
+      <c r="I90" s="126"/>
       <c r="J90" s="4" t="s">
         <v>43</v>
       </c>
@@ -17013,27 +17011,27 @@
         <v>648</v>
       </c>
       <c r="B91" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D91" s="56" t="s">
         <v>544</v>
       </c>
       <c r="E91" s="56" t="s">
-        <v>820</v>
+        <v>808</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="H91" s="131" t="s">
-        <v>890</v>
-      </c>
-      <c r="I91" s="131"/>
+        <v>879</v>
+      </c>
+      <c r="H91" s="126" t="s">
+        <v>874</v>
+      </c>
+      <c r="I91" s="126"/>
       <c r="J91" s="4" t="s">
         <v>43</v>
       </c>
@@ -17058,27 +17056,27 @@
         <v>649</v>
       </c>
       <c r="B92" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D92" s="56" t="s">
         <v>544</v>
       </c>
       <c r="E92" s="56" t="s">
-        <v>820</v>
+        <v>808</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="H92" s="131" t="s">
-        <v>891</v>
-      </c>
-      <c r="I92" s="131"/>
+        <v>879</v>
+      </c>
+      <c r="H92" s="126" t="s">
+        <v>875</v>
+      </c>
+      <c r="I92" s="126"/>
       <c r="J92" s="4" t="s">
         <v>43</v>
       </c>
@@ -17103,27 +17101,27 @@
         <v>650</v>
       </c>
       <c r="B93" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D93" s="56" t="s">
         <v>544</v>
       </c>
       <c r="E93" s="56" t="s">
-        <v>820</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>918</v>
+        <v>808</v>
+      </c>
+      <c r="F93" s="40" t="s">
+        <v>900</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="H93" s="131" t="s">
-        <v>886</v>
-      </c>
-      <c r="I93" s="131"/>
+        <v>878</v>
+      </c>
+      <c r="H93" s="126" t="s">
+        <v>871</v>
+      </c>
+      <c r="I93" s="126"/>
       <c r="J93" s="4" t="s">
         <v>43</v>
       </c>
@@ -17148,27 +17146,27 @@
         <v>651</v>
       </c>
       <c r="B94" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D94" s="56" t="s">
         <v>544</v>
       </c>
       <c r="E94" s="56" t="s">
-        <v>820</v>
+        <v>808</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>830</v>
-      </c>
-      <c r="H94" s="131" t="s">
-        <v>930</v>
-      </c>
-      <c r="I94" s="131"/>
+        <v>817</v>
+      </c>
+      <c r="H94" s="126" t="s">
+        <v>911</v>
+      </c>
+      <c r="I94" s="126"/>
       <c r="J94" s="4" t="s">
         <v>43</v>
       </c>
@@ -17193,27 +17191,27 @@
         <v>652</v>
       </c>
       <c r="B95" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D95" s="56" t="s">
         <v>544</v>
       </c>
       <c r="E95" s="56" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>922</v>
+        <v>904</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>923</v>
-      </c>
-      <c r="H95" s="131" t="s">
-        <v>934</v>
-      </c>
-      <c r="I95" s="131"/>
+        <v>905</v>
+      </c>
+      <c r="H95" s="126" t="s">
+        <v>915</v>
+      </c>
+      <c r="I95" s="126"/>
       <c r="J95" s="4" t="s">
         <v>46</v>
       </c>
@@ -17238,27 +17236,27 @@
         <v>653</v>
       </c>
       <c r="B96" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D96" s="56" t="s">
         <v>544</v>
       </c>
       <c r="E96" s="56" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>928</v>
+        <v>909</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>929</v>
-      </c>
-      <c r="H96" s="131" t="s">
-        <v>931</v>
-      </c>
-      <c r="I96" s="131"/>
+        <v>910</v>
+      </c>
+      <c r="H96" s="126" t="s">
+        <v>912</v>
+      </c>
+      <c r="I96" s="126"/>
       <c r="J96" s="4" t="s">
         <v>44</v>
       </c>
@@ -17283,27 +17281,27 @@
         <v>654</v>
       </c>
       <c r="B97" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D97" s="56" t="s">
         <v>544</v>
       </c>
       <c r="E97" s="56" t="s">
-        <v>904</v>
+        <v>887</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>893</v>
+        <v>877</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>907</v>
-      </c>
-      <c r="H97" s="131" t="s">
-        <v>897</v>
-      </c>
-      <c r="I97" s="131"/>
+        <v>890</v>
+      </c>
+      <c r="H97" s="126" t="s">
+        <v>880</v>
+      </c>
+      <c r="I97" s="126"/>
       <c r="J97" s="4" t="s">
         <v>43</v>
       </c>
@@ -17328,27 +17326,27 @@
         <v>655</v>
       </c>
       <c r="B98" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D98" s="56" t="s">
         <v>544</v>
       </c>
       <c r="E98" s="56" t="s">
-        <v>828</v>
+        <v>1080</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>924</v>
+        <v>906</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>824</v>
-      </c>
-      <c r="H98" s="131" t="s">
-        <v>825</v>
-      </c>
-      <c r="I98" s="131"/>
+        <v>812</v>
+      </c>
+      <c r="H98" s="126" t="s">
+        <v>813</v>
+      </c>
+      <c r="I98" s="126"/>
       <c r="J98" s="4" t="s">
         <v>14</v>
       </c>
@@ -17373,27 +17371,27 @@
         <v>656</v>
       </c>
       <c r="B99" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D99" s="56" t="s">
         <v>544</v>
       </c>
       <c r="E99" s="56" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>926</v>
+        <v>907</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>927</v>
-      </c>
-      <c r="H99" s="131" t="s">
-        <v>921</v>
-      </c>
-      <c r="I99" s="131"/>
+        <v>908</v>
+      </c>
+      <c r="H99" s="126" t="s">
+        <v>903</v>
+      </c>
+      <c r="I99" s="126"/>
       <c r="J99" s="4" t="s">
         <v>43</v>
       </c>
@@ -17418,27 +17416,27 @@
         <v>657</v>
       </c>
       <c r="B100" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D100" s="56" t="s">
         <v>544</v>
       </c>
       <c r="E100" s="56" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>932</v>
+        <v>913</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>933</v>
-      </c>
-      <c r="H100" s="131" t="s">
-        <v>935</v>
-      </c>
-      <c r="I100" s="131"/>
+        <v>914</v>
+      </c>
+      <c r="H100" s="126" t="s">
+        <v>916</v>
+      </c>
+      <c r="I100" s="126"/>
       <c r="J100" s="4" t="s">
         <v>46</v>
       </c>
@@ -17463,29 +17461,29 @@
         <v>658</v>
       </c>
       <c r="B101" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D101" s="56" t="s">
         <v>544</v>
       </c>
       <c r="E101" s="56" t="s">
-        <v>823</v>
+        <v>956</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>982</v>
+        <v>953</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="H101" s="131" t="s">
-        <v>983</v>
-      </c>
-      <c r="I101" s="131"/>
+        <v>1100</v>
+      </c>
+      <c r="H101" s="126" t="s">
+        <v>954</v>
+      </c>
+      <c r="I101" s="126"/>
       <c r="J101" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K101" s="4"/>
       <c r="L101" s="4" t="s">
@@ -17508,27 +17506,27 @@
         <v>659</v>
       </c>
       <c r="B102" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D102" s="56" t="s">
         <v>544</v>
       </c>
       <c r="E102" s="56" t="s">
-        <v>988</v>
+        <v>956</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>984</v>
+        <v>955</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>985</v>
-      </c>
-      <c r="H102" s="131" t="s">
-        <v>986</v>
-      </c>
-      <c r="I102" s="131"/>
+        <v>957</v>
+      </c>
+      <c r="H102" s="126" t="s">
+        <v>958</v>
+      </c>
+      <c r="I102" s="126"/>
       <c r="J102" s="4" t="s">
         <v>44</v>
       </c>
@@ -17548,34 +17546,34 @@
       <c r="V102" s="4"/>
       <c r="W102" s="4"/>
     </row>
-    <row r="103" spans="1:23" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:23" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
         <v>660</v>
       </c>
       <c r="B103" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D103" s="56" t="s">
         <v>544</v>
       </c>
       <c r="E103" s="56" t="s">
-        <v>988</v>
+        <v>952</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>987</v>
+        <v>888</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>989</v>
-      </c>
-      <c r="H103" s="131" t="s">
-        <v>990</v>
-      </c>
-      <c r="I103" s="131"/>
+        <v>889</v>
+      </c>
+      <c r="H103" s="126" t="s">
+        <v>894</v>
+      </c>
+      <c r="I103" s="126"/>
       <c r="J103" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K103" s="4"/>
       <c r="L103" s="4" t="s">
@@ -17593,32 +17591,32 @@
       <c r="V103" s="4"/>
       <c r="W103" s="4"/>
     </row>
-    <row r="104" spans="1:23" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
         <v>661</v>
       </c>
       <c r="B104" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D104" s="56" t="s">
         <v>544</v>
       </c>
       <c r="E104" s="56" t="s">
-        <v>981</v>
+        <v>952</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>905</v>
+        <v>946</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>906</v>
-      </c>
-      <c r="H104" s="131" t="s">
-        <v>911</v>
-      </c>
-      <c r="I104" s="131"/>
+        <v>947</v>
+      </c>
+      <c r="H104" s="126" t="s">
+        <v>948</v>
+      </c>
+      <c r="I104" s="126"/>
       <c r="J104" s="4" t="s">
         <v>43</v>
       </c>
@@ -17643,27 +17641,27 @@
         <v>662</v>
       </c>
       <c r="B105" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D105" s="56" t="s">
         <v>544</v>
       </c>
       <c r="E105" s="56" t="s">
-        <v>981</v>
+        <v>952</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>972</v>
+        <v>949</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>973</v>
-      </c>
-      <c r="H105" s="131" t="s">
-        <v>974</v>
-      </c>
-      <c r="I105" s="131"/>
+        <v>950</v>
+      </c>
+      <c r="H105" s="126" t="s">
+        <v>951</v>
+      </c>
+      <c r="I105" s="126"/>
       <c r="J105" s="4" t="s">
         <v>43</v>
       </c>
@@ -17683,32 +17681,32 @@
       <c r="V105" s="4"/>
       <c r="W105" s="4"/>
     </row>
-    <row r="106" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
         <v>663</v>
       </c>
       <c r="B106" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D106" s="56" t="s">
         <v>544</v>
       </c>
       <c r="E106" s="56" t="s">
-        <v>981</v>
+        <v>952</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>975</v>
+        <v>891</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>976</v>
-      </c>
-      <c r="H106" s="131" t="s">
-        <v>977</v>
-      </c>
-      <c r="I106" s="131"/>
+        <v>892</v>
+      </c>
+      <c r="H106" s="126" t="s">
+        <v>893</v>
+      </c>
+      <c r="I106" s="126"/>
       <c r="J106" s="4" t="s">
         <v>43</v>
       </c>
@@ -17728,32 +17726,32 @@
       <c r="V106" s="4"/>
       <c r="W106" s="4"/>
     </row>
-    <row r="107" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
         <v>664</v>
       </c>
       <c r="B107" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D107" s="56" t="s">
         <v>544</v>
       </c>
       <c r="E107" s="56" t="s">
-        <v>981</v>
+        <v>952</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>978</v>
+        <v>1081</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>979</v>
-      </c>
-      <c r="H107" s="131" t="s">
-        <v>980</v>
-      </c>
-      <c r="I107" s="131"/>
+        <v>1082</v>
+      </c>
+      <c r="H107" s="126" t="s">
+        <v>1083</v>
+      </c>
+      <c r="I107" s="126"/>
       <c r="J107" s="4" t="s">
         <v>43</v>
       </c>
@@ -17773,32 +17771,32 @@
       <c r="V107" s="4"/>
       <c r="W107" s="4"/>
     </row>
-    <row r="108" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:23" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B108" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D108" s="56" t="s">
         <v>544</v>
       </c>
       <c r="E108" s="56" t="s">
-        <v>981</v>
+        <v>952</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>908</v>
+        <v>1084</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>909</v>
-      </c>
-      <c r="H108" s="131" t="s">
-        <v>910</v>
-      </c>
-      <c r="I108" s="131"/>
+        <v>1085</v>
+      </c>
+      <c r="H108" s="126" t="s">
+        <v>898</v>
+      </c>
+      <c r="I108" s="126"/>
       <c r="J108" s="4" t="s">
         <v>43</v>
       </c>
@@ -17818,32 +17816,32 @@
       <c r="V108" s="4"/>
       <c r="W108" s="4"/>
     </row>
-    <row r="109" spans="1:23" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B109" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D109" s="56" t="s">
         <v>544</v>
       </c>
       <c r="E109" s="56" t="s">
-        <v>981</v>
+        <v>952</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>991</v>
+        <v>959</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>912</v>
-      </c>
-      <c r="H109" s="131" t="s">
-        <v>916</v>
-      </c>
-      <c r="I109" s="131"/>
+        <v>947</v>
+      </c>
+      <c r="H109" s="126" t="s">
+        <v>961</v>
+      </c>
+      <c r="I109" s="126"/>
       <c r="J109" s="4" t="s">
         <v>43</v>
       </c>
@@ -17865,30 +17863,30 @@
     </row>
     <row r="110" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B110" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D110" s="56" t="s">
         <v>544</v>
       </c>
       <c r="E110" s="56" t="s">
-        <v>981</v>
+        <v>952</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>992</v>
+        <v>960</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>973</v>
-      </c>
-      <c r="H110" s="131" t="s">
-        <v>995</v>
-      </c>
-      <c r="I110" s="131"/>
+        <v>950</v>
+      </c>
+      <c r="H110" s="126" t="s">
+        <v>962</v>
+      </c>
+      <c r="I110" s="126"/>
       <c r="J110" s="4" t="s">
         <v>43</v>
       </c>
@@ -17908,32 +17906,32 @@
       <c r="V110" s="4"/>
       <c r="W110" s="4"/>
     </row>
-    <row r="111" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B111" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D111" s="56" t="s">
         <v>544</v>
       </c>
       <c r="E111" s="56" t="s">
-        <v>981</v>
+        <v>952</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>993</v>
+        <v>895</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>976</v>
-      </c>
-      <c r="H111" s="131" t="s">
-        <v>996</v>
-      </c>
-      <c r="I111" s="131"/>
+        <v>896</v>
+      </c>
+      <c r="H111" s="126" t="s">
+        <v>897</v>
+      </c>
+      <c r="I111" s="126"/>
       <c r="J111" s="4" t="s">
         <v>43</v>
       </c>
@@ -17955,30 +17953,30 @@
     </row>
     <row r="112" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B112" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C112" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E112" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="D112" s="56" t="s">
-        <v>544</v>
-      </c>
-      <c r="E112" s="56" t="s">
-        <v>981</v>
-      </c>
       <c r="F112" s="4" t="s">
-        <v>994</v>
+        <v>1101</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>979</v>
-      </c>
-      <c r="H112" s="131" t="s">
-        <v>997</v>
-      </c>
-      <c r="I112" s="131"/>
+        <v>1102</v>
+      </c>
+      <c r="H112" s="126" t="s">
+        <v>1103</v>
+      </c>
+      <c r="I112" s="126"/>
       <c r="J112" s="4" t="s">
         <v>43</v>
       </c>
@@ -17998,32 +17996,32 @@
       <c r="V112" s="4"/>
       <c r="W112" s="4"/>
     </row>
-    <row r="113" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B113" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C113" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E113" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="D113" s="56" t="s">
-        <v>544</v>
-      </c>
-      <c r="E113" s="56" t="s">
-        <v>981</v>
-      </c>
       <c r="F113" s="4" t="s">
-        <v>913</v>
+        <v>1104</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>914</v>
-      </c>
-      <c r="H113" s="131" t="s">
-        <v>915</v>
-      </c>
-      <c r="I113" s="131"/>
+        <v>1105</v>
+      </c>
+      <c r="H113" s="126" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I113" s="126"/>
       <c r="J113" s="4" t="s">
         <v>43</v>
       </c>
@@ -18043,32 +18041,32 @@
       <c r="V113" s="4"/>
       <c r="W113" s="4"/>
     </row>
-    <row r="114" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:23" ht="126" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B114" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>544</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>723</v>
+        <v>918</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>936</v>
+        <v>917</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>937</v>
-      </c>
-      <c r="H114" s="131" t="s">
-        <v>895</v>
-      </c>
-      <c r="I114" s="131"/>
+        <v>921</v>
+      </c>
+      <c r="H114" s="126" t="s">
+        <v>922</v>
+      </c>
+      <c r="I114" s="126"/>
       <c r="J114" s="4" t="s">
         <v>43</v>
       </c>
@@ -18088,32 +18086,32 @@
       <c r="V114" s="4"/>
       <c r="W114" s="4"/>
     </row>
-    <row r="115" spans="1:23" ht="126" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:23" ht="84" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B115" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>544</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>939</v>
+        <v>918</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>938</v>
+        <v>919</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>942</v>
-      </c>
-      <c r="H115" s="131" t="s">
-        <v>943</v>
-      </c>
-      <c r="I115" s="131"/>
+        <v>923</v>
+      </c>
+      <c r="H115" s="126" t="s">
+        <v>924</v>
+      </c>
+      <c r="I115" s="126"/>
       <c r="J115" s="4" t="s">
         <v>43</v>
       </c>
@@ -18135,30 +18133,30 @@
     </row>
     <row r="116" spans="1:23" ht="84" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B116" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>544</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>939</v>
+        <v>918</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>940</v>
+        <v>925</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>944</v>
-      </c>
-      <c r="H116" s="131" t="s">
-        <v>945</v>
-      </c>
-      <c r="I116" s="131"/>
+        <v>926</v>
+      </c>
+      <c r="H116" s="126" t="s">
+        <v>927</v>
+      </c>
+      <c r="I116" s="126"/>
       <c r="J116" s="4" t="s">
         <v>43</v>
       </c>
@@ -18180,32 +18178,32 @@
     </row>
     <row r="117" spans="1:23" ht="84" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B117" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>544</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>939</v>
+        <v>920</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>946</v>
+        <v>930</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>947</v>
-      </c>
-      <c r="H117" s="131" t="s">
-        <v>948</v>
-      </c>
-      <c r="I117" s="131"/>
+        <v>928</v>
+      </c>
+      <c r="H117" s="126" t="s">
+        <v>929</v>
+      </c>
+      <c r="I117" s="126"/>
       <c r="J117" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K117" s="4"/>
       <c r="L117" s="4" t="s">
@@ -18223,34 +18221,34 @@
       <c r="V117" s="4"/>
       <c r="W117" s="4"/>
     </row>
-    <row r="118" spans="1:23" ht="84" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B118" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>544</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>941</v>
+        <v>963</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>951</v>
+        <v>931</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="H118" s="131" t="s">
-        <v>950</v>
-      </c>
-      <c r="I118" s="131"/>
+        <v>932</v>
+      </c>
+      <c r="H118" s="126" t="s">
+        <v>938</v>
+      </c>
+      <c r="I118" s="126"/>
       <c r="J118" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K118" s="4"/>
       <c r="L118" s="4" t="s">
@@ -18268,34 +18266,34 @@
       <c r="V118" s="4"/>
       <c r="W118" s="4"/>
     </row>
-    <row r="119" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B119" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>544</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>998</v>
+        <v>964</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>952</v>
+        <v>933</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>953</v>
-      </c>
-      <c r="H119" s="131" t="s">
-        <v>959</v>
-      </c>
-      <c r="I119" s="131"/>
+        <v>934</v>
+      </c>
+      <c r="H119" s="126" t="s">
+        <v>935</v>
+      </c>
+      <c r="I119" s="126"/>
       <c r="J119" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K119" s="4"/>
       <c r="L119" s="4" t="s">
@@ -18313,34 +18311,34 @@
       <c r="V119" s="4"/>
       <c r="W119" s="4"/>
     </row>
-    <row r="120" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B120" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>544</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>999</v>
+        <v>965</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>954</v>
+        <v>936</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>955</v>
-      </c>
-      <c r="H120" s="131" t="s">
-        <v>956</v>
-      </c>
-      <c r="I120" s="131"/>
+        <v>937</v>
+      </c>
+      <c r="H120" s="126" t="s">
+        <v>939</v>
+      </c>
+      <c r="I120" s="126"/>
       <c r="J120" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K120" s="4"/>
       <c r="L120" s="4" t="s">
@@ -18360,30 +18358,30 @@
     </row>
     <row r="121" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B121" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>544</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>1000</v>
+        <v>966</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>957</v>
+        <v>1107</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="H121" s="131" t="s">
-        <v>960</v>
-      </c>
-      <c r="I121" s="131"/>
+        <v>1108</v>
+      </c>
+      <c r="H121" s="126" t="s">
+        <v>1109</v>
+      </c>
+      <c r="I121" s="126"/>
       <c r="J121" s="4" t="s">
         <v>43</v>
       </c>
@@ -18403,32 +18401,32 @@
       <c r="V121" s="4"/>
       <c r="W121" s="4"/>
     </row>
-    <row r="122" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:23" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B122" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>544</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>1001</v>
+        <v>720</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>962</v>
+        <v>1110</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>725</v>
-      </c>
-      <c r="H122" s="131" t="s">
-        <v>887</v>
-      </c>
-      <c r="I122" s="131"/>
+        <v>1111</v>
+      </c>
+      <c r="H122" s="126" t="s">
+        <v>1114</v>
+      </c>
+      <c r="I122" s="126"/>
       <c r="J122" s="4" t="s">
         <v>43</v>
       </c>
@@ -18448,32 +18446,34 @@
       <c r="V122" s="4"/>
       <c r="W122" s="4"/>
     </row>
-    <row r="123" spans="1:23" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:23" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B123" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>544</v>
       </c>
       <c r="E123" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="H123" s="126" t="s">
+        <v>941</v>
+      </c>
+      <c r="I123" s="126" t="s">
         <v>724</v>
       </c>
-      <c r="F123" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="G123" s="4" t="s">
-        <v>965</v>
-      </c>
-      <c r="H123" s="131" t="s">
-        <v>964</v>
-      </c>
-      <c r="I123" s="131"/>
       <c r="J123" s="4" t="s">
         <v>43</v>
       </c>
@@ -18493,33 +18493,33 @@
       <c r="V123" s="4"/>
       <c r="W123" s="4"/>
     </row>
-    <row r="124" spans="1:23" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:23" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B124" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>544</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>1002</v>
+        <v>968</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>727</v>
-      </c>
-      <c r="H124" s="131" t="s">
-        <v>966</v>
-      </c>
-      <c r="I124" s="131" t="s">
-        <v>729</v>
+        <v>721</v>
+      </c>
+      <c r="H124" s="126" t="s">
+        <v>942</v>
+      </c>
+      <c r="I124" s="126" t="s">
+        <v>723</v>
       </c>
       <c r="J124" s="4" t="s">
         <v>43</v>
@@ -18540,34 +18540,32 @@
       <c r="V124" s="4"/>
       <c r="W124" s="4"/>
     </row>
-    <row r="125" spans="1:23" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B125" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="D125" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="D125" s="56" t="s">
         <v>544</v>
       </c>
-      <c r="E125" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G125" s="4" t="s">
-        <v>726</v>
-      </c>
-      <c r="H125" s="131" t="s">
-        <v>967</v>
-      </c>
-      <c r="I125" s="131" t="s">
-        <v>728</v>
-      </c>
+      <c r="E125" s="56" t="s">
+        <v>720</v>
+      </c>
+      <c r="F125" s="40" t="s">
+        <v>969</v>
+      </c>
+      <c r="G125" s="56" t="s">
+        <v>803</v>
+      </c>
+      <c r="H125" s="128" t="s">
+        <v>725</v>
+      </c>
+      <c r="I125" s="126"/>
       <c r="J125" s="4" t="s">
         <v>43</v>
       </c>
@@ -18589,32 +18587,32 @@
     </row>
     <row r="126" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B126" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="D126" s="56" t="s">
+        <v>715</v>
+      </c>
+      <c r="D126" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="E126" s="56" t="s">
-        <v>724</v>
-      </c>
-      <c r="F126" s="40" t="s">
-        <v>1004</v>
-      </c>
-      <c r="G126" s="56" t="s">
-        <v>815</v>
-      </c>
-      <c r="H126" s="133" t="s">
-        <v>730</v>
-      </c>
-      <c r="I126" s="131"/>
+      <c r="E126" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="H126" s="126" t="s">
+        <v>726</v>
+      </c>
+      <c r="I126" s="126"/>
       <c r="J126" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K126" s="4"/>
       <c r="L126" s="4" t="s">
@@ -18634,37 +18632,33 @@
     </row>
     <row r="127" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
-        <v>688</v>
+        <v>734</v>
       </c>
       <c r="B127" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>544</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>731</v>
+        <v>1116</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>961</v>
-      </c>
-      <c r="H127" s="131" t="s">
-        <v>732</v>
-      </c>
-      <c r="I127" s="131"/>
-      <c r="J127" s="4" t="s">
-        <v>46</v>
-      </c>
+        <v>1117</v>
+      </c>
+      <c r="H127" s="126" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I127" s="126"/>
+      <c r="J127" s="4"/>
       <c r="K127" s="4"/>
-      <c r="L127" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="L127" s="4"/>
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
       <c r="O127" s="4"/>
@@ -18679,30 +18673,30 @@
     </row>
     <row r="128" spans="1:23" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="B128" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>544</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>1007</v>
+        <v>972</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>968</v>
-      </c>
-      <c r="H128" s="131" t="s">
-        <v>969</v>
-      </c>
-      <c r="I128" s="131"/>
+        <v>943</v>
+      </c>
+      <c r="H128" s="126" t="s">
+        <v>944</v>
+      </c>
+      <c r="I128" s="126"/>
       <c r="J128" s="4" t="s">
         <v>43</v>
       </c>
@@ -18724,30 +18718,30 @@
     </row>
     <row r="129" spans="1:23" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="B129" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>544</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>1005</v>
-      </c>
-      <c r="H129" s="131" t="s">
-        <v>734</v>
-      </c>
-      <c r="I129" s="131"/>
+        <v>970</v>
+      </c>
+      <c r="H129" s="126" t="s">
+        <v>728</v>
+      </c>
+      <c r="I129" s="126"/>
       <c r="J129" s="4" t="s">
         <v>43</v>
       </c>
@@ -18769,30 +18763,30 @@
     </row>
     <row r="130" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A130" s="4" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="B130" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>544</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>1006</v>
-      </c>
-      <c r="H130" s="131" t="s">
-        <v>736</v>
-      </c>
-      <c r="I130" s="131"/>
+        <v>971</v>
+      </c>
+      <c r="H130" s="126" t="s">
+        <v>730</v>
+      </c>
+      <c r="I130" s="126"/>
       <c r="J130" s="4" t="s">
         <v>43</v>
       </c>
@@ -18814,30 +18808,30 @@
     </row>
     <row r="131" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A131" s="4" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="B131" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>544</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>738</v>
+        <v>1112</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>739</v>
-      </c>
-      <c r="H131" s="131" t="s">
-        <v>740</v>
-      </c>
-      <c r="I131" s="131"/>
+        <v>732</v>
+      </c>
+      <c r="H131" s="126" t="s">
+        <v>733</v>
+      </c>
+      <c r="I131" s="126"/>
       <c r="J131" s="4" t="s">
         <v>43</v>
       </c>
@@ -18859,30 +18853,30 @@
     </row>
     <row r="132" spans="1:23" ht="60" x14ac:dyDescent="0.15">
       <c r="A132" s="4" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="B132" s="117" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>544</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>741</v>
+        <v>1113</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>739</v>
-      </c>
-      <c r="H132" s="131" t="s">
-        <v>888</v>
-      </c>
-      <c r="I132" s="131"/>
+        <v>732</v>
+      </c>
+      <c r="H132" s="126" t="s">
+        <v>872</v>
+      </c>
+      <c r="I132" s="126"/>
       <c r="J132" s="4" t="s">
         <v>43</v>
       </c>
@@ -18902,21 +18896,39 @@
       <c r="V132" s="4"/>
       <c r="W132" s="4"/>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:23" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4" t="s">
-        <v>747</v>
-      </c>
-      <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="4"/>
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
-      <c r="H133" s="131"/>
-      <c r="I133" s="131"/>
-      <c r="J133" s="4"/>
+        <v>639</v>
+      </c>
+      <c r="B133" s="135" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="H133" s="126" t="s">
+        <v>1121</v>
+      </c>
+      <c r="I133" s="128"/>
+      <c r="J133" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="K133" s="4"/>
-      <c r="L133" s="4"/>
+      <c r="L133" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M133" s="4"/>
       <c r="N133" s="4"/>
       <c r="O133" s="4"/>
@@ -18931,7 +18943,7 @@
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A134" s="4" t="s">
-        <v>791</v>
+        <v>739</v>
       </c>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -18939,8 +18951,8 @@
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
-      <c r="H134" s="131"/>
-      <c r="I134" s="131"/>
+      <c r="H134" s="126"/>
+      <c r="I134" s="126"/>
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
       <c r="L134" s="4"/>
@@ -18958,7 +18970,7 @@
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -18966,8 +18978,8 @@
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
-      <c r="H135" s="131"/>
-      <c r="I135" s="131"/>
+      <c r="H135" s="126"/>
+      <c r="I135" s="126"/>
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
       <c r="L135" s="4"/>
@@ -18985,7 +18997,7 @@
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A136" s="4" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -18993,8 +19005,8 @@
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
-      <c r="H136" s="131"/>
-      <c r="I136" s="131"/>
+      <c r="H136" s="126"/>
+      <c r="I136" s="126"/>
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
       <c r="L136" s="4"/>
@@ -19012,7 +19024,7 @@
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A137" s="4" t="s">
-        <v>794</v>
+        <v>781</v>
       </c>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -19020,8 +19032,8 @@
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
-      <c r="H137" s="131"/>
-      <c r="I137" s="131"/>
+      <c r="H137" s="126"/>
+      <c r="I137" s="126"/>
       <c r="J137" s="4"/>
       <c r="K137" s="4"/>
       <c r="L137" s="4"/>
@@ -19039,7 +19051,7 @@
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A138" s="4" t="s">
-        <v>795</v>
+        <v>782</v>
       </c>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -19047,8 +19059,8 @@
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
-      <c r="H138" s="131"/>
-      <c r="I138" s="131"/>
+      <c r="H138" s="126"/>
+      <c r="I138" s="126"/>
       <c r="J138" s="4"/>
       <c r="K138" s="4"/>
       <c r="L138" s="4"/>
@@ -19066,7 +19078,7 @@
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A139" s="4" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -19074,8 +19086,8 @@
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
-      <c r="H139" s="131"/>
-      <c r="I139" s="131"/>
+      <c r="H139" s="126"/>
+      <c r="I139" s="126"/>
       <c r="J139" s="4"/>
       <c r="K139" s="4"/>
       <c r="L139" s="4"/>
@@ -19093,7 +19105,7 @@
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A140" s="4" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -19101,8 +19113,8 @@
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
       <c r="G140" s="4"/>
-      <c r="H140" s="131"/>
-      <c r="I140" s="131"/>
+      <c r="H140" s="126"/>
+      <c r="I140" s="126"/>
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
       <c r="L140" s="4"/>
@@ -19120,7 +19132,7 @@
     </row>
     <row r="141" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
-        <v>798</v>
+        <v>785</v>
       </c>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -19128,8 +19140,8 @@
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
-      <c r="H141" s="131"/>
-      <c r="I141" s="131"/>
+      <c r="H141" s="126"/>
+      <c r="I141" s="126"/>
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
       <c r="L141" s="4"/>
@@ -19147,7 +19159,7 @@
     </row>
     <row r="142" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -19155,8 +19167,8 @@
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
-      <c r="H142" s="131"/>
-      <c r="I142" s="131"/>
+      <c r="H142" s="126"/>
+      <c r="I142" s="126"/>
       <c r="J142" s="4"/>
       <c r="K142" s="4"/>
       <c r="L142" s="4"/>
@@ -19174,7 +19186,7 @@
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -19182,8 +19194,8 @@
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
-      <c r="H143" s="131"/>
-      <c r="I143" s="131"/>
+      <c r="H143" s="126"/>
+      <c r="I143" s="126"/>
       <c r="J143" s="4"/>
       <c r="K143" s="4"/>
       <c r="L143" s="4"/>
@@ -19201,7 +19213,7 @@
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
-        <v>801</v>
+        <v>788</v>
       </c>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -19209,8 +19221,8 @@
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
-      <c r="H144" s="131"/>
-      <c r="I144" s="131"/>
+      <c r="H144" s="126"/>
+      <c r="I144" s="126"/>
       <c r="J144" s="4"/>
       <c r="K144" s="4"/>
       <c r="L144" s="4"/>
@@ -19228,7 +19240,7 @@
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
-        <v>802</v>
+        <v>789</v>
       </c>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -19236,8 +19248,8 @@
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
-      <c r="H145" s="131"/>
-      <c r="I145" s="131"/>
+      <c r="H145" s="126"/>
+      <c r="I145" s="126"/>
       <c r="J145" s="4"/>
       <c r="K145" s="4"/>
       <c r="L145" s="4"/>
@@ -19255,7 +19267,7 @@
     </row>
     <row r="146" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A146" s="4" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -19263,8 +19275,8 @@
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
-      <c r="H146" s="131"/>
-      <c r="I146" s="131"/>
+      <c r="H146" s="126"/>
+      <c r="I146" s="126"/>
       <c r="J146" s="4"/>
       <c r="K146" s="4"/>
       <c r="L146" s="4"/>
@@ -19282,7 +19294,7 @@
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A147" s="4" t="s">
-        <v>804</v>
+        <v>791</v>
       </c>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -19290,8 +19302,8 @@
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
-      <c r="H147" s="131"/>
-      <c r="I147" s="131"/>
+      <c r="H147" s="126"/>
+      <c r="I147" s="126"/>
       <c r="J147" s="4"/>
       <c r="K147" s="4"/>
       <c r="L147" s="4"/>
@@ -19309,7 +19321,7 @@
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
-        <v>805</v>
+        <v>792</v>
       </c>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -19317,8 +19329,8 @@
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
-      <c r="H148" s="131"/>
-      <c r="I148" s="131"/>
+      <c r="H148" s="126"/>
+      <c r="I148" s="126"/>
       <c r="J148" s="4"/>
       <c r="K148" s="4"/>
       <c r="L148" s="4"/>
@@ -19336,7 +19348,7 @@
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A149" s="4" t="s">
-        <v>806</v>
+        <v>793</v>
       </c>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -19344,8 +19356,8 @@
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
-      <c r="H149" s="131"/>
-      <c r="I149" s="131"/>
+      <c r="H149" s="126"/>
+      <c r="I149" s="126"/>
       <c r="J149" s="4"/>
       <c r="K149" s="4"/>
       <c r="L149" s="4"/>
@@ -19363,7 +19375,7 @@
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A150" s="4" t="s">
-        <v>807</v>
+        <v>794</v>
       </c>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -19371,8 +19383,8 @@
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
-      <c r="H150" s="131"/>
-      <c r="I150" s="131"/>
+      <c r="H150" s="126"/>
+      <c r="I150" s="126"/>
       <c r="J150" s="4"/>
       <c r="K150" s="4"/>
       <c r="L150" s="4"/>
@@ -19390,7 +19402,7 @@
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A151" s="4" t="s">
-        <v>808</v>
+        <v>795</v>
       </c>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -19398,8 +19410,8 @@
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
-      <c r="H151" s="131"/>
-      <c r="I151" s="131"/>
+      <c r="H151" s="126"/>
+      <c r="I151" s="126"/>
       <c r="J151" s="4"/>
       <c r="K151" s="4"/>
       <c r="L151" s="4"/>
@@ -19417,7 +19429,7 @@
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A152" s="4" t="s">
-        <v>809</v>
+        <v>796</v>
       </c>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -19425,8 +19437,8 @@
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
-      <c r="H152" s="131"/>
-      <c r="I152" s="131"/>
+      <c r="H152" s="126"/>
+      <c r="I152" s="126"/>
       <c r="J152" s="4"/>
       <c r="K152" s="4"/>
       <c r="L152" s="4"/>
@@ -19444,7 +19456,7 @@
     </row>
     <row r="153" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A153" s="4" t="s">
-        <v>810</v>
+        <v>797</v>
       </c>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -19452,8 +19464,8 @@
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
-      <c r="H153" s="131"/>
-      <c r="I153" s="131"/>
+      <c r="H153" s="126"/>
+      <c r="I153" s="126"/>
       <c r="J153" s="4"/>
       <c r="K153" s="4"/>
       <c r="L153" s="4"/>
@@ -19471,7 +19483,7 @@
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A154" s="4" t="s">
-        <v>811</v>
+        <v>798</v>
       </c>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -19479,8 +19491,8 @@
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
-      <c r="H154" s="131"/>
-      <c r="I154" s="131"/>
+      <c r="H154" s="126"/>
+      <c r="I154" s="126"/>
       <c r="J154" s="4"/>
       <c r="K154" s="4"/>
       <c r="L154" s="4"/>
@@ -19498,7 +19510,7 @@
     </row>
     <row r="155" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A155" s="4" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -19506,8 +19518,8 @@
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
-      <c r="H155" s="131"/>
-      <c r="I155" s="131"/>
+      <c r="H155" s="126"/>
+      <c r="I155" s="126"/>
       <c r="J155" s="4"/>
       <c r="K155" s="4"/>
       <c r="L155" s="4"/>
@@ -19525,7 +19537,7 @@
     </row>
     <row r="156" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A156" s="4" t="s">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -19533,8 +19545,8 @@
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
-      <c r="H156" s="131"/>
-      <c r="I156" s="131"/>
+      <c r="H156" s="126"/>
+      <c r="I156" s="126"/>
       <c r="J156" s="4"/>
       <c r="K156" s="4"/>
       <c r="L156" s="4"/>
@@ -19552,7 +19564,7 @@
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A157" s="4" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -19560,8 +19572,8 @@
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
-      <c r="H157" s="131"/>
-      <c r="I157" s="131"/>
+      <c r="H157" s="126"/>
+      <c r="I157" s="126"/>
       <c r="J157" s="4"/>
       <c r="K157" s="4"/>
       <c r="L157" s="4"/>
@@ -19579,7 +19591,7 @@
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A158" s="4" t="s">
-        <v>854</v>
+        <v>802</v>
       </c>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -19587,8 +19599,8 @@
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
-      <c r="H158" s="131"/>
-      <c r="I158" s="131"/>
+      <c r="H158" s="126"/>
+      <c r="I158" s="126"/>
       <c r="J158" s="4"/>
       <c r="K158" s="4"/>
       <c r="L158" s="4"/>
@@ -19606,7 +19618,7 @@
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A159" s="4" t="s">
-        <v>1009</v>
+        <v>841</v>
       </c>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -19614,8 +19626,8 @@
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
-      <c r="H159" s="131"/>
-      <c r="I159" s="131"/>
+      <c r="H159" s="126"/>
+      <c r="I159" s="126"/>
       <c r="J159" s="4"/>
       <c r="K159" s="4"/>
       <c r="L159" s="4"/>
@@ -19633,7 +19645,7 @@
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A160" s="4" t="s">
-        <v>1010</v>
+        <v>974</v>
       </c>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -19641,8 +19653,8 @@
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
-      <c r="H160" s="131"/>
-      <c r="I160" s="131"/>
+      <c r="H160" s="126"/>
+      <c r="I160" s="126"/>
       <c r="J160" s="4"/>
       <c r="K160" s="4"/>
       <c r="L160" s="4"/>
@@ -19660,7 +19672,7 @@
     </row>
     <row r="161" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A161" s="4" t="s">
-        <v>1011</v>
+        <v>975</v>
       </c>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -19668,8 +19680,8 @@
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
-      <c r="H161" s="131"/>
-      <c r="I161" s="131"/>
+      <c r="H161" s="126"/>
+      <c r="I161" s="126"/>
       <c r="J161" s="4"/>
       <c r="K161" s="4"/>
       <c r="L161" s="4"/>
@@ -19687,7 +19699,7 @@
     </row>
     <row r="162" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A162" s="4" t="s">
-        <v>1012</v>
+        <v>976</v>
       </c>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -19695,8 +19707,8 @@
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
-      <c r="H162" s="131"/>
-      <c r="I162" s="131"/>
+      <c r="H162" s="126"/>
+      <c r="I162" s="126"/>
       <c r="J162" s="4"/>
       <c r="K162" s="4"/>
       <c r="L162" s="4"/>
@@ -19714,7 +19726,7 @@
     </row>
     <row r="163" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A163" s="4" t="s">
-        <v>1013</v>
+        <v>977</v>
       </c>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -19722,8 +19734,8 @@
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
-      <c r="H163" s="131"/>
-      <c r="I163" s="131"/>
+      <c r="H163" s="126"/>
+      <c r="I163" s="126"/>
       <c r="J163" s="4"/>
       <c r="K163" s="4"/>
       <c r="L163" s="4"/>
@@ -19741,7 +19753,7 @@
     </row>
     <row r="164" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A164" s="4" t="s">
-        <v>1014</v>
+        <v>978</v>
       </c>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -19749,8 +19761,8 @@
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
-      <c r="H164" s="131"/>
-      <c r="I164" s="131"/>
+      <c r="H164" s="126"/>
+      <c r="I164" s="126"/>
       <c r="J164" s="4"/>
       <c r="K164" s="4"/>
       <c r="L164" s="4"/>
@@ -19768,7 +19780,7 @@
     </row>
     <row r="165" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A165" s="4" t="s">
-        <v>1015</v>
+        <v>979</v>
       </c>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -19776,8 +19788,8 @@
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
-      <c r="H165" s="131"/>
-      <c r="I165" s="131"/>
+      <c r="H165" s="126"/>
+      <c r="I165" s="126"/>
       <c r="J165" s="4"/>
       <c r="K165" s="4"/>
       <c r="L165" s="4"/>
@@ -19795,7 +19807,7 @@
     </row>
     <row r="166" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A166" s="4" t="s">
-        <v>1016</v>
+        <v>980</v>
       </c>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -19803,8 +19815,8 @@
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
-      <c r="H166" s="131"/>
-      <c r="I166" s="131"/>
+      <c r="H166" s="126"/>
+      <c r="I166" s="126"/>
       <c r="J166" s="4"/>
       <c r="K166" s="4"/>
       <c r="L166" s="4"/>
@@ -19822,7 +19834,7 @@
     </row>
     <row r="167" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A167" s="4" t="s">
-        <v>1017</v>
+        <v>981</v>
       </c>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -19830,8 +19842,8 @@
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
-      <c r="H167" s="131"/>
-      <c r="I167" s="131"/>
+      <c r="H167" s="126"/>
+      <c r="I167" s="126"/>
       <c r="J167" s="4"/>
       <c r="K167" s="4"/>
       <c r="L167" s="4"/>
@@ -19849,7 +19861,7 @@
     </row>
     <row r="168" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A168" s="4" t="s">
-        <v>1018</v>
+        <v>982</v>
       </c>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -19857,8 +19869,8 @@
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
-      <c r="H168" s="131"/>
-      <c r="I168" s="131"/>
+      <c r="H168" s="126"/>
+      <c r="I168" s="126"/>
       <c r="J168" s="4"/>
       <c r="K168" s="4"/>
       <c r="L168" s="4"/>
@@ -19876,7 +19888,7 @@
     </row>
     <row r="169" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A169" s="4" t="s">
-        <v>1019</v>
+        <v>983</v>
       </c>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -19884,8 +19896,8 @@
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
-      <c r="H169" s="131"/>
-      <c r="I169" s="131"/>
+      <c r="H169" s="126"/>
+      <c r="I169" s="126"/>
       <c r="J169" s="4"/>
       <c r="K169" s="4"/>
       <c r="L169" s="4"/>
@@ -19903,7 +19915,7 @@
     </row>
     <row r="170" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A170" s="4" t="s">
-        <v>1020</v>
+        <v>984</v>
       </c>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -19911,8 +19923,8 @@
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
-      <c r="H170" s="131"/>
-      <c r="I170" s="131"/>
+      <c r="H170" s="126"/>
+      <c r="I170" s="126"/>
       <c r="J170" s="4"/>
       <c r="K170" s="4"/>
       <c r="L170" s="4"/>
@@ -19930,7 +19942,7 @@
     </row>
     <row r="171" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A171" s="4" t="s">
-        <v>1021</v>
+        <v>985</v>
       </c>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -19938,8 +19950,8 @@
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
       <c r="G171" s="4"/>
-      <c r="H171" s="131"/>
-      <c r="I171" s="131"/>
+      <c r="H171" s="126"/>
+      <c r="I171" s="126"/>
       <c r="J171" s="4"/>
       <c r="K171" s="4"/>
       <c r="L171" s="4"/>
@@ -19957,7 +19969,7 @@
     </row>
     <row r="172" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A172" s="4" t="s">
-        <v>1022</v>
+        <v>986</v>
       </c>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -19965,8 +19977,8 @@
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
-      <c r="H172" s="131"/>
-      <c r="I172" s="131"/>
+      <c r="H172" s="126"/>
+      <c r="I172" s="126"/>
       <c r="J172" s="4"/>
       <c r="K172" s="4"/>
       <c r="L172" s="4"/>
@@ -19984,7 +19996,7 @@
     </row>
     <row r="173" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A173" s="4" t="s">
-        <v>1023</v>
+        <v>987</v>
       </c>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -19992,8 +20004,8 @@
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
       <c r="G173" s="4"/>
-      <c r="H173" s="131"/>
-      <c r="I173" s="131"/>
+      <c r="H173" s="126"/>
+      <c r="I173" s="126"/>
       <c r="J173" s="4"/>
       <c r="K173" s="4"/>
       <c r="L173" s="4"/>
@@ -20011,7 +20023,7 @@
     </row>
     <row r="174" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A174" s="4" t="s">
-        <v>1024</v>
+        <v>988</v>
       </c>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -20019,8 +20031,8 @@
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
       <c r="G174" s="4"/>
-      <c r="H174" s="131"/>
-      <c r="I174" s="131"/>
+      <c r="H174" s="126"/>
+      <c r="I174" s="126"/>
       <c r="J174" s="4"/>
       <c r="K174" s="4"/>
       <c r="L174" s="4"/>
@@ -20038,7 +20050,7 @@
     </row>
     <row r="175" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A175" s="4" t="s">
-        <v>1025</v>
+        <v>989</v>
       </c>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -20046,8 +20058,8 @@
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
       <c r="G175" s="4"/>
-      <c r="H175" s="131"/>
-      <c r="I175" s="131"/>
+      <c r="H175" s="126"/>
+      <c r="I175" s="126"/>
       <c r="J175" s="4"/>
       <c r="K175" s="4"/>
       <c r="L175" s="4"/>
@@ -20065,7 +20077,7 @@
     </row>
     <row r="176" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A176" s="4" t="s">
-        <v>1026</v>
+        <v>990</v>
       </c>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -20073,8 +20085,8 @@
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
       <c r="G176" s="4"/>
-      <c r="H176" s="131"/>
-      <c r="I176" s="131"/>
+      <c r="H176" s="126"/>
+      <c r="I176" s="126"/>
       <c r="J176" s="4"/>
       <c r="K176" s="4"/>
       <c r="L176" s="4"/>
@@ -20092,7 +20104,7 @@
     </row>
     <row r="177" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A177" s="4" t="s">
-        <v>1044</v>
+        <v>991</v>
       </c>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -20100,8 +20112,8 @@
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
       <c r="G177" s="4"/>
-      <c r="H177" s="131"/>
-      <c r="I177" s="131"/>
+      <c r="H177" s="126"/>
+      <c r="I177" s="126"/>
       <c r="J177" s="4"/>
       <c r="K177" s="4"/>
       <c r="L177" s="4"/>
@@ -20119,7 +20131,7 @@
     </row>
     <row r="178" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A178" s="4" t="s">
-        <v>1045</v>
+        <v>1009</v>
       </c>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -20127,8 +20139,8 @@
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
-      <c r="H178" s="131"/>
-      <c r="I178" s="131"/>
+      <c r="H178" s="126"/>
+      <c r="I178" s="126"/>
       <c r="J178" s="4"/>
       <c r="K178" s="4"/>
       <c r="L178" s="4"/>
@@ -20146,7 +20158,7 @@
     </row>
     <row r="179" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A179" s="4" t="s">
-        <v>1046</v>
+        <v>1010</v>
       </c>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -20154,8 +20166,8 @@
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
       <c r="G179" s="4"/>
-      <c r="H179" s="131"/>
-      <c r="I179" s="131"/>
+      <c r="H179" s="126"/>
+      <c r="I179" s="126"/>
       <c r="J179" s="4"/>
       <c r="K179" s="4"/>
       <c r="L179" s="4"/>
@@ -20173,7 +20185,7 @@
     </row>
     <row r="180" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A180" s="4" t="s">
-        <v>1047</v>
+        <v>1011</v>
       </c>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -20181,8 +20193,8 @@
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
       <c r="G180" s="4"/>
-      <c r="H180" s="131"/>
-      <c r="I180" s="131"/>
+      <c r="H180" s="126"/>
+      <c r="I180" s="126"/>
       <c r="J180" s="4"/>
       <c r="K180" s="4"/>
       <c r="L180" s="4"/>
@@ -20200,7 +20212,7 @@
     </row>
     <row r="181" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A181" s="4" t="s">
-        <v>1101</v>
+        <v>1012</v>
       </c>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -20208,8 +20220,8 @@
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
       <c r="G181" s="4"/>
-      <c r="H181" s="131"/>
-      <c r="I181" s="131"/>
+      <c r="H181" s="126"/>
+      <c r="I181" s="126"/>
       <c r="J181" s="4"/>
       <c r="K181" s="4"/>
       <c r="L181" s="4"/>
@@ -20227,7 +20239,7 @@
     </row>
     <row r="182" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A182" s="4" t="s">
-        <v>1102</v>
+        <v>1060</v>
       </c>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -20235,8 +20247,8 @@
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
       <c r="G182" s="4"/>
-      <c r="H182" s="131"/>
-      <c r="I182" s="131"/>
+      <c r="H182" s="126"/>
+      <c r="I182" s="126"/>
       <c r="J182" s="4"/>
       <c r="K182" s="4"/>
       <c r="L182" s="4"/>
@@ -20254,7 +20266,7 @@
     </row>
     <row r="183" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A183" s="4" t="s">
-        <v>1103</v>
+        <v>1061</v>
       </c>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -20262,8 +20274,8 @@
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
       <c r="G183" s="4"/>
-      <c r="H183" s="131"/>
-      <c r="I183" s="131"/>
+      <c r="H183" s="126"/>
+      <c r="I183" s="126"/>
       <c r="J183" s="4"/>
       <c r="K183" s="4"/>
       <c r="L183" s="4"/>
@@ -20281,7 +20293,7 @@
     </row>
     <row r="184" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A184" s="4" t="s">
-        <v>1104</v>
+        <v>1062</v>
       </c>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -20289,8 +20301,8 @@
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
       <c r="G184" s="4"/>
-      <c r="H184" s="131"/>
-      <c r="I184" s="131"/>
+      <c r="H184" s="126"/>
+      <c r="I184" s="126"/>
       <c r="J184" s="4"/>
       <c r="K184" s="4"/>
       <c r="L184" s="4"/>
@@ -20308,7 +20320,7 @@
     </row>
     <row r="185" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A185" s="4" t="s">
-        <v>1105</v>
+        <v>1063</v>
       </c>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -20316,8 +20328,8 @@
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
       <c r="G185" s="4"/>
-      <c r="H185" s="131"/>
-      <c r="I185" s="131"/>
+      <c r="H185" s="126"/>
+      <c r="I185" s="126"/>
       <c r="J185" s="4"/>
       <c r="K185" s="4"/>
       <c r="L185" s="4"/>
@@ -20335,7 +20347,7 @@
     </row>
     <row r="186" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A186" s="4" t="s">
-        <v>1106</v>
+        <v>1064</v>
       </c>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -20343,8 +20355,8 @@
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
       <c r="G186" s="4"/>
-      <c r="H186" s="131"/>
-      <c r="I186" s="131"/>
+      <c r="H186" s="126"/>
+      <c r="I186" s="126"/>
       <c r="J186" s="4"/>
       <c r="K186" s="4"/>
       <c r="L186" s="4"/>
@@ -20362,7 +20374,7 @@
     </row>
     <row r="187" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A187" s="4" t="s">
-        <v>1107</v>
+        <v>1065</v>
       </c>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -20370,8 +20382,8 @@
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
       <c r="G187" s="4"/>
-      <c r="H187" s="131"/>
-      <c r="I187" s="131"/>
+      <c r="H187" s="126"/>
+      <c r="I187" s="126"/>
       <c r="J187" s="4"/>
       <c r="K187" s="4"/>
       <c r="L187" s="4"/>
@@ -20389,7 +20401,7 @@
     </row>
     <row r="188" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A188" s="4" t="s">
-        <v>1108</v>
+        <v>1066</v>
       </c>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -20397,8 +20409,8 @@
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
       <c r="G188" s="4"/>
-      <c r="H188" s="131"/>
-      <c r="I188" s="131"/>
+      <c r="H188" s="126"/>
+      <c r="I188" s="126"/>
       <c r="J188" s="4"/>
       <c r="K188" s="4"/>
       <c r="L188" s="4"/>
@@ -20416,7 +20428,7 @@
     </row>
     <row r="189" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A189" s="4" t="s">
-        <v>1109</v>
+        <v>1067</v>
       </c>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -20424,8 +20436,8 @@
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
       <c r="G189" s="4"/>
-      <c r="H189" s="131"/>
-      <c r="I189" s="131"/>
+      <c r="H189" s="126"/>
+      <c r="I189" s="126"/>
       <c r="J189" s="4"/>
       <c r="K189" s="4"/>
       <c r="L189" s="4"/>
@@ -20443,7 +20455,7 @@
     </row>
     <row r="190" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A190" s="4" t="s">
-        <v>1110</v>
+        <v>1068</v>
       </c>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -20451,8 +20463,8 @@
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
       <c r="G190" s="4"/>
-      <c r="H190" s="131"/>
-      <c r="I190" s="131"/>
+      <c r="H190" s="126"/>
+      <c r="I190" s="126"/>
       <c r="J190" s="4"/>
       <c r="K190" s="4"/>
       <c r="L190" s="4"/>
@@ -20470,7 +20482,7 @@
     </row>
     <row r="191" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A191" s="4" t="s">
-        <v>1111</v>
+        <v>1069</v>
       </c>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -20478,8 +20490,8 @@
       <c r="E191" s="4"/>
       <c r="F191" s="4"/>
       <c r="G191" s="4"/>
-      <c r="H191" s="131"/>
-      <c r="I191" s="131"/>
+      <c r="H191" s="126"/>
+      <c r="I191" s="126"/>
       <c r="J191" s="4"/>
       <c r="K191" s="4"/>
       <c r="L191" s="4"/>
@@ -20495,6 +20507,33 @@
       <c r="V191" s="4"/>
       <c r="W191" s="4"/>
     </row>
+    <row r="192" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A192" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B192" s="4"/>
+      <c r="C192" s="4"/>
+      <c r="D192" s="4"/>
+      <c r="E192" s="4"/>
+      <c r="F192" s="4"/>
+      <c r="G192" s="4"/>
+      <c r="H192" s="126"/>
+      <c r="I192" s="126"/>
+      <c r="J192" s="4"/>
+      <c r="K192" s="4"/>
+      <c r="L192" s="4"/>
+      <c r="M192" s="4"/>
+      <c r="N192" s="4"/>
+      <c r="O192" s="4"/>
+      <c r="P192" s="4"/>
+      <c r="Q192" s="4"/>
+      <c r="R192" s="4"/>
+      <c r="S192" s="4"/>
+      <c r="T192" s="54"/>
+      <c r="U192" s="4"/>
+      <c r="V192" s="4"/>
+      <c r="W192" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20506,49 +20545,49 @@
           <x14:formula1>
             <xm:f>Sheet2!$M$4:$M$6</xm:f>
           </x14:formula1>
-          <xm:sqref>S3:S191</xm:sqref>
+          <xm:sqref>S3:S81 S82:S192</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$G$4:$G$11</xm:f>
           </x14:formula1>
-          <xm:sqref>R3:R191</xm:sqref>
+          <xm:sqref>R3:R81 R82:R192</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$K$4:$K$13</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:K191</xm:sqref>
+          <xm:sqref>K3:K81 K82:K192</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$J$4:$J$9</xm:f>
           </x14:formula1>
-          <xm:sqref>Q3:Q191</xm:sqref>
+          <xm:sqref>Q3:Q81 Q82:Q192</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$G$4:$G$10</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:O191</xm:sqref>
+          <xm:sqref>M3:O81 M82:O192</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$F$4:$F$8</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L191</xm:sqref>
+          <xm:sqref>L3:L81 L82:L192</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$D$4:$D$9</xm:f>
           </x14:formula1>
-          <xm:sqref>J3:J191</xm:sqref>
+          <xm:sqref>J3:J81 J82:J192</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Story Point">
           <x14:formula1>
             <xm:f>'C:\Users\Omnex\Documents\[performanetools1.txt.xlsx]Data_Ref'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>P3:P191</xm:sqref>
+          <xm:sqref>P3:P81 P82:P192</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/projects/YanFeng/02 System Design/User Stories/User Stories.xlsx
+++ b/projects/YanFeng/02 System Design/User Stories/User Stories.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2599" uniqueCount="1144">
   <si>
     <t>ID</t>
   </si>
@@ -3059,12 +3059,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1, ASDE/SQE super should see all menu items of the floating menu of a project;
-2, ASDE/SQE should see only the menu items of "View Project Information","Refresh";
-3, Suppliers should see only the menu items of "Refresh";</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>I can refer to the projet detail information during the workflow;</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3161,13 +3155,6 @@
   </si>
   <si>
     <t>ASDE/SQE supervisor</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1, ASDE/SQE supervisro should see all menu items of the floating menu of a part;
-2, ASDE/SQE should see only the menu items of "New APQP","New PPAP","New PPQP","View Part Information","Export","Generate &amp; View Report","Refresh";
-3, Suppliers should see only the menu items of "View Part Information","Refresh";
-</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -3197,10 +3184,6 @@
   </si>
   <si>
     <t>Import parts to selected project from an existing excel sheet by selecting the menu item "Import Parts"  in floating menu of Project</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Link the corresponding functions "Create New Project" "Edit Existing Project" "Create New Part" "Publish a Project" "Close a project" “Generate &amp; View Report" to the floating menu of project</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -3716,12 +3699,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1, User should see the fields : No(read-only),Task Name, Request Start Date,Request Finish Date,Deliver Date, Confirm Date, % Complete, Approver,Owner,Status, Budget Days, Budget Hrs, Comments;
-2, User should see attachments list;
-3, User should see "Save" "Close Project" "Cancel" buttons;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Attache files to a project main task</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3766,22 +3743,6 @@
   </si>
   <si>
     <t>I can provide the relative reference for the part task processors</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, User should see attachments list in page "Edit Project Main Task Information;
-2, User shouls see "update" button;
-3, User should see a new pop-up form which allows user to upload files;
-4, User should see three most recent attached files in "Edit Project Main Task Information" page;
-5, User should see all attachments in new form when user clicking on the link "more..."</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, User should see attachments list in page "Edit Part Task Information;
-2, User shouls see "update" button;
-3, User should see a new pop-up form which allows user to upload files;
-4, User should see three most recent attached files in "Edit part Task Information" page;
-5, User should see all attachments in new form when user clicking on the link "more..."</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -3954,11 +3915,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1, User shoud see value "Close" in task status dropdown list;
-2, User should se button "Submit Task";</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Reopen the part task that assigned to me</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3968,11 +3924,6 @@
   </si>
   <si>
     <t>I can reopen the closed part task</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, User shoud see value "Reopen" in task status dropdown list;
-3, User should se button "Submit Task";</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -4620,6 +4571,142 @@
   </si>
   <si>
     <t>As a user, I want to operate the tasks using a task toolbar in the task list view, so that I can easyly update the task inforamtion in single form</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDE/SQE;
+Supplier</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>View project main task informaiton in read-only mode</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can make reference to the project main task information</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see window "Project Main Task Information" when double clicking on a project main task;
+2, User should see all fields in read-only mode;
+3, User should see "Close" button;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supplier</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>View a part task in read-only mode</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can make reference to the part task information</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see "Part Task Information" window when double clicking on the a part task in task list view;
+2, User should see all fields in read-only mode;
+3, User should see "Close" button;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1, ASDE/SQE supervisor should see all menu items of the floating menu of a part;
+2, ASDE/SQE should see only the menu items of "New APQP","New PPAP","New PPQP","View Part Information","Export","Generate &amp; View Report","Refresh";
+3, Suppliers should see only the menu items of "View Part Information","Refresh";
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, ASDE/SQE supervisor should see all menu items of the floating menu of a project;
+2, ASDE/SQE should see only the menu items of "View Project Information","Refresh";
+3, Suppliers should see only the menu items of "View Project Information" "Refresh";</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Link the corresponding functions "New Project" "Edit Existing Project" "Create New Part" "Publish a Project" "Close a project" “Generate &amp; View Report" to the floating menu of project</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see value "Reopen" in task status dropdown list;
+3, User should se button "Save";</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add Comments to a project main task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can provide suggestions to the project main task viewers</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1, User should see attachments list in page "Edit Project Main Task Information;
+2, User shouls see clickable "+" icon;
+3, User should see a new pop-up form which allows user to upload files;
+4, User should see "Upload" and "Cancel' button in new pop-up window
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">I can view the content of a attachment </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, user should be be forward to external system to view the document by clicking the attachment link;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can view the entire content of the comment</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see the entire content of the comment in a new pop-up window(as same as the window "Add comments", but in read-only mode);</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDE/SQE supervisor;
+ASDE/SQE
+Supplier</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see comments list in page "Edit Project Main Task Information";
+2, User should see clickable "+" icon;
+3, User should see a new pop-up form which allows user to edit comment content;
+4, User should see "Save" and "Cancel" button in new pop-up window;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see attachments list in page "Edit Part Task Information;
+2, User shouls see Clickable "+" icon;
+3, User should see a new pop-up form which allows user to upload files;
+4, User should see "Save" and "Cancel" button in new pop-up window;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open a attachment of project main task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open the comment of a project main task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open a attachment of part task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add Comments to a part task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open the comment of a part task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User shoud see value "Close" in task status dropdown list;
+2, User should see button "Save";</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -5375,6 +5462,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5389,9 +5479,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5926,25 +6013,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="132" t="s">
         <v>563</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
       <c r="I2" s="98"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="133"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
       <c r="I3" s="99" t="s">
         <v>557</v>
       </c>
@@ -6018,7 +6105,7 @@
       </c>
       <c r="E6" s="99">
         <f>COUNTIF('Project Management'!J:J,"High")</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F6" s="99">
         <f>COUNTIF('Project Management'!J:J,"Medium")</f>
@@ -6026,7 +6113,7 @@
       </c>
       <c r="G6" s="99">
         <f>COUNTIF('Project Management'!J:J,"Low")</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6" s="99">
         <f>COUNTIF('Project Management'!J:J,"Very Low")</f>
@@ -6034,7 +6121,7 @@
       </c>
       <c r="I6" s="99">
         <f t="shared" ref="I6:I12" si="0">SUM(C6:H6)</f>
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
@@ -6249,7 +6336,7 @@
       </c>
       <c r="E13" s="99">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F13" s="99">
         <f t="shared" si="1"/>
@@ -6257,7 +6344,7 @@
       </c>
       <c r="G13" s="99">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H13" s="99">
         <f t="shared" si="1"/>
@@ -6269,16 +6356,16 @@
       <c r="B14" s="102" t="s">
         <v>559</v>
       </c>
-      <c r="C14" s="130">
+      <c r="C14" s="131">
         <f>SUM(C13:H13)</f>
-        <v>186</v>
-      </c>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="130"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
+        <v>191</v>
+      </c>
+      <c r="D14" s="131"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12872,11 +12959,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W192"/>
+  <dimension ref="A1:W200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F117" sqref="F117"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13008,10 +13095,10 @@
     </row>
     <row r="3" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B3" s="119" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>595</v>
@@ -13023,13 +13110,13 @@
         <v>499</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>740</v>
       </c>
       <c r="H3" s="126" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="I3" s="125" t="s">
         <v>742</v>
@@ -13055,10 +13142,10 @@
     </row>
     <row r="4" spans="1:23" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B4" s="119" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>595</v>
@@ -13070,13 +13157,13 @@
         <v>499</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>776</v>
+        <v>1126</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="H4" s="126" t="s">
         <v>759</v>
-      </c>
-      <c r="H4" s="126" t="s">
-        <v>760</v>
       </c>
       <c r="I4" s="125"/>
       <c r="J4" s="4" t="s">
@@ -13098,12 +13185,12 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
     </row>
-    <row r="5" spans="1:23" ht="72" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>255</v>
       </c>
       <c r="B5" s="119" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>595</v>
@@ -13121,7 +13208,7 @@
         <v>746</v>
       </c>
       <c r="H5" s="126" t="s">
-        <v>747</v>
+        <v>1125</v>
       </c>
       <c r="I5" s="125"/>
       <c r="J5" s="4" t="s">
@@ -13148,7 +13235,7 @@
         <v>256</v>
       </c>
       <c r="B6" s="119" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>595</v>
@@ -13160,13 +13247,13 @@
         <v>499</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>741</v>
       </c>
       <c r="H6" s="126" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="I6" s="125" t="s">
         <v>743</v>
@@ -13195,7 +13282,7 @@
         <v>257</v>
       </c>
       <c r="B7" s="119" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>595</v>
@@ -13207,13 +13294,13 @@
         <v>499</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>746</v>
       </c>
       <c r="H7" s="126" t="s">
-        <v>770</v>
+        <v>1124</v>
       </c>
       <c r="I7" s="125"/>
       <c r="J7" s="4" t="s">
@@ -13252,13 +13339,13 @@
         <v>499</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="H8" s="126" t="s">
         <v>749</v>
-      </c>
-      <c r="H8" s="126" t="s">
-        <v>750</v>
       </c>
       <c r="I8" s="125"/>
       <c r="J8" s="4" t="s">
@@ -13285,7 +13372,7 @@
         <v>259</v>
       </c>
       <c r="B9" s="119" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>595</v>
@@ -13297,13 +13384,13 @@
         <v>499</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="H9" s="126" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="I9" s="125" t="s">
         <v>744</v>
@@ -13332,7 +13419,7 @@
         <v>260</v>
       </c>
       <c r="B10" s="119" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>595</v>
@@ -13341,16 +13428,16 @@
         <v>497</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>1089</v>
+        <v>1081</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>746</v>
       </c>
       <c r="H10" s="126" t="s">
-        <v>1090</v>
+        <v>1082</v>
       </c>
       <c r="I10" s="125"/>
       <c r="J10" s="4" t="s">
@@ -13377,7 +13464,7 @@
         <v>261</v>
       </c>
       <c r="B11" s="119" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>595</v>
@@ -13386,16 +13473,16 @@
         <v>497</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="H11" s="126" t="s">
         <v>749</v>
-      </c>
-      <c r="H11" s="126" t="s">
-        <v>750</v>
       </c>
       <c r="I11" s="126"/>
       <c r="J11" s="4" t="s">
@@ -13422,25 +13509,25 @@
         <v>262</v>
       </c>
       <c r="B12" s="122" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="H12" s="126" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="I12" s="126"/>
       <c r="J12" s="4" t="s">
@@ -13467,25 +13554,25 @@
         <v>263</v>
       </c>
       <c r="B13" s="122" t="s">
+        <v>984</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>992</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="H13" s="126" t="s">
         <v>993</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>994</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>995</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>999</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>1000</v>
-      </c>
-      <c r="H13" s="126" t="s">
-        <v>1001</v>
       </c>
       <c r="I13" s="126"/>
       <c r="J13" s="4" t="s">
@@ -13512,25 +13599,25 @@
         <v>526</v>
       </c>
       <c r="B14" s="122" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>994</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>995</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>1002</v>
-      </c>
       <c r="H14" s="126" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="I14" s="126"/>
       <c r="J14" s="4" t="s">
@@ -13557,28 +13644,28 @@
         <v>267</v>
       </c>
       <c r="B15" s="122" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="H15" s="126" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="I15" s="126" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>45</v>
@@ -13604,7 +13691,7 @@
         <v>272</v>
       </c>
       <c r="B16" s="118" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>500</v>
@@ -13616,13 +13703,13 @@
         <v>499</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="H16" s="126" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="I16" s="127"/>
       <c r="J16" s="4" t="s">
@@ -13649,7 +13736,7 @@
         <v>279</v>
       </c>
       <c r="B17" s="118" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>500</v>
@@ -13661,13 +13748,13 @@
         <v>499</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H17" s="126" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="I17" s="127"/>
       <c r="J17" s="4" t="s">
@@ -13694,7 +13781,7 @@
         <v>280</v>
       </c>
       <c r="B18" s="118" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>500</v>
@@ -13706,16 +13793,16 @@
         <v>499</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="H18" s="126" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="I18" s="127" t="s">
-        <v>1092</v>
+        <v>1084</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>44</v>
@@ -13741,7 +13828,7 @@
         <v>291</v>
       </c>
       <c r="B19" s="118" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>500</v>
@@ -13753,7 +13840,7 @@
         <v>499</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>592</v>
@@ -13788,7 +13875,7 @@
         <v>296</v>
       </c>
       <c r="B20" s="118" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>500</v>
@@ -13800,13 +13887,13 @@
         <v>717</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H20" s="126" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I20" s="125"/>
       <c r="J20" s="4" t="s">
@@ -13833,7 +13920,7 @@
         <v>301</v>
       </c>
       <c r="B21" s="118" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>500</v>
@@ -13845,13 +13932,13 @@
         <v>499</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>511</v>
       </c>
       <c r="H21" s="126" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="I21" s="127"/>
       <c r="J21" s="4" t="s">
@@ -13878,7 +13965,7 @@
         <v>307</v>
       </c>
       <c r="B22" s="118" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>500</v>
@@ -13890,13 +13977,13 @@
         <v>499</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>501</v>
       </c>
       <c r="H22" s="126" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="I22" s="127" t="s">
         <v>502</v>
@@ -13925,10 +14012,10 @@
         <v>311</v>
       </c>
       <c r="B23" s="118" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>497</v>
@@ -13937,7 +14024,7 @@
         <v>499</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>503</v>
@@ -13970,10 +14057,10 @@
         <v>315</v>
       </c>
       <c r="B24" s="118" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>497</v>
@@ -14015,7 +14102,7 @@
         <v>321</v>
       </c>
       <c r="B25" s="118" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>500</v>
@@ -14060,7 +14147,7 @@
         <v>325</v>
       </c>
       <c r="B26" s="118" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>500</v>
@@ -14105,7 +14192,7 @@
         <v>353</v>
       </c>
       <c r="B27" s="118" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>500</v>
@@ -14120,7 +14207,7 @@
         <v>536</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="H27" s="126" t="s">
         <v>537</v>
@@ -14152,7 +14239,7 @@
         <v>354</v>
       </c>
       <c r="B28" s="118" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>500</v>
@@ -14197,10 +14284,10 @@
         <v>535</v>
       </c>
       <c r="B29" s="118" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>497</v>
@@ -14242,10 +14329,10 @@
         <v>364</v>
       </c>
       <c r="B30" s="118" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>497</v>
@@ -14289,10 +14376,10 @@
         <v>368</v>
       </c>
       <c r="B31" s="118" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>497</v>
@@ -14336,10 +14423,10 @@
         <v>372</v>
       </c>
       <c r="B32" s="118" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>497</v>
@@ -14383,10 +14470,10 @@
         <v>376</v>
       </c>
       <c r="B33" s="118" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>497</v>
@@ -14428,10 +14515,10 @@
         <v>380</v>
       </c>
       <c r="B34" s="118" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>497</v>
@@ -14475,10 +14562,10 @@
         <v>384</v>
       </c>
       <c r="B35" s="118" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>497</v>
@@ -14520,10 +14607,10 @@
         <v>388</v>
       </c>
       <c r="B36" s="118" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>497</v>
@@ -14565,10 +14652,10 @@
         <v>392</v>
       </c>
       <c r="B37" s="118" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>497</v>
@@ -14610,7 +14697,7 @@
         <v>396</v>
       </c>
       <c r="B38" s="118" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>500</v>
@@ -14655,10 +14742,10 @@
         <v>401</v>
       </c>
       <c r="B39" s="118" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>497</v>
@@ -14700,7 +14787,7 @@
         <v>405</v>
       </c>
       <c r="B40" s="118" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>500</v>
@@ -14712,13 +14799,13 @@
         <v>597</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="H40" s="126" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="I40" s="126" t="s">
         <v>599</v>
@@ -14747,7 +14834,7 @@
         <v>409</v>
       </c>
       <c r="B41" s="118" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>500</v>
@@ -14762,10 +14849,10 @@
         <v>600</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="H41" s="126" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="I41" s="126"/>
       <c r="J41" s="4" t="s">
@@ -14792,7 +14879,7 @@
         <v>412</v>
       </c>
       <c r="B42" s="118" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>500</v>
@@ -14837,10 +14924,10 @@
         <v>417</v>
       </c>
       <c r="B43" s="118" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D43" s="40" t="s">
         <v>497</v>
@@ -14882,10 +14969,10 @@
         <v>421</v>
       </c>
       <c r="B44" s="120" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>497</v>
@@ -14894,13 +14981,13 @@
         <v>499</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H44" s="126" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="I44" s="125"/>
       <c r="J44" s="4" t="s">
@@ -14927,10 +15014,10 @@
         <v>425</v>
       </c>
       <c r="B45" s="120" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>497</v>
@@ -14939,13 +15026,13 @@
         <v>499</v>
       </c>
       <c r="F45" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>754</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="H45" s="126" t="s">
         <v>755</v>
-      </c>
-      <c r="H45" s="126" t="s">
-        <v>756</v>
       </c>
       <c r="I45" s="125"/>
       <c r="J45" s="4" t="s">
@@ -14972,10 +15059,10 @@
         <v>428</v>
       </c>
       <c r="B46" s="120" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>497</v>
@@ -14987,10 +15074,10 @@
         <v>521</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="H46" s="126" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="I46" s="126" t="s">
         <v>619</v>
@@ -15019,10 +15106,10 @@
         <v>433</v>
       </c>
       <c r="B47" s="120" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>497</v>
@@ -15037,7 +15124,7 @@
         <v>523</v>
       </c>
       <c r="H47" s="126" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="I47" s="126" t="s">
         <v>524</v>
@@ -15066,10 +15153,10 @@
         <v>439</v>
       </c>
       <c r="B48" s="120" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>497</v>
@@ -15078,13 +15165,13 @@
         <v>499</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="H48" s="126" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="I48" s="126"/>
       <c r="J48" s="4" t="s">
@@ -15111,10 +15198,10 @@
         <v>445</v>
       </c>
       <c r="B49" s="120" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>497</v>
@@ -15123,13 +15210,13 @@
         <v>499</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="H49" s="126" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="I49" s="126"/>
       <c r="J49" s="4" t="s">
@@ -15156,10 +15243,10 @@
         <v>446</v>
       </c>
       <c r="B50" s="120" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>497</v>
@@ -15168,13 +15255,13 @@
         <v>499</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="H50" s="126" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="I50" s="126"/>
       <c r="J50" s="4" t="s">
@@ -15201,10 +15288,10 @@
         <v>453</v>
       </c>
       <c r="B51" s="120" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>596</v>
@@ -15213,13 +15300,13 @@
         <v>597</v>
       </c>
       <c r="F51" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="H51" s="126" t="s">
         <v>833</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>835</v>
-      </c>
-      <c r="H51" s="126" t="s">
-        <v>836</v>
       </c>
       <c r="I51" s="126"/>
       <c r="J51" s="4" t="s">
@@ -15246,10 +15333,10 @@
         <v>457</v>
       </c>
       <c r="B52" s="120" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>596</v>
@@ -15291,10 +15378,10 @@
         <v>462</v>
       </c>
       <c r="B53" s="120" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>497</v>
@@ -15303,13 +15390,13 @@
         <v>499</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="H53" s="126" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="I53" s="126"/>
       <c r="J53" s="4" t="s">
@@ -15336,10 +15423,10 @@
         <v>466</v>
       </c>
       <c r="B54" s="120" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>596</v>
@@ -15383,7 +15470,7 @@
         <v>469</v>
       </c>
       <c r="B55" s="120" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>595</v>
@@ -15392,16 +15479,16 @@
         <v>497</v>
       </c>
       <c r="E55" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>764</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>829</v>
-      </c>
-      <c r="G55" s="4" t="s">
+      <c r="H55" s="126" t="s">
         <v>765</v>
-      </c>
-      <c r="H55" s="126" t="s">
-        <v>766</v>
       </c>
       <c r="I55" s="125"/>
       <c r="J55" s="4" t="s">
@@ -15428,16 +15515,16 @@
         <v>474</v>
       </c>
       <c r="B56" s="120" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>596</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>680</v>
@@ -15473,10 +15560,10 @@
         <v>477</v>
       </c>
       <c r="B57" s="120" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>497</v>
@@ -15485,7 +15572,7 @@
         <v>499</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>527</v>
@@ -15518,10 +15605,10 @@
         <v>480</v>
       </c>
       <c r="B58" s="120" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>497</v>
@@ -15563,10 +15650,10 @@
         <v>484</v>
       </c>
       <c r="B59" s="120" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>497</v>
@@ -15608,10 +15695,10 @@
         <v>620</v>
       </c>
       <c r="B60" s="120" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>497</v>
@@ -15653,10 +15740,10 @@
         <v>621</v>
       </c>
       <c r="B61" s="120" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>497</v>
@@ -15698,10 +15785,10 @@
         <v>622</v>
       </c>
       <c r="B62" s="120" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>497</v>
@@ -15743,10 +15830,10 @@
         <v>623</v>
       </c>
       <c r="B63" s="120" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>497</v>
@@ -15755,7 +15842,7 @@
         <v>499</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>525</v>
@@ -15788,10 +15875,10 @@
         <v>624</v>
       </c>
       <c r="B64" s="120" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>497</v>
@@ -15800,7 +15887,7 @@
         <v>499</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>567</v>
@@ -15833,10 +15920,10 @@
         <v>625</v>
       </c>
       <c r="B65" s="120" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>497</v>
@@ -15878,10 +15965,10 @@
         <v>626</v>
       </c>
       <c r="B66" s="120" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>497</v>
@@ -15923,10 +16010,10 @@
         <v>627</v>
       </c>
       <c r="B67" s="120" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>596</v>
@@ -15938,10 +16025,10 @@
         <v>601</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="H67" s="126" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="I67" s="126"/>
       <c r="J67" s="4" t="s">
@@ -15965,13 +16052,13 @@
     </row>
     <row r="68" spans="1:23" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="B68" s="120" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>497</v>
@@ -15980,13 +16067,13 @@
         <v>499</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="G68" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="H68" s="126" t="s">
         <v>767</v>
-      </c>
-      <c r="H68" s="126" t="s">
-        <v>768</v>
       </c>
       <c r="I68" s="128"/>
       <c r="J68" s="4" t="s">
@@ -16013,25 +16100,25 @@
         <v>628</v>
       </c>
       <c r="B69" s="121" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
       <c r="H69" s="126" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="I69" s="128"/>
       <c r="J69" s="4" t="s">
@@ -16058,10 +16145,10 @@
         <v>629</v>
       </c>
       <c r="B70" s="121" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>497</v>
@@ -16070,13 +16157,13 @@
         <v>499</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H70" s="126" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I70" s="128"/>
       <c r="J70" s="4" t="s">
@@ -16103,10 +16190,10 @@
         <v>630</v>
       </c>
       <c r="B71" s="121" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>497</v>
@@ -16115,16 +16202,16 @@
         <v>499</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="G71" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H71" s="126" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I71" s="128" t="s">
         <v>1031</v>
-      </c>
-      <c r="H71" s="126" t="s">
-        <v>1029</v>
-      </c>
-      <c r="I71" s="128" t="s">
-        <v>1039</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>44</v>
@@ -16150,28 +16237,28 @@
         <v>631</v>
       </c>
       <c r="B72" s="121" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
       <c r="H72" s="126" t="s">
-        <v>1038</v>
+        <v>1030</v>
       </c>
       <c r="I72" s="128" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="J72" s="4" t="s">
         <v>44</v>
@@ -16197,28 +16284,28 @@
         <v>632</v>
       </c>
       <c r="B73" s="121" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="H73" s="126" t="s">
-        <v>1037</v>
+        <v>1029</v>
       </c>
       <c r="I73" s="128" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>44</v>
@@ -16244,10 +16331,10 @@
         <v>633</v>
       </c>
       <c r="B74" s="121" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>497</v>
@@ -16256,16 +16343,16 @@
         <v>720</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="H74" s="126" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="I74" s="128" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
       <c r="J74" s="4" t="s">
         <v>44</v>
@@ -16291,25 +16378,25 @@
         <v>634</v>
       </c>
       <c r="B75" s="121" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
       <c r="H75" s="126" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="I75" s="128"/>
       <c r="J75" s="4"/>
@@ -16327,37 +16414,41 @@
       <c r="V75" s="4"/>
       <c r="W75" s="4"/>
     </row>
-    <row r="76" spans="1:23" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:23" ht="120" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
         <v>635</v>
       </c>
       <c r="B76" s="121" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>1079</v>
+        <v>1071</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
       <c r="H76" s="126" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
       <c r="I76" s="128" t="s">
-        <v>1077</v>
-      </c>
-      <c r="J76" s="4"/>
+        <v>1069</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
+      <c r="L76" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
@@ -16375,10 +16466,10 @@
         <v>634</v>
       </c>
       <c r="B77" s="121" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>497</v>
@@ -16387,13 +16478,13 @@
         <v>499</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H77" s="126" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="I77" s="128"/>
       <c r="J77" s="4" t="s">
@@ -16420,25 +16511,25 @@
         <v>635</v>
       </c>
       <c r="B78" s="121" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E78" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="G78" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="F78" s="4" t="s">
-        <v>832</v>
-      </c>
-      <c r="G78" s="4" t="s">
+      <c r="H78" s="126" t="s">
         <v>762</v>
-      </c>
-      <c r="H78" s="126" t="s">
-        <v>763</v>
       </c>
       <c r="I78" s="128"/>
       <c r="J78" s="4" t="s">
@@ -16465,28 +16556,28 @@
         <v>636</v>
       </c>
       <c r="B79" s="121" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>1042</v>
+        <v>1034</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>1047</v>
+        <v>1039</v>
       </c>
       <c r="H79" s="126" t="s">
-        <v>1049</v>
+        <v>1041</v>
       </c>
       <c r="I79" s="128" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
       <c r="J79" s="4" t="s">
         <v>45</v>
@@ -16512,28 +16603,28 @@
         <v>637</v>
       </c>
       <c r="B80" s="121" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
       <c r="G80" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H80" s="126" t="s">
+        <v>1040</v>
+      </c>
+      <c r="I80" s="128" t="s">
         <v>1045</v>
-      </c>
-      <c r="H80" s="126" t="s">
-        <v>1048</v>
-      </c>
-      <c r="I80" s="128" t="s">
-        <v>1053</v>
       </c>
       <c r="J80" s="4" t="s">
         <v>45</v>
@@ -16559,28 +16650,28 @@
         <v>638</v>
       </c>
       <c r="B81" s="121" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="G81" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H81" s="126" t="s">
+        <v>1042</v>
+      </c>
+      <c r="I81" s="128" t="s">
         <v>1046</v>
-      </c>
-      <c r="H81" s="126" t="s">
-        <v>1050</v>
-      </c>
-      <c r="I81" s="128" t="s">
-        <v>1054</v>
       </c>
       <c r="J81" s="4" t="s">
         <v>45</v>
@@ -16615,17 +16706,17 @@
         <v>544</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>1055</v>
+        <v>1047</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="H82" s="126"/>
       <c r="I82" s="126" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="J82" s="4" t="s">
         <v>43</v>
@@ -16660,17 +16751,17 @@
         <v>544</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="H83" s="126"/>
       <c r="I83" s="126" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="J83" s="4" t="s">
         <v>43</v>
@@ -16705,17 +16796,17 @@
         <v>544</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>1093</v>
+        <v>1085</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>1094</v>
+        <v>1086</v>
       </c>
       <c r="H84" s="126"/>
       <c r="I84" s="126" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="J84" s="4" t="s">
         <v>43</v>
@@ -16750,17 +16841,17 @@
         <v>544</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>1095</v>
+        <v>1087</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="H85" s="126"/>
       <c r="I85" s="126" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="J85" s="4" t="s">
         <v>43</v>
@@ -16781,7 +16872,7 @@
       <c r="V85" s="4"/>
       <c r="W85" s="4"/>
     </row>
-    <row r="86" spans="1:23" ht="108" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:23" ht="96" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
         <v>643</v>
       </c>
@@ -16795,19 +16886,19 @@
         <v>716</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="H86" s="126" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="I86" s="126" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
       <c r="J86" s="4" t="s">
         <v>43</v>
@@ -16842,17 +16933,17 @@
         <v>544</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>1098</v>
+        <v>1090</v>
       </c>
       <c r="H87" s="126"/>
       <c r="I87" s="126" t="s">
-        <v>1099</v>
+        <v>1091</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>44</v>
@@ -16887,16 +16978,16 @@
         <v>716</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="H88" s="126" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="I88" s="126"/>
       <c r="J88" s="4" t="s">
@@ -16932,13 +17023,13 @@
         <v>544</v>
       </c>
       <c r="E89" s="56" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="F89" s="40" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="G89" s="56" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="H89" s="128"/>
       <c r="I89" s="128"/>
@@ -16975,16 +17066,16 @@
         <v>544</v>
       </c>
       <c r="E90" s="56" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="F90" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="G90" s="4" t="s">
         <v>876</v>
       </c>
-      <c r="G90" s="4" t="s">
-        <v>879</v>
-      </c>
       <c r="H90" s="126" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="I90" s="126"/>
       <c r="J90" s="4" t="s">
@@ -17020,16 +17111,16 @@
         <v>544</v>
       </c>
       <c r="E91" s="56" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="H91" s="126" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="I91" s="126"/>
       <c r="J91" s="4" t="s">
@@ -17065,16 +17156,16 @@
         <v>544</v>
       </c>
       <c r="E92" s="56" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="H92" s="126" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="I92" s="126"/>
       <c r="J92" s="4" t="s">
@@ -17110,16 +17201,16 @@
         <v>544</v>
       </c>
       <c r="E93" s="56" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="F93" s="40" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="H93" s="126" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="I93" s="126"/>
       <c r="J93" s="4" t="s">
@@ -17155,16 +17246,16 @@
         <v>544</v>
       </c>
       <c r="E94" s="56" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="H94" s="126" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="I94" s="126"/>
       <c r="J94" s="4" t="s">
@@ -17186,7 +17277,7 @@
       <c r="V94" s="4"/>
       <c r="W94" s="4"/>
     </row>
-    <row r="95" spans="1:23" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:23" ht="124.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
         <v>652</v>
       </c>
@@ -17203,13 +17294,13 @@
         <v>718</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="H95" s="126" t="s">
-        <v>915</v>
+        <v>1130</v>
       </c>
       <c r="I95" s="126"/>
       <c r="J95" s="4" t="s">
@@ -17231,7 +17322,7 @@
       <c r="V95" s="4"/>
       <c r="W95" s="4"/>
     </row>
-    <row r="96" spans="1:23" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
         <v>653</v>
       </c>
@@ -17245,25 +17336,21 @@
         <v>544</v>
       </c>
       <c r="E96" s="56" t="s">
-        <v>718</v>
+        <v>1135</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>909</v>
+        <v>1138</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>910</v>
+        <v>1131</v>
       </c>
       <c r="H96" s="126" t="s">
-        <v>912</v>
+        <v>1132</v>
       </c>
       <c r="I96" s="126"/>
-      <c r="J96" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="J96" s="4"/>
       <c r="K96" s="4"/>
-      <c r="L96" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="L96" s="4"/>
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
@@ -17276,9 +17363,9 @@
       <c r="V96" s="4"/>
       <c r="W96" s="4"/>
     </row>
-    <row r="97" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:23" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B97" s="117" t="s">
         <v>714</v>
@@ -17290,20 +17377,20 @@
         <v>544</v>
       </c>
       <c r="E97" s="56" t="s">
-        <v>887</v>
+        <v>718</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>877</v>
+        <v>1128</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>890</v>
+        <v>1129</v>
       </c>
       <c r="H97" s="126" t="s">
-        <v>880</v>
+        <v>1136</v>
       </c>
       <c r="I97" s="126"/>
       <c r="J97" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K97" s="4"/>
       <c r="L97" s="4" t="s">
@@ -17321,10 +17408,8 @@
       <c r="V97" s="4"/>
       <c r="W97" s="4"/>
     </row>
-    <row r="98" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="4" t="s">
-        <v>655</v>
-      </c>
+    <row r="98" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+      <c r="A98" s="4"/>
       <c r="B98" s="117" t="s">
         <v>714</v>
       </c>
@@ -17335,25 +17420,21 @@
         <v>544</v>
       </c>
       <c r="E98" s="56" t="s">
-        <v>1080</v>
+        <v>1135</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>906</v>
+        <v>1139</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>812</v>
+        <v>1133</v>
       </c>
       <c r="H98" s="126" t="s">
-        <v>813</v>
+        <v>1134</v>
       </c>
       <c r="I98" s="126"/>
-      <c r="J98" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="J98" s="4"/>
       <c r="K98" s="4"/>
-      <c r="L98" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="L98" s="4"/>
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
@@ -17368,7 +17449,7 @@
     </row>
     <row r="99" spans="1:23" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B99" s="117" t="s">
         <v>714</v>
@@ -17380,20 +17461,20 @@
         <v>544</v>
       </c>
       <c r="E99" s="56" t="s">
-        <v>811</v>
+        <v>718</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="G99" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="H99" s="126" t="s">
         <v>908</v>
-      </c>
-      <c r="H99" s="126" t="s">
-        <v>903</v>
       </c>
       <c r="I99" s="126"/>
       <c r="J99" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K99" s="4"/>
       <c r="L99" s="4" t="s">
@@ -17411,9 +17492,9 @@
       <c r="V99" s="4"/>
       <c r="W99" s="4"/>
     </row>
-    <row r="100" spans="1:23" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:23" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B100" s="117" t="s">
         <v>714</v>
@@ -17425,20 +17506,20 @@
         <v>544</v>
       </c>
       <c r="E100" s="56" t="s">
-        <v>811</v>
+        <v>1116</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>913</v>
+        <v>1117</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>914</v>
+        <v>1118</v>
       </c>
       <c r="H100" s="126" t="s">
-        <v>916</v>
+        <v>1119</v>
       </c>
       <c r="I100" s="126"/>
       <c r="J100" s="4" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="K100" s="4"/>
       <c r="L100" s="4" t="s">
@@ -17456,9 +17537,9 @@
       <c r="V100" s="4"/>
       <c r="W100" s="4"/>
     </row>
-    <row r="101" spans="1:23" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B101" s="117" t="s">
         <v>714</v>
@@ -17470,20 +17551,20 @@
         <v>544</v>
       </c>
       <c r="E101" s="56" t="s">
-        <v>956</v>
+        <v>884</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>953</v>
+        <v>874</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>1100</v>
+        <v>887</v>
       </c>
       <c r="H101" s="126" t="s">
-        <v>954</v>
+        <v>877</v>
       </c>
       <c r="I101" s="126"/>
       <c r="J101" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K101" s="4"/>
       <c r="L101" s="4" t="s">
@@ -17501,9 +17582,9 @@
       <c r="V101" s="4"/>
       <c r="W101" s="4"/>
     </row>
-    <row r="102" spans="1:23" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B102" s="117" t="s">
         <v>714</v>
@@ -17515,20 +17596,20 @@
         <v>544</v>
       </c>
       <c r="E102" s="56" t="s">
-        <v>956</v>
+        <v>1072</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>955</v>
+        <v>902</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>957</v>
+        <v>809</v>
       </c>
       <c r="H102" s="126" t="s">
-        <v>958</v>
+        <v>810</v>
       </c>
       <c r="I102" s="126"/>
       <c r="J102" s="4" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="K102" s="4"/>
       <c r="L102" s="4" t="s">
@@ -17546,9 +17627,9 @@
       <c r="V102" s="4"/>
       <c r="W102" s="4"/>
     </row>
-    <row r="103" spans="1:23" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:23" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B103" s="117" t="s">
         <v>714</v>
@@ -17560,16 +17641,16 @@
         <v>544</v>
       </c>
       <c r="E103" s="56" t="s">
-        <v>952</v>
+        <v>808</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>888</v>
+        <v>903</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>889</v>
+        <v>904</v>
       </c>
       <c r="H103" s="126" t="s">
-        <v>894</v>
+        <v>907</v>
       </c>
       <c r="I103" s="126"/>
       <c r="J103" s="4" t="s">
@@ -17591,9 +17672,9 @@
       <c r="V103" s="4"/>
       <c r="W103" s="4"/>
     </row>
-    <row r="104" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:23" ht="84" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B104" s="117" t="s">
         <v>714</v>
@@ -17605,20 +17686,20 @@
         <v>544</v>
       </c>
       <c r="E104" s="56" t="s">
-        <v>952</v>
+        <v>808</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>946</v>
+        <v>909</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>947</v>
+        <v>910</v>
       </c>
       <c r="H104" s="126" t="s">
-        <v>948</v>
+        <v>1137</v>
       </c>
       <c r="I104" s="126"/>
       <c r="J104" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K104" s="4"/>
       <c r="L104" s="4" t="s">
@@ -17638,7 +17719,7 @@
     </row>
     <row r="105" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="B105" s="117" t="s">
         <v>714</v>
@@ -17650,25 +17731,21 @@
         <v>544</v>
       </c>
       <c r="E105" s="56" t="s">
-        <v>952</v>
+        <v>1135</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>949</v>
+        <v>1140</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>950</v>
+        <v>1131</v>
       </c>
       <c r="H105" s="126" t="s">
-        <v>951</v>
+        <v>1132</v>
       </c>
       <c r="I105" s="126"/>
-      <c r="J105" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="J105" s="4"/>
       <c r="K105" s="4"/>
-      <c r="L105" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="L105" s="4"/>
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
@@ -17681,9 +17758,9 @@
       <c r="V105" s="4"/>
       <c r="W105" s="4"/>
     </row>
-    <row r="106" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:23" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="B106" s="117" t="s">
         <v>714</v>
@@ -17695,20 +17772,20 @@
         <v>544</v>
       </c>
       <c r="E106" s="56" t="s">
-        <v>952</v>
+        <v>718</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>891</v>
+        <v>1141</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>892</v>
+        <v>1129</v>
       </c>
       <c r="H106" s="126" t="s">
-        <v>893</v>
+        <v>1136</v>
       </c>
       <c r="I106" s="126"/>
       <c r="J106" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K106" s="4"/>
       <c r="L106" s="4" t="s">
@@ -17726,10 +17803,8 @@
       <c r="V106" s="4"/>
       <c r="W106" s="4"/>
     </row>
-    <row r="107" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="4" t="s">
-        <v>664</v>
-      </c>
+    <row r="107" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+      <c r="A107" s="4"/>
       <c r="B107" s="117" t="s">
         <v>714</v>
       </c>
@@ -17740,25 +17815,21 @@
         <v>544</v>
       </c>
       <c r="E107" s="56" t="s">
-        <v>952</v>
+        <v>1135</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>1081</v>
+        <v>1142</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>1082</v>
+        <v>1133</v>
       </c>
       <c r="H107" s="126" t="s">
-        <v>1083</v>
+        <v>1134</v>
       </c>
       <c r="I107" s="126"/>
-      <c r="J107" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="J107" s="4"/>
       <c r="K107" s="4"/>
-      <c r="L107" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="L107" s="4"/>
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
@@ -17771,9 +17842,9 @@
       <c r="V107" s="4"/>
       <c r="W107" s="4"/>
     </row>
-    <row r="108" spans="1:23" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:23" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="B108" s="117" t="s">
         <v>714</v>
@@ -17785,20 +17856,20 @@
         <v>544</v>
       </c>
       <c r="E108" s="56" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>1084</v>
+        <v>947</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>1085</v>
+        <v>1092</v>
       </c>
       <c r="H108" s="126" t="s">
-        <v>898</v>
+        <v>1143</v>
       </c>
       <c r="I108" s="126"/>
       <c r="J108" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K108" s="4"/>
       <c r="L108" s="4" t="s">
@@ -17816,9 +17887,9 @@
       <c r="V108" s="4"/>
       <c r="W108" s="4"/>
     </row>
-    <row r="109" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:23" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="B109" s="117" t="s">
         <v>714</v>
@@ -17830,20 +17901,20 @@
         <v>544</v>
       </c>
       <c r="E109" s="56" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>959</v>
+        <v>948</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="H109" s="126" t="s">
-        <v>961</v>
+        <v>1127</v>
       </c>
       <c r="I109" s="126"/>
       <c r="J109" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K109" s="4"/>
       <c r="L109" s="4" t="s">
@@ -17861,9 +17932,9 @@
       <c r="V109" s="4"/>
       <c r="W109" s="4"/>
     </row>
-    <row r="110" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:23" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="B110" s="117" t="s">
         <v>714</v>
@@ -17875,25 +17946,21 @@
         <v>544</v>
       </c>
       <c r="E110" s="56" t="s">
-        <v>952</v>
+        <v>1120</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>960</v>
+        <v>1121</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>950</v>
+        <v>1122</v>
       </c>
       <c r="H110" s="126" t="s">
-        <v>962</v>
+        <v>1123</v>
       </c>
       <c r="I110" s="126"/>
-      <c r="J110" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="J110" s="4"/>
       <c r="K110" s="4"/>
-      <c r="L110" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="L110" s="4"/>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
@@ -17906,9 +17973,9 @@
       <c r="V110" s="4"/>
       <c r="W110" s="4"/>
     </row>
-    <row r="111" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:23" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="B111" s="117" t="s">
         <v>714</v>
@@ -17920,16 +17987,16 @@
         <v>544</v>
       </c>
       <c r="E111" s="56" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="H111" s="126" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="I111" s="126"/>
       <c r="J111" s="4" t="s">
@@ -17953,7 +18020,7 @@
     </row>
     <row r="112" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="B112" s="117" t="s">
         <v>714</v>
@@ -17961,20 +18028,20 @@
       <c r="C112" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="D112" s="56" t="s">
         <v>544</v>
       </c>
-      <c r="E112" s="4" t="s">
-        <v>719</v>
+      <c r="E112" s="56" t="s">
+        <v>946</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>1101</v>
+        <v>940</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>1102</v>
+        <v>941</v>
       </c>
       <c r="H112" s="126" t="s">
-        <v>1103</v>
+        <v>942</v>
       </c>
       <c r="I112" s="126"/>
       <c r="J112" s="4" t="s">
@@ -17998,7 +18065,7 @@
     </row>
     <row r="113" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="B113" s="117" t="s">
         <v>714</v>
@@ -18006,20 +18073,20 @@
       <c r="C113" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="D113" s="4" t="s">
+      <c r="D113" s="56" t="s">
         <v>544</v>
       </c>
-      <c r="E113" s="4" t="s">
-        <v>719</v>
+      <c r="E113" s="56" t="s">
+        <v>946</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>1104</v>
+        <v>943</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>1105</v>
+        <v>944</v>
       </c>
       <c r="H113" s="126" t="s">
-        <v>1106</v>
+        <v>945</v>
       </c>
       <c r="I113" s="126"/>
       <c r="J113" s="4" t="s">
@@ -18041,9 +18108,9 @@
       <c r="V113" s="4"/>
       <c r="W113" s="4"/>
     </row>
-    <row r="114" spans="1:23" ht="126" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="B114" s="117" t="s">
         <v>714</v>
@@ -18051,20 +18118,20 @@
       <c r="C114" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="D114" s="4" t="s">
+      <c r="D114" s="56" t="s">
         <v>544</v>
       </c>
-      <c r="E114" s="4" t="s">
-        <v>918</v>
+      <c r="E114" s="56" t="s">
+        <v>946</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>917</v>
+        <v>888</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>921</v>
+        <v>889</v>
       </c>
       <c r="H114" s="126" t="s">
-        <v>922</v>
+        <v>890</v>
       </c>
       <c r="I114" s="126"/>
       <c r="J114" s="4" t="s">
@@ -18086,9 +18153,9 @@
       <c r="V114" s="4"/>
       <c r="W114" s="4"/>
     </row>
-    <row r="115" spans="1:23" ht="84" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="B115" s="117" t="s">
         <v>714</v>
@@ -18096,20 +18163,20 @@
       <c r="C115" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="D115" s="4" t="s">
+      <c r="D115" s="56" t="s">
         <v>544</v>
       </c>
-      <c r="E115" s="4" t="s">
-        <v>918</v>
+      <c r="E115" s="56" t="s">
+        <v>946</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>919</v>
+        <v>1073</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>923</v>
+        <v>1074</v>
       </c>
       <c r="H115" s="126" t="s">
-        <v>924</v>
+        <v>1075</v>
       </c>
       <c r="I115" s="126"/>
       <c r="J115" s="4" t="s">
@@ -18131,9 +18198,9 @@
       <c r="V115" s="4"/>
       <c r="W115" s="4"/>
     </row>
-    <row r="116" spans="1:23" ht="84" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:23" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="B116" s="117" t="s">
         <v>714</v>
@@ -18141,20 +18208,20 @@
       <c r="C116" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="D116" s="56" t="s">
         <v>544</v>
       </c>
-      <c r="E116" s="4" t="s">
-        <v>918</v>
+      <c r="E116" s="56" t="s">
+        <v>946</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>925</v>
+        <v>1076</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>926</v>
+        <v>1077</v>
       </c>
       <c r="H116" s="126" t="s">
-        <v>927</v>
+        <v>895</v>
       </c>
       <c r="I116" s="126"/>
       <c r="J116" s="4" t="s">
@@ -18176,9 +18243,9 @@
       <c r="V116" s="4"/>
       <c r="W116" s="4"/>
     </row>
-    <row r="117" spans="1:23" ht="84" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="B117" s="117" t="s">
         <v>714</v>
@@ -18186,24 +18253,24 @@
       <c r="C117" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="D117" s="56" t="s">
         <v>544</v>
       </c>
-      <c r="E117" s="4" t="s">
-        <v>920</v>
+      <c r="E117" s="56" t="s">
+        <v>946</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>930</v>
+        <v>951</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>928</v>
+        <v>941</v>
       </c>
       <c r="H117" s="126" t="s">
-        <v>929</v>
+        <v>953</v>
       </c>
       <c r="I117" s="126"/>
       <c r="J117" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K117" s="4"/>
       <c r="L117" s="4" t="s">
@@ -18221,9 +18288,9 @@
       <c r="V117" s="4"/>
       <c r="W117" s="4"/>
     </row>
-    <row r="118" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="B118" s="117" t="s">
         <v>714</v>
@@ -18231,20 +18298,20 @@
       <c r="C118" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="D118" s="56" t="s">
         <v>544</v>
       </c>
-      <c r="E118" s="4" t="s">
-        <v>963</v>
+      <c r="E118" s="56" t="s">
+        <v>946</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>931</v>
+        <v>952</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>932</v>
+        <v>944</v>
       </c>
       <c r="H118" s="126" t="s">
-        <v>938</v>
+        <v>954</v>
       </c>
       <c r="I118" s="126"/>
       <c r="J118" s="4" t="s">
@@ -18266,9 +18333,9 @@
       <c r="V118" s="4"/>
       <c r="W118" s="4"/>
     </row>
-    <row r="119" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="B119" s="117" t="s">
         <v>714</v>
@@ -18276,24 +18343,24 @@
       <c r="C119" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="D119" s="56" t="s">
         <v>544</v>
       </c>
-      <c r="E119" s="4" t="s">
-        <v>964</v>
+      <c r="E119" s="56" t="s">
+        <v>946</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>933</v>
+        <v>892</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>934</v>
+        <v>893</v>
       </c>
       <c r="H119" s="126" t="s">
-        <v>935</v>
+        <v>894</v>
       </c>
       <c r="I119" s="126"/>
       <c r="J119" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K119" s="4"/>
       <c r="L119" s="4" t="s">
@@ -18313,7 +18380,7 @@
     </row>
     <row r="120" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="B120" s="117" t="s">
         <v>714</v>
@@ -18325,16 +18392,16 @@
         <v>544</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>965</v>
+        <v>719</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>936</v>
+        <v>1093</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>937</v>
+        <v>1094</v>
       </c>
       <c r="H120" s="126" t="s">
-        <v>939</v>
+        <v>1095</v>
       </c>
       <c r="I120" s="126"/>
       <c r="J120" s="4" t="s">
@@ -18358,7 +18425,7 @@
     </row>
     <row r="121" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="B121" s="117" t="s">
         <v>714</v>
@@ -18370,16 +18437,16 @@
         <v>544</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>966</v>
+        <v>719</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>1107</v>
+        <v>1096</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>1108</v>
+        <v>1097</v>
       </c>
       <c r="H121" s="126" t="s">
-        <v>1109</v>
+        <v>1098</v>
       </c>
       <c r="I121" s="126"/>
       <c r="J121" s="4" t="s">
@@ -18401,9 +18468,9 @@
       <c r="V121" s="4"/>
       <c r="W121" s="4"/>
     </row>
-    <row r="122" spans="1:23" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:23" ht="126" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="B122" s="117" t="s">
         <v>714</v>
@@ -18415,16 +18482,16 @@
         <v>544</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>720</v>
+        <v>912</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>1110</v>
+        <v>911</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>1111</v>
+        <v>915</v>
       </c>
       <c r="H122" s="126" t="s">
-        <v>1114</v>
+        <v>916</v>
       </c>
       <c r="I122" s="126"/>
       <c r="J122" s="4" t="s">
@@ -18446,9 +18513,9 @@
       <c r="V122" s="4"/>
       <c r="W122" s="4"/>
     </row>
-    <row r="123" spans="1:23" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:23" ht="84" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="B123" s="117" t="s">
         <v>714</v>
@@ -18460,20 +18527,18 @@
         <v>544</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>720</v>
+        <v>912</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>967</v>
+        <v>913</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>722</v>
+        <v>917</v>
       </c>
       <c r="H123" s="126" t="s">
-        <v>941</v>
-      </c>
-      <c r="I123" s="126" t="s">
-        <v>724</v>
-      </c>
+        <v>918</v>
+      </c>
+      <c r="I123" s="126"/>
       <c r="J123" s="4" t="s">
         <v>43</v>
       </c>
@@ -18493,9 +18558,9 @@
       <c r="V123" s="4"/>
       <c r="W123" s="4"/>
     </row>
-    <row r="124" spans="1:23" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:23" ht="84" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="B124" s="117" t="s">
         <v>714</v>
@@ -18507,20 +18572,18 @@
         <v>544</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>720</v>
+        <v>912</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>968</v>
+        <v>919</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>721</v>
+        <v>920</v>
       </c>
       <c r="H124" s="126" t="s">
-        <v>942</v>
-      </c>
-      <c r="I124" s="126" t="s">
-        <v>723</v>
-      </c>
+        <v>921</v>
+      </c>
+      <c r="I124" s="126"/>
       <c r="J124" s="4" t="s">
         <v>43</v>
       </c>
@@ -18540,9 +18603,9 @@
       <c r="V124" s="4"/>
       <c r="W124" s="4"/>
     </row>
-    <row r="125" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:23" ht="84" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="B125" s="117" t="s">
         <v>714</v>
@@ -18550,24 +18613,24 @@
       <c r="C125" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="D125" s="56" t="s">
+      <c r="D125" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="E125" s="56" t="s">
-        <v>720</v>
-      </c>
-      <c r="F125" s="40" t="s">
-        <v>969</v>
-      </c>
-      <c r="G125" s="56" t="s">
-        <v>803</v>
-      </c>
-      <c r="H125" s="128" t="s">
-        <v>725</v>
+      <c r="E125" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="H125" s="126" t="s">
+        <v>923</v>
       </c>
       <c r="I125" s="126"/>
       <c r="J125" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K125" s="4"/>
       <c r="L125" s="4" t="s">
@@ -18585,9 +18648,9 @@
       <c r="V125" s="4"/>
       <c r="W125" s="4"/>
     </row>
-    <row r="126" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="B126" s="117" t="s">
         <v>714</v>
@@ -18599,20 +18662,20 @@
         <v>544</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>720</v>
+        <v>955</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>1115</v>
+        <v>925</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>940</v>
+        <v>926</v>
       </c>
       <c r="H126" s="126" t="s">
-        <v>726</v>
+        <v>932</v>
       </c>
       <c r="I126" s="126"/>
       <c r="J126" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K126" s="4"/>
       <c r="L126" s="4" t="s">
@@ -18630,9 +18693,9 @@
       <c r="V126" s="4"/>
       <c r="W126" s="4"/>
     </row>
-    <row r="127" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
-        <v>734</v>
+        <v>674</v>
       </c>
       <c r="B127" s="117" t="s">
         <v>714</v>
@@ -18644,21 +18707,25 @@
         <v>544</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>720</v>
+        <v>956</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>1116</v>
+        <v>927</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>1117</v>
+        <v>928</v>
       </c>
       <c r="H127" s="126" t="s">
-        <v>1118</v>
+        <v>929</v>
       </c>
       <c r="I127" s="126"/>
-      <c r="J127" s="4"/>
+      <c r="J127" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="K127" s="4"/>
-      <c r="L127" s="4"/>
+      <c r="L127" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
       <c r="O127" s="4"/>
@@ -18671,9 +18738,9 @@
       <c r="V127" s="4"/>
       <c r="W127" s="4"/>
     </row>
-    <row r="128" spans="1:23" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
-        <v>734</v>
+        <v>675</v>
       </c>
       <c r="B128" s="117" t="s">
         <v>714</v>
@@ -18685,16 +18752,16 @@
         <v>544</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>720</v>
+        <v>957</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>972</v>
+        <v>930</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>943</v>
+        <v>931</v>
       </c>
       <c r="H128" s="126" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
       <c r="I128" s="126"/>
       <c r="J128" s="4" t="s">
@@ -18716,9 +18783,9 @@
       <c r="V128" s="4"/>
       <c r="W128" s="4"/>
     </row>
-    <row r="129" spans="1:23" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A129" s="4" t="s">
-        <v>735</v>
+        <v>676</v>
       </c>
       <c r="B129" s="117" t="s">
         <v>714</v>
@@ -18730,16 +18797,16 @@
         <v>544</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>720</v>
+        <v>958</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>727</v>
+        <v>1099</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>970</v>
+        <v>1100</v>
       </c>
       <c r="H129" s="126" t="s">
-        <v>728</v>
+        <v>1101</v>
       </c>
       <c r="I129" s="126"/>
       <c r="J129" s="4" t="s">
@@ -18761,9 +18828,9 @@
       <c r="V129" s="4"/>
       <c r="W129" s="4"/>
     </row>
-    <row r="130" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:23" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4" t="s">
-        <v>736</v>
+        <v>677</v>
       </c>
       <c r="B130" s="117" t="s">
         <v>714</v>
@@ -18778,13 +18845,13 @@
         <v>720</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>729</v>
+        <v>1102</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>971</v>
+        <v>1103</v>
       </c>
       <c r="H130" s="126" t="s">
-        <v>730</v>
+        <v>1106</v>
       </c>
       <c r="I130" s="126"/>
       <c r="J130" s="4" t="s">
@@ -18806,9 +18873,9 @@
       <c r="V130" s="4"/>
       <c r="W130" s="4"/>
     </row>
-    <row r="131" spans="1:23" ht="72" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:23" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4" t="s">
-        <v>737</v>
+        <v>678</v>
       </c>
       <c r="B131" s="117" t="s">
         <v>714</v>
@@ -18820,18 +18887,20 @@
         <v>544</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>1112</v>
+        <v>959</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="H131" s="126" t="s">
-        <v>733</v>
-      </c>
-      <c r="I131" s="126"/>
+        <v>935</v>
+      </c>
+      <c r="I131" s="126" t="s">
+        <v>724</v>
+      </c>
       <c r="J131" s="4" t="s">
         <v>43</v>
       </c>
@@ -18851,9 +18920,9 @@
       <c r="V131" s="4"/>
       <c r="W131" s="4"/>
     </row>
-    <row r="132" spans="1:23" ht="60" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:23" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4" t="s">
-        <v>738</v>
+        <v>679</v>
       </c>
       <c r="B132" s="117" t="s">
         <v>714</v>
@@ -18865,18 +18934,20 @@
         <v>544</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>1113</v>
+        <v>960</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="H132" s="126" t="s">
-        <v>872</v>
-      </c>
-      <c r="I132" s="126"/>
+        <v>936</v>
+      </c>
+      <c r="I132" s="126" t="s">
+        <v>723</v>
+      </c>
       <c r="J132" s="4" t="s">
         <v>43</v>
       </c>
@@ -18896,34 +18967,34 @@
       <c r="V132" s="4"/>
       <c r="W132" s="4"/>
     </row>
-    <row r="133" spans="1:23" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A133" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="B133" s="135" t="s">
-        <v>1122</v>
+        <v>683</v>
+      </c>
+      <c r="B133" s="117" t="s">
+        <v>714</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="F133" s="4" t="s">
-        <v>1119</v>
-      </c>
-      <c r="G133" s="4" t="s">
-        <v>1120</v>
-      </c>
-      <c r="H133" s="126" t="s">
-        <v>1121</v>
-      </c>
-      <c r="I133" s="128"/>
+        <v>715</v>
+      </c>
+      <c r="D133" s="56" t="s">
+        <v>544</v>
+      </c>
+      <c r="E133" s="56" t="s">
+        <v>720</v>
+      </c>
+      <c r="F133" s="40" t="s">
+        <v>961</v>
+      </c>
+      <c r="G133" s="56" t="s">
+        <v>800</v>
+      </c>
+      <c r="H133" s="128" t="s">
+        <v>725</v>
+      </c>
+      <c r="I133" s="126"/>
       <c r="J133" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K133" s="4"/>
       <c r="L133" s="4" t="s">
@@ -18941,21 +19012,39 @@
       <c r="V133" s="4"/>
       <c r="W133" s="4"/>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A134" s="4" t="s">
-        <v>739</v>
-      </c>
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
-      <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
-      <c r="H134" s="126"/>
+        <v>684</v>
+      </c>
+      <c r="B134" s="117" t="s">
+        <v>714</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="H134" s="126" t="s">
+        <v>726</v>
+      </c>
       <c r="I134" s="126"/>
-      <c r="J134" s="4"/>
+      <c r="J134" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="K134" s="4"/>
-      <c r="L134" s="4"/>
+      <c r="L134" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M134" s="4"/>
       <c r="N134" s="4"/>
       <c r="O134" s="4"/>
@@ -18968,21 +19057,39 @@
       <c r="V134" s="4"/>
       <c r="W134" s="4"/>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
-        <v>779</v>
-      </c>
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="4"/>
-      <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
-      <c r="H135" s="126"/>
+        <v>734</v>
+      </c>
+      <c r="B135" s="117" t="s">
+        <v>714</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H135" s="126" t="s">
+        <v>1110</v>
+      </c>
       <c r="I135" s="126"/>
-      <c r="J135" s="4"/>
+      <c r="J135" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="K135" s="4"/>
-      <c r="L135" s="4"/>
+      <c r="L135" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M135" s="4"/>
       <c r="N135" s="4"/>
       <c r="O135" s="4"/>
@@ -18995,21 +19102,39 @@
       <c r="V135" s="4"/>
       <c r="W135" s="4"/>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:23" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4" t="s">
-        <v>780</v>
-      </c>
-      <c r="B136" s="4"/>
-      <c r="C136" s="4"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="4"/>
-      <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
-      <c r="H136" s="126"/>
+        <v>734</v>
+      </c>
+      <c r="B136" s="117" t="s">
+        <v>714</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="H136" s="126" t="s">
+        <v>938</v>
+      </c>
       <c r="I136" s="126"/>
-      <c r="J136" s="4"/>
+      <c r="J136" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K136" s="4"/>
-      <c r="L136" s="4"/>
+      <c r="L136" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M136" s="4"/>
       <c r="N136" s="4"/>
       <c r="O136" s="4"/>
@@ -19022,21 +19147,39 @@
       <c r="V136" s="4"/>
       <c r="W136" s="4"/>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:23" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4" t="s">
-        <v>781</v>
-      </c>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
-      <c r="E137" s="4"/>
-      <c r="F137" s="4"/>
-      <c r="G137" s="4"/>
-      <c r="H137" s="126"/>
+        <v>735</v>
+      </c>
+      <c r="B137" s="117" t="s">
+        <v>714</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="H137" s="126" t="s">
+        <v>728</v>
+      </c>
       <c r="I137" s="126"/>
-      <c r="J137" s="4"/>
+      <c r="J137" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K137" s="4"/>
-      <c r="L137" s="4"/>
+      <c r="L137" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M137" s="4"/>
       <c r="N137" s="4"/>
       <c r="O137" s="4"/>
@@ -19049,21 +19192,39 @@
       <c r="V137" s="4"/>
       <c r="W137" s="4"/>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A138" s="4" t="s">
-        <v>782</v>
-      </c>
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="4"/>
-      <c r="F138" s="4"/>
-      <c r="G138" s="4"/>
-      <c r="H138" s="126"/>
+        <v>736</v>
+      </c>
+      <c r="B138" s="117" t="s">
+        <v>714</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="H138" s="126" t="s">
+        <v>730</v>
+      </c>
       <c r="I138" s="126"/>
-      <c r="J138" s="4"/>
+      <c r="J138" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K138" s="4"/>
-      <c r="L138" s="4"/>
+      <c r="L138" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M138" s="4"/>
       <c r="N138" s="4"/>
       <c r="O138" s="4"/>
@@ -19076,21 +19237,39 @@
       <c r="V138" s="4"/>
       <c r="W138" s="4"/>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A139" s="4" t="s">
-        <v>783</v>
-      </c>
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="4"/>
-      <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
-      <c r="H139" s="126"/>
+        <v>737</v>
+      </c>
+      <c r="B139" s="117" t="s">
+        <v>714</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="H139" s="126" t="s">
+        <v>733</v>
+      </c>
       <c r="I139" s="126"/>
-      <c r="J139" s="4"/>
+      <c r="J139" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K139" s="4"/>
-      <c r="L139" s="4"/>
+      <c r="L139" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M139" s="4"/>
       <c r="N139" s="4"/>
       <c r="O139" s="4"/>
@@ -19103,21 +19282,39 @@
       <c r="V139" s="4"/>
       <c r="W139" s="4"/>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:23" ht="60" x14ac:dyDescent="0.15">
       <c r="A140" s="4" t="s">
-        <v>784</v>
-      </c>
-      <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="4"/>
-      <c r="F140" s="4"/>
-      <c r="G140" s="4"/>
-      <c r="H140" s="126"/>
+        <v>738</v>
+      </c>
+      <c r="B140" s="117" t="s">
+        <v>714</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="H140" s="126" t="s">
+        <v>869</v>
+      </c>
       <c r="I140" s="126"/>
-      <c r="J140" s="4"/>
+      <c r="J140" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K140" s="4"/>
-      <c r="L140" s="4"/>
+      <c r="L140" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M140" s="4"/>
       <c r="N140" s="4"/>
       <c r="O140" s="4"/>
@@ -19130,21 +19327,39 @@
       <c r="V140" s="4"/>
       <c r="W140" s="4"/>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:23" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
-        <v>785</v>
-      </c>
-      <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="4"/>
-      <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
-      <c r="H141" s="126"/>
-      <c r="I141" s="126"/>
-      <c r="J141" s="4"/>
+        <v>639</v>
+      </c>
+      <c r="B141" s="130" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="H141" s="126" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I141" s="128"/>
+      <c r="J141" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="K141" s="4"/>
-      <c r="L141" s="4"/>
+      <c r="L141" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M141" s="4"/>
       <c r="N141" s="4"/>
       <c r="O141" s="4"/>
@@ -19159,7 +19374,7 @@
     </row>
     <row r="142" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
-        <v>786</v>
+        <v>739</v>
       </c>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -19186,7 +19401,7 @@
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -19213,7 +19428,7 @@
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -19240,7 +19455,7 @@
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -19267,7 +19482,7 @@
     </row>
     <row r="146" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A146" s="4" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -19294,7 +19509,7 @@
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A147" s="4" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -19321,7 +19536,7 @@
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -19348,7 +19563,7 @@
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A149" s="4" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -19375,7 +19590,7 @@
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A150" s="4" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -19402,7 +19617,7 @@
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A151" s="4" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -19429,7 +19644,7 @@
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A152" s="4" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -19456,7 +19671,7 @@
     </row>
     <row r="153" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A153" s="4" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -19483,7 +19698,7 @@
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A154" s="4" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -19510,7 +19725,7 @@
     </row>
     <row r="155" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A155" s="4" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -19537,7 +19752,7 @@
     </row>
     <row r="156" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A156" s="4" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -19564,7 +19779,7 @@
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A157" s="4" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -19591,7 +19806,7 @@
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A158" s="4" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -19618,7 +19833,7 @@
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A159" s="4" t="s">
-        <v>841</v>
+        <v>792</v>
       </c>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -19645,7 +19860,7 @@
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A160" s="4" t="s">
-        <v>974</v>
+        <v>793</v>
       </c>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -19672,7 +19887,7 @@
     </row>
     <row r="161" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A161" s="4" t="s">
-        <v>975</v>
+        <v>794</v>
       </c>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -19699,7 +19914,7 @@
     </row>
     <row r="162" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A162" s="4" t="s">
-        <v>976</v>
+        <v>795</v>
       </c>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -19726,7 +19941,7 @@
     </row>
     <row r="163" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A163" s="4" t="s">
-        <v>977</v>
+        <v>796</v>
       </c>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -19753,7 +19968,7 @@
     </row>
     <row r="164" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A164" s="4" t="s">
-        <v>978</v>
+        <v>797</v>
       </c>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -19780,7 +19995,7 @@
     </row>
     <row r="165" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A165" s="4" t="s">
-        <v>979</v>
+        <v>798</v>
       </c>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -19807,7 +20022,7 @@
     </row>
     <row r="166" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A166" s="4" t="s">
-        <v>980</v>
+        <v>799</v>
       </c>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -19834,7 +20049,7 @@
     </row>
     <row r="167" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A167" s="4" t="s">
-        <v>981</v>
+        <v>838</v>
       </c>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -19861,7 +20076,7 @@
     </row>
     <row r="168" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A168" s="4" t="s">
-        <v>982</v>
+        <v>966</v>
       </c>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -19888,7 +20103,7 @@
     </row>
     <row r="169" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A169" s="4" t="s">
-        <v>983</v>
+        <v>967</v>
       </c>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -19915,7 +20130,7 @@
     </row>
     <row r="170" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A170" s="4" t="s">
-        <v>984</v>
+        <v>968</v>
       </c>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -19942,7 +20157,7 @@
     </row>
     <row r="171" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A171" s="4" t="s">
-        <v>985</v>
+        <v>969</v>
       </c>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -19969,7 +20184,7 @@
     </row>
     <row r="172" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A172" s="4" t="s">
-        <v>986</v>
+        <v>970</v>
       </c>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -19996,7 +20211,7 @@
     </row>
     <row r="173" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A173" s="4" t="s">
-        <v>987</v>
+        <v>971</v>
       </c>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -20023,7 +20238,7 @@
     </row>
     <row r="174" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A174" s="4" t="s">
-        <v>988</v>
+        <v>972</v>
       </c>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -20050,7 +20265,7 @@
     </row>
     <row r="175" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A175" s="4" t="s">
-        <v>989</v>
+        <v>973</v>
       </c>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -20077,7 +20292,7 @@
     </row>
     <row r="176" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A176" s="4" t="s">
-        <v>990</v>
+        <v>974</v>
       </c>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -20104,7 +20319,7 @@
     </row>
     <row r="177" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A177" s="4" t="s">
-        <v>991</v>
+        <v>975</v>
       </c>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -20131,7 +20346,7 @@
     </row>
     <row r="178" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A178" s="4" t="s">
-        <v>1009</v>
+        <v>976</v>
       </c>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -20158,7 +20373,7 @@
     </row>
     <row r="179" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A179" s="4" t="s">
-        <v>1010</v>
+        <v>977</v>
       </c>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -20185,7 +20400,7 @@
     </row>
     <row r="180" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A180" s="4" t="s">
-        <v>1011</v>
+        <v>978</v>
       </c>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -20212,7 +20427,7 @@
     </row>
     <row r="181" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A181" s="4" t="s">
-        <v>1012</v>
+        <v>979</v>
       </c>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -20239,7 +20454,7 @@
     </row>
     <row r="182" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A182" s="4" t="s">
-        <v>1060</v>
+        <v>980</v>
       </c>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -20266,7 +20481,7 @@
     </row>
     <row r="183" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A183" s="4" t="s">
-        <v>1061</v>
+        <v>981</v>
       </c>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -20293,7 +20508,7 @@
     </row>
     <row r="184" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A184" s="4" t="s">
-        <v>1062</v>
+        <v>982</v>
       </c>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -20320,7 +20535,7 @@
     </row>
     <row r="185" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A185" s="4" t="s">
-        <v>1063</v>
+        <v>983</v>
       </c>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -20347,7 +20562,7 @@
     </row>
     <row r="186" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A186" s="4" t="s">
-        <v>1064</v>
+        <v>1001</v>
       </c>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -20374,7 +20589,7 @@
     </row>
     <row r="187" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A187" s="4" t="s">
-        <v>1065</v>
+        <v>1002</v>
       </c>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -20401,7 +20616,7 @@
     </row>
     <row r="188" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A188" s="4" t="s">
-        <v>1066</v>
+        <v>1003</v>
       </c>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -20428,7 +20643,7 @@
     </row>
     <row r="189" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A189" s="4" t="s">
-        <v>1067</v>
+        <v>1004</v>
       </c>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -20455,7 +20670,7 @@
     </row>
     <row r="190" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A190" s="4" t="s">
-        <v>1068</v>
+        <v>1052</v>
       </c>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -20482,7 +20697,7 @@
     </row>
     <row r="191" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A191" s="4" t="s">
-        <v>1069</v>
+        <v>1053</v>
       </c>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -20509,7 +20724,7 @@
     </row>
     <row r="192" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A192" s="4" t="s">
-        <v>1070</v>
+        <v>1054</v>
       </c>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -20534,6 +20749,222 @@
       <c r="V192" s="4"/>
       <c r="W192" s="4"/>
     </row>
+    <row r="193" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A193" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B193" s="4"/>
+      <c r="C193" s="4"/>
+      <c r="D193" s="4"/>
+      <c r="E193" s="4"/>
+      <c r="F193" s="4"/>
+      <c r="G193" s="4"/>
+      <c r="H193" s="126"/>
+      <c r="I193" s="126"/>
+      <c r="J193" s="4"/>
+      <c r="K193" s="4"/>
+      <c r="L193" s="4"/>
+      <c r="M193" s="4"/>
+      <c r="N193" s="4"/>
+      <c r="O193" s="4"/>
+      <c r="P193" s="4"/>
+      <c r="Q193" s="4"/>
+      <c r="R193" s="4"/>
+      <c r="S193" s="4"/>
+      <c r="T193" s="54"/>
+      <c r="U193" s="4"/>
+      <c r="V193" s="4"/>
+      <c r="W193" s="4"/>
+    </row>
+    <row r="194" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A194" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B194" s="4"/>
+      <c r="C194" s="4"/>
+      <c r="D194" s="4"/>
+      <c r="E194" s="4"/>
+      <c r="F194" s="4"/>
+      <c r="G194" s="4"/>
+      <c r="H194" s="126"/>
+      <c r="I194" s="126"/>
+      <c r="J194" s="4"/>
+      <c r="K194" s="4"/>
+      <c r="L194" s="4"/>
+      <c r="M194" s="4"/>
+      <c r="N194" s="4"/>
+      <c r="O194" s="4"/>
+      <c r="P194" s="4"/>
+      <c r="Q194" s="4"/>
+      <c r="R194" s="4"/>
+      <c r="S194" s="4"/>
+      <c r="T194" s="54"/>
+      <c r="U194" s="4"/>
+      <c r="V194" s="4"/>
+      <c r="W194" s="4"/>
+    </row>
+    <row r="195" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A195" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B195" s="4"/>
+      <c r="C195" s="4"/>
+      <c r="D195" s="4"/>
+      <c r="E195" s="4"/>
+      <c r="F195" s="4"/>
+      <c r="G195" s="4"/>
+      <c r="H195" s="126"/>
+      <c r="I195" s="126"/>
+      <c r="J195" s="4"/>
+      <c r="K195" s="4"/>
+      <c r="L195" s="4"/>
+      <c r="M195" s="4"/>
+      <c r="N195" s="4"/>
+      <c r="O195" s="4"/>
+      <c r="P195" s="4"/>
+      <c r="Q195" s="4"/>
+      <c r="R195" s="4"/>
+      <c r="S195" s="4"/>
+      <c r="T195" s="54"/>
+      <c r="U195" s="4"/>
+      <c r="V195" s="4"/>
+      <c r="W195" s="4"/>
+    </row>
+    <row r="196" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A196" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B196" s="4"/>
+      <c r="C196" s="4"/>
+      <c r="D196" s="4"/>
+      <c r="E196" s="4"/>
+      <c r="F196" s="4"/>
+      <c r="G196" s="4"/>
+      <c r="H196" s="126"/>
+      <c r="I196" s="126"/>
+      <c r="J196" s="4"/>
+      <c r="K196" s="4"/>
+      <c r="L196" s="4"/>
+      <c r="M196" s="4"/>
+      <c r="N196" s="4"/>
+      <c r="O196" s="4"/>
+      <c r="P196" s="4"/>
+      <c r="Q196" s="4"/>
+      <c r="R196" s="4"/>
+      <c r="S196" s="4"/>
+      <c r="T196" s="54"/>
+      <c r="U196" s="4"/>
+      <c r="V196" s="4"/>
+      <c r="W196" s="4"/>
+    </row>
+    <row r="197" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A197" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B197" s="4"/>
+      <c r="C197" s="4"/>
+      <c r="D197" s="4"/>
+      <c r="E197" s="4"/>
+      <c r="F197" s="4"/>
+      <c r="G197" s="4"/>
+      <c r="H197" s="126"/>
+      <c r="I197" s="126"/>
+      <c r="J197" s="4"/>
+      <c r="K197" s="4"/>
+      <c r="L197" s="4"/>
+      <c r="M197" s="4"/>
+      <c r="N197" s="4"/>
+      <c r="O197" s="4"/>
+      <c r="P197" s="4"/>
+      <c r="Q197" s="4"/>
+      <c r="R197" s="4"/>
+      <c r="S197" s="4"/>
+      <c r="T197" s="54"/>
+      <c r="U197" s="4"/>
+      <c r="V197" s="4"/>
+      <c r="W197" s="4"/>
+    </row>
+    <row r="198" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A198" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B198" s="4"/>
+      <c r="C198" s="4"/>
+      <c r="D198" s="4"/>
+      <c r="E198" s="4"/>
+      <c r="F198" s="4"/>
+      <c r="G198" s="4"/>
+      <c r="H198" s="126"/>
+      <c r="I198" s="126"/>
+      <c r="J198" s="4"/>
+      <c r="K198" s="4"/>
+      <c r="L198" s="4"/>
+      <c r="M198" s="4"/>
+      <c r="N198" s="4"/>
+      <c r="O198" s="4"/>
+      <c r="P198" s="4"/>
+      <c r="Q198" s="4"/>
+      <c r="R198" s="4"/>
+      <c r="S198" s="4"/>
+      <c r="T198" s="54"/>
+      <c r="U198" s="4"/>
+      <c r="V198" s="4"/>
+      <c r="W198" s="4"/>
+    </row>
+    <row r="199" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A199" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B199" s="4"/>
+      <c r="C199" s="4"/>
+      <c r="D199" s="4"/>
+      <c r="E199" s="4"/>
+      <c r="F199" s="4"/>
+      <c r="G199" s="4"/>
+      <c r="H199" s="126"/>
+      <c r="I199" s="126"/>
+      <c r="J199" s="4"/>
+      <c r="K199" s="4"/>
+      <c r="L199" s="4"/>
+      <c r="M199" s="4"/>
+      <c r="N199" s="4"/>
+      <c r="O199" s="4"/>
+      <c r="P199" s="4"/>
+      <c r="Q199" s="4"/>
+      <c r="R199" s="4"/>
+      <c r="S199" s="4"/>
+      <c r="T199" s="54"/>
+      <c r="U199" s="4"/>
+      <c r="V199" s="4"/>
+      <c r="W199" s="4"/>
+    </row>
+    <row r="200" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A200" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B200" s="4"/>
+      <c r="C200" s="4"/>
+      <c r="D200" s="4"/>
+      <c r="E200" s="4"/>
+      <c r="F200" s="4"/>
+      <c r="G200" s="4"/>
+      <c r="H200" s="126"/>
+      <c r="I200" s="126"/>
+      <c r="J200" s="4"/>
+      <c r="K200" s="4"/>
+      <c r="L200" s="4"/>
+      <c r="M200" s="4"/>
+      <c r="N200" s="4"/>
+      <c r="O200" s="4"/>
+      <c r="P200" s="4"/>
+      <c r="Q200" s="4"/>
+      <c r="R200" s="4"/>
+      <c r="S200" s="4"/>
+      <c r="T200" s="54"/>
+      <c r="U200" s="4"/>
+      <c r="V200" s="4"/>
+      <c r="W200" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20545,49 +20976,49 @@
           <x14:formula1>
             <xm:f>Sheet2!$M$4:$M$6</xm:f>
           </x14:formula1>
-          <xm:sqref>S3:S81 S82:S192</xm:sqref>
+          <xm:sqref>S3:S200</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$G$4:$G$11</xm:f>
           </x14:formula1>
-          <xm:sqref>R3:R81 R82:R192</xm:sqref>
+          <xm:sqref>R3:R200</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$K$4:$K$13</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:K81 K82:K192</xm:sqref>
+          <xm:sqref>K3:K200</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$J$4:$J$9</xm:f>
           </x14:formula1>
-          <xm:sqref>Q3:Q81 Q82:Q192</xm:sqref>
+          <xm:sqref>Q3:Q200</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$G$4:$G$10</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:O81 M82:O192</xm:sqref>
+          <xm:sqref>M3:O200</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$F$4:$F$8</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L81 L82:L192</xm:sqref>
+          <xm:sqref>L3:L200</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$D$4:$D$9</xm:f>
           </x14:formula1>
-          <xm:sqref>J3:J81 J82:J192</xm:sqref>
+          <xm:sqref>J3:J200</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Story Point">
           <x14:formula1>
             <xm:f>'C:\Users\Omnex\Documents\[performanetools1.txt.xlsx]Data_Ref'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>P3:P81 P82:P192</xm:sqref>
+          <xm:sqref>P3:P200</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/projects/YanFeng/02 System Design/User Stories/User Stories.xlsx
+++ b/projects/YanFeng/02 System Design/User Stories/User Stories.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2599" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2788" uniqueCount="1201">
   <si>
     <t>ID</t>
   </si>
@@ -1362,10 +1362,6 @@
   </si>
   <si>
     <t>US1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>As a user, I want to manage suppliers' additional profiles, So that I can add or update suppliers' information according to QA process requirements</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -3919,10 +3915,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>ASDE/SQE Supervisor</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>I can reopen the closed part task</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -4707,6 +4699,300 @@
   <si>
     <t>1, User shoud see value "Close" in task status dropdown list;
 2, User should see button "Save";</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>As a User I want to manage the APQP/PPAP template in supplier portal, so that I can use the template to create APQP/PPAP tasks</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDE/SQE supervisor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Have the APQP tasks created following the template APAP Template</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can ensure the new updated APQP item in the APQP template can be implemented by system automatically</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, System should find and load the single active APQP template to implement;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Have the PPAP tasks created following the template APAP Template</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can ensure the new updated PPAP item in the PPAP template can be implemented by system automatically</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, System should find and load the single active PPAP template to implement;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDE/SQE Supervisor
+ASDE/SQE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close the part task only if all sub-tasks(APQP/PPQP/PPQP) are closed</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can ensure all sub tasks are finished before the part task closed</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, System should check the sub tasks of part task when user supposed to close the part task;
+2, System should prompt user with information "There are still openning sub tasks, please check and close them first!" - if there are opening sub tasks under the part task;
+3, System should prompt user with information "The part task closed successfully" - if all sub tasks of the part task have already closed;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ASDE/SQE supervisor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audit a APQP main tasks</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can approve the APQP main task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can reject the APQP main task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see Editable dropdown list "Status" "Assignee" and "Approval Status";
+2, User should be able to select "Approved" status in dropdown list "Approval Status"
+3, User should be able to select "Close" status in dropdown list "Status"
+4, User should be able to approve the task by clicking the button "Submit Task";
+5, The closed APQP should be displayed in green color in task list view;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see Editable dropdown list "Status" "Assignee" and "Approval Status";
+2, User should be able to select "Rejected" status in dropdown list "Approval Status";
+3, User should be not able to select "Close" status in dropdown list "Status";
+4, User should be able to select previously assignee in dropdown list "Assignee";
+5, User should be able to reject the task by clicking the button "Submit Task";
+6, The rejected APQP task should be return to the assignee for further updating ;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Submit the APQP main task for approval</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can start the audit process</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see the fields Assignee,Approver,Approval Status in read-only mode;
+2, Assignee value should be ASDE/SQE name(current user name)
+3, Approver value should be ASDE/SQE supervisor;
+4, Approval Status value should be "Waiting for approve";
+5, User should be able to click "Submit Task" button to submit the APQP task;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>US101</t>
+  </si>
+  <si>
+    <t>Change APQP main task status</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can save the APQP main task status for tracking</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see dropdown list "Status";
+2, User should be able to change the task status to "In Processing";
+3, User should be able to click "Save" button to save the changes;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change PPAP main task status</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can save the PPAP main task status for tracking</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>The task status that ASDE/SQE can operate: 
+New -&gt; In Processing
+Reopen - &gt; In Processing</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>The task status that ASDE/SQE supervisor can operate: 
+In Processing -&gt; Close
+Close -&gt; Reopen
+New -&gt; In Processing
+Reopen - In Processing</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>The task status that ASDE/SQE supervisor can operate: 
+In Processing -&gt; Close
+Close -&gt; Reopen
+New -&gt; In Processing
+Reopen - In Processing</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ASDE/SQE supervisor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ASDE/SQE supervisor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Submit the PPAP main task for approval</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audit a PPAP main tasks</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audit a PPAP main tasks</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can approve the PPAP main task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can reject the PPAP main task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can close all PPAP tasks as an entire task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can reopen all PPAP tasks as an entire task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see the fields Assignee,Approver,Approval Status in read-only mode;
+2, Assignee value should be ASDE/SQE name(current user name)
+3, Approver value should be ASDE/SQE supervisor;
+4, Approval Status value should be "Waiting for approve";
+5, User should be able to click "Submit Task" button to submit the PPAP task;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see Editable dropdown list "Status" "Assignee" and "Approval Status";
+2, User should be able to select "Approved" status in dropdown list "Approval Status"
+3, User should be able to select "Close" status in dropdown list "Status"
+4, User should be able to approve the task by clicking the button "Submit Task";
+5, The closed PPAP should be displayed in green color in task list view;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upload the PSW file to PPAP main task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can publish the PSW file for review</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see PSW file field in "Edit PPAP Main Task Information" page;
+2, User should see a link of PSW file;
+3, User should see a button "Upload";
+4, User should be able to upload the PSW file in a new pop-up window when clicking on the button "Upload";</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add comments to PPAP main task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">I can give my suggestions and audit opinions </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User shuold see a comment list in "Edit PPAP Main Task Information" page;
+2, User should see a clickable icon "+", a new pop-up window come when clicking on icon "+"
+3, User should be able to write a comment in a new pop-up window;
+4, A new comment should be displayed in comment list when user save the comment successfully;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ASDE/SQE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ASDE/SQE supervisor
+ASDE/SQE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upload the PSW file to APQP main task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add comments to APQP main task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User shuold see a comment list in "Edit APQP Main Task Information" page;
+2, User should see a clickable icon "+", a new pop-up window come when clicking on icon "+"
+3, User should be able to write a comment in a new pop-up window;
+4, A new comment should be displayed in comment list when user save the comment successfully;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see PSW file field in "Edit APQP Main Task Information" page;
+2, User should see a link of PSW file;
+3, User should see a button "Upload";
+4, User should be able to upload the PSW file in a new pop-up window when clicking on the button "Upload";</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>US106</t>
+  </si>
+  <si>
+    <t>I can provide the reason of rejection to the assignee</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, The comment of Rejection is mandatory;
+2, The window "add comment" should pop up automatically when user select approval status "Rejected" and click on button "Submit Task";
+3, The task should be submited when user click on the button "Save" in "Add Comment" window (if comment stored successfully);
+4, The comment should be displayed in comment list in the page "Edit APQP Main Task Information";</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide a comment for the rejected APQP main task </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide a comment for the rejected PPAP main task </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, The comment of Rejection is mandatory;
+2, The window "add comment" should pop up automatically when user select approval status "Rejected" and click on button "Submit Task";
+3, The task should be submited when user click on the button "Save" in "Add Comment" window (if comment stored successfully);
+4, The comment should be displayed in comment list in the page "Edit PPAP Main Task Information";</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -6014,7 +6300,7 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B2" s="132" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C2" s="133"/>
       <c r="D2" s="133"/>
@@ -6033,34 +6319,34 @@
       <c r="G3" s="135"/>
       <c r="H3" s="135"/>
       <c r="I3" s="99" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="99"/>
       <c r="C4" s="103" t="s">
+        <v>550</v>
+      </c>
+      <c r="D4" s="104" t="s">
         <v>551</v>
       </c>
-      <c r="D4" s="104" t="s">
+      <c r="E4" s="104" t="s">
         <v>552</v>
       </c>
-      <c r="E4" s="104" t="s">
+      <c r="F4" s="104" t="s">
         <v>553</v>
       </c>
-      <c r="F4" s="104" t="s">
+      <c r="G4" s="104" t="s">
         <v>554</v>
       </c>
-      <c r="G4" s="104" t="s">
+      <c r="H4" s="104" t="s">
         <v>555</v>
-      </c>
-      <c r="H4" s="104" t="s">
-        <v>556</v>
       </c>
       <c r="I4" s="104"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="99" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C5" s="99">
         <f>COUNTIF('System Setup'!J:J,"Critical")</f>
@@ -6093,15 +6379,15 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="100" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C6" s="99">
         <f>COUNTIF('Project Management'!J:J,"Critical")</f>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D6" s="99">
         <f>COUNTIF('Project Management'!J:J,"Very High")</f>
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E6" s="99">
         <f>COUNTIF('Project Management'!J:J,"High")</f>
@@ -6109,7 +6395,7 @@
       </c>
       <c r="F6" s="99">
         <f>COUNTIF('Project Management'!J:J,"Medium")</f>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G6" s="99">
         <f>COUNTIF('Project Management'!J:J,"Low")</f>
@@ -6121,12 +6407,12 @@
       </c>
       <c r="I6" s="99">
         <f t="shared" ref="I6:I12" si="0">SUM(C6:H6)</f>
-        <v>133</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" s="100" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C7" s="99">
         <f>COUNTIF('Advanced Settings'!J:J,"Critical")</f>
@@ -6159,7 +6445,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" s="100" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C8" s="99">
         <f>COUNTIF('Issue Management'!J:J,"Critical")</f>
@@ -6192,7 +6478,7 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" s="100" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C9" s="99">
         <f>COUNTIF('User Account'!J:J,"Critical")</f>
@@ -6225,7 +6511,7 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" s="100" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C10" s="99">
         <f>COUNTIF('Report Management'!J:J,"Critical")</f>
@@ -6258,7 +6544,7 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B11" s="100" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C11" s="99">
         <f>COUNTIF('System Integration'!J:J,"Critical")</f>
@@ -6291,7 +6577,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" s="100" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C12" s="99">
         <f>COUNTIF('UI&amp;UX'!J:J,"Critical")</f>
@@ -6324,15 +6610,15 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" s="101" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C13" s="99">
         <f>SUM(C5:C12)</f>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D13" s="99">
         <f t="shared" ref="D13:H13" si="1">SUM(D5:D12)</f>
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E13" s="99">
         <f t="shared" si="1"/>
@@ -6340,7 +6626,7 @@
       </c>
       <c r="F13" s="99">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G13" s="99">
         <f t="shared" si="1"/>
@@ -6354,11 +6640,11 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" s="102" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C14" s="131">
         <f>SUM(C13:H13)</f>
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="D14" s="131"/>
       <c r="E14" s="131"/>
@@ -7925,7 +8211,7 @@
   </sheetPr>
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
@@ -7966,7 +8252,7 @@
         <v>75</v>
       </c>
       <c r="D2" s="71" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E2" s="30"/>
     </row>
@@ -8035,13 +8321,13 @@
         <v>1.5</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C7" s="42" t="s">
         <v>75</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E7" s="44"/>
     </row>
@@ -8050,7 +8336,7 @@
         <v>1.6</v>
       </c>
       <c r="B8" s="68" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C8" s="68" t="s">
         <v>75</v>
@@ -8065,7 +8351,7 @@
         <v>1.7</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C9" s="68" t="s">
         <v>75</v>
@@ -8110,7 +8396,7 @@
         <v>337</v>
       </c>
       <c r="B12" s="77" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C12" s="68" t="s">
         <v>75</v>
@@ -8120,7 +8406,7 @@
       </c>
       <c r="E12" s="78"/>
     </row>
-    <row r="13" spans="1:5" s="76" customFormat="1" ht="22.5" collapsed="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" s="76" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A13" s="69">
         <v>2</v>
       </c>
@@ -8135,7 +8421,7 @@
       </c>
       <c r="E13" s="80"/>
     </row>
-    <row r="14" spans="1:5" s="85" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" s="85" customFormat="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.15">
       <c r="A14" s="81">
         <v>2.1</v>
       </c>
@@ -8240,7 +8526,7 @@
       </c>
       <c r="E20" s="23"/>
     </row>
-    <row r="21" spans="1:5" s="85" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" s="85" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A21" s="81">
         <v>2.2000000000000002</v>
       </c>
@@ -8255,12 +8541,12 @@
       </c>
       <c r="E21" s="84"/>
     </row>
-    <row r="22" spans="1:5" s="85" customFormat="1" ht="22.5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" s="85" customFormat="1" ht="22.5" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A22" s="81">
         <v>2.2999999999999998</v>
       </c>
       <c r="B22" s="82" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C22" s="82" t="s">
         <v>75</v>
@@ -8270,7 +8556,7 @@
       </c>
       <c r="E22" s="84"/>
     </row>
-    <row r="23" spans="1:5" s="36" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" s="36" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A23" s="37" t="s">
         <v>219</v>
       </c>
@@ -8285,7 +8571,7 @@
       </c>
       <c r="E23" s="23"/>
     </row>
-    <row r="24" spans="1:5" s="36" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" s="36" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A24" s="37" t="s">
         <v>220</v>
       </c>
@@ -8300,7 +8586,7 @@
       </c>
       <c r="E24" s="23"/>
     </row>
-    <row r="25" spans="1:5" s="36" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" s="36" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A25" s="37" t="s">
         <v>221</v>
       </c>
@@ -8315,7 +8601,7 @@
       </c>
       <c r="E25" s="23"/>
     </row>
-    <row r="26" spans="1:5" s="36" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" s="36" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A26" s="37" t="s">
         <v>222</v>
       </c>
@@ -8330,12 +8616,12 @@
       </c>
       <c r="E26" s="23"/>
     </row>
-    <row r="27" spans="1:5" s="87" customFormat="1" ht="22.5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" s="87" customFormat="1" ht="22.5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.15">
       <c r="A27" s="61">
         <v>2.4</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C27" s="62" t="s">
         <v>75</v>
@@ -8397,7 +8683,7 @@
       <c r="D31" s="66"/>
       <c r="E31" s="68"/>
     </row>
-    <row r="32" spans="1:5" s="76" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" s="76" customFormat="1" ht="22.5" collapsed="1" x14ac:dyDescent="0.15">
       <c r="A32" s="69">
         <v>3</v>
       </c>
@@ -8412,7 +8698,7 @@
       </c>
       <c r="E32" s="80"/>
     </row>
-    <row r="33" spans="1:5" s="76" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" s="76" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A33" s="72">
         <v>3.1</v>
       </c>
@@ -8425,7 +8711,7 @@
       <c r="D33" s="74"/>
       <c r="E33" s="75"/>
     </row>
-    <row r="34" spans="1:5" s="76" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" s="76" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A34" s="72">
         <v>3.2</v>
       </c>
@@ -8438,7 +8724,7 @@
       <c r="D34" s="74"/>
       <c r="E34" s="75"/>
     </row>
-    <row r="35" spans="1:5" s="76" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" s="76" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A35" s="46">
         <v>3.3</v>
       </c>
@@ -8449,26 +8735,26 @@
         <v>75</v>
       </c>
       <c r="D35" s="43" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E35" s="75"/>
     </row>
-    <row r="36" spans="1:5" s="76" customFormat="1" ht="42" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" s="76" customFormat="1" ht="42" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A36" s="112">
         <v>3.4</v>
       </c>
       <c r="B36" s="113" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C36" s="113" t="s">
         <v>75</v>
       </c>
       <c r="D36" s="114" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E36" s="75"/>
     </row>
-    <row r="37" spans="1:5" s="76" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" s="76" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A37" s="46">
         <v>3.5</v>
       </c>
@@ -8483,7 +8769,7 @@
       </c>
       <c r="E37" s="75"/>
     </row>
-    <row r="38" spans="1:5" s="76" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" s="76" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A38" s="72">
         <v>3.6</v>
       </c>
@@ -8498,12 +8784,12 @@
       </c>
       <c r="E38" s="75"/>
     </row>
-    <row r="39" spans="1:5" s="76" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" s="76" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A39" s="106">
         <v>3.7</v>
       </c>
       <c r="B39" s="107" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C39" s="107" t="s">
         <v>75</v>
@@ -8511,12 +8797,12 @@
       <c r="D39" s="108"/>
       <c r="E39" s="75"/>
     </row>
-    <row r="40" spans="1:5" s="76" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" s="76" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A40" s="72">
         <v>3.8</v>
       </c>
       <c r="B40" s="73" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C40" s="73" t="s">
         <v>75</v>
@@ -8526,12 +8812,12 @@
       </c>
       <c r="E40" s="75"/>
     </row>
-    <row r="41" spans="1:5" s="76" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" s="76" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A41" s="72">
         <v>3.9</v>
       </c>
       <c r="B41" s="73" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C41" s="73" t="s">
         <v>75</v>
@@ -8539,12 +8825,12 @@
       <c r="D41" s="74"/>
       <c r="E41" s="75"/>
     </row>
-    <row r="42" spans="1:5" s="76" customFormat="1" ht="21" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" s="76" customFormat="1" ht="21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A42" s="109" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B42" s="110" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C42" s="110" t="s">
         <v>75</v>
@@ -8554,7 +8840,7 @@
       </c>
       <c r="E42" s="75"/>
     </row>
-    <row r="43" spans="1:5" s="76" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" s="76" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A43" s="72">
         <v>3.11</v>
       </c>
@@ -8567,9 +8853,9 @@
       <c r="D43" s="74"/>
       <c r="E43" s="75"/>
     </row>
-    <row r="44" spans="1:5" s="76" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" s="76" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A44" s="46" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B44" s="42" t="s">
         <v>99</v>
@@ -8582,9 +8868,9 @@
       </c>
       <c r="E44" s="75"/>
     </row>
-    <row r="45" spans="1:5" s="76" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" s="76" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A45" s="72" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B45" s="73" t="s">
         <v>100</v>
@@ -8597,12 +8883,12 @@
       </c>
       <c r="E45" s="75"/>
     </row>
-    <row r="46" spans="1:5" s="76" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" s="76" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A46" s="109" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B46" s="110" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C46" s="110" t="s">
         <v>75</v>
@@ -8610,7 +8896,7 @@
       <c r="D46" s="111"/>
       <c r="E46" s="75"/>
     </row>
-    <row r="47" spans="1:5" s="76" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" s="76" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A47" s="72" t="s">
         <v>63</v>
       </c>
@@ -8625,7 +8911,7 @@
       </c>
       <c r="E47" s="75"/>
     </row>
-    <row r="48" spans="1:5" s="76" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" s="76" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A48" s="72" t="s">
         <v>64</v>
       </c>
@@ -8638,7 +8924,7 @@
       <c r="D48" s="74"/>
       <c r="E48" s="75"/>
     </row>
-    <row r="49" spans="1:5" s="76" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" s="76" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A49" s="72" t="s">
         <v>65</v>
       </c>
@@ -8653,7 +8939,7 @@
       </c>
       <c r="E49" s="75"/>
     </row>
-    <row r="50" spans="1:5" s="76" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" s="76" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A50" s="46" t="s">
         <v>66</v>
       </c>
@@ -8668,7 +8954,7 @@
       </c>
       <c r="E50" s="75"/>
     </row>
-    <row r="51" spans="1:5" s="76" customFormat="1" ht="22.5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" s="76" customFormat="1" ht="22.5" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.15">
       <c r="A51" s="82">
         <v>3.19</v>
       </c>
@@ -8685,7 +8971,7 @@
     </row>
     <row r="52" spans="1:5" s="85" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A52" s="88" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B52" s="89" t="s">
         <v>122</v>
@@ -8700,7 +8986,7 @@
     </row>
     <row r="53" spans="1:5" s="85" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A53" s="88" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B53" s="89" t="s">
         <v>123</v>
@@ -8713,7 +8999,7 @@
     </row>
     <row r="54" spans="1:5" s="85" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A54" s="88" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B54" s="89" t="s">
         <v>95</v>
@@ -8728,7 +9014,7 @@
     </row>
     <row r="55" spans="1:5" s="85" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A55" s="88" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B55" s="89" t="s">
         <v>124</v>
@@ -8741,7 +9027,7 @@
     </row>
     <row r="56" spans="1:5" s="85" customFormat="1" hidden="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A56" s="88" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B56" s="89"/>
       <c r="C56" s="89" t="s">
@@ -8916,7 +9202,7 @@
     </row>
     <row r="69" spans="1:5" s="76" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A69" s="94" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B69" s="73" t="s">
         <v>149</v>
@@ -8931,7 +9217,7 @@
     </row>
     <row r="70" spans="1:5" s="76" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A70" s="94" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B70" s="73" t="s">
         <v>152</v>
@@ -8991,7 +9277,7 @@
     </row>
     <row r="74" spans="1:5" s="76" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A74" s="94" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B74" s="73"/>
       <c r="C74" s="73" t="s">
@@ -10433,7 +10719,7 @@
         <v>334</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>199</v>
@@ -10478,7 +10764,7 @@
         <v>335</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>199</v>
@@ -10517,13 +10803,13 @@
     </row>
     <row r="28" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>199</v>
@@ -10562,13 +10848,13 @@
     </row>
     <row r="29" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>336</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>199</v>
@@ -10580,7 +10866,7 @@
         <v>331</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>332</v>
@@ -10607,28 +10893,28 @@
     </row>
     <row r="30" spans="1:23" ht="96" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="H30" s="4" t="s">
         <v>362</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>363</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="3" t="s">
@@ -10652,28 +10938,28 @@
     </row>
     <row r="31" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F31" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="H31" s="4" t="s">
         <v>366</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>367</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="3" t="s">
@@ -10697,28 +10983,28 @@
     </row>
     <row r="32" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F32" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>370</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>371</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="3" t="s">
@@ -10742,28 +11028,28 @@
     </row>
     <row r="33" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F33" s="4" t="s">
+      <c r="G33" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="3" t="s">
@@ -10787,28 +11073,28 @@
     </row>
     <row r="34" spans="1:23" ht="36" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F34" s="4" t="s">
+      <c r="G34" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>378</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>379</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="3" t="s">
@@ -10832,28 +11118,28 @@
     </row>
     <row r="35" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F35" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="H35" s="4" t="s">
         <v>382</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>383</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="3" t="s">
@@ -10877,25 +11163,25 @@
     </row>
     <row r="36" spans="1:23" ht="108" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>384</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>385</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -10920,28 +11206,28 @@
     </row>
     <row r="37" spans="1:23" ht="84" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F37" s="4" t="s">
+      <c r="G37" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="H37" s="4" t="s">
         <v>390</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>391</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="3" t="s">
@@ -10965,28 +11251,28 @@
     </row>
     <row r="38" spans="1:23" ht="120" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="C38" s="4" t="s">
+      <c r="D38" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F38" s="4" t="s">
+      <c r="G38" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>395</v>
-      </c>
       <c r="H38" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="3" t="s">
@@ -11010,28 +11296,28 @@
     </row>
     <row r="39" spans="1:23" ht="60" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D39" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>360</v>
-      </c>
       <c r="F39" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>399</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>400</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="3" t="s">
@@ -11055,28 +11341,28 @@
     </row>
     <row r="40" spans="1:23" ht="60" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F40" s="4" t="s">
+      <c r="G40" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="H40" s="4" t="s">
         <v>403</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>404</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="3" t="s">
@@ -11100,28 +11386,28 @@
     </row>
     <row r="41" spans="1:23" ht="60" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F41" s="4" t="s">
+      <c r="G41" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="H41" s="4" t="s">
         <v>407</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>408</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="3" t="s">
@@ -11145,28 +11431,28 @@
     </row>
     <row r="42" spans="1:23" ht="60" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>360</v>
-      </c>
       <c r="F42" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="G42" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="H42" s="4" t="s">
         <v>414</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>415</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="3" t="s">
@@ -11190,28 +11476,28 @@
     </row>
     <row r="43" spans="1:23" ht="60" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D43" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>360</v>
-      </c>
       <c r="F43" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>411</v>
-      </c>
       <c r="H43" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="3" t="s">
@@ -11235,28 +11521,28 @@
     </row>
     <row r="44" spans="1:23" ht="60" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F44" s="4" t="s">
+      <c r="G44" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="H44" s="4" t="s">
         <v>419</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>420</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="3" t="s">
@@ -11280,28 +11566,28 @@
     </row>
     <row r="45" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F45" s="4" t="s">
+      <c r="G45" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="H45" s="4" t="s">
         <v>423</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>424</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="3" t="s">
@@ -11325,28 +11611,28 @@
     </row>
     <row r="46" spans="1:23" ht="60" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="G46" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="G46" s="4" t="s">
+      <c r="H46" s="4" t="s">
         <v>426</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>427</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="3" t="s">
@@ -11370,28 +11656,28 @@
     </row>
     <row r="47" spans="1:23" ht="60" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D47" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>360</v>
-      </c>
       <c r="F47" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="H47" s="4" t="s">
         <v>431</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>432</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="3" t="s">
@@ -11415,28 +11701,28 @@
     </row>
     <row r="48" spans="1:23" ht="60" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F48" s="4" t="s">
+      <c r="G48" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="H48" s="4" t="s">
         <v>435</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>436</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="3" t="s">
@@ -11460,28 +11746,28 @@
     </row>
     <row r="49" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="D49" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F49" s="4" t="s">
+      <c r="G49" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="H49" s="4" t="s">
         <v>443</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>444</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="3" t="s">
@@ -11505,28 +11791,28 @@
     </row>
     <row r="50" spans="1:23" ht="60" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>441</v>
-      </c>
       <c r="D50" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>360</v>
-      </c>
       <c r="F50" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="H50" s="4" t="s">
         <v>448</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>449</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="3" t="s">
@@ -11550,28 +11836,28 @@
     </row>
     <row r="51" spans="1:23" ht="60" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>441</v>
-      </c>
       <c r="D51" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>360</v>
-      </c>
       <c r="F51" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="G51" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="H51" s="4" t="s">
         <v>451</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>452</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="3" t="s">
@@ -11595,28 +11881,28 @@
     </row>
     <row r="52" spans="1:23" ht="60" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F52" s="4" t="s">
+      <c r="G52" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="H52" s="4" t="s">
         <v>455</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>456</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="3" t="s">
@@ -11640,28 +11926,28 @@
     </row>
     <row r="53" spans="1:23" ht="60" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="C53" s="4" t="s">
+      <c r="D53" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F53" s="4" t="s">
+      <c r="G53" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="H53" s="4" t="s">
         <v>460</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>461</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="3" t="s">
@@ -11685,28 +11971,28 @@
     </row>
     <row r="54" spans="1:23" ht="60" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F54" s="4" t="s">
+      <c r="H54" s="4" t="s">
         <v>464</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>465</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="3" t="s">
@@ -11730,28 +12016,28 @@
     </row>
     <row r="55" spans="1:23" ht="60" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D55" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>360</v>
-      </c>
       <c r="F55" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="H55" s="4" t="s">
         <v>471</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>472</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="3" t="s">
@@ -11775,28 +12061,28 @@
     </row>
     <row r="56" spans="1:23" ht="60" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D56" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>360</v>
-      </c>
       <c r="F56" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="G56" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="G56" s="4" t="s">
-        <v>468</v>
-      </c>
       <c r="H56" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="3" t="s">
@@ -11820,25 +12106,25 @@
     </row>
     <row r="57" spans="1:23" ht="60" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F57" s="4" t="s">
+      <c r="G57" s="4" t="s">
         <v>475</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>476</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
@@ -11863,25 +12149,25 @@
     </row>
     <row r="58" spans="1:23" ht="60" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F58" s="4" t="s">
+      <c r="G58" s="4" t="s">
         <v>478</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>479</v>
       </c>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
@@ -11908,28 +12194,28 @@
     </row>
     <row r="59" spans="1:23" ht="60" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F59" s="4" t="s">
+      <c r="G59" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="H59" s="4" t="s">
         <v>482</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>483</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="3" t="s">
@@ -11953,28 +12239,28 @@
     </row>
     <row r="60" spans="1:23" ht="60" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F60" s="4" t="s">
+      <c r="G60" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="H60" s="4" t="s">
         <v>486</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>487</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="3" t="s">
@@ -12959,11 +13245,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W200"/>
+  <dimension ref="A1:W217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H108" sqref="H108"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F135" sqref="F135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12975,7 +13261,7 @@
     <col min="5" max="5" width="20" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.875" style="16" customWidth="1"/>
     <col min="7" max="7" width="27.375" style="16" customWidth="1"/>
-    <col min="8" max="8" width="51.75" style="129" customWidth="1"/>
+    <col min="8" max="8" width="64.375" style="129" customWidth="1"/>
     <col min="9" max="9" width="54.375" style="129" customWidth="1"/>
     <col min="10" max="10" width="9.5" style="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" style="16" bestFit="1" customWidth="1"/>
@@ -13095,31 +13381,31 @@
     </row>
     <row r="3" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B3" s="119" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="H3" s="126" t="s">
         <v>845</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>740</v>
-      </c>
-      <c r="H3" s="126" t="s">
-        <v>846</v>
-      </c>
       <c r="I3" s="125" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>43</v>
@@ -13142,28 +13428,28 @@
     </row>
     <row r="4" spans="1:23" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B4" s="119" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="H4" s="126" t="s">
         <v>758</v>
-      </c>
-      <c r="H4" s="126" t="s">
-        <v>759</v>
       </c>
       <c r="I4" s="125"/>
       <c r="J4" s="4" t="s">
@@ -13190,25 +13476,25 @@
         <v>255</v>
       </c>
       <c r="B5" s="119" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>745</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>746</v>
-      </c>
       <c r="H5" s="126" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="I5" s="125"/>
       <c r="J5" s="4" t="s">
@@ -13235,28 +13521,28 @@
         <v>256</v>
       </c>
       <c r="B6" s="119" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="H6" s="126" t="s">
         <v>847</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>741</v>
-      </c>
-      <c r="H6" s="126" t="s">
-        <v>848</v>
-      </c>
       <c r="I6" s="125" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>43</v>
@@ -13282,25 +13568,25 @@
         <v>257</v>
       </c>
       <c r="B7" s="119" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H7" s="126" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="I7" s="125"/>
       <c r="J7" s="4" t="s">
@@ -13327,25 +13613,25 @@
         <v>258</v>
       </c>
       <c r="B8" s="119" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="H8" s="126" t="s">
         <v>748</v>
-      </c>
-      <c r="H8" s="126" t="s">
-        <v>749</v>
       </c>
       <c r="I8" s="125"/>
       <c r="J8" s="4" t="s">
@@ -13372,28 +13658,28 @@
         <v>259</v>
       </c>
       <c r="B9" s="119" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H9" s="126" t="s">
         <v>1078</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>1079</v>
-      </c>
-      <c r="H9" s="126" t="s">
-        <v>1080</v>
-      </c>
       <c r="I9" s="125" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>43</v>
@@ -13419,25 +13705,25 @@
         <v>260</v>
       </c>
       <c r="B10" s="119" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H10" s="126" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="I10" s="125"/>
       <c r="J10" s="4" t="s">
@@ -13464,25 +13750,25 @@
         <v>261</v>
       </c>
       <c r="B11" s="119" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="H11" s="126" t="s">
         <v>748</v>
-      </c>
-      <c r="H11" s="126" t="s">
-        <v>749</v>
       </c>
       <c r="I11" s="126"/>
       <c r="J11" s="4" t="s">
@@ -13509,25 +13795,25 @@
         <v>262</v>
       </c>
       <c r="B12" s="122" t="s">
+        <v>982</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>984</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>985</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>986</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>987</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="H12" s="126" t="s">
         <v>988</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>989</v>
-      </c>
-      <c r="H12" s="126" t="s">
-        <v>990</v>
       </c>
       <c r="I12" s="126"/>
       <c r="J12" s="4" t="s">
@@ -13554,25 +13840,25 @@
         <v>263</v>
       </c>
       <c r="B13" s="122" t="s">
+        <v>982</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>984</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>985</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>986</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>987</v>
-      </c>
       <c r="F13" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="H13" s="126" t="s">
         <v>991</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>992</v>
-      </c>
-      <c r="H13" s="126" t="s">
-        <v>993</v>
       </c>
       <c r="I13" s="126"/>
       <c r="J13" s="4" t="s">
@@ -13596,28 +13882,28 @@
     </row>
     <row r="14" spans="1:23" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B14" s="122" t="s">
+        <v>982</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>984</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>985</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>986</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>987</v>
-      </c>
       <c r="F14" s="4" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="H14" s="126" t="s">
         <v>994</v>
-      </c>
-      <c r="H14" s="126" t="s">
-        <v>996</v>
       </c>
       <c r="I14" s="126"/>
       <c r="J14" s="4" t="s">
@@ -13644,28 +13930,28 @@
         <v>267</v>
       </c>
       <c r="B15" s="122" t="s">
+        <v>982</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>984</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>985</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>986</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>987</v>
-      </c>
       <c r="F15" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="H15" s="126" t="s">
         <v>997</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="I15" s="126" t="s">
         <v>998</v>
-      </c>
-      <c r="H15" s="126" t="s">
-        <v>999</v>
-      </c>
-      <c r="I15" s="126" t="s">
-        <v>1000</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>45</v>
@@ -13691,25 +13977,25 @@
         <v>272</v>
       </c>
       <c r="B16" s="118" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H16" s="126" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I16" s="127"/>
       <c r="J16" s="4" t="s">
@@ -13736,25 +14022,25 @@
         <v>279</v>
       </c>
       <c r="B17" s="118" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H17" s="126" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="I17" s="127"/>
       <c r="J17" s="4" t="s">
@@ -13781,28 +14067,28 @@
         <v>280</v>
       </c>
       <c r="B18" s="118" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F18" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="H18" s="126" t="s">
         <v>859</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>853</v>
-      </c>
-      <c r="H18" s="126" t="s">
-        <v>860</v>
-      </c>
       <c r="I18" s="127" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>44</v>
@@ -13828,28 +14114,28 @@
         <v>291</v>
       </c>
       <c r="B19" s="118" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G19" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="H19" s="126" t="s">
         <v>592</v>
       </c>
-      <c r="H19" s="126" t="s">
+      <c r="I19" s="127" t="s">
         <v>593</v>
-      </c>
-      <c r="I19" s="127" t="s">
-        <v>594</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>44</v>
@@ -13875,25 +14161,25 @@
         <v>296</v>
       </c>
       <c r="B20" s="118" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="H20" s="126" t="s">
         <v>862</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>747</v>
-      </c>
-      <c r="H20" s="126" t="s">
-        <v>863</v>
       </c>
       <c r="I20" s="125"/>
       <c r="J20" s="4" t="s">
@@ -13920,25 +14206,25 @@
         <v>301</v>
       </c>
       <c r="B21" s="118" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H21" s="126" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="I21" s="127"/>
       <c r="J21" s="4" t="s">
@@ -13965,28 +14251,28 @@
         <v>307</v>
       </c>
       <c r="B22" s="118" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="F22" s="4" t="s">
+      <c r="H22" s="126" t="s">
         <v>854</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="I22" s="127" t="s">
         <v>501</v>
-      </c>
-      <c r="H22" s="126" t="s">
-        <v>855</v>
-      </c>
-      <c r="I22" s="127" t="s">
-        <v>502</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>44</v>
@@ -14012,25 +14298,25 @@
         <v>311</v>
       </c>
       <c r="B23" s="118" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H23" s="126" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I23" s="126"/>
       <c r="J23" s="4" t="s">
@@ -14057,25 +14343,25 @@
         <v>315</v>
       </c>
       <c r="B24" s="118" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="H24" s="126" t="s">
         <v>505</v>
-      </c>
-      <c r="H24" s="126" t="s">
-        <v>506</v>
       </c>
       <c r="I24" s="126"/>
       <c r="J24" s="4" t="s">
@@ -14102,25 +14388,25 @@
         <v>321</v>
       </c>
       <c r="B25" s="118" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H25" s="126" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I25" s="126"/>
       <c r="J25" s="4" t="s">
@@ -14147,25 +14433,25 @@
         <v>325</v>
       </c>
       <c r="B26" s="118" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F26" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>542</v>
-      </c>
       <c r="H26" s="126" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I26" s="126"/>
       <c r="J26" s="4" t="s">
@@ -14189,31 +14475,31 @@
     </row>
     <row r="27" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B27" s="118" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F27" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="H27" s="126" t="s">
         <v>536</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>831</v>
-      </c>
-      <c r="H27" s="126" t="s">
+      <c r="I27" s="126" t="s">
         <v>537</v>
-      </c>
-      <c r="I27" s="126" t="s">
-        <v>538</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>44</v>
@@ -14236,28 +14522,28 @@
     </row>
     <row r="28" spans="1:23" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B28" s="118" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H28" s="126" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I28" s="126"/>
       <c r="J28" s="4" t="s">
@@ -14281,28 +14567,28 @@
     </row>
     <row r="29" spans="1:23" ht="84" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B29" s="118" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F29" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="H29" s="126" t="s">
         <v>565</v>
-      </c>
-      <c r="H29" s="126" t="s">
-        <v>566</v>
       </c>
       <c r="I29" s="126"/>
       <c r="J29" s="4" t="s">
@@ -14326,31 +14612,31 @@
     </row>
     <row r="30" spans="1:23" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B30" s="118" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F30" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="H30" s="126" t="s">
+        <v>579</v>
+      </c>
+      <c r="I30" s="125" t="s">
         <v>578</v>
-      </c>
-      <c r="H30" s="126" t="s">
-        <v>580</v>
-      </c>
-      <c r="I30" s="125" t="s">
-        <v>579</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>45</v>
@@ -14373,31 +14659,31 @@
     </row>
     <row r="31" spans="1:23" ht="132" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B31" s="118" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F31" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="H31" s="126" t="s">
         <v>582</v>
       </c>
-      <c r="H31" s="126" t="s">
+      <c r="I31" s="126" t="s">
         <v>583</v>
-      </c>
-      <c r="I31" s="126" t="s">
-        <v>584</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>45</v>
@@ -14420,31 +14706,31 @@
     </row>
     <row r="32" spans="1:23" ht="127.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B32" s="118" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F32" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>576</v>
-      </c>
       <c r="H32" s="126" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I32" s="126" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>45</v>
@@ -14467,28 +14753,28 @@
     </row>
     <row r="33" spans="1:23" ht="159.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B33" s="118" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F33" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="H33" s="126" t="s">
         <v>588</v>
-      </c>
-      <c r="H33" s="126" t="s">
-        <v>589</v>
       </c>
       <c r="I33" s="126"/>
       <c r="J33" s="4" t="s">
@@ -14512,31 +14798,31 @@
     </row>
     <row r="34" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B34" s="118" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F34" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="H34" s="126" t="s">
         <v>686</v>
       </c>
-      <c r="H34" s="126" t="s">
-        <v>687</v>
-      </c>
       <c r="I34" s="125" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>14</v>
@@ -14559,28 +14845,28 @@
     </row>
     <row r="35" spans="1:23" ht="144" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B35" s="118" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F35" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="H35" s="126" t="s">
         <v>689</v>
-      </c>
-      <c r="H35" s="126" t="s">
-        <v>690</v>
       </c>
       <c r="I35" s="125"/>
       <c r="J35" s="4" t="s">
@@ -14604,28 +14890,28 @@
     </row>
     <row r="36" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B36" s="118" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F36" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="H36" s="126" t="s">
         <v>695</v>
-      </c>
-      <c r="H36" s="126" t="s">
-        <v>696</v>
       </c>
       <c r="I36" s="126"/>
       <c r="J36" s="4" t="s">
@@ -14649,28 +14935,28 @@
     </row>
     <row r="37" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B37" s="118" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F37" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="H37" s="126" t="s">
         <v>697</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>700</v>
-      </c>
-      <c r="H37" s="126" t="s">
-        <v>698</v>
       </c>
       <c r="I37" s="126"/>
       <c r="J37" s="4" t="s">
@@ -14694,28 +14980,28 @@
     </row>
     <row r="38" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B38" s="118" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F38" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="H38" s="126" t="s">
         <v>692</v>
-      </c>
-      <c r="H38" s="126" t="s">
-        <v>693</v>
       </c>
       <c r="I38" s="126"/>
       <c r="J38" s="4" t="s">
@@ -14739,28 +15025,28 @@
     </row>
     <row r="39" spans="1:23" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B39" s="118" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F39" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="H39" s="126" t="s">
         <v>702</v>
-      </c>
-      <c r="H39" s="126" t="s">
-        <v>703</v>
       </c>
       <c r="I39" s="126"/>
       <c r="J39" s="4" t="s">
@@ -14784,31 +15070,31 @@
     </row>
     <row r="40" spans="1:23" ht="115.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B40" s="118" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D40" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>597</v>
-      </c>
       <c r="F40" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="H40" s="126" t="s">
         <v>842</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>896</v>
-      </c>
-      <c r="H40" s="126" t="s">
-        <v>843</v>
-      </c>
       <c r="I40" s="126" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>43</v>
@@ -14831,28 +15117,28 @@
     </row>
     <row r="41" spans="1:23" ht="111" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B41" s="118" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D41" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>597</v>
-      </c>
       <c r="F41" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H41" s="126" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="I41" s="126"/>
       <c r="J41" s="4" t="s">
@@ -14876,28 +15162,28 @@
     </row>
     <row r="42" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B42" s="118" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F42" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="G42" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="H42" s="126" t="s">
         <v>561</v>
-      </c>
-      <c r="H42" s="126" t="s">
-        <v>562</v>
       </c>
       <c r="I42" s="126"/>
       <c r="J42" s="4" t="s">
@@ -14921,28 +15207,28 @@
     </row>
     <row r="43" spans="1:23" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B43" s="118" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E43" s="40" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F43" s="40" t="s">
+        <v>703</v>
+      </c>
+      <c r="G43" s="40" t="s">
         <v>704</v>
       </c>
-      <c r="G43" s="40" t="s">
+      <c r="H43" s="125" t="s">
         <v>705</v>
-      </c>
-      <c r="H43" s="125" t="s">
-        <v>706</v>
       </c>
       <c r="I43" s="126"/>
       <c r="J43" s="4" t="s">
@@ -14966,28 +15252,28 @@
     </row>
     <row r="44" spans="1:23" ht="145.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B44" s="120" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H44" s="126" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I44" s="125"/>
       <c r="J44" s="4" t="s">
@@ -15011,28 +15297,28 @@
     </row>
     <row r="45" spans="1:23" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B45" s="120" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F45" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="H45" s="126" t="s">
         <v>754</v>
-      </c>
-      <c r="H45" s="126" t="s">
-        <v>755</v>
       </c>
       <c r="I45" s="125"/>
       <c r="J45" s="4" t="s">
@@ -15056,31 +15342,31 @@
     </row>
     <row r="46" spans="1:23" ht="111" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B46" s="120" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="H46" s="126" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="I46" s="126" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>44</v>
@@ -15103,31 +15389,31 @@
     </row>
     <row r="47" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B47" s="120" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F47" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="H47" s="126" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I47" s="126" t="s">
         <v>523</v>
-      </c>
-      <c r="H47" s="126" t="s">
-        <v>1009</v>
-      </c>
-      <c r="I47" s="126" t="s">
-        <v>524</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>44</v>
@@ -15150,28 +15436,28 @@
     </row>
     <row r="48" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B48" s="120" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="H48" s="126" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="I48" s="126"/>
       <c r="J48" s="4" t="s">
@@ -15195,28 +15481,28 @@
     </row>
     <row r="49" spans="1:23" ht="112.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B49" s="120" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="G49" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H49" s="126" t="s">
         <v>1011</v>
-      </c>
-      <c r="H49" s="126" t="s">
-        <v>1013</v>
       </c>
       <c r="I49" s="126"/>
       <c r="J49" s="4" t="s">
@@ -15240,28 +15526,28 @@
     </row>
     <row r="50" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B50" s="120" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F50" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="H50" s="126" t="s">
         <v>866</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>856</v>
-      </c>
-      <c r="H50" s="126" t="s">
-        <v>867</v>
       </c>
       <c r="I50" s="126"/>
       <c r="J50" s="4" t="s">
@@ -15285,28 +15571,28 @@
     </row>
     <row r="51" spans="1:23" ht="127.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B51" s="120" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D51" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>597</v>
-      </c>
       <c r="F51" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G51" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="H51" s="126" t="s">
         <v>832</v>
-      </c>
-      <c r="H51" s="126" t="s">
-        <v>833</v>
       </c>
       <c r="I51" s="126"/>
       <c r="J51" s="4" t="s">
@@ -15330,28 +15616,28 @@
     </row>
     <row r="52" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B52" s="120" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F52" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="G52" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="G52" s="4" t="s">
-        <v>603</v>
-      </c>
       <c r="H52" s="125" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I52" s="126"/>
       <c r="J52" s="4" t="s">
@@ -15375,28 +15661,28 @@
     </row>
     <row r="53" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B53" s="120" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F53" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="G53" s="4" t="s">
         <v>802</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="H53" s="126" t="s">
         <v>803</v>
-      </c>
-      <c r="H53" s="126" t="s">
-        <v>804</v>
       </c>
       <c r="I53" s="126"/>
       <c r="J53" s="4" t="s">
@@ -15420,31 +15706,31 @@
     </row>
     <row r="54" spans="1:23" ht="84" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B54" s="120" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F54" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="H54" s="126" t="s">
+        <v>606</v>
+      </c>
+      <c r="I54" s="126" t="s">
         <v>605</v>
-      </c>
-      <c r="H54" s="126" t="s">
-        <v>607</v>
-      </c>
-      <c r="I54" s="126" t="s">
-        <v>606</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>45</v>
@@ -15467,28 +15753,28 @@
     </row>
     <row r="55" spans="1:23" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B55" s="120" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E55" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>826</v>
-      </c>
-      <c r="G55" s="4" t="s">
+      <c r="H55" s="126" t="s">
         <v>764</v>
-      </c>
-      <c r="H55" s="126" t="s">
-        <v>765</v>
       </c>
       <c r="I55" s="125"/>
       <c r="J55" s="4" t="s">
@@ -15512,28 +15798,28 @@
     </row>
     <row r="56" spans="1:23" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B56" s="120" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F56" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="G56" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="H56" s="126" t="s">
         <v>681</v>
-      </c>
-      <c r="H56" s="126" t="s">
-        <v>682</v>
       </c>
       <c r="I56" s="126"/>
       <c r="J56" s="4" t="s">
@@ -15557,28 +15843,28 @@
     </row>
     <row r="57" spans="1:23" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B57" s="120" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H57" s="126" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I57" s="126"/>
       <c r="J57" s="4" t="s">
@@ -15602,28 +15888,28 @@
     </row>
     <row r="58" spans="1:23" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B58" s="120" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F58" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="G58" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="G58" s="4" t="s">
-        <v>529</v>
-      </c>
       <c r="H58" s="126" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I58" s="126"/>
       <c r="J58" s="4" t="s">
@@ -15647,28 +15933,28 @@
     </row>
     <row r="59" spans="1:23" ht="87" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B59" s="120" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G59" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="H59" s="126" t="s">
         <v>613</v>
-      </c>
-      <c r="H59" s="126" t="s">
-        <v>614</v>
       </c>
       <c r="I59" s="126"/>
       <c r="J59" s="4" t="s">
@@ -15692,28 +15978,28 @@
     </row>
     <row r="60" spans="1:23" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B60" s="120" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H60" s="126" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I60" s="126"/>
       <c r="J60" s="4" t="s">
@@ -15737,28 +16023,28 @@
     </row>
     <row r="61" spans="1:23" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B61" s="120" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G61" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="H61" s="126" t="s">
         <v>617</v>
-      </c>
-      <c r="H61" s="126" t="s">
-        <v>618</v>
       </c>
       <c r="I61" s="126"/>
       <c r="J61" s="4" t="s">
@@ -15782,28 +16068,28 @@
     </row>
     <row r="62" spans="1:23" ht="138.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B62" s="120" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F62" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="G62" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="G62" s="4" t="s">
-        <v>534</v>
-      </c>
       <c r="H62" s="126" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I62" s="126"/>
       <c r="J62" s="4" t="s">
@@ -15827,28 +16113,28 @@
     </row>
     <row r="63" spans="1:23" ht="108" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B63" s="120" t="s">
+        <v>816</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>817</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>825</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>818</v>
-      </c>
       <c r="G63" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H63" s="125" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I63" s="126"/>
       <c r="J63" s="4" t="s">
@@ -15872,28 +16158,28 @@
     </row>
     <row r="64" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B64" s="120" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G64" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="H64" s="126" t="s">
         <v>567</v>
-      </c>
-      <c r="H64" s="126" t="s">
-        <v>568</v>
       </c>
       <c r="I64" s="126"/>
       <c r="J64" s="4" t="s">
@@ -15917,28 +16203,28 @@
     </row>
     <row r="65" spans="1:23" ht="108" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B65" s="120" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F65" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="G65" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="G65" s="4" t="s">
-        <v>570</v>
-      </c>
       <c r="H65" s="126" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I65" s="126"/>
       <c r="J65" s="4" t="s">
@@ -15962,28 +16248,28 @@
     </row>
     <row r="66" spans="1:23" ht="96" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B66" s="120" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F66" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="G66" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="G66" s="4" t="s">
-        <v>572</v>
-      </c>
       <c r="H66" s="126" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I66" s="126"/>
       <c r="J66" s="4" t="s">
@@ -16007,28 +16293,28 @@
     </row>
     <row r="67" spans="1:23" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B67" s="120" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D67" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="E67" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="E67" s="4" t="s">
-        <v>597</v>
-      </c>
       <c r="F67" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H67" s="126" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="I67" s="126"/>
       <c r="J67" s="4" t="s">
@@ -16052,28 +16338,28 @@
     </row>
     <row r="68" spans="1:23" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B68" s="120" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G68" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="H68" s="126" t="s">
         <v>766</v>
-      </c>
-      <c r="H68" s="126" t="s">
-        <v>767</v>
       </c>
       <c r="I68" s="128"/>
       <c r="J68" s="4" t="s">
@@ -16097,28 +16383,28 @@
     </row>
     <row r="69" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B69" s="121" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E69" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H69" s="126" t="s">
         <v>1014</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>1015</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>1020</v>
-      </c>
-      <c r="H69" s="126" t="s">
-        <v>1016</v>
       </c>
       <c r="I69" s="128"/>
       <c r="J69" s="4" t="s">
@@ -16142,28 +16428,28 @@
     </row>
     <row r="70" spans="1:23" ht="126.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B70" s="121" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H70" s="126" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="I70" s="128"/>
       <c r="J70" s="4" t="s">
@@ -16187,31 +16473,31 @@
     </row>
     <row r="71" spans="1:23" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B71" s="121" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="H71" s="126" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="I71" s="128" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>44</v>
@@ -16234,31 +16520,31 @@
     </row>
     <row r="72" spans="1:23" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B72" s="121" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="H72" s="126" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="I72" s="128" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="J72" s="4" t="s">
         <v>44</v>
@@ -16281,31 +16567,31 @@
     </row>
     <row r="73" spans="1:23" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B73" s="121" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="H73" s="126" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="I73" s="128" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>44</v>
@@ -16328,31 +16614,31 @@
     </row>
     <row r="74" spans="1:23" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B74" s="121" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F74" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H74" s="126" t="s">
         <v>1026</v>
       </c>
-      <c r="G74" s="4" t="s">
-        <v>1027</v>
-      </c>
-      <c r="H74" s="126" t="s">
-        <v>1028</v>
-      </c>
       <c r="I74" s="128" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="J74" s="4" t="s">
         <v>44</v>
@@ -16375,33 +16661,37 @@
     </row>
     <row r="75" spans="1:23" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B75" s="121" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E75" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G75" s="4" t="s">
         <v>1063</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="H75" s="126" t="s">
         <v>1064</v>
       </c>
-      <c r="G75" s="4" t="s">
-        <v>1065</v>
-      </c>
-      <c r="H75" s="126" t="s">
-        <v>1066</v>
-      </c>
       <c r="I75" s="128"/>
-      <c r="J75" s="4"/>
+      <c r="J75" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
+      <c r="L75" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
@@ -16416,31 +16706,31 @@
     </row>
     <row r="76" spans="1:23" ht="120" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B76" s="121" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="G76" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H76" s="126" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I76" s="128" t="s">
         <v>1067</v>
-      </c>
-      <c r="H76" s="126" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I76" s="128" t="s">
-        <v>1069</v>
       </c>
       <c r="J76" s="4" t="s">
         <v>14</v>
@@ -16463,28 +16753,28 @@
     </row>
     <row r="77" spans="1:23" ht="127.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B77" s="121" t="s">
+        <v>826</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="F77" s="4" t="s">
         <v>827</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>839</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>828</v>
-      </c>
       <c r="G77" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H77" s="126" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I77" s="128"/>
       <c r="J77" s="4" t="s">
@@ -16508,28 +16798,28 @@
     </row>
     <row r="78" spans="1:23" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B78" s="121" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E78" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="G78" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="F78" s="4" t="s">
-        <v>829</v>
-      </c>
-      <c r="G78" s="4" t="s">
+      <c r="H78" s="126" t="s">
         <v>761</v>
-      </c>
-      <c r="H78" s="126" t="s">
-        <v>762</v>
       </c>
       <c r="I78" s="128"/>
       <c r="J78" s="4" t="s">
@@ -16553,31 +16843,31 @@
     </row>
     <row r="79" spans="1:23" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B79" s="121" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="G79" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H79" s="126" t="s">
         <v>1039</v>
       </c>
-      <c r="H79" s="126" t="s">
-        <v>1041</v>
-      </c>
       <c r="I79" s="128" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="J79" s="4" t="s">
         <v>45</v>
@@ -16600,31 +16890,31 @@
     </row>
     <row r="80" spans="1:23" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B80" s="121" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F80" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G80" s="4" t="s">
         <v>1035</v>
       </c>
-      <c r="G80" s="4" t="s">
-        <v>1037</v>
-      </c>
       <c r="H80" s="126" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="I80" s="128" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="J80" s="4" t="s">
         <v>45</v>
@@ -16647,31 +16937,31 @@
     </row>
     <row r="81" spans="1:23" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B81" s="121" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F81" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G81" s="4" t="s">
         <v>1036</v>
       </c>
-      <c r="G81" s="4" t="s">
-        <v>1038</v>
-      </c>
       <c r="H81" s="126" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="I81" s="128" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="J81" s="4" t="s">
         <v>45</v>
@@ -16694,29 +16984,29 @@
     </row>
     <row r="82" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B82" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="D82" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="H82" s="126"/>
       <c r="I82" s="126" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="J82" s="4" t="s">
         <v>43</v>
@@ -16739,29 +17029,29 @@
     </row>
     <row r="83" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B83" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="D83" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="H83" s="126"/>
       <c r="I83" s="126" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="J83" s="4" t="s">
         <v>43</v>
@@ -16784,29 +17074,29 @@
     </row>
     <row r="84" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B84" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="D84" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="H84" s="126"/>
       <c r="I84" s="126" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="J84" s="4" t="s">
         <v>43</v>
@@ -16829,29 +17119,29 @@
     </row>
     <row r="85" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B85" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="D85" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="H85" s="126"/>
       <c r="I85" s="126" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="J85" s="4" t="s">
         <v>43</v>
@@ -16874,31 +17164,31 @@
     </row>
     <row r="86" spans="1:23" ht="96" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B86" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="D86" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="D86" s="4" t="s">
-        <v>716</v>
-      </c>
       <c r="E86" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H86" s="126" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="I86" s="126" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="J86" s="4" t="s">
         <v>43</v>
@@ -16921,29 +17211,29 @@
     </row>
     <row r="87" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B87" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="D87" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="H87" s="126"/>
       <c r="I87" s="126" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>44</v>
@@ -16966,28 +17256,28 @@
     </row>
     <row r="88" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B88" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="D88" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>716</v>
-      </c>
       <c r="E88" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F88" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="G88" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G88" s="4" t="s">
+      <c r="H88" s="126" t="s">
         <v>879</v>
-      </c>
-      <c r="H88" s="126" t="s">
-        <v>880</v>
       </c>
       <c r="I88" s="126"/>
       <c r="J88" s="4" t="s">
@@ -17011,25 +17301,25 @@
     </row>
     <row r="89" spans="1:23" s="116" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B89" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C89" s="56" t="s">
         <v>714</v>
       </c>
-      <c r="C89" s="56" t="s">
-        <v>715</v>
-      </c>
       <c r="D89" s="56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E89" s="56" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F89" s="40" t="s">
+        <v>881</v>
+      </c>
+      <c r="G89" s="56" t="s">
         <v>882</v>
-      </c>
-      <c r="G89" s="56" t="s">
-        <v>883</v>
       </c>
       <c r="H89" s="128"/>
       <c r="I89" s="128"/>
@@ -17054,28 +17344,28 @@
     </row>
     <row r="90" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B90" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="D90" s="56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E90" s="56" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H90" s="126" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I90" s="126"/>
       <c r="J90" s="4" t="s">
@@ -17099,28 +17389,28 @@
     </row>
     <row r="91" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B91" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="D91" s="56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E91" s="56" t="s">
+        <v>804</v>
+      </c>
+      <c r="F91" s="4" t="s">
         <v>805</v>
       </c>
-      <c r="F91" s="4" t="s">
-        <v>806</v>
-      </c>
       <c r="G91" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H91" s="126" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="I91" s="126"/>
       <c r="J91" s="4" t="s">
@@ -17144,28 +17434,28 @@
     </row>
     <row r="92" spans="1:23" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B92" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C92" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="D92" s="56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E92" s="56" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H92" s="126" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="I92" s="126"/>
       <c r="J92" s="4" t="s">
@@ -17189,28 +17479,28 @@
     </row>
     <row r="93" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B93" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="D93" s="56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E93" s="56" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F93" s="40" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H93" s="126" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="I93" s="126"/>
       <c r="J93" s="4" t="s">
@@ -17234,28 +17524,28 @@
     </row>
     <row r="94" spans="1:23" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B94" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C94" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="D94" s="56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E94" s="56" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F94" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="G94" s="4" t="s">
         <v>813</v>
       </c>
-      <c r="G94" s="4" t="s">
-        <v>814</v>
-      </c>
       <c r="H94" s="126" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I94" s="126"/>
       <c r="J94" s="4" t="s">
@@ -17279,28 +17569,28 @@
     </row>
     <row r="95" spans="1:23" ht="124.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B95" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="D95" s="56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E95" s="56" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F95" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="G95" s="4" t="s">
         <v>900</v>
       </c>
-      <c r="G95" s="4" t="s">
-        <v>901</v>
-      </c>
       <c r="H95" s="126" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="I95" s="126"/>
       <c r="J95" s="4" t="s">
@@ -17324,33 +17614,37 @@
     </row>
     <row r="96" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B96" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="D96" s="56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E96" s="56" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="H96" s="126" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="I96" s="126"/>
-      <c r="J96" s="4"/>
+      <c r="J96" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
+      <c r="L96" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
@@ -17365,28 +17659,28 @@
     </row>
     <row r="97" spans="1:23" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B97" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C97" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="D97" s="56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E97" s="56" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="H97" s="126" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="I97" s="126"/>
       <c r="J97" s="4" t="s">
@@ -17411,30 +17705,34 @@
     <row r="98" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
       <c r="B98" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="D98" s="56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E98" s="56" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="H98" s="126" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="I98" s="126"/>
-      <c r="J98" s="4"/>
+      <c r="J98" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
+      <c r="L98" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
@@ -17449,28 +17747,28 @@
     </row>
     <row r="99" spans="1:23" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B99" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="D99" s="56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E99" s="56" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F99" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="G99" s="4" t="s">
         <v>905</v>
       </c>
-      <c r="G99" s="4" t="s">
-        <v>906</v>
-      </c>
       <c r="H99" s="126" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I99" s="126"/>
       <c r="J99" s="4" t="s">
@@ -17494,28 +17792,28 @@
     </row>
     <row r="100" spans="1:23" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B100" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C100" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="D100" s="56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E100" s="56" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G100" s="4" t="s">
         <v>1116</v>
       </c>
-      <c r="F100" s="4" t="s">
+      <c r="H100" s="126" t="s">
         <v>1117</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>1118</v>
-      </c>
-      <c r="H100" s="126" t="s">
-        <v>1119</v>
       </c>
       <c r="I100" s="126"/>
       <c r="J100" s="4" t="s">
@@ -17539,28 +17837,28 @@
     </row>
     <row r="101" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B101" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="D101" s="56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E101" s="56" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H101" s="126" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="I101" s="126"/>
       <c r="J101" s="4" t="s">
@@ -17584,28 +17882,28 @@
     </row>
     <row r="102" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B102" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C102" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="D102" s="56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E102" s="56" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G102" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="H102" s="126" t="s">
         <v>809</v>
-      </c>
-      <c r="H102" s="126" t="s">
-        <v>810</v>
       </c>
       <c r="I102" s="126"/>
       <c r="J102" s="4" t="s">
@@ -17629,28 +17927,28 @@
     </row>
     <row r="103" spans="1:23" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B103" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C103" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="D103" s="56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E103" s="56" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F103" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="G103" s="4" t="s">
         <v>903</v>
       </c>
-      <c r="G103" s="4" t="s">
-        <v>904</v>
-      </c>
       <c r="H103" s="126" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I103" s="126"/>
       <c r="J103" s="4" t="s">
@@ -17672,34 +17970,34 @@
       <c r="V103" s="4"/>
       <c r="W103" s="4"/>
     </row>
-    <row r="104" spans="1:23" ht="84" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B104" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C104" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="D104" s="56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E104" s="56" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F104" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="G104" s="4" t="s">
         <v>909</v>
       </c>
-      <c r="G104" s="4" t="s">
-        <v>910</v>
-      </c>
       <c r="H104" s="126" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="I104" s="126"/>
       <c r="J104" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K104" s="4"/>
       <c r="L104" s="4" t="s">
@@ -17719,33 +18017,37 @@
     </row>
     <row r="105" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B105" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C105" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="D105" s="56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E105" s="56" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="H105" s="126" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="I105" s="126"/>
-      <c r="J105" s="4"/>
+      <c r="J105" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
+      <c r="L105" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
@@ -17760,32 +18062,32 @@
     </row>
     <row r="106" spans="1:23" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B106" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C106" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="D106" s="56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E106" s="56" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="H106" s="126" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="I106" s="126"/>
       <c r="J106" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K106" s="4"/>
       <c r="L106" s="4" t="s">
@@ -17806,30 +18108,34 @@
     <row r="107" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
       <c r="B107" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C107" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="D107" s="56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E107" s="56" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="H107" s="126" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="I107" s="126"/>
-      <c r="J107" s="4"/>
+      <c r="J107" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="K107" s="4"/>
-      <c r="L107" s="4"/>
+      <c r="L107" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
@@ -17844,28 +18150,28 @@
     </row>
     <row r="108" spans="1:23" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B108" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C108" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="D108" s="56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E108" s="56" t="s">
-        <v>949</v>
+        <v>1150</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="H108" s="126" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="I108" s="126"/>
       <c r="J108" s="4" t="s">
@@ -17889,28 +18195,28 @@
     </row>
     <row r="109" spans="1:23" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B109" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C109" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="D109" s="56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E109" s="56" t="s">
-        <v>949</v>
+        <v>1150</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>948</v>
+        <v>1151</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>950</v>
+        <v>1152</v>
       </c>
       <c r="H109" s="126" t="s">
-        <v>1127</v>
+        <v>1153</v>
       </c>
       <c r="I109" s="126"/>
       <c r="J109" s="4" t="s">
@@ -17934,33 +18240,37 @@
     </row>
     <row r="110" spans="1:23" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B110" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C110" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="D110" s="56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E110" s="56" t="s">
-        <v>1120</v>
+        <v>1150</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>1121</v>
+        <v>947</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>1122</v>
+        <v>948</v>
       </c>
       <c r="H110" s="126" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="I110" s="126"/>
-      <c r="J110" s="4"/>
+      <c r="J110" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="K110" s="4"/>
-      <c r="L110" s="4"/>
+      <c r="L110" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
@@ -17973,34 +18283,34 @@
       <c r="V110" s="4"/>
       <c r="W110" s="4"/>
     </row>
-    <row r="111" spans="1:23" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:23" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B111" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C111" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="D111" s="56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E111" s="56" t="s">
-        <v>946</v>
+        <v>1118</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>885</v>
+        <v>1119</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>886</v>
+        <v>1120</v>
       </c>
       <c r="H111" s="126" t="s">
-        <v>891</v>
+        <v>1121</v>
       </c>
       <c r="I111" s="126"/>
       <c r="J111" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K111" s="4"/>
       <c r="L111" s="4" t="s">
@@ -18018,30 +18328,30 @@
       <c r="V111" s="4"/>
       <c r="W111" s="4"/>
     </row>
-    <row r="112" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:23" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B112" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C112" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="D112" s="56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E112" s="56" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>940</v>
+        <v>884</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>941</v>
+        <v>885</v>
       </c>
       <c r="H112" s="126" t="s">
-        <v>942</v>
+        <v>890</v>
       </c>
       <c r="I112" s="126"/>
       <c r="J112" s="4" t="s">
@@ -18065,32 +18375,34 @@
     </row>
     <row r="113" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
-        <v>662</v>
+        <v>1163</v>
       </c>
       <c r="B113" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C113" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="D113" s="56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E113" s="56" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>943</v>
+        <v>1164</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>944</v>
+        <v>1165</v>
       </c>
       <c r="H113" s="126" t="s">
-        <v>945</v>
-      </c>
-      <c r="I113" s="126"/>
+        <v>1166</v>
+      </c>
+      <c r="I113" s="126" t="s">
+        <v>1169</v>
+      </c>
       <c r="J113" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K113" s="4"/>
       <c r="L113" s="4" t="s">
@@ -18108,30 +18420,30 @@
       <c r="V113" s="4"/>
       <c r="W113" s="4"/>
     </row>
-    <row r="114" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B114" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C114" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="D114" s="56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E114" s="56" t="s">
-        <v>946</v>
+        <v>1173</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>888</v>
+        <v>939</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>889</v>
+        <v>940</v>
       </c>
       <c r="H114" s="126" t="s">
-        <v>890</v>
+        <v>941</v>
       </c>
       <c r="I114" s="126"/>
       <c r="J114" s="4" t="s">
@@ -18153,30 +18465,30 @@
       <c r="V114" s="4"/>
       <c r="W114" s="4"/>
     </row>
-    <row r="115" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B115" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C115" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="D115" s="56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E115" s="56" t="s">
-        <v>946</v>
+        <v>1172</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>1073</v>
+        <v>942</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>1074</v>
+        <v>943</v>
       </c>
       <c r="H115" s="126" t="s">
-        <v>1075</v>
+        <v>944</v>
       </c>
       <c r="I115" s="126"/>
       <c r="J115" s="4" t="s">
@@ -18198,30 +18510,30 @@
       <c r="V115" s="4"/>
       <c r="W115" s="4"/>
     </row>
-    <row r="116" spans="1:23" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:23" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B116" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C116" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="D116" s="56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E116" s="56" t="s">
-        <v>946</v>
+        <v>1189</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>1076</v>
+        <v>1191</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>1077</v>
+        <v>1184</v>
       </c>
       <c r="H116" s="126" t="s">
-        <v>895</v>
+        <v>1194</v>
       </c>
       <c r="I116" s="126"/>
       <c r="J116" s="4" t="s">
@@ -18243,34 +18555,34 @@
       <c r="V116" s="4"/>
       <c r="W116" s="4"/>
     </row>
-    <row r="117" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:23" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B117" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C117" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C117" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="D117" s="56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E117" s="56" t="s">
-        <v>946</v>
+        <v>1190</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>951</v>
+        <v>1192</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>941</v>
+        <v>1187</v>
       </c>
       <c r="H117" s="126" t="s">
-        <v>953</v>
+        <v>1193</v>
       </c>
       <c r="I117" s="126"/>
       <c r="J117" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K117" s="4"/>
       <c r="L117" s="4" t="s">
@@ -18288,30 +18600,30 @@
       <c r="V117" s="4"/>
       <c r="W117" s="4"/>
     </row>
-    <row r="118" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:23" ht="98.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B118" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C118" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C118" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="D118" s="56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E118" s="56" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>952</v>
+        <v>1160</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>944</v>
+        <v>1161</v>
       </c>
       <c r="H118" s="126" t="s">
-        <v>954</v>
+        <v>1162</v>
       </c>
       <c r="I118" s="126"/>
       <c r="J118" s="4" t="s">
@@ -18333,32 +18645,34 @@
       <c r="V118" s="4"/>
       <c r="W118" s="4"/>
     </row>
-    <row r="119" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:23" ht="132" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="B119" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C119" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C119" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="D119" s="56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E119" s="56" t="s">
-        <v>946</v>
+        <v>1154</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>892</v>
+        <v>1155</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>893</v>
+        <v>1156</v>
       </c>
       <c r="H119" s="126" t="s">
-        <v>894</v>
-      </c>
-      <c r="I119" s="126"/>
+        <v>1158</v>
+      </c>
+      <c r="I119" s="126" t="s">
+        <v>1170</v>
+      </c>
       <c r="J119" s="4" t="s">
         <v>43</v>
       </c>
@@ -18378,32 +18692,34 @@
       <c r="V119" s="4"/>
       <c r="W119" s="4"/>
     </row>
-    <row r="120" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:23" ht="144" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="B120" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C120" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C120" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>719</v>
+      <c r="D120" s="56" t="s">
+        <v>543</v>
+      </c>
+      <c r="E120" s="56" t="s">
+        <v>1154</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>1093</v>
+        <v>1155</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>1094</v>
+        <v>1157</v>
       </c>
       <c r="H120" s="126" t="s">
-        <v>1095</v>
-      </c>
-      <c r="I120" s="126"/>
+        <v>1159</v>
+      </c>
+      <c r="I120" s="126" t="s">
+        <v>1171</v>
+      </c>
       <c r="J120" s="4" t="s">
         <v>43</v>
       </c>
@@ -18423,34 +18739,34 @@
       <c r="V120" s="4"/>
       <c r="W120" s="4"/>
     </row>
-    <row r="121" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:23" ht="84" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
-        <v>668</v>
+        <v>1195</v>
       </c>
       <c r="B121" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C121" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C121" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>719</v>
+      <c r="D121" s="56" t="s">
+        <v>543</v>
+      </c>
+      <c r="E121" s="56" t="s">
+        <v>1154</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>1096</v>
+        <v>1198</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>1097</v>
+        <v>1196</v>
       </c>
       <c r="H121" s="126" t="s">
-        <v>1098</v>
+        <v>1197</v>
       </c>
       <c r="I121" s="126"/>
       <c r="J121" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K121" s="4"/>
       <c r="L121" s="4" t="s">
@@ -18468,30 +18784,30 @@
       <c r="V121" s="4"/>
       <c r="W121" s="4"/>
     </row>
-    <row r="122" spans="1:23" ht="126" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="B122" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C122" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C122" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>912</v>
+      <c r="D122" s="56" t="s">
+        <v>543</v>
+      </c>
+      <c r="E122" s="56" t="s">
+        <v>945</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>911</v>
+        <v>887</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>915</v>
+        <v>888</v>
       </c>
       <c r="H122" s="126" t="s">
-        <v>916</v>
+        <v>889</v>
       </c>
       <c r="I122" s="126"/>
       <c r="J122" s="4" t="s">
@@ -18513,34 +18829,34 @@
       <c r="V122" s="4"/>
       <c r="W122" s="4"/>
     </row>
-    <row r="123" spans="1:23" ht="84" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:23" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="B123" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C123" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C123" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>912</v>
+      <c r="D123" s="56" t="s">
+        <v>543</v>
+      </c>
+      <c r="E123" s="56" t="s">
+        <v>945</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>913</v>
+        <v>1144</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>917</v>
+        <v>1145</v>
       </c>
       <c r="H123" s="126" t="s">
-        <v>918</v>
+        <v>1146</v>
       </c>
       <c r="I123" s="126"/>
       <c r="J123" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K123" s="4"/>
       <c r="L123" s="4" t="s">
@@ -18558,30 +18874,30 @@
       <c r="V123" s="4"/>
       <c r="W123" s="4"/>
     </row>
-    <row r="124" spans="1:23" ht="84" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="B124" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C124" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C124" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>912</v>
+      <c r="D124" s="56" t="s">
+        <v>543</v>
+      </c>
+      <c r="E124" s="56" t="s">
+        <v>945</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>919</v>
+        <v>1071</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>920</v>
+        <v>1072</v>
       </c>
       <c r="H124" s="126" t="s">
-        <v>921</v>
+        <v>1073</v>
       </c>
       <c r="I124" s="126"/>
       <c r="J124" s="4" t="s">
@@ -18603,34 +18919,34 @@
       <c r="V124" s="4"/>
       <c r="W124" s="4"/>
     </row>
-    <row r="125" spans="1:23" ht="84" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:23" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="B125" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C125" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C125" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>914</v>
+      <c r="D125" s="56" t="s">
+        <v>543</v>
+      </c>
+      <c r="E125" s="56" t="s">
+        <v>945</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>924</v>
+        <v>1074</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>922</v>
+        <v>1075</v>
       </c>
       <c r="H125" s="126" t="s">
-        <v>923</v>
+        <v>894</v>
       </c>
       <c r="I125" s="126"/>
       <c r="J125" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K125" s="4"/>
       <c r="L125" s="4" t="s">
@@ -18648,34 +18964,36 @@
       <c r="V125" s="4"/>
       <c r="W125" s="4"/>
     </row>
-    <row r="126" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
-        <v>673</v>
+        <v>1163</v>
       </c>
       <c r="B126" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C126" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C126" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>955</v>
+      <c r="D126" s="56" t="s">
+        <v>543</v>
+      </c>
+      <c r="E126" s="56" t="s">
+        <v>945</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>925</v>
+        <v>1167</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>926</v>
+        <v>1168</v>
       </c>
       <c r="H126" s="126" t="s">
-        <v>932</v>
-      </c>
-      <c r="I126" s="126"/>
+        <v>1166</v>
+      </c>
+      <c r="I126" s="126" t="s">
+        <v>1169</v>
+      </c>
       <c r="J126" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K126" s="4"/>
       <c r="L126" s="4" t="s">
@@ -18693,34 +19011,34 @@
       <c r="V126" s="4"/>
       <c r="W126" s="4"/>
     </row>
-    <row r="127" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="B127" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C127" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C127" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>956</v>
+      <c r="D127" s="56" t="s">
+        <v>543</v>
+      </c>
+      <c r="E127" s="56" t="s">
+        <v>1172</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>927</v>
+        <v>949</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>928</v>
+        <v>1179</v>
       </c>
       <c r="H127" s="126" t="s">
-        <v>929</v>
+        <v>951</v>
       </c>
       <c r="I127" s="126"/>
       <c r="J127" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K127" s="4"/>
       <c r="L127" s="4" t="s">
@@ -18740,28 +19058,28 @@
     </row>
     <row r="128" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="B128" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C128" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C128" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>957</v>
+      <c r="D128" s="56" t="s">
+        <v>543</v>
+      </c>
+      <c r="E128" s="56" t="s">
+        <v>1172</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>930</v>
+        <v>950</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>931</v>
+        <v>1180</v>
       </c>
       <c r="H128" s="126" t="s">
-        <v>933</v>
+        <v>952</v>
       </c>
       <c r="I128" s="126"/>
       <c r="J128" s="4" t="s">
@@ -18783,30 +19101,30 @@
       <c r="V128" s="4"/>
       <c r="W128" s="4"/>
     </row>
-    <row r="129" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:23" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="B129" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C129" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C129" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>958</v>
+      <c r="D129" s="56" t="s">
+        <v>543</v>
+      </c>
+      <c r="E129" s="56" t="s">
+        <v>1189</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>1099</v>
+        <v>1183</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>1100</v>
+        <v>1184</v>
       </c>
       <c r="H129" s="126" t="s">
-        <v>1101</v>
+        <v>1185</v>
       </c>
       <c r="I129" s="126"/>
       <c r="J129" s="4" t="s">
@@ -18828,34 +19146,34 @@
       <c r="V129" s="4"/>
       <c r="W129" s="4"/>
     </row>
-    <row r="130" spans="1:23" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:23" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="B130" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C130" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C130" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>720</v>
+      <c r="D130" s="56" t="s">
+        <v>543</v>
+      </c>
+      <c r="E130" s="56" t="s">
+        <v>1190</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>1102</v>
+        <v>1186</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>1103</v>
+        <v>1187</v>
       </c>
       <c r="H130" s="126" t="s">
-        <v>1106</v>
+        <v>1188</v>
       </c>
       <c r="I130" s="126"/>
       <c r="J130" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K130" s="4"/>
       <c r="L130" s="4" t="s">
@@ -18873,34 +19191,32 @@
       <c r="V130" s="4"/>
       <c r="W130" s="4"/>
     </row>
-    <row r="131" spans="1:23" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:23" ht="98.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="B131" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C131" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C131" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>720</v>
+      <c r="D131" s="56" t="s">
+        <v>543</v>
+      </c>
+      <c r="E131" s="56" t="s">
+        <v>945</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>959</v>
+        <v>1174</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>722</v>
+        <v>1161</v>
       </c>
       <c r="H131" s="126" t="s">
-        <v>935</v>
-      </c>
-      <c r="I131" s="126" t="s">
-        <v>724</v>
-      </c>
+        <v>1181</v>
+      </c>
+      <c r="I131" s="126"/>
       <c r="J131" s="4" t="s">
         <v>43</v>
       </c>
@@ -18920,33 +19236,33 @@
       <c r="V131" s="4"/>
       <c r="W131" s="4"/>
     </row>
-    <row r="132" spans="1:23" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:23" ht="132" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
       <c r="B132" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C132" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C132" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>720</v>
+      <c r="D132" s="56" t="s">
+        <v>543</v>
+      </c>
+      <c r="E132" s="56" t="s">
+        <v>1154</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>960</v>
+        <v>1175</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>721</v>
+        <v>1177</v>
       </c>
       <c r="H132" s="126" t="s">
-        <v>936</v>
+        <v>1182</v>
       </c>
       <c r="I132" s="126" t="s">
-        <v>723</v>
+        <v>1170</v>
       </c>
       <c r="J132" s="4" t="s">
         <v>43</v>
@@ -18967,32 +19283,34 @@
       <c r="V132" s="4"/>
       <c r="W132" s="4"/>
     </row>
-    <row r="133" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:23" ht="144" x14ac:dyDescent="0.15">
       <c r="A133" s="4" t="s">
-        <v>683</v>
+        <v>663</v>
       </c>
       <c r="B133" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C133" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C133" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="D133" s="56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E133" s="56" t="s">
-        <v>720</v>
-      </c>
-      <c r="F133" s="40" t="s">
-        <v>961</v>
-      </c>
-      <c r="G133" s="56" t="s">
-        <v>800</v>
-      </c>
-      <c r="H133" s="128" t="s">
-        <v>725</v>
-      </c>
-      <c r="I133" s="126"/>
+        <v>1154</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H133" s="126" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I133" s="126" t="s">
+        <v>1171</v>
+      </c>
       <c r="J133" s="4" t="s">
         <v>43</v>
       </c>
@@ -19012,34 +19330,34 @@
       <c r="V133" s="4"/>
       <c r="W133" s="4"/>
     </row>
-    <row r="134" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:23" ht="93" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4" t="s">
-        <v>684</v>
+        <v>1195</v>
       </c>
       <c r="B134" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C134" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C134" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>720</v>
+      <c r="D134" s="56" t="s">
+        <v>543</v>
+      </c>
+      <c r="E134" s="56" t="s">
+        <v>1154</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>1107</v>
+        <v>1199</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>934</v>
+        <v>1196</v>
       </c>
       <c r="H134" s="126" t="s">
-        <v>726</v>
+        <v>1200</v>
       </c>
       <c r="I134" s="126"/>
       <c r="J134" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K134" s="4"/>
       <c r="L134" s="4" t="s">
@@ -19057,34 +19375,34 @@
       <c r="V134" s="4"/>
       <c r="W134" s="4"/>
     </row>
-    <row r="135" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
-        <v>734</v>
+        <v>666</v>
       </c>
       <c r="B135" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C135" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C135" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>720</v>
+      <c r="D135" s="56" t="s">
+        <v>543</v>
+      </c>
+      <c r="E135" s="56" t="s">
+        <v>945</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>1108</v>
+        <v>891</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>1109</v>
+        <v>892</v>
       </c>
       <c r="H135" s="126" t="s">
-        <v>1110</v>
+        <v>893</v>
       </c>
       <c r="I135" s="126"/>
       <c r="J135" s="4" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="K135" s="4"/>
       <c r="L135" s="4" t="s">
@@ -19102,34 +19420,34 @@
       <c r="V135" s="4"/>
       <c r="W135" s="4"/>
     </row>
-    <row r="136" spans="1:23" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:23" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4" t="s">
-        <v>734</v>
+        <v>663</v>
       </c>
       <c r="B136" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C136" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C136" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>720</v>
+      <c r="D136" s="56" t="s">
+        <v>543</v>
+      </c>
+      <c r="E136" s="56" t="s">
+        <v>945</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>964</v>
+        <v>1147</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>937</v>
+        <v>1148</v>
       </c>
       <c r="H136" s="126" t="s">
-        <v>938</v>
+        <v>1149</v>
       </c>
       <c r="I136" s="126"/>
       <c r="J136" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K136" s="4"/>
       <c r="L136" s="4" t="s">
@@ -19147,30 +19465,30 @@
       <c r="V136" s="4"/>
       <c r="W136" s="4"/>
     </row>
-    <row r="137" spans="1:23" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A137" s="4" t="s">
-        <v>735</v>
+        <v>667</v>
       </c>
       <c r="B137" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C137" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C137" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="D137" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>727</v>
+        <v>1091</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>962</v>
+        <v>1092</v>
       </c>
       <c r="H137" s="126" t="s">
-        <v>728</v>
+        <v>1093</v>
       </c>
       <c r="I137" s="126"/>
       <c r="J137" s="4" t="s">
@@ -19194,28 +19512,28 @@
     </row>
     <row r="138" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A138" s="4" t="s">
-        <v>736</v>
+        <v>667</v>
       </c>
       <c r="B138" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C138" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C138" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="D138" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>729</v>
+        <v>1094</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>963</v>
+        <v>1095</v>
       </c>
       <c r="H138" s="126" t="s">
-        <v>730</v>
+        <v>1096</v>
       </c>
       <c r="I138" s="126"/>
       <c r="J138" s="4" t="s">
@@ -19237,30 +19555,30 @@
       <c r="V138" s="4"/>
       <c r="W138" s="4"/>
     </row>
-    <row r="139" spans="1:23" ht="72" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:23" ht="126" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4" t="s">
-        <v>737</v>
+        <v>668</v>
       </c>
       <c r="B139" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C139" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C139" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="D139" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>731</v>
+        <v>911</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>1104</v>
+        <v>910</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>732</v>
+        <v>914</v>
       </c>
       <c r="H139" s="126" t="s">
-        <v>733</v>
+        <v>915</v>
       </c>
       <c r="I139" s="126"/>
       <c r="J139" s="4" t="s">
@@ -19282,30 +19600,30 @@
       <c r="V139" s="4"/>
       <c r="W139" s="4"/>
     </row>
-    <row r="140" spans="1:23" ht="60" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:23" ht="84" x14ac:dyDescent="0.15">
       <c r="A140" s="4" t="s">
-        <v>738</v>
+        <v>669</v>
       </c>
       <c r="B140" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C140" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C140" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="D140" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>731</v>
+        <v>911</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>1105</v>
+        <v>912</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>732</v>
+        <v>916</v>
       </c>
       <c r="H140" s="126" t="s">
-        <v>869</v>
+        <v>917</v>
       </c>
       <c r="I140" s="126"/>
       <c r="J140" s="4" t="s">
@@ -19327,34 +19645,34 @@
       <c r="V140" s="4"/>
       <c r="W140" s="4"/>
     </row>
-    <row r="141" spans="1:23" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:23" ht="84" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="B141" s="130" t="s">
-        <v>1114</v>
+        <v>670</v>
+      </c>
+      <c r="B141" s="117" t="s">
+        <v>713</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>1115</v>
+        <v>714</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>497</v>
+        <v>543</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>763</v>
+        <v>911</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>1111</v>
+        <v>918</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>1112</v>
+        <v>919</v>
       </c>
       <c r="H141" s="126" t="s">
-        <v>1113</v>
-      </c>
-      <c r="I141" s="128"/>
+        <v>920</v>
+      </c>
+      <c r="I141" s="126"/>
       <c r="J141" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K141" s="4"/>
       <c r="L141" s="4" t="s">
@@ -19372,21 +19690,39 @@
       <c r="V141" s="4"/>
       <c r="W141" s="4"/>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:23" ht="84" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
-        <v>739</v>
-      </c>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
-      <c r="F142" s="4"/>
-      <c r="G142" s="4"/>
-      <c r="H142" s="126"/>
+        <v>671</v>
+      </c>
+      <c r="B142" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="H142" s="126" t="s">
+        <v>922</v>
+      </c>
       <c r="I142" s="126"/>
-      <c r="J142" s="4"/>
+      <c r="J142" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="K142" s="4"/>
-      <c r="L142" s="4"/>
+      <c r="L142" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M142" s="4"/>
       <c r="N142" s="4"/>
       <c r="O142" s="4"/>
@@ -19399,21 +19735,39 @@
       <c r="V142" s="4"/>
       <c r="W142" s="4"/>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
-        <v>776</v>
-      </c>
-      <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
-      <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
-      <c r="H143" s="126"/>
+        <v>672</v>
+      </c>
+      <c r="B143" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="H143" s="126" t="s">
+        <v>931</v>
+      </c>
       <c r="I143" s="126"/>
-      <c r="J143" s="4"/>
+      <c r="J143" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K143" s="4"/>
-      <c r="L143" s="4"/>
+      <c r="L143" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M143" s="4"/>
       <c r="N143" s="4"/>
       <c r="O143" s="4"/>
@@ -19426,21 +19780,39 @@
       <c r="V143" s="4"/>
       <c r="W143" s="4"/>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
-        <v>777</v>
-      </c>
-      <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
-      <c r="F144" s="4"/>
-      <c r="G144" s="4"/>
-      <c r="H144" s="126"/>
+        <v>673</v>
+      </c>
+      <c r="B144" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="H144" s="126" t="s">
+        <v>928</v>
+      </c>
       <c r="I144" s="126"/>
-      <c r="J144" s="4"/>
+      <c r="J144" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="K144" s="4"/>
-      <c r="L144" s="4"/>
+      <c r="L144" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M144" s="4"/>
       <c r="N144" s="4"/>
       <c r="O144" s="4"/>
@@ -19453,21 +19825,39 @@
       <c r="V144" s="4"/>
       <c r="W144" s="4"/>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
-        <v>778</v>
-      </c>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="4"/>
-      <c r="F145" s="4"/>
-      <c r="G145" s="4"/>
-      <c r="H145" s="126"/>
+        <v>674</v>
+      </c>
+      <c r="B145" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="H145" s="126" t="s">
+        <v>932</v>
+      </c>
       <c r="I145" s="126"/>
-      <c r="J145" s="4"/>
+      <c r="J145" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K145" s="4"/>
-      <c r="L145" s="4"/>
+      <c r="L145" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M145" s="4"/>
       <c r="N145" s="4"/>
       <c r="O145" s="4"/>
@@ -19480,21 +19870,39 @@
       <c r="V145" s="4"/>
       <c r="W145" s="4"/>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A146" s="4" t="s">
-        <v>779</v>
-      </c>
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
-      <c r="F146" s="4"/>
-      <c r="G146" s="4"/>
-      <c r="H146" s="126"/>
+        <v>675</v>
+      </c>
+      <c r="B146" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H146" s="126" t="s">
+        <v>1099</v>
+      </c>
       <c r="I146" s="126"/>
-      <c r="J146" s="4"/>
+      <c r="J146" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K146" s="4"/>
-      <c r="L146" s="4"/>
+      <c r="L146" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M146" s="4"/>
       <c r="N146" s="4"/>
       <c r="O146" s="4"/>
@@ -19507,21 +19915,39 @@
       <c r="V146" s="4"/>
       <c r="W146" s="4"/>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:23" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4" t="s">
-        <v>780</v>
-      </c>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="4"/>
-      <c r="G147" s="4"/>
-      <c r="H147" s="126"/>
+        <v>676</v>
+      </c>
+      <c r="B147" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H147" s="126" t="s">
+        <v>1104</v>
+      </c>
       <c r="I147" s="126"/>
-      <c r="J147" s="4"/>
+      <c r="J147" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K147" s="4"/>
-      <c r="L147" s="4"/>
+      <c r="L147" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M147" s="4"/>
       <c r="N147" s="4"/>
       <c r="O147" s="4"/>
@@ -19534,21 +19960,41 @@
       <c r="V147" s="4"/>
       <c r="W147" s="4"/>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:23" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
-        <v>781</v>
-      </c>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
-      <c r="H148" s="126"/>
-      <c r="I148" s="126"/>
-      <c r="J148" s="4"/>
+        <v>677</v>
+      </c>
+      <c r="B148" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="H148" s="126" t="s">
+        <v>934</v>
+      </c>
+      <c r="I148" s="126" t="s">
+        <v>723</v>
+      </c>
+      <c r="J148" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K148" s="4"/>
-      <c r="L148" s="4"/>
+      <c r="L148" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M148" s="4"/>
       <c r="N148" s="4"/>
       <c r="O148" s="4"/>
@@ -19561,21 +20007,41 @@
       <c r="V148" s="4"/>
       <c r="W148" s="4"/>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:23" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4" t="s">
-        <v>782</v>
-      </c>
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
-      <c r="H149" s="126"/>
-      <c r="I149" s="126"/>
-      <c r="J149" s="4"/>
+        <v>678</v>
+      </c>
+      <c r="B149" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="H149" s="126" t="s">
+        <v>935</v>
+      </c>
+      <c r="I149" s="126" t="s">
+        <v>722</v>
+      </c>
+      <c r="J149" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K149" s="4"/>
-      <c r="L149" s="4"/>
+      <c r="L149" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M149" s="4"/>
       <c r="N149" s="4"/>
       <c r="O149" s="4"/>
@@ -19588,21 +20054,39 @@
       <c r="V149" s="4"/>
       <c r="W149" s="4"/>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A150" s="4" t="s">
-        <v>783</v>
-      </c>
-      <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
-      <c r="H150" s="126"/>
+        <v>682</v>
+      </c>
+      <c r="B150" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="D150" s="56" t="s">
+        <v>543</v>
+      </c>
+      <c r="E150" s="56" t="s">
+        <v>719</v>
+      </c>
+      <c r="F150" s="40" t="s">
+        <v>959</v>
+      </c>
+      <c r="G150" s="56" t="s">
+        <v>799</v>
+      </c>
+      <c r="H150" s="128" t="s">
+        <v>724</v>
+      </c>
       <c r="I150" s="126"/>
-      <c r="J150" s="4"/>
+      <c r="J150" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K150" s="4"/>
-      <c r="L150" s="4"/>
+      <c r="L150" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M150" s="4"/>
       <c r="N150" s="4"/>
       <c r="O150" s="4"/>
@@ -19615,21 +20099,39 @@
       <c r="V150" s="4"/>
       <c r="W150" s="4"/>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A151" s="4" t="s">
-        <v>784</v>
-      </c>
-      <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="4"/>
-      <c r="F151" s="4"/>
-      <c r="G151" s="4"/>
-      <c r="H151" s="126"/>
+        <v>683</v>
+      </c>
+      <c r="B151" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="H151" s="126" t="s">
+        <v>725</v>
+      </c>
       <c r="I151" s="126"/>
-      <c r="J151" s="4"/>
+      <c r="J151" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="K151" s="4"/>
-      <c r="L151" s="4"/>
+      <c r="L151" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M151" s="4"/>
       <c r="N151" s="4"/>
       <c r="O151" s="4"/>
@@ -19642,21 +20144,39 @@
       <c r="V151" s="4"/>
       <c r="W151" s="4"/>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A152" s="4" t="s">
-        <v>785</v>
-      </c>
-      <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
-      <c r="H152" s="126"/>
+        <v>733</v>
+      </c>
+      <c r="B152" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H152" s="126" t="s">
+        <v>1108</v>
+      </c>
       <c r="I152" s="126"/>
-      <c r="J152" s="4"/>
+      <c r="J152" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="K152" s="4"/>
-      <c r="L152" s="4"/>
+      <c r="L152" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M152" s="4"/>
       <c r="N152" s="4"/>
       <c r="O152" s="4"/>
@@ -19669,21 +20189,39 @@
       <c r="V152" s="4"/>
       <c r="W152" s="4"/>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:23" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4" t="s">
-        <v>786</v>
-      </c>
-      <c r="B153" s="4"/>
-      <c r="C153" s="4"/>
-      <c r="D153" s="4"/>
-      <c r="E153" s="4"/>
-      <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
-      <c r="H153" s="126"/>
+        <v>733</v>
+      </c>
+      <c r="B153" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="H153" s="126" t="s">
+        <v>937</v>
+      </c>
       <c r="I153" s="126"/>
-      <c r="J153" s="4"/>
+      <c r="J153" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K153" s="4"/>
-      <c r="L153" s="4"/>
+      <c r="L153" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M153" s="4"/>
       <c r="N153" s="4"/>
       <c r="O153" s="4"/>
@@ -19696,21 +20234,39 @@
       <c r="V153" s="4"/>
       <c r="W153" s="4"/>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:23" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4" t="s">
-        <v>787</v>
-      </c>
-      <c r="B154" s="4"/>
-      <c r="C154" s="4"/>
-      <c r="D154" s="4"/>
-      <c r="E154" s="4"/>
-      <c r="F154" s="4"/>
-      <c r="G154" s="4"/>
-      <c r="H154" s="126"/>
+        <v>734</v>
+      </c>
+      <c r="B154" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="H154" s="126" t="s">
+        <v>727</v>
+      </c>
       <c r="I154" s="126"/>
-      <c r="J154" s="4"/>
+      <c r="J154" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K154" s="4"/>
-      <c r="L154" s="4"/>
+      <c r="L154" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M154" s="4"/>
       <c r="N154" s="4"/>
       <c r="O154" s="4"/>
@@ -19723,21 +20279,39 @@
       <c r="V154" s="4"/>
       <c r="W154" s="4"/>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:23" ht="48" x14ac:dyDescent="0.15">
       <c r="A155" s="4" t="s">
-        <v>788</v>
-      </c>
-      <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
-      <c r="E155" s="4"/>
-      <c r="F155" s="4"/>
-      <c r="G155" s="4"/>
-      <c r="H155" s="126"/>
+        <v>735</v>
+      </c>
+      <c r="B155" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="H155" s="126" t="s">
+        <v>729</v>
+      </c>
       <c r="I155" s="126"/>
-      <c r="J155" s="4"/>
+      <c r="J155" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K155" s="4"/>
-      <c r="L155" s="4"/>
+      <c r="L155" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M155" s="4"/>
       <c r="N155" s="4"/>
       <c r="O155" s="4"/>
@@ -19750,21 +20324,39 @@
       <c r="V155" s="4"/>
       <c r="W155" s="4"/>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:23" ht="72" x14ac:dyDescent="0.15">
       <c r="A156" s="4" t="s">
-        <v>789</v>
-      </c>
-      <c r="B156" s="4"/>
-      <c r="C156" s="4"/>
-      <c r="D156" s="4"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="4"/>
-      <c r="G156" s="4"/>
-      <c r="H156" s="126"/>
+        <v>736</v>
+      </c>
+      <c r="B156" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="H156" s="126" t="s">
+        <v>732</v>
+      </c>
       <c r="I156" s="126"/>
-      <c r="J156" s="4"/>
+      <c r="J156" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K156" s="4"/>
-      <c r="L156" s="4"/>
+      <c r="L156" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M156" s="4"/>
       <c r="N156" s="4"/>
       <c r="O156" s="4"/>
@@ -19777,21 +20369,39 @@
       <c r="V156" s="4"/>
       <c r="W156" s="4"/>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:23" ht="60" x14ac:dyDescent="0.15">
       <c r="A157" s="4" t="s">
-        <v>790</v>
-      </c>
-      <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
-      <c r="E157" s="4"/>
-      <c r="F157" s="4"/>
-      <c r="G157" s="4"/>
-      <c r="H157" s="126"/>
+        <v>737</v>
+      </c>
+      <c r="B157" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="H157" s="126" t="s">
+        <v>868</v>
+      </c>
       <c r="I157" s="126"/>
-      <c r="J157" s="4"/>
+      <c r="J157" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K157" s="4"/>
-      <c r="L157" s="4"/>
+      <c r="L157" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M157" s="4"/>
       <c r="N157" s="4"/>
       <c r="O157" s="4"/>
@@ -19804,21 +20414,39 @@
       <c r="V157" s="4"/>
       <c r="W157" s="4"/>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:23" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4" t="s">
-        <v>791</v>
-      </c>
-      <c r="B158" s="4"/>
-      <c r="C158" s="4"/>
-      <c r="D158" s="4"/>
-      <c r="E158" s="4"/>
-      <c r="F158" s="4"/>
-      <c r="G158" s="4"/>
-      <c r="H158" s="126"/>
-      <c r="I158" s="126"/>
-      <c r="J158" s="4"/>
+        <v>638</v>
+      </c>
+      <c r="B158" s="130" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H158" s="126" t="s">
+        <v>1111</v>
+      </c>
+      <c r="I158" s="128"/>
+      <c r="J158" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="K158" s="4"/>
-      <c r="L158" s="4"/>
+      <c r="L158" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M158" s="4"/>
       <c r="N158" s="4"/>
       <c r="O158" s="4"/>
@@ -19833,7 +20461,7 @@
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A159" s="4" t="s">
-        <v>792</v>
+        <v>738</v>
       </c>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -19860,7 +20488,7 @@
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A160" s="4" t="s">
-        <v>793</v>
+        <v>775</v>
       </c>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -19887,7 +20515,7 @@
     </row>
     <row r="161" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A161" s="4" t="s">
-        <v>794</v>
+        <v>776</v>
       </c>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -19914,7 +20542,7 @@
     </row>
     <row r="162" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A162" s="4" t="s">
-        <v>795</v>
+        <v>777</v>
       </c>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -19941,7 +20569,7 @@
     </row>
     <row r="163" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A163" s="4" t="s">
-        <v>796</v>
+        <v>778</v>
       </c>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -19968,7 +20596,7 @@
     </row>
     <row r="164" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A164" s="4" t="s">
-        <v>797</v>
+        <v>779</v>
       </c>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -19995,7 +20623,7 @@
     </row>
     <row r="165" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A165" s="4" t="s">
-        <v>798</v>
+        <v>780</v>
       </c>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -20022,7 +20650,7 @@
     </row>
     <row r="166" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A166" s="4" t="s">
-        <v>799</v>
+        <v>781</v>
       </c>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -20049,7 +20677,7 @@
     </row>
     <row r="167" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A167" s="4" t="s">
-        <v>838</v>
+        <v>782</v>
       </c>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -20076,7 +20704,7 @@
     </row>
     <row r="168" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A168" s="4" t="s">
-        <v>966</v>
+        <v>783</v>
       </c>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -20103,7 +20731,7 @@
     </row>
     <row r="169" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A169" s="4" t="s">
-        <v>967</v>
+        <v>784</v>
       </c>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -20130,7 +20758,7 @@
     </row>
     <row r="170" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A170" s="4" t="s">
-        <v>968</v>
+        <v>785</v>
       </c>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -20157,7 +20785,7 @@
     </row>
     <row r="171" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A171" s="4" t="s">
-        <v>969</v>
+        <v>786</v>
       </c>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -20184,7 +20812,7 @@
     </row>
     <row r="172" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A172" s="4" t="s">
-        <v>970</v>
+        <v>787</v>
       </c>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -20211,7 +20839,7 @@
     </row>
     <row r="173" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A173" s="4" t="s">
-        <v>971</v>
+        <v>788</v>
       </c>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -20238,7 +20866,7 @@
     </row>
     <row r="174" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A174" s="4" t="s">
-        <v>972</v>
+        <v>789</v>
       </c>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -20265,7 +20893,7 @@
     </row>
     <row r="175" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A175" s="4" t="s">
-        <v>973</v>
+        <v>790</v>
       </c>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -20292,7 +20920,7 @@
     </row>
     <row r="176" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A176" s="4" t="s">
-        <v>974</v>
+        <v>791</v>
       </c>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -20319,7 +20947,7 @@
     </row>
     <row r="177" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A177" s="4" t="s">
-        <v>975</v>
+        <v>792</v>
       </c>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -20346,7 +20974,7 @@
     </row>
     <row r="178" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A178" s="4" t="s">
-        <v>976</v>
+        <v>793</v>
       </c>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -20373,7 +21001,7 @@
     </row>
     <row r="179" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A179" s="4" t="s">
-        <v>977</v>
+        <v>794</v>
       </c>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -20400,7 +21028,7 @@
     </row>
     <row r="180" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A180" s="4" t="s">
-        <v>978</v>
+        <v>795</v>
       </c>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -20427,7 +21055,7 @@
     </row>
     <row r="181" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A181" s="4" t="s">
-        <v>979</v>
+        <v>796</v>
       </c>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -20454,7 +21082,7 @@
     </row>
     <row r="182" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A182" s="4" t="s">
-        <v>980</v>
+        <v>797</v>
       </c>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -20481,7 +21109,7 @@
     </row>
     <row r="183" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A183" s="4" t="s">
-        <v>981</v>
+        <v>798</v>
       </c>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -20508,7 +21136,7 @@
     </row>
     <row r="184" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A184" s="4" t="s">
-        <v>982</v>
+        <v>837</v>
       </c>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -20535,7 +21163,7 @@
     </row>
     <row r="185" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A185" s="4" t="s">
-        <v>983</v>
+        <v>964</v>
       </c>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -20562,7 +21190,7 @@
     </row>
     <row r="186" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A186" s="4" t="s">
-        <v>1001</v>
+        <v>965</v>
       </c>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -20589,7 +21217,7 @@
     </row>
     <row r="187" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A187" s="4" t="s">
-        <v>1002</v>
+        <v>966</v>
       </c>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -20616,7 +21244,7 @@
     </row>
     <row r="188" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A188" s="4" t="s">
-        <v>1003</v>
+        <v>967</v>
       </c>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -20643,7 +21271,7 @@
     </row>
     <row r="189" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A189" s="4" t="s">
-        <v>1004</v>
+        <v>968</v>
       </c>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -20670,7 +21298,7 @@
     </row>
     <row r="190" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A190" s="4" t="s">
-        <v>1052</v>
+        <v>969</v>
       </c>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -20697,7 +21325,7 @@
     </row>
     <row r="191" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A191" s="4" t="s">
-        <v>1053</v>
+        <v>970</v>
       </c>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -20724,7 +21352,7 @@
     </row>
     <row r="192" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A192" s="4" t="s">
-        <v>1054</v>
+        <v>971</v>
       </c>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -20751,7 +21379,7 @@
     </row>
     <row r="193" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A193" s="4" t="s">
-        <v>1055</v>
+        <v>972</v>
       </c>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -20778,7 +21406,7 @@
     </row>
     <row r="194" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A194" s="4" t="s">
-        <v>1056</v>
+        <v>973</v>
       </c>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -20805,7 +21433,7 @@
     </row>
     <row r="195" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A195" s="4" t="s">
-        <v>1057</v>
+        <v>974</v>
       </c>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -20832,7 +21460,7 @@
     </row>
     <row r="196" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A196" s="4" t="s">
-        <v>1058</v>
+        <v>975</v>
       </c>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -20859,7 +21487,7 @@
     </row>
     <row r="197" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A197" s="4" t="s">
-        <v>1059</v>
+        <v>976</v>
       </c>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -20886,7 +21514,7 @@
     </row>
     <row r="198" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A198" s="4" t="s">
-        <v>1060</v>
+        <v>977</v>
       </c>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -20913,7 +21541,7 @@
     </row>
     <row r="199" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A199" s="4" t="s">
-        <v>1061</v>
+        <v>978</v>
       </c>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -20940,7 +21568,7 @@
     </row>
     <row r="200" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A200" s="4" t="s">
-        <v>1062</v>
+        <v>979</v>
       </c>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -20965,6 +21593,465 @@
       <c r="V200" s="4"/>
       <c r="W200" s="4"/>
     </row>
+    <row r="201" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A201" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="B201" s="4"/>
+      <c r="C201" s="4"/>
+      <c r="D201" s="4"/>
+      <c r="E201" s="4"/>
+      <c r="F201" s="4"/>
+      <c r="G201" s="4"/>
+      <c r="H201" s="126"/>
+      <c r="I201" s="126"/>
+      <c r="J201" s="4"/>
+      <c r="K201" s="4"/>
+      <c r="L201" s="4"/>
+      <c r="M201" s="4"/>
+      <c r="N201" s="4"/>
+      <c r="O201" s="4"/>
+      <c r="P201" s="4"/>
+      <c r="Q201" s="4"/>
+      <c r="R201" s="4"/>
+      <c r="S201" s="4"/>
+      <c r="T201" s="54"/>
+      <c r="U201" s="4"/>
+      <c r="V201" s="4"/>
+      <c r="W201" s="4"/>
+    </row>
+    <row r="202" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A202" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="B202" s="4"/>
+      <c r="C202" s="4"/>
+      <c r="D202" s="4"/>
+      <c r="E202" s="4"/>
+      <c r="F202" s="4"/>
+      <c r="G202" s="4"/>
+      <c r="H202" s="126"/>
+      <c r="I202" s="126"/>
+      <c r="J202" s="4"/>
+      <c r="K202" s="4"/>
+      <c r="L202" s="4"/>
+      <c r="M202" s="4"/>
+      <c r="N202" s="4"/>
+      <c r="O202" s="4"/>
+      <c r="P202" s="4"/>
+      <c r="Q202" s="4"/>
+      <c r="R202" s="4"/>
+      <c r="S202" s="4"/>
+      <c r="T202" s="54"/>
+      <c r="U202" s="4"/>
+      <c r="V202" s="4"/>
+      <c r="W202" s="4"/>
+    </row>
+    <row r="203" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A203" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="B203" s="4"/>
+      <c r="C203" s="4"/>
+      <c r="D203" s="4"/>
+      <c r="E203" s="4"/>
+      <c r="F203" s="4"/>
+      <c r="G203" s="4"/>
+      <c r="H203" s="126"/>
+      <c r="I203" s="126"/>
+      <c r="J203" s="4"/>
+      <c r="K203" s="4"/>
+      <c r="L203" s="4"/>
+      <c r="M203" s="4"/>
+      <c r="N203" s="4"/>
+      <c r="O203" s="4"/>
+      <c r="P203" s="4"/>
+      <c r="Q203" s="4"/>
+      <c r="R203" s="4"/>
+      <c r="S203" s="4"/>
+      <c r="T203" s="54"/>
+      <c r="U203" s="4"/>
+      <c r="V203" s="4"/>
+      <c r="W203" s="4"/>
+    </row>
+    <row r="204" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A204" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B204" s="4"/>
+      <c r="C204" s="4"/>
+      <c r="D204" s="4"/>
+      <c r="E204" s="4"/>
+      <c r="F204" s="4"/>
+      <c r="G204" s="4"/>
+      <c r="H204" s="126"/>
+      <c r="I204" s="126"/>
+      <c r="J204" s="4"/>
+      <c r="K204" s="4"/>
+      <c r="L204" s="4"/>
+      <c r="M204" s="4"/>
+      <c r="N204" s="4"/>
+      <c r="O204" s="4"/>
+      <c r="P204" s="4"/>
+      <c r="Q204" s="4"/>
+      <c r="R204" s="4"/>
+      <c r="S204" s="4"/>
+      <c r="T204" s="54"/>
+      <c r="U204" s="4"/>
+      <c r="V204" s="4"/>
+      <c r="W204" s="4"/>
+    </row>
+    <row r="205" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A205" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B205" s="4"/>
+      <c r="C205" s="4"/>
+      <c r="D205" s="4"/>
+      <c r="E205" s="4"/>
+      <c r="F205" s="4"/>
+      <c r="G205" s="4"/>
+      <c r="H205" s="126"/>
+      <c r="I205" s="126"/>
+      <c r="J205" s="4"/>
+      <c r="K205" s="4"/>
+      <c r="L205" s="4"/>
+      <c r="M205" s="4"/>
+      <c r="N205" s="4"/>
+      <c r="O205" s="4"/>
+      <c r="P205" s="4"/>
+      <c r="Q205" s="4"/>
+      <c r="R205" s="4"/>
+      <c r="S205" s="4"/>
+      <c r="T205" s="54"/>
+      <c r="U205" s="4"/>
+      <c r="V205" s="4"/>
+      <c r="W205" s="4"/>
+    </row>
+    <row r="206" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A206" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B206" s="4"/>
+      <c r="C206" s="4"/>
+      <c r="D206" s="4"/>
+      <c r="E206" s="4"/>
+      <c r="F206" s="4"/>
+      <c r="G206" s="4"/>
+      <c r="H206" s="126"/>
+      <c r="I206" s="126"/>
+      <c r="J206" s="4"/>
+      <c r="K206" s="4"/>
+      <c r="L206" s="4"/>
+      <c r="M206" s="4"/>
+      <c r="N206" s="4"/>
+      <c r="O206" s="4"/>
+      <c r="P206" s="4"/>
+      <c r="Q206" s="4"/>
+      <c r="R206" s="4"/>
+      <c r="S206" s="4"/>
+      <c r="T206" s="54"/>
+      <c r="U206" s="4"/>
+      <c r="V206" s="4"/>
+      <c r="W206" s="4"/>
+    </row>
+    <row r="207" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A207" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B207" s="4"/>
+      <c r="C207" s="4"/>
+      <c r="D207" s="4"/>
+      <c r="E207" s="4"/>
+      <c r="F207" s="4"/>
+      <c r="G207" s="4"/>
+      <c r="H207" s="126"/>
+      <c r="I207" s="126"/>
+      <c r="J207" s="4"/>
+      <c r="K207" s="4"/>
+      <c r="L207" s="4"/>
+      <c r="M207" s="4"/>
+      <c r="N207" s="4"/>
+      <c r="O207" s="4"/>
+      <c r="P207" s="4"/>
+      <c r="Q207" s="4"/>
+      <c r="R207" s="4"/>
+      <c r="S207" s="4"/>
+      <c r="T207" s="54"/>
+      <c r="U207" s="4"/>
+      <c r="V207" s="4"/>
+      <c r="W207" s="4"/>
+    </row>
+    <row r="208" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A208" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B208" s="4"/>
+      <c r="C208" s="4"/>
+      <c r="D208" s="4"/>
+      <c r="E208" s="4"/>
+      <c r="F208" s="4"/>
+      <c r="G208" s="4"/>
+      <c r="H208" s="126"/>
+      <c r="I208" s="126"/>
+      <c r="J208" s="4"/>
+      <c r="K208" s="4"/>
+      <c r="L208" s="4"/>
+      <c r="M208" s="4"/>
+      <c r="N208" s="4"/>
+      <c r="O208" s="4"/>
+      <c r="P208" s="4"/>
+      <c r="Q208" s="4"/>
+      <c r="R208" s="4"/>
+      <c r="S208" s="4"/>
+      <c r="T208" s="54"/>
+      <c r="U208" s="4"/>
+      <c r="V208" s="4"/>
+      <c r="W208" s="4"/>
+    </row>
+    <row r="209" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A209" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B209" s="4"/>
+      <c r="C209" s="4"/>
+      <c r="D209" s="4"/>
+      <c r="E209" s="4"/>
+      <c r="F209" s="4"/>
+      <c r="G209" s="4"/>
+      <c r="H209" s="126"/>
+      <c r="I209" s="126"/>
+      <c r="J209" s="4"/>
+      <c r="K209" s="4"/>
+      <c r="L209" s="4"/>
+      <c r="M209" s="4"/>
+      <c r="N209" s="4"/>
+      <c r="O209" s="4"/>
+      <c r="P209" s="4"/>
+      <c r="Q209" s="4"/>
+      <c r="R209" s="4"/>
+      <c r="S209" s="4"/>
+      <c r="T209" s="54"/>
+      <c r="U209" s="4"/>
+      <c r="V209" s="4"/>
+      <c r="W209" s="4"/>
+    </row>
+    <row r="210" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A210" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B210" s="4"/>
+      <c r="C210" s="4"/>
+      <c r="D210" s="4"/>
+      <c r="E210" s="4"/>
+      <c r="F210" s="4"/>
+      <c r="G210" s="4"/>
+      <c r="H210" s="126"/>
+      <c r="I210" s="126"/>
+      <c r="J210" s="4"/>
+      <c r="K210" s="4"/>
+      <c r="L210" s="4"/>
+      <c r="M210" s="4"/>
+      <c r="N210" s="4"/>
+      <c r="O210" s="4"/>
+      <c r="P210" s="4"/>
+      <c r="Q210" s="4"/>
+      <c r="R210" s="4"/>
+      <c r="S210" s="4"/>
+      <c r="T210" s="54"/>
+      <c r="U210" s="4"/>
+      <c r="V210" s="4"/>
+      <c r="W210" s="4"/>
+    </row>
+    <row r="211" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A211" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B211" s="4"/>
+      <c r="C211" s="4"/>
+      <c r="D211" s="4"/>
+      <c r="E211" s="4"/>
+      <c r="F211" s="4"/>
+      <c r="G211" s="4"/>
+      <c r="H211" s="126"/>
+      <c r="I211" s="126"/>
+      <c r="J211" s="4"/>
+      <c r="K211" s="4"/>
+      <c r="L211" s="4"/>
+      <c r="M211" s="4"/>
+      <c r="N211" s="4"/>
+      <c r="O211" s="4"/>
+      <c r="P211" s="4"/>
+      <c r="Q211" s="4"/>
+      <c r="R211" s="4"/>
+      <c r="S211" s="4"/>
+      <c r="T211" s="54"/>
+      <c r="U211" s="4"/>
+      <c r="V211" s="4"/>
+      <c r="W211" s="4"/>
+    </row>
+    <row r="212" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A212" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B212" s="4"/>
+      <c r="C212" s="4"/>
+      <c r="D212" s="4"/>
+      <c r="E212" s="4"/>
+      <c r="F212" s="4"/>
+      <c r="G212" s="4"/>
+      <c r="H212" s="126"/>
+      <c r="I212" s="126"/>
+      <c r="J212" s="4"/>
+      <c r="K212" s="4"/>
+      <c r="L212" s="4"/>
+      <c r="M212" s="4"/>
+      <c r="N212" s="4"/>
+      <c r="O212" s="4"/>
+      <c r="P212" s="4"/>
+      <c r="Q212" s="4"/>
+      <c r="R212" s="4"/>
+      <c r="S212" s="4"/>
+      <c r="T212" s="54"/>
+      <c r="U212" s="4"/>
+      <c r="V212" s="4"/>
+      <c r="W212" s="4"/>
+    </row>
+    <row r="213" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A213" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B213" s="4"/>
+      <c r="C213" s="4"/>
+      <c r="D213" s="4"/>
+      <c r="E213" s="4"/>
+      <c r="F213" s="4"/>
+      <c r="G213" s="4"/>
+      <c r="H213" s="126"/>
+      <c r="I213" s="126"/>
+      <c r="J213" s="4"/>
+      <c r="K213" s="4"/>
+      <c r="L213" s="4"/>
+      <c r="M213" s="4"/>
+      <c r="N213" s="4"/>
+      <c r="O213" s="4"/>
+      <c r="P213" s="4"/>
+      <c r="Q213" s="4"/>
+      <c r="R213" s="4"/>
+      <c r="S213" s="4"/>
+      <c r="T213" s="54"/>
+      <c r="U213" s="4"/>
+      <c r="V213" s="4"/>
+      <c r="W213" s="4"/>
+    </row>
+    <row r="214" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A214" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B214" s="4"/>
+      <c r="C214" s="4"/>
+      <c r="D214" s="4"/>
+      <c r="E214" s="4"/>
+      <c r="F214" s="4"/>
+      <c r="G214" s="4"/>
+      <c r="H214" s="126"/>
+      <c r="I214" s="126"/>
+      <c r="J214" s="4"/>
+      <c r="K214" s="4"/>
+      <c r="L214" s="4"/>
+      <c r="M214" s="4"/>
+      <c r="N214" s="4"/>
+      <c r="O214" s="4"/>
+      <c r="P214" s="4"/>
+      <c r="Q214" s="4"/>
+      <c r="R214" s="4"/>
+      <c r="S214" s="4"/>
+      <c r="T214" s="54"/>
+      <c r="U214" s="4"/>
+      <c r="V214" s="4"/>
+      <c r="W214" s="4"/>
+    </row>
+    <row r="215" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A215" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B215" s="4"/>
+      <c r="C215" s="4"/>
+      <c r="D215" s="4"/>
+      <c r="E215" s="4"/>
+      <c r="F215" s="4"/>
+      <c r="G215" s="4"/>
+      <c r="H215" s="126"/>
+      <c r="I215" s="126"/>
+      <c r="J215" s="4"/>
+      <c r="K215" s="4"/>
+      <c r="L215" s="4"/>
+      <c r="M215" s="4"/>
+      <c r="N215" s="4"/>
+      <c r="O215" s="4"/>
+      <c r="P215" s="4"/>
+      <c r="Q215" s="4"/>
+      <c r="R215" s="4"/>
+      <c r="S215" s="4"/>
+      <c r="T215" s="54"/>
+      <c r="U215" s="4"/>
+      <c r="V215" s="4"/>
+      <c r="W215" s="4"/>
+    </row>
+    <row r="216" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A216" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B216" s="4"/>
+      <c r="C216" s="4"/>
+      <c r="D216" s="4"/>
+      <c r="E216" s="4"/>
+      <c r="F216" s="4"/>
+      <c r="G216" s="4"/>
+      <c r="H216" s="126"/>
+      <c r="I216" s="126"/>
+      <c r="J216" s="4"/>
+      <c r="K216" s="4"/>
+      <c r="L216" s="4"/>
+      <c r="M216" s="4"/>
+      <c r="N216" s="4"/>
+      <c r="O216" s="4"/>
+      <c r="P216" s="4"/>
+      <c r="Q216" s="4"/>
+      <c r="R216" s="4"/>
+      <c r="S216" s="4"/>
+      <c r="T216" s="54"/>
+      <c r="U216" s="4"/>
+      <c r="V216" s="4"/>
+      <c r="W216" s="4"/>
+    </row>
+    <row r="217" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A217" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B217" s="4"/>
+      <c r="C217" s="4"/>
+      <c r="D217" s="4"/>
+      <c r="E217" s="4"/>
+      <c r="F217" s="4"/>
+      <c r="G217" s="4"/>
+      <c r="H217" s="126"/>
+      <c r="I217" s="126"/>
+      <c r="J217" s="4"/>
+      <c r="K217" s="4"/>
+      <c r="L217" s="4"/>
+      <c r="M217" s="4"/>
+      <c r="N217" s="4"/>
+      <c r="O217" s="4"/>
+      <c r="P217" s="4"/>
+      <c r="Q217" s="4"/>
+      <c r="R217" s="4"/>
+      <c r="S217" s="4"/>
+      <c r="T217" s="54"/>
+      <c r="U217" s="4"/>
+      <c r="V217" s="4"/>
+      <c r="W217" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20976,49 +22063,49 @@
           <x14:formula1>
             <xm:f>Sheet2!$M$4:$M$6</xm:f>
           </x14:formula1>
-          <xm:sqref>S3:S200</xm:sqref>
+          <xm:sqref>S3:S217</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$G$4:$G$11</xm:f>
           </x14:formula1>
-          <xm:sqref>R3:R200</xm:sqref>
+          <xm:sqref>R3:R217</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$K$4:$K$13</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:K200</xm:sqref>
+          <xm:sqref>K3:K217</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$J$4:$J$9</xm:f>
           </x14:formula1>
-          <xm:sqref>Q3:Q200</xm:sqref>
+          <xm:sqref>Q3:Q217</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$G$4:$G$10</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:O200</xm:sqref>
+          <xm:sqref>M3:O217</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$F$4:$F$8</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L200</xm:sqref>
+          <xm:sqref>L3:L217</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$D$4:$D$9</xm:f>
           </x14:formula1>
-          <xm:sqref>J3:J200</xm:sqref>
+          <xm:sqref>J3:J217</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Story Point">
           <x14:formula1>
             <xm:f>'C:\Users\Omnex\Documents\[performanetools1.txt.xlsx]Data_Ref'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>P3:P200</xm:sqref>
+          <xm:sqref>P3:P217</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -21031,7 +22118,7 @@
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21161,20 +22248,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="60" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>348</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>1143</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="32"/>

--- a/projects/YanFeng/02 System Design/User Stories/User Stories.xlsx
+++ b/projects/YanFeng/02 System Design/User Stories/User Stories.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2788" uniqueCount="1201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="1250">
   <si>
     <t>ID</t>
   </si>
@@ -2967,10 +2967,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>to be defined by customer</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>1, User should be able to click "Cancel" button;
 2, No data should be stored;
 3, Pop-up window should be closed;</t>
@@ -3218,27 +3214,12 @@
     <t>US138</t>
   </si>
   <si>
-    <t>US139</t>
-  </si>
-  <si>
-    <t>US140</t>
-  </si>
-  <si>
     <t>US141</t>
   </si>
   <si>
     <t>US142</t>
   </si>
   <si>
-    <t>US143</t>
-  </si>
-  <si>
-    <t>US144</t>
-  </si>
-  <si>
-    <t>US145</t>
-  </si>
-  <si>
     <t>US146</t>
   </si>
   <si>
@@ -3251,9 +3232,6 @@
     <t>US149</t>
   </si>
   <si>
-    <t>US150</t>
-  </si>
-  <si>
     <t>US151</t>
   </si>
   <si>
@@ -3261,10 +3239,6 @@
   </si>
   <si>
     <t>US153</t>
-  </si>
-  <si>
-    <t>I can save PPQP information</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>I can ensure the part to be published only once and keep the data consistency;</t>
@@ -3658,14 +3632,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Have the system to create the PPAP tasks automatically under PPAP main task</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can allocate assignee for each PPAP task</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">1, The assignee of each PPAP task should be set to the creator initially;
 2, User should see PPAP tasks in task list view;
 </t>
@@ -3742,44 +3708,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Approve APQP/PPAP tasks</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASDE/SQE suppervisor;
-ASDE/SQE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reject APQP/PPAP tasks</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASDE/SQE suppervisor;
-ASDE/SQE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can accept supplier's submission</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, User should see value of "Approved" in dropdown list "Status" in the window "Edit APAP task information";
-2, User should see value of "Approved" in dropdown list "Status" in the window "Edit PPAP task information"
-3, User should see button "Submit Task" in window "Edit APAP task information" and window  "Edit PPAP task information";</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can return the task back to supplier for more inputs</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, User should see value of "Rejected" in dropdown list "Status" in the window "Edit APAP task information";
-2, User should see value of "Rejected" in dropdown list "Status" in the window "Edit PPAP task information"
-3, User should see button "Submit Task" in window "Edit APAP task information" and window  "Edit PPAP task information";</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Close APQP/PPAP tasks</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3788,61 +3716,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1, User should see value of "Closed" in dropdown list "Status" in the window "Edit APAP task information";
-2, User should see value of "Closed" in dropdown list "Status" in the window "Edit PPAP task information"
-3, User should see button "Submit Task" in window "Edit APAP task information" and window  "Edit PPAP task information";</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>I can restart the closed tasks</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1, User should see value of "Reopen" in dropdown list "Status" in the window "Edit APAP task information";
-2, User should see value of "Reopen" in dropdown list "Status" in the window "Edit PPAP task information"
-3, User should see button "Submit Task" in window "Edit APAP task information" and window  "Edit PPAP task information";</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Reopen APQP/PPAP tasks</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>add comments to APQP/PPAP tasks</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can give my suggestions to next task processor</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>See more comments of APQP/PPAP tasks</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can track the task history</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, User should see a link "More…" beside the field "Comments";
-2, User should see the comments list in new pop-up form;
-3, User should be able to close above new pop-up window;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Submit APQP/PPAP task</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can send the APQP/PPAP task to next processor</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, User should see the field "Comments" in window "Edit APAP task information" and window "Edit PPAP task information";</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, User should see button "Submit" in window "Edit APAP task information" and window "Edit PPAP task information";</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -3864,15 +3742,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>I can send the task to next processor(ASDE/SQE)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, User should be able to click "Submit Task" button;
-2, User should be prompted with message of successff ful or failure, if failure occurred, system should prompt user with reason and suggestion;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>1, A task list with header displayed in Display area;
 2, The visiblity of task list column can be customized;</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -3935,24 +3804,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>ASDE/SQE suppervisor;
-ASDE/SQE
-Supplier</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASDE/SQE suppervisor;
-ASDE/SQE
-Supplier</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASDE/SQE suppervisor;
-ASDE/SQE
-Supplier</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>ASDE/SQE
 Supplier</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -3966,19 +3817,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Fill PPQP task information </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>I can view and track my tasks</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>I can view and track my tasks in system internally</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Submit APAP/PPAP Task</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -4495,9 +4338,6 @@
     <t>1, User should see APQP/PPAP main tasks in task list view;</t>
   </si>
   <si>
-    <t>View all APQP/PPAP tasks</t>
-  </si>
-  <si>
     <t>I can review and track APQP/PPAP tasks status</t>
   </si>
   <si>
@@ -4719,10 +4559,6 @@
   </si>
   <si>
     <t>1, System should find and load the single active APQP template to implement;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Have the PPAP tasks created following the template APAP Template</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -4795,14 +4631,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1, User should see the fields Assignee,Approver,Approval Status in read-only mode;
-2, Assignee value should be ASDE/SQE name(current user name)
-3, Approver value should be ASDE/SQE supervisor;
-4, Approval Status value should be "Waiting for approve";
-5, User should be able to click "Submit Task" button to submit the APQP task;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>US101</t>
   </si>
   <si>
@@ -4888,11 +4716,419 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>Upload the PSW file to PPAP main task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can publish the PSW file for review</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see PSW file field in "Edit PPAP Main Task Information" page;
+2, User should see a link of PSW file;
+3, User should see a button "Upload";
+4, User should be able to upload the PSW file in a new pop-up window when clicking on the button "Upload";</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add comments to PPAP main task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">I can give my suggestions and audit opinions </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User shuold see a comment list in "Edit PPAP Main Task Information" page;
+2, User should see a clickable icon "+", a new pop-up window come when clicking on icon "+"
+3, User should be able to write a comment in a new pop-up window;
+4, A new comment should be displayed in comment list when user save the comment successfully;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ASDE/SQE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ASDE/SQE supervisor
+ASDE/SQE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upload the PSW file to APQP main task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add comments to APQP main task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User shuold see a comment list in "Edit APQP Main Task Information" page;
+2, User should see a clickable icon "+", a new pop-up window come when clicking on icon "+"
+3, User should be able to write a comment in a new pop-up window;
+4, A new comment should be displayed in comment list when user save the comment successfully;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see PSW file field in "Edit APQP Main Task Information" page;
+2, User should see a link of PSW file;
+3, User should see a button "Upload";
+4, User should be able to upload the PSW file in a new pop-up window when clicking on the button "Upload";</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>US106</t>
+  </si>
+  <si>
+    <t>I can provide the reason of rejection to the assignee</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, The comment of Rejection is mandatory;
+2, The window "add comment" should pop up automatically when user select approval status "Rejected" and click on button "Submit Task";
+3, The task should be submited when user click on the button "Save" in "Add Comment" window (if comment stored successfully);
+4, The comment should be displayed in comment list in the page "Edit APQP Main Task Information";</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide a comment for the rejected APQP main task </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide a comment for the rejected PPAP main task </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, The comment of Rejection is mandatory;
+2, The window "add comment" should pop up automatically when user select approval status "Rejected" and click on button "Submit Task";
+3, The task should be submited when user click on the button "Save" in "Add Comment" window (if comment stored successfully);
+4, The comment should be displayed in comment list in the page "Edit PPAP Main Task Information";</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ASDE/SQE supervisor
+ASDE/SQE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add drawings to the APQP main task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can privode drawing information to the process</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>View the drawing information</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">I can work proceed the process according to the drawing provided </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see button "Header Info" in "Edit APQP main task Information" page;
+2, User should see pop-up window "APQP Header Information" when clicking on the button "Header Info";
+3, User should see Task Name, Part Number and Drawing Info(Drawing list) and clickable "+" icon and "Close" button;
+4, User should see an file upload window which allows user to upload drawings when user clicking on icon "+";
+5, User should be able to view the drawings in external system via clicking the link of each drawing in the drawing list;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see "Header Info" in "Edit APQP Mian Task Information" page;
+2, User should see pop-up window "APQP Header Information" when clicking on the button "Header Info";
+3, User should see Task Name, Part Number and Drawing Info(Drawing list) and "Close" button;
+4, User should be able to view the drawings in external system via clicking the link of each drawing in the drawing list;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>US97</t>
+  </si>
+  <si>
+    <t>US188</t>
+  </si>
+  <si>
+    <t>US189</t>
+  </si>
+  <si>
+    <t>US190</t>
+  </si>
+  <si>
+    <t>US191</t>
+  </si>
+  <si>
+    <t>US192</t>
+  </si>
+  <si>
+    <t>US193</t>
+  </si>
+  <si>
+    <t>US194</t>
+  </si>
+  <si>
+    <t>US195</t>
+  </si>
+  <si>
+    <t>US196</t>
+  </si>
+  <si>
+    <t>US197</t>
+  </si>
+  <si>
+    <t>US198</t>
+  </si>
+  <si>
+    <t>US199</t>
+  </si>
+  <si>
+    <t>US200</t>
+  </si>
+  <si>
+    <t>US201</t>
+  </si>
+  <si>
+    <t>US202</t>
+  </si>
+  <si>
+    <t>US203</t>
+  </si>
+  <si>
+    <t>US204</t>
+  </si>
+  <si>
+    <t>US205</t>
+  </si>
+  <si>
+    <t>US206</t>
+  </si>
+  <si>
+    <t>US207</t>
+  </si>
+  <si>
+    <t>US208</t>
+  </si>
+  <si>
+    <t>US209</t>
+  </si>
+  <si>
+    <t>US210</t>
+  </si>
+  <si>
+    <t>US211</t>
+  </si>
+  <si>
+    <t>US212</t>
+  </si>
+  <si>
+    <t>US213</t>
+  </si>
+  <si>
+    <t>US214</t>
+  </si>
+  <si>
+    <t>US215</t>
+  </si>
+  <si>
+    <t>US216</t>
+  </si>
+  <si>
+    <t>US217</t>
+  </si>
+  <si>
+    <t>Return a part task to ASDE/SQE supervisor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDE/SQE supervisor can reassign the part task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should set the assignee to ASDE/SQE supervisor and save task;
+2, The notification of email and internal message to be sent to ASDE/SQE supervisor;
+3, ASDE/SQE supervisor should see new activity of part task in activity module;
+4, ASDE/SQE should not see the previously activity of part task any more in activity module;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDE/SQE suppervisor;
+ASDE/SQE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Have right View all APQP/PPAP tasks</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Have the system to create the APQP/PPAP tasks automatically under PPAP main task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Have the APQP/PPAP tasks created following the template APAP Template</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can see and allocate assignee for each PPAP task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ASDE/SQE supervisor
+ASDE/SQE
+Supplier</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>View PPAP main task header information</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can make reference to the header information</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>All fields in PPAP Header Information page should be in read-only mode;
+Value of Deliver Reason: First Time for Deliver or Part Changed;
+Previously Part Number: (If First Time for deliver) Blank or (If Part Changed) Previously part number</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>View previously PPAP information</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can check and review the part PPAP history</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see button "Header Info" in "Edit PPAP main task Information" page;
+2, User should see pop-up window "PPAP Header Information" when clicking on the button "Header Info";
+3, User should see Task Name, Part Number, Deliver Reasion, Previously Part Number, PPAP Level;
+4, User should see a "Close" button;
+5, User should see a link of previously part number(if Deliver Reason is Part Changed);</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see a link of previously part number in "PPAP Header Information" page if "Deliver Reason" is "Part Changed";
+2, User should view the PPAP history of previously part in a new pop-up window "PPAP History Information";
+3, User should see a "Close" button in window "PPAP History Information";
+4, The PPAP history should be in read-only mode;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add comments to APQP/PPAP task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User shuold see a comment list in "Edit APQP Task Information" page and "Edit PPAP Task Information" page;
+2, User should see a clickable icon "+", a new pop-up window come when clicking on icon "+"
+3, User should be able to write a comment in a new pop-up window;
+4, A new comment should be displayed in comment list when user save the comment successfully;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDE/SQE supervisor;
+ASDE/SQE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open the comment of a APQP Main task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open the comment of a PPAP Main task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add attachements to a APQP/PPAP task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open a attachment of a APQP/PPAP task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see attachments list in page "Edit APQP/PPAP task Information;
+2, User shouls see Clickable "+" icon;
+3, User should see a new pop-up form which allows user to upload files;
+4, User should see "Save" and "Cancel" button in new pop-up window;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open the comment of a APQP/PPAP task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Attachment window is as same as the attachment upload window of part task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>New comment window is as same as the add comment window of part task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>1, User should see the fields Assignee,Approver,Approval Status in read-only mode;
 2, Assignee value should be ASDE/SQE name(current user name)
 3, Approver value should be ASDE/SQE supervisor;
 4, Approval Status value should be "Waiting for approve";
-5, User should be able to click "Submit Task" button to submit the PPAP task;</t>
+5, User should be able to click "Submit Task" button to submit the PPAP main task;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see the fields Assignee,Approver,Approval Status in read-only mode;
+2, Assignee value should be ASDE/SQE name(current user name)
+3, Approver value should be ASDE/SQE supervisor;
+4, Approval Status value should be "Waiting for approve";
+5, User should be able to click "Submit Task" button to submit the APQP main task;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Submit APQP/PPAP Task for approval</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can start the audit process of the APQP/PPAP task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see the fields Assignee,Approver,Approval Status in read-only mode;
+2, Assignee value should be ASDE/SQE name(current user name)
+3, Approver value should be ASDE/SQE supervisor;
+4, Approval Status value should be "Waiting for approve";
+5, User should be able to click "Submit Task" button to submit the APQP/PPAP task;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ASDE/SQE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ASDE/SQE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audit a APQP/PPAP task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can approve the APQP/PPAP task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can reject the APQP/PPAP task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see Editable dropdown list "Status" "Assignee" and "Approval Status";
+2, User should be able to select "Rejected" status in dropdown list "Approval Status";
+3, User should be not able to select "Close" status in dropdown list "Status";
+4, User should be able to select previously assignee in dropdown list "Assignee";
+5, User should be able to reject the task by clicking the button "Submit Task";
+6, The rejected APQP/PPAP task should be return to the assignee for further updating ;</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -4900,99 +5136,82 @@
 2, User should be able to select "Approved" status in dropdown list "Approval Status"
 3, User should be able to select "Close" status in dropdown list "Status"
 4, User should be able to approve the task by clicking the button "Submit Task";
-5, The closed PPAP should be displayed in green color in task list view;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Upload the PSW file to PPAP main task</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can publish the PSW file for review</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, User should see PSW file field in "Edit PPAP Main Task Information" page;
-2, User should see a link of PSW file;
-3, User should see a button "Upload";
-4, User should be able to upload the PSW file in a new pop-up window when clicking on the button "Upload";</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add comments to PPAP main task</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">I can give my suggestions and audit opinions </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, User shuold see a comment list in "Edit PPAP Main Task Information" page;
-2, User should see a clickable icon "+", a new pop-up window come when clicking on icon "+"
-3, User should be able to write a comment in a new pop-up window;
-4, A new comment should be displayed in comment list when user save the comment successfully;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ASDE/SQE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ASDE/SQE supervisor
-ASDE/SQE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Upload the PSW file to APQP main task</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add comments to APQP main task</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, User shuold see a comment list in "Edit APQP Main Task Information" page;
-2, User should see a clickable icon "+", a new pop-up window come when clicking on icon "+"
-3, User should be able to write a comment in a new pop-up window;
-4, A new comment should be displayed in comment list when user save the comment successfully;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, User should see PSW file field in "Edit APQP Main Task Information" page;
-2, User should see a link of PSW file;
-3, User should see a button "Upload";
-4, User should be able to upload the PSW file in a new pop-up window when clicking on the button "Upload";</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>US106</t>
-  </si>
-  <si>
-    <t>I can provide the reason of rejection to the assignee</t>
+5, The closed APQP/PPAP task should be displayed in green color in task list view;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see Editable dropdown list "Status" "Assignee" and "Approval Status";
+2, User should be able to select "Approved" status in dropdown list "Approval Status"
+3, User should be able to select "Close" status in dropdown list "Status"
+4, User should be able to approve the task by clicking the button "Submit Task";
+5, The closed PPAP main task should be displayed in green color in task list view;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see Editable dropdown list "Status" "Assignee" and "Approval Status";
+2, User should be able to select "Rejected" status in dropdown list "Approval Status";
+3, User should be not able to select "Close" status in dropdown list "Status";
+4, User should be able to select previously assignee in dropdown list "Assignee";
+5, User should be able to reject the task by clicking the button "Submit Task";
+6, The rejected APQP main task should be return to the assignee for further updating ;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>The task status that ASDE/SQE can operate: 
+In Processing -&gt; Close
+Close -&gt; Reopen
+New -&gt; In Processing
+Reopen - In Processing</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supplier</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change APQP/PPAP task status</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can save the APQP/PPAP task status for tracking</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>The task status that supplier can operate: 
+New -&gt; In Processing
+Reopen - &gt; In Processing</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audit a APQP/PPAP task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Provide a comment for the rejected APQP/PPAP task</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1, The comment of Rejection is mandatory;
 2, The window "add comment" should pop up automatically when user select approval status "Rejected" and click on button "Submit Task";
 3, The task should be submited when user click on the button "Save" in "Add Comment" window (if comment stored successfully);
-4, The comment should be displayed in comment list in the page "Edit APQP Main Task Information";</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide a comment for the rejected APQP main task </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide a comment for the rejected PPAP main task </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, The comment of Rejection is mandatory;
-2, The window "add comment" should pop up automatically when user select approval status "Rejected" and click on button "Submit Task";
-3, The task should be submited when user click on the button "Save" in "Add Comment" window (if comment stored successfully);
-4, The comment should be displayed in comment list in the page "Edit PPAP Main Task Information";</t>
+4, The comment should be displayed in comment list in the page "Edit APQP/PPAP task Information";</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ASDE/SQE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see value of "Closed" in dropdown list "Status" in the window "Edit APAP task information";
+2, User should see value of "Closed" in dropdown list "Status" in the window "Edit PPAP task information"
+3, User should see button "Submit Task" in window "Edit APAP task information" and window  "Edit PPAP task information";</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see value of "Reopen" in dropdown list "Status" in the window "Edit APAP task information";
+2, User should see value of "Reopen" in dropdown list "Status" in the window "Edit PPAP task information"
+3, User should see button "Submit Task" in window "Edit APAP task information" and window  "Edit PPAP task information";</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -6383,11 +6602,11 @@
       </c>
       <c r="C6" s="99">
         <f>COUNTIF('Project Management'!J:J,"Critical")</f>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="99">
         <f>COUNTIF('Project Management'!J:J,"Very High")</f>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E6" s="99">
         <f>COUNTIF('Project Management'!J:J,"High")</f>
@@ -6395,11 +6614,11 @@
       </c>
       <c r="F6" s="99">
         <f>COUNTIF('Project Management'!J:J,"Medium")</f>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G6" s="99">
         <f>COUNTIF('Project Management'!J:J,"Low")</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="99">
         <f>COUNTIF('Project Management'!J:J,"Very Low")</f>
@@ -6407,7 +6626,7 @@
       </c>
       <c r="I6" s="99">
         <f t="shared" ref="I6:I12" si="0">SUM(C6:H6)</f>
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
@@ -6614,11 +6833,11 @@
       </c>
       <c r="C13" s="99">
         <f>SUM(C5:C12)</f>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="99">
         <f t="shared" ref="D13:H13" si="1">SUM(D5:D12)</f>
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E13" s="99">
         <f t="shared" si="1"/>
@@ -6626,11 +6845,11 @@
       </c>
       <c r="F13" s="99">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G13" s="99">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" s="99">
         <f t="shared" si="1"/>
@@ -6644,7 +6863,7 @@
       </c>
       <c r="C14" s="131">
         <f>SUM(C13:H13)</f>
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D14" s="131"/>
       <c r="E14" s="131"/>
@@ -13245,14 +13464,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W217"/>
+  <dimension ref="A1:W226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F135" sqref="F135"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G162" sqref="G162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="65.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.125" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.125" style="16" customWidth="1"/>
@@ -13279,7 +13498,7 @@
     <col min="24" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="48"/>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -13308,7 +13527,7 @@
       <c r="V1" s="51"/>
       <c r="W1" s="53"/>
     </row>
-    <row r="2" spans="1:23" ht="36" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -13379,12 +13598,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="72" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="B3" s="119" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>594</v>
@@ -13396,16 +13615,16 @@
         <v>498</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H3" s="126" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="I3" s="125" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>43</v>
@@ -13426,12 +13645,12 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
     </row>
-    <row r="4" spans="1:23" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="B4" s="119" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>594</v>
@@ -13443,13 +13662,13 @@
         <v>498</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>1124</v>
+        <v>1087</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="H4" s="126" t="s">
         <v>757</v>
-      </c>
-      <c r="H4" s="126" t="s">
-        <v>758</v>
       </c>
       <c r="I4" s="125"/>
       <c r="J4" s="4" t="s">
@@ -13471,12 +13690,12 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
     </row>
-    <row r="5" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>255</v>
       </c>
       <c r="B5" s="119" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>594</v>
@@ -13488,13 +13707,13 @@
         <v>498</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>744</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>745</v>
-      </c>
       <c r="H5" s="126" t="s">
-        <v>1123</v>
+        <v>1086</v>
       </c>
       <c r="I5" s="125"/>
       <c r="J5" s="4" t="s">
@@ -13516,12 +13735,12 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
     </row>
-    <row r="6" spans="1:23" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>256</v>
       </c>
       <c r="B6" s="119" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>594</v>
@@ -13533,16 +13752,16 @@
         <v>498</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H6" s="126" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="I6" s="125" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>43</v>
@@ -13563,12 +13782,12 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
     </row>
-    <row r="7" spans="1:23" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>257</v>
       </c>
       <c r="B7" s="119" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>594</v>
@@ -13580,13 +13799,13 @@
         <v>498</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H7" s="126" t="s">
-        <v>1122</v>
+        <v>1085</v>
       </c>
       <c r="I7" s="125"/>
       <c r="J7" s="4" t="s">
@@ -13608,7 +13827,7 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
     </row>
-    <row r="8" spans="1:23" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>258</v>
       </c>
@@ -13625,13 +13844,13 @@
         <v>498</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="H8" s="126" t="s">
         <v>747</v>
-      </c>
-      <c r="H8" s="126" t="s">
-        <v>748</v>
       </c>
       <c r="I8" s="125"/>
       <c r="J8" s="4" t="s">
@@ -13653,12 +13872,12 @@
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
     </row>
-    <row r="9" spans="1:23" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>259</v>
       </c>
       <c r="B9" s="119" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>594</v>
@@ -13670,16 +13889,16 @@
         <v>498</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>1076</v>
+        <v>1040</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>1077</v>
+        <v>1041</v>
       </c>
       <c r="H9" s="126" t="s">
-        <v>1078</v>
+        <v>1042</v>
       </c>
       <c r="I9" s="125" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>43</v>
@@ -13700,12 +13919,12 @@
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
     </row>
-    <row r="10" spans="1:23" ht="96" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>260</v>
       </c>
       <c r="B10" s="119" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>594</v>
@@ -13714,16 +13933,16 @@
         <v>496</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>1079</v>
+        <v>1043</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H10" s="126" t="s">
-        <v>1080</v>
+        <v>1044</v>
       </c>
       <c r="I10" s="125"/>
       <c r="J10" s="4" t="s">
@@ -13745,12 +13964,12 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
     </row>
-    <row r="11" spans="1:23" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>261</v>
       </c>
       <c r="B11" s="119" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>594</v>
@@ -13759,16 +13978,16 @@
         <v>496</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>1081</v>
+        <v>1045</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="H11" s="126" t="s">
         <v>747</v>
-      </c>
-      <c r="H11" s="126" t="s">
-        <v>748</v>
       </c>
       <c r="I11" s="126"/>
       <c r="J11" s="4" t="s">
@@ -13790,30 +14009,30 @@
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
     </row>
-    <row r="12" spans="1:23" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>262</v>
       </c>
       <c r="B12" s="122" t="s">
-        <v>982</v>
+        <v>946</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>983</v>
+        <v>947</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>984</v>
+        <v>948</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>985</v>
+        <v>949</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>986</v>
+        <v>950</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>987</v>
+        <v>951</v>
       </c>
       <c r="H12" s="126" t="s">
-        <v>988</v>
+        <v>952</v>
       </c>
       <c r="I12" s="126"/>
       <c r="J12" s="4" t="s">
@@ -13835,30 +14054,30 @@
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
     </row>
-    <row r="13" spans="1:23" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>263</v>
       </c>
       <c r="B13" s="122" t="s">
-        <v>982</v>
+        <v>946</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>983</v>
+        <v>947</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>984</v>
+        <v>948</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>985</v>
+        <v>949</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>989</v>
+        <v>953</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>990</v>
+        <v>954</v>
       </c>
       <c r="H13" s="126" t="s">
-        <v>991</v>
+        <v>955</v>
       </c>
       <c r="I13" s="126"/>
       <c r="J13" s="4" t="s">
@@ -13880,30 +14099,30 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
     </row>
-    <row r="14" spans="1:23" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>525</v>
       </c>
       <c r="B14" s="122" t="s">
-        <v>982</v>
+        <v>946</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>983</v>
+        <v>947</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>984</v>
+        <v>948</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>985</v>
+        <v>949</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>993</v>
+        <v>957</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>992</v>
+        <v>956</v>
       </c>
       <c r="H14" s="126" t="s">
-        <v>994</v>
+        <v>958</v>
       </c>
       <c r="I14" s="126"/>
       <c r="J14" s="4" t="s">
@@ -13925,33 +14144,33 @@
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
     </row>
-    <row r="15" spans="1:23" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>267</v>
       </c>
       <c r="B15" s="122" t="s">
-        <v>982</v>
+        <v>946</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>983</v>
+        <v>947</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>984</v>
+        <v>948</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>985</v>
+        <v>949</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>995</v>
+        <v>959</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>996</v>
+        <v>960</v>
       </c>
       <c r="H15" s="126" t="s">
-        <v>997</v>
+        <v>961</v>
       </c>
       <c r="I15" s="126" t="s">
-        <v>998</v>
+        <v>962</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>45</v>
@@ -13972,12 +14191,12 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
     </row>
-    <row r="16" spans="1:23" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>272</v>
       </c>
       <c r="B16" s="118" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>499</v>
@@ -13989,13 +14208,13 @@
         <v>498</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="H16" s="126" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="I16" s="127"/>
       <c r="J16" s="4" t="s">
@@ -14017,12 +14236,12 @@
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
     </row>
-    <row r="17" spans="1:23" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>279</v>
       </c>
       <c r="B17" s="118" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>499</v>
@@ -14034,13 +14253,13 @@
         <v>498</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="H17" s="126" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="I17" s="127"/>
       <c r="J17" s="4" t="s">
@@ -14062,12 +14281,12 @@
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
     </row>
-    <row r="18" spans="1:23" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>280</v>
       </c>
       <c r="B18" s="118" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>499</v>
@@ -14079,16 +14298,16 @@
         <v>498</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="H18" s="126" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="I18" s="127" t="s">
-        <v>1082</v>
+        <v>1046</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>44</v>
@@ -14109,12 +14328,12 @@
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
     </row>
-    <row r="19" spans="1:23" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>291</v>
       </c>
       <c r="B19" s="118" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>499</v>
@@ -14126,7 +14345,7 @@
         <v>498</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>591</v>
@@ -14156,12 +14375,12 @@
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
     </row>
-    <row r="20" spans="1:23" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>296</v>
       </c>
       <c r="B20" s="118" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>499</v>
@@ -14173,13 +14392,13 @@
         <v>716</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H20" s="126" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="I20" s="125"/>
       <c r="J20" s="4" t="s">
@@ -14201,12 +14420,12 @@
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
     </row>
-    <row r="21" spans="1:23" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>301</v>
       </c>
       <c r="B21" s="118" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>499</v>
@@ -14218,13 +14437,13 @@
         <v>498</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>510</v>
       </c>
       <c r="H21" s="126" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="I21" s="127"/>
       <c r="J21" s="4" t="s">
@@ -14246,12 +14465,12 @@
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
     </row>
-    <row r="22" spans="1:23" ht="120" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>307</v>
       </c>
       <c r="B22" s="118" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>499</v>
@@ -14263,13 +14482,13 @@
         <v>498</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>500</v>
       </c>
       <c r="H22" s="126" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="I22" s="127" t="s">
         <v>501</v>
@@ -14293,15 +14512,15 @@
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
     </row>
-    <row r="23" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>311</v>
       </c>
       <c r="B23" s="118" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>496</v>
@@ -14310,7 +14529,7 @@
         <v>498</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>502</v>
@@ -14338,15 +14557,15 @@
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
     </row>
-    <row r="24" spans="1:23" ht="84" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>315</v>
       </c>
       <c r="B24" s="118" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>496</v>
@@ -14383,12 +14602,12 @@
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
     </row>
-    <row r="25" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>321</v>
       </c>
       <c r="B25" s="118" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>499</v>
@@ -14428,12 +14647,12 @@
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
     </row>
-    <row r="26" spans="1:23" ht="120" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>325</v>
       </c>
       <c r="B26" s="118" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>499</v>
@@ -14473,12 +14692,12 @@
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
     </row>
-    <row r="27" spans="1:23" ht="72" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>352</v>
       </c>
       <c r="B27" s="118" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>499</v>
@@ -14493,7 +14712,7 @@
         <v>535</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="H27" s="126" t="s">
         <v>536</v>
@@ -14520,12 +14739,12 @@
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
     </row>
-    <row r="28" spans="1:23" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>353</v>
       </c>
       <c r="B28" s="118" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>499</v>
@@ -14565,15 +14784,15 @@
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
     </row>
-    <row r="29" spans="1:23" ht="84" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>534</v>
       </c>
       <c r="B29" s="118" t="s">
+        <v>806</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>814</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>822</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>496</v>
@@ -14610,15 +14829,15 @@
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
     </row>
-    <row r="30" spans="1:23" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>363</v>
       </c>
       <c r="B30" s="118" t="s">
+        <v>806</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>814</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>822</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>496</v>
@@ -14657,15 +14876,15 @@
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
     </row>
-    <row r="31" spans="1:23" ht="132" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>367</v>
       </c>
       <c r="B31" s="118" t="s">
+        <v>806</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>814</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>822</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>496</v>
@@ -14704,15 +14923,15 @@
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
     </row>
-    <row r="32" spans="1:23" ht="127.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>371</v>
       </c>
       <c r="B32" s="118" t="s">
+        <v>806</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>814</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>822</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>496</v>
@@ -14751,15 +14970,15 @@
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
     </row>
-    <row r="33" spans="1:23" ht="159.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>375</v>
       </c>
       <c r="B33" s="118" t="s">
+        <v>806</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>814</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>822</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>496</v>
@@ -14796,15 +15015,15 @@
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
     </row>
-    <row r="34" spans="1:23" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>379</v>
       </c>
       <c r="B34" s="118" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>496</v>
@@ -14843,15 +15062,15 @@
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
     </row>
-    <row r="35" spans="1:23" ht="144" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>383</v>
       </c>
       <c r="B35" s="118" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>496</v>
@@ -14888,15 +15107,15 @@
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
     </row>
-    <row r="36" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>387</v>
       </c>
       <c r="B36" s="118" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>496</v>
@@ -14933,15 +15152,15 @@
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
     </row>
-    <row r="37" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>391</v>
       </c>
       <c r="B37" s="118" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>496</v>
@@ -14978,12 +15197,12 @@
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
     </row>
-    <row r="38" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>395</v>
       </c>
       <c r="B38" s="118" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>499</v>
@@ -15023,15 +15242,15 @@
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
     </row>
-    <row r="39" spans="1:23" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>400</v>
       </c>
       <c r="B39" s="118" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>496</v>
@@ -15068,12 +15287,12 @@
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
     </row>
-    <row r="40" spans="1:23" ht="115.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>404</v>
       </c>
       <c r="B40" s="118" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>499</v>
@@ -15085,13 +15304,13 @@
         <v>596</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="H40" s="126" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="I40" s="126" t="s">
         <v>598</v>
@@ -15115,12 +15334,12 @@
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
     </row>
-    <row r="41" spans="1:23" ht="111" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>408</v>
       </c>
       <c r="B41" s="118" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>499</v>
@@ -15135,10 +15354,10 @@
         <v>599</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="H41" s="126" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="I41" s="126"/>
       <c r="J41" s="4" t="s">
@@ -15160,12 +15379,12 @@
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
     </row>
-    <row r="42" spans="1:23" ht="72" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>411</v>
       </c>
       <c r="B42" s="118" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>499</v>
@@ -15205,15 +15424,15 @@
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
     </row>
-    <row r="43" spans="1:23" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>416</v>
       </c>
       <c r="B43" s="118" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="D43" s="40" t="s">
         <v>496</v>
@@ -15250,15 +15469,15 @@
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
     </row>
-    <row r="44" spans="1:23" ht="145.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>420</v>
       </c>
       <c r="B44" s="120" t="s">
+        <v>808</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>816</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>824</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>496</v>
@@ -15267,13 +15486,13 @@
         <v>498</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H44" s="126" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="I44" s="125"/>
       <c r="J44" s="4" t="s">
@@ -15295,15 +15514,15 @@
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
     </row>
-    <row r="45" spans="1:23" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>424</v>
       </c>
       <c r="B45" s="120" t="s">
+        <v>808</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>816</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>824</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>496</v>
@@ -15312,13 +15531,13 @@
         <v>498</v>
       </c>
       <c r="F45" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="H45" s="126" t="s">
         <v>753</v>
-      </c>
-      <c r="H45" s="126" t="s">
-        <v>754</v>
       </c>
       <c r="I45" s="125"/>
       <c r="J45" s="4" t="s">
@@ -15340,15 +15559,15 @@
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
     </row>
-    <row r="46" spans="1:23" ht="111" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>427</v>
       </c>
       <c r="B46" s="120" t="s">
+        <v>808</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>816</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>824</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>496</v>
@@ -15360,10 +15579,10 @@
         <v>520</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>1003</v>
+        <v>967</v>
       </c>
       <c r="H46" s="126" t="s">
-        <v>1006</v>
+        <v>970</v>
       </c>
       <c r="I46" s="126" t="s">
         <v>618</v>
@@ -15387,15 +15606,15 @@
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
     </row>
-    <row r="47" spans="1:23" ht="72" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B47" s="120" t="s">
+        <v>808</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>816</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>824</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>496</v>
@@ -15410,7 +15629,7 @@
         <v>522</v>
       </c>
       <c r="H47" s="126" t="s">
-        <v>1007</v>
+        <v>971</v>
       </c>
       <c r="I47" s="126" t="s">
         <v>523</v>
@@ -15434,15 +15653,15 @@
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
     </row>
-    <row r="48" spans="1:23" ht="72" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>438</v>
       </c>
       <c r="B48" s="120" t="s">
+        <v>808</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>816</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>824</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>496</v>
@@ -15451,13 +15670,13 @@
         <v>498</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>1004</v>
+        <v>968</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>1005</v>
+        <v>969</v>
       </c>
       <c r="H48" s="126" t="s">
-        <v>1008</v>
+        <v>972</v>
       </c>
       <c r="I48" s="126"/>
       <c r="J48" s="4" t="s">
@@ -15479,15 +15698,15 @@
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
     </row>
-    <row r="49" spans="1:23" ht="112.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>444</v>
       </c>
       <c r="B49" s="120" t="s">
+        <v>808</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>816</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>824</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>496</v>
@@ -15496,13 +15715,13 @@
         <v>498</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>1010</v>
+        <v>974</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>1009</v>
+        <v>973</v>
       </c>
       <c r="H49" s="126" t="s">
-        <v>1011</v>
+        <v>975</v>
       </c>
       <c r="I49" s="126"/>
       <c r="J49" s="4" t="s">
@@ -15524,15 +15743,15 @@
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
     </row>
-    <row r="50" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
         <v>445</v>
       </c>
       <c r="B50" s="120" t="s">
+        <v>808</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>816</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>824</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>496</v>
@@ -15541,13 +15760,13 @@
         <v>498</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="H50" s="126" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="I50" s="126"/>
       <c r="J50" s="4" t="s">
@@ -15569,15 +15788,15 @@
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
     </row>
-    <row r="51" spans="1:23" ht="127.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>452</v>
       </c>
       <c r="B51" s="120" t="s">
+        <v>808</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>816</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>824</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>595</v>
@@ -15586,13 +15805,13 @@
         <v>596</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="H51" s="126" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="I51" s="126"/>
       <c r="J51" s="4" t="s">
@@ -15614,15 +15833,15 @@
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
     </row>
-    <row r="52" spans="1:23" ht="72" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>456</v>
       </c>
       <c r="B52" s="120" t="s">
+        <v>808</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>816</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>824</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>595</v>
@@ -15659,15 +15878,15 @@
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
     </row>
-    <row r="53" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
         <v>461</v>
       </c>
       <c r="B53" s="120" t="s">
+        <v>808</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>816</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>824</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>496</v>
@@ -15676,13 +15895,13 @@
         <v>498</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="H53" s="126" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="I53" s="126"/>
       <c r="J53" s="4" t="s">
@@ -15704,15 +15923,15 @@
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
     </row>
-    <row r="54" spans="1:23" ht="84" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
         <v>465</v>
       </c>
       <c r="B54" s="120" t="s">
+        <v>808</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>816</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>824</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>595</v>
@@ -15751,12 +15970,12 @@
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
     </row>
-    <row r="55" spans="1:23" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
         <v>468</v>
       </c>
       <c r="B55" s="120" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>594</v>
@@ -15765,16 +15984,16 @@
         <v>496</v>
       </c>
       <c r="E55" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>825</v>
-      </c>
-      <c r="G55" s="4" t="s">
+      <c r="H55" s="126" t="s">
         <v>763</v>
-      </c>
-      <c r="H55" s="126" t="s">
-        <v>764</v>
       </c>
       <c r="I55" s="125"/>
       <c r="J55" s="4" t="s">
@@ -15796,21 +16015,21 @@
       <c r="V55" s="4"/>
       <c r="W55" s="4"/>
     </row>
-    <row r="56" spans="1:23" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
         <v>473</v>
       </c>
       <c r="B56" s="120" t="s">
+        <v>808</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>816</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>824</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>595</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>679</v>
@@ -15841,15 +16060,15 @@
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
     </row>
-    <row r="57" spans="1:23" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
         <v>476</v>
       </c>
       <c r="B57" s="120" t="s">
+        <v>808</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>816</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>824</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>496</v>
@@ -15858,7 +16077,7 @@
         <v>498</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>526</v>
@@ -15886,15 +16105,15 @@
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
     </row>
-    <row r="58" spans="1:23" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
         <v>479</v>
       </c>
       <c r="B58" s="120" t="s">
+        <v>808</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>816</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>824</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>496</v>
@@ -15931,15 +16150,15 @@
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
     </row>
-    <row r="59" spans="1:23" ht="87" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
         <v>483</v>
       </c>
       <c r="B59" s="120" t="s">
+        <v>808</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>816</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>824</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>496</v>
@@ -15976,15 +16195,15 @@
       <c r="V59" s="4"/>
       <c r="W59" s="4"/>
     </row>
-    <row r="60" spans="1:23" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
         <v>619</v>
       </c>
       <c r="B60" s="120" t="s">
+        <v>808</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>816</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>824</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>496</v>
@@ -16021,15 +16240,15 @@
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
     </row>
-    <row r="61" spans="1:23" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
         <v>620</v>
       </c>
       <c r="B61" s="120" t="s">
+        <v>808</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>816</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>824</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>496</v>
@@ -16066,15 +16285,15 @@
       <c r="V61" s="4"/>
       <c r="W61" s="4"/>
     </row>
-    <row r="62" spans="1:23" ht="138.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
         <v>621</v>
       </c>
       <c r="B62" s="120" t="s">
+        <v>808</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>816</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>824</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>496</v>
@@ -16111,15 +16330,15 @@
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
     </row>
-    <row r="63" spans="1:23" ht="108" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
         <v>622</v>
       </c>
       <c r="B63" s="120" t="s">
+        <v>808</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>816</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>824</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>496</v>
@@ -16128,7 +16347,7 @@
         <v>498</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>524</v>
@@ -16156,15 +16375,15 @@
       <c r="V63" s="4"/>
       <c r="W63" s="4"/>
     </row>
-    <row r="64" spans="1:23" ht="72" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
         <v>623</v>
       </c>
       <c r="B64" s="120" t="s">
+        <v>808</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>816</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>824</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>496</v>
@@ -16173,7 +16392,7 @@
         <v>498</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>566</v>
@@ -16201,15 +16420,15 @@
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
     </row>
-    <row r="65" spans="1:23" ht="108" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
         <v>624</v>
       </c>
       <c r="B65" s="120" t="s">
+        <v>808</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>816</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>824</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>496</v>
@@ -16246,15 +16465,15 @@
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
     </row>
-    <row r="66" spans="1:23" ht="96" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
         <v>625</v>
       </c>
       <c r="B66" s="120" t="s">
+        <v>808</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>816</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>824</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>496</v>
@@ -16291,15 +16510,15 @@
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
     </row>
-    <row r="67" spans="1:23" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
         <v>626</v>
       </c>
       <c r="B67" s="120" t="s">
+        <v>808</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>816</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>824</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>595</v>
@@ -16311,10 +16530,10 @@
         <v>600</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="H67" s="126" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="I67" s="126"/>
       <c r="J67" s="4" t="s">
@@ -16336,15 +16555,15 @@
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
     </row>
-    <row r="68" spans="1:23" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
-        <v>963</v>
+        <v>927</v>
       </c>
       <c r="B68" s="120" t="s">
+        <v>808</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>816</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>824</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>496</v>
@@ -16353,13 +16572,13 @@
         <v>498</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G68" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="H68" s="126" t="s">
         <v>765</v>
-      </c>
-      <c r="H68" s="126" t="s">
-        <v>766</v>
       </c>
       <c r="I68" s="128"/>
       <c r="J68" s="4" t="s">
@@ -16381,30 +16600,30 @@
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
     </row>
-    <row r="69" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
         <v>627</v>
       </c>
       <c r="B69" s="121" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>1012</v>
+        <v>976</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>1013</v>
+        <v>977</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>1018</v>
+        <v>982</v>
       </c>
       <c r="H69" s="126" t="s">
-        <v>1014</v>
+        <v>978</v>
       </c>
       <c r="I69" s="128"/>
       <c r="J69" s="4" t="s">
@@ -16426,15 +16645,15 @@
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
     </row>
-    <row r="70" spans="1:23" ht="126.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
         <v>628</v>
       </c>
       <c r="B70" s="121" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>496</v>
@@ -16443,13 +16662,13 @@
         <v>498</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H70" s="126" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I70" s="128"/>
       <c r="J70" s="4" t="s">
@@ -16471,15 +16690,15 @@
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
     </row>
-    <row r="71" spans="1:23" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
         <v>629</v>
       </c>
       <c r="B71" s="121" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>496</v>
@@ -16488,16 +16707,16 @@
         <v>498</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>1015</v>
+        <v>979</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>1021</v>
+        <v>985</v>
       </c>
       <c r="H71" s="126" t="s">
-        <v>1019</v>
+        <v>983</v>
       </c>
       <c r="I71" s="128" t="s">
-        <v>1029</v>
+        <v>993</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>44</v>
@@ -16518,33 +16737,33 @@
       <c r="V71" s="4"/>
       <c r="W71" s="4"/>
     </row>
-    <row r="72" spans="1:23" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
         <v>630</v>
       </c>
       <c r="B72" s="121" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>1017</v>
+        <v>981</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>1016</v>
+        <v>980</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>1022</v>
+        <v>986</v>
       </c>
       <c r="H72" s="126" t="s">
-        <v>1028</v>
+        <v>992</v>
       </c>
       <c r="I72" s="128" t="s">
-        <v>1031</v>
+        <v>995</v>
       </c>
       <c r="J72" s="4" t="s">
         <v>44</v>
@@ -16565,33 +16784,33 @@
       <c r="V72" s="4"/>
       <c r="W72" s="4"/>
     </row>
-    <row r="73" spans="1:23" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
         <v>631</v>
       </c>
       <c r="B73" s="121" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>1017</v>
+        <v>981</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>1020</v>
+        <v>984</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>1023</v>
+        <v>987</v>
       </c>
       <c r="H73" s="126" t="s">
-        <v>1027</v>
+        <v>991</v>
       </c>
       <c r="I73" s="128" t="s">
-        <v>1030</v>
+        <v>994</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>44</v>
@@ -16612,15 +16831,15 @@
       <c r="V73" s="4"/>
       <c r="W73" s="4"/>
     </row>
-    <row r="74" spans="1:23" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
         <v>632</v>
       </c>
       <c r="B74" s="121" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>496</v>
@@ -16629,16 +16848,16 @@
         <v>719</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>1024</v>
+        <v>988</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>1025</v>
+        <v>989</v>
       </c>
       <c r="H74" s="126" t="s">
-        <v>1026</v>
+        <v>990</v>
       </c>
       <c r="I74" s="128" t="s">
-        <v>1041</v>
+        <v>1005</v>
       </c>
       <c r="J74" s="4" t="s">
         <v>44</v>
@@ -16659,30 +16878,30 @@
       <c r="V74" s="4"/>
       <c r="W74" s="4"/>
     </row>
-    <row r="75" spans="1:23" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
         <v>633</v>
       </c>
       <c r="B75" s="121" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>1061</v>
+        <v>1025</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>1062</v>
+        <v>1026</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>1063</v>
+        <v>1027</v>
       </c>
       <c r="H75" s="126" t="s">
-        <v>1064</v>
+        <v>1028</v>
       </c>
       <c r="I75" s="128"/>
       <c r="J75" s="4" t="s">
@@ -16704,33 +16923,33 @@
       <c r="V75" s="4"/>
       <c r="W75" s="4"/>
     </row>
-    <row r="76" spans="1:23" ht="120" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
         <v>634</v>
       </c>
       <c r="B76" s="121" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>1069</v>
+        <v>1033</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>1068</v>
+        <v>1032</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>1065</v>
+        <v>1029</v>
       </c>
       <c r="H76" s="126" t="s">
-        <v>1066</v>
+        <v>1030</v>
       </c>
       <c r="I76" s="128" t="s">
-        <v>1067</v>
+        <v>1031</v>
       </c>
       <c r="J76" s="4" t="s">
         <v>14</v>
@@ -16751,15 +16970,15 @@
       <c r="V76" s="4"/>
       <c r="W76" s="4"/>
     </row>
-    <row r="77" spans="1:23" ht="127.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B77" s="121" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>496</v>
@@ -16768,13 +16987,13 @@
         <v>498</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H77" s="126" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I77" s="128"/>
       <c r="J77" s="4" t="s">
@@ -16796,30 +17015,30 @@
       <c r="V77" s="4"/>
       <c r="W77" s="4"/>
     </row>
-    <row r="78" spans="1:23" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B78" s="121" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E78" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="G78" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="F78" s="4" t="s">
-        <v>828</v>
-      </c>
-      <c r="G78" s="4" t="s">
+      <c r="H78" s="126" t="s">
         <v>760</v>
-      </c>
-      <c r="H78" s="126" t="s">
-        <v>761</v>
       </c>
       <c r="I78" s="128"/>
       <c r="J78" s="4" t="s">
@@ -16841,33 +17060,33 @@
       <c r="V78" s="4"/>
       <c r="W78" s="4"/>
     </row>
-    <row r="79" spans="1:23" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B79" s="121" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>1032</v>
+        <v>996</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>1037</v>
+        <v>1001</v>
       </c>
       <c r="H79" s="126" t="s">
-        <v>1039</v>
+        <v>1003</v>
       </c>
       <c r="I79" s="128" t="s">
-        <v>1042</v>
+        <v>1006</v>
       </c>
       <c r="J79" s="4" t="s">
         <v>45</v>
@@ -16888,33 +17107,33 @@
       <c r="V79" s="4"/>
       <c r="W79" s="4"/>
     </row>
-    <row r="80" spans="1:23" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B80" s="121" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>1033</v>
+        <v>997</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>1035</v>
+        <v>999</v>
       </c>
       <c r="H80" s="126" t="s">
-        <v>1038</v>
+        <v>1002</v>
       </c>
       <c r="I80" s="128" t="s">
-        <v>1043</v>
+        <v>1007</v>
       </c>
       <c r="J80" s="4" t="s">
         <v>45</v>
@@ -16935,33 +17154,33 @@
       <c r="V80" s="4"/>
       <c r="W80" s="4"/>
     </row>
-    <row r="81" spans="1:23" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B81" s="121" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>1034</v>
+        <v>998</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>1036</v>
+        <v>1000</v>
       </c>
       <c r="H81" s="126" t="s">
-        <v>1040</v>
+        <v>1004</v>
       </c>
       <c r="I81" s="128" t="s">
-        <v>1044</v>
+        <v>1008</v>
       </c>
       <c r="J81" s="4" t="s">
         <v>45</v>
@@ -16982,9 +17201,9 @@
       <c r="V81" s="4"/>
       <c r="W81" s="4"/>
     </row>
-    <row r="82" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B82" s="117" t="s">
         <v>713</v>
@@ -16996,17 +17215,17 @@
         <v>543</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>1045</v>
+        <v>1009</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>1046</v>
+        <v>1010</v>
       </c>
       <c r="H82" s="126"/>
       <c r="I82" s="126" t="s">
-        <v>1049</v>
+        <v>1013</v>
       </c>
       <c r="J82" s="4" t="s">
         <v>43</v>
@@ -17027,9 +17246,9 @@
       <c r="V82" s="4"/>
       <c r="W82" s="4"/>
     </row>
-    <row r="83" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B83" s="117" t="s">
         <v>713</v>
@@ -17041,17 +17260,17 @@
         <v>543</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>1047</v>
+        <v>1011</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>1048</v>
+        <v>1012</v>
       </c>
       <c r="H83" s="126"/>
       <c r="I83" s="126" t="s">
-        <v>1049</v>
+        <v>1013</v>
       </c>
       <c r="J83" s="4" t="s">
         <v>43</v>
@@ -17072,9 +17291,9 @@
       <c r="V83" s="4"/>
       <c r="W83" s="4"/>
     </row>
-    <row r="84" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B84" s="117" t="s">
         <v>713</v>
@@ -17086,17 +17305,17 @@
         <v>543</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>1083</v>
+        <v>1047</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>1084</v>
+        <v>1048</v>
       </c>
       <c r="H84" s="126"/>
       <c r="I84" s="126" t="s">
-        <v>1049</v>
+        <v>1013</v>
       </c>
       <c r="J84" s="4" t="s">
         <v>43</v>
@@ -17117,9 +17336,9 @@
       <c r="V84" s="4"/>
       <c r="W84" s="4"/>
     </row>
-    <row r="85" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B85" s="117" t="s">
         <v>713</v>
@@ -17131,17 +17350,17 @@
         <v>543</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>1085</v>
+        <v>1049</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>1086</v>
+        <v>1050</v>
       </c>
       <c r="H85" s="126"/>
       <c r="I85" s="126" t="s">
-        <v>1049</v>
+        <v>1013</v>
       </c>
       <c r="J85" s="4" t="s">
         <v>43</v>
@@ -17162,9 +17381,9 @@
       <c r="V85" s="4"/>
       <c r="W85" s="4"/>
     </row>
-    <row r="86" spans="1:23" ht="96" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B86" s="117" t="s">
         <v>713</v>
@@ -17176,19 +17395,19 @@
         <v>715</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="H86" s="126" t="s">
-        <v>938</v>
+        <v>907</v>
       </c>
       <c r="I86" s="126" t="s">
-        <v>1087</v>
+        <v>1051</v>
       </c>
       <c r="J86" s="4" t="s">
         <v>43</v>
@@ -17209,9 +17428,9 @@
       <c r="V86" s="4"/>
       <c r="W86" s="4"/>
     </row>
-    <row r="87" spans="1:23" ht="72" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B87" s="117" t="s">
         <v>713</v>
@@ -17223,17 +17442,17 @@
         <v>543</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>1088</v>
+        <v>1052</v>
       </c>
       <c r="H87" s="126"/>
       <c r="I87" s="126" t="s">
-        <v>1089</v>
+        <v>1053</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>44</v>
@@ -17254,9 +17473,9 @@
       <c r="V87" s="4"/>
       <c r="W87" s="4"/>
     </row>
-    <row r="88" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B88" s="117" t="s">
         <v>713</v>
@@ -17268,16 +17487,16 @@
         <v>715</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="H88" s="126" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="I88" s="126"/>
       <c r="J88" s="4" t="s">
@@ -17299,9 +17518,9 @@
       <c r="V88" s="4"/>
       <c r="W88" s="4"/>
     </row>
-    <row r="89" spans="1:23" s="116" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:23" s="116" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B89" s="117" t="s">
         <v>713</v>
@@ -17313,13 +17532,13 @@
         <v>543</v>
       </c>
       <c r="E89" s="56" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="F89" s="40" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="G89" s="56" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="H89" s="128"/>
       <c r="I89" s="128"/>
@@ -17342,9 +17561,9 @@
       <c r="V89" s="56"/>
       <c r="W89" s="56"/>
     </row>
-    <row r="90" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B90" s="117" t="s">
         <v>713</v>
@@ -17356,16 +17575,16 @@
         <v>543</v>
       </c>
       <c r="E90" s="56" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="H90" s="126" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="I90" s="126"/>
       <c r="J90" s="4" t="s">
@@ -17387,9 +17606,9 @@
       <c r="V90" s="4"/>
       <c r="W90" s="4"/>
     </row>
-    <row r="91" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B91" s="117" t="s">
         <v>713</v>
@@ -17401,16 +17620,16 @@
         <v>543</v>
       </c>
       <c r="E91" s="56" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="H91" s="126" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="I91" s="126"/>
       <c r="J91" s="4" t="s">
@@ -17432,9 +17651,9 @@
       <c r="V91" s="4"/>
       <c r="W91" s="4"/>
     </row>
-    <row r="92" spans="1:23" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B92" s="117" t="s">
         <v>713</v>
@@ -17446,16 +17665,16 @@
         <v>543</v>
       </c>
       <c r="E92" s="56" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="H92" s="126" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="I92" s="126"/>
       <c r="J92" s="4" t="s">
@@ -17477,9 +17696,9 @@
       <c r="V92" s="4"/>
       <c r="W92" s="4"/>
     </row>
-    <row r="93" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B93" s="117" t="s">
         <v>713</v>
@@ -17491,16 +17710,16 @@
         <v>543</v>
       </c>
       <c r="E93" s="56" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="F93" s="40" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="H93" s="126" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="I93" s="126"/>
       <c r="J93" s="4" t="s">
@@ -17522,9 +17741,9 @@
       <c r="V93" s="4"/>
       <c r="W93" s="4"/>
     </row>
-    <row r="94" spans="1:23" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B94" s="117" t="s">
         <v>713</v>
@@ -17536,16 +17755,16 @@
         <v>543</v>
       </c>
       <c r="E94" s="56" t="s">
+        <v>796</v>
+      </c>
+      <c r="F94" s="4" t="s">
         <v>804</v>
       </c>
-      <c r="F94" s="4" t="s">
-        <v>812</v>
-      </c>
       <c r="G94" s="4" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="H94" s="126" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="I94" s="126"/>
       <c r="J94" s="4" t="s">
@@ -17567,9 +17786,9 @@
       <c r="V94" s="4"/>
       <c r="W94" s="4"/>
     </row>
-    <row r="95" spans="1:23" ht="124.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B95" s="117" t="s">
         <v>713</v>
@@ -17584,13 +17803,13 @@
         <v>717</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="H95" s="126" t="s">
-        <v>1128</v>
+        <v>1091</v>
       </c>
       <c r="I95" s="126"/>
       <c r="J95" s="4" t="s">
@@ -17612,9 +17831,9 @@
       <c r="V95" s="4"/>
       <c r="W95" s="4"/>
     </row>
-    <row r="96" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B96" s="117" t="s">
         <v>713</v>
@@ -17626,16 +17845,16 @@
         <v>543</v>
       </c>
       <c r="E96" s="56" t="s">
-        <v>1133</v>
+        <v>1096</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>1136</v>
+        <v>1099</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>1129</v>
+        <v>1092</v>
       </c>
       <c r="H96" s="126" t="s">
-        <v>1130</v>
+        <v>1093</v>
       </c>
       <c r="I96" s="126"/>
       <c r="J96" s="4" t="s">
@@ -17657,9 +17876,9 @@
       <c r="V96" s="4"/>
       <c r="W96" s="4"/>
     </row>
-    <row r="97" spans="1:23" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B97" s="117" t="s">
         <v>713</v>
@@ -17674,13 +17893,13 @@
         <v>717</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>1126</v>
+        <v>1089</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>1127</v>
+        <v>1090</v>
       </c>
       <c r="H97" s="126" t="s">
-        <v>1134</v>
+        <v>1097</v>
       </c>
       <c r="I97" s="126"/>
       <c r="J97" s="4" t="s">
@@ -17702,8 +17921,10 @@
       <c r="V97" s="4"/>
       <c r="W97" s="4"/>
     </row>
-    <row r="98" spans="1:23" ht="48" x14ac:dyDescent="0.15">
-      <c r="A98" s="4"/>
+    <row r="98" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="4" t="s">
+        <v>656</v>
+      </c>
       <c r="B98" s="117" t="s">
         <v>713</v>
       </c>
@@ -17714,16 +17935,16 @@
         <v>543</v>
       </c>
       <c r="E98" s="56" t="s">
-        <v>1133</v>
+        <v>1096</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>1137</v>
+        <v>1100</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>1131</v>
+        <v>1094</v>
       </c>
       <c r="H98" s="126" t="s">
-        <v>1132</v>
+        <v>1095</v>
       </c>
       <c r="I98" s="126"/>
       <c r="J98" s="4" t="s">
@@ -17745,9 +17966,9 @@
       <c r="V98" s="4"/>
       <c r="W98" s="4"/>
     </row>
-    <row r="99" spans="1:23" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
-        <v>652</v>
+        <v>1167</v>
       </c>
       <c r="B99" s="117" t="s">
         <v>713</v>
@@ -17762,13 +17983,13 @@
         <v>717</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="H99" s="126" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="I99" s="126"/>
       <c r="J99" s="4" t="s">
@@ -17790,9 +18011,9 @@
       <c r="V99" s="4"/>
       <c r="W99" s="4"/>
     </row>
-    <row r="100" spans="1:23" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="B100" s="117" t="s">
         <v>713</v>
@@ -17804,16 +18025,16 @@
         <v>543</v>
       </c>
       <c r="E100" s="56" t="s">
-        <v>1114</v>
+        <v>1077</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>1115</v>
+        <v>1078</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>1116</v>
+        <v>1079</v>
       </c>
       <c r="H100" s="126" t="s">
-        <v>1117</v>
+        <v>1080</v>
       </c>
       <c r="I100" s="126"/>
       <c r="J100" s="4" t="s">
@@ -17835,9 +18056,9 @@
       <c r="V100" s="4"/>
       <c r="W100" s="4"/>
     </row>
-    <row r="101" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="B101" s="117" t="s">
         <v>713</v>
@@ -17849,16 +18070,16 @@
         <v>543</v>
       </c>
       <c r="E101" s="56" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="H101" s="126" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="I101" s="126"/>
       <c r="J101" s="4" t="s">
@@ -17880,9 +18101,9 @@
       <c r="V101" s="4"/>
       <c r="W101" s="4"/>
     </row>
-    <row r="102" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="B102" s="117" t="s">
         <v>713</v>
@@ -17894,16 +18115,16 @@
         <v>543</v>
       </c>
       <c r="E102" s="56" t="s">
-        <v>1070</v>
+        <v>1034</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="H102" s="126" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="I102" s="126"/>
       <c r="J102" s="4" t="s">
@@ -17925,9 +18146,9 @@
       <c r="V102" s="4"/>
       <c r="W102" s="4"/>
     </row>
-    <row r="103" spans="1:23" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
-        <v>655</v>
+        <v>1124</v>
       </c>
       <c r="B103" s="117" t="s">
         <v>713</v>
@@ -17939,16 +18160,16 @@
         <v>543</v>
       </c>
       <c r="E103" s="56" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="H103" s="126" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="I103" s="126"/>
       <c r="J103" s="4" t="s">
@@ -17970,9 +18191,9 @@
       <c r="V103" s="4"/>
       <c r="W103" s="4"/>
     </row>
-    <row r="104" spans="1:23" ht="72" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="B104" s="117" t="s">
         <v>713</v>
@@ -17984,16 +18205,16 @@
         <v>543</v>
       </c>
       <c r="E104" s="56" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="H104" s="126" t="s">
-        <v>1135</v>
+        <v>1098</v>
       </c>
       <c r="I104" s="126"/>
       <c r="J104" s="4" t="s">
@@ -18015,9 +18236,9 @@
       <c r="V104" s="4"/>
       <c r="W104" s="4"/>
     </row>
-    <row r="105" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="B105" s="117" t="s">
         <v>713</v>
@@ -18029,16 +18250,16 @@
         <v>543</v>
       </c>
       <c r="E105" s="56" t="s">
-        <v>1133</v>
+        <v>1096</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>1138</v>
+        <v>1101</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>1129</v>
+        <v>1092</v>
       </c>
       <c r="H105" s="126" t="s">
-        <v>1130</v>
+        <v>1093</v>
       </c>
       <c r="I105" s="126"/>
       <c r="J105" s="4" t="s">
@@ -18060,9 +18281,9 @@
       <c r="V105" s="4"/>
       <c r="W105" s="4"/>
     </row>
-    <row r="106" spans="1:23" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="B106" s="117" t="s">
         <v>713</v>
@@ -18077,13 +18298,13 @@
         <v>717</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>1139</v>
+        <v>1102</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>1127</v>
+        <v>1090</v>
       </c>
       <c r="H106" s="126" t="s">
-        <v>1134</v>
+        <v>1097</v>
       </c>
       <c r="I106" s="126"/>
       <c r="J106" s="4" t="s">
@@ -18105,8 +18326,10 @@
       <c r="V106" s="4"/>
       <c r="W106" s="4"/>
     </row>
-    <row r="107" spans="1:23" ht="48" x14ac:dyDescent="0.15">
-      <c r="A107" s="4"/>
+    <row r="107" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="4" t="s">
+        <v>663</v>
+      </c>
       <c r="B107" s="117" t="s">
         <v>713</v>
       </c>
@@ -18117,16 +18340,16 @@
         <v>543</v>
       </c>
       <c r="E107" s="56" t="s">
-        <v>1133</v>
+        <v>1096</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>1140</v>
+        <v>1103</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>1131</v>
+        <v>1094</v>
       </c>
       <c r="H107" s="126" t="s">
-        <v>1132</v>
+        <v>1095</v>
       </c>
       <c r="I107" s="126"/>
       <c r="J107" s="4" t="s">
@@ -18148,9 +18371,9 @@
       <c r="V107" s="4"/>
       <c r="W107" s="4"/>
     </row>
-    <row r="108" spans="1:23" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
-        <v>657</v>
+        <v>1154</v>
       </c>
       <c r="B108" s="117" t="s">
         <v>713</v>
@@ -18162,16 +18385,16 @@
         <v>543</v>
       </c>
       <c r="E108" s="56" t="s">
-        <v>1150</v>
+        <v>1112</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>946</v>
+        <v>915</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>1090</v>
+        <v>1054</v>
       </c>
       <c r="H108" s="126" t="s">
-        <v>1141</v>
+        <v>1104</v>
       </c>
       <c r="I108" s="126"/>
       <c r="J108" s="4" t="s">
@@ -18193,9 +18416,9 @@
       <c r="V108" s="4"/>
       <c r="W108" s="4"/>
     </row>
-    <row r="109" spans="1:23" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="B109" s="117" t="s">
         <v>713</v>
@@ -18207,16 +18430,16 @@
         <v>543</v>
       </c>
       <c r="E109" s="56" t="s">
-        <v>1150</v>
+        <v>1112</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>1151</v>
+        <v>1113</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>1152</v>
+        <v>1114</v>
       </c>
       <c r="H109" s="126" t="s">
-        <v>1153</v>
+        <v>1115</v>
       </c>
       <c r="I109" s="126"/>
       <c r="J109" s="4" t="s">
@@ -18238,9 +18461,9 @@
       <c r="V109" s="4"/>
       <c r="W109" s="4"/>
     </row>
-    <row r="110" spans="1:23" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="B110" s="117" t="s">
         <v>713</v>
@@ -18252,16 +18475,16 @@
         <v>543</v>
       </c>
       <c r="E110" s="56" t="s">
-        <v>1150</v>
+        <v>1112</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>947</v>
+        <v>916</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>948</v>
+        <v>917</v>
       </c>
       <c r="H110" s="126" t="s">
-        <v>1125</v>
+        <v>1088</v>
       </c>
       <c r="I110" s="126"/>
       <c r="J110" s="4" t="s">
@@ -18283,9 +18506,9 @@
       <c r="V110" s="4"/>
       <c r="W110" s="4"/>
     </row>
-    <row r="111" spans="1:23" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="B111" s="117" t="s">
         <v>713</v>
@@ -18297,20 +18520,20 @@
         <v>543</v>
       </c>
       <c r="E111" s="56" t="s">
-        <v>1118</v>
+        <v>914</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>1119</v>
+        <v>1198</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>1120</v>
+        <v>1199</v>
       </c>
       <c r="H111" s="126" t="s">
-        <v>1121</v>
+        <v>1200</v>
       </c>
       <c r="I111" s="126"/>
       <c r="J111" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K111" s="4"/>
       <c r="L111" s="4" t="s">
@@ -18328,9 +18551,9 @@
       <c r="V111" s="4"/>
       <c r="W111" s="4"/>
     </row>
-    <row r="112" spans="1:23" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="B112" s="117" t="s">
         <v>713</v>
@@ -18342,20 +18565,20 @@
         <v>543</v>
       </c>
       <c r="E112" s="56" t="s">
-        <v>945</v>
+        <v>1081</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>884</v>
+        <v>1082</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>885</v>
+        <v>1083</v>
       </c>
       <c r="H112" s="126" t="s">
-        <v>890</v>
+        <v>1084</v>
       </c>
       <c r="I112" s="126"/>
       <c r="J112" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K112" s="4"/>
       <c r="L112" s="4" t="s">
@@ -18373,9 +18596,9 @@
       <c r="V112" s="4"/>
       <c r="W112" s="4"/>
     </row>
-    <row r="113" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
-        <v>1163</v>
+        <v>781</v>
       </c>
       <c r="B113" s="117" t="s">
         <v>713</v>
@@ -18383,26 +18606,24 @@
       <c r="C113" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="D113" s="56" t="s">
+      <c r="D113" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="E113" s="56" t="s">
-        <v>945</v>
+      <c r="E113" s="4" t="s">
+        <v>1201</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>1164</v>
+        <v>1055</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>1165</v>
+        <v>1056</v>
       </c>
       <c r="H113" s="126" t="s">
-        <v>1166</v>
-      </c>
-      <c r="I113" s="126" t="s">
-        <v>1169</v>
-      </c>
+        <v>1057</v>
+      </c>
+      <c r="I113" s="126"/>
       <c r="J113" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K113" s="4"/>
       <c r="L113" s="4" t="s">
@@ -18420,9 +18641,9 @@
       <c r="V113" s="4"/>
       <c r="W113" s="4"/>
     </row>
-    <row r="114" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="B114" s="117" t="s">
         <v>713</v>
@@ -18434,16 +18655,16 @@
         <v>543</v>
       </c>
       <c r="E114" s="56" t="s">
-        <v>1173</v>
+        <v>914</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>939</v>
+        <v>876</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>940</v>
+        <v>877</v>
       </c>
       <c r="H114" s="126" t="s">
-        <v>941</v>
+        <v>882</v>
       </c>
       <c r="I114" s="126"/>
       <c r="J114" s="4" t="s">
@@ -18465,9 +18686,9 @@
       <c r="V114" s="4"/>
       <c r="W114" s="4"/>
     </row>
-    <row r="115" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="B115" s="117" t="s">
         <v>713</v>
@@ -18479,20 +18700,22 @@
         <v>543</v>
       </c>
       <c r="E115" s="56" t="s">
-        <v>1172</v>
+        <v>914</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>942</v>
+        <v>1125</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>943</v>
+        <v>1126</v>
       </c>
       <c r="H115" s="126" t="s">
-        <v>944</v>
-      </c>
-      <c r="I115" s="126"/>
+        <v>1127</v>
+      </c>
+      <c r="I115" s="126" t="s">
+        <v>1130</v>
+      </c>
       <c r="J115" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K115" s="4"/>
       <c r="L115" s="4" t="s">
@@ -18510,9 +18733,9 @@
       <c r="V115" s="4"/>
       <c r="W115" s="4"/>
     </row>
-    <row r="116" spans="1:23" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B116" s="117" t="s">
         <v>713</v>
@@ -18524,16 +18747,16 @@
         <v>543</v>
       </c>
       <c r="E116" s="56" t="s">
-        <v>1189</v>
+        <v>1134</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>1191</v>
+        <v>908</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>1184</v>
+        <v>909</v>
       </c>
       <c r="H116" s="126" t="s">
-        <v>1194</v>
+        <v>910</v>
       </c>
       <c r="I116" s="126"/>
       <c r="J116" s="4" t="s">
@@ -18555,9 +18778,9 @@
       <c r="V116" s="4"/>
       <c r="W116" s="4"/>
     </row>
-    <row r="117" spans="1:23" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B117" s="117" t="s">
         <v>713</v>
@@ -18569,20 +18792,20 @@
         <v>543</v>
       </c>
       <c r="E117" s="56" t="s">
-        <v>1190</v>
+        <v>1133</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>1192</v>
+        <v>911</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>1187</v>
+        <v>912</v>
       </c>
       <c r="H117" s="126" t="s">
-        <v>1193</v>
+        <v>913</v>
       </c>
       <c r="I117" s="126"/>
       <c r="J117" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K117" s="4"/>
       <c r="L117" s="4" t="s">
@@ -18600,9 +18823,9 @@
       <c r="V117" s="4"/>
       <c r="W117" s="4"/>
     </row>
-    <row r="118" spans="1:23" ht="98.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="B118" s="117" t="s">
         <v>713</v>
@@ -18614,16 +18837,16 @@
         <v>543</v>
       </c>
       <c r="E118" s="56" t="s">
-        <v>945</v>
+        <v>1160</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="H118" s="126" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="I118" s="126"/>
       <c r="J118" s="4" t="s">
@@ -18645,9 +18868,9 @@
       <c r="V118" s="4"/>
       <c r="W118" s="4"/>
     </row>
-    <row r="119" spans="1:23" ht="132" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="B119" s="117" t="s">
         <v>713</v>
@@ -18659,22 +18882,20 @@
         <v>543</v>
       </c>
       <c r="E119" s="56" t="s">
-        <v>1154</v>
+        <v>719</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>1155</v>
+        <v>1163</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>1156</v>
+        <v>1164</v>
       </c>
       <c r="H119" s="126" t="s">
-        <v>1158</v>
-      </c>
-      <c r="I119" s="126" t="s">
-        <v>1170</v>
-      </c>
+        <v>1166</v>
+      </c>
+      <c r="I119" s="126"/>
       <c r="J119" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K119" s="4"/>
       <c r="L119" s="4" t="s">
@@ -18692,9 +18913,9 @@
       <c r="V119" s="4"/>
       <c r="W119" s="4"/>
     </row>
-    <row r="120" spans="1:23" ht="144" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="B120" s="117" t="s">
         <v>713</v>
@@ -18706,20 +18927,18 @@
         <v>543</v>
       </c>
       <c r="E120" s="56" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>1157</v>
+        <v>1143</v>
       </c>
       <c r="H120" s="126" t="s">
-        <v>1159</v>
-      </c>
-      <c r="I120" s="126" t="s">
-        <v>1171</v>
-      </c>
+        <v>1153</v>
+      </c>
+      <c r="I120" s="126"/>
       <c r="J120" s="4" t="s">
         <v>43</v>
       </c>
@@ -18739,9 +18958,9 @@
       <c r="V120" s="4"/>
       <c r="W120" s="4"/>
     </row>
-    <row r="121" spans="1:23" ht="84" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
-        <v>1195</v>
+        <v>674</v>
       </c>
       <c r="B121" s="117" t="s">
         <v>713</v>
@@ -18753,20 +18972,20 @@
         <v>543</v>
       </c>
       <c r="E121" s="56" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>1198</v>
+        <v>1151</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>1196</v>
+        <v>1146</v>
       </c>
       <c r="H121" s="126" t="s">
-        <v>1197</v>
+        <v>1152</v>
       </c>
       <c r="I121" s="126"/>
       <c r="J121" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K121" s="4"/>
       <c r="L121" s="4" t="s">
@@ -18784,9 +19003,9 @@
       <c r="V121" s="4"/>
       <c r="W121" s="4"/>
     </row>
-    <row r="122" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B122" s="117" t="s">
         <v>713</v>
@@ -18798,20 +19017,20 @@
         <v>543</v>
       </c>
       <c r="E122" s="56" t="s">
-        <v>945</v>
+        <v>1216</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>887</v>
+        <v>1217</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>888</v>
+        <v>1094</v>
       </c>
       <c r="H122" s="126" t="s">
-        <v>889</v>
+        <v>1095</v>
       </c>
       <c r="I122" s="126"/>
       <c r="J122" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K122" s="4"/>
       <c r="L122" s="4" t="s">
@@ -18829,9 +19048,9 @@
       <c r="V122" s="4"/>
       <c r="W122" s="4"/>
     </row>
-    <row r="123" spans="1:23" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="B123" s="117" t="s">
         <v>713</v>
@@ -18843,20 +19062,20 @@
         <v>543</v>
       </c>
       <c r="E123" s="56" t="s">
-        <v>945</v>
+        <v>914</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>1144</v>
+        <v>1122</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>1145</v>
+        <v>1123</v>
       </c>
       <c r="H123" s="126" t="s">
-        <v>1146</v>
+        <v>1226</v>
       </c>
       <c r="I123" s="126"/>
       <c r="J123" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K123" s="4"/>
       <c r="L123" s="4" t="s">
@@ -18874,9 +19093,9 @@
       <c r="V123" s="4"/>
       <c r="W123" s="4"/>
     </row>
-    <row r="124" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="B124" s="117" t="s">
         <v>713</v>
@@ -18888,18 +19107,20 @@
         <v>543</v>
       </c>
       <c r="E124" s="56" t="s">
-        <v>945</v>
+        <v>1116</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>1071</v>
+        <v>1117</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>1072</v>
+        <v>1118</v>
       </c>
       <c r="H124" s="126" t="s">
-        <v>1073</v>
-      </c>
-      <c r="I124" s="126"/>
+        <v>1120</v>
+      </c>
+      <c r="I124" s="126" t="s">
+        <v>1131</v>
+      </c>
       <c r="J124" s="4" t="s">
         <v>43</v>
       </c>
@@ -18919,9 +19140,9 @@
       <c r="V124" s="4"/>
       <c r="W124" s="4"/>
     </row>
-    <row r="125" spans="1:23" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="B125" s="117" t="s">
         <v>713</v>
@@ -18933,18 +19154,20 @@
         <v>543</v>
       </c>
       <c r="E125" s="56" t="s">
-        <v>945</v>
+        <v>1116</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>1074</v>
+        <v>1117</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>1075</v>
+        <v>1119</v>
       </c>
       <c r="H125" s="126" t="s">
-        <v>894</v>
-      </c>
-      <c r="I125" s="126"/>
+        <v>1121</v>
+      </c>
+      <c r="I125" s="126" t="s">
+        <v>1132</v>
+      </c>
       <c r="J125" s="4" t="s">
         <v>43</v>
       </c>
@@ -18964,9 +19187,9 @@
       <c r="V125" s="4"/>
       <c r="W125" s="4"/>
     </row>
-    <row r="126" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
-        <v>1163</v>
+        <v>678</v>
       </c>
       <c r="B126" s="117" t="s">
         <v>713</v>
@@ -18978,20 +19201,18 @@
         <v>543</v>
       </c>
       <c r="E126" s="56" t="s">
-        <v>945</v>
+        <v>1116</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>1168</v>
+        <v>1155</v>
       </c>
       <c r="H126" s="126" t="s">
-        <v>1166</v>
-      </c>
-      <c r="I126" s="126" t="s">
-        <v>1169</v>
-      </c>
+        <v>1156</v>
+      </c>
+      <c r="I126" s="126"/>
       <c r="J126" s="4" t="s">
         <v>44</v>
       </c>
@@ -19011,9 +19232,9 @@
       <c r="V126" s="4"/>
       <c r="W126" s="4"/>
     </row>
-    <row r="127" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
-        <v>664</v>
+        <v>682</v>
       </c>
       <c r="B127" s="117" t="s">
         <v>713</v>
@@ -19025,16 +19246,16 @@
         <v>543</v>
       </c>
       <c r="E127" s="56" t="s">
-        <v>1172</v>
+        <v>914</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>949</v>
+        <v>879</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>1179</v>
+        <v>880</v>
       </c>
       <c r="H127" s="126" t="s">
-        <v>951</v>
+        <v>881</v>
       </c>
       <c r="I127" s="126"/>
       <c r="J127" s="4" t="s">
@@ -19056,9 +19277,9 @@
       <c r="V127" s="4"/>
       <c r="W127" s="4"/>
     </row>
-    <row r="128" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
-        <v>665</v>
+        <v>683</v>
       </c>
       <c r="B128" s="117" t="s">
         <v>713</v>
@@ -19070,20 +19291,20 @@
         <v>543</v>
       </c>
       <c r="E128" s="56" t="s">
-        <v>1172</v>
+        <v>914</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>950</v>
+        <v>1107</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>1180</v>
+        <v>1108</v>
       </c>
       <c r="H128" s="126" t="s">
-        <v>952</v>
+        <v>1109</v>
       </c>
       <c r="I128" s="126"/>
       <c r="J128" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K128" s="4"/>
       <c r="L128" s="4" t="s">
@@ -19101,9 +19322,9 @@
       <c r="V128" s="4"/>
       <c r="W128" s="4"/>
     </row>
-    <row r="129" spans="1:23" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4" t="s">
-        <v>666</v>
+        <v>732</v>
       </c>
       <c r="B129" s="117" t="s">
         <v>713</v>
@@ -19115,16 +19336,16 @@
         <v>543</v>
       </c>
       <c r="E129" s="56" t="s">
-        <v>1189</v>
+        <v>914</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>1183</v>
+        <v>1035</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>1184</v>
+        <v>1036</v>
       </c>
       <c r="H129" s="126" t="s">
-        <v>1185</v>
+        <v>1037</v>
       </c>
       <c r="I129" s="126"/>
       <c r="J129" s="4" t="s">
@@ -19146,9 +19367,9 @@
       <c r="V129" s="4"/>
       <c r="W129" s="4"/>
     </row>
-    <row r="130" spans="1:23" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4" t="s">
-        <v>667</v>
+        <v>733</v>
       </c>
       <c r="B130" s="117" t="s">
         <v>713</v>
@@ -19160,20 +19381,20 @@
         <v>543</v>
       </c>
       <c r="E130" s="56" t="s">
-        <v>1190</v>
+        <v>914</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>1186</v>
+        <v>1038</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>1187</v>
+        <v>1039</v>
       </c>
       <c r="H130" s="126" t="s">
-        <v>1188</v>
+        <v>884</v>
       </c>
       <c r="I130" s="126"/>
       <c r="J130" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K130" s="4"/>
       <c r="L130" s="4" t="s">
@@ -19191,9 +19412,9 @@
       <c r="V130" s="4"/>
       <c r="W130" s="4"/>
     </row>
-    <row r="131" spans="1:23" ht="98.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4" t="s">
-        <v>662</v>
+        <v>734</v>
       </c>
       <c r="B131" s="117" t="s">
         <v>713</v>
@@ -19205,20 +19426,22 @@
         <v>543</v>
       </c>
       <c r="E131" s="56" t="s">
-        <v>945</v>
+        <v>914</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>1174</v>
+        <v>1128</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>1161</v>
+        <v>1129</v>
       </c>
       <c r="H131" s="126" t="s">
-        <v>1181</v>
-      </c>
-      <c r="I131" s="126"/>
+        <v>1127</v>
+      </c>
+      <c r="I131" s="126" t="s">
+        <v>1130</v>
+      </c>
       <c r="J131" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K131" s="4"/>
       <c r="L131" s="4" t="s">
@@ -19236,9 +19459,9 @@
       <c r="V131" s="4"/>
       <c r="W131" s="4"/>
     </row>
-    <row r="132" spans="1:23" ht="132" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4" t="s">
-        <v>662</v>
+        <v>735</v>
       </c>
       <c r="B132" s="117" t="s">
         <v>713</v>
@@ -19250,20 +19473,18 @@
         <v>543</v>
       </c>
       <c r="E132" s="56" t="s">
-        <v>1154</v>
+        <v>1133</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>1175</v>
+        <v>918</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>1177</v>
+        <v>1140</v>
       </c>
       <c r="H132" s="126" t="s">
-        <v>1182</v>
-      </c>
-      <c r="I132" s="126" t="s">
-        <v>1170</v>
-      </c>
+        <v>920</v>
+      </c>
+      <c r="I132" s="126"/>
       <c r="J132" s="4" t="s">
         <v>43</v>
       </c>
@@ -19283,9 +19504,9 @@
       <c r="V132" s="4"/>
       <c r="W132" s="4"/>
     </row>
-    <row r="133" spans="1:23" ht="144" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4" t="s">
-        <v>663</v>
+        <v>736</v>
       </c>
       <c r="B133" s="117" t="s">
         <v>713</v>
@@ -19297,20 +19518,18 @@
         <v>543</v>
       </c>
       <c r="E133" s="56" t="s">
-        <v>1154</v>
+        <v>1133</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>1176</v>
+        <v>919</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>1178</v>
+        <v>1141</v>
       </c>
       <c r="H133" s="126" t="s">
-        <v>1159</v>
-      </c>
-      <c r="I133" s="126" t="s">
-        <v>1171</v>
-      </c>
+        <v>921</v>
+      </c>
+      <c r="I133" s="126"/>
       <c r="J133" s="4" t="s">
         <v>43</v>
       </c>
@@ -19330,9 +19549,9 @@
       <c r="V133" s="4"/>
       <c r="W133" s="4"/>
     </row>
-    <row r="134" spans="1:23" ht="93" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4" t="s">
-        <v>1195</v>
+        <v>737</v>
       </c>
       <c r="B134" s="117" t="s">
         <v>713</v>
@@ -19344,20 +19563,22 @@
         <v>543</v>
       </c>
       <c r="E134" s="56" t="s">
-        <v>1154</v>
+        <v>1206</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>1199</v>
+        <v>1207</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>1196</v>
+        <v>1208</v>
       </c>
       <c r="H134" s="126" t="s">
-        <v>1200</v>
-      </c>
-      <c r="I134" s="126"/>
+        <v>1212</v>
+      </c>
+      <c r="I134" s="126" t="s">
+        <v>1209</v>
+      </c>
       <c r="J134" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K134" s="4"/>
       <c r="L134" s="4" t="s">
@@ -19375,9 +19596,9 @@
       <c r="V134" s="4"/>
       <c r="W134" s="4"/>
     </row>
-    <row r="135" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
-        <v>666</v>
+        <v>774</v>
       </c>
       <c r="B135" s="117" t="s">
         <v>713</v>
@@ -19389,20 +19610,20 @@
         <v>543</v>
       </c>
       <c r="E135" s="56" t="s">
-        <v>945</v>
+        <v>1206</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>891</v>
+        <v>1210</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>892</v>
+        <v>1211</v>
       </c>
       <c r="H135" s="126" t="s">
-        <v>893</v>
+        <v>1213</v>
       </c>
       <c r="I135" s="126"/>
       <c r="J135" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K135" s="4"/>
       <c r="L135" s="4" t="s">
@@ -19420,9 +19641,9 @@
       <c r="V135" s="4"/>
       <c r="W135" s="4"/>
     </row>
-    <row r="136" spans="1:23" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4" t="s">
-        <v>663</v>
+        <v>737</v>
       </c>
       <c r="B136" s="117" t="s">
         <v>713</v>
@@ -19434,20 +19655,20 @@
         <v>543</v>
       </c>
       <c r="E136" s="56" t="s">
-        <v>945</v>
+        <v>1148</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="H136" s="126" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="I136" s="126"/>
       <c r="J136" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K136" s="4"/>
       <c r="L136" s="4" t="s">
@@ -19465,9 +19686,9 @@
       <c r="V136" s="4"/>
       <c r="W136" s="4"/>
     </row>
-    <row r="137" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4" t="s">
-        <v>667</v>
+        <v>774</v>
       </c>
       <c r="B137" s="117" t="s">
         <v>713</v>
@@ -19475,24 +19696,24 @@
       <c r="C137" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="D137" s="4" t="s">
+      <c r="D137" s="56" t="s">
         <v>543</v>
       </c>
-      <c r="E137" s="4" t="s">
-        <v>718</v>
+      <c r="E137" s="56" t="s">
+        <v>1149</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>1091</v>
+        <v>1145</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>1092</v>
+        <v>1146</v>
       </c>
       <c r="H137" s="126" t="s">
-        <v>1093</v>
+        <v>1147</v>
       </c>
       <c r="I137" s="126"/>
       <c r="J137" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K137" s="4"/>
       <c r="L137" s="4" t="s">
@@ -19510,9 +19731,9 @@
       <c r="V137" s="4"/>
       <c r="W137" s="4"/>
     </row>
-    <row r="138" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B138" s="117" t="s">
         <v>713</v>
@@ -19520,24 +19741,24 @@
       <c r="C138" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="D138" s="4" t="s">
+      <c r="D138" s="56" t="s">
         <v>543</v>
       </c>
-      <c r="E138" s="4" t="s">
-        <v>718</v>
+      <c r="E138" s="56" t="s">
+        <v>1216</v>
       </c>
       <c r="F138" s="4" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G138" s="4" t="s">
         <v>1094</v>
       </c>
-      <c r="G138" s="4" t="s">
+      <c r="H138" s="126" t="s">
         <v>1095</v>
-      </c>
-      <c r="H138" s="126" t="s">
-        <v>1096</v>
       </c>
       <c r="I138" s="126"/>
       <c r="J138" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K138" s="4"/>
       <c r="L138" s="4" t="s">
@@ -19555,9 +19776,9 @@
       <c r="V138" s="4"/>
       <c r="W138" s="4"/>
     </row>
-    <row r="139" spans="1:23" ht="126" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4" t="s">
-        <v>668</v>
+        <v>775</v>
       </c>
       <c r="B139" s="117" t="s">
         <v>713</v>
@@ -19565,20 +19786,20 @@
       <c r="C139" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="D139" s="4" t="s">
+      <c r="D139" s="56" t="s">
         <v>543</v>
       </c>
-      <c r="E139" s="4" t="s">
-        <v>911</v>
+      <c r="E139" s="56" t="s">
+        <v>914</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>910</v>
+        <v>1135</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>914</v>
+        <v>1123</v>
       </c>
       <c r="H139" s="126" t="s">
-        <v>915</v>
+        <v>1225</v>
       </c>
       <c r="I139" s="126"/>
       <c r="J139" s="4" t="s">
@@ -19600,9 +19821,9 @@
       <c r="V139" s="4"/>
       <c r="W139" s="4"/>
     </row>
-    <row r="140" spans="1:23" ht="84" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4" t="s">
-        <v>669</v>
+        <v>776</v>
       </c>
       <c r="B140" s="117" t="s">
         <v>713</v>
@@ -19610,22 +19831,24 @@
       <c r="C140" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="D140" s="4" t="s">
+      <c r="D140" s="56" t="s">
         <v>543</v>
       </c>
-      <c r="E140" s="4" t="s">
-        <v>911</v>
+      <c r="E140" s="56" t="s">
+        <v>1116</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>912</v>
+        <v>1136</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>916</v>
+        <v>1138</v>
       </c>
       <c r="H140" s="126" t="s">
-        <v>917</v>
-      </c>
-      <c r="I140" s="126"/>
+        <v>1237</v>
+      </c>
+      <c r="I140" s="126" t="s">
+        <v>1131</v>
+      </c>
       <c r="J140" s="4" t="s">
         <v>43</v>
       </c>
@@ -19645,9 +19868,9 @@
       <c r="V140" s="4"/>
       <c r="W140" s="4"/>
     </row>
-    <row r="141" spans="1:23" ht="84" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
-        <v>670</v>
+        <v>777</v>
       </c>
       <c r="B141" s="117" t="s">
         <v>713</v>
@@ -19655,22 +19878,24 @@
       <c r="C141" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="D141" s="4" t="s">
+      <c r="D141" s="56" t="s">
         <v>543</v>
       </c>
-      <c r="E141" s="4" t="s">
-        <v>911</v>
+      <c r="E141" s="56" t="s">
+        <v>1116</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>918</v>
+        <v>1137</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>919</v>
+        <v>1139</v>
       </c>
       <c r="H141" s="126" t="s">
-        <v>920</v>
-      </c>
-      <c r="I141" s="126"/>
+        <v>1238</v>
+      </c>
+      <c r="I141" s="126" t="s">
+        <v>1132</v>
+      </c>
       <c r="J141" s="4" t="s">
         <v>43</v>
       </c>
@@ -19690,9 +19915,9 @@
       <c r="V141" s="4"/>
       <c r="W141" s="4"/>
     </row>
-    <row r="142" spans="1:23" ht="84" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
-        <v>671</v>
+        <v>778</v>
       </c>
       <c r="B142" s="117" t="s">
         <v>713</v>
@@ -19700,20 +19925,20 @@
       <c r="C142" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="D142" s="4" t="s">
+      <c r="D142" s="56" t="s">
         <v>543</v>
       </c>
-      <c r="E142" s="4" t="s">
-        <v>913</v>
+      <c r="E142" s="56" t="s">
+        <v>1116</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>923</v>
+        <v>1158</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>921</v>
+        <v>1155</v>
       </c>
       <c r="H142" s="126" t="s">
-        <v>922</v>
+        <v>1159</v>
       </c>
       <c r="I142" s="126"/>
       <c r="J142" s="4" t="s">
@@ -19735,9 +19960,9 @@
       <c r="V142" s="4"/>
       <c r="W142" s="4"/>
     </row>
-    <row r="143" spans="1:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
-        <v>672</v>
+        <v>782</v>
       </c>
       <c r="B143" s="117" t="s">
         <v>713</v>
@@ -19749,16 +19974,16 @@
         <v>543</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>953</v>
+        <v>718</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>924</v>
+        <v>1202</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>925</v>
+        <v>1058</v>
       </c>
       <c r="H143" s="126" t="s">
-        <v>931</v>
+        <v>1059</v>
       </c>
       <c r="I143" s="126"/>
       <c r="J143" s="4" t="s">
@@ -19780,9 +20005,9 @@
       <c r="V143" s="4"/>
       <c r="W143" s="4"/>
     </row>
-    <row r="144" spans="1:23" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
-        <v>673</v>
+        <v>785</v>
       </c>
       <c r="B144" s="117" t="s">
         <v>713</v>
@@ -19794,20 +20019,20 @@
         <v>543</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>954</v>
+        <v>922</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>926</v>
+        <v>1060</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>927</v>
+        <v>1061</v>
       </c>
       <c r="H144" s="126" t="s">
-        <v>928</v>
+        <v>1062</v>
       </c>
       <c r="I144" s="126"/>
       <c r="J144" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K144" s="4"/>
       <c r="L144" s="4" t="s">
@@ -19825,9 +20050,9 @@
       <c r="V144" s="4"/>
       <c r="W144" s="4"/>
     </row>
-    <row r="145" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
-        <v>674</v>
+        <v>786</v>
       </c>
       <c r="B145" s="117" t="s">
         <v>713</v>
@@ -19839,16 +20064,16 @@
         <v>543</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>955</v>
+        <v>719</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>929</v>
+        <v>1063</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>930</v>
+        <v>1064</v>
       </c>
       <c r="H145" s="126" t="s">
-        <v>932</v>
+        <v>1067</v>
       </c>
       <c r="I145" s="126"/>
       <c r="J145" s="4" t="s">
@@ -19870,9 +20095,9 @@
       <c r="V145" s="4"/>
       <c r="W145" s="4"/>
     </row>
-    <row r="146" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4" t="s">
-        <v>675</v>
+        <v>779</v>
       </c>
       <c r="B146" s="117" t="s">
         <v>713</v>
@@ -19880,20 +20105,20 @@
       <c r="C146" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="D146" s="4" t="s">
+      <c r="D146" s="56" t="s">
         <v>543</v>
       </c>
-      <c r="E146" s="4" t="s">
-        <v>956</v>
+      <c r="E146" s="56" t="s">
+        <v>914</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>1097</v>
+        <v>1203</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>1098</v>
+        <v>1205</v>
       </c>
       <c r="H146" s="126" t="s">
-        <v>1099</v>
+        <v>883</v>
       </c>
       <c r="I146" s="126"/>
       <c r="J146" s="4" t="s">
@@ -19915,9 +20140,9 @@
       <c r="V146" s="4"/>
       <c r="W146" s="4"/>
     </row>
-    <row r="147" spans="1:23" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4" t="s">
-        <v>676</v>
+        <v>780</v>
       </c>
       <c r="B147" s="117" t="s">
         <v>713</v>
@@ -19925,24 +20150,24 @@
       <c r="C147" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="D147" s="4" t="s">
+      <c r="D147" s="56" t="s">
         <v>543</v>
       </c>
-      <c r="E147" s="4" t="s">
-        <v>719</v>
+      <c r="E147" s="56" t="s">
+        <v>914</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>1100</v>
+        <v>1204</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>1101</v>
+        <v>1110</v>
       </c>
       <c r="H147" s="126" t="s">
-        <v>1104</v>
+        <v>1111</v>
       </c>
       <c r="I147" s="126"/>
       <c r="J147" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K147" s="4"/>
       <c r="L147" s="4" t="s">
@@ -19960,9 +20185,9 @@
       <c r="V147" s="4"/>
       <c r="W147" s="4"/>
     </row>
-    <row r="148" spans="1:23" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
-        <v>677</v>
+        <v>787</v>
       </c>
       <c r="B148" s="117" t="s">
         <v>713</v>
@@ -19977,13 +20202,13 @@
         <v>719</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>957</v>
+        <v>923</v>
       </c>
       <c r="G148" s="4" t="s">
         <v>721</v>
       </c>
       <c r="H148" s="126" t="s">
-        <v>934</v>
+        <v>905</v>
       </c>
       <c r="I148" s="126" t="s">
         <v>723</v>
@@ -20007,9 +20232,9 @@
       <c r="V148" s="4"/>
       <c r="W148" s="4"/>
     </row>
-    <row r="149" spans="1:23" ht="90" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4" t="s">
-        <v>678</v>
+        <v>788</v>
       </c>
       <c r="B149" s="117" t="s">
         <v>713</v>
@@ -20024,13 +20249,13 @@
         <v>719</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>958</v>
+        <v>924</v>
       </c>
       <c r="G149" s="4" t="s">
         <v>720</v>
       </c>
       <c r="H149" s="126" t="s">
-        <v>935</v>
+        <v>906</v>
       </c>
       <c r="I149" s="126" t="s">
         <v>722</v>
@@ -20054,9 +20279,9 @@
       <c r="V149" s="4"/>
       <c r="W149" s="4"/>
     </row>
-    <row r="150" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4" t="s">
-        <v>682</v>
+        <v>734</v>
       </c>
       <c r="B150" s="117" t="s">
         <v>713</v>
@@ -20068,20 +20293,22 @@
         <v>543</v>
       </c>
       <c r="E150" s="56" t="s">
-        <v>719</v>
-      </c>
-      <c r="F150" s="40" t="s">
-        <v>959</v>
-      </c>
-      <c r="G150" s="56" t="s">
-        <v>799</v>
-      </c>
-      <c r="H150" s="128" t="s">
-        <v>724</v>
-      </c>
-      <c r="I150" s="126"/>
+        <v>1240</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H150" s="126" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I150" s="126" t="s">
+        <v>1243</v>
+      </c>
       <c r="J150" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K150" s="4"/>
       <c r="L150" s="4" t="s">
@@ -20099,9 +20326,9 @@
       <c r="V150" s="4"/>
       <c r="W150" s="4"/>
     </row>
-    <row r="151" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="B151" s="117" t="s">
         <v>713</v>
@@ -20109,24 +20336,26 @@
       <c r="C151" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="D151" s="4" t="s">
+      <c r="D151" s="56" t="s">
         <v>543</v>
       </c>
-      <c r="E151" s="4" t="s">
-        <v>719</v>
+      <c r="E151" s="56" t="s">
+        <v>1206</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>1105</v>
+        <v>1214</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>933</v>
+        <v>1146</v>
       </c>
       <c r="H151" s="126" t="s">
-        <v>725</v>
-      </c>
-      <c r="I151" s="126"/>
+        <v>1215</v>
+      </c>
+      <c r="I151" s="126" t="s">
+        <v>1223</v>
+      </c>
       <c r="J151" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K151" s="4"/>
       <c r="L151" s="4" t="s">
@@ -20144,9 +20373,9 @@
       <c r="V151" s="4"/>
       <c r="W151" s="4"/>
     </row>
-    <row r="152" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4" t="s">
-        <v>733</v>
+        <v>663</v>
       </c>
       <c r="B152" s="117" t="s">
         <v>713</v>
@@ -20154,24 +20383,24 @@
       <c r="C152" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="D152" s="4" t="s">
+      <c r="D152" s="56" t="s">
         <v>543</v>
       </c>
-      <c r="E152" s="4" t="s">
-        <v>719</v>
+      <c r="E152" s="56" t="s">
+        <v>1216</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>1106</v>
+        <v>1222</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>1107</v>
+        <v>1094</v>
       </c>
       <c r="H152" s="126" t="s">
-        <v>1108</v>
+        <v>1095</v>
       </c>
       <c r="I152" s="126"/>
       <c r="J152" s="4" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="K152" s="4"/>
       <c r="L152" s="4" t="s">
@@ -20189,9 +20418,9 @@
       <c r="V152" s="4"/>
       <c r="W152" s="4"/>
     </row>
-    <row r="153" spans="1:23" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4" t="s">
-        <v>733</v>
+        <v>660</v>
       </c>
       <c r="B153" s="117" t="s">
         <v>713</v>
@@ -20199,24 +20428,26 @@
       <c r="C153" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="D153" s="4" t="s">
+      <c r="D153" s="56" t="s">
         <v>543</v>
       </c>
-      <c r="E153" s="4" t="s">
-        <v>719</v>
+      <c r="E153" s="56" t="s">
+        <v>799</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>962</v>
+        <v>1219</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>936</v>
+        <v>899</v>
       </c>
       <c r="H153" s="126" t="s">
-        <v>937</v>
-      </c>
-      <c r="I153" s="126"/>
+        <v>1221</v>
+      </c>
+      <c r="I153" s="126" t="s">
+        <v>1224</v>
+      </c>
       <c r="J153" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K153" s="4"/>
       <c r="L153" s="4" t="s">
@@ -20234,9 +20465,9 @@
       <c r="V153" s="4"/>
       <c r="W153" s="4"/>
     </row>
-    <row r="154" spans="1:23" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4" t="s">
-        <v>734</v>
+        <v>661</v>
       </c>
       <c r="B154" s="117" t="s">
         <v>713</v>
@@ -20244,24 +20475,24 @@
       <c r="C154" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="D154" s="4" t="s">
+      <c r="D154" s="56" t="s">
         <v>543</v>
       </c>
-      <c r="E154" s="4" t="s">
-        <v>719</v>
+      <c r="E154" s="56" t="s">
+        <v>802</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>726</v>
+        <v>1220</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>960</v>
+        <v>1092</v>
       </c>
       <c r="H154" s="126" t="s">
-        <v>727</v>
+        <v>1093</v>
       </c>
       <c r="I154" s="126"/>
       <c r="J154" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K154" s="4"/>
       <c r="L154" s="4" t="s">
@@ -20279,9 +20510,9 @@
       <c r="V154" s="4"/>
       <c r="W154" s="4"/>
     </row>
-    <row r="155" spans="1:23" ht="48" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4" t="s">
-        <v>735</v>
+        <v>789</v>
       </c>
       <c r="B155" s="117" t="s">
         <v>713</v>
@@ -20296,17 +20527,17 @@
         <v>719</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>728</v>
+        <v>1068</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>961</v>
+        <v>904</v>
       </c>
       <c r="H155" s="126" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="I155" s="126"/>
       <c r="J155" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K155" s="4"/>
       <c r="L155" s="4" t="s">
@@ -20324,9 +20555,9 @@
       <c r="V155" s="4"/>
       <c r="W155" s="4"/>
     </row>
-    <row r="156" spans="1:23" ht="72" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4" t="s">
-        <v>736</v>
+        <v>790</v>
       </c>
       <c r="B156" s="117" t="s">
         <v>713</v>
@@ -20338,20 +20569,20 @@
         <v>543</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>1102</v>
+        <v>1069</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>731</v>
+        <v>1070</v>
       </c>
       <c r="H156" s="126" t="s">
-        <v>732</v>
+        <v>1071</v>
       </c>
       <c r="I156" s="126"/>
       <c r="J156" s="4" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="K156" s="4"/>
       <c r="L156" s="4" t="s">
@@ -20369,9 +20600,9 @@
       <c r="V156" s="4"/>
       <c r="W156" s="4"/>
     </row>
-    <row r="157" spans="1:23" ht="60" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4" t="s">
-        <v>737</v>
+        <v>791</v>
       </c>
       <c r="B157" s="117" t="s">
         <v>713</v>
@@ -20383,16 +20614,16 @@
         <v>543</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>1103</v>
+        <v>1227</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>731</v>
+        <v>1228</v>
       </c>
       <c r="H157" s="126" t="s">
-        <v>868</v>
+        <v>1229</v>
       </c>
       <c r="I157" s="126"/>
       <c r="J157" s="4" t="s">
@@ -20414,34 +20645,36 @@
       <c r="V157" s="4"/>
       <c r="W157" s="4"/>
     </row>
-    <row r="158" spans="1:23" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4" t="s">
-        <v>638</v>
-      </c>
-      <c r="B158" s="130" t="s">
-        <v>1112</v>
+        <v>776</v>
+      </c>
+      <c r="B158" s="117" t="s">
+        <v>713</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D158" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="E158" s="4" t="s">
-        <v>762</v>
+        <v>714</v>
+      </c>
+      <c r="D158" s="56" t="s">
+        <v>543</v>
+      </c>
+      <c r="E158" s="56" t="s">
+        <v>1230</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>1109</v>
+        <v>1232</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>1110</v>
+        <v>1233</v>
       </c>
       <c r="H158" s="126" t="s">
-        <v>1111</v>
-      </c>
-      <c r="I158" s="128"/>
+        <v>1236</v>
+      </c>
+      <c r="I158" s="126" t="s">
+        <v>1239</v>
+      </c>
       <c r="J158" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K158" s="4"/>
       <c r="L158" s="4" t="s">
@@ -20459,21 +20692,41 @@
       <c r="V158" s="4"/>
       <c r="W158" s="4"/>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4" t="s">
-        <v>738</v>
-      </c>
-      <c r="B159" s="4"/>
-      <c r="C159" s="4"/>
-      <c r="D159" s="4"/>
-      <c r="E159" s="4"/>
-      <c r="F159" s="4"/>
-      <c r="G159" s="4"/>
-      <c r="H159" s="126"/>
-      <c r="I159" s="126"/>
-      <c r="J159" s="4"/>
+        <v>777</v>
+      </c>
+      <c r="B159" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="D159" s="56" t="s">
+        <v>543</v>
+      </c>
+      <c r="E159" s="56" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H159" s="126" t="s">
+        <v>1235</v>
+      </c>
+      <c r="I159" s="126" t="s">
+        <v>1239</v>
+      </c>
+      <c r="J159" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K159" s="4"/>
-      <c r="L159" s="4"/>
+      <c r="L159" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M159" s="4"/>
       <c r="N159" s="4"/>
       <c r="O159" s="4"/>
@@ -20486,21 +20739,39 @@
       <c r="V159" s="4"/>
       <c r="W159" s="4"/>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4" t="s">
-        <v>775</v>
-      </c>
-      <c r="B160" s="4"/>
-      <c r="C160" s="4"/>
-      <c r="D160" s="4"/>
-      <c r="E160" s="4"/>
-      <c r="F160" s="4"/>
-      <c r="G160" s="4"/>
-      <c r="H160" s="126"/>
+        <v>778</v>
+      </c>
+      <c r="B160" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="D160" s="56" t="s">
+        <v>543</v>
+      </c>
+      <c r="E160" s="56" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>1245</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H160" s="126" t="s">
+        <v>1246</v>
+      </c>
       <c r="I160" s="126"/>
-      <c r="J160" s="4"/>
+      <c r="J160" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="K160" s="4"/>
-      <c r="L160" s="4"/>
+      <c r="L160" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M160" s="4"/>
       <c r="N160" s="4"/>
       <c r="O160" s="4"/>
@@ -20513,21 +20784,39 @@
       <c r="V160" s="4"/>
       <c r="W160" s="4"/>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4" t="s">
-        <v>776</v>
-      </c>
-      <c r="B161" s="4"/>
-      <c r="C161" s="4"/>
-      <c r="D161" s="4"/>
-      <c r="E161" s="4"/>
-      <c r="F161" s="4"/>
-      <c r="G161" s="4"/>
-      <c r="H161" s="126"/>
+        <v>783</v>
+      </c>
+      <c r="B161" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="H161" s="126" t="s">
+        <v>1248</v>
+      </c>
       <c r="I161" s="126"/>
-      <c r="J161" s="4"/>
+      <c r="J161" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K161" s="4"/>
-      <c r="L161" s="4"/>
+      <c r="L161" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M161" s="4"/>
       <c r="N161" s="4"/>
       <c r="O161" s="4"/>
@@ -20540,21 +20829,39 @@
       <c r="V161" s="4"/>
       <c r="W161" s="4"/>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4" t="s">
-        <v>777</v>
-      </c>
-      <c r="B162" s="4"/>
-      <c r="C162" s="4"/>
-      <c r="D162" s="4"/>
-      <c r="E162" s="4"/>
-      <c r="F162" s="4"/>
-      <c r="G162" s="4"/>
-      <c r="H162" s="126"/>
+        <v>784</v>
+      </c>
+      <c r="B162" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="H162" s="126" t="s">
+        <v>1249</v>
+      </c>
       <c r="I162" s="126"/>
-      <c r="J162" s="4"/>
+      <c r="J162" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="K162" s="4"/>
-      <c r="L162" s="4"/>
+      <c r="L162" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M162" s="4"/>
       <c r="N162" s="4"/>
       <c r="O162" s="4"/>
@@ -20567,21 +20874,39 @@
       <c r="V162" s="4"/>
       <c r="W162" s="4"/>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4" t="s">
-        <v>778</v>
-      </c>
-      <c r="B163" s="4"/>
-      <c r="C163" s="4"/>
-      <c r="D163" s="4"/>
-      <c r="E163" s="4"/>
-      <c r="F163" s="4"/>
-      <c r="G163" s="4"/>
-      <c r="H163" s="126"/>
+        <v>829</v>
+      </c>
+      <c r="B163" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="H163" s="126" t="s">
+        <v>726</v>
+      </c>
       <c r="I163" s="126"/>
-      <c r="J163" s="4"/>
+      <c r="J163" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K163" s="4"/>
-      <c r="L163" s="4"/>
+      <c r="L163" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M163" s="4"/>
       <c r="N163" s="4"/>
       <c r="O163" s="4"/>
@@ -20594,21 +20919,39 @@
       <c r="V163" s="4"/>
       <c r="W163" s="4"/>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4" t="s">
-        <v>779</v>
-      </c>
-      <c r="B164" s="4"/>
-      <c r="C164" s="4"/>
-      <c r="D164" s="4"/>
-      <c r="E164" s="4"/>
-      <c r="F164" s="4"/>
-      <c r="G164" s="4"/>
-      <c r="H164" s="126"/>
+        <v>928</v>
+      </c>
+      <c r="B164" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="H164" s="126" t="s">
+        <v>728</v>
+      </c>
       <c r="I164" s="126"/>
-      <c r="J164" s="4"/>
+      <c r="J164" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K164" s="4"/>
-      <c r="L164" s="4"/>
+      <c r="L164" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M164" s="4"/>
       <c r="N164" s="4"/>
       <c r="O164" s="4"/>
@@ -20621,21 +20964,39 @@
       <c r="V164" s="4"/>
       <c r="W164" s="4"/>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4" t="s">
-        <v>780</v>
-      </c>
-      <c r="B165" s="4"/>
-      <c r="C165" s="4"/>
-      <c r="D165" s="4"/>
-      <c r="E165" s="4"/>
-      <c r="F165" s="4"/>
-      <c r="G165" s="4"/>
-      <c r="H165" s="126"/>
+        <v>929</v>
+      </c>
+      <c r="B165" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="H165" s="126" t="s">
+        <v>731</v>
+      </c>
       <c r="I165" s="126"/>
-      <c r="J165" s="4"/>
+      <c r="J165" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K165" s="4"/>
-      <c r="L165" s="4"/>
+      <c r="L165" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M165" s="4"/>
       <c r="N165" s="4"/>
       <c r="O165" s="4"/>
@@ -20648,21 +21009,39 @@
       <c r="V165" s="4"/>
       <c r="W165" s="4"/>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4" t="s">
-        <v>781</v>
-      </c>
-      <c r="B166" s="4"/>
-      <c r="C166" s="4"/>
-      <c r="D166" s="4"/>
-      <c r="E166" s="4"/>
-      <c r="F166" s="4"/>
-      <c r="G166" s="4"/>
-      <c r="H166" s="126"/>
+        <v>930</v>
+      </c>
+      <c r="B166" s="117" t="s">
+        <v>713</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="H166" s="126" t="s">
+        <v>860</v>
+      </c>
       <c r="I166" s="126"/>
-      <c r="J166" s="4"/>
+      <c r="J166" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K166" s="4"/>
-      <c r="L166" s="4"/>
+      <c r="L166" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M166" s="4"/>
       <c r="N166" s="4"/>
       <c r="O166" s="4"/>
@@ -20675,21 +21054,39 @@
       <c r="V166" s="4"/>
       <c r="W166" s="4"/>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4" t="s">
-        <v>782</v>
-      </c>
-      <c r="B167" s="4"/>
-      <c r="C167" s="4"/>
-      <c r="D167" s="4"/>
-      <c r="E167" s="4"/>
-      <c r="F167" s="4"/>
-      <c r="G167" s="4"/>
-      <c r="H167" s="126"/>
-      <c r="I167" s="126"/>
-      <c r="J167" s="4"/>
+        <v>931</v>
+      </c>
+      <c r="B167" s="130" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H167" s="126" t="s">
+        <v>1074</v>
+      </c>
+      <c r="I167" s="128"/>
+      <c r="J167" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="K167" s="4"/>
-      <c r="L167" s="4"/>
+      <c r="L167" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M167" s="4"/>
       <c r="N167" s="4"/>
       <c r="O167" s="4"/>
@@ -20702,9 +21099,9 @@
       <c r="V167" s="4"/>
       <c r="W167" s="4"/>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4" t="s">
-        <v>783</v>
+        <v>932</v>
       </c>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -20729,9 +21126,9 @@
       <c r="V168" s="4"/>
       <c r="W168" s="4"/>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4" t="s">
-        <v>784</v>
+        <v>933</v>
       </c>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -20756,9 +21153,9 @@
       <c r="V169" s="4"/>
       <c r="W169" s="4"/>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4" t="s">
-        <v>785</v>
+        <v>934</v>
       </c>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -20783,9 +21180,9 @@
       <c r="V170" s="4"/>
       <c r="W170" s="4"/>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4" t="s">
-        <v>786</v>
+        <v>935</v>
       </c>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -20810,9 +21207,9 @@
       <c r="V171" s="4"/>
       <c r="W171" s="4"/>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4" t="s">
-        <v>787</v>
+        <v>936</v>
       </c>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -20837,9 +21234,9 @@
       <c r="V172" s="4"/>
       <c r="W172" s="4"/>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4" t="s">
-        <v>788</v>
+        <v>937</v>
       </c>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -20864,9 +21261,9 @@
       <c r="V173" s="4"/>
       <c r="W173" s="4"/>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4" t="s">
-        <v>789</v>
+        <v>938</v>
       </c>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -20891,9 +21288,9 @@
       <c r="V174" s="4"/>
       <c r="W174" s="4"/>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4" t="s">
-        <v>790</v>
+        <v>939</v>
       </c>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -20918,9 +21315,9 @@
       <c r="V175" s="4"/>
       <c r="W175" s="4"/>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4" t="s">
-        <v>791</v>
+        <v>940</v>
       </c>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -20945,9 +21342,9 @@
       <c r="V176" s="4"/>
       <c r="W176" s="4"/>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4" t="s">
-        <v>792</v>
+        <v>941</v>
       </c>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -20972,9 +21369,9 @@
       <c r="V177" s="4"/>
       <c r="W177" s="4"/>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4" t="s">
-        <v>793</v>
+        <v>942</v>
       </c>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -20999,9 +21396,9 @@
       <c r="V178" s="4"/>
       <c r="W178" s="4"/>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4" t="s">
-        <v>794</v>
+        <v>943</v>
       </c>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -21026,9 +21423,9 @@
       <c r="V179" s="4"/>
       <c r="W179" s="4"/>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4" t="s">
-        <v>795</v>
+        <v>944</v>
       </c>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -21053,9 +21450,9 @@
       <c r="V180" s="4"/>
       <c r="W180" s="4"/>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4" t="s">
-        <v>796</v>
+        <v>945</v>
       </c>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -21080,9 +21477,9 @@
       <c r="V181" s="4"/>
       <c r="W181" s="4"/>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4" t="s">
-        <v>797</v>
+        <v>963</v>
       </c>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -21107,9 +21504,9 @@
       <c r="V182" s="4"/>
       <c r="W182" s="4"/>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4" t="s">
-        <v>798</v>
+        <v>964</v>
       </c>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -21134,9 +21531,9 @@
       <c r="V183" s="4"/>
       <c r="W183" s="4"/>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4" t="s">
-        <v>837</v>
+        <v>965</v>
       </c>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -21161,9 +21558,9 @@
       <c r="V184" s="4"/>
       <c r="W184" s="4"/>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -21188,9 +21585,9 @@
       <c r="V185" s="4"/>
       <c r="W185" s="4"/>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4" t="s">
-        <v>965</v>
+        <v>1014</v>
       </c>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -21215,9 +21612,9 @@
       <c r="V186" s="4"/>
       <c r="W186" s="4"/>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4" t="s">
-        <v>966</v>
+        <v>1015</v>
       </c>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -21242,9 +21639,9 @@
       <c r="V187" s="4"/>
       <c r="W187" s="4"/>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4" t="s">
-        <v>967</v>
+        <v>1016</v>
       </c>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -21269,9 +21666,9 @@
       <c r="V188" s="4"/>
       <c r="W188" s="4"/>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4" t="s">
-        <v>968</v>
+        <v>1017</v>
       </c>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -21296,9 +21693,9 @@
       <c r="V189" s="4"/>
       <c r="W189" s="4"/>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4" t="s">
-        <v>969</v>
+        <v>1018</v>
       </c>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -21323,9 +21720,9 @@
       <c r="V190" s="4"/>
       <c r="W190" s="4"/>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4" t="s">
-        <v>970</v>
+        <v>1019</v>
       </c>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -21350,9 +21747,9 @@
       <c r="V191" s="4"/>
       <c r="W191" s="4"/>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4" t="s">
-        <v>971</v>
+        <v>1020</v>
       </c>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -21377,9 +21774,9 @@
       <c r="V192" s="4"/>
       <c r="W192" s="4"/>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4" t="s">
-        <v>972</v>
+        <v>1021</v>
       </c>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -21404,9 +21801,9 @@
       <c r="V193" s="4"/>
       <c r="W193" s="4"/>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4" t="s">
-        <v>973</v>
+        <v>1022</v>
       </c>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -21431,9 +21828,9 @@
       <c r="V194" s="4"/>
       <c r="W194" s="4"/>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4" t="s">
-        <v>974</v>
+        <v>1023</v>
       </c>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -21458,9 +21855,9 @@
       <c r="V195" s="4"/>
       <c r="W195" s="4"/>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4" t="s">
-        <v>975</v>
+        <v>1024</v>
       </c>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -21485,9 +21882,9 @@
       <c r="V196" s="4"/>
       <c r="W196" s="4"/>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4" t="s">
-        <v>976</v>
+        <v>1168</v>
       </c>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -21512,9 +21909,9 @@
       <c r="V197" s="4"/>
       <c r="W197" s="4"/>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4" t="s">
-        <v>977</v>
+        <v>1169</v>
       </c>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -21539,9 +21936,9 @@
       <c r="V198" s="4"/>
       <c r="W198" s="4"/>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4" t="s">
-        <v>978</v>
+        <v>1170</v>
       </c>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -21566,9 +21963,9 @@
       <c r="V199" s="4"/>
       <c r="W199" s="4"/>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4" t="s">
-        <v>979</v>
+        <v>1171</v>
       </c>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -21593,9 +21990,9 @@
       <c r="V200" s="4"/>
       <c r="W200" s="4"/>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4" t="s">
-        <v>980</v>
+        <v>1172</v>
       </c>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -21620,9 +22017,9 @@
       <c r="V201" s="4"/>
       <c r="W201" s="4"/>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4" t="s">
-        <v>981</v>
+        <v>1173</v>
       </c>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -21647,9 +22044,9 @@
       <c r="V202" s="4"/>
       <c r="W202" s="4"/>
     </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4" t="s">
-        <v>999</v>
+        <v>1174</v>
       </c>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -21674,9 +22071,9 @@
       <c r="V203" s="4"/>
       <c r="W203" s="4"/>
     </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4" t="s">
-        <v>1000</v>
+        <v>1175</v>
       </c>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -21701,9 +22098,9 @@
       <c r="V204" s="4"/>
       <c r="W204" s="4"/>
     </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4" t="s">
-        <v>1001</v>
+        <v>1176</v>
       </c>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -21728,9 +22125,9 @@
       <c r="V205" s="4"/>
       <c r="W205" s="4"/>
     </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4" t="s">
-        <v>1002</v>
+        <v>1177</v>
       </c>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -21755,9 +22152,9 @@
       <c r="V206" s="4"/>
       <c r="W206" s="4"/>
     </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4" t="s">
-        <v>1050</v>
+        <v>1178</v>
       </c>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -21782,9 +22179,9 @@
       <c r="V207" s="4"/>
       <c r="W207" s="4"/>
     </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4" t="s">
-        <v>1051</v>
+        <v>1179</v>
       </c>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -21809,9 +22206,9 @@
       <c r="V208" s="4"/>
       <c r="W208" s="4"/>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4" t="s">
-        <v>1052</v>
+        <v>1180</v>
       </c>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -21836,9 +22233,9 @@
       <c r="V209" s="4"/>
       <c r="W209" s="4"/>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4" t="s">
-        <v>1053</v>
+        <v>1181</v>
       </c>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -21863,9 +22260,9 @@
       <c r="V210" s="4"/>
       <c r="W210" s="4"/>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4" t="s">
-        <v>1054</v>
+        <v>1182</v>
       </c>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -21890,9 +22287,9 @@
       <c r="V211" s="4"/>
       <c r="W211" s="4"/>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4" t="s">
-        <v>1055</v>
+        <v>1183</v>
       </c>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -21917,9 +22314,9 @@
       <c r="V212" s="4"/>
       <c r="W212" s="4"/>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4" t="s">
-        <v>1056</v>
+        <v>1184</v>
       </c>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -21944,9 +22341,9 @@
       <c r="V213" s="4"/>
       <c r="W213" s="4"/>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4" t="s">
-        <v>1057</v>
+        <v>1185</v>
       </c>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -21971,9 +22368,9 @@
       <c r="V214" s="4"/>
       <c r="W214" s="4"/>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4" t="s">
-        <v>1058</v>
+        <v>1186</v>
       </c>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -21998,9 +22395,9 @@
       <c r="V215" s="4"/>
       <c r="W215" s="4"/>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4" t="s">
-        <v>1059</v>
+        <v>1187</v>
       </c>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -22025,9 +22422,9 @@
       <c r="V216" s="4"/>
       <c r="W216" s="4"/>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4" t="s">
-        <v>1060</v>
+        <v>1188</v>
       </c>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -22052,6 +22449,249 @@
       <c r="V217" s="4"/>
       <c r="W217" s="4"/>
     </row>
+    <row r="218" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A218" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B218" s="4"/>
+      <c r="C218" s="4"/>
+      <c r="D218" s="4"/>
+      <c r="E218" s="4"/>
+      <c r="F218" s="4"/>
+      <c r="G218" s="4"/>
+      <c r="H218" s="126"/>
+      <c r="I218" s="126"/>
+      <c r="J218" s="4"/>
+      <c r="K218" s="4"/>
+      <c r="L218" s="4"/>
+      <c r="M218" s="4"/>
+      <c r="N218" s="4"/>
+      <c r="O218" s="4"/>
+      <c r="P218" s="4"/>
+      <c r="Q218" s="4"/>
+      <c r="R218" s="4"/>
+      <c r="S218" s="4"/>
+      <c r="T218" s="54"/>
+      <c r="U218" s="4"/>
+      <c r="V218" s="4"/>
+      <c r="W218" s="4"/>
+    </row>
+    <row r="219" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A219" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B219" s="4"/>
+      <c r="C219" s="4"/>
+      <c r="D219" s="4"/>
+      <c r="E219" s="4"/>
+      <c r="F219" s="4"/>
+      <c r="G219" s="4"/>
+      <c r="H219" s="126"/>
+      <c r="I219" s="126"/>
+      <c r="J219" s="4"/>
+      <c r="K219" s="4"/>
+      <c r="L219" s="4"/>
+      <c r="M219" s="4"/>
+      <c r="N219" s="4"/>
+      <c r="O219" s="4"/>
+      <c r="P219" s="4"/>
+      <c r="Q219" s="4"/>
+      <c r="R219" s="4"/>
+      <c r="S219" s="4"/>
+      <c r="T219" s="54"/>
+      <c r="U219" s="4"/>
+      <c r="V219" s="4"/>
+      <c r="W219" s="4"/>
+    </row>
+    <row r="220" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A220" s="4" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B220" s="4"/>
+      <c r="C220" s="4"/>
+      <c r="D220" s="4"/>
+      <c r="E220" s="4"/>
+      <c r="F220" s="4"/>
+      <c r="G220" s="4"/>
+      <c r="H220" s="126"/>
+      <c r="I220" s="126"/>
+      <c r="J220" s="4"/>
+      <c r="K220" s="4"/>
+      <c r="L220" s="4"/>
+      <c r="M220" s="4"/>
+      <c r="N220" s="4"/>
+      <c r="O220" s="4"/>
+      <c r="P220" s="4"/>
+      <c r="Q220" s="4"/>
+      <c r="R220" s="4"/>
+      <c r="S220" s="4"/>
+      <c r="T220" s="54"/>
+      <c r="U220" s="4"/>
+      <c r="V220" s="4"/>
+      <c r="W220" s="4"/>
+    </row>
+    <row r="221" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A221" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B221" s="4"/>
+      <c r="C221" s="4"/>
+      <c r="D221" s="4"/>
+      <c r="E221" s="4"/>
+      <c r="F221" s="4"/>
+      <c r="G221" s="4"/>
+      <c r="H221" s="126"/>
+      <c r="I221" s="126"/>
+      <c r="J221" s="4"/>
+      <c r="K221" s="4"/>
+      <c r="L221" s="4"/>
+      <c r="M221" s="4"/>
+      <c r="N221" s="4"/>
+      <c r="O221" s="4"/>
+      <c r="P221" s="4"/>
+      <c r="Q221" s="4"/>
+      <c r="R221" s="4"/>
+      <c r="S221" s="4"/>
+      <c r="T221" s="54"/>
+      <c r="U221" s="4"/>
+      <c r="V221" s="4"/>
+      <c r="W221" s="4"/>
+    </row>
+    <row r="222" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A222" s="4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B222" s="4"/>
+      <c r="C222" s="4"/>
+      <c r="D222" s="4"/>
+      <c r="E222" s="4"/>
+      <c r="F222" s="4"/>
+      <c r="G222" s="4"/>
+      <c r="H222" s="126"/>
+      <c r="I222" s="126"/>
+      <c r="J222" s="4"/>
+      <c r="K222" s="4"/>
+      <c r="L222" s="4"/>
+      <c r="M222" s="4"/>
+      <c r="N222" s="4"/>
+      <c r="O222" s="4"/>
+      <c r="P222" s="4"/>
+      <c r="Q222" s="4"/>
+      <c r="R222" s="4"/>
+      <c r="S222" s="4"/>
+      <c r="T222" s="54"/>
+      <c r="U222" s="4"/>
+      <c r="V222" s="4"/>
+      <c r="W222" s="4"/>
+    </row>
+    <row r="223" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A223" s="4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B223" s="4"/>
+      <c r="C223" s="4"/>
+      <c r="D223" s="4"/>
+      <c r="E223" s="4"/>
+      <c r="F223" s="4"/>
+      <c r="G223" s="4"/>
+      <c r="H223" s="126"/>
+      <c r="I223" s="126"/>
+      <c r="J223" s="4"/>
+      <c r="K223" s="4"/>
+      <c r="L223" s="4"/>
+      <c r="M223" s="4"/>
+      <c r="N223" s="4"/>
+      <c r="O223" s="4"/>
+      <c r="P223" s="4"/>
+      <c r="Q223" s="4"/>
+      <c r="R223" s="4"/>
+      <c r="S223" s="4"/>
+      <c r="T223" s="54"/>
+      <c r="U223" s="4"/>
+      <c r="V223" s="4"/>
+      <c r="W223" s="4"/>
+    </row>
+    <row r="224" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A224" s="4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B224" s="4"/>
+      <c r="C224" s="4"/>
+      <c r="D224" s="4"/>
+      <c r="E224" s="4"/>
+      <c r="F224" s="4"/>
+      <c r="G224" s="4"/>
+      <c r="H224" s="126"/>
+      <c r="I224" s="126"/>
+      <c r="J224" s="4"/>
+      <c r="K224" s="4"/>
+      <c r="L224" s="4"/>
+      <c r="M224" s="4"/>
+      <c r="N224" s="4"/>
+      <c r="O224" s="4"/>
+      <c r="P224" s="4"/>
+      <c r="Q224" s="4"/>
+      <c r="R224" s="4"/>
+      <c r="S224" s="4"/>
+      <c r="T224" s="54"/>
+      <c r="U224" s="4"/>
+      <c r="V224" s="4"/>
+      <c r="W224" s="4"/>
+    </row>
+    <row r="225" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A225" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B225" s="4"/>
+      <c r="C225" s="4"/>
+      <c r="D225" s="4"/>
+      <c r="E225" s="4"/>
+      <c r="F225" s="4"/>
+      <c r="G225" s="4"/>
+      <c r="H225" s="126"/>
+      <c r="I225" s="126"/>
+      <c r="J225" s="4"/>
+      <c r="K225" s="4"/>
+      <c r="L225" s="4"/>
+      <c r="M225" s="4"/>
+      <c r="N225" s="4"/>
+      <c r="O225" s="4"/>
+      <c r="P225" s="4"/>
+      <c r="Q225" s="4"/>
+      <c r="R225" s="4"/>
+      <c r="S225" s="4"/>
+      <c r="T225" s="54"/>
+      <c r="U225" s="4"/>
+      <c r="V225" s="4"/>
+      <c r="W225" s="4"/>
+    </row>
+    <row r="226" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A226" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B226" s="4"/>
+      <c r="C226" s="4"/>
+      <c r="D226" s="4"/>
+      <c r="E226" s="4"/>
+      <c r="F226" s="4"/>
+      <c r="G226" s="4"/>
+      <c r="H226" s="126"/>
+      <c r="I226" s="126"/>
+      <c r="J226" s="4"/>
+      <c r="K226" s="4"/>
+      <c r="L226" s="4"/>
+      <c r="M226" s="4"/>
+      <c r="N226" s="4"/>
+      <c r="O226" s="4"/>
+      <c r="P226" s="4"/>
+      <c r="Q226" s="4"/>
+      <c r="R226" s="4"/>
+      <c r="S226" s="4"/>
+      <c r="T226" s="54"/>
+      <c r="U226" s="4"/>
+      <c r="V226" s="4"/>
+      <c r="W226" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22063,49 +22703,49 @@
           <x14:formula1>
             <xm:f>Sheet2!$M$4:$M$6</xm:f>
           </x14:formula1>
-          <xm:sqref>S3:S217</xm:sqref>
+          <xm:sqref>S3:S226</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$G$4:$G$11</xm:f>
           </x14:formula1>
-          <xm:sqref>R3:R217</xm:sqref>
+          <xm:sqref>R3:R226</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$K$4:$K$13</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:K217</xm:sqref>
+          <xm:sqref>K3:K226</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$J$4:$J$9</xm:f>
           </x14:formula1>
-          <xm:sqref>Q3:Q217</xm:sqref>
+          <xm:sqref>Q3:Q226</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$G$4:$G$10</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:O217</xm:sqref>
+          <xm:sqref>M3:O226</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$F$4:$F$8</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L217</xm:sqref>
+          <xm:sqref>L3:L226</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$D$4:$D$9</xm:f>
           </x14:formula1>
-          <xm:sqref>J3:J217</xm:sqref>
+          <xm:sqref>J3:J226</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Story Point">
           <x14:formula1>
             <xm:f>'C:\Users\Omnex\Documents\[performanetools1.txt.xlsx]Data_Ref'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>P3:P217</xm:sqref>
+          <xm:sqref>P3:P226</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -22256,13 +22896,13 @@
         <v>497</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1142</v>
+        <v>1105</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>349</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>1143</v>
+        <v>1106</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>

--- a/projects/YanFeng/02 System Design/User Stories/User Stories.xlsx
+++ b/projects/YanFeng/02 System Design/User Stories/User Stories.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="1250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2909" uniqueCount="1254">
   <si>
     <t>ID</t>
   </si>
@@ -1983,10 +1983,6 @@
   </si>
   <si>
     <t>ASDE/SQE supervisor</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user, I want to create new project, so that I can manage the project in supplier portal </t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -2445,10 +2441,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>As a user, I want to manage the existing projects, so that I can  add more information or publish the temporarily saved project</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Project management</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2973,35 +2965,15 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Receive an email of my submission</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, User should see an email sent from the system with information of the submission;
-2, User should be able to view the task status by clicking the link contained by the email;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Receive an internal message of my submission</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1, User should see an internal message sent from the system with information of the submission;
-2, User should be able to view the task status by clicking the link in the internal message;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>ASDE, SQE</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>I can review and approve the task</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, User should see an email sent from the system with information of the submission;
-2, User should be able to view the task by clicking the link provided in the email;
-3, If no current user session existing, user should be asked to login;</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -3329,18 +3301,6 @@
   </si>
   <si>
     <t>Add sub-project to the project</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>As a user, I want to manage sub-project of a project, so that I can add sub-project attribute to a part</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user, I want to manage the comments of a project, so that I can track the changes and review project history </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user, I want to manage the attachments of a project, so that I attache external file to the project for reference </t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -3534,10 +3494,6 @@
 2, User should be able to assign the unassigned project main task to himself</t>
   </si>
   <si>
-    <t>1, User should see new internal message in Activity module;
-2, User should be forword to the task list view page(the corresponding task should be highlighted) by clicking the task link in the internal message;</t>
-  </si>
-  <si>
     <t>1, user should see the project main task displayed in task list view and task tree view;</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -4456,10 +4412,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Link the corresponding functions "New Project" "Edit Existing Project" "Create New Part" "Publish a Project" "Close a project" “Generate &amp; View Report" to the floating menu of project</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>1, User should see value "Reopen" in task status dropdown list;
 3, User should se button "Save";</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -5212,6 +5164,72 @@
     <t>1, User should see value of "Reopen" in dropdown list "Status" in the window "Edit APAP task information";
 2, User should see value of "Reopen" in dropdown list "Status" in the window "Edit PPAP task information"
 3, User should see button "Submit Task" in window "Edit APAP task information" and window  "Edit PPAP task information";</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>As a user, I want to receive a notification, so that I can start my process in time</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want to manage project charter, so that I can add header information to the project </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>As a user, I want to have a floating menu on the task tree view, so that I can easily choose action via the floating menu</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Link the corresponding functions "New Project" "Edit Existing Project" "Create New Part" "Publish a Project" "Close a project" “Generate &amp; View Report" to the floating menu of project</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDE, SQE supervisor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Receive an email once ASDE/SQE submit an approval request of APQP/PPAP to me</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can open the relative task via the link in the mail</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, System should send the mail automatically using predefined format in background;
+2, A link to the task should be contained in the mail content;
+3, A account certification is required when user supposed to open the task in explore;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Receive an internal message once ASDE/SQE submit an approval request of APQP/PPAP to me</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can open the relative task via the link in the internal message</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1, System should send the internal message automatically using predefined format in background;
+2, User should see the message in his message box;
+3, A link to the task should be contained in the message content;
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Receive an email once a APQP/PPAP task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ASDE/SQE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assign a APQP/PPAP main task to a supplier</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supplier can start work on the APQP/PPAP main task and it's sub tasks(APQP/PPAP task)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -6507,7 +6525,7 @@
   <dimension ref="B2:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6519,7 +6537,7 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B2" s="132" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C2" s="133"/>
       <c r="D2" s="133"/>
@@ -6538,34 +6556,34 @@
       <c r="G3" s="135"/>
       <c r="H3" s="135"/>
       <c r="I3" s="99" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="99"/>
       <c r="C4" s="103" t="s">
+        <v>549</v>
+      </c>
+      <c r="D4" s="104" t="s">
         <v>550</v>
       </c>
-      <c r="D4" s="104" t="s">
+      <c r="E4" s="104" t="s">
         <v>551</v>
       </c>
-      <c r="E4" s="104" t="s">
+      <c r="F4" s="104" t="s">
         <v>552</v>
       </c>
-      <c r="F4" s="104" t="s">
+      <c r="G4" s="104" t="s">
         <v>553</v>
       </c>
-      <c r="G4" s="104" t="s">
+      <c r="H4" s="104" t="s">
         <v>554</v>
-      </c>
-      <c r="H4" s="104" t="s">
-        <v>555</v>
       </c>
       <c r="I4" s="104"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" s="99" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C5" s="99">
         <f>COUNTIF('System Setup'!J:J,"Critical")</f>
@@ -6598,7 +6616,7 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="100" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C6" s="99">
         <f>COUNTIF('Project Management'!J:J,"Critical")</f>
@@ -6631,7 +6649,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B7" s="100" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C7" s="99">
         <f>COUNTIF('Advanced Settings'!J:J,"Critical")</f>
@@ -6664,7 +6682,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B8" s="100" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C8" s="99">
         <f>COUNTIF('Issue Management'!J:J,"Critical")</f>
@@ -6697,7 +6715,7 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B9" s="100" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C9" s="99">
         <f>COUNTIF('User Account'!J:J,"Critical")</f>
@@ -6730,7 +6748,7 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" s="100" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C10" s="99">
         <f>COUNTIF('Report Management'!J:J,"Critical")</f>
@@ -6763,7 +6781,7 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B11" s="100" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C11" s="99">
         <f>COUNTIF('System Integration'!J:J,"Critical")</f>
@@ -6796,7 +6814,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B12" s="100" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C12" s="99">
         <f>COUNTIF('UI&amp;UX'!J:J,"Critical")</f>
@@ -6829,7 +6847,7 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" s="101" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C13" s="99">
         <f>SUM(C5:C12)</f>
@@ -6859,7 +6877,7 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B14" s="102" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C14" s="131">
         <f>SUM(C13:H13)</f>
@@ -8555,7 +8573,7 @@
         <v>1.6</v>
       </c>
       <c r="B8" s="68" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C8" s="68" t="s">
         <v>75</v>
@@ -8570,7 +8588,7 @@
         <v>1.7</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C9" s="68" t="s">
         <v>75</v>
@@ -8615,7 +8633,7 @@
         <v>337</v>
       </c>
       <c r="B12" s="77" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C12" s="68" t="s">
         <v>75</v>
@@ -8765,7 +8783,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B22" s="82" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C22" s="82" t="s">
         <v>75</v>
@@ -8840,7 +8858,7 @@
         <v>2.4</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C27" s="62" t="s">
         <v>75</v>
@@ -8963,13 +8981,13 @@
         <v>3.4</v>
       </c>
       <c r="B36" s="113" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C36" s="113" t="s">
         <v>75</v>
       </c>
       <c r="D36" s="114" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E36" s="75"/>
     </row>
@@ -9008,7 +9026,7 @@
         <v>3.7</v>
       </c>
       <c r="B39" s="107" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C39" s="107" t="s">
         <v>75</v>
@@ -9021,7 +9039,7 @@
         <v>3.8</v>
       </c>
       <c r="B40" s="73" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C40" s="73" t="s">
         <v>75</v>
@@ -9036,7 +9054,7 @@
         <v>3.9</v>
       </c>
       <c r="B41" s="73" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C41" s="73" t="s">
         <v>75</v>
@@ -9046,10 +9064,10 @@
     </row>
     <row r="42" spans="1:5" s="76" customFormat="1" ht="21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A42" s="109" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B42" s="110" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C42" s="110" t="s">
         <v>75</v>
@@ -9074,7 +9092,7 @@
     </row>
     <row r="44" spans="1:5" s="76" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A44" s="46" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B44" s="42" t="s">
         <v>99</v>
@@ -9089,7 +9107,7 @@
     </row>
     <row r="45" spans="1:5" s="76" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A45" s="72" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B45" s="73" t="s">
         <v>100</v>
@@ -9104,10 +9122,10 @@
     </row>
     <row r="46" spans="1:5" s="76" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A46" s="109" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B46" s="110" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C46" s="110" t="s">
         <v>75</v>
@@ -13464,22 +13482,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W226"/>
+  <dimension ref="A1:W229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G162" sqref="G162"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H143" sqref="H143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="65.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12" style="16" customWidth="1"/>
     <col min="3" max="3" width="28.625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="27.375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="18.75" style="16" customWidth="1"/>
+    <col min="6" max="6" width="27.875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="25.125" style="16" customWidth="1"/>
     <col min="8" max="8" width="64.375" style="129" customWidth="1"/>
     <col min="9" max="9" width="54.375" style="129" customWidth="1"/>
     <col min="10" max="10" width="9.5" style="16" bestFit="1" customWidth="1"/>
@@ -13600,13 +13618,13 @@
     </row>
     <row r="3" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="B3" s="119" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>594</v>
+        <v>1241</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>496</v>
@@ -13615,16 +13633,16 @@
         <v>498</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="H3" s="126" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="I3" s="125" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>43</v>
@@ -13647,13 +13665,13 @@
     </row>
     <row r="4" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="B4" s="119" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>594</v>
+        <v>1241</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>496</v>
@@ -13662,13 +13680,13 @@
         <v>498</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>1087</v>
+        <v>1242</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="H4" s="126" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="I4" s="125"/>
       <c r="J4" s="4" t="s">
@@ -13695,10 +13713,10 @@
         <v>255</v>
       </c>
       <c r="B5" s="119" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>594</v>
+        <v>1241</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>496</v>
@@ -13707,13 +13725,13 @@
         <v>498</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="H5" s="126" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="I5" s="125"/>
       <c r="J5" s="4" t="s">
@@ -13740,10 +13758,10 @@
         <v>256</v>
       </c>
       <c r="B6" s="119" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>594</v>
+        <v>1241</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>496</v>
@@ -13752,16 +13770,16 @@
         <v>498</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="H6" s="126" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="I6" s="125" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>43</v>
@@ -13787,10 +13805,10 @@
         <v>257</v>
       </c>
       <c r="B7" s="119" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>594</v>
+        <v>1241</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>496</v>
@@ -13799,13 +13817,13 @@
         <v>498</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="H7" s="126" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="I7" s="125"/>
       <c r="J7" s="4" t="s">
@@ -13832,10 +13850,10 @@
         <v>258</v>
       </c>
       <c r="B8" s="119" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>594</v>
+        <v>1241</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>496</v>
@@ -13844,13 +13862,13 @@
         <v>498</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="H8" s="126" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="I8" s="125"/>
       <c r="J8" s="4" t="s">
@@ -13877,10 +13895,10 @@
         <v>259</v>
       </c>
       <c r="B9" s="119" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>594</v>
+        <v>1241</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>496</v>
@@ -13889,16 +13907,16 @@
         <v>498</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="H9" s="126" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
       <c r="I9" s="125" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>43</v>
@@ -13924,25 +13942,25 @@
         <v>260</v>
       </c>
       <c r="B10" s="119" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>594</v>
+        <v>1241</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>1043</v>
+        <v>1033</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="H10" s="126" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="I10" s="125"/>
       <c r="J10" s="4" t="s">
@@ -13969,25 +13987,25 @@
         <v>261</v>
       </c>
       <c r="B11" s="119" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>594</v>
+        <v>1241</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="H11" s="126" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="I11" s="126"/>
       <c r="J11" s="4" t="s">
@@ -14014,25 +14032,25 @@
         <v>262</v>
       </c>
       <c r="B12" s="122" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
       <c r="H12" s="126" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
       <c r="I12" s="126"/>
       <c r="J12" s="4" t="s">
@@ -14059,25 +14077,25 @@
         <v>263</v>
       </c>
       <c r="B13" s="122" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
       <c r="H13" s="126" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
       <c r="I13" s="126"/>
       <c r="J13" s="4" t="s">
@@ -14101,28 +14119,28 @@
     </row>
     <row r="14" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B14" s="122" t="s">
+        <v>936</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>946</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>947</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="H14" s="126" t="s">
         <v>948</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>957</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>956</v>
-      </c>
-      <c r="H14" s="126" t="s">
-        <v>958</v>
       </c>
       <c r="I14" s="126"/>
       <c r="J14" s="4" t="s">
@@ -14149,28 +14167,28 @@
         <v>267</v>
       </c>
       <c r="B15" s="122" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>949</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>959</v>
-      </c>
       <c r="G15" s="4" t="s">
-        <v>960</v>
+        <v>950</v>
       </c>
       <c r="H15" s="126" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="I15" s="126" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>45</v>
@@ -14196,10 +14214,10 @@
         <v>272</v>
       </c>
       <c r="B16" s="118" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>499</v>
+        <v>1240</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>496</v>
@@ -14208,13 +14226,13 @@
         <v>498</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="H16" s="126" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="I16" s="127"/>
       <c r="J16" s="4" t="s">
@@ -14241,10 +14259,10 @@
         <v>279</v>
       </c>
       <c r="B17" s="118" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>499</v>
+        <v>1240</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>496</v>
@@ -14253,13 +14271,13 @@
         <v>498</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="H17" s="126" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="I17" s="127"/>
       <c r="J17" s="4" t="s">
@@ -14286,10 +14304,10 @@
         <v>280</v>
       </c>
       <c r="B18" s="118" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>499</v>
+        <v>1240</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>496</v>
@@ -14298,16 +14316,16 @@
         <v>498</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="H18" s="126" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="I18" s="127" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>44</v>
@@ -14333,10 +14351,10 @@
         <v>291</v>
       </c>
       <c r="B19" s="118" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>499</v>
+        <v>1240</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>496</v>
@@ -14345,16 +14363,16 @@
         <v>498</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="G19" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="H19" s="126" t="s">
         <v>591</v>
       </c>
-      <c r="H19" s="126" t="s">
+      <c r="I19" s="127" t="s">
         <v>592</v>
-      </c>
-      <c r="I19" s="127" t="s">
-        <v>593</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>44</v>
@@ -14380,25 +14398,25 @@
         <v>296</v>
       </c>
       <c r="B20" s="118" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>499</v>
+        <v>1240</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="H20" s="126" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="I20" s="125"/>
       <c r="J20" s="4" t="s">
@@ -14425,10 +14443,10 @@
         <v>301</v>
       </c>
       <c r="B21" s="118" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>499</v>
+        <v>1240</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>496</v>
@@ -14437,13 +14455,13 @@
         <v>498</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H21" s="126" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="I21" s="127"/>
       <c r="J21" s="4" t="s">
@@ -14470,10 +14488,10 @@
         <v>307</v>
       </c>
       <c r="B22" s="118" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>499</v>
+        <v>1240</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>496</v>
@@ -14482,16 +14500,16 @@
         <v>498</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="G22" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="H22" s="126" t="s">
+        <v>837</v>
+      </c>
+      <c r="I22" s="127" t="s">
         <v>500</v>
-      </c>
-      <c r="H22" s="126" t="s">
-        <v>846</v>
-      </c>
-      <c r="I22" s="127" t="s">
-        <v>501</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>44</v>
@@ -14517,10 +14535,10 @@
         <v>311</v>
       </c>
       <c r="B23" s="118" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>813</v>
+        <v>1240</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>496</v>
@@ -14529,13 +14547,13 @@
         <v>498</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H23" s="126" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I23" s="126"/>
       <c r="J23" s="4" t="s">
@@ -14562,10 +14580,10 @@
         <v>315</v>
       </c>
       <c r="B24" s="118" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>813</v>
+        <v>1240</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>496</v>
@@ -14574,13 +14592,13 @@
         <v>498</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="H24" s="126" t="s">
         <v>504</v>
-      </c>
-      <c r="H24" s="126" t="s">
-        <v>505</v>
       </c>
       <c r="I24" s="126"/>
       <c r="J24" s="4" t="s">
@@ -14607,10 +14625,10 @@
         <v>321</v>
       </c>
       <c r="B25" s="118" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>499</v>
+        <v>1240</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>496</v>
@@ -14619,13 +14637,13 @@
         <v>498</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H25" s="126" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I25" s="126"/>
       <c r="J25" s="4" t="s">
@@ -14652,10 +14670,10 @@
         <v>325</v>
       </c>
       <c r="B26" s="118" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>499</v>
+        <v>1240</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>496</v>
@@ -14664,13 +14682,13 @@
         <v>498</v>
       </c>
       <c r="F26" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>541</v>
-      </c>
       <c r="H26" s="126" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I26" s="126"/>
       <c r="J26" s="4" t="s">
@@ -14697,10 +14715,10 @@
         <v>352</v>
       </c>
       <c r="B27" s="118" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>499</v>
+        <v>1240</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>496</v>
@@ -14709,16 +14727,16 @@
         <v>498</v>
       </c>
       <c r="F27" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="H27" s="126" t="s">
         <v>535</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>822</v>
-      </c>
-      <c r="H27" s="126" t="s">
+      <c r="I27" s="126" t="s">
         <v>536</v>
-      </c>
-      <c r="I27" s="126" t="s">
-        <v>537</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>44</v>
@@ -14744,10 +14762,10 @@
         <v>353</v>
       </c>
       <c r="B28" s="118" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>499</v>
+        <v>1240</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>496</v>
@@ -14756,13 +14774,13 @@
         <v>498</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H28" s="126" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I28" s="126"/>
       <c r="J28" s="4" t="s">
@@ -14786,13 +14804,13 @@
     </row>
     <row r="29" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B29" s="118" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>814</v>
+        <v>1240</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>496</v>
@@ -14801,13 +14819,13 @@
         <v>498</v>
       </c>
       <c r="F29" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="H29" s="126" t="s">
         <v>564</v>
-      </c>
-      <c r="H29" s="126" t="s">
-        <v>565</v>
       </c>
       <c r="I29" s="126"/>
       <c r="J29" s="4" t="s">
@@ -14834,10 +14852,10 @@
         <v>363</v>
       </c>
       <c r="B30" s="118" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>814</v>
+        <v>1240</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>496</v>
@@ -14846,16 +14864,16 @@
         <v>498</v>
       </c>
       <c r="F30" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="H30" s="126" t="s">
+        <v>578</v>
+      </c>
+      <c r="I30" s="125" t="s">
         <v>577</v>
-      </c>
-      <c r="H30" s="126" t="s">
-        <v>579</v>
-      </c>
-      <c r="I30" s="125" t="s">
-        <v>578</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>45</v>
@@ -14881,10 +14899,10 @@
         <v>367</v>
       </c>
       <c r="B31" s="118" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>814</v>
+        <v>1240</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>496</v>
@@ -14893,16 +14911,16 @@
         <v>498</v>
       </c>
       <c r="F31" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="H31" s="126" t="s">
         <v>581</v>
       </c>
-      <c r="H31" s="126" t="s">
+      <c r="I31" s="126" t="s">
         <v>582</v>
-      </c>
-      <c r="I31" s="126" t="s">
-        <v>583</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>45</v>
@@ -14928,10 +14946,10 @@
         <v>371</v>
       </c>
       <c r="B32" s="118" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>814</v>
+        <v>1240</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>496</v>
@@ -14940,16 +14958,16 @@
         <v>498</v>
       </c>
       <c r="F32" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>575</v>
-      </c>
       <c r="H32" s="126" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I32" s="126" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>45</v>
@@ -14975,10 +14993,10 @@
         <v>375</v>
       </c>
       <c r="B33" s="118" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>814</v>
+        <v>1240</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>496</v>
@@ -14987,13 +15005,13 @@
         <v>498</v>
       </c>
       <c r="F33" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="H33" s="126" t="s">
         <v>587</v>
-      </c>
-      <c r="H33" s="126" t="s">
-        <v>588</v>
       </c>
       <c r="I33" s="126"/>
       <c r="J33" s="4" t="s">
@@ -15020,10 +15038,10 @@
         <v>379</v>
       </c>
       <c r="B34" s="118" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>815</v>
+        <v>1240</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>496</v>
@@ -15032,16 +15050,16 @@
         <v>498</v>
       </c>
       <c r="F34" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="H34" s="126" t="s">
         <v>684</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>685</v>
-      </c>
-      <c r="H34" s="126" t="s">
-        <v>686</v>
-      </c>
       <c r="I34" s="125" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>14</v>
@@ -15067,10 +15085,10 @@
         <v>383</v>
       </c>
       <c r="B35" s="118" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>815</v>
+        <v>1240</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>496</v>
@@ -15079,13 +15097,13 @@
         <v>498</v>
       </c>
       <c r="F35" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="H35" s="126" t="s">
         <v>687</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="H35" s="126" t="s">
-        <v>689</v>
       </c>
       <c r="I35" s="125"/>
       <c r="J35" s="4" t="s">
@@ -15112,10 +15130,10 @@
         <v>387</v>
       </c>
       <c r="B36" s="118" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>815</v>
+        <v>1240</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>496</v>
@@ -15124,13 +15142,13 @@
         <v>498</v>
       </c>
       <c r="F36" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="H36" s="126" t="s">
         <v>693</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>694</v>
-      </c>
-      <c r="H36" s="126" t="s">
-        <v>695</v>
       </c>
       <c r="I36" s="126"/>
       <c r="J36" s="4" t="s">
@@ -15157,10 +15175,10 @@
         <v>391</v>
       </c>
       <c r="B37" s="118" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>815</v>
+        <v>1240</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>496</v>
@@ -15169,13 +15187,13 @@
         <v>498</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="H37" s="126" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="I37" s="126"/>
       <c r="J37" s="4" t="s">
@@ -15202,10 +15220,10 @@
         <v>395</v>
       </c>
       <c r="B38" s="118" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>499</v>
+        <v>1240</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>496</v>
@@ -15214,13 +15232,13 @@
         <v>498</v>
       </c>
       <c r="F38" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="H38" s="126" t="s">
         <v>690</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>691</v>
-      </c>
-      <c r="H38" s="126" t="s">
-        <v>692</v>
       </c>
       <c r="I38" s="126"/>
       <c r="J38" s="4" t="s">
@@ -15247,10 +15265,10 @@
         <v>400</v>
       </c>
       <c r="B39" s="118" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>815</v>
+        <v>1240</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>496</v>
@@ -15259,13 +15277,13 @@
         <v>498</v>
       </c>
       <c r="F39" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="H39" s="126" t="s">
         <v>700</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="H39" s="126" t="s">
-        <v>702</v>
       </c>
       <c r="I39" s="126"/>
       <c r="J39" s="4" t="s">
@@ -15292,28 +15310,28 @@
         <v>404</v>
       </c>
       <c r="B40" s="118" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>499</v>
+        <v>1240</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E40" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="H40" s="126" t="s">
+        <v>825</v>
+      </c>
+      <c r="I40" s="126" t="s">
         <v>596</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>833</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>885</v>
-      </c>
-      <c r="H40" s="126" t="s">
-        <v>834</v>
-      </c>
-      <c r="I40" s="126" t="s">
-        <v>598</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>43</v>
@@ -15339,25 +15357,25 @@
         <v>408</v>
       </c>
       <c r="B41" s="118" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>499</v>
+        <v>1240</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="H41" s="126" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="I41" s="126"/>
       <c r="J41" s="4" t="s">
@@ -15384,10 +15402,10 @@
         <v>411</v>
       </c>
       <c r="B42" s="118" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>499</v>
+        <v>1240</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>496</v>
@@ -15396,13 +15414,13 @@
         <v>498</v>
       </c>
       <c r="F42" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="G42" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="H42" s="126" t="s">
         <v>560</v>
-      </c>
-      <c r="H42" s="126" t="s">
-        <v>561</v>
       </c>
       <c r="I42" s="126"/>
       <c r="J42" s="4" t="s">
@@ -15429,10 +15447,10 @@
         <v>416</v>
       </c>
       <c r="B43" s="118" t="s">
-        <v>806</v>
-      </c>
-      <c r="C43" s="40" t="s">
-        <v>815</v>
+        <v>800</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>1240</v>
       </c>
       <c r="D43" s="40" t="s">
         <v>496</v>
@@ -15441,13 +15459,13 @@
         <v>498</v>
       </c>
       <c r="F43" s="40" t="s">
+        <v>701</v>
+      </c>
+      <c r="G43" s="40" t="s">
+        <v>702</v>
+      </c>
+      <c r="H43" s="125" t="s">
         <v>703</v>
-      </c>
-      <c r="G43" s="40" t="s">
-        <v>704</v>
-      </c>
-      <c r="H43" s="125" t="s">
-        <v>705</v>
       </c>
       <c r="I43" s="126"/>
       <c r="J43" s="4" t="s">
@@ -15474,10 +15492,10 @@
         <v>420</v>
       </c>
       <c r="B44" s="120" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>496</v>
@@ -15486,13 +15504,13 @@
         <v>498</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="H44" s="126" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="I44" s="125"/>
       <c r="J44" s="4" t="s">
@@ -15519,10 +15537,10 @@
         <v>424</v>
       </c>
       <c r="B45" s="120" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>496</v>
@@ -15531,13 +15549,13 @@
         <v>498</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="H45" s="126" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="I45" s="125"/>
       <c r="J45" s="4" t="s">
@@ -15564,10 +15582,10 @@
         <v>427</v>
       </c>
       <c r="B46" s="120" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>496</v>
@@ -15576,16 +15594,16 @@
         <v>498</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
       <c r="H46" s="126" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="I46" s="126" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>44</v>
@@ -15611,10 +15629,10 @@
         <v>432</v>
       </c>
       <c r="B47" s="120" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>496</v>
@@ -15623,16 +15641,16 @@
         <v>498</v>
       </c>
       <c r="F47" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="H47" s="126" t="s">
+        <v>961</v>
+      </c>
+      <c r="I47" s="126" t="s">
         <v>522</v>
-      </c>
-      <c r="H47" s="126" t="s">
-        <v>971</v>
-      </c>
-      <c r="I47" s="126" t="s">
-        <v>523</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>44</v>
@@ -15658,10 +15676,10 @@
         <v>438</v>
       </c>
       <c r="B48" s="120" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>496</v>
@@ -15670,13 +15688,13 @@
         <v>498</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="H48" s="126" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
       <c r="I48" s="126"/>
       <c r="J48" s="4" t="s">
@@ -15703,10 +15721,10 @@
         <v>444</v>
       </c>
       <c r="B49" s="120" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>496</v>
@@ -15715,13 +15733,13 @@
         <v>498</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="H49" s="126" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="I49" s="126"/>
       <c r="J49" s="4" t="s">
@@ -15748,10 +15766,10 @@
         <v>445</v>
       </c>
       <c r="B50" s="120" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>496</v>
@@ -15760,13 +15778,13 @@
         <v>498</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="H50" s="126" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="I50" s="126"/>
       <c r="J50" s="4" t="s">
@@ -15793,25 +15811,25 @@
         <v>452</v>
       </c>
       <c r="B51" s="120" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="H51" s="126" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="I51" s="126"/>
       <c r="J51" s="4" t="s">
@@ -15838,25 +15856,25 @@
         <v>456</v>
       </c>
       <c r="B52" s="120" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>498</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="H52" s="125" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="I52" s="126"/>
       <c r="J52" s="4" t="s">
@@ -15883,10 +15901,10 @@
         <v>461</v>
       </c>
       <c r="B53" s="120" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>496</v>
@@ -15895,13 +15913,13 @@
         <v>498</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="H53" s="126" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="I53" s="126"/>
       <c r="J53" s="4" t="s">
@@ -15928,28 +15946,28 @@
         <v>465</v>
       </c>
       <c r="B54" s="120" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>498</v>
       </c>
       <c r="F54" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="H54" s="126" t="s">
+        <v>604</v>
+      </c>
+      <c r="I54" s="126" t="s">
         <v>603</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="H54" s="126" t="s">
-        <v>606</v>
-      </c>
-      <c r="I54" s="126" t="s">
-        <v>605</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>45</v>
@@ -15975,25 +15993,25 @@
         <v>468</v>
       </c>
       <c r="B55" s="120" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>594</v>
+        <v>807</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H55" s="126" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="I55" s="125"/>
       <c r="J55" s="4" t="s">
@@ -16020,25 +16038,25 @@
         <v>473</v>
       </c>
       <c r="B56" s="120" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="F56" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="H56" s="126" t="s">
         <v>679</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="H56" s="126" t="s">
-        <v>681</v>
       </c>
       <c r="I56" s="126"/>
       <c r="J56" s="4" t="s">
@@ -16065,10 +16083,10 @@
         <v>476</v>
       </c>
       <c r="B57" s="120" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>496</v>
@@ -16077,13 +16095,13 @@
         <v>498</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H57" s="126" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I57" s="126"/>
       <c r="J57" s="4" t="s">
@@ -16110,10 +16128,10 @@
         <v>479</v>
       </c>
       <c r="B58" s="120" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>496</v>
@@ -16122,13 +16140,13 @@
         <v>498</v>
       </c>
       <c r="F58" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="G58" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="G58" s="4" t="s">
-        <v>528</v>
-      </c>
       <c r="H58" s="126" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="I58" s="126"/>
       <c r="J58" s="4" t="s">
@@ -16155,10 +16173,10 @@
         <v>483</v>
       </c>
       <c r="B59" s="120" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>496</v>
@@ -16167,13 +16185,13 @@
         <v>498</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H59" s="126" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="I59" s="126"/>
       <c r="J59" s="4" t="s">
@@ -16197,13 +16215,13 @@
     </row>
     <row r="60" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B60" s="120" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>496</v>
@@ -16212,13 +16230,13 @@
         <v>498</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H60" s="126" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="I60" s="126"/>
       <c r="J60" s="4" t="s">
@@ -16242,13 +16260,13 @@
     </row>
     <row r="61" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B61" s="120" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>496</v>
@@ -16257,13 +16275,13 @@
         <v>498</v>
       </c>
       <c r="F61" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="G61" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="G61" s="4" t="s">
-        <v>616</v>
-      </c>
       <c r="H61" s="126" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="I61" s="126"/>
       <c r="J61" s="4" t="s">
@@ -16287,13 +16305,13 @@
     </row>
     <row r="62" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B62" s="120" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>496</v>
@@ -16302,13 +16320,13 @@
         <v>498</v>
       </c>
       <c r="F62" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="G62" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="G62" s="4" t="s">
-        <v>533</v>
-      </c>
       <c r="H62" s="126" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I62" s="126"/>
       <c r="J62" s="4" t="s">
@@ -16332,13 +16350,13 @@
     </row>
     <row r="63" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B63" s="120" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>496</v>
@@ -16347,13 +16365,13 @@
         <v>498</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H63" s="125" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I63" s="126"/>
       <c r="J63" s="4" t="s">
@@ -16377,13 +16395,13 @@
     </row>
     <row r="64" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B64" s="120" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>496</v>
@@ -16392,13 +16410,13 @@
         <v>498</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="G64" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="H64" s="126" t="s">
         <v>566</v>
-      </c>
-      <c r="H64" s="126" t="s">
-        <v>567</v>
       </c>
       <c r="I64" s="126"/>
       <c r="J64" s="4" t="s">
@@ -16422,13 +16440,13 @@
     </row>
     <row r="65" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B65" s="120" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>496</v>
@@ -16437,13 +16455,13 @@
         <v>498</v>
       </c>
       <c r="F65" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="G65" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="G65" s="4" t="s">
-        <v>569</v>
-      </c>
       <c r="H65" s="126" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I65" s="126"/>
       <c r="J65" s="4" t="s">
@@ -16467,13 +16485,13 @@
     </row>
     <row r="66" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B66" s="120" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>496</v>
@@ -16482,13 +16500,13 @@
         <v>498</v>
       </c>
       <c r="F66" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="G66" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="G66" s="4" t="s">
-        <v>571</v>
-      </c>
       <c r="H66" s="126" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I66" s="126"/>
       <c r="J66" s="4" t="s">
@@ -16512,28 +16530,28 @@
     </row>
     <row r="67" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B67" s="120" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="C67" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="H67" s="126" t="s">
         <v>816</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="H67" s="126" t="s">
-        <v>825</v>
       </c>
       <c r="I67" s="126"/>
       <c r="J67" s="4" t="s">
@@ -16557,13 +16575,13 @@
     </row>
     <row r="68" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="B68" s="120" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>496</v>
@@ -16572,13 +16590,13 @@
         <v>498</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="H68" s="126" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="I68" s="128"/>
       <c r="J68" s="4" t="s">
@@ -16602,28 +16620,28 @@
     </row>
     <row r="69" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B69" s="121" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
       <c r="H69" s="126" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
       <c r="I69" s="128"/>
       <c r="J69" s="4" t="s">
@@ -16647,13 +16665,13 @@
     </row>
     <row r="70" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B70" s="121" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>496</v>
@@ -16662,13 +16680,13 @@
         <v>498</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="H70" s="126" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="I70" s="128"/>
       <c r="J70" s="4" t="s">
@@ -16692,13 +16710,13 @@
     </row>
     <row r="71" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B71" s="121" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>496</v>
@@ -16707,16 +16725,16 @@
         <v>498</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>985</v>
+        <v>975</v>
       </c>
       <c r="H71" s="126" t="s">
+        <v>973</v>
+      </c>
+      <c r="I71" s="128" t="s">
         <v>983</v>
-      </c>
-      <c r="I71" s="128" t="s">
-        <v>993</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>44</v>
@@ -16739,31 +16757,31 @@
     </row>
     <row r="72" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B72" s="121" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="H72" s="126" t="s">
-        <v>992</v>
+        <v>982</v>
       </c>
       <c r="I72" s="128" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="J72" s="4" t="s">
         <v>44</v>
@@ -16786,31 +16804,31 @@
     </row>
     <row r="73" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B73" s="121" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E73" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="H73" s="126" t="s">
         <v>981</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="I73" s="128" t="s">
         <v>984</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>987</v>
-      </c>
-      <c r="H73" s="126" t="s">
-        <v>991</v>
-      </c>
-      <c r="I73" s="128" t="s">
-        <v>994</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>44</v>
@@ -16833,31 +16851,31 @@
     </row>
     <row r="74" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B74" s="121" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>988</v>
+        <v>978</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>989</v>
+        <v>979</v>
       </c>
       <c r="H74" s="126" t="s">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="I74" s="128" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="J74" s="4" t="s">
         <v>44</v>
@@ -16880,28 +16898,28 @@
     </row>
     <row r="75" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B75" s="121" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>1025</v>
+        <v>1015</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>1026</v>
+        <v>1016</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="H75" s="126" t="s">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="I75" s="128"/>
       <c r="J75" s="4" t="s">
@@ -16925,31 +16943,31 @@
     </row>
     <row r="76" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B76" s="121" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
       <c r="H76" s="126" t="s">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="I76" s="128" t="s">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="J76" s="4" t="s">
         <v>14</v>
@@ -16972,13 +16990,13 @@
     </row>
     <row r="77" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B77" s="121" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>496</v>
@@ -16987,13 +17005,13 @@
         <v>498</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="H77" s="126" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="I77" s="128"/>
       <c r="J77" s="4" t="s">
@@ -17017,28 +17035,28 @@
     </row>
     <row r="78" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B78" s="121" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="H78" s="126" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="I78" s="128"/>
       <c r="J78" s="4" t="s">
@@ -17062,31 +17080,31 @@
     </row>
     <row r="79" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B79" s="121" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="F79" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="H79" s="126" t="s">
+        <v>993</v>
+      </c>
+      <c r="I79" s="128" t="s">
         <v>996</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>1001</v>
-      </c>
-      <c r="H79" s="126" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I79" s="128" t="s">
-        <v>1006</v>
       </c>
       <c r="J79" s="4" t="s">
         <v>45</v>
@@ -17109,31 +17127,31 @@
     </row>
     <row r="80" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B80" s="121" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="F80" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="H80" s="126" t="s">
+        <v>992</v>
+      </c>
+      <c r="I80" s="128" t="s">
         <v>997</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>999</v>
-      </c>
-      <c r="H80" s="126" t="s">
-        <v>1002</v>
-      </c>
-      <c r="I80" s="128" t="s">
-        <v>1007</v>
       </c>
       <c r="J80" s="4" t="s">
         <v>45</v>
@@ -17156,31 +17174,31 @@
     </row>
     <row r="81" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B81" s="121" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="F81" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="H81" s="126" t="s">
+        <v>994</v>
+      </c>
+      <c r="I81" s="128" t="s">
         <v>998</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>1000</v>
-      </c>
-      <c r="H81" s="126" t="s">
-        <v>1004</v>
-      </c>
-      <c r="I81" s="128" t="s">
-        <v>1008</v>
       </c>
       <c r="J81" s="4" t="s">
         <v>45</v>
@@ -17203,29 +17221,29 @@
     </row>
     <row r="82" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B82" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>1009</v>
+        <v>999</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="H82" s="126"/>
       <c r="I82" s="126" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="J82" s="4" t="s">
         <v>43</v>
@@ -17248,29 +17266,29 @@
     </row>
     <row r="83" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B83" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="H83" s="126"/>
       <c r="I83" s="126" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="J83" s="4" t="s">
         <v>43</v>
@@ -17293,29 +17311,29 @@
     </row>
     <row r="84" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B84" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>1048</v>
+        <v>1038</v>
       </c>
       <c r="H84" s="126"/>
       <c r="I84" s="126" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="J84" s="4" t="s">
         <v>43</v>
@@ -17338,29 +17356,29 @@
     </row>
     <row r="85" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B85" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>1049</v>
+        <v>1039</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="H85" s="126"/>
       <c r="I85" s="126" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="J85" s="4" t="s">
         <v>43</v>
@@ -17383,31 +17401,31 @@
     </row>
     <row r="86" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B86" s="117" t="s">
+        <v>711</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="D86" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="E86" s="4" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="H86" s="126" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="I86" s="126" t="s">
-        <v>1051</v>
+        <v>1041</v>
       </c>
       <c r="J86" s="4" t="s">
         <v>43</v>
@@ -17430,29 +17448,29 @@
     </row>
     <row r="87" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B87" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>1052</v>
+        <v>1042</v>
       </c>
       <c r="H87" s="126"/>
       <c r="I87" s="126" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>44</v>
@@ -17475,28 +17493,28 @@
     </row>
     <row r="88" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B88" s="117" t="s">
+        <v>711</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>715</v>
-      </c>
       <c r="E88" s="4" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="H88" s="126" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="I88" s="126"/>
       <c r="J88" s="4" t="s">
@@ -17520,25 +17538,25 @@
     </row>
     <row r="89" spans="1:23" s="116" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B89" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C89" s="56" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D89" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E89" s="56" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="F89" s="40" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="G89" s="56" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="H89" s="128"/>
       <c r="I89" s="128"/>
@@ -17563,28 +17581,28 @@
     </row>
     <row r="90" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B90" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D90" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E90" s="56" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="H90" s="126" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="I90" s="126"/>
       <c r="J90" s="4" t="s">
@@ -17608,28 +17626,28 @@
     </row>
     <row r="91" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B91" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D91" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E91" s="56" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="H91" s="126" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="I91" s="126"/>
       <c r="J91" s="4" t="s">
@@ -17653,28 +17671,28 @@
     </row>
     <row r="92" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B92" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D92" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E92" s="56" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="H92" s="126" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="I92" s="126"/>
       <c r="J92" s="4" t="s">
@@ -17698,28 +17716,28 @@
     </row>
     <row r="93" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B93" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D93" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E93" s="56" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="F93" s="40" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="H93" s="126" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="I93" s="126"/>
       <c r="J93" s="4" t="s">
@@ -17743,28 +17761,28 @@
     </row>
     <row r="94" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B94" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D94" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E94" s="56" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="H94" s="126" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="I94" s="126"/>
       <c r="J94" s="4" t="s">
@@ -17788,28 +17806,28 @@
     </row>
     <row r="95" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B95" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D95" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E95" s="56" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="H95" s="126" t="s">
-        <v>1091</v>
+        <v>1080</v>
       </c>
       <c r="I95" s="126"/>
       <c r="J95" s="4" t="s">
@@ -17833,28 +17851,28 @@
     </row>
     <row r="96" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B96" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D96" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E96" s="56" t="s">
-        <v>1096</v>
+        <v>1085</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>1099</v>
+        <v>1088</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>1092</v>
+        <v>1081</v>
       </c>
       <c r="H96" s="126" t="s">
-        <v>1093</v>
+        <v>1082</v>
       </c>
       <c r="I96" s="126"/>
       <c r="J96" s="4" t="s">
@@ -17878,28 +17896,28 @@
     </row>
     <row r="97" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B97" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D97" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E97" s="56" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>1089</v>
+        <v>1078</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>1090</v>
+        <v>1079</v>
       </c>
       <c r="H97" s="126" t="s">
-        <v>1097</v>
+        <v>1086</v>
       </c>
       <c r="I97" s="126"/>
       <c r="J97" s="4" t="s">
@@ -17923,28 +17941,28 @@
     </row>
     <row r="98" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B98" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D98" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E98" s="56" t="s">
-        <v>1096</v>
+        <v>1085</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>1100</v>
+        <v>1089</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>1094</v>
+        <v>1083</v>
       </c>
       <c r="H98" s="126" t="s">
-        <v>1095</v>
+        <v>1084</v>
       </c>
       <c r="I98" s="126"/>
       <c r="J98" s="4" t="s">
@@ -17968,28 +17986,28 @@
     </row>
     <row r="99" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
-        <v>1167</v>
+        <v>1156</v>
       </c>
       <c r="B99" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D99" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E99" s="56" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="H99" s="126" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="I99" s="126"/>
       <c r="J99" s="4" t="s">
@@ -18013,28 +18031,28 @@
     </row>
     <row r="100" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B100" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D100" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E100" s="56" t="s">
-        <v>1077</v>
+        <v>1067</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>1078</v>
+        <v>1068</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>1079</v>
+        <v>1069</v>
       </c>
       <c r="H100" s="126" t="s">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="I100" s="126"/>
       <c r="J100" s="4" t="s">
@@ -18058,28 +18076,28 @@
     </row>
     <row r="101" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B101" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D101" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E101" s="56" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="H101" s="126" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="I101" s="126"/>
       <c r="J101" s="4" t="s">
@@ -18103,28 +18121,28 @@
     </row>
     <row r="102" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B102" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D102" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E102" s="56" t="s">
-        <v>1034</v>
+        <v>1024</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="H102" s="126" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="I102" s="126"/>
       <c r="J102" s="4" t="s">
@@ -18148,28 +18166,28 @@
     </row>
     <row r="103" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
-        <v>1124</v>
+        <v>1113</v>
       </c>
       <c r="B103" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D103" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E103" s="56" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="H103" s="126" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="I103" s="126"/>
       <c r="J103" s="4" t="s">
@@ -18193,28 +18211,28 @@
     </row>
     <row r="104" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B104" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D104" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E104" s="56" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="H104" s="126" t="s">
-        <v>1098</v>
+        <v>1087</v>
       </c>
       <c r="I104" s="126"/>
       <c r="J104" s="4" t="s">
@@ -18238,28 +18256,28 @@
     </row>
     <row r="105" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B105" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D105" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E105" s="56" t="s">
-        <v>1096</v>
+        <v>1085</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>1101</v>
+        <v>1090</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>1092</v>
+        <v>1081</v>
       </c>
       <c r="H105" s="126" t="s">
-        <v>1093</v>
+        <v>1082</v>
       </c>
       <c r="I105" s="126"/>
       <c r="J105" s="4" t="s">
@@ -18283,28 +18301,28 @@
     </row>
     <row r="106" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B106" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D106" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E106" s="56" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>1102</v>
+        <v>1091</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>1090</v>
+        <v>1079</v>
       </c>
       <c r="H106" s="126" t="s">
-        <v>1097</v>
+        <v>1086</v>
       </c>
       <c r="I106" s="126"/>
       <c r="J106" s="4" t="s">
@@ -18328,28 +18346,28 @@
     </row>
     <row r="107" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B107" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D107" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E107" s="56" t="s">
-        <v>1096</v>
+        <v>1085</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>1103</v>
+        <v>1092</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>1094</v>
+        <v>1083</v>
       </c>
       <c r="H107" s="126" t="s">
-        <v>1095</v>
+        <v>1084</v>
       </c>
       <c r="I107" s="126"/>
       <c r="J107" s="4" t="s">
@@ -18373,28 +18391,28 @@
     </row>
     <row r="108" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
-        <v>1154</v>
+        <v>1143</v>
       </c>
       <c r="B108" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D108" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E108" s="56" t="s">
-        <v>1112</v>
+        <v>1101</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
       <c r="H108" s="126" t="s">
-        <v>1104</v>
+        <v>1093</v>
       </c>
       <c r="I108" s="126"/>
       <c r="J108" s="4" t="s">
@@ -18418,28 +18436,28 @@
     </row>
     <row r="109" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B109" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D109" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E109" s="56" t="s">
-        <v>1112</v>
+        <v>1101</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>1113</v>
+        <v>1102</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>1114</v>
+        <v>1103</v>
       </c>
       <c r="H109" s="126" t="s">
-        <v>1115</v>
+        <v>1104</v>
       </c>
       <c r="I109" s="126"/>
       <c r="J109" s="4" t="s">
@@ -18463,28 +18481,28 @@
     </row>
     <row r="110" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B110" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D110" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E110" s="56" t="s">
-        <v>1112</v>
+        <v>1101</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="H110" s="126" t="s">
-        <v>1088</v>
+        <v>1077</v>
       </c>
       <c r="I110" s="126"/>
       <c r="J110" s="4" t="s">
@@ -18508,28 +18526,28 @@
     </row>
     <row r="111" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B111" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D111" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E111" s="56" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>1198</v>
+        <v>1187</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>1199</v>
+        <v>1188</v>
       </c>
       <c r="H111" s="126" t="s">
-        <v>1200</v>
+        <v>1189</v>
       </c>
       <c r="I111" s="126"/>
       <c r="J111" s="4" t="s">
@@ -18553,28 +18571,28 @@
     </row>
     <row r="112" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B112" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D112" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E112" s="56" t="s">
-        <v>1081</v>
+        <v>1071</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>1082</v>
+        <v>1072</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>1083</v>
+        <v>1073</v>
       </c>
       <c r="H112" s="126" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
       <c r="I112" s="126"/>
       <c r="J112" s="4" t="s">
@@ -18598,28 +18616,28 @@
     </row>
     <row r="113" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="B113" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>1201</v>
+        <v>1190</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>1055</v>
+        <v>1045</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="H113" s="126" t="s">
-        <v>1057</v>
+        <v>1047</v>
       </c>
       <c r="I113" s="126"/>
       <c r="J113" s="4" t="s">
@@ -18643,28 +18661,28 @@
     </row>
     <row r="114" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B114" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D114" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E114" s="56" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="H114" s="126" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="I114" s="126"/>
       <c r="J114" s="4" t="s">
@@ -18688,31 +18706,31 @@
     </row>
     <row r="115" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B115" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D115" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E115" s="56" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>1125</v>
+        <v>1114</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>1126</v>
+        <v>1115</v>
       </c>
       <c r="H115" s="126" t="s">
-        <v>1127</v>
+        <v>1116</v>
       </c>
       <c r="I115" s="126" t="s">
-        <v>1130</v>
+        <v>1119</v>
       </c>
       <c r="J115" s="4" t="s">
         <v>44</v>
@@ -18735,28 +18753,28 @@
     </row>
     <row r="116" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B116" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D116" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E116" s="56" t="s">
-        <v>1134</v>
+        <v>1123</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="H116" s="126" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="I116" s="126"/>
       <c r="J116" s="4" t="s">
@@ -18780,28 +18798,28 @@
     </row>
     <row r="117" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B117" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D117" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E117" s="56" t="s">
-        <v>1133</v>
+        <v>1122</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="H117" s="126" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="I117" s="126"/>
       <c r="J117" s="4" t="s">
@@ -18825,28 +18843,28 @@
     </row>
     <row r="118" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B118" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D118" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E118" s="56" t="s">
-        <v>1160</v>
+        <v>1149</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>1161</v>
+        <v>1150</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>1162</v>
+        <v>1151</v>
       </c>
       <c r="H118" s="126" t="s">
-        <v>1165</v>
+        <v>1154</v>
       </c>
       <c r="I118" s="126"/>
       <c r="J118" s="4" t="s">
@@ -18870,28 +18888,28 @@
     </row>
     <row r="119" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B119" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D119" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E119" s="56" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>1163</v>
+        <v>1152</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>1164</v>
+        <v>1153</v>
       </c>
       <c r="H119" s="126" t="s">
-        <v>1166</v>
+        <v>1155</v>
       </c>
       <c r="I119" s="126"/>
       <c r="J119" s="4" t="s">
@@ -18915,28 +18933,28 @@
     </row>
     <row r="120" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B120" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D120" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E120" s="56" t="s">
-        <v>1148</v>
+        <v>1137</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>1150</v>
+        <v>1139</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>1143</v>
+        <v>1132</v>
       </c>
       <c r="H120" s="126" t="s">
-        <v>1153</v>
+        <v>1142</v>
       </c>
       <c r="I120" s="126"/>
       <c r="J120" s="4" t="s">
@@ -18960,28 +18978,28 @@
     </row>
     <row r="121" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B121" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D121" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E121" s="56" t="s">
-        <v>1149</v>
+        <v>1138</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>1151</v>
+        <v>1140</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>1146</v>
+        <v>1135</v>
       </c>
       <c r="H121" s="126" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
       <c r="I121" s="126"/>
       <c r="J121" s="4" t="s">
@@ -19005,28 +19023,28 @@
     </row>
     <row r="122" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B122" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D122" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E122" s="56" t="s">
-        <v>1216</v>
+        <v>1205</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>1217</v>
+        <v>1206</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>1094</v>
+        <v>1083</v>
       </c>
       <c r="H122" s="126" t="s">
-        <v>1095</v>
+        <v>1084</v>
       </c>
       <c r="I122" s="126"/>
       <c r="J122" s="4" t="s">
@@ -19050,28 +19068,28 @@
     </row>
     <row r="123" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B123" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D123" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E123" s="56" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>1122</v>
+        <v>1111</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>1123</v>
+        <v>1112</v>
       </c>
       <c r="H123" s="126" t="s">
-        <v>1226</v>
+        <v>1215</v>
       </c>
       <c r="I123" s="126"/>
       <c r="J123" s="4" t="s">
@@ -19095,31 +19113,31 @@
     </row>
     <row r="124" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B124" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D124" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E124" s="56" t="s">
-        <v>1116</v>
+        <v>1105</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="H124" s="126" t="s">
+        <v>1109</v>
+      </c>
+      <c r="I124" s="126" t="s">
         <v>1120</v>
-      </c>
-      <c r="I124" s="126" t="s">
-        <v>1131</v>
       </c>
       <c r="J124" s="4" t="s">
         <v>43</v>
@@ -19142,31 +19160,31 @@
     </row>
     <row r="125" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B125" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D125" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E125" s="56" t="s">
-        <v>1116</v>
+        <v>1105</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="H125" s="126" t="s">
+        <v>1110</v>
+      </c>
+      <c r="I125" s="126" t="s">
         <v>1121</v>
-      </c>
-      <c r="I125" s="126" t="s">
-        <v>1132</v>
       </c>
       <c r="J125" s="4" t="s">
         <v>43</v>
@@ -19189,28 +19207,28 @@
     </row>
     <row r="126" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B126" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D126" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E126" s="56" t="s">
-        <v>1116</v>
+        <v>1105</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>1157</v>
+        <v>1146</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>1155</v>
+        <v>1144</v>
       </c>
       <c r="H126" s="126" t="s">
-        <v>1156</v>
+        <v>1145</v>
       </c>
       <c r="I126" s="126"/>
       <c r="J126" s="4" t="s">
@@ -19234,28 +19252,28 @@
     </row>
     <row r="127" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B127" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D127" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E127" s="56" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="H127" s="126" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="I127" s="126"/>
       <c r="J127" s="4" t="s">
@@ -19279,28 +19297,28 @@
     </row>
     <row r="128" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B128" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D128" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E128" s="56" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>1107</v>
+        <v>1096</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>1108</v>
+        <v>1097</v>
       </c>
       <c r="H128" s="126" t="s">
-        <v>1109</v>
+        <v>1098</v>
       </c>
       <c r="I128" s="126"/>
       <c r="J128" s="4" t="s">
@@ -19324,28 +19342,28 @@
     </row>
     <row r="129" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="B129" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D129" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E129" s="56" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>1035</v>
+        <v>1025</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="H129" s="126" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
       <c r="I129" s="126"/>
       <c r="J129" s="4" t="s">
@@ -19369,28 +19387,28 @@
     </row>
     <row r="130" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="B130" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D130" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E130" s="56" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="H130" s="126" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="I130" s="126"/>
       <c r="J130" s="4" t="s">
@@ -19414,31 +19432,31 @@
     </row>
     <row r="131" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="B131" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D131" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E131" s="56" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>1128</v>
+        <v>1117</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>1129</v>
+        <v>1118</v>
       </c>
       <c r="H131" s="126" t="s">
-        <v>1127</v>
+        <v>1116</v>
       </c>
       <c r="I131" s="126" t="s">
-        <v>1130</v>
+        <v>1119</v>
       </c>
       <c r="J131" s="4" t="s">
         <v>44</v>
@@ -19461,28 +19479,28 @@
     </row>
     <row r="132" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="B132" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D132" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E132" s="56" t="s">
-        <v>1133</v>
+        <v>1122</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>1140</v>
+        <v>1129</v>
       </c>
       <c r="H132" s="126" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="I132" s="126"/>
       <c r="J132" s="4" t="s">
@@ -19506,28 +19524,28 @@
     </row>
     <row r="133" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="B133" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D133" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E133" s="56" t="s">
-        <v>1133</v>
+        <v>1122</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>1141</v>
+        <v>1130</v>
       </c>
       <c r="H133" s="126" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="I133" s="126"/>
       <c r="J133" s="4" t="s">
@@ -19551,31 +19569,31 @@
     </row>
     <row r="134" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B134" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D134" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E134" s="56" t="s">
-        <v>1206</v>
+        <v>1195</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>1207</v>
+        <v>1196</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>1208</v>
+        <v>1197</v>
       </c>
       <c r="H134" s="126" t="s">
-        <v>1212</v>
+        <v>1201</v>
       </c>
       <c r="I134" s="126" t="s">
-        <v>1209</v>
+        <v>1198</v>
       </c>
       <c r="J134" s="4" t="s">
         <v>45</v>
@@ -19598,28 +19616,28 @@
     </row>
     <row r="135" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="B135" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D135" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E135" s="56" t="s">
-        <v>1206</v>
+        <v>1195</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>1210</v>
+        <v>1199</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>1211</v>
+        <v>1200</v>
       </c>
       <c r="H135" s="126" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="I135" s="126"/>
       <c r="J135" s="4" t="s">
@@ -19643,28 +19661,28 @@
     </row>
     <row r="136" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B136" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D136" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E136" s="56" t="s">
-        <v>1148</v>
+        <v>1137</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>1142</v>
+        <v>1131</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>1143</v>
+        <v>1132</v>
       </c>
       <c r="H136" s="126" t="s">
-        <v>1144</v>
+        <v>1133</v>
       </c>
       <c r="I136" s="126"/>
       <c r="J136" s="4" t="s">
@@ -19688,28 +19706,28 @@
     </row>
     <row r="137" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="B137" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D137" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E137" s="56" t="s">
-        <v>1149</v>
+        <v>1138</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>1145</v>
+        <v>1134</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>1146</v>
+        <v>1135</v>
       </c>
       <c r="H137" s="126" t="s">
-        <v>1147</v>
+        <v>1136</v>
       </c>
       <c r="I137" s="126"/>
       <c r="J137" s="4" t="s">
@@ -19733,28 +19751,28 @@
     </row>
     <row r="138" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B138" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D138" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E138" s="56" t="s">
-        <v>1216</v>
+        <v>1205</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>1218</v>
+        <v>1207</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>1094</v>
+        <v>1083</v>
       </c>
       <c r="H138" s="126" t="s">
-        <v>1095</v>
+        <v>1084</v>
       </c>
       <c r="I138" s="126"/>
       <c r="J138" s="4" t="s">
@@ -19778,28 +19796,28 @@
     </row>
     <row r="139" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="B139" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D139" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E139" s="56" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>1135</v>
+        <v>1124</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>1123</v>
+        <v>1112</v>
       </c>
       <c r="H139" s="126" t="s">
-        <v>1225</v>
+        <v>1214</v>
       </c>
       <c r="I139" s="126"/>
       <c r="J139" s="4" t="s">
@@ -19823,31 +19841,31 @@
     </row>
     <row r="140" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="B140" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D140" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E140" s="56" t="s">
-        <v>1116</v>
+        <v>1105</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>1136</v>
+        <v>1125</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>1138</v>
+        <v>1127</v>
       </c>
       <c r="H140" s="126" t="s">
-        <v>1237</v>
+        <v>1226</v>
       </c>
       <c r="I140" s="126" t="s">
-        <v>1131</v>
+        <v>1120</v>
       </c>
       <c r="J140" s="4" t="s">
         <v>43</v>
@@ -19870,31 +19888,31 @@
     </row>
     <row r="141" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="B141" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D141" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E141" s="56" t="s">
-        <v>1116</v>
+        <v>1105</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>1137</v>
+        <v>1126</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>1139</v>
+        <v>1128</v>
       </c>
       <c r="H141" s="126" t="s">
-        <v>1238</v>
+        <v>1227</v>
       </c>
       <c r="I141" s="126" t="s">
-        <v>1132</v>
+        <v>1121</v>
       </c>
       <c r="J141" s="4" t="s">
         <v>43</v>
@@ -19917,28 +19935,28 @@
     </row>
     <row r="142" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="B142" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D142" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E142" s="56" t="s">
-        <v>1116</v>
+        <v>1105</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>1158</v>
+        <v>1147</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>1155</v>
+        <v>1144</v>
       </c>
       <c r="H142" s="126" t="s">
-        <v>1159</v>
+        <v>1148</v>
       </c>
       <c r="I142" s="126"/>
       <c r="J142" s="4" t="s">
@@ -19962,37 +19980,31 @@
     </row>
     <row r="143" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="B143" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="E143" s="4" t="s">
-        <v>718</v>
+        <v>712</v>
+      </c>
+      <c r="D143" s="56" t="s">
+        <v>542</v>
+      </c>
+      <c r="E143" s="56" t="s">
+        <v>1251</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>1202</v>
+        <v>1252</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>1058</v>
-      </c>
-      <c r="H143" s="126" t="s">
-        <v>1059</v>
-      </c>
+        <v>1253</v>
+      </c>
+      <c r="H143" s="126"/>
       <c r="I143" s="126"/>
-      <c r="J143" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="J143" s="4"/>
       <c r="K143" s="4"/>
-      <c r="L143" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="L143" s="4"/>
       <c r="M143" s="4"/>
       <c r="N143" s="4"/>
       <c r="O143" s="4"/>
@@ -20007,28 +20019,28 @@
     </row>
     <row r="144" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="B144" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>922</v>
+        <v>716</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>1060</v>
+        <v>1191</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>1061</v>
+        <v>1048</v>
       </c>
       <c r="H144" s="126" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
       <c r="I144" s="126"/>
       <c r="J144" s="4" t="s">
@@ -20052,28 +20064,28 @@
     </row>
     <row r="145" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="B145" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>719</v>
+        <v>912</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>1063</v>
+        <v>1050</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>1064</v>
+        <v>1051</v>
       </c>
       <c r="H145" s="126" t="s">
-        <v>1067</v>
+        <v>1052</v>
       </c>
       <c r="I145" s="126"/>
       <c r="J145" s="4" t="s">
@@ -20097,28 +20109,28 @@
     </row>
     <row r="146" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B146" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="D146" s="56" t="s">
-        <v>543</v>
-      </c>
-      <c r="E146" s="56" t="s">
-        <v>914</v>
+        <v>712</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>717</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>1203</v>
+        <v>1053</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>1205</v>
+        <v>1054</v>
       </c>
       <c r="H146" s="126" t="s">
-        <v>883</v>
+        <v>1057</v>
       </c>
       <c r="I146" s="126"/>
       <c r="J146" s="4" t="s">
@@ -20142,32 +20154,32 @@
     </row>
     <row r="147" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="B147" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D147" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E147" s="56" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>1204</v>
+        <v>1192</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>1110</v>
+        <v>1194</v>
       </c>
       <c r="H147" s="126" t="s">
-        <v>1111</v>
+        <v>873</v>
       </c>
       <c r="I147" s="126"/>
       <c r="J147" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K147" s="4"/>
       <c r="L147" s="4" t="s">
@@ -20187,34 +20199,32 @@
     </row>
     <row r="148" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="B148" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="D148" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>719</v>
+        <v>712</v>
+      </c>
+      <c r="D148" s="56" t="s">
+        <v>542</v>
+      </c>
+      <c r="E148" s="56" t="s">
+        <v>904</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>923</v>
+        <v>1193</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>721</v>
+        <v>1099</v>
       </c>
       <c r="H148" s="126" t="s">
-        <v>905</v>
-      </c>
-      <c r="I148" s="126" t="s">
-        <v>723</v>
-      </c>
+        <v>1100</v>
+      </c>
+      <c r="I148" s="126"/>
       <c r="J148" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K148" s="4"/>
       <c r="L148" s="4" t="s">
@@ -20234,31 +20244,31 @@
     </row>
     <row r="149" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="B149" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E149" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="G149" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="F149" s="4" t="s">
-        <v>924</v>
-      </c>
-      <c r="G149" s="4" t="s">
-        <v>720</v>
-      </c>
       <c r="H149" s="126" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="I149" s="126" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="J149" s="4" t="s">
         <v>43</v>
@@ -20281,34 +20291,34 @@
     </row>
     <row r="150" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4" t="s">
-        <v>734</v>
+        <v>782</v>
       </c>
       <c r="B150" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="D150" s="56" t="s">
-        <v>543</v>
-      </c>
-      <c r="E150" s="56" t="s">
-        <v>1240</v>
+        <v>712</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>717</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>1241</v>
+        <v>914</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>1242</v>
+        <v>718</v>
       </c>
       <c r="H150" s="126" t="s">
-        <v>1127</v>
+        <v>896</v>
       </c>
       <c r="I150" s="126" t="s">
-        <v>1243</v>
+        <v>720</v>
       </c>
       <c r="J150" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K150" s="4"/>
       <c r="L150" s="4" t="s">
@@ -20328,34 +20338,34 @@
     </row>
     <row r="151" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4" t="s">
-        <v>674</v>
+        <v>728</v>
       </c>
       <c r="B151" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D151" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E151" s="56" t="s">
-        <v>1206</v>
+        <v>1229</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>1214</v>
+        <v>1230</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>1146</v>
+        <v>1231</v>
       </c>
       <c r="H151" s="126" t="s">
-        <v>1215</v>
+        <v>1116</v>
       </c>
       <c r="I151" s="126" t="s">
-        <v>1223</v>
+        <v>1232</v>
       </c>
       <c r="J151" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K151" s="4"/>
       <c r="L151" s="4" t="s">
@@ -20375,30 +20385,32 @@
     </row>
     <row r="152" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="B152" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D152" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E152" s="56" t="s">
-        <v>1216</v>
+        <v>1195</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>1222</v>
+        <v>1203</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>1094</v>
+        <v>1135</v>
       </c>
       <c r="H152" s="126" t="s">
-        <v>1095</v>
-      </c>
-      <c r="I152" s="126"/>
+        <v>1204</v>
+      </c>
+      <c r="I152" s="126" t="s">
+        <v>1212</v>
+      </c>
       <c r="J152" s="4" t="s">
         <v>45</v>
       </c>
@@ -20420,32 +20432,30 @@
     </row>
     <row r="153" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B153" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D153" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E153" s="56" t="s">
-        <v>799</v>
+        <v>1205</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>899</v>
+        <v>1083</v>
       </c>
       <c r="H153" s="126" t="s">
-        <v>1221</v>
-      </c>
-      <c r="I153" s="126" t="s">
-        <v>1224</v>
-      </c>
+        <v>1084</v>
+      </c>
+      <c r="I153" s="126"/>
       <c r="J153" s="4" t="s">
         <v>45</v>
       </c>
@@ -20467,30 +20477,32 @@
     </row>
     <row r="154" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B154" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D154" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E154" s="56" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>1092</v>
+        <v>889</v>
       </c>
       <c r="H154" s="126" t="s">
-        <v>1093</v>
-      </c>
-      <c r="I154" s="126"/>
+        <v>1210</v>
+      </c>
+      <c r="I154" s="126" t="s">
+        <v>1213</v>
+      </c>
       <c r="J154" s="4" t="s">
         <v>45</v>
       </c>
@@ -20512,32 +20524,32 @@
     </row>
     <row r="155" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4" t="s">
-        <v>789</v>
+        <v>659</v>
       </c>
       <c r="B155" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="E155" s="4" t="s">
-        <v>719</v>
+        <v>712</v>
+      </c>
+      <c r="D155" s="56" t="s">
+        <v>542</v>
+      </c>
+      <c r="E155" s="56" t="s">
+        <v>796</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>1068</v>
+        <v>1209</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>904</v>
+        <v>1081</v>
       </c>
       <c r="H155" s="126" t="s">
-        <v>724</v>
+        <v>1082</v>
       </c>
       <c r="I155" s="126"/>
       <c r="J155" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K155" s="4"/>
       <c r="L155" s="4" t="s">
@@ -20557,32 +20569,32 @@
     </row>
     <row r="156" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="B156" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>1069</v>
+        <v>1058</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>1070</v>
+        <v>894</v>
       </c>
       <c r="H156" s="126" t="s">
-        <v>1071</v>
+        <v>722</v>
       </c>
       <c r="I156" s="126"/>
       <c r="J156" s="4" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="K156" s="4"/>
       <c r="L156" s="4" t="s">
@@ -20602,32 +20614,32 @@
     </row>
     <row r="157" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="B157" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>1227</v>
+        <v>1059</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>1228</v>
+        <v>1060</v>
       </c>
       <c r="H157" s="126" t="s">
-        <v>1229</v>
+        <v>1061</v>
       </c>
       <c r="I157" s="126"/>
       <c r="J157" s="4" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="K157" s="4"/>
       <c r="L157" s="4" t="s">
@@ -20647,32 +20659,30 @@
     </row>
     <row r="158" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4" t="s">
-        <v>776</v>
+        <v>785</v>
       </c>
       <c r="B158" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="D158" s="56" t="s">
-        <v>543</v>
-      </c>
-      <c r="E158" s="56" t="s">
-        <v>1230</v>
+        <v>712</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>717</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>1232</v>
+        <v>1216</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>1233</v>
+        <v>1217</v>
       </c>
       <c r="H158" s="126" t="s">
-        <v>1236</v>
-      </c>
-      <c r="I158" s="126" t="s">
-        <v>1239</v>
-      </c>
+        <v>1218</v>
+      </c>
+      <c r="I158" s="126"/>
       <c r="J158" s="4" t="s">
         <v>43</v>
       </c>
@@ -20694,31 +20704,31 @@
     </row>
     <row r="159" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="B159" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D159" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E159" s="56" t="s">
-        <v>1231</v>
+        <v>1219</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>1244</v>
+        <v>1221</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>1234</v>
+        <v>1222</v>
       </c>
       <c r="H159" s="126" t="s">
-        <v>1235</v>
+        <v>1225</v>
       </c>
       <c r="I159" s="126" t="s">
-        <v>1239</v>
+        <v>1228</v>
       </c>
       <c r="J159" s="4" t="s">
         <v>43</v>
@@ -20741,32 +20751,34 @@
     </row>
     <row r="160" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="B160" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D160" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E160" s="56" t="s">
-        <v>1116</v>
+        <v>1220</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>1245</v>
+        <v>1233</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>1155</v>
+        <v>1223</v>
       </c>
       <c r="H160" s="126" t="s">
-        <v>1246</v>
-      </c>
-      <c r="I160" s="126"/>
+        <v>1224</v>
+      </c>
+      <c r="I160" s="126" t="s">
+        <v>1228</v>
+      </c>
       <c r="J160" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K160" s="4"/>
       <c r="L160" s="4" t="s">
@@ -20786,32 +20798,32 @@
     </row>
     <row r="161" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="B161" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="D161" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="E161" s="4" t="s">
-        <v>1247</v>
+        <v>712</v>
+      </c>
+      <c r="D161" s="56" t="s">
+        <v>542</v>
+      </c>
+      <c r="E161" s="56" t="s">
+        <v>1105</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>900</v>
+        <v>1234</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>901</v>
+        <v>1144</v>
       </c>
       <c r="H161" s="126" t="s">
-        <v>1248</v>
+        <v>1235</v>
       </c>
       <c r="I161" s="126"/>
       <c r="J161" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K161" s="4"/>
       <c r="L161" s="4" t="s">
@@ -20831,32 +20843,32 @@
     </row>
     <row r="162" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="B162" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>914</v>
+        <v>1236</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
       <c r="H162" s="126" t="s">
-        <v>1249</v>
+        <v>1237</v>
       </c>
       <c r="I162" s="126"/>
       <c r="J162" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K162" s="4"/>
       <c r="L162" s="4" t="s">
@@ -20876,32 +20888,32 @@
     </row>
     <row r="163" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4" t="s">
-        <v>829</v>
+        <v>778</v>
       </c>
       <c r="B163" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>719</v>
+        <v>904</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>725</v>
+        <v>893</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>925</v>
+        <v>892</v>
       </c>
       <c r="H163" s="126" t="s">
-        <v>726</v>
+        <v>1238</v>
       </c>
       <c r="I163" s="126"/>
       <c r="J163" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K163" s="4"/>
       <c r="L163" s="4" t="s">
@@ -20921,28 +20933,28 @@
     </row>
     <row r="164" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4" t="s">
-        <v>928</v>
+        <v>820</v>
       </c>
       <c r="B164" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>714</v>
+        <v>1239</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>727</v>
+        <v>1250</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="H164" s="126" t="s">
-        <v>728</v>
+        <v>1246</v>
       </c>
       <c r="I164" s="126"/>
       <c r="J164" s="4" t="s">
@@ -20966,28 +20978,28 @@
     </row>
     <row r="165" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="B165" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>714</v>
+        <v>1239</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>1065</v>
+        <v>723</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>730</v>
+        <v>916</v>
       </c>
       <c r="H165" s="126" t="s">
-        <v>731</v>
+        <v>1249</v>
       </c>
       <c r="I165" s="126"/>
       <c r="J165" s="4" t="s">
@@ -21011,28 +21023,28 @@
     </row>
     <row r="166" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="B166" s="117" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>714</v>
+        <v>1239</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>1066</v>
+        <v>1055</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="H166" s="126" t="s">
-        <v>860</v>
+        <v>1246</v>
       </c>
       <c r="I166" s="126"/>
       <c r="J166" s="4" t="s">
@@ -21056,32 +21068,32 @@
     </row>
     <row r="167" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4" t="s">
-        <v>931</v>
-      </c>
-      <c r="B167" s="130" t="s">
-        <v>1075</v>
+        <v>920</v>
+      </c>
+      <c r="B167" s="117" t="s">
+        <v>711</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>1076</v>
+        <v>1239</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>496</v>
+        <v>542</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>761</v>
+        <v>724</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>1072</v>
+        <v>1056</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>1073</v>
+        <v>725</v>
       </c>
       <c r="H167" s="126" t="s">
-        <v>1074</v>
-      </c>
-      <c r="I167" s="128"/>
+        <v>1249</v>
+      </c>
+      <c r="I167" s="126"/>
       <c r="J167" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K167" s="4"/>
       <c r="L167" s="4" t="s">
@@ -21101,15 +21113,29 @@
     </row>
     <row r="168" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4" t="s">
-        <v>932</v>
-      </c>
-      <c r="B168" s="4"/>
-      <c r="C168" s="4"/>
-      <c r="D168" s="4"/>
-      <c r="E168" s="4"/>
-      <c r="F168" s="4"/>
-      <c r="G168" s="4"/>
-      <c r="H168" s="126"/>
+        <v>921</v>
+      </c>
+      <c r="B168" s="117" t="s">
+        <v>711</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>1245</v>
+      </c>
+      <c r="H168" s="126" t="s">
+        <v>1246</v>
+      </c>
       <c r="I168" s="126"/>
       <c r="J168" s="4"/>
       <c r="K168" s="4"/>
@@ -21128,15 +21154,29 @@
     </row>
     <row r="169" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4" t="s">
-        <v>933</v>
-      </c>
-      <c r="B169" s="4"/>
-      <c r="C169" s="4"/>
-      <c r="D169" s="4"/>
-      <c r="E169" s="4"/>
-      <c r="F169" s="4"/>
-      <c r="G169" s="4"/>
-      <c r="H169" s="126"/>
+        <v>922</v>
+      </c>
+      <c r="B169" s="117" t="s">
+        <v>711</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>1247</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H169" s="126" t="s">
+        <v>1249</v>
+      </c>
       <c r="I169" s="126"/>
       <c r="J169" s="4"/>
       <c r="K169" s="4"/>
@@ -21155,19 +21195,37 @@
     </row>
     <row r="170" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4" t="s">
-        <v>934</v>
-      </c>
-      <c r="B170" s="4"/>
-      <c r="C170" s="4"/>
-      <c r="D170" s="4"/>
-      <c r="E170" s="4"/>
-      <c r="F170" s="4"/>
-      <c r="G170" s="4"/>
-      <c r="H170" s="126"/>
-      <c r="I170" s="126"/>
-      <c r="J170" s="4"/>
+        <v>921</v>
+      </c>
+      <c r="B170" s="130" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H170" s="126" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I170" s="128"/>
+      <c r="J170" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="K170" s="4"/>
-      <c r="L170" s="4"/>
+      <c r="L170" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M170" s="4"/>
       <c r="N170" s="4"/>
       <c r="O170" s="4"/>
@@ -21182,7 +21240,7 @@
     </row>
     <row r="171" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4" t="s">
-        <v>935</v>
+        <v>922</v>
       </c>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -21209,7 +21267,7 @@
     </row>
     <row r="172" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4" t="s">
-        <v>936</v>
+        <v>923</v>
       </c>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -21236,7 +21294,7 @@
     </row>
     <row r="173" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4" t="s">
-        <v>937</v>
+        <v>924</v>
       </c>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -21263,7 +21321,7 @@
     </row>
     <row r="174" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4" t="s">
-        <v>938</v>
+        <v>925</v>
       </c>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -21290,7 +21348,7 @@
     </row>
     <row r="175" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4" t="s">
-        <v>939</v>
+        <v>926</v>
       </c>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -21317,7 +21375,7 @@
     </row>
     <row r="176" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4" t="s">
-        <v>940</v>
+        <v>927</v>
       </c>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -21344,7 +21402,7 @@
     </row>
     <row r="177" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4" t="s">
-        <v>941</v>
+        <v>928</v>
       </c>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -21371,7 +21429,7 @@
     </row>
     <row r="178" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4" t="s">
-        <v>942</v>
+        <v>929</v>
       </c>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -21398,7 +21456,7 @@
     </row>
     <row r="179" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4" t="s">
-        <v>943</v>
+        <v>930</v>
       </c>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -21425,7 +21483,7 @@
     </row>
     <row r="180" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4" t="s">
-        <v>944</v>
+        <v>931</v>
       </c>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -21452,7 +21510,7 @@
     </row>
     <row r="181" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4" t="s">
-        <v>945</v>
+        <v>932</v>
       </c>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -21479,7 +21537,7 @@
     </row>
     <row r="182" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4" t="s">
-        <v>963</v>
+        <v>933</v>
       </c>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -21506,7 +21564,7 @@
     </row>
     <row r="183" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4" t="s">
-        <v>964</v>
+        <v>934</v>
       </c>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -21533,7 +21591,7 @@
     </row>
     <row r="184" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4" t="s">
-        <v>965</v>
+        <v>935</v>
       </c>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -21560,7 +21618,7 @@
     </row>
     <row r="185" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4" t="s">
-        <v>966</v>
+        <v>953</v>
       </c>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -21587,7 +21645,7 @@
     </row>
     <row r="186" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4" t="s">
-        <v>1014</v>
+        <v>954</v>
       </c>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -21614,7 +21672,7 @@
     </row>
     <row r="187" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4" t="s">
-        <v>1015</v>
+        <v>955</v>
       </c>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -21641,7 +21699,7 @@
     </row>
     <row r="188" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4" t="s">
-        <v>1016</v>
+        <v>956</v>
       </c>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -21668,7 +21726,7 @@
     </row>
     <row r="189" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4" t="s">
-        <v>1017</v>
+        <v>1004</v>
       </c>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -21695,7 +21753,7 @@
     </row>
     <row r="190" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4" t="s">
-        <v>1018</v>
+        <v>1005</v>
       </c>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -21722,7 +21780,7 @@
     </row>
     <row r="191" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4" t="s">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -21749,7 +21807,7 @@
     </row>
     <row r="192" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4" t="s">
-        <v>1020</v>
+        <v>1007</v>
       </c>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -21776,7 +21834,7 @@
     </row>
     <row r="193" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4" t="s">
-        <v>1021</v>
+        <v>1008</v>
       </c>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -21803,7 +21861,7 @@
     </row>
     <row r="194" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4" t="s">
-        <v>1022</v>
+        <v>1009</v>
       </c>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -21830,7 +21888,7 @@
     </row>
     <row r="195" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4" t="s">
-        <v>1023</v>
+        <v>1010</v>
       </c>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -21857,7 +21915,7 @@
     </row>
     <row r="196" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4" t="s">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -21884,7 +21942,7 @@
     </row>
     <row r="197" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4" t="s">
-        <v>1168</v>
+        <v>1012</v>
       </c>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -21911,7 +21969,7 @@
     </row>
     <row r="198" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4" t="s">
-        <v>1169</v>
+        <v>1013</v>
       </c>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -21938,7 +21996,7 @@
     </row>
     <row r="199" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4" t="s">
-        <v>1170</v>
+        <v>1014</v>
       </c>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -21965,7 +22023,7 @@
     </row>
     <row r="200" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4" t="s">
-        <v>1171</v>
+        <v>1157</v>
       </c>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -21992,7 +22050,7 @@
     </row>
     <row r="201" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4" t="s">
-        <v>1172</v>
+        <v>1158</v>
       </c>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -22019,7 +22077,7 @@
     </row>
     <row r="202" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4" t="s">
-        <v>1173</v>
+        <v>1159</v>
       </c>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -22046,7 +22104,7 @@
     </row>
     <row r="203" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4" t="s">
-        <v>1174</v>
+        <v>1160</v>
       </c>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -22073,7 +22131,7 @@
     </row>
     <row r="204" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4" t="s">
-        <v>1175</v>
+        <v>1161</v>
       </c>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -22100,7 +22158,7 @@
     </row>
     <row r="205" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4" t="s">
-        <v>1176</v>
+        <v>1162</v>
       </c>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -22127,7 +22185,7 @@
     </row>
     <row r="206" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4" t="s">
-        <v>1177</v>
+        <v>1163</v>
       </c>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -22154,7 +22212,7 @@
     </row>
     <row r="207" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4" t="s">
-        <v>1178</v>
+        <v>1164</v>
       </c>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -22181,7 +22239,7 @@
     </row>
     <row r="208" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4" t="s">
-        <v>1179</v>
+        <v>1165</v>
       </c>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -22208,7 +22266,7 @@
     </row>
     <row r="209" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4" t="s">
-        <v>1180</v>
+        <v>1166</v>
       </c>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -22235,7 +22293,7 @@
     </row>
     <row r="210" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4" t="s">
-        <v>1181</v>
+        <v>1167</v>
       </c>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -22262,7 +22320,7 @@
     </row>
     <row r="211" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4" t="s">
-        <v>1182</v>
+        <v>1168</v>
       </c>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -22289,7 +22347,7 @@
     </row>
     <row r="212" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4" t="s">
-        <v>1183</v>
+        <v>1169</v>
       </c>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -22316,7 +22374,7 @@
     </row>
     <row r="213" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4" t="s">
-        <v>1184</v>
+        <v>1170</v>
       </c>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -22343,7 +22401,7 @@
     </row>
     <row r="214" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4" t="s">
-        <v>1185</v>
+        <v>1171</v>
       </c>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -22370,7 +22428,7 @@
     </row>
     <row r="215" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4" t="s">
-        <v>1186</v>
+        <v>1172</v>
       </c>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -22397,7 +22455,7 @@
     </row>
     <row r="216" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4" t="s">
-        <v>1187</v>
+        <v>1173</v>
       </c>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -22424,7 +22482,7 @@
     </row>
     <row r="217" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4" t="s">
-        <v>1188</v>
+        <v>1174</v>
       </c>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -22451,7 +22509,7 @@
     </row>
     <row r="218" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4" t="s">
-        <v>1189</v>
+        <v>1175</v>
       </c>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -22478,7 +22536,7 @@
     </row>
     <row r="219" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4" t="s">
-        <v>1190</v>
+        <v>1176</v>
       </c>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -22505,7 +22563,7 @@
     </row>
     <row r="220" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4" t="s">
-        <v>1191</v>
+        <v>1177</v>
       </c>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -22532,7 +22590,7 @@
     </row>
     <row r="221" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4" t="s">
-        <v>1192</v>
+        <v>1178</v>
       </c>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -22559,7 +22617,7 @@
     </row>
     <row r="222" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4" t="s">
-        <v>1193</v>
+        <v>1179</v>
       </c>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -22586,7 +22644,7 @@
     </row>
     <row r="223" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4" t="s">
-        <v>1194</v>
+        <v>1180</v>
       </c>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -22613,7 +22671,7 @@
     </row>
     <row r="224" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4" t="s">
-        <v>1195</v>
+        <v>1181</v>
       </c>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -22640,7 +22698,7 @@
     </row>
     <row r="225" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4" t="s">
-        <v>1196</v>
+        <v>1182</v>
       </c>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -22667,7 +22725,7 @@
     </row>
     <row r="226" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4" t="s">
-        <v>1197</v>
+        <v>1183</v>
       </c>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -22692,6 +22750,87 @@
       <c r="V226" s="4"/>
       <c r="W226" s="4"/>
     </row>
+    <row r="227" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A227" s="4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B227" s="4"/>
+      <c r="C227" s="4"/>
+      <c r="D227" s="4"/>
+      <c r="E227" s="4"/>
+      <c r="F227" s="4"/>
+      <c r="G227" s="4"/>
+      <c r="H227" s="126"/>
+      <c r="I227" s="126"/>
+      <c r="J227" s="4"/>
+      <c r="K227" s="4"/>
+      <c r="L227" s="4"/>
+      <c r="M227" s="4"/>
+      <c r="N227" s="4"/>
+      <c r="O227" s="4"/>
+      <c r="P227" s="4"/>
+      <c r="Q227" s="4"/>
+      <c r="R227" s="4"/>
+      <c r="S227" s="4"/>
+      <c r="T227" s="54"/>
+      <c r="U227" s="4"/>
+      <c r="V227" s="4"/>
+      <c r="W227" s="4"/>
+    </row>
+    <row r="228" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A228" s="4" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B228" s="4"/>
+      <c r="C228" s="4"/>
+      <c r="D228" s="4"/>
+      <c r="E228" s="4"/>
+      <c r="F228" s="4"/>
+      <c r="G228" s="4"/>
+      <c r="H228" s="126"/>
+      <c r="I228" s="126"/>
+      <c r="J228" s="4"/>
+      <c r="K228" s="4"/>
+      <c r="L228" s="4"/>
+      <c r="M228" s="4"/>
+      <c r="N228" s="4"/>
+      <c r="O228" s="4"/>
+      <c r="P228" s="4"/>
+      <c r="Q228" s="4"/>
+      <c r="R228" s="4"/>
+      <c r="S228" s="4"/>
+      <c r="T228" s="54"/>
+      <c r="U228" s="4"/>
+      <c r="V228" s="4"/>
+      <c r="W228" s="4"/>
+    </row>
+    <row r="229" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A229" s="4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B229" s="4"/>
+      <c r="C229" s="4"/>
+      <c r="D229" s="4"/>
+      <c r="E229" s="4"/>
+      <c r="F229" s="4"/>
+      <c r="G229" s="4"/>
+      <c r="H229" s="126"/>
+      <c r="I229" s="126"/>
+      <c r="J229" s="4"/>
+      <c r="K229" s="4"/>
+      <c r="L229" s="4"/>
+      <c r="M229" s="4"/>
+      <c r="N229" s="4"/>
+      <c r="O229" s="4"/>
+      <c r="P229" s="4"/>
+      <c r="Q229" s="4"/>
+      <c r="R229" s="4"/>
+      <c r="S229" s="4"/>
+      <c r="T229" s="54"/>
+      <c r="U229" s="4"/>
+      <c r="V229" s="4"/>
+      <c r="W229" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22703,49 +22842,49 @@
           <x14:formula1>
             <xm:f>Sheet2!$M$4:$M$6</xm:f>
           </x14:formula1>
-          <xm:sqref>S3:S226</xm:sqref>
+          <xm:sqref>S3:S229</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$G$4:$G$11</xm:f>
           </x14:formula1>
-          <xm:sqref>R3:R226</xm:sqref>
+          <xm:sqref>R3:R229</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$K$4:$K$13</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:K226</xm:sqref>
+          <xm:sqref>K3:K229</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$J$4:$J$9</xm:f>
           </x14:formula1>
-          <xm:sqref>Q3:Q226</xm:sqref>
+          <xm:sqref>Q3:Q229</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$G$4:$G$10</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:O226</xm:sqref>
+          <xm:sqref>M3:O229</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$F$4:$F$8</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L226</xm:sqref>
+          <xm:sqref>L3:L229</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$D$4:$D$9</xm:f>
           </x14:formula1>
-          <xm:sqref>J3:J226</xm:sqref>
+          <xm:sqref>J3:J229</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Story Point">
           <x14:formula1>
             <xm:f>'C:\Users\Omnex\Documents\[performanetools1.txt.xlsx]Data_Ref'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>P3:P226</xm:sqref>
+          <xm:sqref>P3:P229</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -22896,13 +23035,13 @@
         <v>497</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1105</v>
+        <v>1094</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>349</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>1106</v>
+        <v>1095</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>

--- a/projects/YanFeng/02 System Design/User Stories/User Stories.xlsx
+++ b/projects/YanFeng/02 System Design/User Stories/User Stories.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2909" uniqueCount="1254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2988" uniqueCount="1276">
   <si>
     <t>ID</t>
   </si>
@@ -2748,18 +2748,6 @@
     <t>US117</t>
   </si>
   <si>
-    <t>US118</t>
-  </si>
-  <si>
-    <t>US119</t>
-  </si>
-  <si>
-    <t>US120</t>
-  </si>
-  <si>
-    <t>US121</t>
-  </si>
-  <si>
     <t>View the part information in read-only mode if the part task had been published to ASDE/SQE</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3162,9 +3150,6 @@
     <t>US130</t>
   </si>
   <si>
-    <t>US131</t>
-  </si>
-  <si>
     <t>US132</t>
   </si>
   <si>
@@ -4546,43 +4531,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Audit a APQP main tasks</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can approve the APQP main task</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can reject the APQP main task</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, User should see Editable dropdown list "Status" "Assignee" and "Approval Status";
-2, User should be able to select "Approved" status in dropdown list "Approval Status"
-3, User should be able to select "Close" status in dropdown list "Status"
-4, User should be able to approve the task by clicking the button "Submit Task";
-5, The closed APQP should be displayed in green color in task list view;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, User should see Editable dropdown list "Status" "Assignee" and "Approval Status";
-2, User should be able to select "Rejected" status in dropdown list "Approval Status";
-3, User should be not able to select "Close" status in dropdown list "Status";
-4, User should be able to select previously assignee in dropdown list "Assignee";
-5, User should be able to reject the task by clicking the button "Submit Task";
-6, The rejected APQP task should be return to the assignee for further updating ;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Submit the APQP main task for approval</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can start the audit process</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>US101</t>
   </si>
   <si>
@@ -4611,52 +4559,6 @@
     <t>The task status that ASDE/SQE can operate: 
 New -&gt; In Processing
 Reopen - &gt; In Processing</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>The task status that ASDE/SQE supervisor can operate: 
-In Processing -&gt; Close
-Close -&gt; Reopen
-New -&gt; In Processing
-Reopen - In Processing</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>The task status that ASDE/SQE supervisor can operate: 
-In Processing -&gt; Close
-Close -&gt; Reopen
-New -&gt; In Processing
-Reopen - In Processing</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ASDE/SQE supervisor</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ASDE/SQE supervisor</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Submit the PPAP main task for approval</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Audit a PPAP main tasks</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Audit a PPAP main tasks</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can approve the PPAP main task</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can reject the PPAP main task</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -4735,28 +4637,6 @@
   </si>
   <si>
     <t>I can provide the reason of rejection to the assignee</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, The comment of Rejection is mandatory;
-2, The window "add comment" should pop up automatically when user select approval status "Rejected" and click on button "Submit Task";
-3, The task should be submited when user click on the button "Save" in "Add Comment" window (if comment stored successfully);
-4, The comment should be displayed in comment list in the page "Edit APQP Main Task Information";</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide a comment for the rejected APQP main task </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provide a comment for the rejected PPAP main task </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, The comment of Rejection is mandatory;
-2, The window "add comment" should pop up automatically when user select approval status "Rejected" and click on button "Submit Task";
-3, The task should be submited when user click on the button "Save" in "Add Comment" window (if comment stored successfully);
-4, The comment should be displayed in comment list in the page "Edit PPAP Main Task Information";</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -5018,22 +4898,6 @@
   </si>
   <si>
     <t>New comment window is as same as the add comment window of part task</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, User should see the fields Assignee,Approver,Approval Status in read-only mode;
-2, Assignee value should be ASDE/SQE name(current user name)
-3, Approver value should be ASDE/SQE supervisor;
-4, Approval Status value should be "Waiting for approve";
-5, User should be able to click "Submit Task" button to submit the PPAP main task;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, User should see the fields Assignee,Approver,Approval Status in read-only mode;
-2, Assignee value should be ASDE/SQE name(current user name)
-3, Approver value should be ASDE/SQE supervisor;
-4, Approval Status value should be "Waiting for approve";
-5, User should be able to click "Submit Task" button to submit the APQP main task;</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -5092,23 +4956,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1, User should see Editable dropdown list "Status" "Assignee" and "Approval Status";
-2, User should be able to select "Approved" status in dropdown list "Approval Status"
-3, User should be able to select "Close" status in dropdown list "Status"
-4, User should be able to approve the task by clicking the button "Submit Task";
-5, The closed PPAP main task should be displayed in green color in task list view;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, User should see Editable dropdown list "Status" "Assignee" and "Approval Status";
-2, User should be able to select "Rejected" status in dropdown list "Approval Status";
-3, User should be not able to select "Close" status in dropdown list "Status";
-4, User should be able to select previously assignee in dropdown list "Assignee";
-5, User should be able to reject the task by clicking the button "Submit Task";
-6, The rejected APQP main task should be return to the assignee for further updating ;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>The task status that ASDE/SQE can operate: 
 In Processing -&gt; Close
 Close -&gt; Reopen
@@ -5225,11 +5072,251 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Assign a APQP/PPAP main task to a supplier</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Supplier can start work on the APQP/PPAP main task and it's sub tasks(APQP/PPAP task)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>As a user, I want to configure the auditing process for a part, so that I can specify the approver for each process;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select a predifined APQP auditing process for current part task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can assign the APQP auditing process to current part task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see comments list in page "Edit Part Task Information";
+2, User should see clickable "+" icon;
+3, User should see a new pop-up form which allows user to edit comment content;
+4, User should see "Save" and "Cancel" button in new pop-up window;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see a auditing configuration area in "Edit Part Task Information" page;
+2, User should see a link "Configure Auditing Process" in auditing configuration area;
+3, User should see a new pop-up window "Configure Auditing Process" when clicking on the link "Configure Auditing Process";</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>See a default APQP auditing process assigned to the current part task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can start the APQP process without any changes, if I supposed to use defaut definition of the auditing process</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see a dropdown list "Select APQP Auditing Process";
+2, User should see the default value of auditing process is selected;
+3, User should see "save" and "Cancel" button;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change the auditing process to my customized process</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can use an special APQP audting process in my APQP task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should be able to change default value of "Select APQP Auditing Process" to other values;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Specify approver for each level of auditing process</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can have the APQP approval request sent to indivadual;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see check box "Specify Approver for Each Auditing Level"
+2, User should see one or more dropdown list(Marked with Level n) under the check box;
+3, The number of the dropdown list depends on the number of Levels defined in selected auditing process;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select a predifined PPAP auditing process for current part task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see a auditing configuration area in "Edit Part Task Information" page;
+2, User should see a link "Configure Auditing Process" in auditing configuration area;
+3, User should see a new pop-up window "Configure Auditing Process" when clicking on the link "Configure Auditing Process";</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can assign the PPAP auditing process to current part task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>See a default PPAP auditing process assigned to the current part task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can start the PPAP process without any changes, if I supposed to use defaut definition of the auditing process</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see a dropdown list "Select PPAP Auditing Process";
+2, User should see the default value of auditing process is selected;
+3, User should see "save" and "Cancel" button;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can use an special PPAP audting process in my PPAP task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should be able to change default value of "Select PPAP Auditing Process" to other values;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can have the PPAP approval request sent to indivadual;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Specify approver for each level of PPAP auditing process</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>View APQP main task in read-only mode</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can make referenc to the APQP main task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should be able to open an APQP main task(double click on the APQP main task in the task list view);
+2, User should see the window "View APQP main task";
+3, User should see "Close" button;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ASDE/SQE supervisor
+ASDE/SQE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assign the APQP main task to a ASDE/SQE supervisor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can send the APQP main task to ASDE/SQE supervior for check;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see dropdown list "Assignee";
+2, User should be able to select a ASDE/SQE supervior for field Assignee;
+3, User should be able to save the changes;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ASDE/SQE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDE/SQE supervisor;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assign the APQP main task to a ASDE/SQE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can send the APQP main task to ASDE/SQE for futher modification;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see dropdown list "Assignee";
+2, User should be able to select a ASDE/SQE for field Assignee;
+3, User should be able to save the changes;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Specify a APQP/PPAP main task to a supplier</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ASDE/SQE supervisor
+ASDE/SQE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>View PPAP main task in read-only mode</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should be able to open an PPAP main task(double click on the PPAP main task in the task list view);
+2, User should see the window "View PPAP main task";
+3, User should see "Close" button;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can make referenc to the PPAP main task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assign the PPAP main task to a ASDE/SQE supervisor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assign the PPAP main task to a ASDE/SQE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can send the PPAP main task to ASDE/SQE supervior for check;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can send the PPAP main task to ASDE/SQE for futher modification;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select a APQP tempalte for current APQP main task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can ensure that the APQP sub tasks created automatically in the format of selected APQP template</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see field "Template Referenced";
+2, "Select APQP tempplate" window will come when user click on the link of template;
+3, User should see a template list in window "Select APQP template"
+4, User should be able to select a template and click on "Complete" button to store the selection;
+5, User should see a "Cancel" button;
+6, User should see a quick search input box and a search icon, user should be able to filter the template by template name;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select a PPAP tempalte for current PPAP main task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can ensure that the PPAP sub tasks created automatically in the format of selected PPAP template</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see field "Template Referenced";
+2, "Select PPAP tempplate" window will come when user click on the link of template;
+3, User should see a template list in window "Select PPAP template"
+4, User should be able to select a template and click on "Complete" button to store the selection;
+5, User should see a "Cancel" button;
+6, User should see a quick search input box and a search icon, user should be able to filter the template by template name;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, The assignee of the sub tasks(APQP tasks and PPAP tasks) of APQP/PPAP main task will be set as the supplier automatically when the sub tasks created;</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -6620,11 +6707,11 @@
       </c>
       <c r="C6" s="99">
         <f>COUNTIF('Project Management'!J:J,"Critical")</f>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="99">
         <f>COUNTIF('Project Management'!J:J,"Very High")</f>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E6" s="99">
         <f>COUNTIF('Project Management'!J:J,"High")</f>
@@ -6632,7 +6719,7 @@
       </c>
       <c r="F6" s="99">
         <f>COUNTIF('Project Management'!J:J,"Medium")</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G6" s="99">
         <f>COUNTIF('Project Management'!J:J,"Low")</f>
@@ -6644,7 +6731,7 @@
       </c>
       <c r="I6" s="99">
         <f t="shared" ref="I6:I12" si="0">SUM(C6:H6)</f>
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
@@ -6851,11 +6938,11 @@
       </c>
       <c r="C13" s="99">
         <f>SUM(C5:C12)</f>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="99">
         <f t="shared" ref="D13:H13" si="1">SUM(D5:D12)</f>
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E13" s="99">
         <f t="shared" si="1"/>
@@ -6863,7 +6950,7 @@
       </c>
       <c r="F13" s="99">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G13" s="99">
         <f t="shared" si="1"/>
@@ -6881,7 +6968,7 @@
       </c>
       <c r="C14" s="131">
         <f>SUM(C13:H13)</f>
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="D14" s="131"/>
       <c r="E14" s="131"/>
@@ -8981,13 +9068,13 @@
         <v>3.4</v>
       </c>
       <c r="B36" s="113" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C36" s="113" t="s">
         <v>75</v>
       </c>
       <c r="D36" s="114" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="E36" s="75"/>
     </row>
@@ -9026,7 +9113,7 @@
         <v>3.7</v>
       </c>
       <c r="B39" s="107" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C39" s="107" t="s">
         <v>75</v>
@@ -9039,7 +9126,7 @@
         <v>3.8</v>
       </c>
       <c r="B40" s="73" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C40" s="73" t="s">
         <v>75</v>
@@ -9054,7 +9141,7 @@
         <v>3.9</v>
       </c>
       <c r="B41" s="73" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C41" s="73" t="s">
         <v>75</v>
@@ -9067,7 +9154,7 @@
         <v>510</v>
       </c>
       <c r="B42" s="110" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C42" s="110" t="s">
         <v>75</v>
@@ -9125,7 +9212,7 @@
         <v>513</v>
       </c>
       <c r="B46" s="110" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C46" s="110" t="s">
         <v>75</v>
@@ -13482,11 +13569,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W229"/>
+  <dimension ref="A1:W237"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H143" sqref="H143"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="65.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13618,13 +13705,13 @@
     </row>
     <row r="3" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="B3" s="119" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1241</v>
+        <v>1212</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>496</v>
@@ -13633,16 +13720,16 @@
         <v>498</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H3" s="126" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="I3" s="125" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>43</v>
@@ -13665,13 +13752,13 @@
     </row>
     <row r="4" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="B4" s="119" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1241</v>
+        <v>1212</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>496</v>
@@ -13680,13 +13767,13 @@
         <v>498</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>1242</v>
+        <v>1213</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="H4" s="126" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="I4" s="125"/>
       <c r="J4" s="4" t="s">
@@ -13713,10 +13800,10 @@
         <v>255</v>
       </c>
       <c r="B5" s="119" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1241</v>
+        <v>1212</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>496</v>
@@ -13725,13 +13812,13 @@
         <v>498</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="H5" s="126" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="I5" s="125"/>
       <c r="J5" s="4" t="s">
@@ -13758,10 +13845,10 @@
         <v>256</v>
       </c>
       <c r="B6" s="119" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1241</v>
+        <v>1212</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>496</v>
@@ -13770,16 +13857,16 @@
         <v>498</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H6" s="126" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="I6" s="125" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>43</v>
@@ -13805,10 +13892,10 @@
         <v>257</v>
       </c>
       <c r="B7" s="119" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1241</v>
+        <v>1212</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>496</v>
@@ -13817,13 +13904,13 @@
         <v>498</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="H7" s="126" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="I7" s="125"/>
       <c r="J7" s="4" t="s">
@@ -13853,7 +13940,7 @@
         <v>588</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1241</v>
+        <v>1212</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>496</v>
@@ -13862,13 +13949,13 @@
         <v>498</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="H8" s="126" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="I8" s="125"/>
       <c r="J8" s="4" t="s">
@@ -13895,10 +13982,10 @@
         <v>259</v>
       </c>
       <c r="B9" s="119" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1241</v>
+        <v>1212</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>496</v>
@@ -13907,16 +13994,16 @@
         <v>498</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="H9" s="126" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="I9" s="125" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>43</v>
@@ -13942,25 +14029,25 @@
         <v>260</v>
       </c>
       <c r="B10" s="119" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1241</v>
+        <v>1212</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="H10" s="126" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="I10" s="125"/>
       <c r="J10" s="4" t="s">
@@ -13987,25 +14074,25 @@
         <v>261</v>
       </c>
       <c r="B11" s="119" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1241</v>
+        <v>1212</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="H11" s="126" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="I11" s="126"/>
       <c r="J11" s="4" t="s">
@@ -14032,25 +14119,25 @@
         <v>262</v>
       </c>
       <c r="B12" s="122" t="s">
+        <v>931</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>936</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="H12" s="126" t="s">
         <v>937</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>938</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>939</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>940</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>941</v>
-      </c>
-      <c r="H12" s="126" t="s">
-        <v>942</v>
       </c>
       <c r="I12" s="126"/>
       <c r="J12" s="4" t="s">
@@ -14077,25 +14164,25 @@
         <v>263</v>
       </c>
       <c r="B13" s="122" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>938</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>939</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>943</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>944</v>
-      </c>
       <c r="H13" s="126" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="I13" s="126"/>
       <c r="J13" s="4" t="s">
@@ -14122,25 +14209,25 @@
         <v>524</v>
       </c>
       <c r="B14" s="122" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="H14" s="126" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="I14" s="126"/>
       <c r="J14" s="4" t="s">
@@ -14167,28 +14254,28 @@
         <v>267</v>
       </c>
       <c r="B15" s="122" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="H15" s="126" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="I15" s="126" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>45</v>
@@ -14214,10 +14301,10 @@
         <v>272</v>
       </c>
       <c r="B16" s="118" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1240</v>
+        <v>1211</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>496</v>
@@ -14226,13 +14313,13 @@
         <v>498</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="H16" s="126" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="I16" s="127"/>
       <c r="J16" s="4" t="s">
@@ -14259,10 +14346,10 @@
         <v>279</v>
       </c>
       <c r="B17" s="118" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1240</v>
+        <v>1211</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>496</v>
@@ -14271,13 +14358,13 @@
         <v>498</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="H17" s="126" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="I17" s="127"/>
       <c r="J17" s="4" t="s">
@@ -14304,10 +14391,10 @@
         <v>280</v>
       </c>
       <c r="B18" s="118" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1240</v>
+        <v>1211</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>496</v>
@@ -14316,16 +14403,16 @@
         <v>498</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="H18" s="126" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="I18" s="127" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>44</v>
@@ -14351,10 +14438,10 @@
         <v>291</v>
       </c>
       <c r="B19" s="118" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1240</v>
+        <v>1211</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>496</v>
@@ -14363,7 +14450,7 @@
         <v>498</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>590</v>
@@ -14398,25 +14485,25 @@
         <v>296</v>
       </c>
       <c r="B20" s="118" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1240</v>
+        <v>1211</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="H20" s="126" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="I20" s="125"/>
       <c r="J20" s="4" t="s">
@@ -14443,10 +14530,10 @@
         <v>301</v>
       </c>
       <c r="B21" s="118" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1240</v>
+        <v>1211</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>496</v>
@@ -14455,13 +14542,13 @@
         <v>498</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>509</v>
       </c>
       <c r="H21" s="126" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="I21" s="127"/>
       <c r="J21" s="4" t="s">
@@ -14488,10 +14575,10 @@
         <v>307</v>
       </c>
       <c r="B22" s="118" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1240</v>
+        <v>1211</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>496</v>
@@ -14500,13 +14587,13 @@
         <v>498</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>499</v>
       </c>
       <c r="H22" s="126" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="I22" s="127" t="s">
         <v>500</v>
@@ -14535,10 +14622,10 @@
         <v>311</v>
       </c>
       <c r="B23" s="118" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1240</v>
+        <v>1211</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>496</v>
@@ -14547,7 +14634,7 @@
         <v>498</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>501</v>
@@ -14580,10 +14667,10 @@
         <v>315</v>
       </c>
       <c r="B24" s="118" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1240</v>
+        <v>1211</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>496</v>
@@ -14625,10 +14712,10 @@
         <v>321</v>
       </c>
       <c r="B25" s="118" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1240</v>
+        <v>1211</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>496</v>
@@ -14670,10 +14757,10 @@
         <v>325</v>
       </c>
       <c r="B26" s="118" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1240</v>
+        <v>1211</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>496</v>
@@ -14715,10 +14802,10 @@
         <v>352</v>
       </c>
       <c r="B27" s="118" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1240</v>
+        <v>1211</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>496</v>
@@ -14730,7 +14817,7 @@
         <v>534</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="H27" s="126" t="s">
         <v>535</v>
@@ -14762,10 +14849,10 @@
         <v>353</v>
       </c>
       <c r="B28" s="118" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1240</v>
+        <v>1211</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>496</v>
@@ -14807,10 +14894,10 @@
         <v>533</v>
       </c>
       <c r="B29" s="118" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1240</v>
+        <v>1211</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>496</v>
@@ -14852,10 +14939,10 @@
         <v>363</v>
       </c>
       <c r="B30" s="118" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1240</v>
+        <v>1211</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>496</v>
@@ -14899,10 +14986,10 @@
         <v>367</v>
       </c>
       <c r="B31" s="118" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1240</v>
+        <v>1211</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>496</v>
@@ -14946,10 +15033,10 @@
         <v>371</v>
       </c>
       <c r="B32" s="118" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>1240</v>
+        <v>1211</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>496</v>
@@ -14993,10 +15080,10 @@
         <v>375</v>
       </c>
       <c r="B33" s="118" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1240</v>
+        <v>1211</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>496</v>
@@ -15038,10 +15125,10 @@
         <v>379</v>
       </c>
       <c r="B34" s="118" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>1240</v>
+        <v>1211</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>496</v>
@@ -15050,16 +15137,16 @@
         <v>498</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="H34" s="126" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="I34" s="125" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>14</v>
@@ -15085,10 +15172,10 @@
         <v>383</v>
       </c>
       <c r="B35" s="118" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1240</v>
+        <v>1211</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>496</v>
@@ -15097,13 +15184,13 @@
         <v>498</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="H35" s="126" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="I35" s="125"/>
       <c r="J35" s="4" t="s">
@@ -15130,10 +15217,10 @@
         <v>387</v>
       </c>
       <c r="B36" s="118" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1240</v>
+        <v>1211</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>496</v>
@@ -15142,13 +15229,13 @@
         <v>498</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H36" s="126" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="I36" s="126"/>
       <c r="J36" s="4" t="s">
@@ -15175,10 +15262,10 @@
         <v>391</v>
       </c>
       <c r="B37" s="118" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1240</v>
+        <v>1211</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>496</v>
@@ -15187,13 +15274,13 @@
         <v>498</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="H37" s="126" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="I37" s="126"/>
       <c r="J37" s="4" t="s">
@@ -15220,10 +15307,10 @@
         <v>395</v>
       </c>
       <c r="B38" s="118" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>1240</v>
+        <v>1211</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>496</v>
@@ -15232,13 +15319,13 @@
         <v>498</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="H38" s="126" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="I38" s="126"/>
       <c r="J38" s="4" t="s">
@@ -15265,10 +15352,10 @@
         <v>400</v>
       </c>
       <c r="B39" s="118" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>1240</v>
+        <v>1211</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>496</v>
@@ -15277,13 +15364,13 @@
         <v>498</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="H39" s="126" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="I39" s="126"/>
       <c r="J39" s="4" t="s">
@@ -15310,10 +15397,10 @@
         <v>404</v>
       </c>
       <c r="B40" s="118" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>1240</v>
+        <v>1211</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>593</v>
@@ -15322,13 +15409,13 @@
         <v>594</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="H40" s="126" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="I40" s="126" t="s">
         <v>596</v>
@@ -15357,10 +15444,10 @@
         <v>408</v>
       </c>
       <c r="B41" s="118" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>1240</v>
+        <v>1211</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>593</v>
@@ -15372,10 +15459,10 @@
         <v>597</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="H41" s="126" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="I41" s="126"/>
       <c r="J41" s="4" t="s">
@@ -15402,10 +15489,10 @@
         <v>411</v>
       </c>
       <c r="B42" s="118" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>1240</v>
+        <v>1211</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>496</v>
@@ -15447,10 +15534,10 @@
         <v>416</v>
       </c>
       <c r="B43" s="118" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1240</v>
+        <v>1211</v>
       </c>
       <c r="D43" s="40" t="s">
         <v>496</v>
@@ -15459,13 +15546,13 @@
         <v>498</v>
       </c>
       <c r="F43" s="40" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="G43" s="40" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="H43" s="125" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="I43" s="126"/>
       <c r="J43" s="4" t="s">
@@ -15492,10 +15579,10 @@
         <v>420</v>
       </c>
       <c r="B44" s="120" t="s">
+        <v>797</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>802</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>807</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>496</v>
@@ -15504,13 +15591,13 @@
         <v>498</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="H44" s="126" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="I44" s="125"/>
       <c r="J44" s="4" t="s">
@@ -15537,10 +15624,10 @@
         <v>424</v>
       </c>
       <c r="B45" s="120" t="s">
+        <v>797</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>802</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>807</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>496</v>
@@ -15549,13 +15636,13 @@
         <v>498</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="H45" s="126" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="I45" s="125"/>
       <c r="J45" s="4" t="s">
@@ -15582,10 +15669,10 @@
         <v>427</v>
       </c>
       <c r="B46" s="120" t="s">
+        <v>797</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>802</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>807</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>496</v>
@@ -15597,10 +15684,10 @@
         <v>519</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="H46" s="126" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="I46" s="126" t="s">
         <v>616</v>
@@ -15629,10 +15716,10 @@
         <v>432</v>
       </c>
       <c r="B47" s="120" t="s">
+        <v>797</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>802</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>807</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>496</v>
@@ -15647,7 +15734,7 @@
         <v>521</v>
       </c>
       <c r="H47" s="126" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="I47" s="126" t="s">
         <v>522</v>
@@ -15676,10 +15763,10 @@
         <v>438</v>
       </c>
       <c r="B48" s="120" t="s">
+        <v>797</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>802</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>807</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>496</v>
@@ -15688,13 +15775,13 @@
         <v>498</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="H48" s="126" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="I48" s="126"/>
       <c r="J48" s="4" t="s">
@@ -15721,10 +15808,10 @@
         <v>444</v>
       </c>
       <c r="B49" s="120" t="s">
+        <v>797</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>802</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>807</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>496</v>
@@ -15733,13 +15820,13 @@
         <v>498</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="H49" s="126" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="I49" s="126"/>
       <c r="J49" s="4" t="s">
@@ -15766,10 +15853,10 @@
         <v>445</v>
       </c>
       <c r="B50" s="120" t="s">
+        <v>797</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>802</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>807</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>496</v>
@@ -15778,13 +15865,13 @@
         <v>498</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="H50" s="126" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="I50" s="126"/>
       <c r="J50" s="4" t="s">
@@ -15811,10 +15898,10 @@
         <v>452</v>
       </c>
       <c r="B51" s="120" t="s">
+        <v>797</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>802</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>807</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>593</v>
@@ -15823,13 +15910,13 @@
         <v>594</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="H51" s="126" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="I51" s="126"/>
       <c r="J51" s="4" t="s">
@@ -15856,10 +15943,10 @@
         <v>456</v>
       </c>
       <c r="B52" s="120" t="s">
+        <v>797</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>802</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>807</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>593</v>
@@ -15901,10 +15988,10 @@
         <v>461</v>
       </c>
       <c r="B53" s="120" t="s">
+        <v>797</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>802</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>807</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>496</v>
@@ -15913,13 +16000,13 @@
         <v>498</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="H53" s="126" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="I53" s="126"/>
       <c r="J53" s="4" t="s">
@@ -15946,10 +16033,10 @@
         <v>465</v>
       </c>
       <c r="B54" s="120" t="s">
+        <v>797</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>802</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>807</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>593</v>
@@ -15993,25 +16080,25 @@
         <v>468</v>
       </c>
       <c r="B55" s="120" t="s">
+        <v>797</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>802</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>807</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="H55" s="126" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="I55" s="125"/>
       <c r="J55" s="4" t="s">
@@ -16038,25 +16125,25 @@
         <v>473</v>
       </c>
       <c r="B56" s="120" t="s">
+        <v>797</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>802</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>807</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>593</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="H56" s="126" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="I56" s="126"/>
       <c r="J56" s="4" t="s">
@@ -16083,10 +16170,10 @@
         <v>476</v>
       </c>
       <c r="B57" s="120" t="s">
+        <v>797</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>802</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>807</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>496</v>
@@ -16095,7 +16182,7 @@
         <v>498</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>525</v>
@@ -16128,10 +16215,10 @@
         <v>479</v>
       </c>
       <c r="B58" s="120" t="s">
+        <v>797</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>802</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>807</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>496</v>
@@ -16173,10 +16260,10 @@
         <v>483</v>
       </c>
       <c r="B59" s="120" t="s">
+        <v>797</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>802</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>807</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>496</v>
@@ -16218,10 +16305,10 @@
         <v>617</v>
       </c>
       <c r="B60" s="120" t="s">
+        <v>797</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>802</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>807</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>496</v>
@@ -16263,10 +16350,10 @@
         <v>618</v>
       </c>
       <c r="B61" s="120" t="s">
+        <v>797</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>802</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>807</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>496</v>
@@ -16308,10 +16395,10 @@
         <v>619</v>
       </c>
       <c r="B62" s="120" t="s">
+        <v>797</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>802</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>807</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>496</v>
@@ -16353,10 +16440,10 @@
         <v>620</v>
       </c>
       <c r="B63" s="120" t="s">
+        <v>797</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>802</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>807</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>496</v>
@@ -16365,7 +16452,7 @@
         <v>498</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>523</v>
@@ -16398,10 +16485,10 @@
         <v>621</v>
       </c>
       <c r="B64" s="120" t="s">
+        <v>797</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>802</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>807</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>496</v>
@@ -16410,7 +16497,7 @@
         <v>498</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>565</v>
@@ -16443,10 +16530,10 @@
         <v>622</v>
       </c>
       <c r="B65" s="120" t="s">
+        <v>797</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>802</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>807</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>496</v>
@@ -16488,10 +16575,10 @@
         <v>623</v>
       </c>
       <c r="B66" s="120" t="s">
+        <v>797</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>802</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>807</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>496</v>
@@ -16533,10 +16620,10 @@
         <v>624</v>
       </c>
       <c r="B67" s="120" t="s">
+        <v>797</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>802</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>807</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>593</v>
@@ -16548,10 +16635,10 @@
         <v>598</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="H67" s="126" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="I67" s="126"/>
       <c r="J67" s="4" t="s">
@@ -16575,13 +16662,13 @@
     </row>
     <row r="68" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="B68" s="120" t="s">
+        <v>797</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>802</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>807</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>496</v>
@@ -16590,13 +16677,13 @@
         <v>498</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="H68" s="126" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="I68" s="128"/>
       <c r="J68" s="4" t="s">
@@ -16623,25 +16710,25 @@
         <v>625</v>
       </c>
       <c r="B69" s="121" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="F69" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="G69" s="4" t="s">
         <v>967</v>
       </c>
-      <c r="G69" s="4" t="s">
-        <v>972</v>
-      </c>
       <c r="H69" s="126" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="I69" s="128"/>
       <c r="J69" s="4" t="s">
@@ -16668,10 +16755,10 @@
         <v>626</v>
       </c>
       <c r="B70" s="121" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>496</v>
@@ -16680,13 +16767,13 @@
         <v>498</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="H70" s="126" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="I70" s="128"/>
       <c r="J70" s="4" t="s">
@@ -16713,10 +16800,10 @@
         <v>627</v>
       </c>
       <c r="B71" s="121" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>496</v>
@@ -16725,16 +16812,16 @@
         <v>498</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="H71" s="126" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="I71" s="128" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>44</v>
@@ -16760,28 +16847,28 @@
         <v>628</v>
       </c>
       <c r="B72" s="121" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E72" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="G72" s="4" t="s">
         <v>971</v>
       </c>
-      <c r="F72" s="4" t="s">
-        <v>970</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>976</v>
-      </c>
       <c r="H72" s="126" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="I72" s="128" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="J72" s="4" t="s">
         <v>44</v>
@@ -16807,28 +16894,28 @@
         <v>629</v>
       </c>
       <c r="B73" s="121" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="H73" s="126" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="I73" s="128" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>44</v>
@@ -16854,28 +16941,28 @@
         <v>630</v>
       </c>
       <c r="B74" s="121" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="H74" s="126" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="I74" s="128" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="J74" s="4" t="s">
         <v>44</v>
@@ -16901,25 +16988,25 @@
         <v>631</v>
       </c>
       <c r="B75" s="121" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="H75" s="126" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="I75" s="128"/>
       <c r="J75" s="4" t="s">
@@ -16946,28 +17033,28 @@
         <v>632</v>
       </c>
       <c r="B76" s="121" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="H76" s="126" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="I76" s="128" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="J76" s="4" t="s">
         <v>14</v>
@@ -16993,10 +17080,10 @@
         <v>633</v>
       </c>
       <c r="B77" s="121" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>496</v>
@@ -17005,13 +17092,13 @@
         <v>498</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="H77" s="126" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="I77" s="128"/>
       <c r="J77" s="4" t="s">
@@ -17038,25 +17125,25 @@
         <v>634</v>
       </c>
       <c r="B78" s="121" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="H78" s="126" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="I78" s="128"/>
       <c r="J78" s="4" t="s">
@@ -17083,28 +17170,28 @@
         <v>635</v>
       </c>
       <c r="B79" s="121" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="F79" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="G79" s="4" t="s">
         <v>986</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="H79" s="126" t="s">
+        <v>988</v>
+      </c>
+      <c r="I79" s="128" t="s">
         <v>991</v>
-      </c>
-      <c r="H79" s="126" t="s">
-        <v>993</v>
-      </c>
-      <c r="I79" s="128" t="s">
-        <v>996</v>
       </c>
       <c r="J79" s="4" t="s">
         <v>45</v>
@@ -17130,28 +17217,28 @@
         <v>636</v>
       </c>
       <c r="B80" s="121" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F80" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="H80" s="126" t="s">
         <v>987</v>
       </c>
-      <c r="G80" s="4" t="s">
-        <v>989</v>
-      </c>
-      <c r="H80" s="126" t="s">
+      <c r="I80" s="128" t="s">
         <v>992</v>
-      </c>
-      <c r="I80" s="128" t="s">
-        <v>997</v>
       </c>
       <c r="J80" s="4" t="s">
         <v>45</v>
@@ -17177,28 +17264,28 @@
         <v>637</v>
       </c>
       <c r="B81" s="121" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="H81" s="126" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="I81" s="128" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="J81" s="4" t="s">
         <v>45</v>
@@ -17224,26 +17311,26 @@
         <v>638</v>
       </c>
       <c r="B82" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>542</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="H82" s="126"/>
       <c r="I82" s="126" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="J82" s="4" t="s">
         <v>43</v>
@@ -17269,26 +17356,26 @@
         <v>639</v>
       </c>
       <c r="B83" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>542</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="H83" s="126"/>
       <c r="I83" s="126" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="J83" s="4" t="s">
         <v>43</v>
@@ -17314,26 +17401,26 @@
         <v>640</v>
       </c>
       <c r="B84" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>542</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="H84" s="126"/>
       <c r="I84" s="126" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="J84" s="4" t="s">
         <v>43</v>
@@ -17359,26 +17446,26 @@
         <v>641</v>
       </c>
       <c r="B85" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>542</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="H85" s="126"/>
       <c r="I85" s="126" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="J85" s="4" t="s">
         <v>43</v>
@@ -17404,28 +17491,28 @@
         <v>642</v>
       </c>
       <c r="B86" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="H86" s="126" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="I86" s="126" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="J86" s="4" t="s">
         <v>43</v>
@@ -17451,26 +17538,26 @@
         <v>643</v>
       </c>
       <c r="B87" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>542</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="H87" s="126"/>
       <c r="I87" s="126" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>44</v>
@@ -17496,25 +17583,25 @@
         <v>644</v>
       </c>
       <c r="B88" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="H88" s="126" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="I88" s="126"/>
       <c r="J88" s="4" t="s">
@@ -17541,22 +17628,22 @@
         <v>645</v>
       </c>
       <c r="B89" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C89" s="56" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D89" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E89" s="56" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="F89" s="40" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="G89" s="56" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="H89" s="128"/>
       <c r="I89" s="128"/>
@@ -17584,25 +17671,25 @@
         <v>646</v>
       </c>
       <c r="B90" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D90" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E90" s="56" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="H90" s="126" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="I90" s="126"/>
       <c r="J90" s="4" t="s">
@@ -17629,25 +17716,25 @@
         <v>647</v>
       </c>
       <c r="B91" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D91" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E91" s="56" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="H91" s="126" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="I91" s="126"/>
       <c r="J91" s="4" t="s">
@@ -17674,25 +17761,25 @@
         <v>648</v>
       </c>
       <c r="B92" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D92" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E92" s="56" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="H92" s="126" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="I92" s="126"/>
       <c r="J92" s="4" t="s">
@@ -17719,25 +17806,25 @@
         <v>649</v>
       </c>
       <c r="B93" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D93" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E93" s="56" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="F93" s="40" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="H93" s="126" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="I93" s="126"/>
       <c r="J93" s="4" t="s">
@@ -17764,25 +17851,25 @@
         <v>650</v>
       </c>
       <c r="B94" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D94" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E94" s="56" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="H94" s="126" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="I94" s="126"/>
       <c r="J94" s="4" t="s">
@@ -17809,25 +17896,25 @@
         <v>651</v>
       </c>
       <c r="B95" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D95" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E95" s="56" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="H95" s="126" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="I95" s="126"/>
       <c r="J95" s="4" t="s">
@@ -17854,25 +17941,25 @@
         <v>652</v>
       </c>
       <c r="B96" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D96" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E96" s="56" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="H96" s="126" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="I96" s="126"/>
       <c r="J96" s="4" t="s">
@@ -17899,25 +17986,25 @@
         <v>653</v>
       </c>
       <c r="B97" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D97" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E97" s="56" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="H97" s="126" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="I97" s="126"/>
       <c r="J97" s="4" t="s">
@@ -17944,25 +18031,25 @@
         <v>654</v>
       </c>
       <c r="B98" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D98" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E98" s="56" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="H98" s="126" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="I98" s="126"/>
       <c r="J98" s="4" t="s">
@@ -17986,28 +18073,28 @@
     </row>
     <row r="99" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
-        <v>1156</v>
+        <v>1131</v>
       </c>
       <c r="B99" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D99" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E99" s="56" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="H99" s="126" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="I99" s="126"/>
       <c r="J99" s="4" t="s">
@@ -18034,25 +18121,25 @@
         <v>655</v>
       </c>
       <c r="B100" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D100" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E100" s="56" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="H100" s="126" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="I100" s="126"/>
       <c r="J100" s="4" t="s">
@@ -18079,25 +18166,25 @@
         <v>656</v>
       </c>
       <c r="B101" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D101" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E101" s="56" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="H101" s="126" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="I101" s="126"/>
       <c r="J101" s="4" t="s">
@@ -18124,25 +18211,25 @@
         <v>657</v>
       </c>
       <c r="B102" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D102" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E102" s="56" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="H102" s="126" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="I102" s="126"/>
       <c r="J102" s="4" t="s">
@@ -18166,28 +18253,28 @@
     </row>
     <row r="103" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
-        <v>1113</v>
+        <v>1101</v>
       </c>
       <c r="B103" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D103" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E103" s="56" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="H103" s="126" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="I103" s="126"/>
       <c r="J103" s="4" t="s">
@@ -18214,25 +18301,25 @@
         <v>658</v>
       </c>
       <c r="B104" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D104" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E104" s="56" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="H104" s="126" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="I104" s="126"/>
       <c r="J104" s="4" t="s">
@@ -18259,25 +18346,25 @@
         <v>659</v>
       </c>
       <c r="B105" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D105" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E105" s="56" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F105" s="4" t="s">
         <v>1085</v>
       </c>
-      <c r="F105" s="4" t="s">
-        <v>1090</v>
-      </c>
       <c r="G105" s="4" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="H105" s="126" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="I105" s="126"/>
       <c r="J105" s="4" t="s">
@@ -18304,25 +18391,25 @@
         <v>660</v>
       </c>
       <c r="B106" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D106" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E106" s="56" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="H106" s="126" t="s">
-        <v>1086</v>
+        <v>1227</v>
       </c>
       <c r="I106" s="126"/>
       <c r="J106" s="4" t="s">
@@ -18349,25 +18436,25 @@
         <v>661</v>
       </c>
       <c r="B107" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D107" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E107" s="56" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="H107" s="126" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="I107" s="126"/>
       <c r="J107" s="4" t="s">
@@ -18391,28 +18478,28 @@
     </row>
     <row r="108" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
-        <v>1143</v>
+        <v>1122</v>
       </c>
       <c r="B108" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>712</v>
+        <v>1224</v>
       </c>
       <c r="D108" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E108" s="56" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>905</v>
+        <v>1225</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>1044</v>
+        <v>1226</v>
       </c>
       <c r="H108" s="126" t="s">
-        <v>1093</v>
+        <v>1228</v>
       </c>
       <c r="I108" s="126"/>
       <c r="J108" s="4" t="s">
@@ -18439,25 +18526,25 @@
         <v>662</v>
       </c>
       <c r="B109" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>712</v>
+        <v>1224</v>
       </c>
       <c r="D109" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E109" s="56" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>1102</v>
+        <v>1229</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>1103</v>
+        <v>1230</v>
       </c>
       <c r="H109" s="126" t="s">
-        <v>1104</v>
+        <v>1231</v>
       </c>
       <c r="I109" s="126"/>
       <c r="J109" s="4" t="s">
@@ -18484,25 +18571,25 @@
         <v>663</v>
       </c>
       <c r="B110" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>712</v>
+        <v>1224</v>
       </c>
       <c r="D110" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E110" s="56" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>906</v>
+        <v>1232</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>907</v>
+        <v>1233</v>
       </c>
       <c r="H110" s="126" t="s">
-        <v>1077</v>
+        <v>1234</v>
       </c>
       <c r="I110" s="126"/>
       <c r="J110" s="4" t="s">
@@ -18529,29 +18616,29 @@
         <v>664</v>
       </c>
       <c r="B111" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>712</v>
+        <v>1224</v>
       </c>
       <c r="D111" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E111" s="56" t="s">
-        <v>904</v>
+        <v>1096</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>1187</v>
+        <v>1235</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>1188</v>
+        <v>1236</v>
       </c>
       <c r="H111" s="126" t="s">
-        <v>1189</v>
+        <v>1237</v>
       </c>
       <c r="I111" s="126"/>
       <c r="J111" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K111" s="4"/>
       <c r="L111" s="4" t="s">
@@ -18571,32 +18658,32 @@
     </row>
     <row r="112" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
-        <v>664</v>
+        <v>1122</v>
       </c>
       <c r="B112" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>712</v>
+        <v>1224</v>
       </c>
       <c r="D112" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E112" s="56" t="s">
-        <v>1071</v>
+        <v>1096</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>1072</v>
+        <v>1238</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>1073</v>
+        <v>1240</v>
       </c>
       <c r="H112" s="126" t="s">
-        <v>1074</v>
+        <v>1239</v>
       </c>
       <c r="I112" s="126"/>
       <c r="J112" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K112" s="4"/>
       <c r="L112" s="4" t="s">
@@ -18616,32 +18703,32 @@
     </row>
     <row r="113" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
-        <v>775</v>
+        <v>662</v>
       </c>
       <c r="B113" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>712</v>
-      </c>
-      <c r="D113" s="4" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D113" s="56" t="s">
         <v>542</v>
       </c>
-      <c r="E113" s="4" t="s">
-        <v>1190</v>
+      <c r="E113" s="56" t="s">
+        <v>1096</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>1045</v>
+        <v>1241</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>1046</v>
+        <v>1242</v>
       </c>
       <c r="H113" s="126" t="s">
-        <v>1047</v>
+        <v>1243</v>
       </c>
       <c r="I113" s="126"/>
       <c r="J113" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K113" s="4"/>
       <c r="L113" s="4" t="s">
@@ -18661,32 +18748,32 @@
     </row>
     <row r="114" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B114" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>712</v>
+        <v>1224</v>
       </c>
       <c r="D114" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E114" s="56" t="s">
-        <v>904</v>
+        <v>1096</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>866</v>
+        <v>1232</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>867</v>
+        <v>1244</v>
       </c>
       <c r="H114" s="126" t="s">
-        <v>872</v>
+        <v>1245</v>
       </c>
       <c r="I114" s="126"/>
       <c r="J114" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K114" s="4"/>
       <c r="L114" s="4" t="s">
@@ -18706,32 +18793,30 @@
     </row>
     <row r="115" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B115" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>712</v>
+        <v>1224</v>
       </c>
       <c r="D115" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E115" s="56" t="s">
-        <v>904</v>
+        <v>1096</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>1114</v>
+        <v>1247</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>1115</v>
+        <v>1246</v>
       </c>
       <c r="H115" s="126" t="s">
-        <v>1116</v>
-      </c>
-      <c r="I115" s="126" t="s">
-        <v>1119</v>
-      </c>
+        <v>1237</v>
+      </c>
+      <c r="I115" s="126"/>
       <c r="J115" s="4" t="s">
         <v>44</v>
       </c>
@@ -18753,32 +18838,32 @@
     </row>
     <row r="116" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
-        <v>667</v>
+        <v>1122</v>
       </c>
       <c r="B116" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D116" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E116" s="56" t="s">
-        <v>1123</v>
+        <v>1096</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>899</v>
+        <v>1039</v>
       </c>
       <c r="H116" s="126" t="s">
-        <v>900</v>
+        <v>1088</v>
       </c>
       <c r="I116" s="126"/>
       <c r="J116" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K116" s="4"/>
       <c r="L116" s="4" t="s">
@@ -18798,32 +18883,32 @@
     </row>
     <row r="117" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="B117" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D117" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E117" s="56" t="s">
-        <v>1122</v>
+        <v>1096</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>901</v>
+        <v>1097</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>902</v>
+        <v>1098</v>
       </c>
       <c r="H117" s="126" t="s">
-        <v>903</v>
+        <v>1099</v>
       </c>
       <c r="I117" s="126"/>
       <c r="J117" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K117" s="4"/>
       <c r="L117" s="4" t="s">
@@ -18843,32 +18928,32 @@
     </row>
     <row r="118" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="B118" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D118" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E118" s="56" t="s">
-        <v>1149</v>
+        <v>1096</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>1150</v>
+        <v>901</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>1151</v>
+        <v>902</v>
       </c>
       <c r="H118" s="126" t="s">
-        <v>1154</v>
+        <v>1072</v>
       </c>
       <c r="I118" s="126"/>
       <c r="J118" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K118" s="4"/>
       <c r="L118" s="4" t="s">
@@ -18888,32 +18973,32 @@
     </row>
     <row r="119" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="B119" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D119" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E119" s="56" t="s">
-        <v>717</v>
+        <v>899</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>1152</v>
+        <v>1162</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>1153</v>
+        <v>1163</v>
       </c>
       <c r="H119" s="126" t="s">
-        <v>1155</v>
+        <v>1164</v>
       </c>
       <c r="I119" s="126"/>
       <c r="J119" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K119" s="4"/>
       <c r="L119" s="4" t="s">
@@ -18933,32 +19018,32 @@
     </row>
     <row r="120" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="B120" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D120" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E120" s="56" t="s">
-        <v>1137</v>
+        <v>1066</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>1139</v>
+        <v>1067</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>1132</v>
+        <v>1068</v>
       </c>
       <c r="H120" s="126" t="s">
-        <v>1142</v>
+        <v>1069</v>
       </c>
       <c r="I120" s="126"/>
       <c r="J120" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K120" s="4"/>
       <c r="L120" s="4" t="s">
@@ -18978,32 +19063,32 @@
     </row>
     <row r="121" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
-        <v>672</v>
+        <v>770</v>
       </c>
       <c r="B121" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>712</v>
-      </c>
-      <c r="D121" s="56" t="s">
+        <v>708</v>
+      </c>
+      <c r="D121" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="E121" s="56" t="s">
-        <v>1138</v>
+      <c r="E121" s="4" t="s">
+        <v>1165</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>1140</v>
+        <v>1040</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>1135</v>
+        <v>1041</v>
       </c>
       <c r="H121" s="126" t="s">
-        <v>1141</v>
+        <v>1042</v>
       </c>
       <c r="I121" s="126"/>
       <c r="J121" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K121" s="4"/>
       <c r="L121" s="4" t="s">
@@ -19023,32 +19108,32 @@
     </row>
     <row r="122" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B122" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D122" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E122" s="56" t="s">
-        <v>1205</v>
+        <v>1117</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>1206</v>
+        <v>861</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>1083</v>
+        <v>862</v>
       </c>
       <c r="H122" s="126" t="s">
-        <v>1084</v>
+        <v>867</v>
       </c>
       <c r="I122" s="126"/>
       <c r="J122" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K122" s="4"/>
       <c r="L122" s="4" t="s">
@@ -19068,32 +19153,34 @@
     </row>
     <row r="123" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="B123" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D123" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E123" s="56" t="s">
-        <v>904</v>
+        <v>1117</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>1111</v>
+        <v>1102</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>1112</v>
+        <v>1103</v>
       </c>
       <c r="H123" s="126" t="s">
-        <v>1215</v>
-      </c>
-      <c r="I123" s="126"/>
+        <v>1104</v>
+      </c>
+      <c r="I123" s="126" t="s">
+        <v>1107</v>
+      </c>
       <c r="J123" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K123" s="4"/>
       <c r="L123" s="4" t="s">
@@ -19113,32 +19200,30 @@
     </row>
     <row r="124" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="B124" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D124" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E124" s="56" t="s">
-        <v>1105</v>
+        <v>1117</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>1106</v>
+        <v>893</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>1107</v>
+        <v>894</v>
       </c>
       <c r="H124" s="126" t="s">
-        <v>1109</v>
-      </c>
-      <c r="I124" s="126" t="s">
-        <v>1120</v>
-      </c>
+        <v>895</v>
+      </c>
+      <c r="I124" s="126"/>
       <c r="J124" s="4" t="s">
         <v>43</v>
       </c>
@@ -19160,32 +19245,30 @@
     </row>
     <row r="125" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="B125" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D125" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E125" s="56" t="s">
-        <v>1105</v>
+        <v>1117</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>1106</v>
+        <v>896</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>1108</v>
+        <v>897</v>
       </c>
       <c r="H125" s="126" t="s">
-        <v>1110</v>
-      </c>
-      <c r="I125" s="126" t="s">
-        <v>1121</v>
-      </c>
+        <v>898</v>
+      </c>
+      <c r="I125" s="126"/>
       <c r="J125" s="4" t="s">
         <v>43</v>
       </c>
@@ -19207,28 +19290,28 @@
     </row>
     <row r="126" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="B126" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D126" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E126" s="56" t="s">
-        <v>1105</v>
+        <v>1117</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>1146</v>
+        <v>1269</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>1144</v>
+        <v>1270</v>
       </c>
       <c r="H126" s="126" t="s">
-        <v>1145</v>
+        <v>1271</v>
       </c>
       <c r="I126" s="126"/>
       <c r="J126" s="4" t="s">
@@ -19252,28 +19335,28 @@
     </row>
     <row r="127" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="B127" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D127" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E127" s="56" t="s">
-        <v>904</v>
+        <v>1124</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>869</v>
+        <v>1125</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>870</v>
+        <v>1126</v>
       </c>
       <c r="H127" s="126" t="s">
-        <v>871</v>
+        <v>1129</v>
       </c>
       <c r="I127" s="126"/>
       <c r="J127" s="4" t="s">
@@ -19297,32 +19380,32 @@
     </row>
     <row r="128" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="B128" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D128" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E128" s="56" t="s">
-        <v>904</v>
+        <v>713</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>1096</v>
+        <v>1248</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>1097</v>
+        <v>1249</v>
       </c>
       <c r="H128" s="126" t="s">
-        <v>1098</v>
+        <v>1250</v>
       </c>
       <c r="I128" s="126"/>
       <c r="J128" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K128" s="4"/>
       <c r="L128" s="4" t="s">
@@ -19342,32 +19425,32 @@
     </row>
     <row r="129" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4" t="s">
-        <v>726</v>
+        <v>670</v>
       </c>
       <c r="B129" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D129" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E129" s="56" t="s">
-        <v>904</v>
+        <v>713</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>1025</v>
+        <v>1127</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>1026</v>
+        <v>1128</v>
       </c>
       <c r="H129" s="126" t="s">
-        <v>1027</v>
+        <v>1130</v>
       </c>
       <c r="I129" s="126"/>
       <c r="J129" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K129" s="4"/>
       <c r="L129" s="4" t="s">
@@ -19387,28 +19470,28 @@
     </row>
     <row r="130" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4" t="s">
-        <v>727</v>
+        <v>671</v>
       </c>
       <c r="B130" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D130" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E130" s="56" t="s">
-        <v>904</v>
+        <v>1251</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>1028</v>
+        <v>1118</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>1029</v>
+        <v>1111</v>
       </c>
       <c r="H130" s="126" t="s">
-        <v>874</v>
+        <v>1121</v>
       </c>
       <c r="I130" s="126"/>
       <c r="J130" s="4" t="s">
@@ -19432,34 +19515,32 @@
     </row>
     <row r="131" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4" t="s">
-        <v>728</v>
+        <v>672</v>
       </c>
       <c r="B131" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D131" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E131" s="56" t="s">
-        <v>904</v>
+        <v>1251</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="H131" s="126" t="s">
-        <v>1116</v>
-      </c>
-      <c r="I131" s="126" t="s">
-        <v>1119</v>
-      </c>
+        <v>1120</v>
+      </c>
+      <c r="I131" s="126"/>
       <c r="J131" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K131" s="4"/>
       <c r="L131" s="4" t="s">
@@ -19479,32 +19560,32 @@
     </row>
     <row r="132" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4" t="s">
-        <v>729</v>
+        <v>661</v>
       </c>
       <c r="B132" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D132" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E132" s="56" t="s">
-        <v>1122</v>
+        <v>1180</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>908</v>
+        <v>1181</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>1129</v>
+        <v>1078</v>
       </c>
       <c r="H132" s="126" t="s">
-        <v>910</v>
+        <v>1079</v>
       </c>
       <c r="I132" s="126"/>
       <c r="J132" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K132" s="4"/>
       <c r="L132" s="4" t="s">
@@ -19524,28 +19605,28 @@
     </row>
     <row r="133" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4" t="s">
-        <v>730</v>
+        <v>1122</v>
       </c>
       <c r="B133" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D133" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E133" s="56" t="s">
-        <v>1122</v>
+        <v>1255</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>909</v>
+        <v>1252</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>1130</v>
+        <v>1253</v>
       </c>
       <c r="H133" s="126" t="s">
-        <v>911</v>
+        <v>1254</v>
       </c>
       <c r="I133" s="126"/>
       <c r="J133" s="4" t="s">
@@ -19569,34 +19650,32 @@
     </row>
     <row r="134" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4" t="s">
-        <v>731</v>
+        <v>662</v>
       </c>
       <c r="B134" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D134" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E134" s="56" t="s">
-        <v>1195</v>
+        <v>1256</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>1196</v>
+        <v>1257</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>1197</v>
+        <v>1258</v>
       </c>
       <c r="H134" s="126" t="s">
-        <v>1201</v>
-      </c>
-      <c r="I134" s="126" t="s">
-        <v>1198</v>
-      </c>
+        <v>1259</v>
+      </c>
+      <c r="I134" s="126"/>
       <c r="J134" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K134" s="4"/>
       <c r="L134" s="4" t="s">
@@ -19616,32 +19695,32 @@
     </row>
     <row r="135" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
-        <v>768</v>
+        <v>676</v>
       </c>
       <c r="B135" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D135" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E135" s="56" t="s">
-        <v>1195</v>
+        <v>1261</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>1199</v>
+        <v>864</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>1200</v>
+        <v>865</v>
       </c>
       <c r="H135" s="126" t="s">
-        <v>1202</v>
+        <v>866</v>
       </c>
       <c r="I135" s="126"/>
       <c r="J135" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K135" s="4"/>
       <c r="L135" s="4" t="s">
@@ -19661,32 +19740,32 @@
     </row>
     <row r="136" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4" t="s">
-        <v>731</v>
+        <v>677</v>
       </c>
       <c r="B136" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D136" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E136" s="56" t="s">
-        <v>1137</v>
+        <v>1261</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>1131</v>
+        <v>1091</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>1132</v>
+        <v>1092</v>
       </c>
       <c r="H136" s="126" t="s">
-        <v>1133</v>
+        <v>1093</v>
       </c>
       <c r="I136" s="126"/>
       <c r="J136" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K136" s="4"/>
       <c r="L136" s="4" t="s">
@@ -19706,32 +19785,32 @@
     </row>
     <row r="137" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4" t="s">
-        <v>768</v>
+        <v>722</v>
       </c>
       <c r="B137" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D137" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E137" s="56" t="s">
-        <v>1138</v>
+        <v>1261</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>1134</v>
+        <v>1020</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>1135</v>
+        <v>1021</v>
       </c>
       <c r="H137" s="126" t="s">
-        <v>1136</v>
+        <v>1022</v>
       </c>
       <c r="I137" s="126"/>
       <c r="J137" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K137" s="4"/>
       <c r="L137" s="4" t="s">
@@ -19751,32 +19830,32 @@
     </row>
     <row r="138" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4" t="s">
-        <v>661</v>
+        <v>723</v>
       </c>
       <c r="B138" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D138" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E138" s="56" t="s">
-        <v>1205</v>
+        <v>1261</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>1207</v>
+        <v>1023</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>1083</v>
+        <v>1024</v>
       </c>
       <c r="H138" s="126" t="s">
-        <v>1084</v>
+        <v>869</v>
       </c>
       <c r="I138" s="126"/>
       <c r="J138" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K138" s="4"/>
       <c r="L138" s="4" t="s">
@@ -19796,32 +19875,34 @@
     </row>
     <row r="139" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4" t="s">
-        <v>769</v>
+        <v>724</v>
       </c>
       <c r="B139" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D139" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E139" s="56" t="s">
-        <v>904</v>
+        <v>1261</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>1124</v>
+        <v>1105</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="H139" s="126" t="s">
-        <v>1214</v>
-      </c>
-      <c r="I139" s="126"/>
+        <v>1104</v>
+      </c>
+      <c r="I139" s="126" t="s">
+        <v>1107</v>
+      </c>
       <c r="J139" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K139" s="4"/>
       <c r="L139" s="4" t="s">
@@ -19841,32 +19922,30 @@
     </row>
     <row r="140" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4" t="s">
-        <v>770</v>
+        <v>725</v>
       </c>
       <c r="B140" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D140" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E140" s="56" t="s">
-        <v>1105</v>
+        <v>1261</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>1125</v>
+        <v>903</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>1127</v>
+        <v>1108</v>
       </c>
       <c r="H140" s="126" t="s">
-        <v>1226</v>
-      </c>
-      <c r="I140" s="126" t="s">
-        <v>1120</v>
-      </c>
+        <v>905</v>
+      </c>
+      <c r="I140" s="126"/>
       <c r="J140" s="4" t="s">
         <v>43</v>
       </c>
@@ -19888,32 +19967,30 @@
     </row>
     <row r="141" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
-        <v>771</v>
+        <v>726</v>
       </c>
       <c r="B141" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D141" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E141" s="56" t="s">
-        <v>1105</v>
+        <v>1261</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>1126</v>
+        <v>904</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>1128</v>
+        <v>1109</v>
       </c>
       <c r="H141" s="126" t="s">
-        <v>1227</v>
-      </c>
-      <c r="I141" s="126" t="s">
-        <v>1121</v>
-      </c>
+        <v>906</v>
+      </c>
+      <c r="I141" s="126"/>
       <c r="J141" s="4" t="s">
         <v>43</v>
       </c>
@@ -19935,32 +20012,32 @@
     </row>
     <row r="142" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
-        <v>772</v>
+        <v>1122</v>
       </c>
       <c r="B142" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D142" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E142" s="56" t="s">
-        <v>1105</v>
+        <v>1255</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>1147</v>
+        <v>1265</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>1144</v>
+        <v>1267</v>
       </c>
       <c r="H142" s="126" t="s">
-        <v>1148</v>
+        <v>1254</v>
       </c>
       <c r="I142" s="126"/>
       <c r="J142" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K142" s="4"/>
       <c r="L142" s="4" t="s">
@@ -19980,31 +20057,37 @@
     </row>
     <row r="143" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
-        <v>773</v>
+        <v>662</v>
       </c>
       <c r="B143" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D143" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E143" s="56" t="s">
-        <v>1251</v>
+        <v>1256</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>1252</v>
+        <v>1266</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>1253</v>
-      </c>
-      <c r="H143" s="126"/>
+        <v>1268</v>
+      </c>
+      <c r="H143" s="126" t="s">
+        <v>1259</v>
+      </c>
       <c r="I143" s="126"/>
-      <c r="J143" s="4"/>
+      <c r="J143" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K143" s="4"/>
-      <c r="L143" s="4"/>
+      <c r="L143" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M143" s="4"/>
       <c r="N143" s="4"/>
       <c r="O143" s="4"/>
@@ -20019,32 +20102,32 @@
     </row>
     <row r="144" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
-        <v>776</v>
+        <v>669</v>
       </c>
       <c r="B144" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>712</v>
-      </c>
-      <c r="D144" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="D144" s="56" t="s">
         <v>542</v>
       </c>
-      <c r="E144" s="4" t="s">
-        <v>716</v>
+      <c r="E144" s="56" t="s">
+        <v>713</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>1191</v>
+        <v>1262</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>1048</v>
+        <v>1264</v>
       </c>
       <c r="H144" s="126" t="s">
-        <v>1049</v>
+        <v>1263</v>
       </c>
       <c r="I144" s="126"/>
       <c r="J144" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K144" s="4"/>
       <c r="L144" s="4" t="s">
@@ -20064,32 +20147,34 @@
     </row>
     <row r="145" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
-        <v>779</v>
+        <v>727</v>
       </c>
       <c r="B145" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>712</v>
-      </c>
-      <c r="D145" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="D145" s="56" t="s">
         <v>542</v>
       </c>
-      <c r="E145" s="4" t="s">
-        <v>912</v>
+      <c r="E145" s="56" t="s">
+        <v>1170</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>1050</v>
+        <v>1171</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>1051</v>
+        <v>1172</v>
       </c>
       <c r="H145" s="126" t="s">
-        <v>1052</v>
-      </c>
-      <c r="I145" s="126"/>
+        <v>1176</v>
+      </c>
+      <c r="I145" s="126" t="s">
+        <v>1173</v>
+      </c>
       <c r="J145" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K145" s="4"/>
       <c r="L145" s="4" t="s">
@@ -20109,32 +20194,32 @@
     </row>
     <row r="146" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4" t="s">
-        <v>780</v>
+        <v>764</v>
       </c>
       <c r="B146" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>712</v>
-      </c>
-      <c r="D146" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="D146" s="56" t="s">
         <v>542</v>
       </c>
-      <c r="E146" s="4" t="s">
-        <v>717</v>
+      <c r="E146" s="56" t="s">
+        <v>1170</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>1053</v>
+        <v>1174</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>1054</v>
+        <v>1175</v>
       </c>
       <c r="H146" s="126" t="s">
-        <v>1057</v>
+        <v>1177</v>
       </c>
       <c r="I146" s="126"/>
       <c r="J146" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K146" s="4"/>
       <c r="L146" s="4" t="s">
@@ -20154,32 +20239,32 @@
     </row>
     <row r="147" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4" t="s">
-        <v>773</v>
+        <v>669</v>
       </c>
       <c r="B147" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D147" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E147" s="56" t="s">
-        <v>904</v>
+        <v>1117</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>1192</v>
+        <v>1272</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>1194</v>
+        <v>1273</v>
       </c>
       <c r="H147" s="126" t="s">
-        <v>873</v>
+        <v>1274</v>
       </c>
       <c r="I147" s="126"/>
       <c r="J147" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K147" s="4"/>
       <c r="L147" s="4" t="s">
@@ -20199,32 +20284,32 @@
     </row>
     <row r="148" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
-        <v>774</v>
+        <v>727</v>
       </c>
       <c r="B148" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D148" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E148" s="56" t="s">
-        <v>904</v>
+        <v>1116</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>1193</v>
+        <v>1110</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>1099</v>
+        <v>1111</v>
       </c>
       <c r="H148" s="126" t="s">
-        <v>1100</v>
+        <v>1112</v>
       </c>
       <c r="I148" s="126"/>
       <c r="J148" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K148" s="4"/>
       <c r="L148" s="4" t="s">
@@ -20244,34 +20329,32 @@
     </row>
     <row r="149" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
       <c r="B149" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>712</v>
-      </c>
-      <c r="D149" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="D149" s="56" t="s">
         <v>542</v>
       </c>
-      <c r="E149" s="4" t="s">
-        <v>717</v>
+      <c r="E149" s="56" t="s">
+        <v>1251</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>913</v>
+        <v>1113</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>719</v>
+        <v>1114</v>
       </c>
       <c r="H149" s="126" t="s">
-        <v>895</v>
-      </c>
-      <c r="I149" s="126" t="s">
-        <v>721</v>
-      </c>
+        <v>1115</v>
+      </c>
+      <c r="I149" s="126"/>
       <c r="J149" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K149" s="4"/>
       <c r="L149" s="4" t="s">
@@ -20291,34 +20374,32 @@
     </row>
     <row r="150" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4" t="s">
-        <v>782</v>
+        <v>661</v>
       </c>
       <c r="B150" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>712</v>
-      </c>
-      <c r="D150" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="D150" s="56" t="s">
         <v>542</v>
       </c>
-      <c r="E150" s="4" t="s">
-        <v>717</v>
+      <c r="E150" s="56" t="s">
+        <v>1180</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>914</v>
+        <v>1182</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>718</v>
+        <v>1078</v>
       </c>
       <c r="H150" s="126" t="s">
-        <v>896</v>
-      </c>
-      <c r="I150" s="126" t="s">
-        <v>720</v>
-      </c>
+        <v>1079</v>
+      </c>
+      <c r="I150" s="126"/>
       <c r="J150" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K150" s="4"/>
       <c r="L150" s="4" t="s">
@@ -20338,34 +20419,32 @@
     </row>
     <row r="151" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4" t="s">
-        <v>728</v>
+        <v>768</v>
       </c>
       <c r="B151" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D151" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E151" s="56" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>1230</v>
+        <v>1260</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>1231</v>
+        <v>1223</v>
       </c>
       <c r="H151" s="126" t="s">
-        <v>1116</v>
-      </c>
-      <c r="I151" s="126" t="s">
-        <v>1232</v>
-      </c>
+        <v>1275</v>
+      </c>
+      <c r="I151" s="126"/>
       <c r="J151" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K151" s="4"/>
       <c r="L151" s="4" t="s">
@@ -20385,34 +20464,32 @@
     </row>
     <row r="152" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4" t="s">
-        <v>672</v>
+        <v>771</v>
       </c>
       <c r="B152" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C152" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="E152" s="4" t="s">
         <v>712</v>
       </c>
-      <c r="D152" s="56" t="s">
-        <v>542</v>
-      </c>
-      <c r="E152" s="56" t="s">
-        <v>1195</v>
-      </c>
       <c r="F152" s="4" t="s">
-        <v>1203</v>
+        <v>1166</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>1135</v>
+        <v>1043</v>
       </c>
       <c r="H152" s="126" t="s">
-        <v>1204</v>
-      </c>
-      <c r="I152" s="126" t="s">
-        <v>1212</v>
-      </c>
+        <v>1044</v>
+      </c>
+      <c r="I152" s="126"/>
       <c r="J152" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K152" s="4"/>
       <c r="L152" s="4" t="s">
@@ -20432,32 +20509,32 @@
     </row>
     <row r="153" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4" t="s">
-        <v>661</v>
+        <v>774</v>
       </c>
       <c r="B153" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>712</v>
-      </c>
-      <c r="D153" s="56" t="s">
+        <v>708</v>
+      </c>
+      <c r="D153" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="E153" s="56" t="s">
-        <v>1205</v>
+      <c r="E153" s="4" t="s">
+        <v>907</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>1211</v>
+        <v>1045</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>1083</v>
+        <v>1046</v>
       </c>
       <c r="H153" s="126" t="s">
-        <v>1084</v>
+        <v>1047</v>
       </c>
       <c r="I153" s="126"/>
       <c r="J153" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K153" s="4"/>
       <c r="L153" s="4" t="s">
@@ -20477,34 +20554,32 @@
     </row>
     <row r="154" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4" t="s">
-        <v>658</v>
+        <v>775</v>
       </c>
       <c r="B154" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>712</v>
-      </c>
-      <c r="D154" s="56" t="s">
+        <v>708</v>
+      </c>
+      <c r="D154" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="E154" s="56" t="s">
-        <v>793</v>
+      <c r="E154" s="4" t="s">
+        <v>713</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>1208</v>
+        <v>1048</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>889</v>
+        <v>1049</v>
       </c>
       <c r="H154" s="126" t="s">
-        <v>1210</v>
-      </c>
-      <c r="I154" s="126" t="s">
-        <v>1213</v>
-      </c>
+        <v>1052</v>
+      </c>
+      <c r="I154" s="126"/>
       <c r="J154" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K154" s="4"/>
       <c r="L154" s="4" t="s">
@@ -20524,32 +20599,32 @@
     </row>
     <row r="155" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4" t="s">
-        <v>659</v>
+        <v>768</v>
       </c>
       <c r="B155" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D155" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E155" s="56" t="s">
-        <v>796</v>
+        <v>899</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>1209</v>
+        <v>1167</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>1081</v>
+        <v>1169</v>
       </c>
       <c r="H155" s="126" t="s">
-        <v>1082</v>
+        <v>868</v>
       </c>
       <c r="I155" s="126"/>
       <c r="J155" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K155" s="4"/>
       <c r="L155" s="4" t="s">
@@ -20569,32 +20644,32 @@
     </row>
     <row r="156" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="B156" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>712</v>
-      </c>
-      <c r="D156" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="D156" s="56" t="s">
         <v>542</v>
       </c>
-      <c r="E156" s="4" t="s">
-        <v>717</v>
+      <c r="E156" s="56" t="s">
+        <v>899</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>1058</v>
+        <v>1168</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>894</v>
+        <v>1094</v>
       </c>
       <c r="H156" s="126" t="s">
-        <v>722</v>
+        <v>1095</v>
       </c>
       <c r="I156" s="126"/>
       <c r="J156" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K156" s="4"/>
       <c r="L156" s="4" t="s">
@@ -20614,32 +20689,34 @@
     </row>
     <row r="157" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="B157" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>542</v>
       </c>
       <c r="E157" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="H157" s="126" t="s">
+        <v>890</v>
+      </c>
+      <c r="I157" s="126" t="s">
         <v>717</v>
       </c>
-      <c r="F157" s="4" t="s">
-        <v>1059</v>
-      </c>
-      <c r="G157" s="4" t="s">
-        <v>1060</v>
-      </c>
-      <c r="H157" s="126" t="s">
-        <v>1061</v>
-      </c>
-      <c r="I157" s="126"/>
       <c r="J157" s="4" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="K157" s="4"/>
       <c r="L157" s="4" t="s">
@@ -20659,30 +20736,32 @@
     </row>
     <row r="158" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="B158" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>542</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>1216</v>
+        <v>909</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>1217</v>
+        <v>714</v>
       </c>
       <c r="H158" s="126" t="s">
-        <v>1218</v>
-      </c>
-      <c r="I158" s="126"/>
+        <v>891</v>
+      </c>
+      <c r="I158" s="126" t="s">
+        <v>716</v>
+      </c>
       <c r="J158" s="4" t="s">
         <v>43</v>
       </c>
@@ -20704,34 +20783,34 @@
     </row>
     <row r="159" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4" t="s">
-        <v>770</v>
+        <v>724</v>
       </c>
       <c r="B159" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D159" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E159" s="56" t="s">
-        <v>1219</v>
+        <v>1200</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>1221</v>
+        <v>1201</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>1222</v>
+        <v>1202</v>
       </c>
       <c r="H159" s="126" t="s">
-        <v>1225</v>
+        <v>1104</v>
       </c>
       <c r="I159" s="126" t="s">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="J159" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K159" s="4"/>
       <c r="L159" s="4" t="s">
@@ -20751,34 +20830,34 @@
     </row>
     <row r="160" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4" t="s">
-        <v>771</v>
+        <v>672</v>
       </c>
       <c r="B160" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D160" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E160" s="56" t="s">
-        <v>1220</v>
+        <v>1170</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>1233</v>
+        <v>1178</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>1223</v>
+        <v>1114</v>
       </c>
       <c r="H160" s="126" t="s">
-        <v>1224</v>
+        <v>1179</v>
       </c>
       <c r="I160" s="126" t="s">
-        <v>1228</v>
+        <v>1187</v>
       </c>
       <c r="J160" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K160" s="4"/>
       <c r="L160" s="4" t="s">
@@ -20798,32 +20877,32 @@
     </row>
     <row r="161" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4" t="s">
-        <v>772</v>
+        <v>661</v>
       </c>
       <c r="B161" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D161" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E161" s="56" t="s">
-        <v>1105</v>
+        <v>1180</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>1234</v>
+        <v>1186</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>1144</v>
+        <v>1078</v>
       </c>
       <c r="H161" s="126" t="s">
-        <v>1235</v>
+        <v>1079</v>
       </c>
       <c r="I161" s="126"/>
       <c r="J161" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K161" s="4"/>
       <c r="L161" s="4" t="s">
@@ -20843,32 +20922,34 @@
     </row>
     <row r="162" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4" t="s">
-        <v>777</v>
+        <v>658</v>
       </c>
       <c r="B162" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>712</v>
-      </c>
-      <c r="D162" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="D162" s="56" t="s">
         <v>542</v>
       </c>
-      <c r="E162" s="4" t="s">
-        <v>1236</v>
+      <c r="E162" s="56" t="s">
+        <v>788</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>890</v>
+        <v>1183</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="H162" s="126" t="s">
-        <v>1237</v>
-      </c>
-      <c r="I162" s="126"/>
+        <v>1185</v>
+      </c>
+      <c r="I162" s="126" t="s">
+        <v>1188</v>
+      </c>
       <c r="J162" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K162" s="4"/>
       <c r="L162" s="4" t="s">
@@ -20888,32 +20969,32 @@
     </row>
     <row r="163" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4" t="s">
-        <v>778</v>
+        <v>659</v>
       </c>
       <c r="B163" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>712</v>
-      </c>
-      <c r="D163" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="D163" s="56" t="s">
         <v>542</v>
       </c>
-      <c r="E163" s="4" t="s">
-        <v>904</v>
+      <c r="E163" s="56" t="s">
+        <v>791</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>893</v>
+        <v>1184</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>892</v>
+        <v>1076</v>
       </c>
       <c r="H163" s="126" t="s">
-        <v>1238</v>
+        <v>1077</v>
       </c>
       <c r="I163" s="126"/>
       <c r="J163" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K163" s="4"/>
       <c r="L163" s="4" t="s">
@@ -20933,32 +21014,32 @@
     </row>
     <row r="164" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4" t="s">
-        <v>820</v>
+        <v>778</v>
       </c>
       <c r="B164" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>1239</v>
+        <v>708</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>542</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>1250</v>
+        <v>1053</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>915</v>
+        <v>889</v>
       </c>
       <c r="H164" s="126" t="s">
-        <v>1246</v>
+        <v>718</v>
       </c>
       <c r="I164" s="126"/>
       <c r="J164" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K164" s="4"/>
       <c r="L164" s="4" t="s">
@@ -20978,32 +21059,32 @@
     </row>
     <row r="165" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4" t="s">
-        <v>918</v>
+        <v>779</v>
       </c>
       <c r="B165" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>1239</v>
+        <v>708</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>542</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>723</v>
+        <v>1054</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>916</v>
+        <v>1055</v>
       </c>
       <c r="H165" s="126" t="s">
-        <v>1249</v>
+        <v>1056</v>
       </c>
       <c r="I165" s="126"/>
       <c r="J165" s="4" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="K165" s="4"/>
       <c r="L165" s="4" t="s">
@@ -21023,28 +21104,28 @@
     </row>
     <row r="166" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4" t="s">
-        <v>919</v>
+        <v>780</v>
       </c>
       <c r="B166" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>1239</v>
+        <v>708</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>542</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>1055</v>
+        <v>1189</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>725</v>
+        <v>1190</v>
       </c>
       <c r="H166" s="126" t="s">
-        <v>1246</v>
+        <v>1191</v>
       </c>
       <c r="I166" s="126"/>
       <c r="J166" s="4" t="s">
@@ -21068,30 +21149,32 @@
     </row>
     <row r="167" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4" t="s">
-        <v>920</v>
+        <v>765</v>
       </c>
       <c r="B167" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>1239</v>
-      </c>
-      <c r="D167" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="D167" s="56" t="s">
         <v>542</v>
       </c>
-      <c r="E167" s="4" t="s">
-        <v>724</v>
+      <c r="E167" s="56" t="s">
+        <v>1192</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>1056</v>
+        <v>1194</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>725</v>
+        <v>1195</v>
       </c>
       <c r="H167" s="126" t="s">
-        <v>1249</v>
-      </c>
-      <c r="I167" s="126"/>
+        <v>1198</v>
+      </c>
+      <c r="I167" s="126" t="s">
+        <v>1199</v>
+      </c>
       <c r="J167" s="4" t="s">
         <v>43</v>
       </c>
@@ -21113,33 +21196,39 @@
     </row>
     <row r="168" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4" t="s">
-        <v>921</v>
+        <v>766</v>
       </c>
       <c r="B168" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>1239</v>
-      </c>
-      <c r="D168" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="D168" s="56" t="s">
         <v>542</v>
       </c>
-      <c r="E168" s="4" t="s">
-        <v>1243</v>
+      <c r="E168" s="56" t="s">
+        <v>1193</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>1244</v>
+        <v>1204</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>1245</v>
+        <v>1196</v>
       </c>
       <c r="H168" s="126" t="s">
-        <v>1246</v>
-      </c>
-      <c r="I168" s="126"/>
-      <c r="J168" s="4"/>
+        <v>1197</v>
+      </c>
+      <c r="I168" s="126" t="s">
+        <v>1199</v>
+      </c>
+      <c r="J168" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K168" s="4"/>
-      <c r="L168" s="4"/>
+      <c r="L168" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M168" s="4"/>
       <c r="N168" s="4"/>
       <c r="O168" s="4"/>
@@ -21154,33 +21243,37 @@
     </row>
     <row r="169" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4" t="s">
-        <v>922</v>
+        <v>767</v>
       </c>
       <c r="B169" s="117" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>1239</v>
-      </c>
-      <c r="D169" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="D169" s="56" t="s">
         <v>542</v>
       </c>
-      <c r="E169" s="4" t="s">
-        <v>1243</v>
+      <c r="E169" s="56" t="s">
+        <v>1100</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>1247</v>
+        <v>1205</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>1248</v>
+        <v>1123</v>
       </c>
       <c r="H169" s="126" t="s">
-        <v>1249</v>
+        <v>1206</v>
       </c>
       <c r="I169" s="126"/>
-      <c r="J169" s="4"/>
+      <c r="J169" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="K169" s="4"/>
-      <c r="L169" s="4"/>
+      <c r="L169" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M169" s="4"/>
       <c r="N169" s="4"/>
       <c r="O169" s="4"/>
@@ -21195,32 +21288,32 @@
     </row>
     <row r="170" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4" t="s">
-        <v>921</v>
-      </c>
-      <c r="B170" s="130" t="s">
-        <v>1065</v>
+        <v>772</v>
+      </c>
+      <c r="B170" s="117" t="s">
+        <v>707</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>1066</v>
+        <v>708</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>496</v>
+        <v>542</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>755</v>
+        <v>1207</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>1062</v>
+        <v>885</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>1063</v>
+        <v>886</v>
       </c>
       <c r="H170" s="126" t="s">
-        <v>1064</v>
-      </c>
-      <c r="I170" s="128"/>
+        <v>1208</v>
+      </c>
+      <c r="I170" s="126"/>
       <c r="J170" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K170" s="4"/>
       <c r="L170" s="4" t="s">
@@ -21240,19 +21333,37 @@
     </row>
     <row r="171" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4" t="s">
-        <v>922</v>
-      </c>
-      <c r="B171" s="4"/>
-      <c r="C171" s="4"/>
-      <c r="D171" s="4"/>
-      <c r="E171" s="4"/>
-      <c r="F171" s="4"/>
-      <c r="G171" s="4"/>
-      <c r="H171" s="126"/>
+        <v>773</v>
+      </c>
+      <c r="B171" s="117" t="s">
+        <v>707</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="H171" s="126" t="s">
+        <v>1209</v>
+      </c>
       <c r="I171" s="126"/>
-      <c r="J171" s="4"/>
+      <c r="J171" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="K171" s="4"/>
-      <c r="L171" s="4"/>
+      <c r="L171" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M171" s="4"/>
       <c r="N171" s="4"/>
       <c r="O171" s="4"/>
@@ -21267,19 +21378,37 @@
     </row>
     <row r="172" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4" t="s">
-        <v>923</v>
-      </c>
-      <c r="B172" s="4"/>
-      <c r="C172" s="4"/>
-      <c r="D172" s="4"/>
-      <c r="E172" s="4"/>
-      <c r="F172" s="4"/>
-      <c r="G172" s="4"/>
-      <c r="H172" s="126"/>
+        <v>815</v>
+      </c>
+      <c r="B172" s="117" t="s">
+        <v>707</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="H172" s="126" t="s">
+        <v>1217</v>
+      </c>
       <c r="I172" s="126"/>
-      <c r="J172" s="4"/>
+      <c r="J172" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K172" s="4"/>
-      <c r="L172" s="4"/>
+      <c r="L172" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M172" s="4"/>
       <c r="N172" s="4"/>
       <c r="O172" s="4"/>
@@ -21294,19 +21423,37 @@
     </row>
     <row r="173" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4" t="s">
-        <v>924</v>
-      </c>
-      <c r="B173" s="4"/>
-      <c r="C173" s="4"/>
-      <c r="D173" s="4"/>
-      <c r="E173" s="4"/>
-      <c r="F173" s="4"/>
-      <c r="G173" s="4"/>
-      <c r="H173" s="126"/>
+        <v>913</v>
+      </c>
+      <c r="B173" s="117" t="s">
+        <v>707</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="H173" s="126" t="s">
+        <v>1220</v>
+      </c>
       <c r="I173" s="126"/>
-      <c r="J173" s="4"/>
+      <c r="J173" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K173" s="4"/>
-      <c r="L173" s="4"/>
+      <c r="L173" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M173" s="4"/>
       <c r="N173" s="4"/>
       <c r="O173" s="4"/>
@@ -21321,19 +21468,37 @@
     </row>
     <row r="174" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="B174" s="4"/>
-      <c r="C174" s="4"/>
-      <c r="D174" s="4"/>
-      <c r="E174" s="4"/>
-      <c r="F174" s="4"/>
-      <c r="G174" s="4"/>
-      <c r="H174" s="126"/>
+        <v>914</v>
+      </c>
+      <c r="B174" s="117" t="s">
+        <v>707</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="H174" s="126" t="s">
+        <v>1217</v>
+      </c>
       <c r="I174" s="126"/>
-      <c r="J174" s="4"/>
+      <c r="J174" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K174" s="4"/>
-      <c r="L174" s="4"/>
+      <c r="L174" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M174" s="4"/>
       <c r="N174" s="4"/>
       <c r="O174" s="4"/>
@@ -21348,19 +21513,37 @@
     </row>
     <row r="175" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4" t="s">
-        <v>926</v>
-      </c>
-      <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
-      <c r="E175" s="4"/>
-      <c r="F175" s="4"/>
-      <c r="G175" s="4"/>
-      <c r="H175" s="126"/>
+        <v>915</v>
+      </c>
+      <c r="B175" s="117" t="s">
+        <v>707</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="H175" s="126" t="s">
+        <v>1220</v>
+      </c>
       <c r="I175" s="126"/>
-      <c r="J175" s="4"/>
+      <c r="J175" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K175" s="4"/>
-      <c r="L175" s="4"/>
+      <c r="L175" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M175" s="4"/>
       <c r="N175" s="4"/>
       <c r="O175" s="4"/>
@@ -21375,15 +21558,29 @@
     </row>
     <row r="176" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4" t="s">
-        <v>927</v>
-      </c>
-      <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
-      <c r="D176" s="4"/>
-      <c r="E176" s="4"/>
-      <c r="F176" s="4"/>
-      <c r="G176" s="4"/>
-      <c r="H176" s="126"/>
+        <v>916</v>
+      </c>
+      <c r="B176" s="117" t="s">
+        <v>707</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>1216</v>
+      </c>
+      <c r="H176" s="126" t="s">
+        <v>1217</v>
+      </c>
       <c r="I176" s="126"/>
       <c r="J176" s="4"/>
       <c r="K176" s="4"/>
@@ -21402,15 +21599,29 @@
     </row>
     <row r="177" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4" t="s">
-        <v>928</v>
-      </c>
-      <c r="B177" s="4"/>
-      <c r="C177" s="4"/>
-      <c r="D177" s="4"/>
-      <c r="E177" s="4"/>
-      <c r="F177" s="4"/>
-      <c r="G177" s="4"/>
-      <c r="H177" s="126"/>
+        <v>917</v>
+      </c>
+      <c r="B177" s="117" t="s">
+        <v>707</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="H177" s="126" t="s">
+        <v>1220</v>
+      </c>
       <c r="I177" s="126"/>
       <c r="J177" s="4"/>
       <c r="K177" s="4"/>
@@ -21429,19 +21640,37 @@
     </row>
     <row r="178" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4" t="s">
-        <v>929</v>
-      </c>
-      <c r="B178" s="4"/>
-      <c r="C178" s="4"/>
-      <c r="D178" s="4"/>
-      <c r="E178" s="4"/>
-      <c r="F178" s="4"/>
-      <c r="G178" s="4"/>
-      <c r="H178" s="126"/>
-      <c r="I178" s="126"/>
-      <c r="J178" s="4"/>
+        <v>916</v>
+      </c>
+      <c r="B178" s="130" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G178" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H178" s="126" t="s">
+        <v>1059</v>
+      </c>
+      <c r="I178" s="128"/>
+      <c r="J178" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="K178" s="4"/>
-      <c r="L178" s="4"/>
+      <c r="L178" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M178" s="4"/>
       <c r="N178" s="4"/>
       <c r="O178" s="4"/>
@@ -21456,7 +21685,7 @@
     </row>
     <row r="179" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4" t="s">
-        <v>930</v>
+        <v>917</v>
       </c>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -21483,7 +21712,7 @@
     </row>
     <row r="180" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4" t="s">
-        <v>931</v>
+        <v>918</v>
       </c>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -21510,7 +21739,7 @@
     </row>
     <row r="181" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4" t="s">
-        <v>932</v>
+        <v>919</v>
       </c>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -21537,7 +21766,7 @@
     </row>
     <row r="182" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4" t="s">
-        <v>933</v>
+        <v>920</v>
       </c>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -21564,7 +21793,7 @@
     </row>
     <row r="183" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4" t="s">
-        <v>934</v>
+        <v>921</v>
       </c>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -21591,7 +21820,7 @@
     </row>
     <row r="184" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4" t="s">
-        <v>935</v>
+        <v>922</v>
       </c>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -21618,7 +21847,7 @@
     </row>
     <row r="185" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4" t="s">
-        <v>953</v>
+        <v>923</v>
       </c>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -21645,7 +21874,7 @@
     </row>
     <row r="186" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4" t="s">
-        <v>954</v>
+        <v>924</v>
       </c>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -21672,7 +21901,7 @@
     </row>
     <row r="187" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4" t="s">
-        <v>955</v>
+        <v>925</v>
       </c>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -21699,7 +21928,7 @@
     </row>
     <row r="188" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4" t="s">
-        <v>956</v>
+        <v>926</v>
       </c>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -21726,7 +21955,7 @@
     </row>
     <row r="189" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4" t="s">
-        <v>1004</v>
+        <v>927</v>
       </c>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -21753,7 +21982,7 @@
     </row>
     <row r="190" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4" t="s">
-        <v>1005</v>
+        <v>928</v>
       </c>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -21780,7 +22009,7 @@
     </row>
     <row r="191" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4" t="s">
-        <v>1006</v>
+        <v>929</v>
       </c>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -21807,7 +22036,7 @@
     </row>
     <row r="192" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4" t="s">
-        <v>1007</v>
+        <v>930</v>
       </c>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -21834,7 +22063,7 @@
     </row>
     <row r="193" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4" t="s">
-        <v>1008</v>
+        <v>948</v>
       </c>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -21861,7 +22090,7 @@
     </row>
     <row r="194" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4" t="s">
-        <v>1009</v>
+        <v>949</v>
       </c>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -21888,7 +22117,7 @@
     </row>
     <row r="195" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4" t="s">
-        <v>1010</v>
+        <v>950</v>
       </c>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -21915,7 +22144,7 @@
     </row>
     <row r="196" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4" t="s">
-        <v>1011</v>
+        <v>951</v>
       </c>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -21942,7 +22171,7 @@
     </row>
     <row r="197" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4" t="s">
-        <v>1012</v>
+        <v>999</v>
       </c>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -21969,7 +22198,7 @@
     </row>
     <row r="198" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4" t="s">
-        <v>1013</v>
+        <v>1000</v>
       </c>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -21996,7 +22225,7 @@
     </row>
     <row r="199" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4" t="s">
-        <v>1014</v>
+        <v>1001</v>
       </c>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -22023,7 +22252,7 @@
     </row>
     <row r="200" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4" t="s">
-        <v>1157</v>
+        <v>1002</v>
       </c>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -22050,7 +22279,7 @@
     </row>
     <row r="201" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4" t="s">
-        <v>1158</v>
+        <v>1003</v>
       </c>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -22077,7 +22306,7 @@
     </row>
     <row r="202" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4" t="s">
-        <v>1159</v>
+        <v>1004</v>
       </c>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -22104,7 +22333,7 @@
     </row>
     <row r="203" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4" t="s">
-        <v>1160</v>
+        <v>1005</v>
       </c>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -22131,7 +22360,7 @@
     </row>
     <row r="204" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4" t="s">
-        <v>1161</v>
+        <v>1006</v>
       </c>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -22158,7 +22387,7 @@
     </row>
     <row r="205" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4" t="s">
-        <v>1162</v>
+        <v>1007</v>
       </c>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -22185,7 +22414,7 @@
     </row>
     <row r="206" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4" t="s">
-        <v>1163</v>
+        <v>1008</v>
       </c>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -22212,7 +22441,7 @@
     </row>
     <row r="207" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4" t="s">
-        <v>1164</v>
+        <v>1009</v>
       </c>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -22239,7 +22468,7 @@
     </row>
     <row r="208" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4" t="s">
-        <v>1165</v>
+        <v>1132</v>
       </c>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -22266,7 +22495,7 @@
     </row>
     <row r="209" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4" t="s">
-        <v>1166</v>
+        <v>1133</v>
       </c>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -22293,7 +22522,7 @@
     </row>
     <row r="210" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4" t="s">
-        <v>1167</v>
+        <v>1134</v>
       </c>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -22320,7 +22549,7 @@
     </row>
     <row r="211" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4" t="s">
-        <v>1168</v>
+        <v>1135</v>
       </c>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -22347,7 +22576,7 @@
     </row>
     <row r="212" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4" t="s">
-        <v>1169</v>
+        <v>1136</v>
       </c>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -22374,7 +22603,7 @@
     </row>
     <row r="213" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4" t="s">
-        <v>1170</v>
+        <v>1137</v>
       </c>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -22401,7 +22630,7 @@
     </row>
     <row r="214" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4" t="s">
-        <v>1171</v>
+        <v>1138</v>
       </c>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -22428,7 +22657,7 @@
     </row>
     <row r="215" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4" t="s">
-        <v>1172</v>
+        <v>1139</v>
       </c>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -22455,7 +22684,7 @@
     </row>
     <row r="216" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4" t="s">
-        <v>1173</v>
+        <v>1140</v>
       </c>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -22482,7 +22711,7 @@
     </row>
     <row r="217" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4" t="s">
-        <v>1174</v>
+        <v>1141</v>
       </c>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -22509,7 +22738,7 @@
     </row>
     <row r="218" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4" t="s">
-        <v>1175</v>
+        <v>1142</v>
       </c>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -22536,7 +22765,7 @@
     </row>
     <row r="219" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4" t="s">
-        <v>1176</v>
+        <v>1143</v>
       </c>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -22563,7 +22792,7 @@
     </row>
     <row r="220" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4" t="s">
-        <v>1177</v>
+        <v>1144</v>
       </c>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -22590,7 +22819,7 @@
     </row>
     <row r="221" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4" t="s">
-        <v>1178</v>
+        <v>1145</v>
       </c>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -22617,7 +22846,7 @@
     </row>
     <row r="222" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4" t="s">
-        <v>1179</v>
+        <v>1146</v>
       </c>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -22644,7 +22873,7 @@
     </row>
     <row r="223" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4" t="s">
-        <v>1180</v>
+        <v>1147</v>
       </c>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -22671,7 +22900,7 @@
     </row>
     <row r="224" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4" t="s">
-        <v>1181</v>
+        <v>1148</v>
       </c>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -22698,7 +22927,7 @@
     </row>
     <row r="225" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4" t="s">
-        <v>1182</v>
+        <v>1149</v>
       </c>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -22725,7 +22954,7 @@
     </row>
     <row r="226" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4" t="s">
-        <v>1183</v>
+        <v>1150</v>
       </c>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -22752,7 +22981,7 @@
     </row>
     <row r="227" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4" t="s">
-        <v>1184</v>
+        <v>1151</v>
       </c>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -22779,7 +23008,7 @@
     </row>
     <row r="228" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4" t="s">
-        <v>1185</v>
+        <v>1152</v>
       </c>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -22806,7 +23035,7 @@
     </row>
     <row r="229" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4" t="s">
-        <v>1186</v>
+        <v>1153</v>
       </c>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -22831,6 +23060,222 @@
       <c r="V229" s="4"/>
       <c r="W229" s="4"/>
     </row>
+    <row r="230" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A230" s="4" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B230" s="4"/>
+      <c r="C230" s="4"/>
+      <c r="D230" s="4"/>
+      <c r="E230" s="4"/>
+      <c r="F230" s="4"/>
+      <c r="G230" s="4"/>
+      <c r="H230" s="126"/>
+      <c r="I230" s="126"/>
+      <c r="J230" s="4"/>
+      <c r="K230" s="4"/>
+      <c r="L230" s="4"/>
+      <c r="M230" s="4"/>
+      <c r="N230" s="4"/>
+      <c r="O230" s="4"/>
+      <c r="P230" s="4"/>
+      <c r="Q230" s="4"/>
+      <c r="R230" s="4"/>
+      <c r="S230" s="4"/>
+      <c r="T230" s="54"/>
+      <c r="U230" s="4"/>
+      <c r="V230" s="4"/>
+      <c r="W230" s="4"/>
+    </row>
+    <row r="231" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A231" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B231" s="4"/>
+      <c r="C231" s="4"/>
+      <c r="D231" s="4"/>
+      <c r="E231" s="4"/>
+      <c r="F231" s="4"/>
+      <c r="G231" s="4"/>
+      <c r="H231" s="126"/>
+      <c r="I231" s="126"/>
+      <c r="J231" s="4"/>
+      <c r="K231" s="4"/>
+      <c r="L231" s="4"/>
+      <c r="M231" s="4"/>
+      <c r="N231" s="4"/>
+      <c r="O231" s="4"/>
+      <c r="P231" s="4"/>
+      <c r="Q231" s="4"/>
+      <c r="R231" s="4"/>
+      <c r="S231" s="4"/>
+      <c r="T231" s="54"/>
+      <c r="U231" s="4"/>
+      <c r="V231" s="4"/>
+      <c r="W231" s="4"/>
+    </row>
+    <row r="232" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A232" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B232" s="4"/>
+      <c r="C232" s="4"/>
+      <c r="D232" s="4"/>
+      <c r="E232" s="4"/>
+      <c r="F232" s="4"/>
+      <c r="G232" s="4"/>
+      <c r="H232" s="126"/>
+      <c r="I232" s="126"/>
+      <c r="J232" s="4"/>
+      <c r="K232" s="4"/>
+      <c r="L232" s="4"/>
+      <c r="M232" s="4"/>
+      <c r="N232" s="4"/>
+      <c r="O232" s="4"/>
+      <c r="P232" s="4"/>
+      <c r="Q232" s="4"/>
+      <c r="R232" s="4"/>
+      <c r="S232" s="4"/>
+      <c r="T232" s="54"/>
+      <c r="U232" s="4"/>
+      <c r="V232" s="4"/>
+      <c r="W232" s="4"/>
+    </row>
+    <row r="233" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A233" s="4" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B233" s="4"/>
+      <c r="C233" s="4"/>
+      <c r="D233" s="4"/>
+      <c r="E233" s="4"/>
+      <c r="F233" s="4"/>
+      <c r="G233" s="4"/>
+      <c r="H233" s="126"/>
+      <c r="I233" s="126"/>
+      <c r="J233" s="4"/>
+      <c r="K233" s="4"/>
+      <c r="L233" s="4"/>
+      <c r="M233" s="4"/>
+      <c r="N233" s="4"/>
+      <c r="O233" s="4"/>
+      <c r="P233" s="4"/>
+      <c r="Q233" s="4"/>
+      <c r="R233" s="4"/>
+      <c r="S233" s="4"/>
+      <c r="T233" s="54"/>
+      <c r="U233" s="4"/>
+      <c r="V233" s="4"/>
+      <c r="W233" s="4"/>
+    </row>
+    <row r="234" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A234" s="4" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B234" s="4"/>
+      <c r="C234" s="4"/>
+      <c r="D234" s="4"/>
+      <c r="E234" s="4"/>
+      <c r="F234" s="4"/>
+      <c r="G234" s="4"/>
+      <c r="H234" s="126"/>
+      <c r="I234" s="126"/>
+      <c r="J234" s="4"/>
+      <c r="K234" s="4"/>
+      <c r="L234" s="4"/>
+      <c r="M234" s="4"/>
+      <c r="N234" s="4"/>
+      <c r="O234" s="4"/>
+      <c r="P234" s="4"/>
+      <c r="Q234" s="4"/>
+      <c r="R234" s="4"/>
+      <c r="S234" s="4"/>
+      <c r="T234" s="54"/>
+      <c r="U234" s="4"/>
+      <c r="V234" s="4"/>
+      <c r="W234" s="4"/>
+    </row>
+    <row r="235" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A235" s="4" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B235" s="4"/>
+      <c r="C235" s="4"/>
+      <c r="D235" s="4"/>
+      <c r="E235" s="4"/>
+      <c r="F235" s="4"/>
+      <c r="G235" s="4"/>
+      <c r="H235" s="126"/>
+      <c r="I235" s="126"/>
+      <c r="J235" s="4"/>
+      <c r="K235" s="4"/>
+      <c r="L235" s="4"/>
+      <c r="M235" s="4"/>
+      <c r="N235" s="4"/>
+      <c r="O235" s="4"/>
+      <c r="P235" s="4"/>
+      <c r="Q235" s="4"/>
+      <c r="R235" s="4"/>
+      <c r="S235" s="4"/>
+      <c r="T235" s="54"/>
+      <c r="U235" s="4"/>
+      <c r="V235" s="4"/>
+      <c r="W235" s="4"/>
+    </row>
+    <row r="236" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A236" s="4" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B236" s="4"/>
+      <c r="C236" s="4"/>
+      <c r="D236" s="4"/>
+      <c r="E236" s="4"/>
+      <c r="F236" s="4"/>
+      <c r="G236" s="4"/>
+      <c r="H236" s="126"/>
+      <c r="I236" s="126"/>
+      <c r="J236" s="4"/>
+      <c r="K236" s="4"/>
+      <c r="L236" s="4"/>
+      <c r="M236" s="4"/>
+      <c r="N236" s="4"/>
+      <c r="O236" s="4"/>
+      <c r="P236" s="4"/>
+      <c r="Q236" s="4"/>
+      <c r="R236" s="4"/>
+      <c r="S236" s="4"/>
+      <c r="T236" s="54"/>
+      <c r="U236" s="4"/>
+      <c r="V236" s="4"/>
+      <c r="W236" s="4"/>
+    </row>
+    <row r="237" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A237" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B237" s="4"/>
+      <c r="C237" s="4"/>
+      <c r="D237" s="4"/>
+      <c r="E237" s="4"/>
+      <c r="F237" s="4"/>
+      <c r="G237" s="4"/>
+      <c r="H237" s="126"/>
+      <c r="I237" s="126"/>
+      <c r="J237" s="4"/>
+      <c r="K237" s="4"/>
+      <c r="L237" s="4"/>
+      <c r="M237" s="4"/>
+      <c r="N237" s="4"/>
+      <c r="O237" s="4"/>
+      <c r="P237" s="4"/>
+      <c r="Q237" s="4"/>
+      <c r="R237" s="4"/>
+      <c r="S237" s="4"/>
+      <c r="T237" s="54"/>
+      <c r="U237" s="4"/>
+      <c r="V237" s="4"/>
+      <c r="W237" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22842,49 +23287,49 @@
           <x14:formula1>
             <xm:f>Sheet2!$M$4:$M$6</xm:f>
           </x14:formula1>
-          <xm:sqref>S3:S229</xm:sqref>
+          <xm:sqref>S3:S237</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$G$4:$G$11</xm:f>
           </x14:formula1>
-          <xm:sqref>R3:R229</xm:sqref>
+          <xm:sqref>R3:R237</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$K$4:$K$13</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:K229</xm:sqref>
+          <xm:sqref>K3:K237</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$J$4:$J$9</xm:f>
           </x14:formula1>
-          <xm:sqref>Q3:Q229</xm:sqref>
+          <xm:sqref>Q3:Q237</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$G$4:$G$10</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:O229</xm:sqref>
+          <xm:sqref>M3:O237</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$F$4:$F$8</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L229</xm:sqref>
+          <xm:sqref>L3:L237</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$D$4:$D$9</xm:f>
           </x14:formula1>
-          <xm:sqref>J3:J229</xm:sqref>
+          <xm:sqref>J3:J237</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Story Point">
           <x14:formula1>
             <xm:f>'C:\Users\Omnex\Documents\[performanetools1.txt.xlsx]Data_Ref'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>P3:P229</xm:sqref>
+          <xm:sqref>P3:P237</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -23035,13 +23480,13 @@
         <v>497</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>349</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>

--- a/projects/YanFeng/02 System Design/User Stories/User Stories.xlsx
+++ b/projects/YanFeng/02 System Design/User Stories/User Stories.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2988" uniqueCount="1276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3011" uniqueCount="1277">
   <si>
     <t>ID</t>
   </si>
@@ -2923,10 +2923,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>ASDE/SQE suppervisor;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Supplier</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2954,10 +2950,6 @@
   </si>
   <si>
     <t>Receive an internal message of my submission</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASDE, SQE</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -4339,10 +4331,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Project Management - Task toolbar</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>As a user, I want to operate the tasks using a task toolbar in the task list view, so that I can easyly update the task inforamtion in single form</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -4526,11 +4514,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-ASDE/SQE supervisor</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>US101</t>
   </si>
   <si>
@@ -4914,16 +4897,6 @@
 3, Approver value should be ASDE/SQE supervisor;
 4, Approval Status value should be "Waiting for approve";
 5, User should be able to click "Submit Task" button to submit the APQP/PPAP task;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ASDE/SQE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ASDE/SQE</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -4997,11 +4970,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-ASDE/SQE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>1, User should see value of "Closed" in dropdown list "Status" in the window "Edit APAP task information";
 2, User should see value of "Closed" in dropdown list "Status" in the window "Edit PPAP task information"
 3, User should see button "Submit Task" in window "Edit APAP task information" and window  "Edit PPAP task information";</t>
@@ -5317,6 +5285,39 @@
   </si>
   <si>
     <t>1, The assignee of the sub tasks(APQP tasks and PPAP tasks) of APQP/PPAP main task will be set as the supplier automatically when the sub tasks created;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDE/SQE uppervisor;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDE/SQE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ASDE/SQE supervisor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store all my changes to the task list view using toolbar</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">I can quickly save my inputs </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see a save icon in the toolbar;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>See a clickable export icon in toolbar</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can export my task list to an excel file</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -5475,7 +5476,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5569,12 +5570,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5729,7 +5724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6071,9 +6066,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6623,25 +6615,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="131" t="s">
         <v>561</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
       <c r="I2" s="98"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="134"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
       <c r="I3" s="99" t="s">
         <v>555</v>
       </c>
@@ -6707,7 +6699,7 @@
       </c>
       <c r="C6" s="99">
         <f>COUNTIF('Project Management'!J:J,"Critical")</f>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D6" s="99">
         <f>COUNTIF('Project Management'!J:J,"Very High")</f>
@@ -6719,7 +6711,7 @@
       </c>
       <c r="F6" s="99">
         <f>COUNTIF('Project Management'!J:J,"Medium")</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G6" s="99">
         <f>COUNTIF('Project Management'!J:J,"Low")</f>
@@ -6731,7 +6723,7 @@
       </c>
       <c r="I6" s="99">
         <f t="shared" ref="I6:I12" si="0">SUM(C6:H6)</f>
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
@@ -6938,7 +6930,7 @@
       </c>
       <c r="C13" s="99">
         <f>SUM(C5:C12)</f>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D13" s="99">
         <f t="shared" ref="D13:H13" si="1">SUM(D5:D12)</f>
@@ -6950,7 +6942,7 @@
       </c>
       <c r="F13" s="99">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G13" s="99">
         <f t="shared" si="1"/>
@@ -6966,16 +6958,16 @@
       <c r="B14" s="102" t="s">
         <v>557</v>
       </c>
-      <c r="C14" s="131">
+      <c r="C14" s="130">
         <f>SUM(C13:H13)</f>
-        <v>232</v>
-      </c>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="131"/>
+        <v>236</v>
+      </c>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -13569,11 +13561,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W237"/>
+  <dimension ref="A1:W239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C120" sqref="C120"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F181" sqref="F181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="65.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13705,13 +13697,13 @@
     </row>
     <row r="3" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B3" s="119" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>496</v>
@@ -13720,16 +13712,16 @@
         <v>498</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="H3" s="126" t="s">
+        <v>821</v>
+      </c>
+      <c r="I3" s="125" t="s">
         <v>728</v>
-      </c>
-      <c r="H3" s="126" t="s">
-        <v>823</v>
-      </c>
-      <c r="I3" s="125" t="s">
-        <v>730</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>43</v>
@@ -13752,13 +13744,13 @@
     </row>
     <row r="4" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B4" s="119" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>496</v>
@@ -13767,13 +13759,13 @@
         <v>498</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="H4" s="126" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I4" s="125"/>
       <c r="J4" s="4" t="s">
@@ -13800,10 +13792,10 @@
         <v>255</v>
       </c>
       <c r="B5" s="119" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>496</v>
@@ -13812,13 +13804,13 @@
         <v>498</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="H5" s="126" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="I5" s="125"/>
       <c r="J5" s="4" t="s">
@@ -13845,10 +13837,10 @@
         <v>256</v>
       </c>
       <c r="B6" s="119" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>496</v>
@@ -13857,16 +13849,16 @@
         <v>498</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="H6" s="126" t="s">
+        <v>823</v>
+      </c>
+      <c r="I6" s="125" t="s">
         <v>729</v>
-      </c>
-      <c r="H6" s="126" t="s">
-        <v>825</v>
-      </c>
-      <c r="I6" s="125" t="s">
-        <v>731</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>43</v>
@@ -13892,10 +13884,10 @@
         <v>257</v>
       </c>
       <c r="B7" s="119" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>496</v>
@@ -13904,13 +13896,13 @@
         <v>498</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="H7" s="126" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="I7" s="125"/>
       <c r="J7" s="4" t="s">
@@ -13940,7 +13932,7 @@
         <v>588</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>496</v>
@@ -13949,13 +13941,13 @@
         <v>498</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="H8" s="126" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="I8" s="125"/>
       <c r="J8" s="4" t="s">
@@ -13982,10 +13974,10 @@
         <v>259</v>
       </c>
       <c r="B9" s="119" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>496</v>
@@ -13994,16 +13986,16 @@
         <v>498</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H9" s="126" t="s">
         <v>1025</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>1026</v>
-      </c>
-      <c r="H9" s="126" t="s">
-        <v>1027</v>
-      </c>
       <c r="I9" s="125" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>43</v>
@@ -14029,25 +14021,25 @@
         <v>260</v>
       </c>
       <c r="B10" s="119" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="H10" s="126" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="I10" s="125"/>
       <c r="J10" s="4" t="s">
@@ -14074,25 +14066,25 @@
         <v>261</v>
       </c>
       <c r="B11" s="119" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="H11" s="126" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="I11" s="126"/>
       <c r="J11" s="4" t="s">
@@ -14119,25 +14111,25 @@
         <v>262</v>
       </c>
       <c r="B12" s="122" t="s">
+        <v>929</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>931</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>932</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>933</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>934</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="H12" s="126" t="s">
         <v>935</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>936</v>
-      </c>
-      <c r="H12" s="126" t="s">
-        <v>937</v>
       </c>
       <c r="I12" s="126"/>
       <c r="J12" s="4" t="s">
@@ -14164,25 +14156,25 @@
         <v>263</v>
       </c>
       <c r="B13" s="122" t="s">
+        <v>929</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>931</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>932</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>933</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>934</v>
-      </c>
       <c r="F13" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="H13" s="126" t="s">
         <v>938</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>939</v>
-      </c>
-      <c r="H13" s="126" t="s">
-        <v>940</v>
       </c>
       <c r="I13" s="126"/>
       <c r="J13" s="4" t="s">
@@ -14209,25 +14201,25 @@
         <v>524</v>
       </c>
       <c r="B14" s="122" t="s">
+        <v>929</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>931</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>932</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>933</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>934</v>
-      </c>
       <c r="F14" s="4" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="H14" s="126" t="s">
         <v>941</v>
-      </c>
-      <c r="H14" s="126" t="s">
-        <v>943</v>
       </c>
       <c r="I14" s="126"/>
       <c r="J14" s="4" t="s">
@@ -14254,28 +14246,28 @@
         <v>267</v>
       </c>
       <c r="B15" s="122" t="s">
+        <v>929</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>931</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>932</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>933</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>934</v>
-      </c>
       <c r="F15" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>943</v>
+      </c>
+      <c r="H15" s="126" t="s">
         <v>944</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="I15" s="126" t="s">
         <v>945</v>
-      </c>
-      <c r="H15" s="126" t="s">
-        <v>946</v>
-      </c>
-      <c r="I15" s="126" t="s">
-        <v>947</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>45</v>
@@ -14301,10 +14293,10 @@
         <v>272</v>
       </c>
       <c r="B16" s="118" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>496</v>
@@ -14313,13 +14305,13 @@
         <v>498</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="H16" s="126" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="I16" s="127"/>
       <c r="J16" s="4" t="s">
@@ -14346,10 +14338,10 @@
         <v>279</v>
       </c>
       <c r="B17" s="118" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>496</v>
@@ -14358,13 +14350,13 @@
         <v>498</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="H17" s="126" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="I17" s="127"/>
       <c r="J17" s="4" t="s">
@@ -14391,10 +14383,10 @@
         <v>280</v>
       </c>
       <c r="B18" s="118" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>496</v>
@@ -14403,16 +14395,16 @@
         <v>498</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="H18" s="126" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I18" s="127" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>44</v>
@@ -14438,10 +14430,10 @@
         <v>291</v>
       </c>
       <c r="B19" s="118" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>496</v>
@@ -14450,7 +14442,7 @@
         <v>498</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>590</v>
@@ -14485,10 +14477,10 @@
         <v>296</v>
       </c>
       <c r="B20" s="118" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>496</v>
@@ -14497,13 +14489,13 @@
         <v>710</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="H20" s="126" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="I20" s="125"/>
       <c r="J20" s="4" t="s">
@@ -14530,10 +14522,10 @@
         <v>301</v>
       </c>
       <c r="B21" s="118" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>496</v>
@@ -14542,13 +14534,13 @@
         <v>498</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>509</v>
       </c>
       <c r="H21" s="126" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="I21" s="127"/>
       <c r="J21" s="4" t="s">
@@ -14575,10 +14567,10 @@
         <v>307</v>
       </c>
       <c r="B22" s="118" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>496</v>
@@ -14587,13 +14579,13 @@
         <v>498</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>499</v>
       </c>
       <c r="H22" s="126" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="I22" s="127" t="s">
         <v>500</v>
@@ -14622,10 +14614,10 @@
         <v>311</v>
       </c>
       <c r="B23" s="118" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>496</v>
@@ -14634,7 +14626,7 @@
         <v>498</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>501</v>
@@ -14667,10 +14659,10 @@
         <v>315</v>
       </c>
       <c r="B24" s="118" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>496</v>
@@ -14712,10 +14704,10 @@
         <v>321</v>
       </c>
       <c r="B25" s="118" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>496</v>
@@ -14757,10 +14749,10 @@
         <v>325</v>
       </c>
       <c r="B26" s="118" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>496</v>
@@ -14802,10 +14794,10 @@
         <v>352</v>
       </c>
       <c r="B27" s="118" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>496</v>
@@ -14817,7 +14809,7 @@
         <v>534</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="H27" s="126" t="s">
         <v>535</v>
@@ -14849,10 +14841,10 @@
         <v>353</v>
       </c>
       <c r="B28" s="118" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>496</v>
@@ -14894,10 +14886,10 @@
         <v>533</v>
       </c>
       <c r="B29" s="118" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>496</v>
@@ -14939,10 +14931,10 @@
         <v>363</v>
       </c>
       <c r="B30" s="118" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>496</v>
@@ -14986,10 +14978,10 @@
         <v>367</v>
       </c>
       <c r="B31" s="118" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>496</v>
@@ -15033,10 +15025,10 @@
         <v>371</v>
       </c>
       <c r="B32" s="118" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>496</v>
@@ -15080,10 +15072,10 @@
         <v>375</v>
       </c>
       <c r="B33" s="118" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>496</v>
@@ -15125,10 +15117,10 @@
         <v>379</v>
       </c>
       <c r="B34" s="118" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>496</v>
@@ -15172,10 +15164,10 @@
         <v>383</v>
       </c>
       <c r="B35" s="118" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>496</v>
@@ -15217,10 +15209,10 @@
         <v>387</v>
       </c>
       <c r="B36" s="118" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>496</v>
@@ -15262,10 +15254,10 @@
         <v>391</v>
       </c>
       <c r="B37" s="118" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>496</v>
@@ -15307,10 +15299,10 @@
         <v>395</v>
       </c>
       <c r="B38" s="118" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>496</v>
@@ -15352,10 +15344,10 @@
         <v>400</v>
       </c>
       <c r="B39" s="118" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>496</v>
@@ -15397,10 +15389,10 @@
         <v>404</v>
       </c>
       <c r="B40" s="118" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>593</v>
@@ -15409,13 +15401,13 @@
         <v>594</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="H40" s="126" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="I40" s="126" t="s">
         <v>596</v>
@@ -15444,10 +15436,10 @@
         <v>408</v>
       </c>
       <c r="B41" s="118" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>593</v>
@@ -15459,10 +15451,10 @@
         <v>597</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="H41" s="126" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="I41" s="126"/>
       <c r="J41" s="4" t="s">
@@ -15489,10 +15481,10 @@
         <v>411</v>
       </c>
       <c r="B42" s="118" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>496</v>
@@ -15534,10 +15526,10 @@
         <v>416</v>
       </c>
       <c r="B43" s="118" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="D43" s="40" t="s">
         <v>496</v>
@@ -15579,10 +15571,10 @@
         <v>420</v>
       </c>
       <c r="B44" s="120" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>496</v>
@@ -15591,13 +15583,13 @@
         <v>498</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="H44" s="126" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="I44" s="125"/>
       <c r="J44" s="4" t="s">
@@ -15624,10 +15616,10 @@
         <v>424</v>
       </c>
       <c r="B45" s="120" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>496</v>
@@ -15636,13 +15628,13 @@
         <v>498</v>
       </c>
       <c r="F45" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="H45" s="126" t="s">
         <v>741</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>742</v>
-      </c>
-      <c r="H45" s="126" t="s">
-        <v>743</v>
       </c>
       <c r="I45" s="125"/>
       <c r="J45" s="4" t="s">
@@ -15669,10 +15661,10 @@
         <v>427</v>
       </c>
       <c r="B46" s="120" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>496</v>
@@ -15684,10 +15676,10 @@
         <v>519</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="H46" s="126" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="I46" s="126" t="s">
         <v>616</v>
@@ -15716,10 +15708,10 @@
         <v>432</v>
       </c>
       <c r="B47" s="120" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>496</v>
@@ -15734,7 +15726,7 @@
         <v>521</v>
       </c>
       <c r="H47" s="126" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="I47" s="126" t="s">
         <v>522</v>
@@ -15763,10 +15755,10 @@
         <v>438</v>
       </c>
       <c r="B48" s="120" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>496</v>
@@ -15775,13 +15767,13 @@
         <v>498</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="H48" s="126" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="I48" s="126"/>
       <c r="J48" s="4" t="s">
@@ -15808,10 +15800,10 @@
         <v>444</v>
       </c>
       <c r="B49" s="120" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>496</v>
@@ -15820,13 +15812,13 @@
         <v>498</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="G49" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="H49" s="126" t="s">
         <v>958</v>
-      </c>
-      <c r="H49" s="126" t="s">
-        <v>960</v>
       </c>
       <c r="I49" s="126"/>
       <c r="J49" s="4" t="s">
@@ -15853,10 +15845,10 @@
         <v>445</v>
       </c>
       <c r="B50" s="120" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>496</v>
@@ -15865,13 +15857,13 @@
         <v>498</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="H50" s="126" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="I50" s="126"/>
       <c r="J50" s="4" t="s">
@@ -15898,10 +15890,10 @@
         <v>452</v>
       </c>
       <c r="B51" s="120" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>593</v>
@@ -15910,13 +15902,13 @@
         <v>594</v>
       </c>
       <c r="F51" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="G51" s="4" t="s">
         <v>807</v>
       </c>
-      <c r="G51" s="4" t="s">
-        <v>809</v>
-      </c>
       <c r="H51" s="126" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I51" s="126"/>
       <c r="J51" s="4" t="s">
@@ -15943,10 +15935,10 @@
         <v>456</v>
       </c>
       <c r="B52" s="120" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>593</v>
@@ -15988,10 +15980,10 @@
         <v>461</v>
       </c>
       <c r="B53" s="120" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>496</v>
@@ -16000,13 +15992,13 @@
         <v>498</v>
       </c>
       <c r="F53" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="H53" s="126" t="s">
         <v>782</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>783</v>
-      </c>
-      <c r="H53" s="126" t="s">
-        <v>784</v>
       </c>
       <c r="I53" s="126"/>
       <c r="J53" s="4" t="s">
@@ -16033,10 +16025,10 @@
         <v>465</v>
       </c>
       <c r="B54" s="120" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>593</v>
@@ -16080,25 +16072,25 @@
         <v>468</v>
       </c>
       <c r="B55" s="120" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E55" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="H55" s="126" t="s">
         <v>751</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>803</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>752</v>
-      </c>
-      <c r="H55" s="126" t="s">
-        <v>753</v>
       </c>
       <c r="I55" s="125"/>
       <c r="J55" s="4" t="s">
@@ -16125,16 +16117,16 @@
         <v>473</v>
       </c>
       <c r="B56" s="120" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>593</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>673</v>
@@ -16170,10 +16162,10 @@
         <v>476</v>
       </c>
       <c r="B57" s="120" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>496</v>
@@ -16182,7 +16174,7 @@
         <v>498</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>525</v>
@@ -16215,10 +16207,10 @@
         <v>479</v>
       </c>
       <c r="B58" s="120" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>496</v>
@@ -16260,10 +16252,10 @@
         <v>483</v>
       </c>
       <c r="B59" s="120" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>496</v>
@@ -16305,10 +16297,10 @@
         <v>617</v>
       </c>
       <c r="B60" s="120" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>496</v>
@@ -16350,10 +16342,10 @@
         <v>618</v>
       </c>
       <c r="B61" s="120" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>496</v>
@@ -16395,10 +16387,10 @@
         <v>619</v>
       </c>
       <c r="B62" s="120" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>496</v>
@@ -16440,10 +16432,10 @@
         <v>620</v>
       </c>
       <c r="B63" s="120" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>496</v>
@@ -16452,7 +16444,7 @@
         <v>498</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>523</v>
@@ -16485,10 +16477,10 @@
         <v>621</v>
       </c>
       <c r="B64" s="120" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>496</v>
@@ -16497,7 +16489,7 @@
         <v>498</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>565</v>
@@ -16530,10 +16522,10 @@
         <v>622</v>
       </c>
       <c r="B65" s="120" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>496</v>
@@ -16575,10 +16567,10 @@
         <v>623</v>
       </c>
       <c r="B66" s="120" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>496</v>
@@ -16620,10 +16612,10 @@
         <v>624</v>
       </c>
       <c r="B67" s="120" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>593</v>
@@ -16635,10 +16627,10 @@
         <v>598</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="H67" s="126" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="I67" s="126"/>
       <c r="J67" s="4" t="s">
@@ -16662,13 +16654,13 @@
     </row>
     <row r="68" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B68" s="120" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>496</v>
@@ -16677,13 +16669,13 @@
         <v>498</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="H68" s="126" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="I68" s="128"/>
       <c r="J68" s="4" t="s">
@@ -16710,25 +16702,25 @@
         <v>625</v>
       </c>
       <c r="B69" s="121" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E69" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="H69" s="126" t="s">
         <v>961</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>962</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>967</v>
-      </c>
-      <c r="H69" s="126" t="s">
-        <v>963</v>
       </c>
       <c r="I69" s="128"/>
       <c r="J69" s="4" t="s">
@@ -16755,10 +16747,10 @@
         <v>626</v>
       </c>
       <c r="B70" s="121" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>496</v>
@@ -16767,13 +16759,13 @@
         <v>498</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="H70" s="126" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="I70" s="128"/>
       <c r="J70" s="4" t="s">
@@ -16800,10 +16792,10 @@
         <v>627</v>
       </c>
       <c r="B71" s="121" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>496</v>
@@ -16812,16 +16804,16 @@
         <v>498</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="H71" s="126" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="I71" s="128" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>44</v>
@@ -16847,28 +16839,28 @@
         <v>628</v>
       </c>
       <c r="B72" s="121" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="H72" s="126" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="I72" s="128" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="J72" s="4" t="s">
         <v>44</v>
@@ -16894,28 +16886,28 @@
         <v>629</v>
       </c>
       <c r="B73" s="121" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="H73" s="126" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="I73" s="128" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>44</v>
@@ -16941,28 +16933,28 @@
         <v>630</v>
       </c>
       <c r="B74" s="121" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F74" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="H74" s="126" t="s">
         <v>973</v>
       </c>
-      <c r="G74" s="4" t="s">
-        <v>974</v>
-      </c>
-      <c r="H74" s="126" t="s">
-        <v>975</v>
-      </c>
       <c r="I74" s="128" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="J74" s="4" t="s">
         <v>44</v>
@@ -16988,25 +16980,25 @@
         <v>631</v>
       </c>
       <c r="B75" s="121" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E75" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G75" s="4" t="s">
         <v>1010</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="H75" s="126" t="s">
         <v>1011</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>1012</v>
-      </c>
-      <c r="H75" s="126" t="s">
-        <v>1013</v>
       </c>
       <c r="I75" s="128"/>
       <c r="J75" s="4" t="s">
@@ -17033,28 +17025,28 @@
         <v>632</v>
       </c>
       <c r="B76" s="121" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="G76" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H76" s="126" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I76" s="128" t="s">
         <v>1014</v>
-      </c>
-      <c r="H76" s="126" t="s">
-        <v>1015</v>
-      </c>
-      <c r="I76" s="128" t="s">
-        <v>1016</v>
       </c>
       <c r="J76" s="4" t="s">
         <v>14</v>
@@ -17080,10 +17072,10 @@
         <v>633</v>
       </c>
       <c r="B77" s="121" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>496</v>
@@ -17092,13 +17084,13 @@
         <v>498</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="H77" s="126" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I77" s="128"/>
       <c r="J77" s="4" t="s">
@@ -17125,25 +17117,25 @@
         <v>634</v>
       </c>
       <c r="B78" s="121" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E78" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="H78" s="126" t="s">
         <v>748</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>806</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>749</v>
-      </c>
-      <c r="H78" s="126" t="s">
-        <v>750</v>
       </c>
       <c r="I78" s="128"/>
       <c r="J78" s="4" t="s">
@@ -17170,28 +17162,28 @@
         <v>635</v>
       </c>
       <c r="B79" s="121" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="G79" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="H79" s="126" t="s">
         <v>986</v>
       </c>
-      <c r="H79" s="126" t="s">
-        <v>988</v>
-      </c>
       <c r="I79" s="128" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="J79" s="4" t="s">
         <v>45</v>
@@ -17217,28 +17209,28 @@
         <v>636</v>
       </c>
       <c r="B80" s="121" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F80" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="G80" s="4" t="s">
         <v>982</v>
       </c>
-      <c r="G80" s="4" t="s">
-        <v>984</v>
-      </c>
       <c r="H80" s="126" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="I80" s="128" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="J80" s="4" t="s">
         <v>45</v>
@@ -17264,28 +17256,28 @@
         <v>637</v>
       </c>
       <c r="B81" s="121" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F81" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="G81" s="4" t="s">
         <v>983</v>
       </c>
-      <c r="G81" s="4" t="s">
-        <v>985</v>
-      </c>
       <c r="H81" s="126" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="I81" s="128" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="J81" s="4" t="s">
         <v>45</v>
@@ -17308,32 +17300,32 @@
     </row>
     <row r="82" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
-        <v>638</v>
-      </c>
-      <c r="B82" s="117" t="s">
-        <v>707</v>
+        <v>914</v>
+      </c>
+      <c r="B82" s="121" t="s">
+        <v>802</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>708</v>
+        <v>1058</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>542</v>
+        <v>496</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>994</v>
+        <v>1055</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>995</v>
-      </c>
-      <c r="H82" s="126"/>
-      <c r="I82" s="126" t="s">
-        <v>998</v>
-      </c>
+        <v>1056</v>
+      </c>
+      <c r="H82" s="126" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I82" s="128"/>
       <c r="J82" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K82" s="4"/>
       <c r="L82" s="4" t="s">
@@ -17353,36 +17345,36 @@
     </row>
     <row r="83" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="B83" s="117" t="s">
-        <v>707</v>
+        <v>915</v>
+      </c>
+      <c r="B83" s="121" t="s">
+        <v>802</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>708</v>
+        <v>1058</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>542</v>
+        <v>496</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>996</v>
+        <v>1272</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>997</v>
-      </c>
-      <c r="H83" s="126"/>
-      <c r="I83" s="126" t="s">
-        <v>998</v>
-      </c>
+        <v>1273</v>
+      </c>
+      <c r="H83" s="126" t="s">
+        <v>1274</v>
+      </c>
+      <c r="I83" s="128"/>
       <c r="J83" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K83" s="4"/>
       <c r="L83" s="4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
@@ -17398,36 +17390,34 @@
     </row>
     <row r="84" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
-        <v>640</v>
-      </c>
-      <c r="B84" s="117" t="s">
-        <v>707</v>
+        <v>916</v>
+      </c>
+      <c r="B84" s="121" t="s">
+        <v>802</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>708</v>
+        <v>1058</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>542</v>
+        <v>496</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>1032</v>
+        <v>1275</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>1033</v>
+        <v>1276</v>
       </c>
       <c r="H84" s="126"/>
-      <c r="I84" s="126" t="s">
-        <v>998</v>
-      </c>
+      <c r="I84" s="128"/>
       <c r="J84" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K84" s="4"/>
       <c r="L84" s="4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
@@ -17443,7 +17433,7 @@
     </row>
     <row r="85" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B85" s="117" t="s">
         <v>707</v>
@@ -17455,17 +17445,17 @@
         <v>542</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>1034</v>
+        <v>992</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>1035</v>
+        <v>993</v>
       </c>
       <c r="H85" s="126"/>
       <c r="I85" s="126" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="J85" s="4" t="s">
         <v>43</v>
@@ -17488,7 +17478,7 @@
     </row>
     <row r="86" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B86" s="117" t="s">
         <v>707</v>
@@ -17497,22 +17487,20 @@
         <v>708</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>709</v>
+        <v>542</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>791</v>
+        <v>736</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>872</v>
+        <v>994</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>857</v>
-      </c>
-      <c r="H86" s="126" t="s">
-        <v>892</v>
-      </c>
+        <v>995</v>
+      </c>
+      <c r="H86" s="126"/>
       <c r="I86" s="126" t="s">
-        <v>1036</v>
+        <v>996</v>
       </c>
       <c r="J86" s="4" t="s">
         <v>43</v>
@@ -17535,7 +17523,7 @@
     </row>
     <row r="87" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B87" s="117" t="s">
         <v>707</v>
@@ -17547,20 +17535,20 @@
         <v>542</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>873</v>
+        <v>1030</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="H87" s="126"/>
       <c r="I87" s="126" t="s">
-        <v>1038</v>
+        <v>996</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K87" s="4"/>
       <c r="L87" s="4" t="s">
@@ -17580,7 +17568,7 @@
     </row>
     <row r="88" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B88" s="117" t="s">
         <v>707</v>
@@ -17589,21 +17577,21 @@
         <v>708</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>709</v>
+        <v>542</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>791</v>
+        <v>736</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>854</v>
+        <v>1032</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>855</v>
-      </c>
-      <c r="H88" s="126" t="s">
-        <v>856</v>
-      </c>
-      <c r="I88" s="126"/>
+        <v>1033</v>
+      </c>
+      <c r="H88" s="126"/>
+      <c r="I88" s="126" t="s">
+        <v>996</v>
+      </c>
       <c r="J88" s="4" t="s">
         <v>43</v>
       </c>
@@ -17623,52 +17611,56 @@
       <c r="V88" s="4"/>
       <c r="W88" s="4"/>
     </row>
-    <row r="89" spans="1:23" s="116" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B89" s="117" t="s">
         <v>707</v>
       </c>
-      <c r="C89" s="56" t="s">
+      <c r="C89" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="D89" s="56" t="s">
-        <v>542</v>
-      </c>
-      <c r="E89" s="56" t="s">
-        <v>791</v>
-      </c>
-      <c r="F89" s="40" t="s">
-        <v>858</v>
-      </c>
-      <c r="G89" s="56" t="s">
-        <v>859</v>
-      </c>
-      <c r="H89" s="128"/>
-      <c r="I89" s="128"/>
-      <c r="J89" s="56" t="s">
+      <c r="D89" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="H89" s="126" t="s">
+        <v>890</v>
+      </c>
+      <c r="I89" s="126" t="s">
+        <v>1034</v>
+      </c>
+      <c r="J89" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K89" s="56"/>
-      <c r="L89" s="56" t="s">
+      <c r="K89" s="4"/>
+      <c r="L89" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M89" s="56"/>
-      <c r="N89" s="56"/>
-      <c r="O89" s="56"/>
-      <c r="P89" s="56"/>
-      <c r="Q89" s="56"/>
-      <c r="R89" s="56"/>
-      <c r="S89" s="56"/>
-      <c r="T89" s="115"/>
-      <c r="U89" s="56"/>
-      <c r="V89" s="56"/>
-      <c r="W89" s="56"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
+      <c r="R89" s="4"/>
+      <c r="S89" s="4"/>
+      <c r="T89" s="54"/>
+      <c r="U89" s="4"/>
+      <c r="V89" s="4"/>
+      <c r="W89" s="4"/>
     </row>
     <row r="90" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B90" s="117" t="s">
         <v>707</v>
@@ -17676,24 +17668,24 @@
       <c r="C90" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="D90" s="56" t="s">
+      <c r="D90" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="E90" s="56" t="s">
-        <v>785</v>
+      <c r="E90" s="4" t="s">
+        <v>736</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>849</v>
+        <v>871</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>852</v>
-      </c>
-      <c r="H90" s="126" t="s">
-        <v>846</v>
-      </c>
-      <c r="I90" s="126"/>
+        <v>1035</v>
+      </c>
+      <c r="H90" s="126"/>
+      <c r="I90" s="126" t="s">
+        <v>1036</v>
+      </c>
       <c r="J90" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K90" s="4"/>
       <c r="L90" s="4" t="s">
@@ -17713,7 +17705,7 @@
     </row>
     <row r="91" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B91" s="117" t="s">
         <v>707</v>
@@ -17721,20 +17713,20 @@
       <c r="C91" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="D91" s="56" t="s">
-        <v>542</v>
-      </c>
-      <c r="E91" s="56" t="s">
-        <v>785</v>
+      <c r="D91" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>789</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>786</v>
+        <v>852</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H91" s="126" t="s">
-        <v>847</v>
+        <v>854</v>
       </c>
       <c r="I91" s="126"/>
       <c r="J91" s="4" t="s">
@@ -17756,54 +17748,52 @@
       <c r="V91" s="4"/>
       <c r="W91" s="4"/>
     </row>
-    <row r="92" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:23" s="116" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B92" s="117" t="s">
         <v>707</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="56" t="s">
         <v>708</v>
       </c>
       <c r="D92" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E92" s="56" t="s">
-        <v>785</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>787</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>852</v>
-      </c>
-      <c r="H92" s="126" t="s">
-        <v>848</v>
-      </c>
-      <c r="I92" s="126"/>
-      <c r="J92" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="F92" s="40" t="s">
+        <v>856</v>
+      </c>
+      <c r="G92" s="56" t="s">
+        <v>857</v>
+      </c>
+      <c r="H92" s="128"/>
+      <c r="I92" s="128"/>
+      <c r="J92" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4" t="s">
+      <c r="K92" s="56"/>
+      <c r="L92" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="M92" s="4"/>
-      <c r="N92" s="4"/>
-      <c r="O92" s="4"/>
-      <c r="P92" s="4"/>
-      <c r="Q92" s="4"/>
-      <c r="R92" s="4"/>
-      <c r="S92" s="4"/>
-      <c r="T92" s="54"/>
-      <c r="U92" s="4"/>
-      <c r="V92" s="4"/>
-      <c r="W92" s="4"/>
+      <c r="M92" s="56"/>
+      <c r="N92" s="56"/>
+      <c r="O92" s="56"/>
+      <c r="P92" s="56"/>
+      <c r="Q92" s="56"/>
+      <c r="R92" s="56"/>
+      <c r="S92" s="56"/>
+      <c r="T92" s="115"/>
+      <c r="U92" s="56"/>
+      <c r="V92" s="56"/>
+      <c r="W92" s="56"/>
     </row>
     <row r="93" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B93" s="117" t="s">
         <v>707</v>
@@ -17815,16 +17805,16 @@
         <v>542</v>
       </c>
       <c r="E93" s="56" t="s">
-        <v>785</v>
-      </c>
-      <c r="F93" s="40" t="s">
-        <v>871</v>
+        <v>783</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>847</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H93" s="126" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="I93" s="126"/>
       <c r="J93" s="4" t="s">
@@ -17848,7 +17838,7 @@
     </row>
     <row r="94" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B94" s="117" t="s">
         <v>707</v>
@@ -17860,16 +17850,16 @@
         <v>542</v>
       </c>
       <c r="E94" s="56" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>794</v>
+        <v>850</v>
       </c>
       <c r="H94" s="126" t="s">
-        <v>881</v>
+        <v>845</v>
       </c>
       <c r="I94" s="126"/>
       <c r="J94" s="4" t="s">
@@ -17893,7 +17883,7 @@
     </row>
     <row r="95" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B95" s="117" t="s">
         <v>707</v>
@@ -17905,20 +17895,20 @@
         <v>542</v>
       </c>
       <c r="E95" s="56" t="s">
-        <v>711</v>
+        <v>783</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>874</v>
+        <v>785</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>875</v>
+        <v>850</v>
       </c>
       <c r="H95" s="126" t="s">
-        <v>1075</v>
+        <v>846</v>
       </c>
       <c r="I95" s="126"/>
       <c r="J95" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K95" s="4"/>
       <c r="L95" s="4" t="s">
@@ -17938,7 +17928,7 @@
     </row>
     <row r="96" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B96" s="117" t="s">
         <v>707</v>
@@ -17950,20 +17940,20 @@
         <v>542</v>
       </c>
       <c r="E96" s="56" t="s">
-        <v>1080</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>1083</v>
+        <v>783</v>
+      </c>
+      <c r="F96" s="40" t="s">
+        <v>869</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>1076</v>
+        <v>849</v>
       </c>
       <c r="H96" s="126" t="s">
-        <v>1077</v>
+        <v>843</v>
       </c>
       <c r="I96" s="126"/>
       <c r="J96" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K96" s="4"/>
       <c r="L96" s="4" t="s">
@@ -17983,7 +17973,7 @@
     </row>
     <row r="97" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B97" s="117" t="s">
         <v>707</v>
@@ -17995,20 +17985,20 @@
         <v>542</v>
       </c>
       <c r="E97" s="56" t="s">
-        <v>711</v>
+        <v>783</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>1073</v>
+        <v>791</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>1074</v>
+        <v>792</v>
       </c>
       <c r="H97" s="126" t="s">
-        <v>1081</v>
+        <v>879</v>
       </c>
       <c r="I97" s="126"/>
       <c r="J97" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K97" s="4"/>
       <c r="L97" s="4" t="s">
@@ -18028,7 +18018,7 @@
     </row>
     <row r="98" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B98" s="117" t="s">
         <v>707</v>
@@ -18040,16 +18030,16 @@
         <v>542</v>
       </c>
       <c r="E98" s="56" t="s">
-        <v>1080</v>
+        <v>711</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>1084</v>
+        <v>872</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>1078</v>
+        <v>873</v>
       </c>
       <c r="H98" s="126" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
       <c r="I98" s="126"/>
       <c r="J98" s="4" t="s">
@@ -18073,7 +18063,7 @@
     </row>
     <row r="99" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
-        <v>1131</v>
+        <v>652</v>
       </c>
       <c r="B99" s="117" t="s">
         <v>707</v>
@@ -18085,20 +18075,20 @@
         <v>542</v>
       </c>
       <c r="E99" s="56" t="s">
-        <v>711</v>
+        <v>1077</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>879</v>
+        <v>1080</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>880</v>
+        <v>1073</v>
       </c>
       <c r="H99" s="126" t="s">
-        <v>882</v>
+        <v>1074</v>
       </c>
       <c r="I99" s="126"/>
       <c r="J99" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K99" s="4"/>
       <c r="L99" s="4" t="s">
@@ -18118,7 +18108,7 @@
     </row>
     <row r="100" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B100" s="117" t="s">
         <v>707</v>
@@ -18130,20 +18120,20 @@
         <v>542</v>
       </c>
       <c r="E100" s="56" t="s">
-        <v>1062</v>
+        <v>711</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>1063</v>
+        <v>1070</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>1064</v>
+        <v>1071</v>
       </c>
       <c r="H100" s="126" t="s">
-        <v>1065</v>
+        <v>1078</v>
       </c>
       <c r="I100" s="126"/>
       <c r="J100" s="4" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="K100" s="4"/>
       <c r="L100" s="4" t="s">
@@ -18163,7 +18153,7 @@
     </row>
     <row r="101" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B101" s="117" t="s">
         <v>707</v>
@@ -18175,20 +18165,20 @@
         <v>542</v>
       </c>
       <c r="E101" s="56" t="s">
-        <v>860</v>
+        <v>1077</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>850</v>
+        <v>1081</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>863</v>
+        <v>1075</v>
       </c>
       <c r="H101" s="126" t="s">
-        <v>853</v>
+        <v>1076</v>
       </c>
       <c r="I101" s="126"/>
       <c r="J101" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K101" s="4"/>
       <c r="L101" s="4" t="s">
@@ -18208,7 +18198,7 @@
     </row>
     <row r="102" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
-        <v>657</v>
+        <v>1127</v>
       </c>
       <c r="B102" s="117" t="s">
         <v>707</v>
@@ -18220,20 +18210,20 @@
         <v>542</v>
       </c>
       <c r="E102" s="56" t="s">
-        <v>1019</v>
+        <v>711</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>789</v>
+        <v>878</v>
       </c>
       <c r="H102" s="126" t="s">
-        <v>790</v>
+        <v>880</v>
       </c>
       <c r="I102" s="126"/>
       <c r="J102" s="4" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="K102" s="4"/>
       <c r="L102" s="4" t="s">
@@ -18253,7 +18243,7 @@
     </row>
     <row r="103" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
-        <v>1101</v>
+        <v>655</v>
       </c>
       <c r="B103" s="117" t="s">
         <v>707</v>
@@ -18265,20 +18255,20 @@
         <v>542</v>
       </c>
       <c r="E103" s="56" t="s">
-        <v>788</v>
+        <v>1059</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>877</v>
+        <v>1060</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>878</v>
+        <v>1061</v>
       </c>
       <c r="H103" s="126" t="s">
-        <v>881</v>
+        <v>1062</v>
       </c>
       <c r="I103" s="126"/>
       <c r="J103" s="4" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="K103" s="4"/>
       <c r="L103" s="4" t="s">
@@ -18298,7 +18288,7 @@
     </row>
     <row r="104" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B104" s="117" t="s">
         <v>707</v>
@@ -18310,20 +18300,20 @@
         <v>542</v>
       </c>
       <c r="E104" s="56" t="s">
-        <v>788</v>
+        <v>858</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>883</v>
+        <v>848</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>884</v>
+        <v>861</v>
       </c>
       <c r="H104" s="126" t="s">
-        <v>1082</v>
+        <v>851</v>
       </c>
       <c r="I104" s="126"/>
       <c r="J104" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K104" s="4"/>
       <c r="L104" s="4" t="s">
@@ -18343,7 +18333,7 @@
     </row>
     <row r="105" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B105" s="117" t="s">
         <v>707</v>
@@ -18355,20 +18345,20 @@
         <v>542</v>
       </c>
       <c r="E105" s="56" t="s">
-        <v>1080</v>
+        <v>1017</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>1085</v>
+        <v>874</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>1076</v>
+        <v>787</v>
       </c>
       <c r="H105" s="126" t="s">
-        <v>1077</v>
+        <v>788</v>
       </c>
       <c r="I105" s="126"/>
       <c r="J105" s="4" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="K105" s="4"/>
       <c r="L105" s="4" t="s">
@@ -18388,7 +18378,7 @@
     </row>
     <row r="106" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
-        <v>660</v>
+        <v>1097</v>
       </c>
       <c r="B106" s="117" t="s">
         <v>707</v>
@@ -18400,20 +18390,20 @@
         <v>542</v>
       </c>
       <c r="E106" s="56" t="s">
-        <v>711</v>
+        <v>786</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>1086</v>
+        <v>875</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>1074</v>
+        <v>876</v>
       </c>
       <c r="H106" s="126" t="s">
-        <v>1227</v>
+        <v>879</v>
       </c>
       <c r="I106" s="126"/>
       <c r="J106" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K106" s="4"/>
       <c r="L106" s="4" t="s">
@@ -18433,7 +18423,7 @@
     </row>
     <row r="107" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B107" s="117" t="s">
         <v>707</v>
@@ -18445,13 +18435,13 @@
         <v>542</v>
       </c>
       <c r="E107" s="56" t="s">
-        <v>1080</v>
+        <v>786</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>1087</v>
+        <v>881</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>1078</v>
+        <v>882</v>
       </c>
       <c r="H107" s="126" t="s">
         <v>1079</v>
@@ -18478,32 +18468,32 @@
     </row>
     <row r="108" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
-        <v>1122</v>
+        <v>659</v>
       </c>
       <c r="B108" s="117" t="s">
         <v>707</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>1224</v>
+        <v>708</v>
       </c>
       <c r="D108" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E108" s="56" t="s">
-        <v>1096</v>
+        <v>1077</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>1225</v>
+        <v>1082</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>1226</v>
+        <v>1073</v>
       </c>
       <c r="H108" s="126" t="s">
-        <v>1228</v>
+        <v>1074</v>
       </c>
       <c r="I108" s="126"/>
       <c r="J108" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K108" s="4"/>
       <c r="L108" s="4" t="s">
@@ -18523,32 +18513,32 @@
     </row>
     <row r="109" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B109" s="117" t="s">
         <v>707</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>1224</v>
+        <v>708</v>
       </c>
       <c r="D109" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E109" s="56" t="s">
-        <v>1096</v>
+        <v>711</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>1229</v>
+        <v>1083</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>1230</v>
+        <v>1071</v>
       </c>
       <c r="H109" s="126" t="s">
-        <v>1231</v>
+        <v>1220</v>
       </c>
       <c r="I109" s="126"/>
       <c r="J109" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K109" s="4"/>
       <c r="L109" s="4" t="s">
@@ -18568,32 +18558,32 @@
     </row>
     <row r="110" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B110" s="117" t="s">
         <v>707</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>1224</v>
+        <v>708</v>
       </c>
       <c r="D110" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E110" s="56" t="s">
-        <v>1096</v>
+        <v>1077</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>1232</v>
+        <v>1084</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>1233</v>
+        <v>1075</v>
       </c>
       <c r="H110" s="126" t="s">
-        <v>1234</v>
+        <v>1076</v>
       </c>
       <c r="I110" s="126"/>
       <c r="J110" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K110" s="4"/>
       <c r="L110" s="4" t="s">
@@ -18613,28 +18603,28 @@
     </row>
     <row r="111" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
-        <v>664</v>
+        <v>1118</v>
       </c>
       <c r="B111" s="117" t="s">
         <v>707</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
       <c r="D111" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E111" s="56" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>1235</v>
+        <v>1218</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>1236</v>
+        <v>1219</v>
       </c>
       <c r="H111" s="126" t="s">
-        <v>1237</v>
+        <v>1221</v>
       </c>
       <c r="I111" s="126"/>
       <c r="J111" s="4" t="s">
@@ -18658,28 +18648,28 @@
     </row>
     <row r="112" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
-        <v>1122</v>
+        <v>662</v>
       </c>
       <c r="B112" s="117" t="s">
         <v>707</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
       <c r="D112" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E112" s="56" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>1238</v>
+        <v>1222</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>1240</v>
+        <v>1223</v>
       </c>
       <c r="H112" s="126" t="s">
-        <v>1239</v>
+        <v>1224</v>
       </c>
       <c r="I112" s="126"/>
       <c r="J112" s="4" t="s">
@@ -18703,28 +18693,28 @@
     </row>
     <row r="113" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B113" s="117" t="s">
         <v>707</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
       <c r="D113" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E113" s="56" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>1241</v>
+        <v>1225</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>1242</v>
+        <v>1226</v>
       </c>
       <c r="H113" s="126" t="s">
-        <v>1243</v>
+        <v>1227</v>
       </c>
       <c r="I113" s="126"/>
       <c r="J113" s="4" t="s">
@@ -18748,28 +18738,28 @@
     </row>
     <row r="114" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B114" s="117" t="s">
         <v>707</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
       <c r="D114" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E114" s="56" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>1244</v>
+        <v>1229</v>
       </c>
       <c r="H114" s="126" t="s">
-        <v>1245</v>
+        <v>1230</v>
       </c>
       <c r="I114" s="126"/>
       <c r="J114" s="4" t="s">
@@ -18793,28 +18783,28 @@
     </row>
     <row r="115" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
-        <v>664</v>
+        <v>1118</v>
       </c>
       <c r="B115" s="117" t="s">
         <v>707</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
       <c r="D115" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E115" s="56" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>1247</v>
+        <v>1231</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>1246</v>
+        <v>1233</v>
       </c>
       <c r="H115" s="126" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="I115" s="126"/>
       <c r="J115" s="4" t="s">
@@ -18838,28 +18828,28 @@
     </row>
     <row r="116" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
-        <v>1122</v>
+        <v>662</v>
       </c>
       <c r="B116" s="117" t="s">
         <v>707</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>708</v>
+        <v>1217</v>
       </c>
       <c r="D116" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E116" s="56" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>900</v>
+        <v>1234</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>1039</v>
+        <v>1235</v>
       </c>
       <c r="H116" s="126" t="s">
-        <v>1088</v>
+        <v>1236</v>
       </c>
       <c r="I116" s="126"/>
       <c r="J116" s="4" t="s">
@@ -18883,28 +18873,28 @@
     </row>
     <row r="117" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B117" s="117" t="s">
         <v>707</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>708</v>
+        <v>1217</v>
       </c>
       <c r="D117" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E117" s="56" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>1097</v>
+        <v>1225</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>1098</v>
+        <v>1237</v>
       </c>
       <c r="H117" s="126" t="s">
-        <v>1099</v>
+        <v>1238</v>
       </c>
       <c r="I117" s="126"/>
       <c r="J117" s="4" t="s">
@@ -18928,28 +18918,28 @@
     </row>
     <row r="118" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B118" s="117" t="s">
         <v>707</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>708</v>
+        <v>1217</v>
       </c>
       <c r="D118" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E118" s="56" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>901</v>
+        <v>1240</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>902</v>
+        <v>1239</v>
       </c>
       <c r="H118" s="126" t="s">
-        <v>1072</v>
+        <v>1230</v>
       </c>
       <c r="I118" s="126"/>
       <c r="J118" s="4" t="s">
@@ -18973,7 +18963,7 @@
     </row>
     <row r="119" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
-        <v>664</v>
+        <v>1118</v>
       </c>
       <c r="B119" s="117" t="s">
         <v>707</v>
@@ -18985,20 +18975,20 @@
         <v>542</v>
       </c>
       <c r="E119" s="56" t="s">
-        <v>899</v>
+        <v>1093</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>1162</v>
+        <v>898</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>1163</v>
+        <v>1037</v>
       </c>
       <c r="H119" s="126" t="s">
-        <v>1164</v>
+        <v>1085</v>
       </c>
       <c r="I119" s="126"/>
       <c r="J119" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K119" s="4"/>
       <c r="L119" s="4" t="s">
@@ -19018,7 +19008,7 @@
     </row>
     <row r="120" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B120" s="117" t="s">
         <v>707</v>
@@ -19030,20 +19020,20 @@
         <v>542</v>
       </c>
       <c r="E120" s="56" t="s">
-        <v>1066</v>
+        <v>1093</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>1067</v>
+        <v>1094</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>1068</v>
+        <v>1095</v>
       </c>
       <c r="H120" s="126" t="s">
-        <v>1069</v>
+        <v>1096</v>
       </c>
       <c r="I120" s="126"/>
       <c r="J120" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K120" s="4"/>
       <c r="L120" s="4" t="s">
@@ -19063,7 +19053,7 @@
     </row>
     <row r="121" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
-        <v>770</v>
+        <v>663</v>
       </c>
       <c r="B121" s="117" t="s">
         <v>707</v>
@@ -19071,24 +19061,24 @@
       <c r="C121" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="D121" s="56" t="s">
         <v>542</v>
       </c>
-      <c r="E121" s="4" t="s">
-        <v>1165</v>
+      <c r="E121" s="56" t="s">
+        <v>1093</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>1040</v>
+        <v>899</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>1041</v>
+        <v>900</v>
       </c>
       <c r="H121" s="126" t="s">
-        <v>1042</v>
+        <v>1069</v>
       </c>
       <c r="I121" s="126"/>
       <c r="J121" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K121" s="4"/>
       <c r="L121" s="4" t="s">
@@ -19108,7 +19098,7 @@
     </row>
     <row r="122" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B122" s="117" t="s">
         <v>707</v>
@@ -19120,16 +19110,16 @@
         <v>542</v>
       </c>
       <c r="E122" s="56" t="s">
-        <v>1117</v>
+        <v>897</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>861</v>
+        <v>1158</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>862</v>
+        <v>1159</v>
       </c>
       <c r="H122" s="126" t="s">
-        <v>867</v>
+        <v>1160</v>
       </c>
       <c r="I122" s="126"/>
       <c r="J122" s="4" t="s">
@@ -19153,7 +19143,7 @@
     </row>
     <row r="123" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B123" s="117" t="s">
         <v>707</v>
@@ -19165,22 +19155,20 @@
         <v>542</v>
       </c>
       <c r="E123" s="56" t="s">
-        <v>1117</v>
+        <v>1063</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>1102</v>
+        <v>1064</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>1103</v>
+        <v>1065</v>
       </c>
       <c r="H123" s="126" t="s">
-        <v>1104</v>
-      </c>
-      <c r="I123" s="126" t="s">
-        <v>1107</v>
-      </c>
+        <v>1066</v>
+      </c>
+      <c r="I123" s="126"/>
       <c r="J123" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K123" s="4"/>
       <c r="L123" s="4" t="s">
@@ -19200,7 +19188,7 @@
     </row>
     <row r="124" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
-        <v>667</v>
+        <v>768</v>
       </c>
       <c r="B124" s="117" t="s">
         <v>707</v>
@@ -19208,20 +19196,20 @@
       <c r="C124" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="D124" s="56" t="s">
+      <c r="D124" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="E124" s="56" t="s">
-        <v>1117</v>
+      <c r="E124" s="4" t="s">
+        <v>1161</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>893</v>
+        <v>1038</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>894</v>
+        <v>1039</v>
       </c>
       <c r="H124" s="126" t="s">
-        <v>895</v>
+        <v>1040</v>
       </c>
       <c r="I124" s="126"/>
       <c r="J124" s="4" t="s">
@@ -19245,7 +19233,7 @@
     </row>
     <row r="125" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B125" s="117" t="s">
         <v>707</v>
@@ -19257,16 +19245,16 @@
         <v>542</v>
       </c>
       <c r="E125" s="56" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>896</v>
+        <v>859</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>897</v>
+        <v>860</v>
       </c>
       <c r="H125" s="126" t="s">
-        <v>898</v>
+        <v>865</v>
       </c>
       <c r="I125" s="126"/>
       <c r="J125" s="4" t="s">
@@ -19290,7 +19278,7 @@
     </row>
     <row r="126" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B126" s="117" t="s">
         <v>707</v>
@@ -19302,18 +19290,20 @@
         <v>542</v>
       </c>
       <c r="E126" s="56" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>1269</v>
+        <v>1098</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>1270</v>
+        <v>1099</v>
       </c>
       <c r="H126" s="126" t="s">
-        <v>1271</v>
-      </c>
-      <c r="I126" s="126"/>
+        <v>1100</v>
+      </c>
+      <c r="I126" s="126" t="s">
+        <v>1103</v>
+      </c>
       <c r="J126" s="4" t="s">
         <v>44</v>
       </c>
@@ -19335,7 +19325,7 @@
     </row>
     <row r="127" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B127" s="117" t="s">
         <v>707</v>
@@ -19347,16 +19337,16 @@
         <v>542</v>
       </c>
       <c r="E127" s="56" t="s">
-        <v>1124</v>
+        <v>1113</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>1125</v>
+        <v>891</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>1126</v>
+        <v>892</v>
       </c>
       <c r="H127" s="126" t="s">
-        <v>1129</v>
+        <v>893</v>
       </c>
       <c r="I127" s="126"/>
       <c r="J127" s="4" t="s">
@@ -19380,7 +19370,7 @@
     </row>
     <row r="128" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B128" s="117" t="s">
         <v>707</v>
@@ -19392,20 +19382,20 @@
         <v>542</v>
       </c>
       <c r="E128" s="56" t="s">
-        <v>713</v>
+        <v>1113</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>1248</v>
+        <v>894</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>1249</v>
+        <v>895</v>
       </c>
       <c r="H128" s="126" t="s">
-        <v>1250</v>
+        <v>896</v>
       </c>
       <c r="I128" s="126"/>
       <c r="J128" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K128" s="4"/>
       <c r="L128" s="4" t="s">
@@ -19425,7 +19415,7 @@
     </row>
     <row r="129" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B129" s="117" t="s">
         <v>707</v>
@@ -19437,16 +19427,16 @@
         <v>542</v>
       </c>
       <c r="E129" s="56" t="s">
-        <v>713</v>
+        <v>1113</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>1127</v>
+        <v>1262</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>1128</v>
+        <v>1263</v>
       </c>
       <c r="H129" s="126" t="s">
-        <v>1130</v>
+        <v>1264</v>
       </c>
       <c r="I129" s="126"/>
       <c r="J129" s="4" t="s">
@@ -19470,7 +19460,7 @@
     </row>
     <row r="130" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B130" s="117" t="s">
         <v>707</v>
@@ -19482,16 +19472,16 @@
         <v>542</v>
       </c>
       <c r="E130" s="56" t="s">
-        <v>1251</v>
+        <v>1120</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>1111</v>
+        <v>1122</v>
       </c>
       <c r="H130" s="126" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="I130" s="126"/>
       <c r="J130" s="4" t="s">
@@ -19515,7 +19505,7 @@
     </row>
     <row r="131" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B131" s="117" t="s">
         <v>707</v>
@@ -19527,16 +19517,16 @@
         <v>542</v>
       </c>
       <c r="E131" s="56" t="s">
-        <v>1251</v>
+        <v>712</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>1119</v>
+        <v>1241</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>1114</v>
+        <v>1242</v>
       </c>
       <c r="H131" s="126" t="s">
-        <v>1120</v>
+        <v>1243</v>
       </c>
       <c r="I131" s="126"/>
       <c r="J131" s="4" t="s">
@@ -19560,7 +19550,7 @@
     </row>
     <row r="132" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="B132" s="117" t="s">
         <v>707</v>
@@ -19572,20 +19562,20 @@
         <v>542</v>
       </c>
       <c r="E132" s="56" t="s">
-        <v>1180</v>
+        <v>712</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>1181</v>
+        <v>1123</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>1078</v>
+        <v>1124</v>
       </c>
       <c r="H132" s="126" t="s">
-        <v>1079</v>
+        <v>1126</v>
       </c>
       <c r="I132" s="126"/>
       <c r="J132" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K132" s="4"/>
       <c r="L132" s="4" t="s">
@@ -19605,7 +19595,7 @@
     </row>
     <row r="133" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4" t="s">
-        <v>1122</v>
+        <v>671</v>
       </c>
       <c r="B133" s="117" t="s">
         <v>707</v>
@@ -19617,16 +19607,16 @@
         <v>542</v>
       </c>
       <c r="E133" s="56" t="s">
-        <v>1255</v>
+        <v>1244</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>1252</v>
+        <v>1114</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>1253</v>
+        <v>1107</v>
       </c>
       <c r="H133" s="126" t="s">
-        <v>1254</v>
+        <v>1117</v>
       </c>
       <c r="I133" s="126"/>
       <c r="J133" s="4" t="s">
@@ -19650,7 +19640,7 @@
     </row>
     <row r="134" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="B134" s="117" t="s">
         <v>707</v>
@@ -19662,20 +19652,20 @@
         <v>542</v>
       </c>
       <c r="E134" s="56" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>1257</v>
+        <v>1115</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>1258</v>
+        <v>1110</v>
       </c>
       <c r="H134" s="126" t="s">
-        <v>1259</v>
+        <v>1116</v>
       </c>
       <c r="I134" s="126"/>
       <c r="J134" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K134" s="4"/>
       <c r="L134" s="4" t="s">
@@ -19695,7 +19685,7 @@
     </row>
     <row r="135" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
       <c r="B135" s="117" t="s">
         <v>707</v>
@@ -19707,20 +19697,20 @@
         <v>542</v>
       </c>
       <c r="E135" s="56" t="s">
-        <v>1261</v>
+        <v>1176</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>864</v>
+        <v>1177</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>865</v>
+        <v>1075</v>
       </c>
       <c r="H135" s="126" t="s">
-        <v>866</v>
+        <v>1076</v>
       </c>
       <c r="I135" s="126"/>
       <c r="J135" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K135" s="4"/>
       <c r="L135" s="4" t="s">
@@ -19740,7 +19730,7 @@
     </row>
     <row r="136" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4" t="s">
-        <v>677</v>
+        <v>1118</v>
       </c>
       <c r="B136" s="117" t="s">
         <v>707</v>
@@ -19752,20 +19742,20 @@
         <v>542</v>
       </c>
       <c r="E136" s="56" t="s">
-        <v>1261</v>
+        <v>1248</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>1091</v>
+        <v>1245</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>1092</v>
+        <v>1246</v>
       </c>
       <c r="H136" s="126" t="s">
-        <v>1093</v>
+        <v>1247</v>
       </c>
       <c r="I136" s="126"/>
       <c r="J136" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K136" s="4"/>
       <c r="L136" s="4" t="s">
@@ -19785,7 +19775,7 @@
     </row>
     <row r="137" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4" t="s">
-        <v>722</v>
+        <v>662</v>
       </c>
       <c r="B137" s="117" t="s">
         <v>707</v>
@@ -19797,16 +19787,16 @@
         <v>542</v>
       </c>
       <c r="E137" s="56" t="s">
-        <v>1261</v>
+        <v>1249</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>1020</v>
+        <v>1250</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>1021</v>
+        <v>1251</v>
       </c>
       <c r="H137" s="126" t="s">
-        <v>1022</v>
+        <v>1252</v>
       </c>
       <c r="I137" s="126"/>
       <c r="J137" s="4" t="s">
@@ -19830,7 +19820,7 @@
     </row>
     <row r="138" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4" t="s">
-        <v>723</v>
+        <v>676</v>
       </c>
       <c r="B138" s="117" t="s">
         <v>707</v>
@@ -19842,16 +19832,16 @@
         <v>542</v>
       </c>
       <c r="E138" s="56" t="s">
-        <v>1261</v>
+        <v>1254</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>1023</v>
+        <v>862</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>1024</v>
+        <v>863</v>
       </c>
       <c r="H138" s="126" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="I138" s="126"/>
       <c r="J138" s="4" t="s">
@@ -19875,7 +19865,7 @@
     </row>
     <row r="139" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4" t="s">
-        <v>724</v>
+        <v>677</v>
       </c>
       <c r="B139" s="117" t="s">
         <v>707</v>
@@ -19887,20 +19877,18 @@
         <v>542</v>
       </c>
       <c r="E139" s="56" t="s">
-        <v>1261</v>
+        <v>1254</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>1105</v>
+        <v>1088</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>1106</v>
+        <v>1089</v>
       </c>
       <c r="H139" s="126" t="s">
-        <v>1104</v>
-      </c>
-      <c r="I139" s="126" t="s">
-        <v>1107</v>
-      </c>
+        <v>1090</v>
+      </c>
+      <c r="I139" s="126"/>
       <c r="J139" s="4" t="s">
         <v>44</v>
       </c>
@@ -19922,7 +19910,7 @@
     </row>
     <row r="140" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="B140" s="117" t="s">
         <v>707</v>
@@ -19934,16 +19922,16 @@
         <v>542</v>
       </c>
       <c r="E140" s="56" t="s">
-        <v>1261</v>
+        <v>1254</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>903</v>
+        <v>1018</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>1108</v>
+        <v>1019</v>
       </c>
       <c r="H140" s="126" t="s">
-        <v>905</v>
+        <v>1020</v>
       </c>
       <c r="I140" s="126"/>
       <c r="J140" s="4" t="s">
@@ -19967,7 +19955,7 @@
     </row>
     <row r="141" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="B141" s="117" t="s">
         <v>707</v>
@@ -19979,16 +19967,16 @@
         <v>542</v>
       </c>
       <c r="E141" s="56" t="s">
-        <v>1261</v>
+        <v>1254</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>904</v>
+        <v>1021</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>1109</v>
+        <v>1022</v>
       </c>
       <c r="H141" s="126" t="s">
-        <v>906</v>
+        <v>867</v>
       </c>
       <c r="I141" s="126"/>
       <c r="J141" s="4" t="s">
@@ -20012,7 +20000,7 @@
     </row>
     <row r="142" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
-        <v>1122</v>
+        <v>722</v>
       </c>
       <c r="B142" s="117" t="s">
         <v>707</v>
@@ -20024,20 +20012,22 @@
         <v>542</v>
       </c>
       <c r="E142" s="56" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>1265</v>
+        <v>1101</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>1267</v>
+        <v>1102</v>
       </c>
       <c r="H142" s="126" t="s">
-        <v>1254</v>
-      </c>
-      <c r="I142" s="126"/>
+        <v>1100</v>
+      </c>
+      <c r="I142" s="126" t="s">
+        <v>1103</v>
+      </c>
       <c r="J142" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K142" s="4"/>
       <c r="L142" s="4" t="s">
@@ -20057,7 +20047,7 @@
     </row>
     <row r="143" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
-        <v>662</v>
+        <v>723</v>
       </c>
       <c r="B143" s="117" t="s">
         <v>707</v>
@@ -20069,16 +20059,16 @@
         <v>542</v>
       </c>
       <c r="E143" s="56" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>1266</v>
+        <v>901</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>1268</v>
+        <v>1104</v>
       </c>
       <c r="H143" s="126" t="s">
-        <v>1259</v>
+        <v>903</v>
       </c>
       <c r="I143" s="126"/>
       <c r="J143" s="4" t="s">
@@ -20102,7 +20092,7 @@
     </row>
     <row r="144" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
-        <v>669</v>
+        <v>724</v>
       </c>
       <c r="B144" s="117" t="s">
         <v>707</v>
@@ -20114,20 +20104,20 @@
         <v>542</v>
       </c>
       <c r="E144" s="56" t="s">
-        <v>713</v>
+        <v>1254</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>1262</v>
+        <v>902</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>1264</v>
+        <v>1105</v>
       </c>
       <c r="H144" s="126" t="s">
-        <v>1263</v>
+        <v>904</v>
       </c>
       <c r="I144" s="126"/>
       <c r="J144" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K144" s="4"/>
       <c r="L144" s="4" t="s">
@@ -20147,7 +20137,7 @@
     </row>
     <row r="145" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
-        <v>727</v>
+        <v>1118</v>
       </c>
       <c r="B145" s="117" t="s">
         <v>707</v>
@@ -20159,22 +20149,20 @@
         <v>542</v>
       </c>
       <c r="E145" s="56" t="s">
-        <v>1170</v>
+        <v>1248</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>1171</v>
+        <v>1258</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>1172</v>
+        <v>1260</v>
       </c>
       <c r="H145" s="126" t="s">
-        <v>1176</v>
-      </c>
-      <c r="I145" s="126" t="s">
-        <v>1173</v>
-      </c>
+        <v>1247</v>
+      </c>
+      <c r="I145" s="126"/>
       <c r="J145" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K145" s="4"/>
       <c r="L145" s="4" t="s">
@@ -20194,7 +20182,7 @@
     </row>
     <row r="146" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4" t="s">
-        <v>764</v>
+        <v>662</v>
       </c>
       <c r="B146" s="117" t="s">
         <v>707</v>
@@ -20206,20 +20194,20 @@
         <v>542</v>
       </c>
       <c r="E146" s="56" t="s">
-        <v>1170</v>
+        <v>1249</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>1174</v>
+        <v>1259</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>1175</v>
+        <v>1261</v>
       </c>
       <c r="H146" s="126" t="s">
-        <v>1177</v>
+        <v>1252</v>
       </c>
       <c r="I146" s="126"/>
       <c r="J146" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K146" s="4"/>
       <c r="L146" s="4" t="s">
@@ -20251,20 +20239,20 @@
         <v>542</v>
       </c>
       <c r="E147" s="56" t="s">
-        <v>1117</v>
+        <v>712</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>1272</v>
+        <v>1255</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>1273</v>
+        <v>1257</v>
       </c>
       <c r="H147" s="126" t="s">
-        <v>1274</v>
+        <v>1256</v>
       </c>
       <c r="I147" s="126"/>
       <c r="J147" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K147" s="4"/>
       <c r="L147" s="4" t="s">
@@ -20284,7 +20272,7 @@
     </row>
     <row r="148" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B148" s="117" t="s">
         <v>707</v>
@@ -20296,20 +20284,22 @@
         <v>542</v>
       </c>
       <c r="E148" s="56" t="s">
-        <v>1116</v>
+        <v>1166</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>1110</v>
+        <v>1167</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>1111</v>
+        <v>1168</v>
       </c>
       <c r="H148" s="126" t="s">
-        <v>1112</v>
-      </c>
-      <c r="I148" s="126"/>
+        <v>1172</v>
+      </c>
+      <c r="I148" s="126" t="s">
+        <v>1169</v>
+      </c>
       <c r="J148" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K148" s="4"/>
       <c r="L148" s="4" t="s">
@@ -20329,7 +20319,7 @@
     </row>
     <row r="149" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B149" s="117" t="s">
         <v>707</v>
@@ -20341,16 +20331,16 @@
         <v>542</v>
       </c>
       <c r="E149" s="56" t="s">
-        <v>1251</v>
+        <v>1166</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>1113</v>
+        <v>1170</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>1114</v>
+        <v>1171</v>
       </c>
       <c r="H149" s="126" t="s">
-        <v>1115</v>
+        <v>1173</v>
       </c>
       <c r="I149" s="126"/>
       <c r="J149" s="4" t="s">
@@ -20374,7 +20364,7 @@
     </row>
     <row r="150" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="B150" s="117" t="s">
         <v>707</v>
@@ -20386,20 +20376,20 @@
         <v>542</v>
       </c>
       <c r="E150" s="56" t="s">
-        <v>1180</v>
+        <v>1113</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>1182</v>
+        <v>1265</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>1078</v>
+        <v>1266</v>
       </c>
       <c r="H150" s="126" t="s">
-        <v>1079</v>
+        <v>1267</v>
       </c>
       <c r="I150" s="126"/>
       <c r="J150" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K150" s="4"/>
       <c r="L150" s="4" t="s">
@@ -20419,7 +20409,7 @@
     </row>
     <row r="151" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4" t="s">
-        <v>768</v>
+        <v>725</v>
       </c>
       <c r="B151" s="117" t="s">
         <v>707</v>
@@ -20431,16 +20421,16 @@
         <v>542</v>
       </c>
       <c r="E151" s="56" t="s">
-        <v>1222</v>
+        <v>1112</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>1260</v>
+        <v>1106</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>1223</v>
+        <v>1107</v>
       </c>
       <c r="H151" s="126" t="s">
-        <v>1275</v>
+        <v>1108</v>
       </c>
       <c r="I151" s="126"/>
       <c r="J151" s="4" t="s">
@@ -20464,7 +20454,7 @@
     </row>
     <row r="152" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="B152" s="117" t="s">
         <v>707</v>
@@ -20472,24 +20462,24 @@
       <c r="C152" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="D152" s="4" t="s">
+      <c r="D152" s="56" t="s">
         <v>542</v>
       </c>
-      <c r="E152" s="4" t="s">
-        <v>712</v>
+      <c r="E152" s="56" t="s">
+        <v>1244</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>1166</v>
+        <v>1109</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>1043</v>
+        <v>1110</v>
       </c>
       <c r="H152" s="126" t="s">
-        <v>1044</v>
+        <v>1111</v>
       </c>
       <c r="I152" s="126"/>
       <c r="J152" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K152" s="4"/>
       <c r="L152" s="4" t="s">
@@ -20509,7 +20499,7 @@
     </row>
     <row r="153" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4" t="s">
-        <v>774</v>
+        <v>661</v>
       </c>
       <c r="B153" s="117" t="s">
         <v>707</v>
@@ -20517,24 +20507,24 @@
       <c r="C153" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="D153" s="4" t="s">
+      <c r="D153" s="56" t="s">
         <v>542</v>
       </c>
-      <c r="E153" s="4" t="s">
-        <v>907</v>
+      <c r="E153" s="56" t="s">
+        <v>1176</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>1045</v>
+        <v>1178</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>1046</v>
+        <v>1075</v>
       </c>
       <c r="H153" s="126" t="s">
-        <v>1047</v>
+        <v>1076</v>
       </c>
       <c r="I153" s="126"/>
       <c r="J153" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K153" s="4"/>
       <c r="L153" s="4" t="s">
@@ -20554,7 +20544,7 @@
     </row>
     <row r="154" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="B154" s="117" t="s">
         <v>707</v>
@@ -20562,20 +20552,20 @@
       <c r="C154" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="D154" s="4" t="s">
+      <c r="D154" s="56" t="s">
         <v>542</v>
       </c>
-      <c r="E154" s="4" t="s">
-        <v>713</v>
+      <c r="E154" s="56" t="s">
+        <v>1215</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>1048</v>
+        <v>1253</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>1049</v>
+        <v>1216</v>
       </c>
       <c r="H154" s="126" t="s">
-        <v>1052</v>
+        <v>1268</v>
       </c>
       <c r="I154" s="126"/>
       <c r="J154" s="4" t="s">
@@ -20599,7 +20589,7 @@
     </row>
     <row r="155" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B155" s="117" t="s">
         <v>707</v>
@@ -20607,20 +20597,20 @@
       <c r="C155" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="D155" s="56" t="s">
+      <c r="D155" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="E155" s="56" t="s">
-        <v>899</v>
+      <c r="E155" s="4" t="s">
+        <v>1269</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>1169</v>
+        <v>1041</v>
       </c>
       <c r="H155" s="126" t="s">
-        <v>868</v>
+        <v>1042</v>
       </c>
       <c r="I155" s="126"/>
       <c r="J155" s="4" t="s">
@@ -20644,7 +20634,7 @@
     </row>
     <row r="156" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="B156" s="117" t="s">
         <v>707</v>
@@ -20652,24 +20642,24 @@
       <c r="C156" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="D156" s="56" t="s">
+      <c r="D156" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="E156" s="56" t="s">
-        <v>899</v>
+      <c r="E156" s="4" t="s">
+        <v>905</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>1168</v>
+        <v>1043</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>1094</v>
+        <v>1044</v>
       </c>
       <c r="H156" s="126" t="s">
-        <v>1095</v>
+        <v>1045</v>
       </c>
       <c r="I156" s="126"/>
       <c r="J156" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K156" s="4"/>
       <c r="L156" s="4" t="s">
@@ -20689,7 +20679,7 @@
     </row>
     <row r="157" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B157" s="117" t="s">
         <v>707</v>
@@ -20701,20 +20691,18 @@
         <v>542</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>908</v>
+        <v>1046</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>715</v>
+        <v>1047</v>
       </c>
       <c r="H157" s="126" t="s">
-        <v>890</v>
-      </c>
-      <c r="I157" s="126" t="s">
-        <v>717</v>
-      </c>
+        <v>1050</v>
+      </c>
+      <c r="I157" s="126"/>
       <c r="J157" s="4" t="s">
         <v>43</v>
       </c>
@@ -20736,7 +20724,7 @@
     </row>
     <row r="158" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="B158" s="117" t="s">
         <v>707</v>
@@ -20744,24 +20732,22 @@
       <c r="C158" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="D158" s="4" t="s">
+      <c r="D158" s="56" t="s">
         <v>542</v>
       </c>
-      <c r="E158" s="4" t="s">
-        <v>713</v>
+      <c r="E158" s="56" t="s">
+        <v>897</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>909</v>
+        <v>1163</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>714</v>
+        <v>1165</v>
       </c>
       <c r="H158" s="126" t="s">
-        <v>891</v>
-      </c>
-      <c r="I158" s="126" t="s">
-        <v>716</v>
-      </c>
+        <v>866</v>
+      </c>
+      <c r="I158" s="126"/>
       <c r="J158" s="4" t="s">
         <v>43</v>
       </c>
@@ -20783,7 +20769,7 @@
     </row>
     <row r="159" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4" t="s">
-        <v>724</v>
+        <v>767</v>
       </c>
       <c r="B159" s="117" t="s">
         <v>707</v>
@@ -20795,20 +20781,18 @@
         <v>542</v>
       </c>
       <c r="E159" s="56" t="s">
-        <v>1200</v>
+        <v>897</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>1201</v>
+        <v>1164</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>1202</v>
+        <v>1091</v>
       </c>
       <c r="H159" s="126" t="s">
-        <v>1104</v>
-      </c>
-      <c r="I159" s="126" t="s">
-        <v>1203</v>
-      </c>
+        <v>1092</v>
+      </c>
+      <c r="I159" s="126"/>
       <c r="J159" s="4" t="s">
         <v>44</v>
       </c>
@@ -20830,7 +20814,7 @@
     </row>
     <row r="160" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4" t="s">
-        <v>672</v>
+        <v>774</v>
       </c>
       <c r="B160" s="117" t="s">
         <v>707</v>
@@ -20838,26 +20822,26 @@
       <c r="C160" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="D160" s="56" t="s">
+      <c r="D160" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="E160" s="56" t="s">
-        <v>1170</v>
+      <c r="E160" s="4" t="s">
+        <v>712</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>1178</v>
+        <v>906</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>1114</v>
+        <v>714</v>
       </c>
       <c r="H160" s="126" t="s">
-        <v>1179</v>
+        <v>888</v>
       </c>
       <c r="I160" s="126" t="s">
-        <v>1187</v>
+        <v>716</v>
       </c>
       <c r="J160" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K160" s="4"/>
       <c r="L160" s="4" t="s">
@@ -20877,7 +20861,7 @@
     </row>
     <row r="161" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4" t="s">
-        <v>661</v>
+        <v>775</v>
       </c>
       <c r="B161" s="117" t="s">
         <v>707</v>
@@ -20885,24 +20869,26 @@
       <c r="C161" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="D161" s="56" t="s">
+      <c r="D161" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="E161" s="56" t="s">
-        <v>1180</v>
+      <c r="E161" s="4" t="s">
+        <v>712</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>1186</v>
+        <v>907</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>1078</v>
+        <v>713</v>
       </c>
       <c r="H161" s="126" t="s">
-        <v>1079</v>
-      </c>
-      <c r="I161" s="126"/>
+        <v>889</v>
+      </c>
+      <c r="I161" s="126" t="s">
+        <v>715</v>
+      </c>
       <c r="J161" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K161" s="4"/>
       <c r="L161" s="4" t="s">
@@ -20922,7 +20908,7 @@
     </row>
     <row r="162" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4" t="s">
-        <v>658</v>
+        <v>722</v>
       </c>
       <c r="B162" s="117" t="s">
         <v>707</v>
@@ -20934,22 +20920,22 @@
         <v>542</v>
       </c>
       <c r="E162" s="56" t="s">
-        <v>788</v>
+        <v>1194</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>1183</v>
+        <v>1195</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>884</v>
+        <v>1196</v>
       </c>
       <c r="H162" s="126" t="s">
-        <v>1185</v>
+        <v>1100</v>
       </c>
       <c r="I162" s="126" t="s">
-        <v>1188</v>
+        <v>1197</v>
       </c>
       <c r="J162" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K162" s="4"/>
       <c r="L162" s="4" t="s">
@@ -20969,7 +20955,7 @@
     </row>
     <row r="163" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
       <c r="B163" s="117" t="s">
         <v>707</v>
@@ -20981,18 +20967,20 @@
         <v>542</v>
       </c>
       <c r="E163" s="56" t="s">
-        <v>791</v>
+        <v>1166</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>1184</v>
+        <v>1174</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>1076</v>
+        <v>1110</v>
       </c>
       <c r="H163" s="126" t="s">
-        <v>1077</v>
-      </c>
-      <c r="I163" s="126"/>
+        <v>1175</v>
+      </c>
+      <c r="I163" s="126" t="s">
+        <v>1183</v>
+      </c>
       <c r="J163" s="4" t="s">
         <v>45</v>
       </c>
@@ -21014,7 +21002,7 @@
     </row>
     <row r="164" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4" t="s">
-        <v>778</v>
+        <v>661</v>
       </c>
       <c r="B164" s="117" t="s">
         <v>707</v>
@@ -21022,24 +21010,24 @@
       <c r="C164" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="D164" s="4" t="s">
+      <c r="D164" s="56" t="s">
         <v>542</v>
       </c>
-      <c r="E164" s="4" t="s">
-        <v>713</v>
+      <c r="E164" s="56" t="s">
+        <v>1176</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>1053</v>
+        <v>1182</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>889</v>
+        <v>1075</v>
       </c>
       <c r="H164" s="126" t="s">
-        <v>718</v>
+        <v>1076</v>
       </c>
       <c r="I164" s="126"/>
       <c r="J164" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K164" s="4"/>
       <c r="L164" s="4" t="s">
@@ -21059,7 +21047,7 @@
     </row>
     <row r="165" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4" t="s">
-        <v>779</v>
+        <v>658</v>
       </c>
       <c r="B165" s="117" t="s">
         <v>707</v>
@@ -21067,24 +21055,26 @@
       <c r="C165" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="D165" s="4" t="s">
+      <c r="D165" s="56" t="s">
         <v>542</v>
       </c>
-      <c r="E165" s="4" t="s">
-        <v>713</v>
+      <c r="E165" s="56" t="s">
+        <v>1059</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>1054</v>
+        <v>1179</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>1055</v>
+        <v>882</v>
       </c>
       <c r="H165" s="126" t="s">
-        <v>1056</v>
-      </c>
-      <c r="I165" s="126"/>
+        <v>1181</v>
+      </c>
+      <c r="I165" s="126" t="s">
+        <v>1184</v>
+      </c>
       <c r="J165" s="4" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="K165" s="4"/>
       <c r="L165" s="4" t="s">
@@ -21104,7 +21094,7 @@
     </row>
     <row r="166" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4" t="s">
-        <v>780</v>
+        <v>659</v>
       </c>
       <c r="B166" s="117" t="s">
         <v>707</v>
@@ -21112,24 +21102,24 @@
       <c r="C166" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="D166" s="4" t="s">
+      <c r="D166" s="56" t="s">
         <v>542</v>
       </c>
-      <c r="E166" s="4" t="s">
-        <v>713</v>
+      <c r="E166" s="56" t="s">
+        <v>789</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>1189</v>
+        <v>1180</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>1190</v>
+        <v>1073</v>
       </c>
       <c r="H166" s="126" t="s">
-        <v>1191</v>
+        <v>1074</v>
       </c>
       <c r="I166" s="126"/>
       <c r="J166" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K166" s="4"/>
       <c r="L166" s="4" t="s">
@@ -21149,7 +21139,7 @@
     </row>
     <row r="167" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4" t="s">
-        <v>765</v>
+        <v>776</v>
       </c>
       <c r="B167" s="117" t="s">
         <v>707</v>
@@ -21157,26 +21147,24 @@
       <c r="C167" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="D167" s="56" t="s">
+      <c r="D167" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="E167" s="56" t="s">
-        <v>1192</v>
+      <c r="E167" s="4" t="s">
+        <v>712</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>1194</v>
+        <v>1051</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>1195</v>
+        <v>887</v>
       </c>
       <c r="H167" s="126" t="s">
-        <v>1198</v>
-      </c>
-      <c r="I167" s="126" t="s">
-        <v>1199</v>
-      </c>
+        <v>717</v>
+      </c>
+      <c r="I167" s="126"/>
       <c r="J167" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K167" s="4"/>
       <c r="L167" s="4" t="s">
@@ -21196,7 +21184,7 @@
     </row>
     <row r="168" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4" t="s">
-        <v>766</v>
+        <v>777</v>
       </c>
       <c r="B168" s="117" t="s">
         <v>707</v>
@@ -21204,26 +21192,24 @@
       <c r="C168" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="D168" s="56" t="s">
+      <c r="D168" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="E168" s="56" t="s">
-        <v>1193</v>
+      <c r="E168" s="4" t="s">
+        <v>712</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>1204</v>
+        <v>1052</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>1196</v>
+        <v>1053</v>
       </c>
       <c r="H168" s="126" t="s">
-        <v>1197</v>
-      </c>
-      <c r="I168" s="126" t="s">
-        <v>1199</v>
-      </c>
+        <v>1054</v>
+      </c>
+      <c r="I168" s="126"/>
       <c r="J168" s="4" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="K168" s="4"/>
       <c r="L168" s="4" t="s">
@@ -21243,7 +21229,7 @@
     </row>
     <row r="169" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4" t="s">
-        <v>767</v>
+        <v>778</v>
       </c>
       <c r="B169" s="117" t="s">
         <v>707</v>
@@ -21251,24 +21237,24 @@
       <c r="C169" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="D169" s="56" t="s">
+      <c r="D169" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="E169" s="56" t="s">
-        <v>1100</v>
+      <c r="E169" s="4" t="s">
+        <v>712</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>1205</v>
+        <v>1185</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>1123</v>
+        <v>1186</v>
       </c>
       <c r="H169" s="126" t="s">
-        <v>1206</v>
+        <v>1187</v>
       </c>
       <c r="I169" s="126"/>
       <c r="J169" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K169" s="4"/>
       <c r="L169" s="4" t="s">
@@ -21288,7 +21274,7 @@
     </row>
     <row r="170" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="B170" s="117" t="s">
         <v>707</v>
@@ -21296,22 +21282,24 @@
       <c r="C170" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="D170" s="4" t="s">
+      <c r="D170" s="56" t="s">
         <v>542</v>
       </c>
-      <c r="E170" s="4" t="s">
-        <v>1207</v>
+      <c r="E170" s="56" t="s">
+        <v>1244</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>885</v>
+        <v>1188</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>886</v>
+        <v>1189</v>
       </c>
       <c r="H170" s="126" t="s">
-        <v>1208</v>
-      </c>
-      <c r="I170" s="126"/>
+        <v>1192</v>
+      </c>
+      <c r="I170" s="126" t="s">
+        <v>1193</v>
+      </c>
       <c r="J170" s="4" t="s">
         <v>43</v>
       </c>
@@ -21333,7 +21321,7 @@
     </row>
     <row r="171" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="B171" s="117" t="s">
         <v>707</v>
@@ -21341,24 +21329,26 @@
       <c r="C171" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="D171" s="4" t="s">
+      <c r="D171" s="56" t="s">
         <v>542</v>
       </c>
-      <c r="E171" s="4" t="s">
-        <v>899</v>
+      <c r="E171" s="56" t="s">
+        <v>1244</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>888</v>
+        <v>1198</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>887</v>
+        <v>1190</v>
       </c>
       <c r="H171" s="126" t="s">
-        <v>1209</v>
-      </c>
-      <c r="I171" s="126"/>
+        <v>1191</v>
+      </c>
+      <c r="I171" s="126" t="s">
+        <v>1193</v>
+      </c>
       <c r="J171" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K171" s="4"/>
       <c r="L171" s="4" t="s">
@@ -21378,32 +21368,32 @@
     </row>
     <row r="172" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4" t="s">
-        <v>815</v>
+        <v>765</v>
       </c>
       <c r="B172" s="117" t="s">
         <v>707</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>1210</v>
-      </c>
-      <c r="D172" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="D172" s="56" t="s">
         <v>542</v>
       </c>
-      <c r="E172" s="4" t="s">
-        <v>713</v>
+      <c r="E172" s="56" t="s">
+        <v>1244</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>1221</v>
+        <v>1199</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>910</v>
+        <v>1119</v>
       </c>
       <c r="H172" s="126" t="s">
-        <v>1217</v>
+        <v>1200</v>
       </c>
       <c r="I172" s="126"/>
       <c r="J172" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K172" s="4"/>
       <c r="L172" s="4" t="s">
@@ -21423,28 +21413,28 @@
     </row>
     <row r="173" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4" t="s">
-        <v>913</v>
+        <v>770</v>
       </c>
       <c r="B173" s="117" t="s">
         <v>707</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>1210</v>
+        <v>708</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="E173" s="4" t="s">
-        <v>713</v>
+      <c r="E173" s="56" t="s">
+        <v>1244</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>719</v>
+        <v>883</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>911</v>
+        <v>884</v>
       </c>
       <c r="H173" s="126" t="s">
-        <v>1220</v>
+        <v>1201</v>
       </c>
       <c r="I173" s="126"/>
       <c r="J173" s="4" t="s">
@@ -21468,32 +21458,32 @@
     </row>
     <row r="174" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4" t="s">
-        <v>914</v>
+        <v>771</v>
       </c>
       <c r="B174" s="117" t="s">
         <v>707</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>1210</v>
+        <v>708</v>
       </c>
       <c r="D174" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="E174" s="4" t="s">
-        <v>720</v>
+      <c r="E174" s="56" t="s">
+        <v>1244</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>1050</v>
+        <v>886</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>721</v>
+        <v>885</v>
       </c>
       <c r="H174" s="126" t="s">
-        <v>1217</v>
+        <v>1202</v>
       </c>
       <c r="I174" s="126"/>
       <c r="J174" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K174" s="4"/>
       <c r="L174" s="4" t="s">
@@ -21513,28 +21503,28 @@
     </row>
     <row r="175" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4" t="s">
-        <v>915</v>
+        <v>813</v>
       </c>
       <c r="B175" s="117" t="s">
         <v>707</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
       <c r="D175" s="4" t="s">
         <v>542</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>1051</v>
+        <v>1214</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>721</v>
+        <v>908</v>
       </c>
       <c r="H175" s="126" t="s">
-        <v>1220</v>
+        <v>1210</v>
       </c>
       <c r="I175" s="126"/>
       <c r="J175" s="4" t="s">
@@ -21558,33 +21548,37 @@
     </row>
     <row r="176" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="B176" s="117" t="s">
         <v>707</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
       <c r="D176" s="4" t="s">
         <v>542</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>1214</v>
+        <v>712</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>1215</v>
+        <v>718</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>1216</v>
+        <v>909</v>
       </c>
       <c r="H176" s="126" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="I176" s="126"/>
-      <c r="J176" s="4"/>
+      <c r="J176" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K176" s="4"/>
-      <c r="L176" s="4"/>
+      <c r="L176" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M176" s="4"/>
       <c r="N176" s="4"/>
       <c r="O176" s="4"/>
@@ -21599,33 +21593,37 @@
     </row>
     <row r="177" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="B177" s="117" t="s">
         <v>707</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="E177" s="4" t="s">
-        <v>1214</v>
+      <c r="E177" s="56" t="s">
+        <v>1270</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>1218</v>
+        <v>1048</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>1219</v>
+        <v>719</v>
       </c>
       <c r="H177" s="126" t="s">
-        <v>1220</v>
+        <v>1210</v>
       </c>
       <c r="I177" s="126"/>
-      <c r="J177" s="4"/>
+      <c r="J177" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K177" s="4"/>
-      <c r="L177" s="4"/>
+      <c r="L177" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M177" s="4"/>
       <c r="N177" s="4"/>
       <c r="O177" s="4"/>
@@ -21640,32 +21638,32 @@
     </row>
     <row r="178" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4" t="s">
-        <v>916</v>
-      </c>
-      <c r="B178" s="130" t="s">
-        <v>1060</v>
+        <v>913</v>
+      </c>
+      <c r="B178" s="117" t="s">
+        <v>707</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>1061</v>
+        <v>1203</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="E178" s="4" t="s">
-        <v>751</v>
+        <v>542</v>
+      </c>
+      <c r="E178" s="56" t="s">
+        <v>1270</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>1058</v>
+        <v>719</v>
       </c>
       <c r="H178" s="126" t="s">
-        <v>1059</v>
-      </c>
-      <c r="I178" s="128"/>
+        <v>1213</v>
+      </c>
+      <c r="I178" s="126"/>
       <c r="J178" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K178" s="4"/>
       <c r="L178" s="4" t="s">
@@ -21685,19 +21683,37 @@
     </row>
     <row r="179" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4" t="s">
-        <v>917</v>
-      </c>
-      <c r="B179" s="4"/>
-      <c r="C179" s="4"/>
-      <c r="D179" s="4"/>
-      <c r="E179" s="4"/>
-      <c r="F179" s="4"/>
-      <c r="G179" s="4"/>
-      <c r="H179" s="126"/>
+        <v>914</v>
+      </c>
+      <c r="B179" s="117" t="s">
+        <v>707</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="E179" s="56" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G179" s="4" t="s">
+        <v>1209</v>
+      </c>
+      <c r="H179" s="126" t="s">
+        <v>1210</v>
+      </c>
       <c r="I179" s="126"/>
-      <c r="J179" s="4"/>
+      <c r="J179" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K179" s="4"/>
-      <c r="L179" s="4"/>
+      <c r="L179" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M179" s="4"/>
       <c r="N179" s="4"/>
       <c r="O179" s="4"/>
@@ -21712,19 +21728,37 @@
     </row>
     <row r="180" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4" t="s">
-        <v>918</v>
-      </c>
-      <c r="B180" s="4"/>
-      <c r="C180" s="4"/>
-      <c r="D180" s="4"/>
-      <c r="E180" s="4"/>
-      <c r="F180" s="4"/>
-      <c r="G180" s="4"/>
-      <c r="H180" s="126"/>
+        <v>915</v>
+      </c>
+      <c r="B180" s="117" t="s">
+        <v>707</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G180" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="H180" s="126" t="s">
+        <v>1213</v>
+      </c>
       <c r="I180" s="126"/>
-      <c r="J180" s="4"/>
+      <c r="J180" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="K180" s="4"/>
-      <c r="L180" s="4"/>
+      <c r="L180" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M180" s="4"/>
       <c r="N180" s="4"/>
       <c r="O180" s="4"/>
@@ -21739,7 +21773,7 @@
     </row>
     <row r="181" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -21766,7 +21800,7 @@
     </row>
     <row r="182" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -21793,7 +21827,7 @@
     </row>
     <row r="183" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -21820,7 +21854,7 @@
     </row>
     <row r="184" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -21847,7 +21881,7 @@
     </row>
     <row r="185" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -21874,7 +21908,7 @@
     </row>
     <row r="186" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -21901,7 +21935,7 @@
     </row>
     <row r="187" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -21928,7 +21962,7 @@
     </row>
     <row r="188" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -21955,7 +21989,7 @@
     </row>
     <row r="189" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -21982,7 +22016,7 @@
     </row>
     <row r="190" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -22009,7 +22043,7 @@
     </row>
     <row r="191" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -22036,7 +22070,7 @@
     </row>
     <row r="192" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -22063,7 +22097,7 @@
     </row>
     <row r="193" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4" t="s">
-        <v>948</v>
+        <v>927</v>
       </c>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -22090,7 +22124,7 @@
     </row>
     <row r="194" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4" t="s">
-        <v>949</v>
+        <v>928</v>
       </c>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -22117,7 +22151,7 @@
     </row>
     <row r="195" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -22144,7 +22178,7 @@
     </row>
     <row r="196" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -22171,7 +22205,7 @@
     </row>
     <row r="197" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4" t="s">
-        <v>999</v>
+        <v>948</v>
       </c>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -22198,7 +22232,7 @@
     </row>
     <row r="198" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4" t="s">
-        <v>1000</v>
+        <v>949</v>
       </c>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -22225,7 +22259,7 @@
     </row>
     <row r="199" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -22252,7 +22286,7 @@
     </row>
     <row r="200" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -22279,7 +22313,7 @@
     </row>
     <row r="201" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -22306,7 +22340,7 @@
     </row>
     <row r="202" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -22333,7 +22367,7 @@
     </row>
     <row r="203" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -22360,7 +22394,7 @@
     </row>
     <row r="204" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -22387,7 +22421,7 @@
     </row>
     <row r="205" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -22414,7 +22448,7 @@
     </row>
     <row r="206" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -22441,7 +22475,7 @@
     </row>
     <row r="207" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -22468,7 +22502,7 @@
     </row>
     <row r="208" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4" t="s">
-        <v>1132</v>
+        <v>1006</v>
       </c>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -22495,7 +22529,7 @@
     </row>
     <row r="209" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4" t="s">
-        <v>1133</v>
+        <v>1007</v>
       </c>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -22522,7 +22556,7 @@
     </row>
     <row r="210" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -22549,7 +22583,7 @@
     </row>
     <row r="211" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -22576,7 +22610,7 @@
     </row>
     <row r="212" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -22603,7 +22637,7 @@
     </row>
     <row r="213" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -22630,7 +22664,7 @@
     </row>
     <row r="214" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -22657,7 +22691,7 @@
     </row>
     <row r="215" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -22684,7 +22718,7 @@
     </row>
     <row r="216" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -22711,7 +22745,7 @@
     </row>
     <row r="217" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -22738,7 +22772,7 @@
     </row>
     <row r="218" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -22765,7 +22799,7 @@
     </row>
     <row r="219" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -22792,7 +22826,7 @@
     </row>
     <row r="220" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -22819,7 +22853,7 @@
     </row>
     <row r="221" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -22846,7 +22880,7 @@
     </row>
     <row r="222" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -22873,7 +22907,7 @@
     </row>
     <row r="223" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -22900,7 +22934,7 @@
     </row>
     <row r="224" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -22927,7 +22961,7 @@
     </row>
     <row r="225" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -22954,7 +22988,7 @@
     </row>
     <row r="226" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -22981,7 +23015,7 @@
     </row>
     <row r="227" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -23008,7 +23042,7 @@
     </row>
     <row r="228" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -23035,7 +23069,7 @@
     </row>
     <row r="229" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -23062,7 +23096,7 @@
     </row>
     <row r="230" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -23089,7 +23123,7 @@
     </row>
     <row r="231" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -23116,7 +23150,7 @@
     </row>
     <row r="232" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -23143,7 +23177,7 @@
     </row>
     <row r="233" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -23170,7 +23204,7 @@
     </row>
     <row r="234" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -23197,7 +23231,7 @@
     </row>
     <row r="235" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -23224,7 +23258,7 @@
     </row>
     <row r="236" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -23251,7 +23285,7 @@
     </row>
     <row r="237" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -23276,6 +23310,60 @@
       <c r="V237" s="4"/>
       <c r="W237" s="4"/>
     </row>
+    <row r="238" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A238" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B238" s="4"/>
+      <c r="C238" s="4"/>
+      <c r="D238" s="4"/>
+      <c r="E238" s="4"/>
+      <c r="F238" s="4"/>
+      <c r="G238" s="4"/>
+      <c r="H238" s="126"/>
+      <c r="I238" s="126"/>
+      <c r="J238" s="4"/>
+      <c r="K238" s="4"/>
+      <c r="L238" s="4"/>
+      <c r="M238" s="4"/>
+      <c r="N238" s="4"/>
+      <c r="O238" s="4"/>
+      <c r="P238" s="4"/>
+      <c r="Q238" s="4"/>
+      <c r="R238" s="4"/>
+      <c r="S238" s="4"/>
+      <c r="T238" s="54"/>
+      <c r="U238" s="4"/>
+      <c r="V238" s="4"/>
+      <c r="W238" s="4"/>
+    </row>
+    <row r="239" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A239" s="4" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B239" s="4"/>
+      <c r="C239" s="4"/>
+      <c r="D239" s="4"/>
+      <c r="E239" s="4"/>
+      <c r="F239" s="4"/>
+      <c r="G239" s="4"/>
+      <c r="H239" s="126"/>
+      <c r="I239" s="126"/>
+      <c r="J239" s="4"/>
+      <c r="K239" s="4"/>
+      <c r="L239" s="4"/>
+      <c r="M239" s="4"/>
+      <c r="N239" s="4"/>
+      <c r="O239" s="4"/>
+      <c r="P239" s="4"/>
+      <c r="Q239" s="4"/>
+      <c r="R239" s="4"/>
+      <c r="S239" s="4"/>
+      <c r="T239" s="54"/>
+      <c r="U239" s="4"/>
+      <c r="V239" s="4"/>
+      <c r="W239" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23287,49 +23375,49 @@
           <x14:formula1>
             <xm:f>Sheet2!$M$4:$M$6</xm:f>
           </x14:formula1>
-          <xm:sqref>S3:S237</xm:sqref>
+          <xm:sqref>S3:S239</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$G$4:$G$11</xm:f>
           </x14:formula1>
-          <xm:sqref>R3:R237</xm:sqref>
+          <xm:sqref>R3:R239</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$K$4:$K$13</xm:f>
           </x14:formula1>
-          <xm:sqref>K3:K237</xm:sqref>
+          <xm:sqref>K3:K239</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$J$4:$J$9</xm:f>
           </x14:formula1>
-          <xm:sqref>Q3:Q237</xm:sqref>
+          <xm:sqref>Q3:Q239</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$G$4:$G$10</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:O237</xm:sqref>
+          <xm:sqref>M3:O239</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$F$4:$F$8</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L237</xm:sqref>
+          <xm:sqref>L3:L239</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$D$4:$D$9</xm:f>
           </x14:formula1>
-          <xm:sqref>J3:J237</xm:sqref>
+          <xm:sqref>J3:J239</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Story Point">
           <x14:formula1>
             <xm:f>'C:\Users\Omnex\Documents\[performanetools1.txt.xlsx]Data_Ref'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>P3:P237</xm:sqref>
+          <xm:sqref>P3:P239</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -23480,13 +23568,13 @@
         <v>497</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>349</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>

--- a/projects/YanFeng/02 System Design/User Stories/User Stories.xlsx
+++ b/projects/YanFeng/02 System Design/User Stories/User Stories.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3011" uniqueCount="1277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3145" uniqueCount="1362">
   <si>
     <t>ID</t>
   </si>
@@ -2748,6 +2748,18 @@
     <t>US117</t>
   </si>
   <si>
+    <t>US118</t>
+  </si>
+  <si>
+    <t>US119</t>
+  </si>
+  <si>
+    <t>US120</t>
+  </si>
+  <si>
+    <t>US121</t>
+  </si>
+  <si>
     <t>View the part information in read-only mode if the part task had been published to ASDE/SQE</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2849,16 +2861,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>I can update the attachement</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, User should see "Add Attachement" window when user clicking on "Change" in the attachement list;
-2, The attachement information should be loaded and displayed in window "Add attachement"
-3, User should be able to modify the existing attachement information;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Record unique id for each attachment</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3140,6 +3142,9 @@
   </si>
   <si>
     <t>US130</t>
+  </si>
+  <si>
+    <t>US131</t>
   </si>
   <si>
     <t>US132</t>
@@ -3737,11 +3742,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>ASDE/SQE
-Supplier</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Fill APQP task information</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -4553,21 +4553,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Upload the PSW file to PPAP main task</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I can publish the PSW file for review</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, User should see PSW file field in "Edit PPAP Main Task Information" page;
-2, User should see a link of PSW file;
-3, User should see a button "Upload";
-4, User should be able to upload the PSW file in a new pop-up window when clicking on the button "Upload";</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Add comments to PPAP main task</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -4584,17 +4569,8 @@
   </si>
   <si>
     <t xml:space="preserve">
-ASDE/SQE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
 ASDE/SQE supervisor
 ASDE/SQE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Upload the PSW file to APQP main task</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -4606,13 +4582,6 @@
 2, User should see a clickable icon "+", a new pop-up window come when clicking on icon "+"
 3, User should be able to write a comment in a new pop-up window;
 4, A new comment should be displayed in comment list when user save the comment successfully;</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1, User should see PSW file field in "Edit APQP Main Task Information" page;
-2, User should see a link of PSW file;
-3, User should see a button "Upload";
-4, User should be able to upload the PSW file in a new pop-up window when clicking on the button "Upload";</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -4681,9 +4650,6 @@
     <t>US193</t>
   </si>
   <si>
-    <t>US194</t>
-  </si>
-  <si>
     <t>US195</t>
   </si>
   <si>
@@ -4786,13 +4752,6 @@
   </si>
   <si>
     <t>I can see and allocate assignee for each PPAP task</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ASDE/SQE supervisor
-ASDE/SQE
-Supplier</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -4937,10 +4896,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Supplier</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Change APQP/PPAP task status</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -4995,10 +4950,6 @@
   </si>
   <si>
     <t>Link the corresponding functions "New Project" "Edit Existing Project" "Create New Part" "Publish a Project" "Close a project" “Generate &amp; View Report" to the floating menu of project</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASDE, SQE supervisor</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -5318,6 +5269,398 @@
   </si>
   <si>
     <t>I can export my task list to an excel file</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assign a supplier operator to a APQP/PPAP task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supplier operator can fill the APQP/PPAP information</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see field "Assignee" in "Edit APQP Task Information" and "Edit APQP Task Information"page;
+2, User should be able to select a supplier operator in field "Assignee";</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supplier
+Supplier Operator</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDE/SQE;
+Supplier
+Supplier Operator</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDE/SQE supervisor;
+ASDE/SQE
+Supplier
+Supplier Operator</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supplier
+Supplier Operator</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supplier
+Supplier Operator</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDE/SQE
+Supplier
+Supplier Operator</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ASDE/SQE supervisor
+ASDE/SQE
+Supplier
+Supplier Operator</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ASDE/SQE supervisor
+ASDE/SQE
+Supplier
+Supplier Operator</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>As a user, I want to have a timeline view of a project, so that I can see the whole project status and progress</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDE/SQE supervisor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDE/SQE supervisor
+ASDE/SQE</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project Management - Project Timeline</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see a menu "Timeline" in project menu area;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>US139</t>
+  </si>
+  <si>
+    <t>US140</t>
+  </si>
+  <si>
+    <t>US143</t>
+  </si>
+  <si>
+    <t>US144</t>
+  </si>
+  <si>
+    <t>US145</t>
+  </si>
+  <si>
+    <t>US150</t>
+  </si>
+  <si>
+    <t>US218</t>
+  </si>
+  <si>
+    <t>US219</t>
+  </si>
+  <si>
+    <t>US220</t>
+  </si>
+  <si>
+    <t>US221</t>
+  </si>
+  <si>
+    <t>US222</t>
+  </si>
+  <si>
+    <t>US223</t>
+  </si>
+  <si>
+    <t>US224</t>
+  </si>
+  <si>
+    <t>US225</t>
+  </si>
+  <si>
+    <t>US226</t>
+  </si>
+  <si>
+    <t>US227</t>
+  </si>
+  <si>
+    <t>US228</t>
+  </si>
+  <si>
+    <t>US229</t>
+  </si>
+  <si>
+    <t>US230</t>
+  </si>
+  <si>
+    <t>US231</t>
+  </si>
+  <si>
+    <t>US232</t>
+  </si>
+  <si>
+    <t>US233</t>
+  </si>
+  <si>
+    <t>US234</t>
+  </si>
+  <si>
+    <t>US235</t>
+  </si>
+  <si>
+    <t>US236</t>
+  </si>
+  <si>
+    <t>ASDE/SQE supervisor
+ASDE/SQE
+Supplier
+Supplier Operator</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Have a portal to project timeline screen</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can see the project timeline main screen</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Have the project timeline displayed by year</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">I can see the whole project schedule when the project cross the years </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see a yearly scale in project timeline page;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Have the project timeline displayed by month</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can review and check the monthly project progress</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can review and check the project main task progress</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see a monthly scale in project timeline page;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Gantt Chart of project main task in project timeline</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Gantt Chart of Part Task in project timeline</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can review and check the part task progress</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see a Gantt Chart of Project main task;
+2, ASDE/SQE supervisor should see all task;
+3, ASDE/SQE,Supplier, Supplier operator should see the Gantt chart of  task which assigned to him/her;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see a Gantt Chart of part task;
+2, ASDE/SQE supervisor should see all task;
+3, ASDE/SQE,Supplier, Supplier operator should see the Gantt chart of  task which assigned to him/her;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Gantt Chart of APQP/PPAP main Task in project timeline</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can review and check the APQP/PPAP main task progress</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see a Gantt Chart of APQP/PPAP main task;
+2, ASDE/SQE supervisor should see all task;
+4, ASDE/SQE,Supplier, Supplier operator should see the Gantt chart of  task which assigned to him/her;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Gantt Chart of APQP/PPAP Tasks in project timeline</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can review and check the APQP/PPAP tasks progress</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see a Gantt Chart of APQP/PPAP tasks;
+2, ASDE/SQE supervisor should see all task;
+5, ASDE/SQE,Supplier, Supplier operator should see the Gantt chart of  task which assigned to him/her;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can filter the tasks and display the Gantt Chart of what I selected</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see the Gantt Chart of tasks belong to the task that user selected in task tree view;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>See the Gantt Chart of tasks which are the sub tasks of the selected task in task tree view</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project Management - Project Document</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see "Add Attachement" window when user clicking on "Change" in the attachement list;
+2, The attachement information should be loaded and displayed in window "Add attachement"
+3, User should be able to modify the existing attachement information;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can update the attachement's Url</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want to have a standalone function to view project documents, so that I can review and check the documents centrally </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project Management</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDE/SQE supervisor
+ASDE/SQE
+Supplier
+Supplier Operator</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Have a portal to the screen which can display all tasks' documents</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can switch screen of display area to tasks documents</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see clickable "Document" menu in Project menu area;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>See Project main task's document in list view</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can open an document for review and reference</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Filter project main task's document</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can quickly address the document that I want to review</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see a quick search input box and a clickable search icon;
+2, User should be able to filter the documents by document name;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open a document for review in a  new pop-up window</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can view the document in DMS system</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should be able to click on the document name or URL;
+2, A new pop-up window should come, and show the content of the document from DMS;
+3, All actions to the document should be handled by DMS;
+4, User should be able to close the pop-up window;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see a document list in display area;
+2, User should select the project main task in task tree view;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>See part task's document in list view</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see a document list in display area;
+2, User should select the part task in task tree view;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Filter part task's document</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>See APQP task's document in list view</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can review and check the submission status of each document requested in APQP process</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should select APQP in task tree view;
+2, User should see APQP task list in display area;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>The APQP task list columns is defined in document &lt;&lt;APQP 电子化流程方案(主流程格式有调整，便于阅读）201801018.xlsx&gt;&gt;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can get conspicuous notification on the expired tasks;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diferentiate the submission using different colors;</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, User should see the expired submission in red;
+2, User should see the closed submission in Green;
+2, User should see the in processing and not expired submission in Yellow;</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -5476,7 +5819,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5570,6 +5913,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5724,7 +6073,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6081,6 +6430,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6604,7 +6956,7 @@
   <dimension ref="B2:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6699,7 +7051,7 @@
       </c>
       <c r="C6" s="99">
         <f>COUNTIF('Project Management'!J:J,"Critical")</f>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" s="99">
         <f>COUNTIF('Project Management'!J:J,"Very High")</f>
@@ -6707,15 +7059,15 @@
       </c>
       <c r="E6" s="99">
         <f>COUNTIF('Project Management'!J:J,"High")</f>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F6" s="99">
         <f>COUNTIF('Project Management'!J:J,"Medium")</f>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G6" s="99">
         <f>COUNTIF('Project Management'!J:J,"Low")</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H6" s="99">
         <f>COUNTIF('Project Management'!J:J,"Very Low")</f>
@@ -6723,7 +7075,7 @@
       </c>
       <c r="I6" s="99">
         <f t="shared" ref="I6:I12" si="0">SUM(C6:H6)</f>
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
@@ -6930,7 +7282,7 @@
       </c>
       <c r="C13" s="99">
         <f>SUM(C5:C12)</f>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13" s="99">
         <f t="shared" ref="D13:H13" si="1">SUM(D5:D12)</f>
@@ -6938,15 +7290,15 @@
       </c>
       <c r="E13" s="99">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F13" s="99">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G13" s="99">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H13" s="99">
         <f t="shared" si="1"/>
@@ -6960,7 +7312,7 @@
       </c>
       <c r="C14" s="130">
         <f>SUM(C13:H13)</f>
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="D14" s="130"/>
       <c r="E14" s="130"/>
@@ -9060,13 +9412,13 @@
         <v>3.4</v>
       </c>
       <c r="B36" s="113" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C36" s="113" t="s">
         <v>75</v>
       </c>
       <c r="D36" s="114" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="E36" s="75"/>
     </row>
@@ -9105,7 +9457,7 @@
         <v>3.7</v>
       </c>
       <c r="B39" s="107" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C39" s="107" t="s">
         <v>75</v>
@@ -9118,7 +9470,7 @@
         <v>3.8</v>
       </c>
       <c r="B40" s="73" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C40" s="73" t="s">
         <v>75</v>
@@ -9133,7 +9485,7 @@
         <v>3.9</v>
       </c>
       <c r="B41" s="73" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C41" s="73" t="s">
         <v>75</v>
@@ -9146,7 +9498,7 @@
         <v>510</v>
       </c>
       <c r="B42" s="110" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C42" s="110" t="s">
         <v>75</v>
@@ -9204,7 +9556,7 @@
         <v>513</v>
       </c>
       <c r="B46" s="110" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C46" s="110" t="s">
         <v>75</v>
@@ -13561,11 +13913,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W239"/>
+  <dimension ref="A1:W238"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F181" sqref="F181"/>
+      <pane ySplit="2" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I195" sqref="I195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="65.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13581,7 +13933,7 @@
     <col min="9" max="9" width="54.375" style="129" customWidth="1"/>
     <col min="10" max="10" width="9.5" style="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.625" style="16" customWidth="1"/>
     <col min="13" max="13" width="16.125" style="16" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.375" style="16" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.875" style="16" bestFit="1" customWidth="1"/>
@@ -13697,13 +14049,13 @@
     </row>
     <row r="3" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="B3" s="119" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>496</v>
@@ -13712,16 +14064,16 @@
         <v>498</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="H3" s="126" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="I3" s="125" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>43</v>
@@ -13744,13 +14096,13 @@
     </row>
     <row r="4" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="B4" s="119" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>496</v>
@@ -13759,13 +14111,13 @@
         <v>498</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="H4" s="126" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="I4" s="125"/>
       <c r="J4" s="4" t="s">
@@ -13792,10 +14144,10 @@
         <v>255</v>
       </c>
       <c r="B5" s="119" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>496</v>
@@ -13804,13 +14156,13 @@
         <v>498</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="H5" s="126" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="I5" s="125"/>
       <c r="J5" s="4" t="s">
@@ -13837,10 +14189,10 @@
         <v>256</v>
       </c>
       <c r="B6" s="119" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>496</v>
@@ -13849,16 +14201,16 @@
         <v>498</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="H6" s="126" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="I6" s="125" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>43</v>
@@ -13884,10 +14236,10 @@
         <v>257</v>
       </c>
       <c r="B7" s="119" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>496</v>
@@ -13896,13 +14248,13 @@
         <v>498</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="H7" s="126" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="I7" s="125"/>
       <c r="J7" s="4" t="s">
@@ -13932,7 +14284,7 @@
         <v>588</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>496</v>
@@ -13941,13 +14293,13 @@
         <v>498</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="H8" s="126" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="I8" s="125"/>
       <c r="J8" s="4" t="s">
@@ -13974,10 +14326,10 @@
         <v>259</v>
       </c>
       <c r="B9" s="119" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>496</v>
@@ -13986,16 +14338,16 @@
         <v>498</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="H9" s="126" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="I9" s="125" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>43</v>
@@ -14021,25 +14373,25 @@
         <v>260</v>
       </c>
       <c r="B10" s="119" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="H10" s="126" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="I10" s="125"/>
       <c r="J10" s="4" t="s">
@@ -14066,25 +14418,25 @@
         <v>261</v>
       </c>
       <c r="B11" s="119" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="H11" s="126" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="I11" s="126"/>
       <c r="J11" s="4" t="s">
@@ -14111,25 +14463,25 @@
         <v>262</v>
       </c>
       <c r="B12" s="122" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="H12" s="126" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="I12" s="126"/>
       <c r="J12" s="4" t="s">
@@ -14156,25 +14508,25 @@
         <v>263</v>
       </c>
       <c r="B13" s="122" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="H13" s="126" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="I13" s="126"/>
       <c r="J13" s="4" t="s">
@@ -14201,25 +14553,25 @@
         <v>524</v>
       </c>
       <c r="B14" s="122" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="H14" s="126" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="I14" s="126"/>
       <c r="J14" s="4" t="s">
@@ -14246,28 +14598,28 @@
         <v>267</v>
       </c>
       <c r="B15" s="122" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="H15" s="126" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="I15" s="126" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>45</v>
@@ -14293,10 +14645,10 @@
         <v>272</v>
       </c>
       <c r="B16" s="118" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>496</v>
@@ -14305,13 +14657,13 @@
         <v>498</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="H16" s="126" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="I16" s="127"/>
       <c r="J16" s="4" t="s">
@@ -14338,10 +14690,10 @@
         <v>279</v>
       </c>
       <c r="B17" s="118" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>496</v>
@@ -14350,13 +14702,13 @@
         <v>498</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="H17" s="126" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="I17" s="127"/>
       <c r="J17" s="4" t="s">
@@ -14383,10 +14735,10 @@
         <v>280</v>
       </c>
       <c r="B18" s="118" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>496</v>
@@ -14395,16 +14747,16 @@
         <v>498</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="H18" s="126" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="I18" s="127" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>44</v>
@@ -14430,10 +14782,10 @@
         <v>291</v>
       </c>
       <c r="B19" s="118" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>496</v>
@@ -14442,7 +14794,7 @@
         <v>498</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>590</v>
@@ -14477,25 +14829,25 @@
         <v>296</v>
       </c>
       <c r="B20" s="118" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="H20" s="126" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="I20" s="125"/>
       <c r="J20" s="4" t="s">
@@ -14522,10 +14874,10 @@
         <v>301</v>
       </c>
       <c r="B21" s="118" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>496</v>
@@ -14534,13 +14886,13 @@
         <v>498</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>509</v>
       </c>
       <c r="H21" s="126" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="I21" s="127"/>
       <c r="J21" s="4" t="s">
@@ -14567,10 +14919,10 @@
         <v>307</v>
       </c>
       <c r="B22" s="118" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>496</v>
@@ -14579,13 +14931,13 @@
         <v>498</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>499</v>
       </c>
       <c r="H22" s="126" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="I22" s="127" t="s">
         <v>500</v>
@@ -14614,10 +14966,10 @@
         <v>311</v>
       </c>
       <c r="B23" s="118" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>496</v>
@@ -14626,7 +14978,7 @@
         <v>498</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>501</v>
@@ -14659,10 +15011,10 @@
         <v>315</v>
       </c>
       <c r="B24" s="118" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>496</v>
@@ -14704,10 +15056,10 @@
         <v>321</v>
       </c>
       <c r="B25" s="118" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>496</v>
@@ -14749,10 +15101,10 @@
         <v>325</v>
       </c>
       <c r="B26" s="118" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>496</v>
@@ -14794,10 +15146,10 @@
         <v>352</v>
       </c>
       <c r="B27" s="118" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>496</v>
@@ -14809,7 +15161,7 @@
         <v>534</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="H27" s="126" t="s">
         <v>535</v>
@@ -14841,10 +15193,10 @@
         <v>353</v>
       </c>
       <c r="B28" s="118" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>496</v>
@@ -14886,10 +15238,10 @@
         <v>533</v>
       </c>
       <c r="B29" s="118" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>496</v>
@@ -14931,10 +15283,10 @@
         <v>363</v>
       </c>
       <c r="B30" s="118" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>496</v>
@@ -14978,10 +15330,10 @@
         <v>367</v>
       </c>
       <c r="B31" s="118" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>496</v>
@@ -15025,10 +15377,10 @@
         <v>371</v>
       </c>
       <c r="B32" s="118" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>496</v>
@@ -15072,10 +15424,10 @@
         <v>375</v>
       </c>
       <c r="B33" s="118" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>496</v>
@@ -15117,10 +15469,10 @@
         <v>379</v>
       </c>
       <c r="B34" s="118" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>496</v>
@@ -15129,16 +15481,16 @@
         <v>498</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="H34" s="126" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="I34" s="125" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>14</v>
@@ -15164,10 +15516,10 @@
         <v>383</v>
       </c>
       <c r="B35" s="118" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>496</v>
@@ -15176,13 +15528,13 @@
         <v>498</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="H35" s="126" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="I35" s="125"/>
       <c r="J35" s="4" t="s">
@@ -15209,10 +15561,10 @@
         <v>387</v>
       </c>
       <c r="B36" s="118" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>496</v>
@@ -15221,13 +15573,13 @@
         <v>498</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="H36" s="126" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="I36" s="126"/>
       <c r="J36" s="4" t="s">
@@ -15254,10 +15606,10 @@
         <v>391</v>
       </c>
       <c r="B37" s="118" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>496</v>
@@ -15266,13 +15618,13 @@
         <v>498</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="H37" s="126" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="I37" s="126"/>
       <c r="J37" s="4" t="s">
@@ -15299,10 +15651,10 @@
         <v>395</v>
       </c>
       <c r="B38" s="118" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>496</v>
@@ -15311,13 +15663,13 @@
         <v>498</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="H38" s="126" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="I38" s="126"/>
       <c r="J38" s="4" t="s">
@@ -15344,10 +15696,10 @@
         <v>400</v>
       </c>
       <c r="B39" s="118" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>496</v>
@@ -15356,13 +15708,13 @@
         <v>498</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>695</v>
+        <v>1336</v>
       </c>
       <c r="H39" s="126" t="s">
-        <v>696</v>
+        <v>1335</v>
       </c>
       <c r="I39" s="126"/>
       <c r="J39" s="4" t="s">
@@ -15389,10 +15741,10 @@
         <v>404</v>
       </c>
       <c r="B40" s="118" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>593</v>
@@ -15401,13 +15753,13 @@
         <v>594</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="H40" s="126" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="I40" s="126" t="s">
         <v>596</v>
@@ -15436,10 +15788,10 @@
         <v>408</v>
       </c>
       <c r="B41" s="118" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>593</v>
@@ -15451,10 +15803,10 @@
         <v>597</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="H41" s="126" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="I41" s="126"/>
       <c r="J41" s="4" t="s">
@@ -15481,10 +15833,10 @@
         <v>411</v>
       </c>
       <c r="B42" s="118" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>496</v>
@@ -15526,10 +15878,10 @@
         <v>416</v>
       </c>
       <c r="B43" s="118" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="D43" s="40" t="s">
         <v>496</v>
@@ -15538,13 +15890,13 @@
         <v>498</v>
       </c>
       <c r="F43" s="40" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="G43" s="40" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H43" s="125" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="I43" s="126"/>
       <c r="J43" s="4" t="s">
@@ -15571,10 +15923,10 @@
         <v>420</v>
       </c>
       <c r="B44" s="120" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>496</v>
@@ -15583,13 +15935,13 @@
         <v>498</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="H44" s="126" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="I44" s="125"/>
       <c r="J44" s="4" t="s">
@@ -15616,10 +15968,10 @@
         <v>424</v>
       </c>
       <c r="B45" s="120" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>496</v>
@@ -15628,13 +15980,13 @@
         <v>498</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="H45" s="126" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="I45" s="125"/>
       <c r="J45" s="4" t="s">
@@ -15661,10 +16013,10 @@
         <v>427</v>
       </c>
       <c r="B46" s="120" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>496</v>
@@ -15676,10 +16028,10 @@
         <v>519</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="H46" s="126" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="I46" s="126" t="s">
         <v>616</v>
@@ -15708,10 +16060,10 @@
         <v>432</v>
       </c>
       <c r="B47" s="120" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>496</v>
@@ -15726,7 +16078,7 @@
         <v>521</v>
       </c>
       <c r="H47" s="126" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="I47" s="126" t="s">
         <v>522</v>
@@ -15755,10 +16107,10 @@
         <v>438</v>
       </c>
       <c r="B48" s="120" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>496</v>
@@ -15767,13 +16119,13 @@
         <v>498</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="H48" s="126" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="I48" s="126"/>
       <c r="J48" s="4" t="s">
@@ -15800,10 +16152,10 @@
         <v>444</v>
       </c>
       <c r="B49" s="120" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>496</v>
@@ -15812,13 +16164,13 @@
         <v>498</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="H49" s="126" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="I49" s="126"/>
       <c r="J49" s="4" t="s">
@@ -15845,10 +16197,10 @@
         <v>445</v>
       </c>
       <c r="B50" s="120" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>496</v>
@@ -15857,13 +16209,13 @@
         <v>498</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="H50" s="126" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="I50" s="126"/>
       <c r="J50" s="4" t="s">
@@ -15890,10 +16242,10 @@
         <v>452</v>
       </c>
       <c r="B51" s="120" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>593</v>
@@ -15902,13 +16254,13 @@
         <v>594</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="H51" s="126" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="I51" s="126"/>
       <c r="J51" s="4" t="s">
@@ -15935,10 +16287,10 @@
         <v>456</v>
       </c>
       <c r="B52" s="120" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>593</v>
@@ -15980,10 +16332,10 @@
         <v>461</v>
       </c>
       <c r="B53" s="120" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>496</v>
@@ -15992,13 +16344,13 @@
         <v>498</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="H53" s="126" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="I53" s="126"/>
       <c r="J53" s="4" t="s">
@@ -16025,10 +16377,10 @@
         <v>465</v>
       </c>
       <c r="B54" s="120" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>593</v>
@@ -16072,25 +16424,25 @@
         <v>468</v>
       </c>
       <c r="B55" s="120" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="H55" s="126" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="I55" s="125"/>
       <c r="J55" s="4" t="s">
@@ -16117,25 +16469,25 @@
         <v>473</v>
       </c>
       <c r="B56" s="120" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>593</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="H56" s="126" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="I56" s="126"/>
       <c r="J56" s="4" t="s">
@@ -16162,10 +16514,10 @@
         <v>476</v>
       </c>
       <c r="B57" s="120" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>496</v>
@@ -16174,7 +16526,7 @@
         <v>498</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>525</v>
@@ -16207,10 +16559,10 @@
         <v>479</v>
       </c>
       <c r="B58" s="120" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>496</v>
@@ -16252,10 +16604,10 @@
         <v>483</v>
       </c>
       <c r="B59" s="120" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>496</v>
@@ -16297,10 +16649,10 @@
         <v>617</v>
       </c>
       <c r="B60" s="120" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>496</v>
@@ -16342,10 +16694,10 @@
         <v>618</v>
       </c>
       <c r="B61" s="120" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>496</v>
@@ -16387,10 +16739,10 @@
         <v>619</v>
       </c>
       <c r="B62" s="120" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>496</v>
@@ -16432,10 +16784,10 @@
         <v>620</v>
       </c>
       <c r="B63" s="120" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>496</v>
@@ -16444,7 +16796,7 @@
         <v>498</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>523</v>
@@ -16477,10 +16829,10 @@
         <v>621</v>
       </c>
       <c r="B64" s="120" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>496</v>
@@ -16489,7 +16841,7 @@
         <v>498</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>565</v>
@@ -16522,10 +16874,10 @@
         <v>622</v>
       </c>
       <c r="B65" s="120" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>496</v>
@@ -16567,10 +16919,10 @@
         <v>623</v>
       </c>
       <c r="B66" s="120" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>496</v>
@@ -16612,10 +16964,10 @@
         <v>624</v>
       </c>
       <c r="B67" s="120" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>593</v>
@@ -16627,10 +16979,10 @@
         <v>598</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="H67" s="126" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="I67" s="126"/>
       <c r="J67" s="4" t="s">
@@ -16654,13 +17006,13 @@
     </row>
     <row r="68" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B68" s="120" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>496</v>
@@ -16669,13 +17021,13 @@
         <v>498</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="H68" s="126" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="I68" s="128"/>
       <c r="J68" s="4" t="s">
@@ -16702,25 +17054,25 @@
         <v>625</v>
       </c>
       <c r="B69" s="121" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="H69" s="126" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="I69" s="128"/>
       <c r="J69" s="4" t="s">
@@ -16747,10 +17099,10 @@
         <v>626</v>
       </c>
       <c r="B70" s="121" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>496</v>
@@ -16759,13 +17111,13 @@
         <v>498</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="H70" s="126" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="I70" s="128"/>
       <c r="J70" s="4" t="s">
@@ -16792,10 +17144,10 @@
         <v>627</v>
       </c>
       <c r="B71" s="121" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>496</v>
@@ -16804,16 +17156,16 @@
         <v>498</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="G71" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="H71" s="126" t="s">
         <v>968</v>
       </c>
-      <c r="H71" s="126" t="s">
-        <v>966</v>
-      </c>
       <c r="I71" s="128" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>44</v>
@@ -16839,28 +17191,28 @@
         <v>628</v>
       </c>
       <c r="B72" s="121" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="H72" s="126" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="I72" s="128" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="J72" s="4" t="s">
         <v>44</v>
@@ -16886,28 +17238,28 @@
         <v>629</v>
       </c>
       <c r="B73" s="121" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="H73" s="126" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="I73" s="128" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>44</v>
@@ -16933,28 +17285,28 @@
         <v>630</v>
       </c>
       <c r="B74" s="121" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="H74" s="126" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="I74" s="128" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="J74" s="4" t="s">
         <v>44</v>
@@ -16980,25 +17332,25 @@
         <v>631</v>
       </c>
       <c r="B75" s="121" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="H75" s="126" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="I75" s="128"/>
       <c r="J75" s="4" t="s">
@@ -17025,28 +17377,28 @@
         <v>632</v>
       </c>
       <c r="B76" s="121" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E76" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H76" s="126" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I76" s="128" t="s">
         <v>1016</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>1015</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>1012</v>
-      </c>
-      <c r="H76" s="126" t="s">
-        <v>1013</v>
-      </c>
-      <c r="I76" s="128" t="s">
-        <v>1014</v>
       </c>
       <c r="J76" s="4" t="s">
         <v>14</v>
@@ -17072,10 +17424,10 @@
         <v>633</v>
       </c>
       <c r="B77" s="121" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>496</v>
@@ -17084,13 +17436,13 @@
         <v>498</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="H77" s="126" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="I77" s="128"/>
       <c r="J77" s="4" t="s">
@@ -17117,25 +17469,25 @@
         <v>634</v>
       </c>
       <c r="B78" s="121" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="H78" s="126" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="I78" s="128"/>
       <c r="J78" s="4" t="s">
@@ -17162,28 +17514,28 @@
         <v>635</v>
       </c>
       <c r="B79" s="121" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="H79" s="126" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="I79" s="128" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="J79" s="4" t="s">
         <v>45</v>
@@ -17209,28 +17561,28 @@
         <v>636</v>
       </c>
       <c r="B80" s="121" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="H80" s="126" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="I80" s="128" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="J80" s="4" t="s">
         <v>45</v>
@@ -17256,28 +17608,28 @@
         <v>637</v>
       </c>
       <c r="B81" s="121" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="H81" s="126" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="I81" s="128" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="J81" s="4" t="s">
         <v>45</v>
@@ -17300,28 +17652,28 @@
     </row>
     <row r="82" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
-        <v>914</v>
+        <v>638</v>
       </c>
       <c r="B82" s="121" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="H82" s="126" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="I82" s="128"/>
       <c r="J82" s="4" t="s">
@@ -17345,28 +17697,28 @@
     </row>
     <row r="83" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
-        <v>915</v>
+        <v>639</v>
       </c>
       <c r="B83" s="121" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>1272</v>
+        <v>1264</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>1273</v>
+        <v>1265</v>
       </c>
       <c r="H83" s="126" t="s">
-        <v>1274</v>
+        <v>1266</v>
       </c>
       <c r="I83" s="128"/>
       <c r="J83" s="4" t="s">
@@ -17390,25 +17742,25 @@
     </row>
     <row r="84" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
-        <v>916</v>
+        <v>640</v>
       </c>
       <c r="B84" s="121" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>496</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>1275</v>
+        <v>1267</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>1276</v>
+        <v>1268</v>
       </c>
       <c r="H84" s="126"/>
       <c r="I84" s="128"/>
@@ -17433,29 +17785,29 @@
     </row>
     <row r="85" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B85" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>542</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="H85" s="126"/>
       <c r="I85" s="126" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="J85" s="4" t="s">
         <v>43</v>
@@ -17478,29 +17830,29 @@
     </row>
     <row r="86" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B86" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>542</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="H86" s="126"/>
       <c r="I86" s="126" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="J86" s="4" t="s">
         <v>43</v>
@@ -17523,29 +17875,29 @@
     </row>
     <row r="87" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B87" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>542</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="H87" s="126"/>
       <c r="I87" s="126" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>43</v>
@@ -17568,29 +17920,29 @@
     </row>
     <row r="88" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="B88" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>542</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="H88" s="126"/>
       <c r="I88" s="126" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="J88" s="4" t="s">
         <v>43</v>
@@ -17613,31 +17965,31 @@
     </row>
     <row r="89" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="B89" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="H89" s="126" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="I89" s="126" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="J89" s="4" t="s">
         <v>43</v>
@@ -17660,29 +18012,29 @@
     </row>
     <row r="90" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="B90" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>542</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="H90" s="126"/>
       <c r="I90" s="126" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="J90" s="4" t="s">
         <v>44</v>
@@ -17705,28 +18057,28 @@
     </row>
     <row r="91" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B91" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="H91" s="126" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="I91" s="126"/>
       <c r="J91" s="4" t="s">
@@ -17750,25 +18102,25 @@
     </row>
     <row r="92" spans="1:23" s="116" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B92" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C92" s="56" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D92" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E92" s="56" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="F92" s="40" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="G92" s="56" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="H92" s="128"/>
       <c r="I92" s="128"/>
@@ -17793,28 +18145,28 @@
     </row>
     <row r="93" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B93" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D93" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E93" s="56" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="F93" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="H93" s="126" t="s">
         <v>847</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>850</v>
-      </c>
-      <c r="H93" s="126" t="s">
-        <v>844</v>
       </c>
       <c r="I93" s="126"/>
       <c r="J93" s="4" t="s">
@@ -17838,28 +18190,28 @@
     </row>
     <row r="94" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="B94" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D94" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E94" s="56" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="H94" s="126" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="I94" s="126"/>
       <c r="J94" s="4" t="s">
@@ -17883,28 +18235,28 @@
     </row>
     <row r="95" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="B95" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D95" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E95" s="56" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="H95" s="126" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="I95" s="126"/>
       <c r="J95" s="4" t="s">
@@ -17928,28 +18280,28 @@
     </row>
     <row r="96" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="B96" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D96" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E96" s="56" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="F96" s="40" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="H96" s="126" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="I96" s="126"/>
       <c r="J96" s="4" t="s">
@@ -17973,28 +18325,28 @@
     </row>
     <row r="97" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="B97" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D97" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E97" s="56" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="H97" s="126" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="I97" s="126"/>
       <c r="J97" s="4" t="s">
@@ -18018,28 +18370,28 @@
     </row>
     <row r="98" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="B98" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D98" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E98" s="56" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="H98" s="126" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="I98" s="126"/>
       <c r="J98" s="4" t="s">
@@ -18063,28 +18415,28 @@
     </row>
     <row r="99" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
-        <v>652</v>
+        <v>1123</v>
       </c>
       <c r="B99" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D99" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E99" s="56" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="H99" s="126" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="I99" s="126"/>
       <c r="J99" s="4" t="s">
@@ -18108,28 +18460,28 @@
     </row>
     <row r="100" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B100" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D100" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E100" s="56" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="H100" s="126" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="I100" s="126"/>
       <c r="J100" s="4" t="s">
@@ -18153,28 +18505,28 @@
     </row>
     <row r="101" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B101" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D101" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E101" s="56" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G101" s="4" t="s">
         <v>1077</v>
       </c>
-      <c r="F101" s="4" t="s">
-        <v>1081</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>1075</v>
-      </c>
       <c r="H101" s="126" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="I101" s="126"/>
       <c r="J101" s="4" t="s">
@@ -18198,28 +18550,28 @@
     </row>
     <row r="102" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
-        <v>1127</v>
+        <v>657</v>
       </c>
       <c r="B102" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D102" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E102" s="56" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="H102" s="126" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="I102" s="126"/>
       <c r="J102" s="4" t="s">
@@ -18243,28 +18595,28 @@
     </row>
     <row r="103" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
-        <v>655</v>
+        <v>1099</v>
       </c>
       <c r="B103" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D103" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E103" s="56" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="H103" s="126" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="I103" s="126"/>
       <c r="J103" s="4" t="s">
@@ -18288,28 +18640,28 @@
     </row>
     <row r="104" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B104" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D104" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E104" s="56" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="H104" s="126" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="I104" s="126"/>
       <c r="J104" s="4" t="s">
@@ -18333,28 +18685,28 @@
     </row>
     <row r="105" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B105" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D105" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E105" s="56" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="H105" s="126" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="I105" s="126"/>
       <c r="J105" s="4" t="s">
@@ -18378,28 +18730,28 @@
     </row>
     <row r="106" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
-        <v>1097</v>
+        <v>660</v>
       </c>
       <c r="B106" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D106" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E106" s="56" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="H106" s="126" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="I106" s="126"/>
       <c r="J106" s="4" t="s">
@@ -18423,28 +18775,28 @@
     </row>
     <row r="107" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B107" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D107" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E107" s="56" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="H107" s="126" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="I107" s="126"/>
       <c r="J107" s="4" t="s">
@@ -18468,28 +18820,28 @@
     </row>
     <row r="108" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
-        <v>659</v>
+        <v>1114</v>
       </c>
       <c r="B108" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D108" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E108" s="56" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="H108" s="126" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="I108" s="126"/>
       <c r="J108" s="4" t="s">
@@ -18513,28 +18865,28 @@
     </row>
     <row r="109" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B109" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D109" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E109" s="56" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="H109" s="126" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
       <c r="I109" s="126"/>
       <c r="J109" s="4" t="s">
@@ -18558,28 +18910,28 @@
     </row>
     <row r="110" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B110" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D110" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E110" s="56" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G110" s="4" t="s">
         <v>1077</v>
       </c>
-      <c r="F110" s="4" t="s">
-        <v>1084</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>1075</v>
-      </c>
       <c r="H110" s="126" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="I110" s="126"/>
       <c r="J110" s="4" t="s">
@@ -18603,28 +18955,28 @@
     </row>
     <row r="111" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
-        <v>1118</v>
+        <v>664</v>
       </c>
       <c r="B111" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>1217</v>
+        <v>1209</v>
       </c>
       <c r="D111" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E111" s="56" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>1218</v>
+        <v>1210</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
       <c r="H111" s="126" t="s">
-        <v>1221</v>
+        <v>1213</v>
       </c>
       <c r="I111" s="126"/>
       <c r="J111" s="4" t="s">
@@ -18648,28 +19000,28 @@
     </row>
     <row r="112" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B112" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>1217</v>
+        <v>1209</v>
       </c>
       <c r="D112" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E112" s="56" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>1222</v>
+        <v>1214</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>1223</v>
+        <v>1215</v>
       </c>
       <c r="H112" s="126" t="s">
-        <v>1224</v>
+        <v>1216</v>
       </c>
       <c r="I112" s="126"/>
       <c r="J112" s="4" t="s">
@@ -18693,28 +19045,28 @@
     </row>
     <row r="113" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="B113" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>1217</v>
+        <v>1209</v>
       </c>
       <c r="D113" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E113" s="56" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>1225</v>
+        <v>1217</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>1226</v>
+        <v>1218</v>
       </c>
       <c r="H113" s="126" t="s">
-        <v>1227</v>
+        <v>1219</v>
       </c>
       <c r="I113" s="126"/>
       <c r="J113" s="4" t="s">
@@ -18738,28 +19090,28 @@
     </row>
     <row r="114" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="B114" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>1217</v>
+        <v>1209</v>
       </c>
       <c r="D114" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E114" s="56" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>1228</v>
+        <v>1220</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>1229</v>
+        <v>1221</v>
       </c>
       <c r="H114" s="126" t="s">
-        <v>1230</v>
+        <v>1222</v>
       </c>
       <c r="I114" s="126"/>
       <c r="J114" s="4" t="s">
@@ -18783,28 +19135,28 @@
     </row>
     <row r="115" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
-        <v>1118</v>
+        <v>668</v>
       </c>
       <c r="B115" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>1217</v>
+        <v>1209</v>
       </c>
       <c r="D115" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E115" s="56" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>1231</v>
+        <v>1223</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>1233</v>
+        <v>1225</v>
       </c>
       <c r="H115" s="126" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="I115" s="126"/>
       <c r="J115" s="4" t="s">
@@ -18828,28 +19180,28 @@
     </row>
     <row r="116" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="B116" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>1217</v>
+        <v>1209</v>
       </c>
       <c r="D116" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E116" s="56" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>1234</v>
+        <v>1226</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>1235</v>
+        <v>1227</v>
       </c>
       <c r="H116" s="126" t="s">
-        <v>1236</v>
+        <v>1228</v>
       </c>
       <c r="I116" s="126"/>
       <c r="J116" s="4" t="s">
@@ -18873,28 +19225,28 @@
     </row>
     <row r="117" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="B117" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>1217</v>
+        <v>1209</v>
       </c>
       <c r="D117" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E117" s="56" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>1225</v>
+        <v>1217</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>1237</v>
+        <v>1229</v>
       </c>
       <c r="H117" s="126" t="s">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="I117" s="126"/>
       <c r="J117" s="4" t="s">
@@ -18918,28 +19270,28 @@
     </row>
     <row r="118" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="B118" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>1217</v>
+        <v>1209</v>
       </c>
       <c r="D118" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E118" s="56" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>1240</v>
+        <v>1232</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>1239</v>
+        <v>1231</v>
       </c>
       <c r="H118" s="126" t="s">
-        <v>1230</v>
+        <v>1222</v>
       </c>
       <c r="I118" s="126"/>
       <c r="J118" s="4" t="s">
@@ -18963,28 +19315,28 @@
     </row>
     <row r="119" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
-        <v>1118</v>
+        <v>672</v>
       </c>
       <c r="B119" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D119" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E119" s="56" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="H119" s="126" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="I119" s="126"/>
       <c r="J119" s="4" t="s">
@@ -19008,28 +19360,28 @@
     </row>
     <row r="120" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
-        <v>662</v>
+        <v>673</v>
       </c>
       <c r="B120" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D120" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E120" s="56" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="H120" s="126" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="I120" s="126"/>
       <c r="J120" s="4" t="s">
@@ -19053,28 +19405,28 @@
     </row>
     <row r="121" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
       <c r="B121" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D121" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E121" s="56" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="H121" s="126" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="I121" s="126"/>
       <c r="J121" s="4" t="s">
@@ -19098,28 +19450,28 @@
     </row>
     <row r="122" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
       <c r="B122" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D122" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E122" s="56" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="H122" s="126" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="I122" s="126"/>
       <c r="J122" s="4" t="s">
@@ -19143,28 +19495,28 @@
     </row>
     <row r="123" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="B123" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D123" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E123" s="56" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="H123" s="126" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="I123" s="126"/>
       <c r="J123" s="4" t="s">
@@ -19188,28 +19540,28 @@
     </row>
     <row r="124" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
-        <v>768</v>
+        <v>680</v>
       </c>
       <c r="B124" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>542</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="H124" s="126" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="I124" s="126"/>
       <c r="J124" s="4" t="s">
@@ -19233,28 +19585,28 @@
     </row>
     <row r="125" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
-        <v>665</v>
+        <v>681</v>
       </c>
       <c r="B125" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D125" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E125" s="56" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="H125" s="126" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="I125" s="126"/>
       <c r="J125" s="4" t="s">
@@ -19278,31 +19630,31 @@
     </row>
     <row r="126" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
-        <v>666</v>
+        <v>722</v>
       </c>
       <c r="B126" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D126" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E126" s="56" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="H126" s="126" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="I126" s="126" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="J126" s="4" t="s">
         <v>44</v>
@@ -19325,28 +19677,28 @@
     </row>
     <row r="127" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
-        <v>667</v>
+        <v>723</v>
       </c>
       <c r="B127" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D127" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E127" s="56" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="H127" s="126" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="I127" s="126"/>
       <c r="J127" s="4" t="s">
@@ -19370,28 +19722,28 @@
     </row>
     <row r="128" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
-        <v>668</v>
+        <v>724</v>
       </c>
       <c r="B128" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D128" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E128" s="56" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="H128" s="126" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="I128" s="126"/>
       <c r="J128" s="4" t="s">
@@ -19415,28 +19767,28 @@
     </row>
     <row r="129" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4" t="s">
-        <v>669</v>
+        <v>725</v>
       </c>
       <c r="B129" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D129" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E129" s="56" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>1263</v>
+        <v>1255</v>
       </c>
       <c r="H129" s="126" t="s">
-        <v>1264</v>
+        <v>1256</v>
       </c>
       <c r="I129" s="126"/>
       <c r="J129" s="4" t="s">
@@ -19460,28 +19812,28 @@
     </row>
     <row r="130" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4" t="s">
-        <v>669</v>
+        <v>726</v>
       </c>
       <c r="B130" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D130" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E130" s="56" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="F130" s="4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H130" s="126" t="s">
         <v>1121</v>
-      </c>
-      <c r="G130" s="4" t="s">
-        <v>1122</v>
-      </c>
-      <c r="H130" s="126" t="s">
-        <v>1125</v>
       </c>
       <c r="I130" s="126"/>
       <c r="J130" s="4" t="s">
@@ -19505,28 +19857,28 @@
     </row>
     <row r="131" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4" t="s">
-        <v>669</v>
+        <v>727</v>
       </c>
       <c r="B131" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D131" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E131" s="56" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>1241</v>
+        <v>1233</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>1242</v>
+        <v>1234</v>
       </c>
       <c r="H131" s="126" t="s">
-        <v>1243</v>
+        <v>1235</v>
       </c>
       <c r="I131" s="126"/>
       <c r="J131" s="4" t="s">
@@ -19550,28 +19902,28 @@
     </row>
     <row r="132" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4" t="s">
-        <v>670</v>
+        <v>764</v>
       </c>
       <c r="B132" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D132" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E132" s="56" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="H132" s="126" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="I132" s="126"/>
       <c r="J132" s="4" t="s">
@@ -19595,32 +19947,32 @@
     </row>
     <row r="133" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4" t="s">
-        <v>671</v>
+        <v>765</v>
       </c>
       <c r="B133" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D133" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E133" s="56" t="s">
-        <v>1244</v>
+        <v>1236</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="H133" s="126" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="I133" s="126"/>
       <c r="J133" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K133" s="4"/>
       <c r="L133" s="4" t="s">
@@ -19640,28 +19992,28 @@
     </row>
     <row r="134" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4" t="s">
-        <v>672</v>
+        <v>766</v>
       </c>
       <c r="B134" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D134" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E134" s="56" t="s">
-        <v>1244</v>
+        <v>1170</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>1115</v>
+        <v>1171</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>1110</v>
+        <v>1077</v>
       </c>
       <c r="H134" s="126" t="s">
-        <v>1116</v>
+        <v>1078</v>
       </c>
       <c r="I134" s="126"/>
       <c r="J134" s="4" t="s">
@@ -19685,32 +20037,32 @@
     </row>
     <row r="135" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
-        <v>661</v>
+        <v>767</v>
       </c>
       <c r="B135" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D135" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E135" s="56" t="s">
-        <v>1176</v>
+        <v>1240</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>1177</v>
+        <v>1237</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>1075</v>
+        <v>1238</v>
       </c>
       <c r="H135" s="126" t="s">
-        <v>1076</v>
+        <v>1239</v>
       </c>
       <c r="I135" s="126"/>
       <c r="J135" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K135" s="4"/>
       <c r="L135" s="4" t="s">
@@ -19730,28 +20082,28 @@
     </row>
     <row r="136" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4" t="s">
-        <v>1118</v>
+        <v>768</v>
       </c>
       <c r="B136" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D136" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E136" s="56" t="s">
-        <v>1248</v>
+        <v>1241</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="H136" s="126" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="I136" s="126"/>
       <c r="J136" s="4" t="s">
@@ -19775,28 +20127,28 @@
     </row>
     <row r="137" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4" t="s">
-        <v>662</v>
+        <v>769</v>
       </c>
       <c r="B137" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D137" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E137" s="56" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>1250</v>
+        <v>865</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>1251</v>
+        <v>866</v>
       </c>
       <c r="H137" s="126" t="s">
-        <v>1252</v>
+        <v>867</v>
       </c>
       <c r="I137" s="126"/>
       <c r="J137" s="4" t="s">
@@ -19820,32 +20172,32 @@
     </row>
     <row r="138" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4" t="s">
-        <v>676</v>
+        <v>770</v>
       </c>
       <c r="B138" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D138" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E138" s="56" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>862</v>
+        <v>1090</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>863</v>
+        <v>1091</v>
       </c>
       <c r="H138" s="126" t="s">
-        <v>864</v>
+        <v>1092</v>
       </c>
       <c r="I138" s="126"/>
       <c r="J138" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K138" s="4"/>
       <c r="L138" s="4" t="s">
@@ -19865,32 +20217,32 @@
     </row>
     <row r="139" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4" t="s">
-        <v>677</v>
+        <v>771</v>
       </c>
       <c r="B139" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D139" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E139" s="56" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>1088</v>
+        <v>1020</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>1089</v>
+        <v>1021</v>
       </c>
       <c r="H139" s="126" t="s">
-        <v>1090</v>
+        <v>1022</v>
       </c>
       <c r="I139" s="126"/>
       <c r="J139" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K139" s="4"/>
       <c r="L139" s="4" t="s">
@@ -19910,28 +20262,28 @@
     </row>
     <row r="140" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4" t="s">
-        <v>720</v>
+        <v>772</v>
       </c>
       <c r="B140" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D140" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E140" s="56" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>1018</v>
+        <v>1023</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="H140" s="126" t="s">
-        <v>1020</v>
+        <v>870</v>
       </c>
       <c r="I140" s="126"/>
       <c r="J140" s="4" t="s">
@@ -19955,32 +20307,34 @@
     </row>
     <row r="141" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
-        <v>721</v>
+        <v>1285</v>
       </c>
       <c r="B141" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D141" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E141" s="56" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>1021</v>
+        <v>1103</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>1022</v>
+        <v>1104</v>
       </c>
       <c r="H141" s="126" t="s">
-        <v>867</v>
-      </c>
-      <c r="I141" s="126"/>
+        <v>1102</v>
+      </c>
+      <c r="I141" s="126" t="s">
+        <v>1105</v>
+      </c>
       <c r="J141" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K141" s="4"/>
       <c r="L141" s="4" t="s">
@@ -20000,34 +20354,32 @@
     </row>
     <row r="142" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
-        <v>722</v>
+        <v>1286</v>
       </c>
       <c r="B142" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D142" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E142" s="56" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>1101</v>
+        <v>904</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="H142" s="126" t="s">
-        <v>1100</v>
-      </c>
-      <c r="I142" s="126" t="s">
-        <v>1103</v>
-      </c>
+        <v>906</v>
+      </c>
+      <c r="I142" s="126"/>
       <c r="J142" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K142" s="4"/>
       <c r="L142" s="4" t="s">
@@ -20047,28 +20399,28 @@
     </row>
     <row r="143" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
-        <v>723</v>
+        <v>773</v>
       </c>
       <c r="B143" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D143" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E143" s="56" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="H143" s="126" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="I143" s="126"/>
       <c r="J143" s="4" t="s">
@@ -20092,28 +20444,28 @@
     </row>
     <row r="144" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
-        <v>724</v>
+        <v>774</v>
       </c>
       <c r="B144" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D144" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E144" s="56" t="s">
-        <v>1254</v>
+        <v>1240</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>902</v>
+        <v>1250</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>1105</v>
+        <v>1252</v>
       </c>
       <c r="H144" s="126" t="s">
-        <v>904</v>
+        <v>1239</v>
       </c>
       <c r="I144" s="126"/>
       <c r="J144" s="4" t="s">
@@ -20137,28 +20489,28 @@
     </row>
     <row r="145" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
-        <v>1118</v>
+        <v>1287</v>
       </c>
       <c r="B145" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D145" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E145" s="56" t="s">
-        <v>1248</v>
+        <v>1241</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>1260</v>
+        <v>1253</v>
       </c>
       <c r="H145" s="126" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="I145" s="126"/>
       <c r="J145" s="4" t="s">
@@ -20182,32 +20534,32 @@
     </row>
     <row r="146" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4" t="s">
-        <v>662</v>
+        <v>1288</v>
       </c>
       <c r="B146" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D146" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E146" s="56" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>1247</v>
+      </c>
+      <c r="G146" s="4" t="s">
         <v>1249</v>
       </c>
-      <c r="F146" s="4" t="s">
-        <v>1259</v>
-      </c>
-      <c r="G146" s="4" t="s">
-        <v>1261</v>
-      </c>
       <c r="H146" s="126" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="I146" s="126"/>
       <c r="J146" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K146" s="4"/>
       <c r="L146" s="4" t="s">
@@ -20227,30 +20579,32 @@
     </row>
     <row r="147" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4" t="s">
-        <v>669</v>
+        <v>1289</v>
       </c>
       <c r="B147" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D147" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E147" s="56" t="s">
-        <v>712</v>
+        <v>1279</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>1255</v>
+        <v>1161</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>1257</v>
+        <v>1162</v>
       </c>
       <c r="H147" s="126" t="s">
-        <v>1256</v>
-      </c>
-      <c r="I147" s="126"/>
+        <v>1166</v>
+      </c>
+      <c r="I147" s="126" t="s">
+        <v>1163</v>
+      </c>
       <c r="J147" s="4" t="s">
         <v>45</v>
       </c>
@@ -20272,32 +20626,30 @@
     </row>
     <row r="148" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="B148" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D148" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E148" s="56" t="s">
-        <v>1166</v>
+        <v>1278</v>
       </c>
       <c r="F148" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="H148" s="126" t="s">
         <v>1167</v>
       </c>
-      <c r="G148" s="4" t="s">
-        <v>1168</v>
-      </c>
-      <c r="H148" s="126" t="s">
-        <v>1172</v>
-      </c>
-      <c r="I148" s="126" t="s">
-        <v>1169</v>
-      </c>
+      <c r="I148" s="126"/>
       <c r="J148" s="4" t="s">
         <v>45</v>
       </c>
@@ -20319,32 +20671,32 @@
     </row>
     <row r="149" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4" t="s">
-        <v>762</v>
+        <v>776</v>
       </c>
       <c r="B149" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D149" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E149" s="56" t="s">
-        <v>1166</v>
+        <v>1111</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>1170</v>
+        <v>1257</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>1171</v>
+        <v>1258</v>
       </c>
       <c r="H149" s="126" t="s">
-        <v>1173</v>
+        <v>1259</v>
       </c>
       <c r="I149" s="126"/>
       <c r="J149" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K149" s="4"/>
       <c r="L149" s="4" t="s">
@@ -20364,32 +20716,32 @@
     </row>
     <row r="150" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4" t="s">
-        <v>669</v>
+        <v>777</v>
       </c>
       <c r="B150" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D150" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E150" s="56" t="s">
-        <v>1113</v>
+        <v>1236</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>1265</v>
+        <v>1108</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>1266</v>
+        <v>1109</v>
       </c>
       <c r="H150" s="126" t="s">
-        <v>1267</v>
+        <v>1110</v>
       </c>
       <c r="I150" s="126"/>
       <c r="J150" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K150" s="4"/>
       <c r="L150" s="4" t="s">
@@ -20409,32 +20761,32 @@
     </row>
     <row r="151" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4" t="s">
-        <v>725</v>
+        <v>778</v>
       </c>
       <c r="B151" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D151" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E151" s="56" t="s">
-        <v>1112</v>
+        <v>1170</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>1106</v>
+        <v>1172</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>1107</v>
+        <v>1077</v>
       </c>
       <c r="H151" s="126" t="s">
-        <v>1108</v>
+        <v>1078</v>
       </c>
       <c r="I151" s="126"/>
       <c r="J151" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K151" s="4"/>
       <c r="L151" s="4" t="s">
@@ -20454,32 +20806,32 @@
     </row>
     <row r="152" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4" t="s">
-        <v>762</v>
+        <v>1290</v>
       </c>
       <c r="B152" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D152" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E152" s="56" t="s">
-        <v>1244</v>
+        <v>1207</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>1109</v>
+        <v>1245</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>1110</v>
+        <v>1208</v>
       </c>
       <c r="H152" s="126" t="s">
-        <v>1111</v>
+        <v>1260</v>
       </c>
       <c r="I152" s="126"/>
       <c r="J152" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K152" s="4"/>
       <c r="L152" s="4" t="s">
@@ -20499,32 +20851,32 @@
     </row>
     <row r="153" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4" t="s">
-        <v>661</v>
+        <v>779</v>
       </c>
       <c r="B153" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="D153" s="56" t="s">
+        <v>710</v>
+      </c>
+      <c r="D153" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="E153" s="56" t="s">
-        <v>1176</v>
+      <c r="E153" s="4" t="s">
+        <v>1261</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>1178</v>
+        <v>1157</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>1075</v>
+        <v>1043</v>
       </c>
       <c r="H153" s="126" t="s">
-        <v>1076</v>
+        <v>1044</v>
       </c>
       <c r="I153" s="126"/>
       <c r="J153" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K153" s="4"/>
       <c r="L153" s="4" t="s">
@@ -20544,28 +20896,28 @@
     </row>
     <row r="154" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4" t="s">
-        <v>766</v>
+        <v>780</v>
       </c>
       <c r="B154" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="D154" s="56" t="s">
+        <v>710</v>
+      </c>
+      <c r="D154" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="E154" s="56" t="s">
-        <v>1215</v>
+      <c r="E154" s="4" t="s">
+        <v>1277</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>1253</v>
+        <v>1045</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>1216</v>
+        <v>1046</v>
       </c>
       <c r="H154" s="126" t="s">
-        <v>1268</v>
+        <v>1047</v>
       </c>
       <c r="I154" s="126"/>
       <c r="J154" s="4" t="s">
@@ -20589,28 +20941,28 @@
     </row>
     <row r="155" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="B155" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>542</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>1269</v>
+        <v>1272</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>1162</v>
+        <v>1048</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>1041</v>
+        <v>1049</v>
       </c>
       <c r="H155" s="126" t="s">
-        <v>1042</v>
+        <v>1052</v>
       </c>
       <c r="I155" s="126"/>
       <c r="J155" s="4" t="s">
@@ -20634,28 +20986,28 @@
     </row>
     <row r="156" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4" t="s">
-        <v>772</v>
+        <v>816</v>
       </c>
       <c r="B156" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="D156" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="D156" s="56" t="s">
         <v>542</v>
       </c>
-      <c r="E156" s="4" t="s">
-        <v>905</v>
+      <c r="E156" s="56" t="s">
+        <v>900</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>1043</v>
+        <v>1158</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>1044</v>
+        <v>1160</v>
       </c>
       <c r="H156" s="126" t="s">
-        <v>1045</v>
+        <v>869</v>
       </c>
       <c r="I156" s="126"/>
       <c r="J156" s="4" t="s">
@@ -20679,32 +21031,32 @@
     </row>
     <row r="157" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4" t="s">
-        <v>773</v>
+        <v>913</v>
       </c>
       <c r="B157" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="D157" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="D157" s="56" t="s">
         <v>542</v>
       </c>
-      <c r="E157" s="4" t="s">
-        <v>712</v>
+      <c r="E157" s="56" t="s">
+        <v>900</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>1046</v>
+        <v>1159</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>1047</v>
+        <v>1093</v>
       </c>
       <c r="H157" s="126" t="s">
-        <v>1050</v>
+        <v>1094</v>
       </c>
       <c r="I157" s="126"/>
       <c r="J157" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K157" s="4"/>
       <c r="L157" s="4" t="s">
@@ -20724,30 +21076,32 @@
     </row>
     <row r="158" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4" t="s">
-        <v>766</v>
+        <v>914</v>
       </c>
       <c r="B158" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="D158" s="56" t="s">
+        <v>710</v>
+      </c>
+      <c r="D158" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="E158" s="56" t="s">
-        <v>897</v>
+      <c r="E158" s="4" t="s">
+        <v>1272</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>1163</v>
+        <v>908</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>1165</v>
+        <v>716</v>
       </c>
       <c r="H158" s="126" t="s">
-        <v>866</v>
-      </c>
-      <c r="I158" s="126"/>
+        <v>891</v>
+      </c>
+      <c r="I158" s="126" t="s">
+        <v>718</v>
+      </c>
       <c r="J158" s="4" t="s">
         <v>43</v>
       </c>
@@ -20769,32 +21123,34 @@
     </row>
     <row r="159" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4" t="s">
-        <v>767</v>
+        <v>915</v>
       </c>
       <c r="B159" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="D159" s="56" t="s">
+        <v>710</v>
+      </c>
+      <c r="D159" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="E159" s="56" t="s">
-        <v>897</v>
+      <c r="E159" s="4" t="s">
+        <v>1272</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>1164</v>
+        <v>909</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>1091</v>
+        <v>715</v>
       </c>
       <c r="H159" s="126" t="s">
-        <v>1092</v>
-      </c>
-      <c r="I159" s="126"/>
+        <v>892</v>
+      </c>
+      <c r="I159" s="126" t="s">
+        <v>717</v>
+      </c>
       <c r="J159" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K159" s="4"/>
       <c r="L159" s="4" t="s">
@@ -20814,34 +21170,34 @@
     </row>
     <row r="160" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4" t="s">
-        <v>774</v>
+        <v>916</v>
       </c>
       <c r="B160" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="D160" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="D160" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>712</v>
+        <v>1272</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>906</v>
+        <v>1188</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>714</v>
+        <v>1189</v>
       </c>
       <c r="H160" s="126" t="s">
-        <v>888</v>
+        <v>1102</v>
       </c>
       <c r="I160" s="126" t="s">
-        <v>716</v>
+        <v>1190</v>
       </c>
       <c r="J160" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K160" s="4"/>
       <c r="L160" s="4" t="s">
@@ -20861,34 +21217,34 @@
     </row>
     <row r="161" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4" t="s">
-        <v>775</v>
+        <v>917</v>
       </c>
       <c r="B161" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="D161" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="D161" s="56" t="s">
         <v>542</v>
       </c>
-      <c r="E161" s="4" t="s">
-        <v>712</v>
+      <c r="E161" s="56" t="s">
+        <v>1274</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>907</v>
+        <v>1168</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>713</v>
+        <v>1109</v>
       </c>
       <c r="H161" s="126" t="s">
-        <v>889</v>
+        <v>1169</v>
       </c>
       <c r="I161" s="126" t="s">
-        <v>715</v>
+        <v>1177</v>
       </c>
       <c r="J161" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K161" s="4"/>
       <c r="L161" s="4" t="s">
@@ -20908,34 +21264,32 @@
     </row>
     <row r="162" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4" t="s">
-        <v>722</v>
+        <v>918</v>
       </c>
       <c r="B162" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D162" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E162" s="56" t="s">
-        <v>1194</v>
+        <v>1170</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>1195</v>
+        <v>1176</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>1196</v>
+        <v>1077</v>
       </c>
       <c r="H162" s="126" t="s">
-        <v>1100</v>
-      </c>
-      <c r="I162" s="126" t="s">
-        <v>1197</v>
-      </c>
+        <v>1078</v>
+      </c>
+      <c r="I162" s="126"/>
       <c r="J162" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K162" s="4"/>
       <c r="L162" s="4" t="s">
@@ -20955,31 +21309,31 @@
     </row>
     <row r="163" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4" t="s">
-        <v>672</v>
+        <v>919</v>
       </c>
       <c r="B163" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D163" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E163" s="56" t="s">
-        <v>1166</v>
+        <v>1273</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>1110</v>
+        <v>885</v>
       </c>
       <c r="H163" s="126" t="s">
         <v>1175</v>
       </c>
       <c r="I163" s="126" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="J163" s="4" t="s">
         <v>45</v>
@@ -21002,22 +21356,22 @@
     </row>
     <row r="164" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4" t="s">
-        <v>661</v>
+        <v>920</v>
       </c>
       <c r="B164" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D164" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E164" s="56" t="s">
-        <v>1176</v>
+        <v>1274</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="G164" s="4" t="s">
         <v>1075</v>
@@ -21047,34 +21401,32 @@
     </row>
     <row r="165" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4" t="s">
-        <v>658</v>
+        <v>921</v>
       </c>
       <c r="B165" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="D165" s="56" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D165" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="E165" s="56" t="s">
-        <v>1059</v>
+      <c r="E165" s="4" t="s">
+        <v>714</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>1179</v>
+        <v>1269</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>882</v>
+        <v>1270</v>
       </c>
       <c r="H165" s="126" t="s">
-        <v>1181</v>
-      </c>
-      <c r="I165" s="126" t="s">
-        <v>1184</v>
-      </c>
+        <v>1271</v>
+      </c>
+      <c r="I165" s="126"/>
       <c r="J165" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K165" s="4"/>
       <c r="L165" s="4" t="s">
@@ -21094,32 +21446,32 @@
     </row>
     <row r="166" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4" t="s">
-        <v>659</v>
+        <v>922</v>
       </c>
       <c r="B166" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="D166" s="56" t="s">
+        <v>710</v>
+      </c>
+      <c r="D166" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="E166" s="56" t="s">
-        <v>789</v>
+      <c r="E166" s="4" t="s">
+        <v>1272</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>1180</v>
+        <v>1053</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>1073</v>
+        <v>890</v>
       </c>
       <c r="H166" s="126" t="s">
-        <v>1074</v>
+        <v>719</v>
       </c>
       <c r="I166" s="126"/>
       <c r="J166" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K166" s="4"/>
       <c r="L166" s="4" t="s">
@@ -21139,32 +21491,32 @@
     </row>
     <row r="167" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4" t="s">
-        <v>776</v>
+        <v>923</v>
       </c>
       <c r="B167" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>542</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>712</v>
+        <v>1272</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>887</v>
+        <v>1055</v>
       </c>
       <c r="H167" s="126" t="s">
-        <v>717</v>
+        <v>1056</v>
       </c>
       <c r="I167" s="126"/>
       <c r="J167" s="4" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="K167" s="4"/>
       <c r="L167" s="4" t="s">
@@ -21184,32 +21536,32 @@
     </row>
     <row r="168" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4" t="s">
-        <v>777</v>
+        <v>924</v>
       </c>
       <c r="B168" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>542</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>712</v>
+        <v>1272</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>1052</v>
+        <v>1179</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>1053</v>
+        <v>1180</v>
       </c>
       <c r="H168" s="126" t="s">
-        <v>1054</v>
+        <v>1181</v>
       </c>
       <c r="I168" s="126"/>
       <c r="J168" s="4" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="K168" s="4"/>
       <c r="L168" s="4" t="s">
@@ -21229,30 +21581,32 @@
     </row>
     <row r="169" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4" t="s">
-        <v>778</v>
+        <v>925</v>
       </c>
       <c r="B169" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="D169" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="D169" s="56" t="s">
         <v>542</v>
       </c>
-      <c r="E169" s="4" t="s">
-        <v>712</v>
+      <c r="E169" s="56" t="s">
+        <v>1236</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="G169" s="4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="H169" s="126" t="s">
         <v>1186</v>
       </c>
-      <c r="H169" s="126" t="s">
+      <c r="I169" s="126" t="s">
         <v>1187</v>
       </c>
-      <c r="I169" s="126"/>
       <c r="J169" s="4" t="s">
         <v>43</v>
       </c>
@@ -21274,31 +21628,31 @@
     </row>
     <row r="170" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4" t="s">
-        <v>763</v>
+        <v>926</v>
       </c>
       <c r="B170" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D170" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E170" s="56" t="s">
-        <v>1244</v>
+        <v>1236</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="H170" s="126" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
       <c r="I170" s="126" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="J170" s="4" t="s">
         <v>43</v>
@@ -21321,34 +21675,32 @@
     </row>
     <row r="171" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4" t="s">
-        <v>764</v>
+        <v>927</v>
       </c>
       <c r="B171" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D171" s="56" t="s">
         <v>542</v>
       </c>
       <c r="E171" s="56" t="s">
-        <v>1244</v>
+        <v>1236</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>1190</v>
+        <v>1115</v>
       </c>
       <c r="H171" s="126" t="s">
-        <v>1191</v>
-      </c>
-      <c r="I171" s="126" t="s">
         <v>1193</v>
       </c>
+      <c r="I171" s="126"/>
       <c r="J171" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K171" s="4"/>
       <c r="L171" s="4" t="s">
@@ -21368,32 +21720,32 @@
     </row>
     <row r="172" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4" t="s">
-        <v>765</v>
+        <v>928</v>
       </c>
       <c r="B172" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>708</v>
-      </c>
-      <c r="D172" s="56" t="s">
+        <v>710</v>
+      </c>
+      <c r="D172" s="4" t="s">
         <v>542</v>
       </c>
       <c r="E172" s="56" t="s">
-        <v>1244</v>
+        <v>1236</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>1199</v>
+        <v>886</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>1119</v>
+        <v>887</v>
       </c>
       <c r="H172" s="126" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="I172" s="126"/>
       <c r="J172" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K172" s="4"/>
       <c r="L172" s="4" t="s">
@@ -21413,32 +21765,32 @@
     </row>
     <row r="173" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4" t="s">
-        <v>770</v>
+        <v>929</v>
       </c>
       <c r="B173" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>542</v>
       </c>
       <c r="E173" s="56" t="s">
-        <v>1244</v>
+        <v>1236</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="H173" s="126" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="I173" s="126"/>
       <c r="J173" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K173" s="4"/>
       <c r="L173" s="4" t="s">
@@ -21458,32 +21810,32 @@
     </row>
     <row r="174" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4" t="s">
-        <v>771</v>
+        <v>930</v>
       </c>
       <c r="B174" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>708</v>
+        <v>1196</v>
       </c>
       <c r="D174" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="E174" s="56" t="s">
-        <v>1244</v>
+      <c r="E174" s="4" t="s">
+        <v>1275</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>886</v>
+        <v>1206</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>885</v>
+        <v>910</v>
       </c>
       <c r="H174" s="126" t="s">
         <v>1202</v>
       </c>
       <c r="I174" s="126"/>
       <c r="J174" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K174" s="4"/>
       <c r="L174" s="4" t="s">
@@ -21503,28 +21855,28 @@
     </row>
     <row r="175" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4" t="s">
-        <v>813</v>
+        <v>948</v>
       </c>
       <c r="B175" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="D175" s="4" t="s">
         <v>542</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>712</v>
+        <v>1276</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>1214</v>
+        <v>720</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="H175" s="126" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="I175" s="126"/>
       <c r="J175" s="4" t="s">
@@ -21548,28 +21900,28 @@
     </row>
     <row r="176" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4" t="s">
-        <v>911</v>
+        <v>949</v>
       </c>
       <c r="B176" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="D176" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="E176" s="4" t="s">
-        <v>712</v>
+      <c r="E176" s="56" t="s">
+        <v>1262</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>718</v>
+        <v>1050</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>909</v>
+        <v>721</v>
       </c>
       <c r="H176" s="126" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="I176" s="126"/>
       <c r="J176" s="4" t="s">
@@ -21593,28 +21945,28 @@
     </row>
     <row r="177" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4" t="s">
-        <v>912</v>
+        <v>950</v>
       </c>
       <c r="B177" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>542</v>
       </c>
       <c r="E177" s="56" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="H177" s="126" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="I177" s="126"/>
       <c r="J177" s="4" t="s">
@@ -21638,28 +21990,28 @@
     </row>
     <row r="178" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4" t="s">
-        <v>913</v>
+        <v>951</v>
       </c>
       <c r="B178" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="D178" s="4" t="s">
         <v>542</v>
       </c>
       <c r="E178" s="56" t="s">
-        <v>1270</v>
+        <v>1263</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>1049</v>
+        <v>1200</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>719</v>
+        <v>1201</v>
       </c>
       <c r="H178" s="126" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="I178" s="126"/>
       <c r="J178" s="4" t="s">
@@ -21683,28 +22035,28 @@
     </row>
     <row r="179" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4" t="s">
-        <v>914</v>
+        <v>999</v>
       </c>
       <c r="B179" s="117" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="E179" s="56" t="s">
-        <v>1271</v>
+      <c r="E179" s="4" t="s">
+        <v>1281</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="H179" s="126" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="I179" s="126"/>
       <c r="J179" s="4" t="s">
@@ -21728,36 +22080,36 @@
     </row>
     <row r="180" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4" t="s">
-        <v>915</v>
-      </c>
-      <c r="B180" s="117" t="s">
-        <v>707</v>
+        <v>1000</v>
+      </c>
+      <c r="B180" s="120" t="s">
+        <v>1283</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>1203</v>
+        <v>1280</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>542</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>1207</v>
+        <v>1310</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>1211</v>
+        <v>1311</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>1212</v>
+        <v>1312</v>
       </c>
       <c r="H180" s="126" t="s">
-        <v>1213</v>
+        <v>1284</v>
       </c>
       <c r="I180" s="126"/>
       <c r="J180" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K180" s="4"/>
       <c r="L180" s="4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M180" s="4"/>
       <c r="N180" s="4"/>
@@ -21773,19 +22125,37 @@
     </row>
     <row r="181" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4" t="s">
-        <v>915</v>
-      </c>
-      <c r="B181" s="4"/>
-      <c r="C181" s="4"/>
-      <c r="D181" s="4"/>
-      <c r="E181" s="4"/>
-      <c r="F181" s="4"/>
-      <c r="G181" s="4"/>
-      <c r="H181" s="126"/>
+        <v>1001</v>
+      </c>
+      <c r="B181" s="120" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>1313</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>1314</v>
+      </c>
+      <c r="H181" s="126" t="s">
+        <v>1315</v>
+      </c>
       <c r="I181" s="126"/>
-      <c r="J181" s="4"/>
+      <c r="J181" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="K181" s="4"/>
-      <c r="L181" s="4"/>
+      <c r="L181" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="M181" s="4"/>
       <c r="N181" s="4"/>
       <c r="O181" s="4"/>
@@ -21800,19 +22170,37 @@
     </row>
     <row r="182" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4" t="s">
-        <v>916</v>
-      </c>
-      <c r="B182" s="4"/>
-      <c r="C182" s="4"/>
-      <c r="D182" s="4"/>
-      <c r="E182" s="4"/>
-      <c r="F182" s="4"/>
-      <c r="G182" s="4"/>
-      <c r="H182" s="126"/>
+        <v>1002</v>
+      </c>
+      <c r="B182" s="120" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H182" s="126" t="s">
+        <v>1319</v>
+      </c>
       <c r="I182" s="126"/>
-      <c r="J182" s="4"/>
+      <c r="J182" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="K182" s="4"/>
-      <c r="L182" s="4"/>
+      <c r="L182" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="M182" s="4"/>
       <c r="N182" s="4"/>
       <c r="O182" s="4"/>
@@ -21827,19 +22215,37 @@
     </row>
     <row r="183" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4" t="s">
-        <v>917</v>
-      </c>
-      <c r="B183" s="4"/>
-      <c r="C183" s="4"/>
-      <c r="D183" s="4"/>
-      <c r="E183" s="4"/>
-      <c r="F183" s="4"/>
-      <c r="G183" s="4"/>
-      <c r="H183" s="126"/>
+        <v>1003</v>
+      </c>
+      <c r="B183" s="120" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>1320</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>1318</v>
+      </c>
+      <c r="H183" s="126" t="s">
+        <v>1323</v>
+      </c>
       <c r="I183" s="126"/>
-      <c r="J183" s="4"/>
+      <c r="J183" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="K183" s="4"/>
-      <c r="L183" s="4"/>
+      <c r="L183" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="M183" s="4"/>
       <c r="N183" s="4"/>
       <c r="O183" s="4"/>
@@ -21854,19 +22260,37 @@
     </row>
     <row r="184" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4" t="s">
-        <v>918</v>
-      </c>
-      <c r="B184" s="4"/>
-      <c r="C184" s="4"/>
-      <c r="D184" s="4"/>
-      <c r="E184" s="4"/>
-      <c r="F184" s="4"/>
-      <c r="G184" s="4"/>
-      <c r="H184" s="126"/>
+        <v>1004</v>
+      </c>
+      <c r="B184" s="120" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G184" s="4" t="s">
+        <v>1322</v>
+      </c>
+      <c r="H184" s="126" t="s">
+        <v>1324</v>
+      </c>
       <c r="I184" s="126"/>
-      <c r="J184" s="4"/>
+      <c r="J184" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="K184" s="4"/>
-      <c r="L184" s="4"/>
+      <c r="L184" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="M184" s="4"/>
       <c r="N184" s="4"/>
       <c r="O184" s="4"/>
@@ -21881,19 +22305,37 @@
     </row>
     <row r="185" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4" t="s">
-        <v>919</v>
-      </c>
-      <c r="B185" s="4"/>
-      <c r="C185" s="4"/>
-      <c r="D185" s="4"/>
-      <c r="E185" s="4"/>
-      <c r="F185" s="4"/>
-      <c r="G185" s="4"/>
-      <c r="H185" s="126"/>
+        <v>1005</v>
+      </c>
+      <c r="B185" s="120" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G185" s="4" t="s">
+        <v>1326</v>
+      </c>
+      <c r="H185" s="126" t="s">
+        <v>1327</v>
+      </c>
       <c r="I185" s="126"/>
-      <c r="J185" s="4"/>
+      <c r="J185" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="K185" s="4"/>
-      <c r="L185" s="4"/>
+      <c r="L185" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="M185" s="4"/>
       <c r="N185" s="4"/>
       <c r="O185" s="4"/>
@@ -21908,19 +22350,37 @@
     </row>
     <row r="186" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4" t="s">
-        <v>920</v>
-      </c>
-      <c r="B186" s="4"/>
-      <c r="C186" s="4"/>
-      <c r="D186" s="4"/>
-      <c r="E186" s="4"/>
-      <c r="F186" s="4"/>
-      <c r="G186" s="4"/>
-      <c r="H186" s="126"/>
+        <v>1006</v>
+      </c>
+      <c r="B186" s="120" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>1328</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>1329</v>
+      </c>
+      <c r="H186" s="126" t="s">
+        <v>1330</v>
+      </c>
       <c r="I186" s="126"/>
-      <c r="J186" s="4"/>
+      <c r="J186" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="K186" s="4"/>
-      <c r="L186" s="4"/>
+      <c r="L186" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="M186" s="4"/>
       <c r="N186" s="4"/>
       <c r="O186" s="4"/>
@@ -21935,19 +22395,37 @@
     </row>
     <row r="187" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4" t="s">
-        <v>921</v>
-      </c>
-      <c r="B187" s="4"/>
-      <c r="C187" s="4"/>
-      <c r="D187" s="4"/>
-      <c r="E187" s="4"/>
-      <c r="F187" s="4"/>
-      <c r="G187" s="4"/>
-      <c r="H187" s="126"/>
+        <v>1007</v>
+      </c>
+      <c r="B187" s="120" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>1333</v>
+      </c>
+      <c r="G187" s="4" t="s">
+        <v>1331</v>
+      </c>
+      <c r="H187" s="126" t="s">
+        <v>1332</v>
+      </c>
       <c r="I187" s="126"/>
-      <c r="J187" s="4"/>
+      <c r="J187" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="K187" s="4"/>
-      <c r="L187" s="4"/>
+      <c r="L187" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="M187" s="4"/>
       <c r="N187" s="4"/>
       <c r="O187" s="4"/>
@@ -21962,19 +22440,37 @@
     </row>
     <row r="188" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4" t="s">
-        <v>922</v>
-      </c>
-      <c r="B188" s="4"/>
-      <c r="C188" s="4"/>
-      <c r="D188" s="4"/>
-      <c r="E188" s="4"/>
-      <c r="F188" s="4"/>
-      <c r="G188" s="4"/>
-      <c r="H188" s="126"/>
+        <v>1008</v>
+      </c>
+      <c r="B188" s="135" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>1340</v>
+      </c>
+      <c r="G188" s="4" t="s">
+        <v>1341</v>
+      </c>
+      <c r="H188" s="126" t="s">
+        <v>1342</v>
+      </c>
       <c r="I188" s="126"/>
-      <c r="J188" s="4"/>
+      <c r="J188" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="K188" s="4"/>
-      <c r="L188" s="4"/>
+      <c r="L188" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M188" s="4"/>
       <c r="N188" s="4"/>
       <c r="O188" s="4"/>
@@ -21989,19 +22485,37 @@
     </row>
     <row r="189" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4" t="s">
-        <v>923</v>
-      </c>
-      <c r="B189" s="4"/>
-      <c r="C189" s="4"/>
-      <c r="D189" s="4"/>
-      <c r="E189" s="4"/>
-      <c r="F189" s="4"/>
-      <c r="G189" s="4"/>
-      <c r="H189" s="126"/>
+        <v>1009</v>
+      </c>
+      <c r="B189" s="135" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G189" s="4" t="s">
+        <v>1344</v>
+      </c>
+      <c r="H189" s="126" t="s">
+        <v>1351</v>
+      </c>
       <c r="I189" s="126"/>
-      <c r="J189" s="4"/>
+      <c r="J189" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="K189" s="4"/>
-      <c r="L189" s="4"/>
+      <c r="L189" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M189" s="4"/>
       <c r="N189" s="4"/>
       <c r="O189" s="4"/>
@@ -22016,19 +22530,37 @@
     </row>
     <row r="190" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4" t="s">
-        <v>924</v>
-      </c>
-      <c r="B190" s="4"/>
-      <c r="C190" s="4"/>
-      <c r="D190" s="4"/>
-      <c r="E190" s="4"/>
-      <c r="F190" s="4"/>
-      <c r="G190" s="4"/>
-      <c r="H190" s="126"/>
+        <v>1124</v>
+      </c>
+      <c r="B190" s="135" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="G190" s="4" t="s">
+        <v>1346</v>
+      </c>
+      <c r="H190" s="126" t="s">
+        <v>1347</v>
+      </c>
       <c r="I190" s="126"/>
-      <c r="J190" s="4"/>
+      <c r="J190" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="K190" s="4"/>
-      <c r="L190" s="4"/>
+      <c r="L190" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M190" s="4"/>
       <c r="N190" s="4"/>
       <c r="O190" s="4"/>
@@ -22043,19 +22575,37 @@
     </row>
     <row r="191" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="B191" s="4"/>
-      <c r="C191" s="4"/>
-      <c r="D191" s="4"/>
-      <c r="E191" s="4"/>
-      <c r="F191" s="4"/>
-      <c r="G191" s="4"/>
-      <c r="H191" s="126"/>
+        <v>1125</v>
+      </c>
+      <c r="B191" s="135" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>1352</v>
+      </c>
+      <c r="G191" s="4" t="s">
+        <v>1344</v>
+      </c>
+      <c r="H191" s="126" t="s">
+        <v>1353</v>
+      </c>
       <c r="I191" s="126"/>
-      <c r="J191" s="4"/>
+      <c r="J191" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="K191" s="4"/>
-      <c r="L191" s="4"/>
+      <c r="L191" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M191" s="4"/>
       <c r="N191" s="4"/>
       <c r="O191" s="4"/>
@@ -22070,19 +22620,37 @@
     </row>
     <row r="192" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4" t="s">
-        <v>926</v>
-      </c>
-      <c r="B192" s="4"/>
-      <c r="C192" s="4"/>
-      <c r="D192" s="4"/>
-      <c r="E192" s="4"/>
-      <c r="F192" s="4"/>
-      <c r="G192" s="4"/>
-      <c r="H192" s="126"/>
+        <v>1126</v>
+      </c>
+      <c r="B192" s="135" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>1354</v>
+      </c>
+      <c r="G192" s="4" t="s">
+        <v>1346</v>
+      </c>
+      <c r="H192" s="126" t="s">
+        <v>1347</v>
+      </c>
       <c r="I192" s="126"/>
-      <c r="J192" s="4"/>
+      <c r="J192" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="K192" s="4"/>
-      <c r="L192" s="4"/>
+      <c r="L192" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M192" s="4"/>
       <c r="N192" s="4"/>
       <c r="O192" s="4"/>
@@ -22097,19 +22665,37 @@
     </row>
     <row r="193" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4" t="s">
-        <v>927</v>
-      </c>
-      <c r="B193" s="4"/>
-      <c r="C193" s="4"/>
-      <c r="D193" s="4"/>
-      <c r="E193" s="4"/>
-      <c r="F193" s="4"/>
-      <c r="G193" s="4"/>
-      <c r="H193" s="126"/>
+        <v>1127</v>
+      </c>
+      <c r="B193" s="135" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>1349</v>
+      </c>
+      <c r="H193" s="126" t="s">
+        <v>1350</v>
+      </c>
       <c r="I193" s="126"/>
-      <c r="J193" s="4"/>
+      <c r="J193" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="K193" s="4"/>
-      <c r="L193" s="4"/>
+      <c r="L193" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M193" s="4"/>
       <c r="N193" s="4"/>
       <c r="O193" s="4"/>
@@ -22124,19 +22710,39 @@
     </row>
     <row r="194" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4" t="s">
-        <v>928</v>
-      </c>
-      <c r="B194" s="4"/>
-      <c r="C194" s="4"/>
-      <c r="D194" s="4"/>
-      <c r="E194" s="4"/>
-      <c r="F194" s="4"/>
-      <c r="G194" s="4"/>
-      <c r="H194" s="126"/>
-      <c r="I194" s="126"/>
-      <c r="J194" s="4"/>
+        <v>1128</v>
+      </c>
+      <c r="B194" s="135" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G194" s="4" t="s">
+        <v>1356</v>
+      </c>
+      <c r="H194" s="126" t="s">
+        <v>1357</v>
+      </c>
+      <c r="I194" s="126" t="s">
+        <v>1358</v>
+      </c>
+      <c r="J194" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="K194" s="4"/>
-      <c r="L194" s="4"/>
+      <c r="L194" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M194" s="4"/>
       <c r="N194" s="4"/>
       <c r="O194" s="4"/>
@@ -22151,19 +22757,37 @@
     </row>
     <row r="195" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4" t="s">
-        <v>946</v>
-      </c>
-      <c r="B195" s="4"/>
-      <c r="C195" s="4"/>
-      <c r="D195" s="4"/>
-      <c r="E195" s="4"/>
-      <c r="F195" s="4"/>
-      <c r="G195" s="4"/>
-      <c r="H195" s="126"/>
+        <v>1129</v>
+      </c>
+      <c r="B195" s="135" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>1360</v>
+      </c>
+      <c r="G195" s="4" t="s">
+        <v>1359</v>
+      </c>
+      <c r="H195" s="126" t="s">
+        <v>1361</v>
+      </c>
       <c r="I195" s="126"/>
-      <c r="J195" s="4"/>
+      <c r="J195" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="K195" s="4"/>
-      <c r="L195" s="4"/>
+      <c r="L195" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="M195" s="4"/>
       <c r="N195" s="4"/>
       <c r="O195" s="4"/>
@@ -22177,10 +22801,8 @@
       <c r="W195" s="4"/>
     </row>
     <row r="196" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A196" s="4" t="s">
-        <v>947</v>
-      </c>
-      <c r="B196" s="4"/>
+      <c r="A196" s="4"/>
+      <c r="B196" s="135"/>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
@@ -22205,7 +22827,7 @@
     </row>
     <row r="197" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4" t="s">
-        <v>948</v>
+        <v>1130</v>
       </c>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -22232,7 +22854,7 @@
     </row>
     <row r="198" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4" t="s">
-        <v>949</v>
+        <v>1131</v>
       </c>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -22259,7 +22881,7 @@
     </row>
     <row r="199" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4" t="s">
-        <v>997</v>
+        <v>1132</v>
       </c>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -22286,7 +22908,7 @@
     </row>
     <row r="200" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4" t="s">
-        <v>998</v>
+        <v>1133</v>
       </c>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -22313,7 +22935,7 @@
     </row>
     <row r="201" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4" t="s">
-        <v>999</v>
+        <v>1134</v>
       </c>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -22340,7 +22962,7 @@
     </row>
     <row r="202" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4" t="s">
-        <v>1000</v>
+        <v>1135</v>
       </c>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -22367,7 +22989,7 @@
     </row>
     <row r="203" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4" t="s">
-        <v>1001</v>
+        <v>1136</v>
       </c>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -22394,7 +23016,7 @@
     </row>
     <row r="204" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4" t="s">
-        <v>1002</v>
+        <v>1137</v>
       </c>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -22421,7 +23043,7 @@
     </row>
     <row r="205" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4" t="s">
-        <v>1003</v>
+        <v>1138</v>
       </c>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -22448,7 +23070,7 @@
     </row>
     <row r="206" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4" t="s">
-        <v>1004</v>
+        <v>1139</v>
       </c>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -22475,7 +23097,7 @@
     </row>
     <row r="207" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4" t="s">
-        <v>1005</v>
+        <v>1140</v>
       </c>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -22502,7 +23124,7 @@
     </row>
     <row r="208" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4" t="s">
-        <v>1006</v>
+        <v>1141</v>
       </c>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -22529,7 +23151,7 @@
     </row>
     <row r="209" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4" t="s">
-        <v>1007</v>
+        <v>1142</v>
       </c>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -22556,7 +23178,7 @@
     </row>
     <row r="210" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4" t="s">
-        <v>1128</v>
+        <v>1143</v>
       </c>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -22583,7 +23205,7 @@
     </row>
     <row r="211" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4" t="s">
-        <v>1129</v>
+        <v>1144</v>
       </c>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -22610,7 +23232,7 @@
     </row>
     <row r="212" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4" t="s">
-        <v>1130</v>
+        <v>1145</v>
       </c>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -22637,7 +23259,7 @@
     </row>
     <row r="213" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4" t="s">
-        <v>1131</v>
+        <v>1146</v>
       </c>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -22664,7 +23286,7 @@
     </row>
     <row r="214" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4" t="s">
-        <v>1132</v>
+        <v>1147</v>
       </c>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -22691,7 +23313,7 @@
     </row>
     <row r="215" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4" t="s">
-        <v>1133</v>
+        <v>1148</v>
       </c>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -22718,7 +23340,7 @@
     </row>
     <row r="216" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4" t="s">
-        <v>1134</v>
+        <v>1149</v>
       </c>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -22745,7 +23367,7 @@
     </row>
     <row r="217" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4" t="s">
-        <v>1135</v>
+        <v>1150</v>
       </c>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -22772,7 +23394,7 @@
     </row>
     <row r="218" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4" t="s">
-        <v>1136</v>
+        <v>1151</v>
       </c>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -22799,7 +23421,7 @@
     </row>
     <row r="219" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4" t="s">
-        <v>1137</v>
+        <v>1152</v>
       </c>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -22826,7 +23448,7 @@
     </row>
     <row r="220" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4" t="s">
-        <v>1138</v>
+        <v>1291</v>
       </c>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -22853,7 +23475,7 @@
     </row>
     <row r="221" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4" t="s">
-        <v>1139</v>
+        <v>1292</v>
       </c>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -22880,7 +23502,7 @@
     </row>
     <row r="222" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4" t="s">
-        <v>1140</v>
+        <v>1293</v>
       </c>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -22907,7 +23529,7 @@
     </row>
     <row r="223" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4" t="s">
-        <v>1141</v>
+        <v>1294</v>
       </c>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -22934,7 +23556,7 @@
     </row>
     <row r="224" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4" t="s">
-        <v>1142</v>
+        <v>1295</v>
       </c>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -22961,7 +23583,7 @@
     </row>
     <row r="225" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4" t="s">
-        <v>1143</v>
+        <v>1296</v>
       </c>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -22988,7 +23610,7 @@
     </row>
     <row r="226" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4" t="s">
-        <v>1144</v>
+        <v>1297</v>
       </c>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -23015,7 +23637,7 @@
     </row>
     <row r="227" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4" t="s">
-        <v>1145</v>
+        <v>1298</v>
       </c>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -23042,7 +23664,7 @@
     </row>
     <row r="228" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4" t="s">
-        <v>1146</v>
+        <v>1299</v>
       </c>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -23069,7 +23691,7 @@
     </row>
     <row r="229" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4" t="s">
-        <v>1147</v>
+        <v>1300</v>
       </c>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -23096,7 +23718,7 @@
     </row>
     <row r="230" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4" t="s">
-        <v>1148</v>
+        <v>1301</v>
       </c>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -23123,7 +23745,7 @@
     </row>
     <row r="231" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4" t="s">
-        <v>1149</v>
+        <v>1302</v>
       </c>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -23150,7 +23772,7 @@
     </row>
     <row r="232" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4" t="s">
-        <v>1150</v>
+        <v>1303</v>
       </c>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -23177,7 +23799,7 @@
     </row>
     <row r="233" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4" t="s">
-        <v>1151</v>
+        <v>1304</v>
       </c>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -23204,7 +23826,7 @@
     </row>
     <row r="234" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4" t="s">
-        <v>1152</v>
+        <v>1305</v>
       </c>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -23231,7 +23853,7 @@
     </row>
     <row r="235" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4" t="s">
-        <v>1153</v>
+        <v>1306</v>
       </c>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -23258,7 +23880,7 @@
     </row>
     <row r="236" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4" t="s">
-        <v>1154</v>
+        <v>1307</v>
       </c>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -23285,7 +23907,7 @@
     </row>
     <row r="237" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4" t="s">
-        <v>1155</v>
+        <v>1308</v>
       </c>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -23312,7 +23934,7 @@
     </row>
     <row r="238" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4" t="s">
-        <v>1156</v>
+        <v>1309</v>
       </c>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -23337,33 +23959,6 @@
       <c r="V238" s="4"/>
       <c r="W238" s="4"/>
     </row>
-    <row r="239" spans="1:23" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A239" s="4" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B239" s="4"/>
-      <c r="C239" s="4"/>
-      <c r="D239" s="4"/>
-      <c r="E239" s="4"/>
-      <c r="F239" s="4"/>
-      <c r="G239" s="4"/>
-      <c r="H239" s="126"/>
-      <c r="I239" s="126"/>
-      <c r="J239" s="4"/>
-      <c r="K239" s="4"/>
-      <c r="L239" s="4"/>
-      <c r="M239" s="4"/>
-      <c r="N239" s="4"/>
-      <c r="O239" s="4"/>
-      <c r="P239" s="4"/>
-      <c r="Q239" s="4"/>
-      <c r="R239" s="4"/>
-      <c r="S239" s="4"/>
-      <c r="T239" s="54"/>
-      <c r="U239" s="4"/>
-      <c r="V239" s="4"/>
-      <c r="W239" s="4"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23375,49 +23970,49 @@
           <x14:formula1>
             <xm:f>Sheet2!$M$4:$M$6</xm:f>
           </x14:formula1>
-          <xm:sqref>S3:S239</xm:sq